--- a/code/vocab_csv/tech.xlsx
+++ b/code/vocab_csv/tech.xlsx
@@ -442,7 +442,7 @@
     <t>tech:SecurityTechnology</t>
   </si>
   <si>
-    <t>Harshvardhan J. Pandit, Julian Flake, Georg P Krog, Paul Ryan</t>
+    <t>Harshvardhan J. Pandit, Julian Flake, Georg P. Krog, Paul Ryan</t>
   </si>
   <si>
     <t>DetectionSecurityTechnology</t>

--- a/code/vocab_csv/tech.xlsx
+++ b/code/vocab_csv/tech.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1279" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1278" uniqueCount="509">
   <si>
     <t>Term</t>
   </si>
@@ -202,9 +202,6 @@
   </si>
   <si>
     <t>tech:TechnologyActor</t>
-  </si>
-  <si>
-    <t>modified</t>
   </si>
   <si>
     <t>hasProvisionMethod</t>
@@ -2732,10 +2729,10 @@
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -2750,13 +2747,13 @@
     </row>
     <row r="4">
       <c r="A4" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>422</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>422</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>423</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="21" t="s">
@@ -2796,16 +2793,16 @@
     </row>
     <row r="5">
       <c r="A5" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>424</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="C5" s="6" t="s">
         <v>425</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="D5" s="6" t="s">
         <v>426</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>427</v>
       </c>
       <c r="E5" s="21" t="s">
         <v>55</v>
@@ -2844,16 +2841,16 @@
     </row>
     <row r="6">
       <c r="A6" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>428</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>428</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>429</v>
-      </c>
       <c r="D6" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E6" s="21" t="s">
         <v>55</v>
@@ -2892,16 +2889,16 @@
     </row>
     <row r="7">
       <c r="A7" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>430</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>430</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>431</v>
-      </c>
       <c r="D7" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E7" s="21" t="s">
         <v>55</v>
@@ -2940,16 +2937,16 @@
     </row>
     <row r="8">
       <c r="A8" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>432</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>432</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>433</v>
-      </c>
       <c r="D8" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E8" s="21" t="s">
         <v>55</v>
@@ -2988,16 +2985,16 @@
     </row>
     <row r="9">
       <c r="A9" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>434</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="C9" s="6" t="s">
         <v>435</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>436</v>
-      </c>
       <c r="D9" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E9" s="21" t="s">
         <v>55</v>
@@ -3036,13 +3033,13 @@
     </row>
     <row r="10">
       <c r="A10" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>437</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>437</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>438</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="21" t="s">
@@ -3180,10 +3177,10 @@
     </row>
     <row r="2">
       <c r="A2" s="37" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B2" s="37" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C2" s="23"/>
       <c r="D2" s="38"/>
@@ -3202,13 +3199,13 @@
     </row>
     <row r="4">
       <c r="A4" s="37" t="s">
+        <v>439</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>439</v>
+      </c>
+      <c r="C4" s="16" t="s">
         <v>440</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>441</v>
       </c>
       <c r="D4" s="39"/>
       <c r="E4" s="6" t="s">
@@ -3254,16 +3251,16 @@
     </row>
     <row r="6">
       <c r="A6" s="37" t="s">
+        <v>441</v>
+      </c>
+      <c r="B6" s="16" t="s">
         <v>442</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="C6" s="16" t="s">
         <v>443</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="D6" s="39" t="s">
         <v>444</v>
-      </c>
-      <c r="D6" s="39" t="s">
-        <v>445</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>16</v>
@@ -3298,16 +3295,16 @@
     </row>
     <row r="7">
       <c r="A7" s="23" t="s">
+        <v>445</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>445</v>
+      </c>
+      <c r="C7" s="23" t="s">
         <v>446</v>
       </c>
-      <c r="B7" s="23" t="s">
-        <v>446</v>
-      </c>
-      <c r="C7" s="23" t="s">
+      <c r="D7" s="24" t="s">
         <v>447</v>
-      </c>
-      <c r="D7" s="24" t="s">
-        <v>448</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>16</v>
@@ -3348,16 +3345,16 @@
     </row>
     <row r="8">
       <c r="A8" s="16" t="s">
+        <v>448</v>
+      </c>
+      <c r="B8" s="16" t="s">
         <v>449</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="C8" s="16" t="s">
         <v>450</v>
       </c>
-      <c r="C8" s="16" t="s">
-        <v>451</v>
-      </c>
       <c r="D8" s="24" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>16</v>
@@ -3392,16 +3389,16 @@
     </row>
     <row r="9">
       <c r="A9" s="16" t="s">
+        <v>451</v>
+      </c>
+      <c r="B9" s="16" t="s">
         <v>452</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="C9" s="16" t="s">
         <v>453</v>
       </c>
-      <c r="C9" s="16" t="s">
-        <v>454</v>
-      </c>
       <c r="D9" s="24" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>16</v>
@@ -3436,16 +3433,16 @@
     </row>
     <row r="10">
       <c r="A10" s="23" t="s">
+        <v>454</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>454</v>
+      </c>
+      <c r="C10" s="23" t="s">
         <v>455</v>
       </c>
-      <c r="B10" s="23" t="s">
-        <v>455</v>
-      </c>
-      <c r="C10" s="23" t="s">
+      <c r="D10" s="24" t="s">
         <v>456</v>
-      </c>
-      <c r="D10" s="24" t="s">
-        <v>457</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>16</v>
@@ -3486,16 +3483,16 @@
     </row>
     <row r="12">
       <c r="A12" s="37" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>16</v>
@@ -3530,16 +3527,16 @@
     </row>
     <row r="13">
       <c r="A13" s="23" t="s">
+        <v>458</v>
+      </c>
+      <c r="B13" s="16" t="s">
         <v>459</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="C13" s="23" t="s">
         <v>460</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="D13" s="24" t="s">
         <v>461</v>
-      </c>
-      <c r="D13" s="24" t="s">
-        <v>462</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>16</v>
@@ -3580,16 +3577,16 @@
     </row>
     <row r="14">
       <c r="A14" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>463</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="C14" s="6" t="s">
         <v>464</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>465</v>
-      </c>
       <c r="D14" s="6" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>16</v>
@@ -3624,16 +3621,16 @@
     </row>
     <row r="16">
       <c r="A16" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>466</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="C16" s="6" t="s">
         <v>467</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>468</v>
-      </c>
       <c r="D16" s="6" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>16</v>
@@ -3668,16 +3665,16 @@
     </row>
     <row r="17">
       <c r="A17" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>469</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="C17" s="6" t="s">
         <v>470</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="D17" s="6" t="s">
         <v>471</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>472</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>16</v>
@@ -3712,16 +3709,16 @@
     </row>
     <row r="18">
       <c r="A18" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>473</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>473</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>474</v>
-      </c>
       <c r="D18" s="6" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>16</v>
@@ -3756,16 +3753,16 @@
     </row>
     <row r="19">
       <c r="A19" s="6" t="s">
+        <v>474</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>474</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>475</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>475</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>476</v>
-      </c>
       <c r="D19" s="6" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>16</v>
@@ -3800,16 +3797,16 @@
     </row>
     <row r="20">
       <c r="A20" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="B20" s="6" t="s">
         <v>477</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="C20" s="6" t="s">
         <v>478</v>
       </c>
-      <c r="C20" s="6" t="s">
-        <v>479</v>
-      </c>
       <c r="D20" s="6" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>16</v>
@@ -3844,13 +3841,13 @@
     </row>
     <row r="22">
       <c r="A22" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>480</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>480</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>481</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="6" t="s">
@@ -3889,16 +3886,16 @@
     </row>
     <row r="24">
       <c r="A24" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="C24" s="6" t="s">
         <v>482</v>
       </c>
-      <c r="B24" s="6" t="s">
-        <v>482</v>
-      </c>
-      <c r="C24" s="6" t="s">
+      <c r="D24" s="6" t="s">
         <v>483</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>484</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>16</v>
@@ -3933,16 +3930,16 @@
     </row>
     <row r="25">
       <c r="A25" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="B25" s="6" t="s">
         <v>485</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="C25" s="6" t="s">
         <v>486</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="D25" s="6" t="s">
         <v>487</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>488</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>16</v>
@@ -3977,16 +3974,16 @@
     </row>
     <row r="26">
       <c r="A26" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="B26" s="6" t="s">
         <v>489</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="C26" s="6" t="s">
         <v>490</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="D26" s="6" t="s">
         <v>491</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>492</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>16</v>
@@ -4021,16 +4018,16 @@
     </row>
     <row r="27">
       <c r="A27" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="B27" s="6" t="s">
         <v>493</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="C27" s="6" t="s">
         <v>494</v>
       </c>
-      <c r="C27" s="6" t="s">
-        <v>495</v>
-      </c>
       <c r="D27" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>16</v>
@@ -4065,16 +4062,16 @@
     </row>
     <row r="28">
       <c r="A28" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>16</v>
@@ -4109,16 +4106,16 @@
     </row>
     <row r="29">
       <c r="A29" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="B29" s="6" t="s">
         <v>497</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="C29" s="6" t="s">
         <v>498</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="D29" s="6" t="s">
         <v>499</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>500</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>16</v>
@@ -4153,16 +4150,16 @@
     </row>
     <row r="30">
       <c r="A30" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="C30" s="6" t="s">
         <v>501</v>
       </c>
-      <c r="B30" s="6" t="s">
-        <v>501</v>
-      </c>
-      <c r="C30" s="6" t="s">
+      <c r="D30" s="6" t="s">
         <v>502</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>503</v>
       </c>
       <c r="E30" s="6" t="s">
         <v>16</v>
@@ -4298,27 +4295,27 @@
     </row>
     <row r="2">
       <c r="A2" s="6" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B2" s="5"/>
       <c r="J2" s="40" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="6" t="s">
+        <v>505</v>
+      </c>
+      <c r="J3" s="40" t="s">
         <v>506</v>
-      </c>
-      <c r="J3" s="40" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="6" t="s">
+        <v>507</v>
+      </c>
+      <c r="J4" s="40" t="s">
         <v>508</v>
-      </c>
-      <c r="J4" s="40" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="6">
@@ -4882,8 +4879,8 @@
       <c r="K3" s="8">
         <v>44855.0</v>
       </c>
-      <c r="L3" s="6" t="s">
-        <v>60</v>
+      <c r="L3" s="8">
+        <v>45429.0</v>
       </c>
       <c r="M3" s="6" t="s">
         <v>26</v>
@@ -4908,19 +4905,19 @@
     </row>
     <row r="4">
       <c r="A4" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="C4" s="6" t="s">
         <v>62</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>63</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>21</v>
@@ -4958,19 +4955,19 @@
     </row>
     <row r="5">
       <c r="A5" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="C5" s="6" t="s">
         <v>66</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>67</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>21</v>
@@ -5006,19 +5003,19 @@
     </row>
     <row r="6">
       <c r="A6" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="C6" s="6" t="s">
         <v>70</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>71</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>21</v>
@@ -5052,19 +5049,19 @@
     </row>
     <row r="7">
       <c r="A7" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="C7" s="6" t="s">
         <v>74</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>75</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>21</v>
@@ -5109,7 +5106,7 @@
     </row>
     <row r="14">
       <c r="A14" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B14" s="6"/>
     </row>
@@ -5281,26 +5278,26 @@
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
     </row>
     <row r="3">
       <c r="A3" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="C3" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="D3" s="6" t="s">
         <v>81</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>82</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>16</v>
@@ -5310,7 +5307,7 @@
       </c>
       <c r="L3" s="8"/>
       <c r="M3" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N3" s="6" t="s">
         <v>39</v>
@@ -5321,16 +5318,16 @@
     </row>
     <row r="4">
       <c r="A4" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="C4" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>86</v>
-      </c>
       <c r="D4" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>16</v>
@@ -5340,7 +5337,7 @@
       </c>
       <c r="L4" s="8"/>
       <c r="M4" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N4" s="6" t="s">
         <v>39</v>
@@ -5351,16 +5348,16 @@
     </row>
     <row r="5">
       <c r="A5" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="C5" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>89</v>
-      </c>
       <c r="D5" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>16</v>
@@ -5370,7 +5367,7 @@
       </c>
       <c r="L5" s="8"/>
       <c r="M5" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N5" s="6" t="s">
         <v>39</v>
@@ -5381,16 +5378,16 @@
     </row>
     <row r="6">
       <c r="A6" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="C6" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>92</v>
-      </c>
       <c r="D6" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>16</v>
@@ -5400,7 +5397,7 @@
       </c>
       <c r="L6" s="8"/>
       <c r="M6" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N6" s="6" t="s">
         <v>39</v>
@@ -5411,16 +5408,16 @@
     </row>
     <row r="7">
       <c r="A7" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="C7" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>95</v>
-      </c>
       <c r="D7" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>16</v>
@@ -5430,7 +5427,7 @@
       </c>
       <c r="L7" s="8"/>
       <c r="M7" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N7" s="6" t="s">
         <v>39</v>
@@ -5441,16 +5438,16 @@
     </row>
     <row r="8">
       <c r="A8" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="C8" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>98</v>
-      </c>
       <c r="D8" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>16</v>
@@ -5460,7 +5457,7 @@
       </c>
       <c r="L8" s="8"/>
       <c r="M8" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N8" s="6" t="s">
         <v>39</v>
@@ -5471,16 +5468,16 @@
     </row>
     <row r="9">
       <c r="A9" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="C9" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>101</v>
-      </c>
       <c r="D9" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>16</v>
@@ -5490,7 +5487,7 @@
       </c>
       <c r="L9" s="8"/>
       <c r="M9" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N9" s="6" t="s">
         <v>39</v>
@@ -5501,16 +5498,16 @@
     </row>
     <row r="10">
       <c r="A10" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="C10" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>104</v>
-      </c>
       <c r="D10" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>16</v>
@@ -5520,7 +5517,7 @@
       </c>
       <c r="L10" s="8"/>
       <c r="M10" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N10" s="6" t="s">
         <v>39</v>
@@ -5531,16 +5528,16 @@
     </row>
     <row r="11">
       <c r="A11" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="C11" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>107</v>
-      </c>
       <c r="D11" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>16</v>
@@ -5550,7 +5547,7 @@
       </c>
       <c r="L11" s="8"/>
       <c r="M11" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N11" s="6" t="s">
         <v>39</v>
@@ -5561,16 +5558,16 @@
     </row>
     <row r="12">
       <c r="A12" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="C12" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="D12" s="6" t="s">
         <v>110</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>111</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>16</v>
@@ -5580,7 +5577,7 @@
       </c>
       <c r="L12" s="8"/>
       <c r="M12" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N12" s="6" t="s">
         <v>39</v>
@@ -5591,16 +5588,16 @@
     </row>
     <row r="13">
       <c r="A13" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="C13" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="D13" s="6" t="s">
         <v>114</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>115</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>16</v>
@@ -5609,7 +5606,7 @@
         <v>44727.0</v>
       </c>
       <c r="M13" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N13" s="6" t="s">
         <v>39</v>
@@ -5620,16 +5617,16 @@
     </row>
     <row r="14">
       <c r="A14" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="B14" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="C14" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="C14" s="18" t="s">
-        <v>118</v>
-      </c>
       <c r="D14" s="19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>16</v>
@@ -5639,12 +5636,12 @@
       <c r="H14" s="20"/>
       <c r="I14" s="20"/>
       <c r="J14" s="17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K14" s="20"/>
       <c r="L14" s="20"/>
       <c r="M14" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N14" s="20"/>
       <c r="O14" s="20"/>
@@ -5667,18 +5664,18 @@
     </row>
     <row r="16">
       <c r="A16" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="C17" s="6" t="s">
         <v>122</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>123</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>16</v>
@@ -5687,7 +5684,7 @@
         <v>44727.0</v>
       </c>
       <c r="M17" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N17" s="6" t="s">
         <v>39</v>
@@ -5698,13 +5695,13 @@
     </row>
     <row r="18">
       <c r="A18" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B18" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="C18" s="6" t="s">
         <v>125</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>126</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>16</v>
@@ -5714,7 +5711,7 @@
       </c>
       <c r="L18" s="8"/>
       <c r="M18" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N18" s="6" t="s">
         <v>39</v>
@@ -5725,13 +5722,13 @@
     </row>
     <row r="19">
       <c r="A19" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="C19" s="6" t="s">
         <v>128</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>129</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>16</v>
@@ -5741,7 +5738,7 @@
       </c>
       <c r="L19" s="8"/>
       <c r="M19" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N19" s="6" t="s">
         <v>39</v>
@@ -5752,13 +5749,13 @@
     </row>
     <row r="20">
       <c r="A20" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B20" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="C20" s="6" t="s">
         <v>131</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>132</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>16</v>
@@ -5768,7 +5765,7 @@
       </c>
       <c r="L20" s="8"/>
       <c r="M20" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N20" s="6" t="s">
         <v>39</v>
@@ -5779,13 +5776,13 @@
     </row>
     <row r="21">
       <c r="A21" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B21" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="C21" s="6" t="s">
         <v>134</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>135</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>16</v>
@@ -5795,7 +5792,7 @@
       </c>
       <c r="L21" s="8"/>
       <c r="M21" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N21" s="6" t="s">
         <v>39</v>
@@ -5806,13 +5803,13 @@
     </row>
     <row r="22">
       <c r="A22" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="B22" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="C22" s="6" t="s">
         <v>137</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>138</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>16</v>
@@ -5822,7 +5819,7 @@
       </c>
       <c r="L22" s="8"/>
       <c r="M22" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N22" s="6" t="s">
         <v>39</v>
@@ -5833,10 +5830,10 @@
     </row>
     <row r="24">
       <c r="A24" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="21"/>
@@ -5845,16 +5842,16 @@
     </row>
     <row r="25">
       <c r="A25" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B25" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="C25" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="D25" s="21" t="s">
         <v>142</v>
-      </c>
-      <c r="D25" s="21" t="s">
-        <v>143</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>16</v>
@@ -5863,7 +5860,7 @@
         <v>44727.0</v>
       </c>
       <c r="M25" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N25" s="6" t="s">
         <v>39</v>
@@ -5874,16 +5871,16 @@
     </row>
     <row r="26">
       <c r="A26" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B26" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="C26" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="C26" s="6" t="s">
-        <v>146</v>
-      </c>
       <c r="D26" s="21" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>16</v>
@@ -5892,7 +5889,7 @@
         <v>44727.0</v>
       </c>
       <c r="M26" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N26" s="6" t="s">
         <v>39</v>
@@ -5903,16 +5900,16 @@
     </row>
     <row r="27">
       <c r="A27" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B27" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="C27" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="C27" s="6" t="s">
-        <v>149</v>
-      </c>
       <c r="D27" s="21" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>16</v>
@@ -5921,7 +5918,7 @@
         <v>44727.0</v>
       </c>
       <c r="M27" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N27" s="6" t="s">
         <v>39</v>
@@ -5932,16 +5929,16 @@
     </row>
     <row r="28">
       <c r="A28" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C28" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="B28" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>151</v>
-      </c>
       <c r="D28" s="21" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>16</v>
@@ -5950,7 +5947,7 @@
         <v>44727.0</v>
       </c>
       <c r="M28" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N28" s="6" t="s">
         <v>39</v>
@@ -5961,10 +5958,10 @@
     </row>
     <row r="30">
       <c r="A30" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
@@ -5995,16 +5992,16 @@
     </row>
     <row r="31">
       <c r="A31" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="B31" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="C31" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="D31" s="6" t="s">
         <v>155</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>156</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>16</v>
@@ -6013,10 +6010,10 @@
         <v>44727.0</v>
       </c>
       <c r="M31" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N31" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O31" s="9" t="s">
         <v>28</v>
@@ -6024,16 +6021,16 @@
     </row>
     <row r="32">
       <c r="A32" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="B32" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="C32" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="C32" s="6" t="s">
-        <v>160</v>
-      </c>
       <c r="D32" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>16</v>
@@ -6042,10 +6039,10 @@
         <v>44727.0</v>
       </c>
       <c r="M32" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N32" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O32" s="9" t="s">
         <v>28</v>
@@ -6053,16 +6050,16 @@
     </row>
     <row r="33">
       <c r="A33" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="B33" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="C33" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="C33" s="6" t="s">
-        <v>163</v>
-      </c>
       <c r="D33" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E33" s="6" t="s">
         <v>16</v>
@@ -6071,10 +6068,10 @@
         <v>44727.0</v>
       </c>
       <c r="M33" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N33" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O33" s="9" t="s">
         <v>28</v>
@@ -6082,16 +6079,16 @@
     </row>
     <row r="34">
       <c r="A34" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="B34" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="C34" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="C34" s="6" t="s">
-        <v>166</v>
-      </c>
       <c r="D34" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>16</v>
@@ -6100,10 +6097,10 @@
         <v>44727.0</v>
       </c>
       <c r="M34" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N34" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O34" s="9" t="s">
         <v>28</v>
@@ -6111,16 +6108,16 @@
     </row>
     <row r="35">
       <c r="A35" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="B35" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="C35" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="C35" s="6" t="s">
-        <v>169</v>
-      </c>
       <c r="D35" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E35" s="6" t="s">
         <v>16</v>
@@ -6129,10 +6126,10 @@
         <v>44727.0</v>
       </c>
       <c r="M35" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N35" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O35" s="9" t="s">
         <v>28</v>
@@ -6140,16 +6137,16 @@
     </row>
     <row r="36">
       <c r="A36" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="B36" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="C36" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="D36" s="6" t="s">
         <v>172</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>173</v>
       </c>
       <c r="E36" s="6" t="s">
         <v>16</v>
@@ -6158,10 +6155,10 @@
         <v>44727.0</v>
       </c>
       <c r="M36" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N36" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O36" s="9" t="s">
         <v>28</v>
@@ -6169,37 +6166,37 @@
     </row>
     <row r="38">
       <c r="A38" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K38" s="8"/>
     </row>
     <row r="39">
       <c r="A39" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="B39" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="C39" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="D39" s="6" t="s">
         <v>177</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>178</v>
       </c>
       <c r="E39" s="6" t="s">
         <v>16</v>
       </c>
       <c r="I39" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K39" s="8">
         <v>44727.0</v>
       </c>
       <c r="M39" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N39" s="6" t="s">
         <v>39</v>
@@ -6210,28 +6207,28 @@
     </row>
     <row r="40">
       <c r="A40" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="B40" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="C40" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="C40" s="6" t="s">
-        <v>182</v>
-      </c>
       <c r="D40" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E40" s="6" t="s">
         <v>16</v>
       </c>
       <c r="I40" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K40" s="8">
         <v>44727.0</v>
       </c>
       <c r="M40" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N40" s="6" t="s">
         <v>39</v>
@@ -6242,21 +6239,21 @@
     </row>
     <row r="42">
       <c r="A42" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="B43" s="16" t="s">
         <v>185</v>
       </c>
-      <c r="B43" s="16" t="s">
+      <c r="C43" s="23" t="s">
         <v>186</v>
       </c>
-      <c r="C43" s="23" t="s">
+      <c r="D43" s="24" t="s">
         <v>187</v>
-      </c>
-      <c r="D43" s="24" t="s">
-        <v>188</v>
       </c>
       <c r="E43" s="6" t="s">
         <v>16</v>
@@ -6265,7 +6262,7 @@
         <v>44727.0</v>
       </c>
       <c r="M43" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N43" s="6" t="s">
         <v>39</v>
@@ -6276,16 +6273,16 @@
     </row>
     <row r="44">
       <c r="A44" s="25" t="s">
+        <v>188</v>
+      </c>
+      <c r="B44" s="25" t="s">
         <v>189</v>
       </c>
-      <c r="B44" s="25" t="s">
+      <c r="C44" s="26" t="s">
         <v>190</v>
       </c>
-      <c r="C44" s="26" t="s">
+      <c r="D44" s="27" t="s">
         <v>191</v>
-      </c>
-      <c r="D44" s="27" t="s">
-        <v>192</v>
       </c>
       <c r="E44" s="20" t="s">
         <v>16</v>
@@ -6300,7 +6297,7 @@
       </c>
       <c r="L44" s="20"/>
       <c r="M44" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N44" s="20" t="s">
         <v>39</v>
@@ -6326,16 +6323,16 @@
     </row>
     <row r="45">
       <c r="A45" s="25" t="s">
+        <v>192</v>
+      </c>
+      <c r="B45" s="25" t="s">
         <v>193</v>
       </c>
-      <c r="B45" s="25" t="s">
+      <c r="C45" s="26" t="s">
         <v>194</v>
       </c>
-      <c r="C45" s="26" t="s">
+      <c r="D45" s="30" t="s">
         <v>195</v>
-      </c>
-      <c r="D45" s="30" t="s">
-        <v>196</v>
       </c>
       <c r="E45" s="20" t="s">
         <v>16</v>
@@ -6350,7 +6347,7 @@
       </c>
       <c r="L45" s="20"/>
       <c r="M45" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N45" s="20" t="s">
         <v>39</v>
@@ -6376,16 +6373,16 @@
     </row>
     <row r="46">
       <c r="A46" s="25" t="s">
+        <v>196</v>
+      </c>
+      <c r="B46" s="25" t="s">
         <v>197</v>
       </c>
-      <c r="B46" s="25" t="s">
+      <c r="C46" s="26" t="s">
         <v>198</v>
       </c>
-      <c r="C46" s="26" t="s">
+      <c r="D46" s="30" t="s">
         <v>199</v>
-      </c>
-      <c r="D46" s="30" t="s">
-        <v>200</v>
       </c>
       <c r="E46" s="20" t="s">
         <v>16</v>
@@ -6400,7 +6397,7 @@
       </c>
       <c r="L46" s="20"/>
       <c r="M46" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N46" s="20" t="s">
         <v>39</v>
@@ -6674,10 +6671,10 @@
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -6686,23 +6683,23 @@
     </row>
     <row r="3">
       <c r="A3" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K3" s="8"/>
     </row>
     <row r="4">
       <c r="A4" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="C4" s="6" t="s">
         <v>204</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>205</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -6740,17 +6737,17 @@
     </row>
     <row r="5">
       <c r="A5" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>206</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>207</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -6788,17 +6785,17 @@
     </row>
     <row r="6">
       <c r="A6" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>208</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>209</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -6836,17 +6833,17 @@
     </row>
     <row r="7">
       <c r="A7" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>210</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>211</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -6884,23 +6881,23 @@
     </row>
     <row r="8">
       <c r="A8" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>212</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>213</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J8" s="7"/>
       <c r="K8" s="8">
@@ -6934,17 +6931,17 @@
     </row>
     <row r="9">
       <c r="A9" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>215</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>216</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
@@ -6982,17 +6979,17 @@
     </row>
     <row r="10">
       <c r="A10" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>217</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>218</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
@@ -7030,17 +7027,17 @@
     </row>
     <row r="11">
       <c r="A11" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>219</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>220</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -7112,19 +7109,19 @@
     </row>
     <row r="13">
       <c r="A13" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="C13" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="D13" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>224</v>
-      </c>
       <c r="E13" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
@@ -7156,19 +7153,19 @@
     </row>
     <row r="14">
       <c r="A14" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="C14" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="D14" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="D14" s="6" t="s">
-        <v>228</v>
-      </c>
       <c r="E14" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
@@ -7202,19 +7199,19 @@
     </row>
     <row r="15">
       <c r="A15" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="C15" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>231</v>
-      </c>
       <c r="D15" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
@@ -7248,19 +7245,19 @@
     </row>
     <row r="16">
       <c r="A16" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="C16" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>234</v>
-      </c>
       <c r="D16" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
@@ -7294,19 +7291,19 @@
     </row>
     <row r="17">
       <c r="A17" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="C17" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>237</v>
-      </c>
       <c r="D17" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
@@ -7340,19 +7337,19 @@
     </row>
     <row r="18">
       <c r="A18" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="B18" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="C18" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>240</v>
-      </c>
       <c r="D18" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
@@ -7386,19 +7383,19 @@
     </row>
     <row r="19">
       <c r="A19" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="C19" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="C19" s="6" t="s">
-        <v>243</v>
-      </c>
       <c r="D19" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
@@ -7432,17 +7429,17 @@
     </row>
     <row r="20">
       <c r="A20" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="B20" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="C20" s="6" t="s">
         <v>245</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>246</v>
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
@@ -7476,17 +7473,17 @@
     </row>
     <row r="21">
       <c r="A21" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="B21" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="C21" s="6" t="s">
         <v>248</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>249</v>
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
@@ -7520,19 +7517,19 @@
     </row>
     <row r="22">
       <c r="A22" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="B22" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="C22" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="D22" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="D22" s="6" t="s">
-        <v>253</v>
-      </c>
       <c r="E22" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
@@ -7684,10 +7681,10 @@
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -7702,24 +7699,24 @@
     </row>
     <row r="4">
       <c r="A4" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>255</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>255</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>256</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
       <c r="J4" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K4" s="8">
         <v>45421.0</v>
@@ -7753,24 +7750,24 @@
     </row>
     <row r="5">
       <c r="A5" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>259</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>259</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>260</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
       <c r="J5" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K5" s="8">
         <v>45421.0</v>
@@ -7800,26 +7797,26 @@
     </row>
     <row r="6">
       <c r="A6" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="B6" s="16" t="s">
-        <v>261</v>
-      </c>
-      <c r="C6" s="6" t="s">
+      <c r="D6" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>263</v>
-      </c>
       <c r="E6" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
       <c r="J6" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K6" s="8">
         <v>45421.0</v>
@@ -7853,24 +7850,24 @@
     </row>
     <row r="7">
       <c r="A7" s="16" t="s">
+        <v>263</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>263</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>264</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>264</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>265</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
       <c r="J7" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K7" s="8">
         <v>45421.0</v>
@@ -7900,26 +7897,26 @@
     </row>
     <row r="8">
       <c r="A8" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="B8" s="16" t="s">
-        <v>266</v>
-      </c>
-      <c r="C8" s="6" t="s">
+      <c r="D8" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>268</v>
-      </c>
       <c r="E8" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
       <c r="J8" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K8" s="8">
         <v>45421.0</v>
@@ -7953,24 +7950,24 @@
     </row>
     <row r="9">
       <c r="A9" s="16" t="s">
+        <v>268</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>268</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>269</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>269</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>270</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
       <c r="J9" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K9" s="8">
         <v>45421.0</v>
@@ -8004,24 +8001,24 @@
     </row>
     <row r="10">
       <c r="A10" s="31" t="s">
+        <v>270</v>
+      </c>
+      <c r="B10" s="31" t="s">
+        <v>270</v>
+      </c>
+      <c r="C10" s="31" t="s">
         <v>271</v>
-      </c>
-      <c r="B10" s="31" t="s">
-        <v>271</v>
-      </c>
-      <c r="C10" s="31" t="s">
-        <v>272</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F10" s="20"/>
       <c r="G10" s="20"/>
       <c r="H10" s="20"/>
       <c r="I10" s="20"/>
       <c r="J10" s="31" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="K10" s="8">
         <v>45421.0</v>
@@ -8051,24 +8048,24 @@
     </row>
     <row r="11">
       <c r="A11" s="31" t="s">
+        <v>273</v>
+      </c>
+      <c r="B11" s="31" t="s">
+        <v>273</v>
+      </c>
+      <c r="C11" s="20" t="s">
         <v>274</v>
-      </c>
-      <c r="B11" s="31" t="s">
-        <v>274</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>275</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F11" s="20"/>
       <c r="G11" s="20"/>
       <c r="H11" s="20"/>
       <c r="I11" s="20"/>
       <c r="J11" s="20" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="K11" s="8">
         <v>45421.0</v>
@@ -8098,24 +8095,24 @@
     </row>
     <row r="12">
       <c r="A12" s="31" t="s">
+        <v>276</v>
+      </c>
+      <c r="B12" s="31" t="s">
+        <v>276</v>
+      </c>
+      <c r="C12" s="20" t="s">
         <v>277</v>
-      </c>
-      <c r="B12" s="31" t="s">
-        <v>277</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>278</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F12" s="20"/>
       <c r="G12" s="20"/>
       <c r="H12" s="20"/>
       <c r="I12" s="20"/>
       <c r="J12" s="20" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="K12" s="8">
         <v>45421.0</v>
@@ -8145,24 +8142,24 @@
     </row>
     <row r="13">
       <c r="A13" s="31" t="s">
+        <v>278</v>
+      </c>
+      <c r="B13" s="31" t="s">
+        <v>278</v>
+      </c>
+      <c r="C13" s="20" t="s">
         <v>279</v>
-      </c>
-      <c r="B13" s="31" t="s">
-        <v>279</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>280</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F13" s="20"/>
       <c r="G13" s="20"/>
       <c r="H13" s="20"/>
       <c r="I13" s="20"/>
       <c r="J13" s="20" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="K13" s="8">
         <v>45421.0</v>
@@ -8192,24 +8189,24 @@
     </row>
     <row r="14">
       <c r="A14" s="31" t="s">
+        <v>280</v>
+      </c>
+      <c r="B14" s="31" t="s">
+        <v>280</v>
+      </c>
+      <c r="C14" s="20" t="s">
         <v>281</v>
-      </c>
-      <c r="B14" s="31" t="s">
-        <v>281</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>282</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F14" s="20"/>
       <c r="G14" s="20"/>
       <c r="H14" s="20"/>
       <c r="I14" s="20"/>
       <c r="J14" s="20" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="K14" s="8">
         <v>45421.0</v>
@@ -8239,24 +8236,24 @@
     </row>
     <row r="15">
       <c r="A15" s="31" t="s">
+        <v>282</v>
+      </c>
+      <c r="B15" s="31" t="s">
+        <v>282</v>
+      </c>
+      <c r="C15" s="20" t="s">
         <v>283</v>
-      </c>
-      <c r="B15" s="31" t="s">
-        <v>283</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>284</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F15" s="20"/>
       <c r="G15" s="20"/>
       <c r="H15" s="20"/>
       <c r="I15" s="20"/>
       <c r="J15" s="20" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="K15" s="8">
         <v>45421.0</v>
@@ -8286,24 +8283,24 @@
     </row>
     <row r="16">
       <c r="A16" s="31" t="s">
+        <v>284</v>
+      </c>
+      <c r="B16" s="31" t="s">
+        <v>284</v>
+      </c>
+      <c r="C16" s="20" t="s">
         <v>285</v>
-      </c>
-      <c r="B16" s="31" t="s">
-        <v>285</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>286</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F16" s="20"/>
       <c r="G16" s="20"/>
       <c r="H16" s="20"/>
       <c r="I16" s="20"/>
       <c r="J16" s="20" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="K16" s="8">
         <v>45421.0</v>
@@ -8333,24 +8330,24 @@
     </row>
     <row r="17">
       <c r="A17" s="31" t="s">
+        <v>286</v>
+      </c>
+      <c r="B17" s="31" t="s">
+        <v>286</v>
+      </c>
+      <c r="C17" s="20" t="s">
         <v>287</v>
-      </c>
-      <c r="B17" s="31" t="s">
-        <v>287</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>288</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F17" s="20"/>
       <c r="G17" s="20"/>
       <c r="H17" s="20"/>
       <c r="I17" s="20"/>
       <c r="J17" s="20" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="K17" s="8">
         <v>45421.0</v>
@@ -8380,26 +8377,26 @@
     </row>
     <row r="18">
       <c r="A18" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>289</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>290</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
       <c r="I18" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K18" s="8">
         <v>45421.0</v>
@@ -8429,26 +8426,26 @@
     </row>
     <row r="19">
       <c r="A19" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="C19" s="6" t="s">
+      <c r="D19" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="D19" s="6" t="s">
-        <v>294</v>
-      </c>
       <c r="E19" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
       <c r="J19" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K19" s="8">
         <v>45421.0</v>
@@ -8478,26 +8475,26 @@
     </row>
     <row r="20">
       <c r="A20" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>296</v>
-      </c>
       <c r="D20" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
       <c r="J20" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K20" s="8">
         <v>45421.0</v>
@@ -8527,26 +8524,26 @@
     </row>
     <row r="21">
       <c r="A21" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="B21" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="C21" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="C21" s="6" t="s">
-        <v>299</v>
-      </c>
       <c r="D21" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
       <c r="J21" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K21" s="8">
         <v>45421.0</v>
@@ -8576,17 +8573,17 @@
     </row>
     <row r="22">
       <c r="A22" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>300</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>300</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>301</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
@@ -8621,17 +8618,17 @@
     </row>
     <row r="23">
       <c r="A23" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>302</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>302</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>303</v>
       </c>
       <c r="D23" s="7"/>
       <c r="E23" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
@@ -8666,23 +8663,23 @@
     </row>
     <row r="24">
       <c r="A24" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="C24" s="6" t="s">
         <v>304</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>304</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>305</v>
       </c>
       <c r="D24" s="7"/>
       <c r="E24" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
       <c r="I24" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J24" s="7"/>
       <c r="K24" s="8">
@@ -8827,22 +8824,22 @@
     </row>
     <row r="2">
       <c r="A2" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="6" t="s">
         <v>308</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>309</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E2" s="32" t="s">
+        <v>309</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>310</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>311</v>
       </c>
       <c r="G2" s="33"/>
       <c r="H2" s="33"/>
@@ -8875,22 +8872,22 @@
     </row>
     <row r="3">
       <c r="A3" s="16" t="s">
+        <v>311</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="C3" s="6" t="s">
         <v>313</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>314</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E3" s="32" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G3" s="33"/>
       <c r="H3" s="33"/>
@@ -8923,22 +8920,22 @@
     </row>
     <row r="4">
       <c r="A4" s="16" t="s">
+        <v>314</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="C4" s="6" t="s">
         <v>316</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>317</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E4" s="32" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G4" s="33"/>
       <c r="H4" s="33"/>
@@ -8971,22 +8968,22 @@
     </row>
     <row r="5">
       <c r="A5" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="C5" s="6" t="s">
         <v>320</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>321</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E5" s="32" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G5" s="33"/>
       <c r="H5" s="33"/>
@@ -9019,22 +9016,22 @@
     </row>
     <row r="6">
       <c r="A6" s="16" t="s">
+        <v>321</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="C6" s="6" t="s">
         <v>323</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>324</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
@@ -9067,22 +9064,22 @@
     </row>
     <row r="7">
       <c r="A7" s="16" t="s">
+        <v>325</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="C7" s="6" t="s">
         <v>327</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>328</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
@@ -9115,22 +9112,22 @@
     </row>
     <row r="8">
       <c r="A8" s="31" t="s">
+        <v>329</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>330</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="C8" s="6" t="s">
         <v>331</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>332</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
@@ -9163,22 +9160,22 @@
     </row>
     <row r="9">
       <c r="A9" s="31" t="s">
+        <v>333</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="C9" s="6" t="s">
         <v>335</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>336</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
@@ -9211,22 +9208,22 @@
     </row>
     <row r="10">
       <c r="A10" s="31" t="s">
+        <v>337</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="C10" s="6" t="s">
         <v>339</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>340</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
@@ -9259,22 +9256,22 @@
     </row>
     <row r="11">
       <c r="A11" s="31" t="s">
+        <v>341</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="C11" s="6" t="s">
         <v>343</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>344</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
@@ -9307,22 +9304,22 @@
     </row>
     <row r="12">
       <c r="A12" s="31" t="s">
+        <v>345</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>346</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="C12" s="6" t="s">
         <v>347</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>348</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
@@ -9355,22 +9352,22 @@
     </row>
     <row r="13">
       <c r="A13" s="31" t="s">
+        <v>349</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="C13" s="6" t="s">
         <v>351</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>352</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
@@ -9403,22 +9400,22 @@
     </row>
     <row r="14">
       <c r="A14" s="31" t="s">
+        <v>353</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>354</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="C14" s="6" t="s">
         <v>355</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>356</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
@@ -9451,22 +9448,22 @@
     </row>
     <row r="15">
       <c r="A15" s="31" t="s">
+        <v>357</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>358</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="C15" s="6" t="s">
         <v>359</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>360</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
@@ -9499,22 +9496,22 @@
     </row>
     <row r="16">
       <c r="A16" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>362</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="C16" s="6" t="s">
         <v>363</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>364</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
@@ -9547,22 +9544,22 @@
     </row>
     <row r="17">
       <c r="A17" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>365</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="C17" s="6" t="s">
         <v>366</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>367</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
@@ -9595,22 +9592,22 @@
     </row>
     <row r="18">
       <c r="A18" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="B18" s="6" t="s">
         <v>369</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="C18" s="6" t="s">
         <v>370</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>371</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
@@ -9643,22 +9640,22 @@
     </row>
     <row r="19">
       <c r="A19" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>373</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="C19" s="6" t="s">
         <v>374</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>375</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
@@ -9806,10 +9803,10 @@
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -9824,17 +9821,17 @@
     </row>
     <row r="4">
       <c r="A4" s="16" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -9871,17 +9868,17 @@
     </row>
     <row r="5">
       <c r="A5" s="16" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -9916,17 +9913,17 @@
     </row>
     <row r="6">
       <c r="A6" s="16" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -9963,17 +9960,17 @@
     </row>
     <row r="7">
       <c r="A7" s="16" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -10008,17 +10005,17 @@
     </row>
     <row r="8">
       <c r="A8" s="16" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
@@ -10053,19 +10050,19 @@
     </row>
     <row r="9">
       <c r="A9" s="16" t="s">
+        <v>382</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>382</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>382</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>383</v>
       </c>
-      <c r="B9" s="16" t="s">
-        <v>383</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>383</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>384</v>
-      </c>
       <c r="E9" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
@@ -10100,19 +10097,19 @@
     </row>
     <row r="10">
       <c r="A10" s="31" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F10" s="20"/>
       <c r="G10" s="20"/>
@@ -10457,10 +10454,10 @@
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -10469,13 +10466,13 @@
     </row>
     <row r="3">
       <c r="A3" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K3" s="8"/>
     </row>
     <row r="4">
       <c r="A4" s="16" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
@@ -10486,7 +10483,7 @@
     </row>
     <row r="5">
       <c r="A5" s="16" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
@@ -10495,14 +10492,14 @@
     </row>
     <row r="6">
       <c r="A6" s="16" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B6" s="16"/>
       <c r="C6" s="16" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>25</v>
@@ -10542,17 +10539,17 @@
     </row>
     <row r="7">
       <c r="A7" s="16" t="s">
+        <v>390</v>
+      </c>
+      <c r="B7" s="16" t="s">
         <v>391</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="C7" s="16" t="s">
         <v>392</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>393</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -10587,17 +10584,17 @@
     </row>
     <row r="8">
       <c r="A8" s="16" t="s">
+        <v>394</v>
+      </c>
+      <c r="B8" s="16" t="s">
         <v>395</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="C8" s="16" t="s">
         <v>396</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>397</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
@@ -10632,16 +10629,16 @@
     </row>
     <row r="9">
       <c r="A9" s="31" t="s">
+        <v>397</v>
+      </c>
+      <c r="B9" s="31" t="s">
         <v>398</v>
       </c>
-      <c r="B9" s="31" t="s">
+      <c r="C9" s="31" t="s">
         <v>399</v>
       </c>
-      <c r="C9" s="31" t="s">
-        <v>400</v>
-      </c>
       <c r="D9" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>25</v>
@@ -10679,17 +10676,17 @@
     </row>
     <row r="10">
       <c r="A10" s="31" t="s">
+        <v>400</v>
+      </c>
+      <c r="B10" s="31" t="s">
+        <v>400</v>
+      </c>
+      <c r="C10" s="31" t="s">
         <v>401</v>
-      </c>
-      <c r="B10" s="31" t="s">
-        <v>401</v>
-      </c>
-      <c r="C10" s="31" t="s">
-        <v>402</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F10" s="20"/>
       <c r="G10" s="20"/>
@@ -10724,17 +10721,17 @@
     </row>
     <row r="11">
       <c r="A11" s="31" t="s">
+        <v>403</v>
+      </c>
+      <c r="B11" s="31" t="s">
         <v>404</v>
       </c>
-      <c r="B11" s="31" t="s">
+      <c r="C11" s="21" t="s">
         <v>405</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>406</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F11" s="20"/>
       <c r="G11" s="20"/>
@@ -10769,13 +10766,13 @@
     </row>
     <row r="12">
       <c r="A12" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>407</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="C12" s="6" t="s">
         <v>408</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>409</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>18</v>
@@ -10933,22 +10930,22 @@
     </row>
     <row r="2">
       <c r="A2" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>410</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="6" t="s">
         <v>411</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>412</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E2" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>413</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>414</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>25</v>
@@ -10985,22 +10982,22 @@
     </row>
     <row r="3">
       <c r="A3" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>415</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="C3" s="6" t="s">
         <v>416</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>417</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>25</v>
@@ -11033,22 +11030,22 @@
     </row>
     <row r="4">
       <c r="A4" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>418</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="C4" s="6" t="s">
         <v>419</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>420</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>25</v>
@@ -11084,7 +11081,7 @@
     </row>
     <row r="9">
       <c r="A9" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B9" s="6"/>
     </row>

--- a/code/vocab_csv/tech.xlsx
+++ b/code/vocab_csv/tech.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1278" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1298" uniqueCount="518">
   <si>
     <t>Term</t>
   </si>
@@ -168,6 +168,21 @@
     <t>Information describing use, functionality, design, or other technical aspects of the Technology</t>
   </si>
   <si>
+    <t>IntendedUse</t>
+  </si>
+  <si>
+    <t>Intended Use</t>
+  </si>
+  <si>
+    <t>Describes the 'intended' use of the technology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intended use can be used to describe how the developer or provider of technology intends it to be used e.g. use a database to store data, and to describe the plan or 'intent' to use the technology by a user or operator e.g. use a database to store and analyse data. Intended Use can involve any concept e.g. DPV's purpose, processing, tech/org measures, and can be low-level purely technical uses such as store data or high-level goals such as legal compliance. Intended Use only describes the intent or ex-ante intention, and may be different from how the technology is being actually used - which is indicated by using isImplementedUsingTechnology in a procss or other relevant context. </t>
+  </si>
+  <si>
+    <t>https://w3id.org/dpv/meetings/meeting-2024-05-22</t>
+  </si>
+  <si>
     <t>domain</t>
   </si>
   <si>
@@ -250,6 +265,18 @@
   </si>
   <si>
     <t>tech:Function</t>
+  </si>
+  <si>
+    <t>hasIntendedUse</t>
+  </si>
+  <si>
+    <t>has intended use</t>
+  </si>
+  <si>
+    <t>Indicates the intended use of technology</t>
+  </si>
+  <si>
+    <t>tech:IntendedUse</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -1617,6 +1644,10 @@
       <color rgb="FF0000FF"/>
     </font>
     <font>
+      <u/>
+      <color rgb="FF0000FF"/>
+    </font>
+    <font>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
@@ -1647,10 +1678,6 @@
       <b/>
       <color theme="1"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <color rgb="FF0000FF"/>
     </font>
     <font>
       <color rgb="FF0000FF"/>
@@ -1772,6 +1799,9 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -1790,78 +1820,75 @@
     <xf borderId="4" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="10" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="7" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="9" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="7" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
@@ -2628,6 +2655,58 @@
       <c r="AC12" s="7"/>
       <c r="AD12" s="7"/>
     </row>
+    <row r="13">
+      <c r="A13" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="J13" s="7"/>
+      <c r="K13" s="8">
+        <v>45434.0</v>
+      </c>
+      <c r="L13" s="7"/>
+      <c r="M13" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N13" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="O13" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="7"/>
+      <c r="V13" s="7"/>
+      <c r="W13" s="7"/>
+      <c r="X13" s="7"/>
+      <c r="Y13" s="7"/>
+      <c r="Z13" s="7"/>
+      <c r="AA13" s="7"/>
+      <c r="AB13" s="7"/>
+      <c r="AC13" s="7"/>
+      <c r="AD13" s="7"/>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A2:AD146">
     <cfRule type="expression" dxfId="0" priority="1">
@@ -2654,8 +2733,9 @@
     <hyperlink r:id="rId2" ref="O7"/>
     <hyperlink r:id="rId3" ref="O8"/>
     <hyperlink r:id="rId4" ref="O9"/>
+    <hyperlink r:id="rId5" ref="O13"/>
   </hyperlinks>
-  <drawing r:id="rId5"/>
+  <drawing r:id="rId6"/>
 </worksheet>
 </file>
 
@@ -2729,10 +2809,10 @@
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
-        <v>420</v>
+        <v>429</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>420</v>
+        <v>429</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -2747,17 +2827,17 @@
     </row>
     <row r="4">
       <c r="A4" s="6" t="s">
-        <v>421</v>
+        <v>430</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>421</v>
+        <v>430</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="D4" s="6"/>
-      <c r="E4" s="21" t="s">
-        <v>55</v>
+      <c r="E4" s="22" t="s">
+        <v>60</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -2793,19 +2873,19 @@
     </row>
     <row r="5">
       <c r="A5" s="6" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>425</v>
+        <v>434</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>426</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>55</v>
+        <v>435</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>60</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -2841,19 +2921,19 @@
     </row>
     <row r="6">
       <c r="A6" s="6" t="s">
-        <v>427</v>
+        <v>436</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>427</v>
+        <v>436</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>428</v>
+        <v>437</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>426</v>
-      </c>
-      <c r="E6" s="21" t="s">
-        <v>55</v>
+        <v>435</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>60</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -2889,19 +2969,19 @@
     </row>
     <row r="7">
       <c r="A7" s="6" t="s">
-        <v>429</v>
+        <v>438</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>429</v>
+        <v>438</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>430</v>
+        <v>439</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>426</v>
-      </c>
-      <c r="E7" s="21" t="s">
-        <v>55</v>
+        <v>435</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>60</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -2937,19 +3017,19 @@
     </row>
     <row r="8">
       <c r="A8" s="6" t="s">
-        <v>431</v>
+        <v>440</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>431</v>
+        <v>440</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>426</v>
-      </c>
-      <c r="E8" s="21" t="s">
-        <v>55</v>
+        <v>435</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>60</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
@@ -2985,19 +3065,19 @@
     </row>
     <row r="9">
       <c r="A9" s="6" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="C9" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>435</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>426</v>
-      </c>
-      <c r="E9" s="21" t="s">
-        <v>55</v>
+      <c r="E9" s="22" t="s">
+        <v>60</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
@@ -3033,17 +3113,17 @@
     </row>
     <row r="10">
       <c r="A10" s="6" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>437</v>
+        <v>446</v>
       </c>
       <c r="D10" s="7"/>
-      <c r="E10" s="21" t="s">
-        <v>55</v>
+      <c r="E10" s="22" t="s">
+        <v>60</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
@@ -3176,21 +3256,21 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="37" t="s">
-        <v>438</v>
-      </c>
-      <c r="B2" s="37" t="s">
-        <v>438</v>
-      </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="38"/>
+      <c r="A2" s="38" t="s">
+        <v>447</v>
+      </c>
+      <c r="B2" s="38" t="s">
+        <v>447</v>
+      </c>
+      <c r="C2" s="24"/>
+      <c r="D2" s="39"/>
       <c r="K2" s="8"/>
     </row>
     <row r="3">
-      <c r="A3" s="37"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="39"/>
+      <c r="A3" s="38"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="40"/>
       <c r="E3" s="6"/>
       <c r="K3" s="8"/>
       <c r="M3" s="6"/>
@@ -3198,16 +3278,16 @@
       <c r="O3" s="6"/>
     </row>
     <row r="4">
-      <c r="A4" s="37" t="s">
-        <v>439</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>439</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="D4" s="39"/>
+      <c r="A4" s="38" t="s">
+        <v>448</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>448</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>449</v>
+      </c>
+      <c r="D4" s="40"/>
       <c r="E4" s="6" t="s">
         <v>16</v>
       </c>
@@ -3240,27 +3320,27 @@
       <c r="AD4" s="7"/>
     </row>
     <row r="5">
-      <c r="A5" s="37"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="39"/>
+      <c r="A5" s="38"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="40"/>
       <c r="E5" s="6"/>
       <c r="K5" s="8"/>
       <c r="N5" s="6"/>
       <c r="O5" s="6"/>
     </row>
     <row r="6">
-      <c r="A6" s="37" t="s">
-        <v>441</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>442</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>443</v>
-      </c>
-      <c r="D6" s="39" t="s">
-        <v>444</v>
+      <c r="A6" s="38" t="s">
+        <v>450</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>451</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="D6" s="40" t="s">
+        <v>453</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>16</v>
@@ -3294,17 +3374,17 @@
       <c r="AD6" s="7"/>
     </row>
     <row r="7">
-      <c r="A7" s="23" t="s">
-        <v>445</v>
-      </c>
-      <c r="B7" s="23" t="s">
-        <v>445</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>446</v>
-      </c>
-      <c r="D7" s="24" t="s">
-        <v>447</v>
+      <c r="A7" s="24" t="s">
+        <v>454</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>454</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>455</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>456</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>16</v>
@@ -3344,17 +3424,17 @@
       <c r="AD7" s="7"/>
     </row>
     <row r="8">
-      <c r="A8" s="16" t="s">
-        <v>448</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>449</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>450</v>
-      </c>
-      <c r="D8" s="24" t="s">
-        <v>447</v>
+      <c r="A8" s="17" t="s">
+        <v>457</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>458</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>459</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>456</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>16</v>
@@ -3388,17 +3468,17 @@
       <c r="AD8" s="7"/>
     </row>
     <row r="9">
-      <c r="A9" s="16" t="s">
-        <v>451</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>452</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>453</v>
-      </c>
-      <c r="D9" s="24" t="s">
-        <v>447</v>
+      <c r="A9" s="17" t="s">
+        <v>460</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>461</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>462</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>456</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>16</v>
@@ -3432,17 +3512,17 @@
       <c r="AD9" s="7"/>
     </row>
     <row r="10">
-      <c r="A10" s="23" t="s">
-        <v>454</v>
-      </c>
-      <c r="B10" s="23" t="s">
-        <v>454</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>455</v>
-      </c>
-      <c r="D10" s="24" t="s">
-        <v>456</v>
+      <c r="A10" s="24" t="s">
+        <v>463</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>463</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>464</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>465</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>16</v>
@@ -3482,17 +3562,17 @@
       <c r="AD10" s="7"/>
     </row>
     <row r="12">
-      <c r="A12" s="37" t="s">
-        <v>149</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>149</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>457</v>
-      </c>
-      <c r="D12" s="24" t="s">
-        <v>444</v>
+      <c r="A12" s="38" t="s">
+        <v>158</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>466</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>453</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>16</v>
@@ -3526,17 +3606,17 @@
       <c r="AD12" s="7"/>
     </row>
     <row r="13">
-      <c r="A13" s="23" t="s">
-        <v>458</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>459</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>460</v>
-      </c>
-      <c r="D13" s="24" t="s">
-        <v>461</v>
+      <c r="A13" s="24" t="s">
+        <v>467</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>468</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>469</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>470</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>16</v>
@@ -3577,16 +3657,16 @@
     </row>
     <row r="14">
       <c r="A14" s="6" t="s">
-        <v>462</v>
+        <v>471</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>463</v>
+        <v>472</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>464</v>
+        <v>473</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>16</v>
@@ -3621,16 +3701,16 @@
     </row>
     <row r="16">
       <c r="A16" s="5" t="s">
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>444</v>
+        <v>453</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>16</v>
@@ -3665,16 +3745,16 @@
     </row>
     <row r="17">
       <c r="A17" s="6" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>470</v>
+        <v>479</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>471</v>
+        <v>480</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>16</v>
@@ -3709,16 +3789,16 @@
     </row>
     <row r="18">
       <c r="A18" s="6" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>473</v>
+        <v>482</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>471</v>
+        <v>480</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>16</v>
@@ -3753,16 +3833,16 @@
     </row>
     <row r="19">
       <c r="A19" s="6" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>471</v>
+        <v>480</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>16</v>
@@ -3797,16 +3877,16 @@
     </row>
     <row r="20">
       <c r="A20" s="6" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>478</v>
+        <v>487</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>471</v>
+        <v>480</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>16</v>
@@ -3841,13 +3921,13 @@
     </row>
     <row r="22">
       <c r="A22" s="5" t="s">
-        <v>479</v>
+        <v>488</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>479</v>
+        <v>488</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>480</v>
+        <v>489</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="6" t="s">
@@ -3886,16 +3966,16 @@
     </row>
     <row r="24">
       <c r="A24" s="5" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>482</v>
+        <v>491</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>16</v>
@@ -3930,16 +4010,16 @@
     </row>
     <row r="25">
       <c r="A25" s="6" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>486</v>
+        <v>495</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>487</v>
+        <v>496</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>16</v>
@@ -3974,16 +4054,16 @@
     </row>
     <row r="26">
       <c r="A26" s="6" t="s">
-        <v>488</v>
+        <v>497</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>489</v>
+        <v>498</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>491</v>
+        <v>500</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>16</v>
@@ -4018,16 +4098,16 @@
     </row>
     <row r="27">
       <c r="A27" s="6" t="s">
-        <v>492</v>
+        <v>501</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>494</v>
+        <v>503</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>491</v>
+        <v>500</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>16</v>
@@ -4062,16 +4142,16 @@
     </row>
     <row r="28">
       <c r="A28" s="6" t="s">
-        <v>495</v>
+        <v>504</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>495</v>
+        <v>504</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>495</v>
+        <v>504</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>487</v>
+        <v>496</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>16</v>
@@ -4106,16 +4186,16 @@
     </row>
     <row r="29">
       <c r="A29" s="6" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>497</v>
+        <v>506</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>498</v>
+        <v>507</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>499</v>
+        <v>508</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>16</v>
@@ -4150,16 +4230,16 @@
     </row>
     <row r="30">
       <c r="A30" s="6" t="s">
-        <v>500</v>
+        <v>509</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>500</v>
+        <v>509</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>501</v>
+        <v>510</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>502</v>
+        <v>511</v>
       </c>
       <c r="E30" s="6" t="s">
         <v>16</v>
@@ -4295,27 +4375,27 @@
     </row>
     <row r="2">
       <c r="A2" s="6" t="s">
-        <v>503</v>
+        <v>512</v>
       </c>
       <c r="B2" s="5"/>
-      <c r="J2" s="40" t="s">
-        <v>504</v>
+      <c r="J2" s="10" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="6" t="s">
-        <v>505</v>
-      </c>
-      <c r="J3" s="40" t="s">
-        <v>506</v>
+        <v>514</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="6" t="s">
-        <v>507</v>
-      </c>
-      <c r="J4" s="40" t="s">
-        <v>508</v>
+        <v>516</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="6">
@@ -4404,23 +4484,23 @@
     <row r="27">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
-      <c r="D27" s="21"/>
+      <c r="D27" s="22"/>
       <c r="K27" s="8"/>
     </row>
     <row r="28">
-      <c r="D28" s="21"/>
+      <c r="D28" s="22"/>
       <c r="K28" s="8"/>
     </row>
     <row r="29">
-      <c r="D29" s="21"/>
+      <c r="D29" s="22"/>
       <c r="K29" s="8"/>
     </row>
     <row r="30">
-      <c r="D30" s="21"/>
+      <c r="D30" s="22"/>
       <c r="K30" s="8"/>
     </row>
     <row r="31">
-      <c r="D31" s="21"/>
+      <c r="D31" s="22"/>
       <c r="K31" s="8"/>
     </row>
     <row r="32">
@@ -4431,30 +4511,30 @@
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="22"/>
-      <c r="I33" s="22"/>
-      <c r="J33" s="22"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="23"/>
+      <c r="J33" s="23"/>
       <c r="K33" s="8"/>
-      <c r="L33" s="22"/>
+      <c r="L33" s="23"/>
       <c r="M33" s="5"/>
-      <c r="P33" s="22"/>
-      <c r="Q33" s="22"/>
-      <c r="R33" s="22"/>
-      <c r="S33" s="22"/>
-      <c r="T33" s="22"/>
-      <c r="U33" s="22"/>
-      <c r="V33" s="22"/>
-      <c r="W33" s="22"/>
-      <c r="X33" s="22"/>
-      <c r="Y33" s="22"/>
-      <c r="Z33" s="22"/>
-      <c r="AA33" s="22"/>
-      <c r="AB33" s="22"/>
-      <c r="AC33" s="22"/>
-      <c r="AD33" s="22"/>
+      <c r="P33" s="23"/>
+      <c r="Q33" s="23"/>
+      <c r="R33" s="23"/>
+      <c r="S33" s="23"/>
+      <c r="T33" s="23"/>
+      <c r="U33" s="23"/>
+      <c r="V33" s="23"/>
+      <c r="W33" s="23"/>
+      <c r="X33" s="23"/>
+      <c r="Y33" s="23"/>
+      <c r="Z33" s="23"/>
+      <c r="AA33" s="23"/>
+      <c r="AB33" s="23"/>
+      <c r="AC33" s="23"/>
+      <c r="AD33" s="23"/>
     </row>
     <row r="34">
       <c r="K34" s="8"/>
@@ -4535,23 +4615,23 @@
       <c r="K57" s="8"/>
     </row>
     <row r="58">
-      <c r="A58" s="23"/>
-      <c r="B58" s="23"/>
+      <c r="A58" s="24"/>
+      <c r="B58" s="24"/>
       <c r="K58" s="8"/>
     </row>
     <row r="59">
-      <c r="A59" s="23"/>
-      <c r="B59" s="23"/>
+      <c r="A59" s="24"/>
+      <c r="B59" s="24"/>
       <c r="K59" s="8"/>
     </row>
     <row r="60">
-      <c r="A60" s="23"/>
-      <c r="B60" s="23"/>
+      <c r="A60" s="24"/>
+      <c r="B60" s="24"/>
       <c r="K60" s="8"/>
     </row>
     <row r="61">
-      <c r="A61" s="23"/>
-      <c r="B61" s="23"/>
+      <c r="A61" s="24"/>
+      <c r="B61" s="24"/>
       <c r="K61" s="8"/>
     </row>
     <row r="62">
@@ -4608,30 +4688,30 @@
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
       <c r="D77" s="5"/>
-      <c r="E77" s="22"/>
-      <c r="F77" s="22"/>
-      <c r="G77" s="22"/>
-      <c r="H77" s="22"/>
-      <c r="I77" s="22"/>
-      <c r="J77" s="22"/>
+      <c r="E77" s="23"/>
+      <c r="F77" s="23"/>
+      <c r="G77" s="23"/>
+      <c r="H77" s="23"/>
+      <c r="I77" s="23"/>
+      <c r="J77" s="23"/>
       <c r="K77" s="8"/>
-      <c r="L77" s="22"/>
+      <c r="L77" s="23"/>
       <c r="M77" s="5"/>
-      <c r="P77" s="22"/>
-      <c r="Q77" s="22"/>
-      <c r="R77" s="22"/>
-      <c r="S77" s="22"/>
-      <c r="T77" s="22"/>
-      <c r="U77" s="22"/>
-      <c r="V77" s="22"/>
-      <c r="W77" s="22"/>
-      <c r="X77" s="22"/>
-      <c r="Y77" s="22"/>
-      <c r="Z77" s="22"/>
-      <c r="AA77" s="22"/>
-      <c r="AB77" s="22"/>
-      <c r="AC77" s="22"/>
-      <c r="AD77" s="22"/>
+      <c r="P77" s="23"/>
+      <c r="Q77" s="23"/>
+      <c r="R77" s="23"/>
+      <c r="S77" s="23"/>
+      <c r="T77" s="23"/>
+      <c r="U77" s="23"/>
+      <c r="V77" s="23"/>
+      <c r="W77" s="23"/>
+      <c r="X77" s="23"/>
+      <c r="Y77" s="23"/>
+      <c r="Z77" s="23"/>
+      <c r="AA77" s="23"/>
+      <c r="AB77" s="23"/>
+      <c r="AC77" s="23"/>
+      <c r="AD77" s="23"/>
     </row>
     <row r="78">
       <c r="K78" s="8"/>
@@ -4640,10 +4720,10 @@
       <c r="K79" s="8"/>
     </row>
     <row r="80">
-      <c r="A80" s="37"/>
-      <c r="B80" s="37"/>
-      <c r="C80" s="23"/>
-      <c r="D80" s="38"/>
+      <c r="A80" s="38"/>
+      <c r="B80" s="38"/>
+      <c r="C80" s="24"/>
+      <c r="D80" s="39"/>
       <c r="K80" s="8"/>
     </row>
     <row r="81">
@@ -4757,46 +4837,46 @@
   </cols>
   <sheetData>
     <row r="1" ht="28.5" customHeight="1">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="G1" s="10" t="s">
+      <c r="D1" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="L1" s="14" t="s">
+      <c r="K1" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="L1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="M1" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="15" t="s">
+      <c r="N1" s="16" t="s">
         <v>13</v>
       </c>
       <c r="O1" s="5" t="s">
@@ -4805,19 +4885,19 @@
     </row>
     <row r="2">
       <c r="A2" s="6" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>21</v>
@@ -4855,19 +4935,19 @@
     </row>
     <row r="3">
       <c r="A3" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>57</v>
+        <v>61</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>62</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>21</v>
@@ -4905,19 +4985,19 @@
     </row>
     <row r="4">
       <c r="A4" s="6" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>21</v>
@@ -4955,19 +5035,19 @@
     </row>
     <row r="5">
       <c r="A5" s="6" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>21</v>
@@ -5003,19 +5083,19 @@
     </row>
     <row r="6">
       <c r="A6" s="6" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>21</v>
@@ -5049,19 +5129,19 @@
     </row>
     <row r="7">
       <c r="A7" s="6" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>21</v>
@@ -5094,8 +5174,54 @@
       <c r="AB7" s="7"/>
     </row>
     <row r="8">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
+      <c r="A8" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="8">
+        <v>45434.0</v>
+      </c>
+      <c r="L8" s="7"/>
+      <c r="M8" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="O8" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="7"/>
+      <c r="X8" s="7"/>
+      <c r="Y8" s="7"/>
+      <c r="Z8" s="7"/>
+      <c r="AA8" s="7"/>
+      <c r="AB8" s="7"/>
     </row>
     <row r="9">
       <c r="A9" s="6"/>
@@ -5106,7 +5232,7 @@
     </row>
     <row r="14">
       <c r="A14" s="6" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="B14" s="6"/>
     </row>
@@ -5203,8 +5329,9 @@
   <hyperlinks>
     <hyperlink r:id="rId1" ref="O2"/>
     <hyperlink r:id="rId2" ref="O4"/>
+    <hyperlink r:id="rId3" ref="O8"/>
   </hyperlinks>
-  <drawing r:id="rId3"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -5278,26 +5405,26 @@
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
     </row>
     <row r="3">
       <c r="A3" s="6" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>16</v>
@@ -5307,7 +5434,7 @@
       </c>
       <c r="L3" s="8"/>
       <c r="M3" s="6" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="N3" s="6" t="s">
         <v>39</v>
@@ -5318,16 +5445,16 @@
     </row>
     <row r="4">
       <c r="A4" s="6" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>16</v>
@@ -5337,7 +5464,7 @@
       </c>
       <c r="L4" s="8"/>
       <c r="M4" s="6" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="N4" s="6" t="s">
         <v>39</v>
@@ -5348,16 +5475,16 @@
     </row>
     <row r="5">
       <c r="A5" s="6" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>16</v>
@@ -5367,7 +5494,7 @@
       </c>
       <c r="L5" s="8"/>
       <c r="M5" s="6" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="N5" s="6" t="s">
         <v>39</v>
@@ -5378,16 +5505,16 @@
     </row>
     <row r="6">
       <c r="A6" s="6" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>90</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>81</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>16</v>
@@ -5397,7 +5524,7 @@
       </c>
       <c r="L6" s="8"/>
       <c r="M6" s="6" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="N6" s="6" t="s">
         <v>39</v>
@@ -5408,16 +5535,16 @@
     </row>
     <row r="7">
       <c r="A7" s="6" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>16</v>
@@ -5427,7 +5554,7 @@
       </c>
       <c r="L7" s="8"/>
       <c r="M7" s="6" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="N7" s="6" t="s">
         <v>39</v>
@@ -5438,16 +5565,16 @@
     </row>
     <row r="8">
       <c r="A8" s="6" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>16</v>
@@ -5457,7 +5584,7 @@
       </c>
       <c r="L8" s="8"/>
       <c r="M8" s="6" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="N8" s="6" t="s">
         <v>39</v>
@@ -5468,16 +5595,16 @@
     </row>
     <row r="9">
       <c r="A9" s="6" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>16</v>
@@ -5487,7 +5614,7 @@
       </c>
       <c r="L9" s="8"/>
       <c r="M9" s="6" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="N9" s="6" t="s">
         <v>39</v>
@@ -5498,16 +5625,16 @@
     </row>
     <row r="10">
       <c r="A10" s="6" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>16</v>
@@ -5517,7 +5644,7 @@
       </c>
       <c r="L10" s="8"/>
       <c r="M10" s="6" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="N10" s="6" t="s">
         <v>39</v>
@@ -5528,16 +5655,16 @@
     </row>
     <row r="11">
       <c r="A11" s="6" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>16</v>
@@ -5547,7 +5674,7 @@
       </c>
       <c r="L11" s="8"/>
       <c r="M11" s="6" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="N11" s="6" t="s">
         <v>39</v>
@@ -5558,16 +5685,16 @@
     </row>
     <row r="12">
       <c r="A12" s="6" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>16</v>
@@ -5577,7 +5704,7 @@
       </c>
       <c r="L12" s="8"/>
       <c r="M12" s="6" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="N12" s="6" t="s">
         <v>39</v>
@@ -5588,16 +5715,16 @@
     </row>
     <row r="13">
       <c r="A13" s="6" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>16</v>
@@ -5606,7 +5733,7 @@
         <v>44727.0</v>
       </c>
       <c r="M13" s="6" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="N13" s="6" t="s">
         <v>39</v>
@@ -5616,66 +5743,66 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>81</v>
+      <c r="A14" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>90</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F14" s="20"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
       <c r="M14" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="N14" s="20"/>
-      <c r="O14" s="20"/>
-      <c r="P14" s="20"/>
-      <c r="Q14" s="20"/>
-      <c r="R14" s="20"/>
-      <c r="S14" s="20"/>
-      <c r="T14" s="20"/>
-      <c r="U14" s="20"/>
-      <c r="V14" s="20"/>
-      <c r="W14" s="20"/>
-      <c r="X14" s="20"/>
-      <c r="Y14" s="20"/>
-      <c r="Z14" s="20"/>
-      <c r="AA14" s="20"/>
-      <c r="AB14" s="20"/>
-      <c r="AC14" s="20"/>
-      <c r="AD14" s="20"/>
-      <c r="AE14" s="20"/>
+        <v>91</v>
+      </c>
+      <c r="N14" s="21"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="21"/>
+      <c r="R14" s="21"/>
+      <c r="S14" s="21"/>
+      <c r="T14" s="21"/>
+      <c r="U14" s="21"/>
+      <c r="V14" s="21"/>
+      <c r="W14" s="21"/>
+      <c r="X14" s="21"/>
+      <c r="Y14" s="21"/>
+      <c r="Z14" s="21"/>
+      <c r="AA14" s="21"/>
+      <c r="AB14" s="21"/>
+      <c r="AC14" s="21"/>
+      <c r="AD14" s="21"/>
+      <c r="AE14" s="21"/>
     </row>
     <row r="16">
       <c r="A16" s="5" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="6" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>16</v>
@@ -5684,7 +5811,7 @@
         <v>44727.0</v>
       </c>
       <c r="M17" s="6" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="N17" s="6" t="s">
         <v>39</v>
@@ -5695,13 +5822,13 @@
     </row>
     <row r="18">
       <c r="A18" s="6" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>16</v>
@@ -5711,7 +5838,7 @@
       </c>
       <c r="L18" s="8"/>
       <c r="M18" s="6" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="N18" s="6" t="s">
         <v>39</v>
@@ -5722,13 +5849,13 @@
     </row>
     <row r="19">
       <c r="A19" s="6" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>16</v>
@@ -5738,7 +5865,7 @@
       </c>
       <c r="L19" s="8"/>
       <c r="M19" s="6" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="N19" s="6" t="s">
         <v>39</v>
@@ -5749,13 +5876,13 @@
     </row>
     <row r="20">
       <c r="A20" s="6" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>16</v>
@@ -5765,7 +5892,7 @@
       </c>
       <c r="L20" s="8"/>
       <c r="M20" s="6" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="N20" s="6" t="s">
         <v>39</v>
@@ -5776,13 +5903,13 @@
     </row>
     <row r="21">
       <c r="A21" s="6" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>16</v>
@@ -5792,7 +5919,7 @@
       </c>
       <c r="L21" s="8"/>
       <c r="M21" s="6" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="N21" s="6" t="s">
         <v>39</v>
@@ -5803,13 +5930,13 @@
     </row>
     <row r="22">
       <c r="A22" s="6" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>16</v>
@@ -5819,7 +5946,7 @@
       </c>
       <c r="L22" s="8"/>
       <c r="M22" s="6" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="N22" s="6" t="s">
         <v>39</v>
@@ -5830,28 +5957,28 @@
     </row>
     <row r="24">
       <c r="A24" s="5" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="C24" s="6"/>
-      <c r="D24" s="21"/>
+      <c r="D24" s="22"/>
       <c r="K24" s="8"/>
       <c r="M24" s="6"/>
     </row>
     <row r="25">
       <c r="A25" s="6" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="D25" s="21" t="s">
-        <v>142</v>
+        <v>150</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>151</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>16</v>
@@ -5860,7 +5987,7 @@
         <v>44727.0</v>
       </c>
       <c r="M25" s="6" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="N25" s="6" t="s">
         <v>39</v>
@@ -5871,16 +5998,16 @@
     </row>
     <row r="26">
       <c r="A26" s="6" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="D26" s="21" t="s">
-        <v>142</v>
+        <v>154</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>151</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>16</v>
@@ -5889,7 +6016,7 @@
         <v>44727.0</v>
       </c>
       <c r="M26" s="6" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="N26" s="6" t="s">
         <v>39</v>
@@ -5900,16 +6027,16 @@
     </row>
     <row r="27">
       <c r="A27" s="6" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="D27" s="21" t="s">
-        <v>142</v>
+        <v>157</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>151</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>16</v>
@@ -5918,7 +6045,7 @@
         <v>44727.0</v>
       </c>
       <c r="M27" s="6" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="N27" s="6" t="s">
         <v>39</v>
@@ -5929,16 +6056,16 @@
     </row>
     <row r="28">
       <c r="A28" s="6" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="D28" s="21" t="s">
-        <v>142</v>
+        <v>159</v>
+      </c>
+      <c r="D28" s="22" t="s">
+        <v>151</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>16</v>
@@ -5947,7 +6074,7 @@
         <v>44727.0</v>
       </c>
       <c r="M28" s="6" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="N28" s="6" t="s">
         <v>39</v>
@@ -5958,50 +6085,50 @@
     </row>
     <row r="30">
       <c r="A30" s="5" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="22"/>
-      <c r="J30" s="22"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="23"/>
       <c r="K30" s="8"/>
-      <c r="L30" s="22"/>
+      <c r="L30" s="23"/>
       <c r="M30" s="5"/>
-      <c r="P30" s="22"/>
-      <c r="Q30" s="22"/>
-      <c r="R30" s="22"/>
-      <c r="S30" s="22"/>
-      <c r="T30" s="22"/>
-      <c r="U30" s="22"/>
-      <c r="V30" s="22"/>
-      <c r="W30" s="22"/>
-      <c r="X30" s="22"/>
-      <c r="Y30" s="22"/>
-      <c r="Z30" s="22"/>
-      <c r="AA30" s="22"/>
-      <c r="AB30" s="22"/>
-      <c r="AC30" s="22"/>
-      <c r="AD30" s="22"/>
+      <c r="P30" s="23"/>
+      <c r="Q30" s="23"/>
+      <c r="R30" s="23"/>
+      <c r="S30" s="23"/>
+      <c r="T30" s="23"/>
+      <c r="U30" s="23"/>
+      <c r="V30" s="23"/>
+      <c r="W30" s="23"/>
+      <c r="X30" s="23"/>
+      <c r="Y30" s="23"/>
+      <c r="Z30" s="23"/>
+      <c r="AA30" s="23"/>
+      <c r="AB30" s="23"/>
+      <c r="AC30" s="23"/>
+      <c r="AD30" s="23"/>
     </row>
     <row r="31">
       <c r="A31" s="6" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>16</v>
@@ -6010,10 +6137,10 @@
         <v>44727.0</v>
       </c>
       <c r="M31" s="6" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="N31" s="6" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="O31" s="9" t="s">
         <v>28</v>
@@ -6021,16 +6148,16 @@
     </row>
     <row r="32">
       <c r="A32" s="6" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>16</v>
@@ -6039,10 +6166,10 @@
         <v>44727.0</v>
       </c>
       <c r="M32" s="6" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="N32" s="6" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="O32" s="9" t="s">
         <v>28</v>
@@ -6050,16 +6177,16 @@
     </row>
     <row r="33">
       <c r="A33" s="6" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E33" s="6" t="s">
         <v>16</v>
@@ -6068,10 +6195,10 @@
         <v>44727.0</v>
       </c>
       <c r="M33" s="6" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="N33" s="6" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="O33" s="9" t="s">
         <v>28</v>
@@ -6079,16 +6206,16 @@
     </row>
     <row r="34">
       <c r="A34" s="6" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="B34" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="D34" s="6" t="s">
         <v>164</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>155</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>16</v>
@@ -6097,10 +6224,10 @@
         <v>44727.0</v>
       </c>
       <c r="M34" s="6" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="N34" s="6" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="O34" s="9" t="s">
         <v>28</v>
@@ -6108,16 +6235,16 @@
     </row>
     <row r="35">
       <c r="A35" s="6" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E35" s="6" t="s">
         <v>16</v>
@@ -6126,10 +6253,10 @@
         <v>44727.0</v>
       </c>
       <c r="M35" s="6" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="N35" s="6" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="O35" s="9" t="s">
         <v>28</v>
@@ -6137,16 +6264,16 @@
     </row>
     <row r="36">
       <c r="A36" s="6" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="E36" s="6" t="s">
         <v>16</v>
@@ -6155,10 +6282,10 @@
         <v>44727.0</v>
       </c>
       <c r="M36" s="6" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="N36" s="6" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="O36" s="9" t="s">
         <v>28</v>
@@ -6166,37 +6293,37 @@
     </row>
     <row r="38">
       <c r="A38" s="5" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="K38" s="8"/>
     </row>
     <row r="39">
       <c r="A39" s="6" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="E39" s="6" t="s">
         <v>16</v>
       </c>
       <c r="I39" s="6" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="K39" s="8">
         <v>44727.0</v>
       </c>
       <c r="M39" s="6" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="N39" s="6" t="s">
         <v>39</v>
@@ -6207,28 +6334,28 @@
     </row>
     <row r="40">
       <c r="A40" s="6" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="E40" s="6" t="s">
         <v>16</v>
       </c>
       <c r="I40" s="6" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="K40" s="8">
         <v>44727.0</v>
       </c>
       <c r="M40" s="6" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="N40" s="6" t="s">
         <v>39</v>
@@ -6239,21 +6366,21 @@
     </row>
     <row r="42">
       <c r="A42" s="5" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="23" t="s">
-        <v>184</v>
-      </c>
-      <c r="B43" s="16" t="s">
-        <v>185</v>
-      </c>
-      <c r="C43" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="D43" s="24" t="s">
-        <v>187</v>
+      <c r="A43" s="24" t="s">
+        <v>193</v>
+      </c>
+      <c r="B43" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="C43" s="24" t="s">
+        <v>195</v>
+      </c>
+      <c r="D43" s="25" t="s">
+        <v>196</v>
       </c>
       <c r="E43" s="6" t="s">
         <v>16</v>
@@ -6262,7 +6389,7 @@
         <v>44727.0</v>
       </c>
       <c r="M43" s="6" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="N43" s="6" t="s">
         <v>39</v>
@@ -6272,154 +6399,154 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="25" t="s">
-        <v>188</v>
-      </c>
-      <c r="B44" s="25" t="s">
-        <v>189</v>
-      </c>
-      <c r="C44" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="D44" s="27" t="s">
-        <v>191</v>
-      </c>
-      <c r="E44" s="20" t="s">
+      <c r="A44" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="B44" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="C44" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="D44" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="E44" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="F44" s="20"/>
-      <c r="G44" s="20"/>
-      <c r="H44" s="20"/>
-      <c r="I44" s="20"/>
-      <c r="J44" s="20"/>
-      <c r="K44" s="28">
+      <c r="F44" s="21"/>
+      <c r="G44" s="21"/>
+      <c r="H44" s="21"/>
+      <c r="I44" s="21"/>
+      <c r="J44" s="21"/>
+      <c r="K44" s="29">
         <v>44727.0</v>
       </c>
-      <c r="L44" s="20"/>
+      <c r="L44" s="21"/>
       <c r="M44" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="N44" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="N44" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="O44" s="29" t="s">
+      <c r="O44" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="P44" s="20"/>
-      <c r="Q44" s="20"/>
-      <c r="R44" s="20"/>
-      <c r="S44" s="20"/>
-      <c r="T44" s="20"/>
-      <c r="U44" s="20"/>
-      <c r="V44" s="20"/>
-      <c r="W44" s="20"/>
-      <c r="X44" s="20"/>
-      <c r="Y44" s="20"/>
-      <c r="Z44" s="20"/>
-      <c r="AA44" s="20"/>
-      <c r="AB44" s="20"/>
-      <c r="AC44" s="20"/>
-      <c r="AD44" s="20"/>
+      <c r="P44" s="21"/>
+      <c r="Q44" s="21"/>
+      <c r="R44" s="21"/>
+      <c r="S44" s="21"/>
+      <c r="T44" s="21"/>
+      <c r="U44" s="21"/>
+      <c r="V44" s="21"/>
+      <c r="W44" s="21"/>
+      <c r="X44" s="21"/>
+      <c r="Y44" s="21"/>
+      <c r="Z44" s="21"/>
+      <c r="AA44" s="21"/>
+      <c r="AB44" s="21"/>
+      <c r="AC44" s="21"/>
+      <c r="AD44" s="21"/>
     </row>
     <row r="45">
-      <c r="A45" s="25" t="s">
-        <v>192</v>
-      </c>
-      <c r="B45" s="25" t="s">
-        <v>193</v>
-      </c>
-      <c r="C45" s="26" t="s">
-        <v>194</v>
-      </c>
-      <c r="D45" s="30" t="s">
-        <v>195</v>
-      </c>
-      <c r="E45" s="20" t="s">
+      <c r="A45" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="B45" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="C45" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="D45" s="31" t="s">
+        <v>204</v>
+      </c>
+      <c r="E45" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="F45" s="20"/>
-      <c r="G45" s="20"/>
-      <c r="H45" s="20"/>
-      <c r="I45" s="20"/>
-      <c r="J45" s="20"/>
-      <c r="K45" s="28">
+      <c r="F45" s="21"/>
+      <c r="G45" s="21"/>
+      <c r="H45" s="21"/>
+      <c r="I45" s="21"/>
+      <c r="J45" s="21"/>
+      <c r="K45" s="29">
         <v>44727.0</v>
       </c>
-      <c r="L45" s="20"/>
+      <c r="L45" s="21"/>
       <c r="M45" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="N45" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="N45" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="O45" s="29" t="s">
+      <c r="O45" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="P45" s="20"/>
-      <c r="Q45" s="20"/>
-      <c r="R45" s="20"/>
-      <c r="S45" s="20"/>
-      <c r="T45" s="20"/>
-      <c r="U45" s="20"/>
-      <c r="V45" s="20"/>
-      <c r="W45" s="20"/>
-      <c r="X45" s="20"/>
-      <c r="Y45" s="20"/>
-      <c r="Z45" s="20"/>
-      <c r="AA45" s="20"/>
-      <c r="AB45" s="20"/>
-      <c r="AC45" s="20"/>
-      <c r="AD45" s="20"/>
+      <c r="P45" s="21"/>
+      <c r="Q45" s="21"/>
+      <c r="R45" s="21"/>
+      <c r="S45" s="21"/>
+      <c r="T45" s="21"/>
+      <c r="U45" s="21"/>
+      <c r="V45" s="21"/>
+      <c r="W45" s="21"/>
+      <c r="X45" s="21"/>
+      <c r="Y45" s="21"/>
+      <c r="Z45" s="21"/>
+      <c r="AA45" s="21"/>
+      <c r="AB45" s="21"/>
+      <c r="AC45" s="21"/>
+      <c r="AD45" s="21"/>
     </row>
     <row r="46">
-      <c r="A46" s="25" t="s">
-        <v>196</v>
-      </c>
-      <c r="B46" s="25" t="s">
-        <v>197</v>
-      </c>
-      <c r="C46" s="26" t="s">
-        <v>198</v>
-      </c>
-      <c r="D46" s="30" t="s">
-        <v>199</v>
-      </c>
-      <c r="E46" s="20" t="s">
+      <c r="A46" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="B46" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="C46" s="27" t="s">
+        <v>207</v>
+      </c>
+      <c r="D46" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="E46" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="F46" s="20"/>
-      <c r="G46" s="20"/>
-      <c r="H46" s="20"/>
-      <c r="I46" s="20"/>
-      <c r="J46" s="20"/>
-      <c r="K46" s="28">
+      <c r="F46" s="21"/>
+      <c r="G46" s="21"/>
+      <c r="H46" s="21"/>
+      <c r="I46" s="21"/>
+      <c r="J46" s="21"/>
+      <c r="K46" s="29">
         <v>44727.0</v>
       </c>
-      <c r="L46" s="20"/>
+      <c r="L46" s="21"/>
       <c r="M46" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="N46" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="N46" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="O46" s="29" t="s">
+      <c r="O46" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="P46" s="20"/>
-      <c r="Q46" s="20"/>
-      <c r="R46" s="20"/>
-      <c r="S46" s="20"/>
-      <c r="T46" s="20"/>
-      <c r="U46" s="20"/>
-      <c r="V46" s="20"/>
-      <c r="W46" s="20"/>
-      <c r="X46" s="20"/>
-      <c r="Y46" s="20"/>
-      <c r="Z46" s="20"/>
-      <c r="AA46" s="20"/>
-      <c r="AB46" s="20"/>
-      <c r="AC46" s="20"/>
-      <c r="AD46" s="20"/>
+      <c r="P46" s="21"/>
+      <c r="Q46" s="21"/>
+      <c r="R46" s="21"/>
+      <c r="S46" s="21"/>
+      <c r="T46" s="21"/>
+      <c r="U46" s="21"/>
+      <c r="V46" s="21"/>
+      <c r="W46" s="21"/>
+      <c r="X46" s="21"/>
+      <c r="Y46" s="21"/>
+      <c r="Z46" s="21"/>
+      <c r="AA46" s="21"/>
+      <c r="AB46" s="21"/>
+      <c r="AC46" s="21"/>
+      <c r="AD46" s="21"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A43:L43 M43:M46 N43:AD43">
@@ -6671,10 +6798,10 @@
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -6683,23 +6810,23 @@
     </row>
     <row r="3">
       <c r="A3" s="6" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="K3" s="8"/>
     </row>
     <row r="4">
       <c r="A4" s="6" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="6" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -6737,17 +6864,17 @@
     </row>
     <row r="5">
       <c r="A5" s="6" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="6" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -6785,17 +6912,17 @@
     </row>
     <row r="6">
       <c r="A6" s="6" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="6" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -6833,17 +6960,17 @@
     </row>
     <row r="7">
       <c r="A7" s="6" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="6" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -6881,23 +7008,23 @@
     </row>
     <row r="8">
       <c r="A8" s="6" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="6" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="6" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="J8" s="7"/>
       <c r="K8" s="8">
@@ -6931,17 +7058,17 @@
     </row>
     <row r="9">
       <c r="A9" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="6" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
@@ -6979,17 +7106,17 @@
     </row>
     <row r="10">
       <c r="A10" s="6" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="6" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
@@ -7027,17 +7154,17 @@
     </row>
     <row r="11">
       <c r="A11" s="6" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="6" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -7109,19 +7236,19 @@
     </row>
     <row r="13">
       <c r="A13" s="6" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
@@ -7153,19 +7280,19 @@
     </row>
     <row r="14">
       <c r="A14" s="6" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
@@ -7199,19 +7326,19 @@
     </row>
     <row r="15">
       <c r="A15" s="6" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
@@ -7245,19 +7372,19 @@
     </row>
     <row r="16">
       <c r="A16" s="6" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
@@ -7291,19 +7418,19 @@
     </row>
     <row r="17">
       <c r="A17" s="6" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="C17" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="D17" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="D17" s="6" t="s">
-        <v>227</v>
-      </c>
       <c r="E17" s="6" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
@@ -7337,19 +7464,19 @@
     </row>
     <row r="18">
       <c r="A18" s="6" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
@@ -7383,19 +7510,19 @@
     </row>
     <row r="19">
       <c r="A19" s="6" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
@@ -7429,17 +7556,19 @@
     </row>
     <row r="20">
       <c r="A20" s="6" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="D20" s="7"/>
+        <v>254</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>236</v>
+      </c>
       <c r="E20" s="6" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
@@ -7473,17 +7602,19 @@
     </row>
     <row r="21">
       <c r="A21" s="6" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="D21" s="7"/>
+        <v>257</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>236</v>
+      </c>
       <c r="E21" s="6" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
@@ -7517,19 +7648,19 @@
     </row>
     <row r="22">
       <c r="A22" s="6" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
@@ -7681,10 +7812,10 @@
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -7698,25 +7829,25 @@
       <c r="K3" s="8"/>
     </row>
     <row r="4">
-      <c r="A4" s="16" t="s">
-        <v>254</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>254</v>
+      <c r="A4" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>263</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="6" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
       <c r="J4" s="6" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="K4" s="8">
         <v>45421.0</v>
@@ -7749,25 +7880,25 @@
       <c r="AE4" s="7"/>
     </row>
     <row r="5">
-      <c r="A5" s="16" t="s">
-        <v>258</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>258</v>
+      <c r="A5" s="17" t="s">
+        <v>267</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>267</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="6" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
       <c r="J5" s="6" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="K5" s="8">
         <v>45421.0</v>
@@ -7796,27 +7927,27 @@
       <c r="AE5" s="7"/>
     </row>
     <row r="6">
-      <c r="A6" s="16" t="s">
-        <v>260</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>260</v>
+      <c r="A6" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>269</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
       <c r="J6" s="6" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="K6" s="8">
         <v>45421.0</v>
@@ -7849,25 +7980,25 @@
       <c r="AE6" s="7"/>
     </row>
     <row r="7">
-      <c r="A7" s="16" t="s">
-        <v>263</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>263</v>
+      <c r="A7" s="17" t="s">
+        <v>272</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>272</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="6" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
       <c r="J7" s="6" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="K7" s="8">
         <v>45421.0</v>
@@ -7896,27 +8027,27 @@
       <c r="AE7" s="7"/>
     </row>
     <row r="8">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>265</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>265</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>256</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
       <c r="J8" s="6" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="K8" s="8">
         <v>45421.0</v>
@@ -7949,25 +8080,25 @@
       <c r="AE8" s="7"/>
     </row>
     <row r="9">
-      <c r="A9" s="16" t="s">
-        <v>268</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>268</v>
+      <c r="A9" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>277</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="6" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
       <c r="J9" s="6" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="K9" s="8">
         <v>45421.0</v>
@@ -8000,403 +8131,403 @@
       <c r="AE9" s="7"/>
     </row>
     <row r="10">
-      <c r="A10" s="31" t="s">
-        <v>270</v>
-      </c>
-      <c r="B10" s="31" t="s">
-        <v>270</v>
-      </c>
-      <c r="C10" s="31" t="s">
-        <v>271</v>
+      <c r="A10" s="32" t="s">
+        <v>279</v>
+      </c>
+      <c r="B10" s="32" t="s">
+        <v>279</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>280</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="31" t="s">
-        <v>272</v>
+        <v>265</v>
+      </c>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="32" t="s">
+        <v>281</v>
       </c>
       <c r="K10" s="8">
         <v>45421.0</v>
       </c>
-      <c r="L10" s="20"/>
+      <c r="L10" s="21"/>
       <c r="M10" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="N10" s="20"/>
-      <c r="O10" s="20"/>
-      <c r="P10" s="20"/>
-      <c r="Q10" s="20"/>
-      <c r="R10" s="20"/>
-      <c r="S10" s="20"/>
-      <c r="T10" s="20"/>
-      <c r="U10" s="20"/>
-      <c r="V10" s="20"/>
-      <c r="W10" s="20"/>
-      <c r="X10" s="20"/>
-      <c r="Y10" s="20"/>
-      <c r="Z10" s="20"/>
-      <c r="AA10" s="20"/>
-      <c r="AB10" s="20"/>
-      <c r="AC10" s="20"/>
-      <c r="AD10" s="20"/>
-      <c r="AE10" s="20"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="21"/>
+      <c r="Q10" s="21"/>
+      <c r="R10" s="21"/>
+      <c r="S10" s="21"/>
+      <c r="T10" s="21"/>
+      <c r="U10" s="21"/>
+      <c r="V10" s="21"/>
+      <c r="W10" s="21"/>
+      <c r="X10" s="21"/>
+      <c r="Y10" s="21"/>
+      <c r="Z10" s="21"/>
+      <c r="AA10" s="21"/>
+      <c r="AB10" s="21"/>
+      <c r="AC10" s="21"/>
+      <c r="AD10" s="21"/>
+      <c r="AE10" s="21"/>
     </row>
     <row r="11">
-      <c r="A11" s="31" t="s">
-        <v>273</v>
-      </c>
-      <c r="B11" s="31" t="s">
-        <v>273</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>274</v>
+      <c r="A11" s="32" t="s">
+        <v>282</v>
+      </c>
+      <c r="B11" s="32" t="s">
+        <v>282</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>283</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20" t="s">
-        <v>275</v>
+        <v>265</v>
+      </c>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21" t="s">
+        <v>284</v>
       </c>
       <c r="K11" s="8">
         <v>45421.0</v>
       </c>
-      <c r="L11" s="20"/>
+      <c r="L11" s="21"/>
       <c r="M11" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="N11" s="20"/>
-      <c r="O11" s="20"/>
-      <c r="P11" s="20"/>
-      <c r="Q11" s="20"/>
-      <c r="R11" s="20"/>
-      <c r="S11" s="20"/>
-      <c r="T11" s="20"/>
-      <c r="U11" s="20"/>
-      <c r="V11" s="20"/>
-      <c r="W11" s="20"/>
-      <c r="X11" s="20"/>
-      <c r="Y11" s="20"/>
-      <c r="Z11" s="20"/>
-      <c r="AA11" s="20"/>
-      <c r="AB11" s="20"/>
-      <c r="AC11" s="20"/>
-      <c r="AD11" s="20"/>
-      <c r="AE11" s="20"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="21"/>
+      <c r="R11" s="21"/>
+      <c r="S11" s="21"/>
+      <c r="T11" s="21"/>
+      <c r="U11" s="21"/>
+      <c r="V11" s="21"/>
+      <c r="W11" s="21"/>
+      <c r="X11" s="21"/>
+      <c r="Y11" s="21"/>
+      <c r="Z11" s="21"/>
+      <c r="AA11" s="21"/>
+      <c r="AB11" s="21"/>
+      <c r="AC11" s="21"/>
+      <c r="AD11" s="21"/>
+      <c r="AE11" s="21"/>
     </row>
     <row r="12">
-      <c r="A12" s="31" t="s">
-        <v>276</v>
-      </c>
-      <c r="B12" s="31" t="s">
-        <v>276</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>277</v>
+      <c r="A12" s="32" t="s">
+        <v>285</v>
+      </c>
+      <c r="B12" s="32" t="s">
+        <v>285</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>286</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20" t="s">
-        <v>275</v>
+        <v>265</v>
+      </c>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21" t="s">
+        <v>284</v>
       </c>
       <c r="K12" s="8">
         <v>45421.0</v>
       </c>
-      <c r="L12" s="20"/>
+      <c r="L12" s="21"/>
       <c r="M12" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="N12" s="20"/>
-      <c r="O12" s="20"/>
-      <c r="P12" s="20"/>
-      <c r="Q12" s="20"/>
-      <c r="R12" s="20"/>
-      <c r="S12" s="20"/>
-      <c r="T12" s="20"/>
-      <c r="U12" s="20"/>
-      <c r="V12" s="20"/>
-      <c r="W12" s="20"/>
-      <c r="X12" s="20"/>
-      <c r="Y12" s="20"/>
-      <c r="Z12" s="20"/>
-      <c r="AA12" s="20"/>
-      <c r="AB12" s="20"/>
-      <c r="AC12" s="20"/>
-      <c r="AD12" s="20"/>
-      <c r="AE12" s="20"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="21"/>
+      <c r="Q12" s="21"/>
+      <c r="R12" s="21"/>
+      <c r="S12" s="21"/>
+      <c r="T12" s="21"/>
+      <c r="U12" s="21"/>
+      <c r="V12" s="21"/>
+      <c r="W12" s="21"/>
+      <c r="X12" s="21"/>
+      <c r="Y12" s="21"/>
+      <c r="Z12" s="21"/>
+      <c r="AA12" s="21"/>
+      <c r="AB12" s="21"/>
+      <c r="AC12" s="21"/>
+      <c r="AD12" s="21"/>
+      <c r="AE12" s="21"/>
     </row>
     <row r="13">
-      <c r="A13" s="31" t="s">
-        <v>278</v>
-      </c>
-      <c r="B13" s="31" t="s">
-        <v>278</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>279</v>
+      <c r="A13" s="32" t="s">
+        <v>287</v>
+      </c>
+      <c r="B13" s="32" t="s">
+        <v>287</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>288</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20" t="s">
-        <v>275</v>
+        <v>265</v>
+      </c>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21" t="s">
+        <v>284</v>
       </c>
       <c r="K13" s="8">
         <v>45421.0</v>
       </c>
-      <c r="L13" s="20"/>
+      <c r="L13" s="21"/>
       <c r="M13" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="N13" s="20"/>
-      <c r="O13" s="20"/>
-      <c r="P13" s="20"/>
-      <c r="Q13" s="20"/>
-      <c r="R13" s="20"/>
-      <c r="S13" s="20"/>
-      <c r="T13" s="20"/>
-      <c r="U13" s="20"/>
-      <c r="V13" s="20"/>
-      <c r="W13" s="20"/>
-      <c r="X13" s="20"/>
-      <c r="Y13" s="20"/>
-      <c r="Z13" s="20"/>
-      <c r="AA13" s="20"/>
-      <c r="AB13" s="20"/>
-      <c r="AC13" s="20"/>
-      <c r="AD13" s="20"/>
-      <c r="AE13" s="20"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="21"/>
+      <c r="S13" s="21"/>
+      <c r="T13" s="21"/>
+      <c r="U13" s="21"/>
+      <c r="V13" s="21"/>
+      <c r="W13" s="21"/>
+      <c r="X13" s="21"/>
+      <c r="Y13" s="21"/>
+      <c r="Z13" s="21"/>
+      <c r="AA13" s="21"/>
+      <c r="AB13" s="21"/>
+      <c r="AC13" s="21"/>
+      <c r="AD13" s="21"/>
+      <c r="AE13" s="21"/>
     </row>
     <row r="14">
-      <c r="A14" s="31" t="s">
-        <v>280</v>
-      </c>
-      <c r="B14" s="31" t="s">
-        <v>280</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>281</v>
+      <c r="A14" s="32" t="s">
+        <v>289</v>
+      </c>
+      <c r="B14" s="32" t="s">
+        <v>289</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>290</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20" t="s">
-        <v>275</v>
+        <v>265</v>
+      </c>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21" t="s">
+        <v>284</v>
       </c>
       <c r="K14" s="8">
         <v>45421.0</v>
       </c>
-      <c r="L14" s="20"/>
+      <c r="L14" s="21"/>
       <c r="M14" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="N14" s="20"/>
-      <c r="O14" s="20"/>
-      <c r="P14" s="20"/>
-      <c r="Q14" s="20"/>
-      <c r="R14" s="20"/>
-      <c r="S14" s="20"/>
-      <c r="T14" s="20"/>
-      <c r="U14" s="20"/>
-      <c r="V14" s="20"/>
-      <c r="W14" s="20"/>
-      <c r="X14" s="20"/>
-      <c r="Y14" s="20"/>
-      <c r="Z14" s="20"/>
-      <c r="AA14" s="20"/>
-      <c r="AB14" s="20"/>
-      <c r="AC14" s="20"/>
-      <c r="AD14" s="20"/>
-      <c r="AE14" s="20"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="21"/>
+      <c r="R14" s="21"/>
+      <c r="S14" s="21"/>
+      <c r="T14" s="21"/>
+      <c r="U14" s="21"/>
+      <c r="V14" s="21"/>
+      <c r="W14" s="21"/>
+      <c r="X14" s="21"/>
+      <c r="Y14" s="21"/>
+      <c r="Z14" s="21"/>
+      <c r="AA14" s="21"/>
+      <c r="AB14" s="21"/>
+      <c r="AC14" s="21"/>
+      <c r="AD14" s="21"/>
+      <c r="AE14" s="21"/>
     </row>
     <row r="15">
-      <c r="A15" s="31" t="s">
-        <v>282</v>
-      </c>
-      <c r="B15" s="31" t="s">
-        <v>282</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>283</v>
+      <c r="A15" s="32" t="s">
+        <v>291</v>
+      </c>
+      <c r="B15" s="32" t="s">
+        <v>291</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>292</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20" t="s">
-        <v>275</v>
+        <v>265</v>
+      </c>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21" t="s">
+        <v>284</v>
       </c>
       <c r="K15" s="8">
         <v>45421.0</v>
       </c>
-      <c r="L15" s="20"/>
+      <c r="L15" s="21"/>
       <c r="M15" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="N15" s="20"/>
-      <c r="O15" s="20"/>
-      <c r="P15" s="20"/>
-      <c r="Q15" s="20"/>
-      <c r="R15" s="20"/>
-      <c r="S15" s="20"/>
-      <c r="T15" s="20"/>
-      <c r="U15" s="20"/>
-      <c r="V15" s="20"/>
-      <c r="W15" s="20"/>
-      <c r="X15" s="20"/>
-      <c r="Y15" s="20"/>
-      <c r="Z15" s="20"/>
-      <c r="AA15" s="20"/>
-      <c r="AB15" s="20"/>
-      <c r="AC15" s="20"/>
-      <c r="AD15" s="20"/>
-      <c r="AE15" s="20"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="21"/>
+      <c r="Q15" s="21"/>
+      <c r="R15" s="21"/>
+      <c r="S15" s="21"/>
+      <c r="T15" s="21"/>
+      <c r="U15" s="21"/>
+      <c r="V15" s="21"/>
+      <c r="W15" s="21"/>
+      <c r="X15" s="21"/>
+      <c r="Y15" s="21"/>
+      <c r="Z15" s="21"/>
+      <c r="AA15" s="21"/>
+      <c r="AB15" s="21"/>
+      <c r="AC15" s="21"/>
+      <c r="AD15" s="21"/>
+      <c r="AE15" s="21"/>
     </row>
     <row r="16">
-      <c r="A16" s="31" t="s">
-        <v>284</v>
-      </c>
-      <c r="B16" s="31" t="s">
-        <v>284</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>285</v>
+      <c r="A16" s="32" t="s">
+        <v>293</v>
+      </c>
+      <c r="B16" s="32" t="s">
+        <v>293</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>294</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20" t="s">
-        <v>275</v>
+        <v>265</v>
+      </c>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21" t="s">
+        <v>284</v>
       </c>
       <c r="K16" s="8">
         <v>45421.0</v>
       </c>
-      <c r="L16" s="20"/>
+      <c r="L16" s="21"/>
       <c r="M16" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="N16" s="20"/>
-      <c r="O16" s="20"/>
-      <c r="P16" s="20"/>
-      <c r="Q16" s="20"/>
-      <c r="R16" s="20"/>
-      <c r="S16" s="20"/>
-      <c r="T16" s="20"/>
-      <c r="U16" s="20"/>
-      <c r="V16" s="20"/>
-      <c r="W16" s="20"/>
-      <c r="X16" s="20"/>
-      <c r="Y16" s="20"/>
-      <c r="Z16" s="20"/>
-      <c r="AA16" s="20"/>
-      <c r="AB16" s="20"/>
-      <c r="AC16" s="20"/>
-      <c r="AD16" s="20"/>
-      <c r="AE16" s="20"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="21"/>
+      <c r="P16" s="21"/>
+      <c r="Q16" s="21"/>
+      <c r="R16" s="21"/>
+      <c r="S16" s="21"/>
+      <c r="T16" s="21"/>
+      <c r="U16" s="21"/>
+      <c r="V16" s="21"/>
+      <c r="W16" s="21"/>
+      <c r="X16" s="21"/>
+      <c r="Y16" s="21"/>
+      <c r="Z16" s="21"/>
+      <c r="AA16" s="21"/>
+      <c r="AB16" s="21"/>
+      <c r="AC16" s="21"/>
+      <c r="AD16" s="21"/>
+      <c r="AE16" s="21"/>
     </row>
     <row r="17">
-      <c r="A17" s="31" t="s">
-        <v>286</v>
-      </c>
-      <c r="B17" s="31" t="s">
-        <v>286</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>287</v>
+      <c r="A17" s="32" t="s">
+        <v>295</v>
+      </c>
+      <c r="B17" s="32" t="s">
+        <v>295</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>296</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20" t="s">
-        <v>275</v>
+        <v>265</v>
+      </c>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21" t="s">
+        <v>284</v>
       </c>
       <c r="K17" s="8">
         <v>45421.0</v>
       </c>
-      <c r="L17" s="20"/>
+      <c r="L17" s="21"/>
       <c r="M17" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="N17" s="20"/>
-      <c r="O17" s="20"/>
-      <c r="P17" s="20"/>
-      <c r="Q17" s="20"/>
-      <c r="R17" s="20"/>
-      <c r="S17" s="20"/>
-      <c r="T17" s="20"/>
-      <c r="U17" s="20"/>
-      <c r="V17" s="20"/>
-      <c r="W17" s="20"/>
-      <c r="X17" s="20"/>
-      <c r="Y17" s="20"/>
-      <c r="Z17" s="20"/>
-      <c r="AA17" s="20"/>
-      <c r="AB17" s="20"/>
-      <c r="AC17" s="20"/>
-      <c r="AD17" s="20"/>
-      <c r="AE17" s="20"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="21"/>
+      <c r="Q17" s="21"/>
+      <c r="R17" s="21"/>
+      <c r="S17" s="21"/>
+      <c r="T17" s="21"/>
+      <c r="U17" s="21"/>
+      <c r="V17" s="21"/>
+      <c r="W17" s="21"/>
+      <c r="X17" s="21"/>
+      <c r="Y17" s="21"/>
+      <c r="Z17" s="21"/>
+      <c r="AA17" s="21"/>
+      <c r="AB17" s="21"/>
+      <c r="AC17" s="21"/>
+      <c r="AD17" s="21"/>
+      <c r="AE17" s="21"/>
     </row>
     <row r="18">
       <c r="A18" s="6" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="6" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
       <c r="I18" s="6" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="K18" s="8">
         <v>45421.0</v>
@@ -8426,26 +8557,26 @@
     </row>
     <row r="19">
       <c r="A19" s="6" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
       <c r="J19" s="6" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="K19" s="8">
         <v>45421.0</v>
@@ -8475,26 +8606,26 @@
     </row>
     <row r="20">
       <c r="A20" s="6" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
       <c r="J20" s="6" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="K20" s="8">
         <v>45421.0</v>
@@ -8524,26 +8655,26 @@
     </row>
     <row r="21">
       <c r="A21" s="6" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
       <c r="J21" s="6" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="K21" s="8">
         <v>45421.0</v>
@@ -8573,17 +8704,17 @@
     </row>
     <row r="22">
       <c r="A22" s="6" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="6" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
@@ -8618,17 +8749,17 @@
     </row>
     <row r="23">
       <c r="A23" s="6" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="D23" s="7"/>
       <c r="E23" s="6" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
@@ -8663,23 +8794,23 @@
     </row>
     <row r="24">
       <c r="A24" s="6" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="D24" s="7"/>
       <c r="E24" s="6" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
       <c r="I24" s="6" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="J24" s="7"/>
       <c r="K24" s="8">
@@ -8776,46 +8907,46 @@
   </cols>
   <sheetData>
     <row r="1" ht="28.5" customHeight="1">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="G1" s="10" t="s">
+      <c r="D1" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="L1" s="14" t="s">
+      <c r="K1" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="L1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="M1" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="15" t="s">
+      <c r="N1" s="16" t="s">
         <v>13</v>
       </c>
       <c r="O1" s="5" t="s">
@@ -8823,28 +8954,28 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="16" t="s">
-        <v>306</v>
+      <c r="A2" s="17" t="s">
+        <v>315</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="32" t="s">
-        <v>309</v>
+      <c r="E2" s="33" t="s">
+        <v>318</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
+        <v>319</v>
+      </c>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
       <c r="I2" s="7"/>
-      <c r="J2" s="33"/>
+      <c r="J2" s="34"/>
       <c r="K2" s="8">
         <v>45421.0</v>
       </c>
@@ -8852,47 +8983,47 @@
       <c r="M2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="34" t="s">
+      <c r="N2" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="O2" s="35"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="33"/>
-      <c r="U2" s="33"/>
-      <c r="V2" s="33"/>
-      <c r="W2" s="33"/>
-      <c r="X2" s="33"/>
-      <c r="Y2" s="33"/>
-      <c r="Z2" s="33"/>
-      <c r="AA2" s="33"/>
-      <c r="AB2" s="33"/>
+      <c r="O2" s="36"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34"/>
+      <c r="R2" s="34"/>
+      <c r="S2" s="34"/>
+      <c r="T2" s="34"/>
+      <c r="U2" s="34"/>
+      <c r="V2" s="34"/>
+      <c r="W2" s="34"/>
+      <c r="X2" s="34"/>
+      <c r="Y2" s="34"/>
+      <c r="Z2" s="34"/>
+      <c r="AA2" s="34"/>
+      <c r="AB2" s="34"/>
     </row>
     <row r="3">
-      <c r="A3" s="16" t="s">
-        <v>311</v>
+      <c r="A3" s="17" t="s">
+        <v>320</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="32" t="s">
-        <v>262</v>
+      <c r="E3" s="33" t="s">
+        <v>271</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
+        <v>319</v>
+      </c>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
       <c r="I3" s="7"/>
-      <c r="J3" s="33"/>
+      <c r="J3" s="34"/>
       <c r="K3" s="8">
         <v>45421.0</v>
       </c>
@@ -8900,47 +9031,47 @@
       <c r="M3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="N3" s="34" t="s">
+      <c r="N3" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="O3" s="35"/>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="33"/>
-      <c r="R3" s="33"/>
-      <c r="S3" s="33"/>
-      <c r="T3" s="33"/>
-      <c r="U3" s="33"/>
-      <c r="V3" s="33"/>
-      <c r="W3" s="33"/>
-      <c r="X3" s="33"/>
-      <c r="Y3" s="33"/>
-      <c r="Z3" s="33"/>
-      <c r="AA3" s="33"/>
-      <c r="AB3" s="33"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="34"/>
+      <c r="Q3" s="34"/>
+      <c r="R3" s="34"/>
+      <c r="S3" s="34"/>
+      <c r="T3" s="34"/>
+      <c r="U3" s="34"/>
+      <c r="V3" s="34"/>
+      <c r="W3" s="34"/>
+      <c r="X3" s="34"/>
+      <c r="Y3" s="34"/>
+      <c r="Z3" s="34"/>
+      <c r="AA3" s="34"/>
+      <c r="AB3" s="34"/>
     </row>
     <row r="4">
-      <c r="A4" s="16" t="s">
-        <v>314</v>
+      <c r="A4" s="17" t="s">
+        <v>323</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="32" t="s">
-        <v>317</v>
+      <c r="E4" s="33" t="s">
+        <v>326</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
+        <v>319</v>
+      </c>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
       <c r="I4" s="7"/>
-      <c r="J4" s="33"/>
+      <c r="J4" s="34"/>
       <c r="K4" s="8">
         <v>45421.0</v>
       </c>
@@ -8948,47 +9079,47 @@
       <c r="M4" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="N4" s="34" t="s">
+      <c r="N4" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="O4" s="35"/>
-      <c r="P4" s="33"/>
-      <c r="Q4" s="33"/>
-      <c r="R4" s="33"/>
-      <c r="S4" s="33"/>
-      <c r="T4" s="33"/>
-      <c r="U4" s="33"/>
-      <c r="V4" s="33"/>
-      <c r="W4" s="33"/>
-      <c r="X4" s="33"/>
-      <c r="Y4" s="33"/>
-      <c r="Z4" s="33"/>
-      <c r="AA4" s="33"/>
-      <c r="AB4" s="33"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="34"/>
+      <c r="Q4" s="34"/>
+      <c r="R4" s="34"/>
+      <c r="S4" s="34"/>
+      <c r="T4" s="34"/>
+      <c r="U4" s="34"/>
+      <c r="V4" s="34"/>
+      <c r="W4" s="34"/>
+      <c r="X4" s="34"/>
+      <c r="Y4" s="34"/>
+      <c r="Z4" s="34"/>
+      <c r="AA4" s="34"/>
+      <c r="AB4" s="34"/>
     </row>
     <row r="5">
-      <c r="A5" s="16" t="s">
-        <v>318</v>
+      <c r="A5" s="17" t="s">
+        <v>327</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="32" t="s">
-        <v>267</v>
+      <c r="E5" s="33" t="s">
+        <v>276</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
+        <v>319</v>
+      </c>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
       <c r="I5" s="7"/>
-      <c r="J5" s="33"/>
+      <c r="J5" s="34"/>
       <c r="K5" s="8">
         <v>45421.0</v>
       </c>
@@ -8996,42 +9127,42 @@
       <c r="M5" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="N5" s="34" t="s">
+      <c r="N5" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="O5" s="35"/>
-      <c r="P5" s="33"/>
-      <c r="Q5" s="33"/>
-      <c r="R5" s="33"/>
-      <c r="S5" s="33"/>
-      <c r="T5" s="33"/>
-      <c r="U5" s="33"/>
-      <c r="V5" s="33"/>
-      <c r="W5" s="33"/>
-      <c r="X5" s="33"/>
-      <c r="Y5" s="33"/>
-      <c r="Z5" s="33"/>
-      <c r="AA5" s="33"/>
-      <c r="AB5" s="33"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="34"/>
+      <c r="Q5" s="34"/>
+      <c r="R5" s="34"/>
+      <c r="S5" s="34"/>
+      <c r="T5" s="34"/>
+      <c r="U5" s="34"/>
+      <c r="V5" s="34"/>
+      <c r="W5" s="34"/>
+      <c r="X5" s="34"/>
+      <c r="Y5" s="34"/>
+      <c r="Z5" s="34"/>
+      <c r="AA5" s="34"/>
+      <c r="AB5" s="34"/>
     </row>
     <row r="6">
-      <c r="A6" s="16" t="s">
-        <v>321</v>
+      <c r="A6" s="17" t="s">
+        <v>330</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
@@ -9044,7 +9175,7 @@
       <c r="M6" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="N6" s="34" t="s">
+      <c r="N6" s="35" t="s">
         <v>39</v>
       </c>
       <c r="O6" s="7"/>
@@ -9063,23 +9194,23 @@
       <c r="AB6" s="7"/>
     </row>
     <row r="7">
-      <c r="A7" s="16" t="s">
-        <v>325</v>
+      <c r="A7" s="17" t="s">
+        <v>334</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
@@ -9092,7 +9223,7 @@
       <c r="M7" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="N7" s="34" t="s">
+      <c r="N7" s="35" t="s">
         <v>39</v>
       </c>
       <c r="O7" s="7"/>
@@ -9111,23 +9242,23 @@
       <c r="AB7" s="7"/>
     </row>
     <row r="8">
-      <c r="A8" s="31" t="s">
-        <v>329</v>
+      <c r="A8" s="32" t="s">
+        <v>338</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
@@ -9140,7 +9271,7 @@
       <c r="M8" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="N8" s="34" t="s">
+      <c r="N8" s="35" t="s">
         <v>39</v>
       </c>
       <c r="O8" s="7"/>
@@ -9159,23 +9290,23 @@
       <c r="AB8" s="7"/>
     </row>
     <row r="9">
-      <c r="A9" s="31" t="s">
-        <v>333</v>
+      <c r="A9" s="32" t="s">
+        <v>342</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
@@ -9188,7 +9319,7 @@
       <c r="M9" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="N9" s="34" t="s">
+      <c r="N9" s="35" t="s">
         <v>39</v>
       </c>
       <c r="O9" s="7"/>
@@ -9207,23 +9338,23 @@
       <c r="AB9" s="7"/>
     </row>
     <row r="10">
-      <c r="A10" s="31" t="s">
-        <v>337</v>
+      <c r="A10" s="32" t="s">
+        <v>346</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
@@ -9236,7 +9367,7 @@
       <c r="M10" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="N10" s="34" t="s">
+      <c r="N10" s="35" t="s">
         <v>39</v>
       </c>
       <c r="O10" s="7"/>
@@ -9255,23 +9386,23 @@
       <c r="AB10" s="7"/>
     </row>
     <row r="11">
-      <c r="A11" s="31" t="s">
-        <v>341</v>
+      <c r="A11" s="32" t="s">
+        <v>350</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
@@ -9284,7 +9415,7 @@
       <c r="M11" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="N11" s="34" t="s">
+      <c r="N11" s="35" t="s">
         <v>39</v>
       </c>
       <c r="O11" s="7"/>
@@ -9303,23 +9434,23 @@
       <c r="AB11" s="7"/>
     </row>
     <row r="12">
-      <c r="A12" s="31" t="s">
-        <v>345</v>
+      <c r="A12" s="32" t="s">
+        <v>354</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
@@ -9332,7 +9463,7 @@
       <c r="M12" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="N12" s="34" t="s">
+      <c r="N12" s="35" t="s">
         <v>39</v>
       </c>
       <c r="O12" s="7"/>
@@ -9351,23 +9482,23 @@
       <c r="AB12" s="7"/>
     </row>
     <row r="13">
-      <c r="A13" s="31" t="s">
-        <v>349</v>
+      <c r="A13" s="32" t="s">
+        <v>358</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
@@ -9380,7 +9511,7 @@
       <c r="M13" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="N13" s="34" t="s">
+      <c r="N13" s="35" t="s">
         <v>39</v>
       </c>
       <c r="O13" s="7"/>
@@ -9399,23 +9530,23 @@
       <c r="AB13" s="7"/>
     </row>
     <row r="14">
-      <c r="A14" s="31" t="s">
-        <v>353</v>
+      <c r="A14" s="32" t="s">
+        <v>362</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
@@ -9428,7 +9559,7 @@
       <c r="M14" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="N14" s="34" t="s">
+      <c r="N14" s="35" t="s">
         <v>39</v>
       </c>
       <c r="O14" s="7"/>
@@ -9447,23 +9578,23 @@
       <c r="AB14" s="7"/>
     </row>
     <row r="15">
-      <c r="A15" s="31" t="s">
-        <v>357</v>
+      <c r="A15" s="32" t="s">
+        <v>366</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
@@ -9476,7 +9607,7 @@
       <c r="M15" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="N15" s="34" t="s">
+      <c r="N15" s="35" t="s">
         <v>39</v>
       </c>
       <c r="O15" s="7"/>
@@ -9496,22 +9627,22 @@
     </row>
     <row r="16">
       <c r="A16" s="6" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
@@ -9524,7 +9655,7 @@
       <c r="M16" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="N16" s="34" t="s">
+      <c r="N16" s="35" t="s">
         <v>39</v>
       </c>
       <c r="O16" s="7"/>
@@ -9544,22 +9675,22 @@
     </row>
     <row r="17">
       <c r="A17" s="6" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>365</v>
+        <v>374</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>366</v>
+        <v>375</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
@@ -9572,7 +9703,7 @@
       <c r="M17" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="N17" s="34" t="s">
+      <c r="N17" s="35" t="s">
         <v>39</v>
       </c>
       <c r="O17" s="7"/>
@@ -9592,22 +9723,22 @@
     </row>
     <row r="18">
       <c r="A18" s="6" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
@@ -9620,7 +9751,7 @@
       <c r="M18" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="N18" s="34" t="s">
+      <c r="N18" s="35" t="s">
         <v>39</v>
       </c>
       <c r="O18" s="7"/>
@@ -9640,22 +9771,22 @@
     </row>
     <row r="19">
       <c r="A19" s="6" t="s">
-        <v>372</v>
+        <v>381</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>375</v>
+        <v>384</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
@@ -9668,7 +9799,7 @@
       <c r="M19" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="N19" s="34" t="s">
+      <c r="N19" s="35" t="s">
         <v>39</v>
       </c>
       <c r="O19" s="7"/>
@@ -9803,10 +9934,10 @@
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -9820,18 +9951,18 @@
       <c r="K3" s="8"/>
     </row>
     <row r="4">
-      <c r="A4" s="16" t="s">
-        <v>376</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>376</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>376</v>
+      <c r="A4" s="17" t="s">
+        <v>385</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>385</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>385</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="6" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -9867,18 +9998,18 @@
       <c r="AE4" s="7"/>
     </row>
     <row r="5">
-      <c r="A5" s="16" t="s">
-        <v>378</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>378</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>378</v>
+      <c r="A5" s="17" t="s">
+        <v>387</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>387</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>387</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="6" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -9912,18 +10043,18 @@
       <c r="AE5" s="7"/>
     </row>
     <row r="6">
-      <c r="A6" s="16" t="s">
-        <v>379</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>379</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>379</v>
+      <c r="A6" s="17" t="s">
+        <v>388</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>388</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>388</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="6" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -9959,18 +10090,18 @@
       <c r="AE6" s="7"/>
     </row>
     <row r="7">
-      <c r="A7" s="16" t="s">
-        <v>380</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>380</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>380</v>
+      <c r="A7" s="17" t="s">
+        <v>389</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>389</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>389</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="6" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -10004,18 +10135,18 @@
       <c r="AE7" s="7"/>
     </row>
     <row r="8">
-      <c r="A8" s="16" t="s">
-        <v>381</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>381</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>381</v>
+      <c r="A8" s="17" t="s">
+        <v>390</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>390</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>390</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="6" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
@@ -10049,20 +10180,20 @@
       <c r="AE8" s="7"/>
     </row>
     <row r="9">
-      <c r="A9" s="16" t="s">
-        <v>382</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>382</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>382</v>
+      <c r="A9" s="17" t="s">
+        <v>391</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>391</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>391</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>383</v>
+        <v>392</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
@@ -10096,261 +10227,261 @@
       <c r="AE9" s="7"/>
     </row>
     <row r="10">
-      <c r="A10" s="31" t="s">
-        <v>384</v>
-      </c>
-      <c r="B10" s="31" t="s">
-        <v>384</v>
-      </c>
-      <c r="C10" s="31" t="s">
-        <v>384</v>
+      <c r="A10" s="32" t="s">
+        <v>393</v>
+      </c>
+      <c r="B10" s="32" t="s">
+        <v>393</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>393</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>383</v>
+        <v>392</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>377</v>
-      </c>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="36">
+        <v>386</v>
+      </c>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="37">
         <v>45421.0</v>
       </c>
-      <c r="L10" s="20"/>
+      <c r="L10" s="21"/>
       <c r="M10" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="N10" s="20"/>
-      <c r="O10" s="20"/>
-      <c r="P10" s="20"/>
-      <c r="Q10" s="20"/>
-      <c r="R10" s="20"/>
-      <c r="S10" s="20"/>
-      <c r="T10" s="20"/>
-      <c r="U10" s="20"/>
-      <c r="V10" s="20"/>
-      <c r="W10" s="20"/>
-      <c r="X10" s="20"/>
-      <c r="Y10" s="20"/>
-      <c r="Z10" s="20"/>
-      <c r="AA10" s="20"/>
-      <c r="AB10" s="20"/>
-      <c r="AC10" s="20"/>
-      <c r="AD10" s="20"/>
-      <c r="AE10" s="20"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="21"/>
+      <c r="Q10" s="21"/>
+      <c r="R10" s="21"/>
+      <c r="S10" s="21"/>
+      <c r="T10" s="21"/>
+      <c r="U10" s="21"/>
+      <c r="V10" s="21"/>
+      <c r="W10" s="21"/>
+      <c r="X10" s="21"/>
+      <c r="Y10" s="21"/>
+      <c r="Z10" s="21"/>
+      <c r="AA10" s="21"/>
+      <c r="AB10" s="21"/>
+      <c r="AC10" s="21"/>
+      <c r="AD10" s="21"/>
+      <c r="AE10" s="21"/>
     </row>
     <row r="11">
-      <c r="A11" s="31"/>
-      <c r="B11" s="31"/>
-      <c r="C11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20"/>
-      <c r="N11" s="20"/>
-      <c r="O11" s="20"/>
-      <c r="P11" s="20"/>
-      <c r="Q11" s="20"/>
-      <c r="R11" s="20"/>
-      <c r="S11" s="20"/>
-      <c r="T11" s="20"/>
-      <c r="U11" s="20"/>
-      <c r="V11" s="20"/>
-      <c r="W11" s="20"/>
-      <c r="X11" s="20"/>
-      <c r="Y11" s="20"/>
-      <c r="Z11" s="20"/>
-      <c r="AA11" s="20"/>
-      <c r="AB11" s="20"/>
-      <c r="AC11" s="20"/>
-      <c r="AD11" s="20"/>
-      <c r="AE11" s="20"/>
+      <c r="A11" s="32"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="21"/>
+      <c r="R11" s="21"/>
+      <c r="S11" s="21"/>
+      <c r="T11" s="21"/>
+      <c r="U11" s="21"/>
+      <c r="V11" s="21"/>
+      <c r="W11" s="21"/>
+      <c r="X11" s="21"/>
+      <c r="Y11" s="21"/>
+      <c r="Z11" s="21"/>
+      <c r="AA11" s="21"/>
+      <c r="AB11" s="21"/>
+      <c r="AC11" s="21"/>
+      <c r="AD11" s="21"/>
+      <c r="AE11" s="21"/>
     </row>
     <row r="12">
-      <c r="A12" s="31"/>
-      <c r="B12" s="31"/>
-      <c r="C12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
-      <c r="N12" s="20"/>
-      <c r="O12" s="20"/>
-      <c r="P12" s="20"/>
-      <c r="Q12" s="20"/>
-      <c r="R12" s="20"/>
-      <c r="S12" s="20"/>
-      <c r="T12" s="20"/>
-      <c r="U12" s="20"/>
-      <c r="V12" s="20"/>
-      <c r="W12" s="20"/>
-      <c r="X12" s="20"/>
-      <c r="Y12" s="20"/>
-      <c r="Z12" s="20"/>
-      <c r="AA12" s="20"/>
-      <c r="AB12" s="20"/>
-      <c r="AC12" s="20"/>
-      <c r="AD12" s="20"/>
-      <c r="AE12" s="20"/>
+      <c r="A12" s="32"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="21"/>
+      <c r="Q12" s="21"/>
+      <c r="R12" s="21"/>
+      <c r="S12" s="21"/>
+      <c r="T12" s="21"/>
+      <c r="U12" s="21"/>
+      <c r="V12" s="21"/>
+      <c r="W12" s="21"/>
+      <c r="X12" s="21"/>
+      <c r="Y12" s="21"/>
+      <c r="Z12" s="21"/>
+      <c r="AA12" s="21"/>
+      <c r="AB12" s="21"/>
+      <c r="AC12" s="21"/>
+      <c r="AD12" s="21"/>
+      <c r="AE12" s="21"/>
     </row>
     <row r="13">
-      <c r="A13" s="31"/>
-      <c r="B13" s="31"/>
-      <c r="C13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
-      <c r="N13" s="20"/>
-      <c r="O13" s="20"/>
-      <c r="P13" s="20"/>
-      <c r="Q13" s="20"/>
-      <c r="R13" s="20"/>
-      <c r="S13" s="20"/>
-      <c r="T13" s="20"/>
-      <c r="U13" s="20"/>
-      <c r="V13" s="20"/>
-      <c r="W13" s="20"/>
-      <c r="X13" s="20"/>
-      <c r="Y13" s="20"/>
-      <c r="Z13" s="20"/>
-      <c r="AA13" s="20"/>
-      <c r="AB13" s="20"/>
-      <c r="AC13" s="20"/>
-      <c r="AD13" s="20"/>
-      <c r="AE13" s="20"/>
+      <c r="A13" s="32"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="21"/>
+      <c r="S13" s="21"/>
+      <c r="T13" s="21"/>
+      <c r="U13" s="21"/>
+      <c r="V13" s="21"/>
+      <c r="W13" s="21"/>
+      <c r="X13" s="21"/>
+      <c r="Y13" s="21"/>
+      <c r="Z13" s="21"/>
+      <c r="AA13" s="21"/>
+      <c r="AB13" s="21"/>
+      <c r="AC13" s="21"/>
+      <c r="AD13" s="21"/>
+      <c r="AE13" s="21"/>
     </row>
     <row r="14">
-      <c r="A14" s="31"/>
-      <c r="B14" s="31"/>
-      <c r="C14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
-      <c r="N14" s="20"/>
-      <c r="O14" s="20"/>
-      <c r="P14" s="20"/>
-      <c r="Q14" s="20"/>
-      <c r="R14" s="20"/>
-      <c r="S14" s="20"/>
-      <c r="T14" s="20"/>
-      <c r="U14" s="20"/>
-      <c r="V14" s="20"/>
-      <c r="W14" s="20"/>
-      <c r="X14" s="20"/>
-      <c r="Y14" s="20"/>
-      <c r="Z14" s="20"/>
-      <c r="AA14" s="20"/>
-      <c r="AB14" s="20"/>
-      <c r="AC14" s="20"/>
-      <c r="AD14" s="20"/>
-      <c r="AE14" s="20"/>
+      <c r="A14" s="32"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="21"/>
+      <c r="R14" s="21"/>
+      <c r="S14" s="21"/>
+      <c r="T14" s="21"/>
+      <c r="U14" s="21"/>
+      <c r="V14" s="21"/>
+      <c r="W14" s="21"/>
+      <c r="X14" s="21"/>
+      <c r="Y14" s="21"/>
+      <c r="Z14" s="21"/>
+      <c r="AA14" s="21"/>
+      <c r="AB14" s="21"/>
+      <c r="AC14" s="21"/>
+      <c r="AD14" s="21"/>
+      <c r="AE14" s="21"/>
     </row>
     <row r="15">
-      <c r="A15" s="31"/>
-      <c r="B15" s="31"/>
-      <c r="C15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="20"/>
-      <c r="N15" s="20"/>
-      <c r="O15" s="20"/>
-      <c r="P15" s="20"/>
-      <c r="Q15" s="20"/>
-      <c r="R15" s="20"/>
-      <c r="S15" s="20"/>
-      <c r="T15" s="20"/>
-      <c r="U15" s="20"/>
-      <c r="V15" s="20"/>
-      <c r="W15" s="20"/>
-      <c r="X15" s="20"/>
-      <c r="Y15" s="20"/>
-      <c r="Z15" s="20"/>
-      <c r="AA15" s="20"/>
-      <c r="AB15" s="20"/>
-      <c r="AC15" s="20"/>
-      <c r="AD15" s="20"/>
-      <c r="AE15" s="20"/>
+      <c r="A15" s="32"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="21"/>
+      <c r="Q15" s="21"/>
+      <c r="R15" s="21"/>
+      <c r="S15" s="21"/>
+      <c r="T15" s="21"/>
+      <c r="U15" s="21"/>
+      <c r="V15" s="21"/>
+      <c r="W15" s="21"/>
+      <c r="X15" s="21"/>
+      <c r="Y15" s="21"/>
+      <c r="Z15" s="21"/>
+      <c r="AA15" s="21"/>
+      <c r="AB15" s="21"/>
+      <c r="AC15" s="21"/>
+      <c r="AD15" s="21"/>
+      <c r="AE15" s="21"/>
     </row>
     <row r="16">
-      <c r="A16" s="31"/>
-      <c r="B16" s="31"/>
-      <c r="C16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="20"/>
-      <c r="N16" s="20"/>
-      <c r="O16" s="20"/>
-      <c r="P16" s="20"/>
-      <c r="Q16" s="20"/>
-      <c r="R16" s="20"/>
-      <c r="S16" s="20"/>
-      <c r="T16" s="20"/>
-      <c r="U16" s="20"/>
-      <c r="V16" s="20"/>
-      <c r="W16" s="20"/>
-      <c r="X16" s="20"/>
-      <c r="Y16" s="20"/>
-      <c r="Z16" s="20"/>
-      <c r="AA16" s="20"/>
-      <c r="AB16" s="20"/>
-      <c r="AC16" s="20"/>
-      <c r="AD16" s="20"/>
-      <c r="AE16" s="20"/>
+      <c r="A16" s="32"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="21"/>
+      <c r="P16" s="21"/>
+      <c r="Q16" s="21"/>
+      <c r="R16" s="21"/>
+      <c r="S16" s="21"/>
+      <c r="T16" s="21"/>
+      <c r="U16" s="21"/>
+      <c r="V16" s="21"/>
+      <c r="W16" s="21"/>
+      <c r="X16" s="21"/>
+      <c r="Y16" s="21"/>
+      <c r="Z16" s="21"/>
+      <c r="AA16" s="21"/>
+      <c r="AB16" s="21"/>
+      <c r="AC16" s="21"/>
+      <c r="AD16" s="21"/>
+      <c r="AE16" s="21"/>
     </row>
     <row r="17">
-      <c r="A17" s="31"/>
-      <c r="B17" s="31"/>
-      <c r="C17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="20"/>
-      <c r="N17" s="20"/>
-      <c r="O17" s="20"/>
-      <c r="P17" s="20"/>
-      <c r="Q17" s="20"/>
-      <c r="R17" s="20"/>
-      <c r="S17" s="20"/>
-      <c r="T17" s="20"/>
-      <c r="U17" s="20"/>
-      <c r="V17" s="20"/>
-      <c r="W17" s="20"/>
-      <c r="X17" s="20"/>
-      <c r="Y17" s="20"/>
-      <c r="Z17" s="20"/>
-      <c r="AA17" s="20"/>
-      <c r="AB17" s="20"/>
-      <c r="AC17" s="20"/>
-      <c r="AD17" s="20"/>
-      <c r="AE17" s="20"/>
+      <c r="A17" s="32"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="21"/>
+      <c r="Q17" s="21"/>
+      <c r="R17" s="21"/>
+      <c r="S17" s="21"/>
+      <c r="T17" s="21"/>
+      <c r="U17" s="21"/>
+      <c r="V17" s="21"/>
+      <c r="W17" s="21"/>
+      <c r="X17" s="21"/>
+      <c r="Y17" s="21"/>
+      <c r="Z17" s="21"/>
+      <c r="AA17" s="21"/>
+      <c r="AB17" s="21"/>
+      <c r="AC17" s="21"/>
+      <c r="AD17" s="21"/>
+      <c r="AE17" s="21"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:AE146">
@@ -10454,10 +10585,10 @@
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -10466,40 +10597,40 @@
     </row>
     <row r="3">
       <c r="A3" s="6" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="K3" s="8"/>
     </row>
     <row r="4">
-      <c r="A4" s="16" t="s">
-        <v>386</v>
-      </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
+      <c r="A4" s="17" t="s">
+        <v>395</v>
+      </c>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
       <c r="K4" s="8"/>
       <c r="O4" s="9" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="16" t="s">
-        <v>387</v>
-      </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
+      <c r="A5" s="17" t="s">
+        <v>396</v>
+      </c>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
       <c r="K5" s="8"/>
       <c r="O5" s="6"/>
     </row>
     <row r="6">
-      <c r="A6" s="16" t="s">
-        <v>388</v>
-      </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16" t="s">
-        <v>389</v>
+      <c r="A6" s="17" t="s">
+        <v>397</v>
+      </c>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17" t="s">
+        <v>398</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>25</v>
@@ -10538,18 +10669,18 @@
       <c r="AE6" s="7"/>
     </row>
     <row r="7">
-      <c r="A7" s="16" t="s">
-        <v>390</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>391</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>392</v>
+      <c r="A7" s="17" t="s">
+        <v>399</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>400</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>401</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="6" t="s">
-        <v>393</v>
+        <v>402</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -10583,18 +10714,18 @@
       <c r="AE7" s="7"/>
     </row>
     <row r="8">
-      <c r="A8" s="16" t="s">
-        <v>394</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>395</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>396</v>
+      <c r="A8" s="17" t="s">
+        <v>403</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>404</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>405</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="6" t="s">
-        <v>393</v>
+        <v>402</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
@@ -10628,26 +10759,26 @@
       <c r="AE8" s="7"/>
     </row>
     <row r="9">
-      <c r="A9" s="31" t="s">
-        <v>397</v>
-      </c>
-      <c r="B9" s="31" t="s">
-        <v>398</v>
-      </c>
-      <c r="C9" s="31" t="s">
-        <v>399</v>
+      <c r="A9" s="32" t="s">
+        <v>406</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>407</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>408</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="31"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="32"/>
       <c r="K9" s="8">
         <v>45421.0</v>
       </c>
@@ -10655,44 +10786,44 @@
       <c r="M9" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="N9" s="20"/>
-      <c r="O9" s="20"/>
-      <c r="P9" s="20"/>
-      <c r="Q9" s="20"/>
-      <c r="R9" s="20"/>
-      <c r="S9" s="20"/>
-      <c r="T9" s="20"/>
-      <c r="U9" s="20"/>
-      <c r="V9" s="20"/>
-      <c r="W9" s="20"/>
-      <c r="X9" s="20"/>
-      <c r="Y9" s="20"/>
-      <c r="Z9" s="20"/>
-      <c r="AA9" s="20"/>
-      <c r="AB9" s="20"/>
-      <c r="AC9" s="20"/>
-      <c r="AD9" s="20"/>
-      <c r="AE9" s="20"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="21"/>
+      <c r="S9" s="21"/>
+      <c r="T9" s="21"/>
+      <c r="U9" s="21"/>
+      <c r="V9" s="21"/>
+      <c r="W9" s="21"/>
+      <c r="X9" s="21"/>
+      <c r="Y9" s="21"/>
+      <c r="Z9" s="21"/>
+      <c r="AA9" s="21"/>
+      <c r="AB9" s="21"/>
+      <c r="AC9" s="21"/>
+      <c r="AD9" s="21"/>
+      <c r="AE9" s="21"/>
     </row>
     <row r="10">
-      <c r="A10" s="31" t="s">
-        <v>400</v>
-      </c>
-      <c r="B10" s="31" t="s">
-        <v>400</v>
-      </c>
-      <c r="C10" s="31" t="s">
-        <v>401</v>
+      <c r="A10" s="32" t="s">
+        <v>409</v>
+      </c>
+      <c r="B10" s="32" t="s">
+        <v>409</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>410</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="6" t="s">
-        <v>402</v>
-      </c>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
+        <v>411</v>
+      </c>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
       <c r="K10" s="8">
         <v>45421.0</v>
       </c>
@@ -10700,44 +10831,44 @@
       <c r="M10" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="N10" s="20"/>
-      <c r="O10" s="20"/>
-      <c r="P10" s="20"/>
-      <c r="Q10" s="20"/>
-      <c r="R10" s="20"/>
-      <c r="S10" s="20"/>
-      <c r="T10" s="20"/>
-      <c r="U10" s="20"/>
-      <c r="V10" s="20"/>
-      <c r="W10" s="20"/>
-      <c r="X10" s="20"/>
-      <c r="Y10" s="20"/>
-      <c r="Z10" s="20"/>
-      <c r="AA10" s="20"/>
-      <c r="AB10" s="20"/>
-      <c r="AC10" s="20"/>
-      <c r="AD10" s="20"/>
-      <c r="AE10" s="20"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="21"/>
+      <c r="Q10" s="21"/>
+      <c r="R10" s="21"/>
+      <c r="S10" s="21"/>
+      <c r="T10" s="21"/>
+      <c r="U10" s="21"/>
+      <c r="V10" s="21"/>
+      <c r="W10" s="21"/>
+      <c r="X10" s="21"/>
+      <c r="Y10" s="21"/>
+      <c r="Z10" s="21"/>
+      <c r="AA10" s="21"/>
+      <c r="AB10" s="21"/>
+      <c r="AC10" s="21"/>
+      <c r="AD10" s="21"/>
+      <c r="AE10" s="21"/>
     </row>
     <row r="11">
-      <c r="A11" s="31" t="s">
-        <v>403</v>
-      </c>
-      <c r="B11" s="31" t="s">
-        <v>404</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>405</v>
+      <c r="A11" s="32" t="s">
+        <v>412</v>
+      </c>
+      <c r="B11" s="32" t="s">
+        <v>413</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>414</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="6" t="s">
-        <v>402</v>
-      </c>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
+        <v>411</v>
+      </c>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
       <c r="K11" s="8">
         <v>45421.0</v>
       </c>
@@ -10745,34 +10876,34 @@
       <c r="M11" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="N11" s="20"/>
-      <c r="O11" s="20"/>
-      <c r="P11" s="20"/>
-      <c r="Q11" s="20"/>
-      <c r="R11" s="20"/>
-      <c r="S11" s="20"/>
-      <c r="T11" s="20"/>
-      <c r="U11" s="20"/>
-      <c r="V11" s="20"/>
-      <c r="W11" s="20"/>
-      <c r="X11" s="20"/>
-      <c r="Y11" s="20"/>
-      <c r="Z11" s="20"/>
-      <c r="AA11" s="20"/>
-      <c r="AB11" s="20"/>
-      <c r="AC11" s="20"/>
-      <c r="AD11" s="20"/>
-      <c r="AE11" s="20"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="21"/>
+      <c r="R11" s="21"/>
+      <c r="S11" s="21"/>
+      <c r="T11" s="21"/>
+      <c r="U11" s="21"/>
+      <c r="V11" s="21"/>
+      <c r="W11" s="21"/>
+      <c r="X11" s="21"/>
+      <c r="Y11" s="21"/>
+      <c r="Z11" s="21"/>
+      <c r="AA11" s="21"/>
+      <c r="AB11" s="21"/>
+      <c r="AC11" s="21"/>
+      <c r="AD11" s="21"/>
+      <c r="AE11" s="21"/>
     </row>
     <row r="12">
       <c r="A12" s="6" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>407</v>
+        <v>416</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>408</v>
+        <v>417</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>18</v>
@@ -10882,46 +11013,46 @@
   </cols>
   <sheetData>
     <row r="1" ht="28.5" customHeight="1">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="G1" s="10" t="s">
+      <c r="D1" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="L1" s="14" t="s">
+      <c r="K1" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="L1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="M1" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="15" t="s">
+      <c r="N1" s="16" t="s">
         <v>13</v>
       </c>
       <c r="O1" s="5" t="s">
@@ -10930,22 +11061,22 @@
     </row>
     <row r="2">
       <c r="A2" s="6" t="s">
-        <v>409</v>
+        <v>418</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>412</v>
+        <v>421</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>25</v>
@@ -10982,22 +11113,22 @@
     </row>
     <row r="3">
       <c r="A3" s="6" t="s">
-        <v>414</v>
+        <v>423</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>415</v>
+        <v>424</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>416</v>
+        <v>425</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>393</v>
+        <v>402</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>25</v>
@@ -11030,22 +11161,22 @@
     </row>
     <row r="4">
       <c r="A4" s="6" t="s">
-        <v>417</v>
+        <v>426</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>419</v>
+        <v>428</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>402</v>
+        <v>411</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>25</v>
@@ -11081,7 +11212,7 @@
     </row>
     <row r="9">
       <c r="A9" s="6" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="B9" s="6"/>
     </row>

--- a/code/vocab_csv/tech.xlsx
+++ b/code/vocab_csv/tech.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1298" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1295" uniqueCount="518">
   <si>
     <t>Term</t>
   </si>
@@ -11078,9 +11078,7 @@
       <c r="F2" s="6" t="s">
         <v>422</v>
       </c>
-      <c r="G2" s="6" t="s">
-        <v>25</v>
-      </c>
+      <c r="G2" s="7"/>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
@@ -11130,9 +11128,7 @@
       <c r="F3" s="6" t="s">
         <v>422</v>
       </c>
-      <c r="G3" s="6" t="s">
-        <v>25</v>
-      </c>
+      <c r="G3" s="7"/>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
@@ -11178,9 +11174,7 @@
       <c r="F4" s="6" t="s">
         <v>422</v>
       </c>
-      <c r="G4" s="6" t="s">
-        <v>25</v>
-      </c>
+      <c r="G4" s="7"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>

--- a/code/vocab_csv/tech.xlsx
+++ b/code/vocab_csv/tech.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1295" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1302" uniqueCount="523">
   <si>
     <t>Term</t>
   </si>
@@ -1215,10 +1215,25 @@
     <t>DeploymentStatus</t>
   </si>
   <si>
+    <t>TechnologyStatus</t>
+  </si>
+  <si>
+    <t>Technology Status</t>
+  </si>
+  <si>
+    <t>Status associated with development, deployment, and use of technology</t>
+  </si>
+  <si>
     <t>MarketAvailabilityStatus</t>
   </si>
   <si>
+    <t>Market Availability Status</t>
+  </si>
+  <si>
     <t>Status indicating whether Technology is available on the market</t>
+  </si>
+  <si>
+    <t>tech:TechnologyStatus</t>
   </si>
   <si>
     <t>MarketAvailable</t>
@@ -2809,10 +2824,10 @@
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -2827,13 +2842,13 @@
     </row>
     <row r="4">
       <c r="A4" s="6" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="22" t="s">
@@ -2873,16 +2888,16 @@
     </row>
     <row r="5">
       <c r="A5" s="6" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="E5" s="22" t="s">
         <v>60</v>
@@ -2921,16 +2936,16 @@
     </row>
     <row r="6">
       <c r="A6" s="6" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="E6" s="22" t="s">
         <v>60</v>
@@ -2969,16 +2984,16 @@
     </row>
     <row r="7">
       <c r="A7" s="6" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="E7" s="22" t="s">
         <v>60</v>
@@ -3017,16 +3032,16 @@
     </row>
     <row r="8">
       <c r="A8" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>440</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>440</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>441</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>435</v>
       </c>
       <c r="E8" s="22" t="s">
         <v>60</v>
@@ -3065,16 +3080,16 @@
     </row>
     <row r="9">
       <c r="A9" s="6" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="E9" s="22" t="s">
         <v>60</v>
@@ -3113,13 +3128,13 @@
     </row>
     <row r="10">
       <c r="A10" s="6" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="22" t="s">
@@ -3257,10 +3272,10 @@
     </row>
     <row r="2">
       <c r="A2" s="38" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="B2" s="38" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="C2" s="24"/>
       <c r="D2" s="39"/>
@@ -3279,13 +3294,13 @@
     </row>
     <row r="4">
       <c r="A4" s="38" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="D4" s="40"/>
       <c r="E4" s="6" t="s">
@@ -3331,16 +3346,16 @@
     </row>
     <row r="6">
       <c r="A6" s="38" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="D6" s="40" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>16</v>
@@ -3375,16 +3390,16 @@
     </row>
     <row r="7">
       <c r="A7" s="24" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>16</v>
@@ -3425,16 +3440,16 @@
     </row>
     <row r="8">
       <c r="A8" s="17" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>16</v>
@@ -3469,16 +3484,16 @@
     </row>
     <row r="9">
       <c r="A9" s="17" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="B9" s="17" t="s">
+        <v>466</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>467</v>
+      </c>
+      <c r="D9" s="25" t="s">
         <v>461</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>462</v>
-      </c>
-      <c r="D9" s="25" t="s">
-        <v>456</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>16</v>
@@ -3513,16 +3528,16 @@
     </row>
     <row r="10">
       <c r="A10" s="24" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>16</v>
@@ -3569,10 +3584,10 @@
         <v>158</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>16</v>
@@ -3607,16 +3622,16 @@
     </row>
     <row r="13">
       <c r="A13" s="24" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>16</v>
@@ -3657,16 +3672,16 @@
     </row>
     <row r="14">
       <c r="A14" s="6" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>16</v>
@@ -3701,16 +3716,16 @@
     </row>
     <row r="16">
       <c r="A16" s="5" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>16</v>
@@ -3745,16 +3760,16 @@
     </row>
     <row r="17">
       <c r="A17" s="6" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>16</v>
@@ -3789,16 +3804,16 @@
     </row>
     <row r="18">
       <c r="A18" s="6" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>16</v>
@@ -3833,16 +3848,16 @@
     </row>
     <row r="19">
       <c r="A19" s="6" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>16</v>
@@ -3877,16 +3892,16 @@
     </row>
     <row r="20">
       <c r="A20" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="D20" s="6" t="s">
         <v>485</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>486</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>487</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>480</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>16</v>
@@ -3921,13 +3936,13 @@
     </row>
     <row r="22">
       <c r="A22" s="5" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="6" t="s">
@@ -3966,16 +3981,16 @@
     </row>
     <row r="24">
       <c r="A24" s="5" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>16</v>
@@ -4010,16 +4025,16 @@
     </row>
     <row r="25">
       <c r="A25" s="6" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>16</v>
@@ -4054,16 +4069,16 @@
     </row>
     <row r="26">
       <c r="A26" s="6" t="s">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>16</v>
@@ -4098,16 +4113,16 @@
     </row>
     <row r="27">
       <c r="A27" s="6" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>16</v>
@@ -4142,16 +4157,16 @@
     </row>
     <row r="28">
       <c r="A28" s="6" t="s">
-        <v>504</v>
+        <v>509</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>504</v>
+        <v>509</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>504</v>
+        <v>509</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>16</v>
@@ -4186,16 +4201,16 @@
     </row>
     <row r="29">
       <c r="A29" s="6" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>16</v>
@@ -4230,16 +4245,16 @@
     </row>
     <row r="30">
       <c r="A30" s="6" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="E30" s="6" t="s">
         <v>16</v>
@@ -4375,27 +4390,27 @@
     </row>
     <row r="2">
       <c r="A2" s="6" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="B2" s="5"/>
       <c r="J2" s="10" t="s">
-        <v>513</v>
+        <v>518</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="6" t="s">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="6" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
     </row>
     <row r="6">
@@ -10625,9 +10640,11 @@
       <c r="A6" s="17" t="s">
         <v>397</v>
       </c>
-      <c r="B6" s="17"/>
+      <c r="B6" s="17" t="s">
+        <v>398</v>
+      </c>
       <c r="C6" s="17" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>394</v>
@@ -10641,16 +10658,14 @@
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
       <c r="K6" s="8">
-        <v>45421.0</v>
+        <v>45443.0</v>
       </c>
       <c r="L6" s="7"/>
       <c r="M6" s="6" t="s">
         <v>26</v>
       </c>
       <c r="N6" s="7"/>
-      <c r="O6" s="9" t="s">
-        <v>28</v>
-      </c>
+      <c r="O6" s="6"/>
       <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
       <c r="R6" s="7"/>
@@ -10670,17 +10685,19 @@
     </row>
     <row r="7">
       <c r="A7" s="17" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>401</v>
-      </c>
-      <c r="D7" s="7"/>
+        <v>402</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>403</v>
+      </c>
       <c r="E7" s="6" t="s">
-        <v>402</v>
+        <v>25</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -10695,7 +10712,9 @@
         <v>26</v>
       </c>
       <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
+      <c r="O7" s="9" t="s">
+        <v>28</v>
+      </c>
       <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
       <c r="R7" s="7"/>
@@ -10715,17 +10734,17 @@
     </row>
     <row r="8">
       <c r="A8" s="17" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="6" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
@@ -10759,26 +10778,24 @@
       <c r="AE8" s="7"/>
     </row>
     <row r="9">
-      <c r="A9" s="32" t="s">
-        <v>406</v>
-      </c>
-      <c r="B9" s="32" t="s">
+      <c r="A9" s="17" t="s">
+        <v>408</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>409</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>410</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="6" t="s">
         <v>407</v>
       </c>
-      <c r="C9" s="32" t="s">
-        <v>408</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>394</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="32"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
       <c r="K9" s="8">
         <v>45421.0</v>
       </c>
@@ -10786,44 +10803,46 @@
       <c r="M9" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="N9" s="21"/>
-      <c r="O9" s="21"/>
-      <c r="P9" s="21"/>
-      <c r="Q9" s="21"/>
-      <c r="R9" s="21"/>
-      <c r="S9" s="21"/>
-      <c r="T9" s="21"/>
-      <c r="U9" s="21"/>
-      <c r="V9" s="21"/>
-      <c r="W9" s="21"/>
-      <c r="X9" s="21"/>
-      <c r="Y9" s="21"/>
-      <c r="Z9" s="21"/>
-      <c r="AA9" s="21"/>
-      <c r="AB9" s="21"/>
-      <c r="AC9" s="21"/>
-      <c r="AD9" s="21"/>
-      <c r="AE9" s="21"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="7"/>
+      <c r="Z9" s="7"/>
+      <c r="AA9" s="7"/>
+      <c r="AB9" s="7"/>
+      <c r="AC9" s="7"/>
+      <c r="AD9" s="7"/>
+      <c r="AE9" s="7"/>
     </row>
     <row r="10">
       <c r="A10" s="32" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>410</v>
-      </c>
-      <c r="D10" s="7"/>
+        <v>413</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>403</v>
+      </c>
       <c r="E10" s="6" t="s">
-        <v>411</v>
+        <v>25</v>
       </c>
       <c r="F10" s="21"/>
       <c r="G10" s="21"/>
       <c r="H10" s="21"/>
       <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
+      <c r="J10" s="32"/>
       <c r="K10" s="8">
         <v>45421.0</v>
       </c>
@@ -10852,17 +10871,17 @@
     </row>
     <row r="11">
       <c r="A11" s="32" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>413</v>
-      </c>
-      <c r="C11" s="22" t="s">
         <v>414</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>415</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="6" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="F11" s="21"/>
       <c r="G11" s="21"/>
@@ -10896,26 +10915,24 @@
       <c r="AE11" s="21"/>
     </row>
     <row r="12">
-      <c r="A12" s="6" t="s">
-        <v>415</v>
-      </c>
-      <c r="B12" s="6" t="s">
+      <c r="A12" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="B12" s="32" t="s">
+        <v>418</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>419</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="6" t="s">
         <v>416</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>417</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
       <c r="K12" s="8">
         <v>45421.0</v>
       </c>
@@ -10923,74 +10940,121 @@
       <c r="M12" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="N12" s="6" t="s">
+      <c r="N12" s="21"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="21"/>
+      <c r="Q12" s="21"/>
+      <c r="R12" s="21"/>
+      <c r="S12" s="21"/>
+      <c r="T12" s="21"/>
+      <c r="U12" s="21"/>
+      <c r="V12" s="21"/>
+      <c r="W12" s="21"/>
+      <c r="X12" s="21"/>
+      <c r="Y12" s="21"/>
+      <c r="Z12" s="21"/>
+      <c r="AA12" s="21"/>
+      <c r="AB12" s="21"/>
+      <c r="AC12" s="21"/>
+      <c r="AD12" s="21"/>
+      <c r="AE12" s="21"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="8">
+        <v>45421.0</v>
+      </c>
+      <c r="L13" s="7"/>
+      <c r="M13" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N13" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="O12" s="9" t="s">
+      <c r="O13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="7"/>
-      <c r="S12" s="7"/>
-      <c r="T12" s="7"/>
-      <c r="U12" s="7"/>
-      <c r="V12" s="7"/>
-      <c r="W12" s="7"/>
-      <c r="X12" s="7"/>
-      <c r="Y12" s="7"/>
-      <c r="Z12" s="7"/>
-      <c r="AA12" s="7"/>
-      <c r="AB12" s="7"/>
-      <c r="AC12" s="7"/>
-      <c r="AD12" s="7"/>
-      <c r="AE12" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="7"/>
+      <c r="V13" s="7"/>
+      <c r="W13" s="7"/>
+      <c r="X13" s="7"/>
+      <c r="Y13" s="7"/>
+      <c r="Z13" s="7"/>
+      <c r="AA13" s="7"/>
+      <c r="AB13" s="7"/>
+      <c r="AC13" s="7"/>
+      <c r="AD13" s="7"/>
+      <c r="AE13" s="7"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A12:AD12">
+  <conditionalFormatting sqref="A13:AD13">
     <cfRule type="expression" dxfId="3" priority="1">
-      <formula>$M12="deprecated"</formula>
+      <formula>$M13="deprecated"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A12:AD12">
+  <conditionalFormatting sqref="A13:AD13">
     <cfRule type="expression" dxfId="0" priority="2">
-      <formula>$M12="accepted"</formula>
+      <formula>$M13="accepted"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A12:AB12">
+  <conditionalFormatting sqref="A13:AB13">
     <cfRule type="expression" dxfId="1" priority="3">
-      <formula>$M12="proposed"</formula>
+      <formula>$M13="proposed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A12:AB12">
+  <conditionalFormatting sqref="A13:AB13">
     <cfRule type="expression" dxfId="2" priority="4">
-      <formula>$M12="changed"</formula>
+      <formula>$M13="changed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:J11 K2:M140 N2:AD11 AE2:AE140 A13:J140 N13:AD140">
+  <conditionalFormatting sqref="A2:J12 K2:M141 N2:AD12 AE2:AE141 A14:J141 N14:AD141">
     <cfRule type="expression" dxfId="0" priority="5">
       <formula>$M2="accepted"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:J11 K2:M116 N2:AB11 A13:J116 N13:AB116">
+  <conditionalFormatting sqref="A2:J12 K2:M117 N2:AB12 A14:J117 N14:AB117">
     <cfRule type="expression" dxfId="1" priority="6">
       <formula>$M2="proposed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:J11 K2:M116 N2:AB11 A13:J116 N13:AB116">
+  <conditionalFormatting sqref="A2:J12 K2:M117 N2:AB12 A14:J117 N14:AB117">
     <cfRule type="expression" dxfId="2" priority="7">
       <formula>$M2="changed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2 M2:M140 N2:O11 J4:J11 K7:K11 A9:I11 L9:L11 P9:AD11 AE9:AE140 A13:L140 N13:AD140">
+  <conditionalFormatting sqref="K2 M2:M141 N2:O12 J4:J12 K8:K12 A10:I12 L10:L12 P10:AD12 AE10:AE141 A14:L141 N14:AD141">
     <cfRule type="expression" dxfId="3" priority="8">
       <formula>$M2="deprecated"</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="O4"/>
-    <hyperlink r:id="rId2" ref="O6"/>
-    <hyperlink r:id="rId3" ref="O12"/>
+    <hyperlink r:id="rId2" ref="O7"/>
+    <hyperlink r:id="rId3" ref="O13"/>
   </hyperlinks>
   <drawing r:id="rId4"/>
 </worksheet>
@@ -11061,22 +11125,22 @@
     </row>
     <row r="2">
       <c r="A2" s="6" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
@@ -11111,22 +11175,22 @@
     </row>
     <row r="3">
       <c r="A3" s="6" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
@@ -11157,22 +11221,22 @@
     </row>
     <row r="4">
       <c r="A4" s="6" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>

--- a/code/vocab_csv/tech.xlsx
+++ b/code/vocab_csv/tech.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1302" uniqueCount="523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1302" uniqueCount="532">
   <si>
     <t>Term</t>
   </si>
@@ -138,7 +138,7 @@
     <t>Communication Mechanism</t>
   </si>
   <si>
-    <t>Communication mechanism used or provided by Technologoy</t>
+    <t>Communication mechanism used or provided by Technology</t>
   </si>
   <si>
     <t>Harshvardhan J. Pandit</t>
@@ -177,7 +177,7 @@
     <t>Describes the 'intended' use of the technology</t>
   </si>
   <si>
-    <t xml:space="preserve">Intended use can be used to describe how the developer or provider of technology intends it to be used e.g. use a database to store data, and to describe the plan or 'intent' to use the technology by a user or operator e.g. use a database to store and analyse data. Intended Use can involve any concept e.g. DPV's purpose, processing, tech/org measures, and can be low-level purely technical uses such as store data or high-level goals such as legal compliance. Intended Use only describes the intent or ex-ante intention, and may be different from how the technology is being actually used - which is indicated by using isImplementedUsingTechnology in a procss or other relevant context. </t>
+    <t xml:space="preserve">Intended use can be used to describe how the developer or provider of technology intends it to be used e.g. use a database to store data, and to describe the plan or 'intent' to use the technology by a user or operator e.g. use a database to store and analyse data. Intended Use can involve any concept e.g. DPV's purpose, processing, tech/org measures, and can be low-level purely technical uses such as store data or high-level goals such as legal compliance. Intended Use only describes the intent or ex-ante intention, and may be different from how the technology is being actually used - which is indicated by using isImplementedUsingTechnology in a process or other relevant context. </t>
   </si>
   <si>
     <t>https://w3id.org/dpv/meetings/meeting-2024-05-22</t>
@@ -663,7 +663,7 @@
     <t>Fixed Use</t>
   </si>
   <si>
-    <t>Technology that can be used a fixed numner of times</t>
+    <t>Technology that can be used a fixed number of times</t>
   </si>
   <si>
     <t>Subscription</t>
@@ -849,7 +849,7 @@
     <t>User</t>
   </si>
   <si>
-    <t>Actor that uses Technologoy</t>
+    <t>Actor that uses Technology</t>
   </si>
   <si>
     <t>tech:Customer</t>
@@ -1182,28 +1182,55 @@
     <t>Manual</t>
   </si>
   <si>
+    <t>Documentation that provides instructions for using, maintaining, developing, or performing other activities regarding the technology</t>
+  </si>
+  <si>
     <t>tech:Documentation</t>
   </si>
   <si>
     <t>Guide</t>
   </si>
   <si>
+    <t>Documentation that provides guidance regarding the technology</t>
+  </si>
+  <si>
     <t>Instructions</t>
   </si>
   <si>
+    <t>Instructions related to technology</t>
+  </si>
+  <si>
     <t>Specification</t>
   </si>
   <si>
+    <t>Documentation that specifies requirements that must be satisfied by the technology</t>
+  </si>
+  <si>
     <t>Plan</t>
   </si>
   <si>
+    <t>Plan associated with using, maintaining, developing, or performing other activities associated with technology</t>
+  </si>
+  <si>
     <t>TestingPlan</t>
   </si>
   <si>
+    <t>Testing Plan</t>
+  </si>
+  <si>
+    <t>Plan associated with testing technology</t>
+  </si>
+  <si>
     <t>tech:Plan</t>
   </si>
   <si>
     <t>DevelopmentPlan</t>
+  </si>
+  <si>
+    <t>Development Plan</t>
+  </si>
+  <si>
+    <t>Plan associated with developing technology</t>
   </si>
   <si>
     <t>dpv:Status</t>
@@ -2761,10 +2788,8 @@
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1.0" ySplit="1.0" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="B1" sqref="B1" pane="topRight"/>
-      <selection activeCell="A2" sqref="A2" pane="bottomLeft"/>
-      <selection activeCell="B2" sqref="B2" pane="bottomRight"/>
+      <pane xSplit="1.0" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection activeCell="C2" sqref="C2" pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
@@ -2824,10 +2849,10 @@
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -2842,13 +2867,13 @@
     </row>
     <row r="4">
       <c r="A4" s="6" t="s">
-        <v>435</v>
+        <v>444</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>435</v>
+        <v>444</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="22" t="s">
@@ -2888,16 +2913,16 @@
     </row>
     <row r="5">
       <c r="A5" s="6" t="s">
-        <v>437</v>
+        <v>446</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>438</v>
+        <v>447</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>439</v>
+        <v>448</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>440</v>
+        <v>449</v>
       </c>
       <c r="E5" s="22" t="s">
         <v>60</v>
@@ -2936,16 +2961,16 @@
     </row>
     <row r="6">
       <c r="A6" s="6" t="s">
-        <v>441</v>
+        <v>450</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>441</v>
+        <v>450</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>440</v>
+        <v>449</v>
       </c>
       <c r="E6" s="22" t="s">
         <v>60</v>
@@ -2984,16 +3009,16 @@
     </row>
     <row r="7">
       <c r="A7" s="6" t="s">
-        <v>443</v>
+        <v>452</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>443</v>
+        <v>452</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>444</v>
+        <v>453</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>440</v>
+        <v>449</v>
       </c>
       <c r="E7" s="22" t="s">
         <v>60</v>
@@ -3032,16 +3057,16 @@
     </row>
     <row r="8">
       <c r="A8" s="6" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>446</v>
+        <v>455</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>440</v>
+        <v>449</v>
       </c>
       <c r="E8" s="22" t="s">
         <v>60</v>
@@ -3080,16 +3105,16 @@
     </row>
     <row r="9">
       <c r="A9" s="6" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
       <c r="C9" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>449</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>440</v>
       </c>
       <c r="E9" s="22" t="s">
         <v>60</v>
@@ -3128,13 +3153,13 @@
     </row>
     <row r="10">
       <c r="A10" s="6" t="s">
-        <v>450</v>
+        <v>459</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>450</v>
+        <v>459</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="22" t="s">
@@ -3272,10 +3297,10 @@
     </row>
     <row r="2">
       <c r="A2" s="38" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
       <c r="B2" s="38" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
       <c r="C2" s="24"/>
       <c r="D2" s="39"/>
@@ -3294,13 +3319,13 @@
     </row>
     <row r="4">
       <c r="A4" s="38" t="s">
-        <v>453</v>
+        <v>462</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>453</v>
+        <v>462</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
       <c r="D4" s="40"/>
       <c r="E4" s="6" t="s">
@@ -3346,16 +3371,16 @@
     </row>
     <row r="6">
       <c r="A6" s="38" t="s">
-        <v>455</v>
+        <v>464</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>456</v>
+        <v>465</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="D6" s="40" t="s">
-        <v>458</v>
+        <v>467</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>16</v>
@@ -3390,16 +3415,16 @@
     </row>
     <row r="7">
       <c r="A7" s="24" t="s">
-        <v>459</v>
+        <v>468</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>459</v>
+        <v>468</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>16</v>
@@ -3440,16 +3465,16 @@
     </row>
     <row r="8">
       <c r="A8" s="17" t="s">
-        <v>462</v>
+        <v>471</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>463</v>
+        <v>472</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>464</v>
+        <v>473</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>16</v>
@@ -3484,16 +3509,16 @@
     </row>
     <row r="9">
       <c r="A9" s="17" t="s">
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>16</v>
@@ -3528,16 +3553,16 @@
     </row>
     <row r="10">
       <c r="A10" s="24" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>470</v>
+        <v>479</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>16</v>
@@ -3584,10 +3609,10 @@
         <v>158</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>471</v>
+        <v>480</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>458</v>
+        <v>467</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>16</v>
@@ -3622,16 +3647,16 @@
     </row>
     <row r="13">
       <c r="A13" s="24" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>473</v>
+        <v>482</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>16</v>
@@ -3672,16 +3697,16 @@
     </row>
     <row r="14">
       <c r="A14" s="6" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>478</v>
+        <v>487</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>16</v>
@@ -3716,16 +3741,16 @@
     </row>
     <row r="16">
       <c r="A16" s="5" t="s">
-        <v>479</v>
+        <v>488</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>480</v>
+        <v>489</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>458</v>
+        <v>467</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>16</v>
@@ -3760,16 +3785,16 @@
     </row>
     <row r="17">
       <c r="A17" s="6" t="s">
-        <v>482</v>
+        <v>491</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>16</v>
@@ -3804,16 +3829,16 @@
     </row>
     <row r="18">
       <c r="A18" s="6" t="s">
-        <v>486</v>
+        <v>495</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>486</v>
+        <v>495</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>487</v>
+        <v>496</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>16</v>
@@ -3848,16 +3873,16 @@
     </row>
     <row r="19">
       <c r="A19" s="6" t="s">
-        <v>488</v>
+        <v>497</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>488</v>
+        <v>497</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>489</v>
+        <v>498</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>16</v>
@@ -3892,16 +3917,16 @@
     </row>
     <row r="20">
       <c r="A20" s="6" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>491</v>
+        <v>500</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>492</v>
+        <v>501</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>16</v>
@@ -3936,13 +3961,13 @@
     </row>
     <row r="22">
       <c r="A22" s="5" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>494</v>
+        <v>503</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="6" t="s">
@@ -3981,16 +4006,16 @@
     </row>
     <row r="24">
       <c r="A24" s="5" t="s">
-        <v>495</v>
+        <v>504</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>495</v>
+        <v>504</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>497</v>
+        <v>506</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>16</v>
@@ -4025,16 +4050,16 @@
     </row>
     <row r="25">
       <c r="A25" s="6" t="s">
-        <v>498</v>
+        <v>507</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>499</v>
+        <v>508</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>500</v>
+        <v>509</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>501</v>
+        <v>510</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>16</v>
@@ -4069,16 +4094,16 @@
     </row>
     <row r="26">
       <c r="A26" s="6" t="s">
-        <v>502</v>
+        <v>511</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>503</v>
+        <v>512</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>505</v>
+        <v>514</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>16</v>
@@ -4113,16 +4138,16 @@
     </row>
     <row r="27">
       <c r="A27" s="6" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>507</v>
+        <v>516</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>508</v>
+        <v>517</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>505</v>
+        <v>514</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>16</v>
@@ -4157,16 +4182,16 @@
     </row>
     <row r="28">
       <c r="A28" s="6" t="s">
-        <v>509</v>
+        <v>518</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>509</v>
+        <v>518</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>509</v>
+        <v>518</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>501</v>
+        <v>510</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>16</v>
@@ -4201,16 +4226,16 @@
     </row>
     <row r="29">
       <c r="A29" s="6" t="s">
-        <v>510</v>
+        <v>519</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>511</v>
+        <v>520</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>512</v>
+        <v>521</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>513</v>
+        <v>522</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>16</v>
@@ -4245,16 +4270,16 @@
     </row>
     <row r="30">
       <c r="A30" s="6" t="s">
-        <v>514</v>
+        <v>523</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>514</v>
+        <v>523</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>515</v>
+        <v>524</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="E30" s="6" t="s">
         <v>16</v>
@@ -4390,27 +4415,27 @@
     </row>
     <row r="2">
       <c r="A2" s="6" t="s">
-        <v>517</v>
+        <v>526</v>
       </c>
       <c r="B2" s="5"/>
       <c r="J2" s="10" t="s">
-        <v>518</v>
+        <v>527</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="6" t="s">
-        <v>519</v>
+        <v>528</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>520</v>
+        <v>529</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="6" t="s">
-        <v>521</v>
+        <v>530</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>522</v>
+        <v>531</v>
       </c>
     </row>
     <row r="6">
@@ -9973,11 +9998,11 @@
         <v>385</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="6" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -10014,17 +10039,17 @@
     </row>
     <row r="5">
       <c r="A5" s="17" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="6" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -10059,17 +10084,17 @@
     </row>
     <row r="6">
       <c r="A6" s="17" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="6" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -10106,17 +10131,17 @@
     </row>
     <row r="7">
       <c r="A7" s="17" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="6" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -10151,17 +10176,17 @@
     </row>
     <row r="8">
       <c r="A8" s="17" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="6" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
@@ -10196,19 +10221,19 @@
     </row>
     <row r="9">
       <c r="A9" s="17" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
@@ -10243,19 +10268,19 @@
     </row>
     <row r="10">
       <c r="A10" s="32" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>393</v>
+        <v>402</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F10" s="21"/>
       <c r="G10" s="21"/>
@@ -10612,13 +10637,13 @@
     </row>
     <row r="3">
       <c r="A3" s="6" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="K3" s="8"/>
     </row>
     <row r="4">
       <c r="A4" s="17" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
@@ -10629,7 +10654,7 @@
     </row>
     <row r="5">
       <c r="A5" s="17" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="B5" s="17"/>
       <c r="C5" s="17"/>
@@ -10638,16 +10663,16 @@
     </row>
     <row r="6">
       <c r="A6" s="17" t="s">
-        <v>397</v>
+        <v>406</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>25</v>
@@ -10685,16 +10710,16 @@
     </row>
     <row r="7">
       <c r="A7" s="17" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>402</v>
+        <v>411</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>403</v>
+        <v>412</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>25</v>
@@ -10734,17 +10759,17 @@
     </row>
     <row r="8">
       <c r="A8" s="17" t="s">
-        <v>404</v>
+        <v>413</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="6" t="s">
-        <v>407</v>
+        <v>416</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
@@ -10779,17 +10804,17 @@
     </row>
     <row r="9">
       <c r="A9" s="17" t="s">
-        <v>408</v>
+        <v>417</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>409</v>
+        <v>418</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="6" t="s">
-        <v>407</v>
+        <v>416</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
@@ -10824,16 +10849,16 @@
     </row>
     <row r="10">
       <c r="A10" s="32" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="B10" s="32" t="s">
+        <v>421</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>422</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>412</v>
-      </c>
-      <c r="C10" s="32" t="s">
-        <v>413</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>403</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>25</v>
@@ -10871,17 +10896,17 @@
     </row>
     <row r="11">
       <c r="A11" s="32" t="s">
-        <v>414</v>
+        <v>423</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>414</v>
+        <v>423</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>415</v>
+        <v>424</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="6" t="s">
-        <v>416</v>
+        <v>425</v>
       </c>
       <c r="F11" s="21"/>
       <c r="G11" s="21"/>
@@ -10916,17 +10941,17 @@
     </row>
     <row r="12">
       <c r="A12" s="32" t="s">
-        <v>417</v>
+        <v>426</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>419</v>
+        <v>428</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="6" t="s">
-        <v>416</v>
+        <v>425</v>
       </c>
       <c r="F12" s="21"/>
       <c r="G12" s="21"/>
@@ -10961,16 +10986,16 @@
     </row>
     <row r="13">
       <c r="A13" s="6" t="s">
-        <v>420</v>
+        <v>429</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>421</v>
+        <v>430</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>403</v>
+        <v>412</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>25</v>
@@ -11125,22 +11150,22 @@
     </row>
     <row r="2">
       <c r="A2" s="6" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>425</v>
+        <v>434</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>427</v>
+        <v>436</v>
       </c>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
@@ -11175,22 +11200,22 @@
     </row>
     <row r="3">
       <c r="A3" s="6" t="s">
-        <v>428</v>
+        <v>437</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>429</v>
+        <v>438</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>430</v>
+        <v>439</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>407</v>
+        <v>416</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>427</v>
+        <v>436</v>
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
@@ -11221,22 +11246,22 @@
     </row>
     <row r="4">
       <c r="A4" s="6" t="s">
-        <v>431</v>
+        <v>440</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>416</v>
+        <v>425</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>427</v>
+        <v>436</v>
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>

--- a/code/vocab_csv/tech.xlsx
+++ b/code/vocab_csv/tech.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1302" uniqueCount="532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1301" uniqueCount="532">
   <si>
     <t>Term</t>
   </si>
@@ -228,7 +228,7 @@
     <t>Specifies the provision or usage method of technology</t>
   </si>
   <si>
-    <t>tech:TechnologyProvisionMethod</t>
+    <t>tech:ProvisionMethod</t>
   </si>
   <si>
     <t>hasDeploymentLocation</t>
@@ -981,7 +981,7 @@
     <t>tech:Provider</t>
   </si>
   <si>
-    <t>tech:hasTechnologyActor</t>
+    <t>tech:hasActor</t>
   </si>
   <si>
     <t>hasProducer</t>
@@ -3336,7 +3336,9 @@
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
-      <c r="K4" s="8"/>
+      <c r="K4" s="8">
+        <v>44727.0</v>
+      </c>
       <c r="L4" s="7"/>
       <c r="M4" s="6" t="s">
         <v>26</v>
@@ -3390,7 +3392,9 @@
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
-      <c r="K6" s="8"/>
+      <c r="K6" s="8">
+        <v>44727.0</v>
+      </c>
       <c r="L6" s="7"/>
       <c r="M6" s="6" t="s">
         <v>26</v>
@@ -3484,7 +3488,9 @@
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
-      <c r="K8" s="8"/>
+      <c r="K8" s="8">
+        <v>44727.0</v>
+      </c>
       <c r="L8" s="7"/>
       <c r="M8" s="6" t="s">
         <v>26</v>
@@ -3528,7 +3534,9 @@
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
-      <c r="K9" s="8"/>
+      <c r="K9" s="8">
+        <v>44727.0</v>
+      </c>
       <c r="L9" s="7"/>
       <c r="M9" s="6" t="s">
         <v>26</v>
@@ -3622,7 +3630,9 @@
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
-      <c r="K12" s="8"/>
+      <c r="K12" s="8">
+        <v>44727.0</v>
+      </c>
       <c r="L12" s="7"/>
       <c r="M12" s="6" t="s">
         <v>26</v>
@@ -3716,7 +3726,9 @@
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
+      <c r="K14" s="8">
+        <v>44727.0</v>
+      </c>
       <c r="L14" s="7"/>
       <c r="M14" s="6" t="s">
         <v>26</v>
@@ -3760,7 +3772,9 @@
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
+      <c r="K16" s="8">
+        <v>44727.0</v>
+      </c>
       <c r="L16" s="7"/>
       <c r="M16" s="6" t="s">
         <v>26</v>
@@ -3804,7 +3818,9 @@
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
+      <c r="K17" s="8">
+        <v>44727.0</v>
+      </c>
       <c r="L17" s="7"/>
       <c r="M17" s="6" t="s">
         <v>26</v>
@@ -3848,7 +3864,9 @@
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
+      <c r="K18" s="8">
+        <v>44727.0</v>
+      </c>
       <c r="L18" s="7"/>
       <c r="M18" s="6" t="s">
         <v>26</v>
@@ -3892,7 +3910,9 @@
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
+      <c r="K19" s="8">
+        <v>44727.0</v>
+      </c>
       <c r="L19" s="7"/>
       <c r="M19" s="6" t="s">
         <v>26</v>
@@ -3936,7 +3956,9 @@
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
+      <c r="K20" s="8">
+        <v>44727.0</v>
+      </c>
       <c r="L20" s="7"/>
       <c r="M20" s="6" t="s">
         <v>26</v>
@@ -3978,7 +4000,9 @@
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
+      <c r="K22" s="8">
+        <v>44727.0</v>
+      </c>
       <c r="L22" s="7"/>
       <c r="M22" s="6" t="s">
         <v>26</v>
@@ -4025,7 +4049,9 @@
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
+      <c r="K24" s="8">
+        <v>44727.0</v>
+      </c>
       <c r="L24" s="7"/>
       <c r="M24" s="6" t="s">
         <v>26</v>
@@ -4069,7 +4095,9 @@
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
+      <c r="K25" s="8">
+        <v>44727.0</v>
+      </c>
       <c r="L25" s="7"/>
       <c r="M25" s="6" t="s">
         <v>26</v>
@@ -4113,7 +4141,9 @@
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
+      <c r="K26" s="8">
+        <v>44727.0</v>
+      </c>
       <c r="L26" s="7"/>
       <c r="M26" s="6" t="s">
         <v>26</v>
@@ -4157,7 +4187,9 @@
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
       <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
+      <c r="K27" s="8">
+        <v>44727.0</v>
+      </c>
       <c r="L27" s="7"/>
       <c r="M27" s="6" t="s">
         <v>26</v>
@@ -4201,7 +4233,9 @@
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
+      <c r="K28" s="8">
+        <v>44727.0</v>
+      </c>
       <c r="L28" s="7"/>
       <c r="M28" s="6" t="s">
         <v>26</v>
@@ -4245,7 +4279,9 @@
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
+      <c r="K29" s="8">
+        <v>44727.0</v>
+      </c>
       <c r="L29" s="7"/>
       <c r="M29" s="6" t="s">
         <v>26</v>
@@ -4289,7 +4325,9 @@
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
       <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
+      <c r="K30" s="8">
+        <v>44727.0</v>
+      </c>
       <c r="L30" s="7"/>
       <c r="M30" s="6" t="s">
         <v>26</v>
@@ -7243,36 +7281,6 @@
     <row r="12">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="7"/>
-      <c r="S12" s="7"/>
-      <c r="T12" s="7"/>
-      <c r="U12" s="7"/>
-      <c r="V12" s="7"/>
-      <c r="W12" s="7"/>
-      <c r="X12" s="7"/>
-      <c r="Y12" s="7"/>
-      <c r="Z12" s="7"/>
-      <c r="AA12" s="7"/>
-      <c r="AB12" s="7"/>
-      <c r="AC12" s="7"/>
-      <c r="AD12" s="7"/>
     </row>
     <row r="13">
       <c r="A13" s="6" t="s">
@@ -7295,7 +7303,9 @@
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
+      <c r="K13" s="8">
+        <v>45421.0</v>
+      </c>
       <c r="L13" s="7"/>
       <c r="M13" s="6" t="s">
         <v>26</v>

--- a/code/vocab_csv/tech.xlsx
+++ b/code/vocab_csv/tech.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1301" uniqueCount="532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1311" uniqueCount="533">
   <si>
     <t>Term</t>
   </si>
@@ -787,6 +787,9 @@
   </si>
   <si>
     <t>Technology provided as a cloud service that is private</t>
+  </si>
+  <si>
+    <t>Tek Raj Chhetri</t>
   </si>
   <si>
     <t>PublicCloudService</t>
@@ -2849,10 +2852,10 @@
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -2867,13 +2870,13 @@
     </row>
     <row r="4">
       <c r="A4" s="6" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="22" t="s">
@@ -2913,16 +2916,16 @@
     </row>
     <row r="5">
       <c r="A5" s="6" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="E5" s="22" t="s">
         <v>60</v>
@@ -2961,16 +2964,16 @@
     </row>
     <row r="6">
       <c r="A6" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>450</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>450</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>451</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>449</v>
       </c>
       <c r="E6" s="22" t="s">
         <v>60</v>
@@ -3009,16 +3012,16 @@
     </row>
     <row r="7">
       <c r="A7" s="6" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="E7" s="22" t="s">
         <v>60</v>
@@ -3057,16 +3060,16 @@
     </row>
     <row r="8">
       <c r="A8" s="6" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="E8" s="22" t="s">
         <v>60</v>
@@ -3105,16 +3108,16 @@
     </row>
     <row r="9">
       <c r="A9" s="6" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="E9" s="22" t="s">
         <v>60</v>
@@ -3153,13 +3156,13 @@
     </row>
     <row r="10">
       <c r="A10" s="6" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="22" t="s">
@@ -3297,10 +3300,10 @@
     </row>
     <row r="2">
       <c r="A2" s="38" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B2" s="38" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C2" s="24"/>
       <c r="D2" s="39"/>
@@ -3319,13 +3322,13 @@
     </row>
     <row r="4">
       <c r="A4" s="38" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D4" s="40"/>
       <c r="E4" s="6" t="s">
@@ -3373,16 +3376,16 @@
     </row>
     <row r="6">
       <c r="A6" s="38" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D6" s="40" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>16</v>
@@ -3419,16 +3422,16 @@
     </row>
     <row r="7">
       <c r="A7" s="24" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>16</v>
@@ -3469,16 +3472,16 @@
     </row>
     <row r="8">
       <c r="A8" s="17" t="s">
+        <v>472</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>473</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>474</v>
+      </c>
+      <c r="D8" s="25" t="s">
         <v>471</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>472</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>473</v>
-      </c>
-      <c r="D8" s="25" t="s">
-        <v>470</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>16</v>
@@ -3515,16 +3518,16 @@
     </row>
     <row r="9">
       <c r="A9" s="17" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>16</v>
@@ -3561,16 +3564,16 @@
     </row>
     <row r="10">
       <c r="A10" s="24" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>16</v>
@@ -3617,10 +3620,10 @@
         <v>158</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>16</v>
@@ -3657,16 +3660,16 @@
     </row>
     <row r="13">
       <c r="A13" s="24" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>16</v>
@@ -3707,16 +3710,16 @@
     </row>
     <row r="14">
       <c r="A14" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>485</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>486</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>487</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>484</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>16</v>
@@ -3753,16 +3756,16 @@
     </row>
     <row r="16">
       <c r="A16" s="5" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>16</v>
@@ -3799,16 +3802,16 @@
     </row>
     <row r="17">
       <c r="A17" s="6" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>16</v>
@@ -3845,16 +3848,16 @@
     </row>
     <row r="18">
       <c r="A18" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>497</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>495</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>495</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>496</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>494</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>16</v>
@@ -3891,16 +3894,16 @@
     </row>
     <row r="19">
       <c r="A19" s="6" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>16</v>
@@ -3937,16 +3940,16 @@
     </row>
     <row r="20">
       <c r="A20" s="6" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>16</v>
@@ -3983,13 +3986,13 @@
     </row>
     <row r="22">
       <c r="A22" s="5" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="6" t="s">
@@ -4030,16 +4033,16 @@
     </row>
     <row r="24">
       <c r="A24" s="5" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>16</v>
@@ -4076,16 +4079,16 @@
     </row>
     <row r="25">
       <c r="A25" s="6" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>16</v>
@@ -4122,16 +4125,16 @@
     </row>
     <row r="26">
       <c r="A26" s="6" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>16</v>
@@ -4168,16 +4171,16 @@
     </row>
     <row r="27">
       <c r="A27" s="6" t="s">
+        <v>516</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>517</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>518</v>
+      </c>
+      <c r="D27" s="6" t="s">
         <v>515</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>516</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>517</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>514</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>16</v>
@@ -4214,16 +4217,16 @@
     </row>
     <row r="28">
       <c r="A28" s="6" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>16</v>
@@ -4260,16 +4263,16 @@
     </row>
     <row r="29">
       <c r="A29" s="6" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>16</v>
@@ -4306,16 +4309,16 @@
     </row>
     <row r="30">
       <c r="A30" s="6" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="E30" s="6" t="s">
         <v>16</v>
@@ -4453,27 +4456,27 @@
     </row>
     <row r="2">
       <c r="A2" s="6" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B2" s="5"/>
       <c r="J2" s="10" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="6" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="6" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="6">
@@ -7310,7 +7313,9 @@
       <c r="M13" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="N13" s="7"/>
+      <c r="N13" s="6" t="s">
+        <v>39</v>
+      </c>
       <c r="O13" s="7"/>
       <c r="P13" s="7"/>
       <c r="Q13" s="7"/>
@@ -7356,7 +7361,9 @@
       <c r="M14" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="N14" s="7"/>
+      <c r="N14" s="6" t="s">
+        <v>39</v>
+      </c>
       <c r="O14" s="7"/>
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
@@ -7402,7 +7409,9 @@
       <c r="M15" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="N15" s="7"/>
+      <c r="N15" s="6" t="s">
+        <v>39</v>
+      </c>
       <c r="O15" s="7"/>
       <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
@@ -7448,7 +7457,9 @@
       <c r="M16" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="N16" s="7"/>
+      <c r="N16" s="6" t="s">
+        <v>39</v>
+      </c>
       <c r="O16" s="7"/>
       <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
@@ -7494,7 +7505,9 @@
       <c r="M17" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="N17" s="7"/>
+      <c r="N17" s="6" t="s">
+        <v>39</v>
+      </c>
       <c r="O17" s="7"/>
       <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
@@ -7540,7 +7553,9 @@
       <c r="M18" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="N18" s="7"/>
+      <c r="N18" s="6" t="s">
+        <v>39</v>
+      </c>
       <c r="O18" s="7"/>
       <c r="P18" s="7"/>
       <c r="Q18" s="7"/>
@@ -7586,7 +7601,9 @@
       <c r="M19" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="N19" s="7"/>
+      <c r="N19" s="6" t="s">
+        <v>39</v>
+      </c>
       <c r="O19" s="7"/>
       <c r="P19" s="7"/>
       <c r="Q19" s="7"/>
@@ -7632,7 +7649,9 @@
       <c r="M20" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="N20" s="7"/>
+      <c r="N20" s="6" t="s">
+        <v>255</v>
+      </c>
       <c r="O20" s="7"/>
       <c r="P20" s="7"/>
       <c r="Q20" s="7"/>
@@ -7652,13 +7671,13 @@
     </row>
     <row r="21">
       <c r="A21" s="6" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>236</v>
@@ -7678,7 +7697,9 @@
       <c r="M21" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="N21" s="7"/>
+      <c r="N21" s="6" t="s">
+        <v>255</v>
+      </c>
       <c r="O21" s="7"/>
       <c r="P21" s="7"/>
       <c r="Q21" s="7"/>
@@ -7698,16 +7719,16 @@
     </row>
     <row r="22">
       <c r="A22" s="6" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>68</v>
@@ -7724,7 +7745,9 @@
       <c r="M22" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="N22" s="7"/>
+      <c r="N22" s="6" t="s">
+        <v>255</v>
+      </c>
       <c r="O22" s="7"/>
       <c r="P22" s="7"/>
       <c r="Q22" s="7"/>
@@ -7862,10 +7885,10 @@
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -7880,24 +7903,24 @@
     </row>
     <row r="4">
       <c r="A4" s="17" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="6" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
       <c r="J4" s="6" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K4" s="8">
         <v>45421.0</v>
@@ -7931,24 +7954,24 @@
     </row>
     <row r="5">
       <c r="A5" s="17" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="6" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
       <c r="J5" s="6" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K5" s="8">
         <v>45421.0</v>
@@ -7978,26 +8001,26 @@
     </row>
     <row r="6">
       <c r="A6" s="17" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
       <c r="J6" s="6" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K6" s="8">
         <v>45421.0</v>
@@ -8031,24 +8054,24 @@
     </row>
     <row r="7">
       <c r="A7" s="17" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="6" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
       <c r="J7" s="6" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K7" s="8">
         <v>45421.0</v>
@@ -8078,26 +8101,26 @@
     </row>
     <row r="8">
       <c r="A8" s="17" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
       <c r="J8" s="6" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K8" s="8">
         <v>45421.0</v>
@@ -8131,24 +8154,24 @@
     </row>
     <row r="9">
       <c r="A9" s="17" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="6" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
       <c r="J9" s="6" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K9" s="8">
         <v>45421.0</v>
@@ -8182,24 +8205,24 @@
     </row>
     <row r="10">
       <c r="A10" s="32" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="6" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F10" s="21"/>
       <c r="G10" s="21"/>
       <c r="H10" s="21"/>
       <c r="I10" s="21"/>
       <c r="J10" s="32" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K10" s="8">
         <v>45421.0</v>
@@ -8229,24 +8252,24 @@
     </row>
     <row r="11">
       <c r="A11" s="32" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="6" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F11" s="21"/>
       <c r="G11" s="21"/>
       <c r="H11" s="21"/>
       <c r="I11" s="21"/>
       <c r="J11" s="21" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="K11" s="8">
         <v>45421.0</v>
@@ -8276,24 +8299,24 @@
     </row>
     <row r="12">
       <c r="A12" s="32" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="6" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F12" s="21"/>
       <c r="G12" s="21"/>
       <c r="H12" s="21"/>
       <c r="I12" s="21"/>
       <c r="J12" s="21" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="K12" s="8">
         <v>45421.0</v>
@@ -8323,24 +8346,24 @@
     </row>
     <row r="13">
       <c r="A13" s="32" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B13" s="32" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="6" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F13" s="21"/>
       <c r="G13" s="21"/>
       <c r="H13" s="21"/>
       <c r="I13" s="21"/>
       <c r="J13" s="21" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="K13" s="8">
         <v>45421.0</v>
@@ -8370,24 +8393,24 @@
     </row>
     <row r="14">
       <c r="A14" s="32" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="6" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F14" s="21"/>
       <c r="G14" s="21"/>
       <c r="H14" s="21"/>
       <c r="I14" s="21"/>
       <c r="J14" s="21" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="K14" s="8">
         <v>45421.0</v>
@@ -8417,24 +8440,24 @@
     </row>
     <row r="15">
       <c r="A15" s="32" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B15" s="32" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="6" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F15" s="21"/>
       <c r="G15" s="21"/>
       <c r="H15" s="21"/>
       <c r="I15" s="21"/>
       <c r="J15" s="21" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="K15" s="8">
         <v>45421.0</v>
@@ -8464,24 +8487,24 @@
     </row>
     <row r="16">
       <c r="A16" s="32" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B16" s="32" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="6" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F16" s="21"/>
       <c r="G16" s="21"/>
       <c r="H16" s="21"/>
       <c r="I16" s="21"/>
       <c r="J16" s="21" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="K16" s="8">
         <v>45421.0</v>
@@ -8511,24 +8534,24 @@
     </row>
     <row r="17">
       <c r="A17" s="32" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B17" s="32" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="6" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F17" s="21"/>
       <c r="G17" s="21"/>
       <c r="H17" s="21"/>
       <c r="I17" s="21"/>
       <c r="J17" s="21" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="K17" s="8">
         <v>45421.0</v>
@@ -8558,26 +8581,26 @@
     </row>
     <row r="18">
       <c r="A18" s="6" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="6" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
       <c r="I18" s="6" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K18" s="8">
         <v>45421.0</v>
@@ -8607,26 +8630,26 @@
     </row>
     <row r="19">
       <c r="A19" s="6" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
       <c r="J19" s="6" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K19" s="8">
         <v>45421.0</v>
@@ -8656,26 +8679,26 @@
     </row>
     <row r="20">
       <c r="A20" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="D20" s="6" t="s">
         <v>303</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>303</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>304</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>302</v>
-      </c>
       <c r="E20" s="6" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
       <c r="J20" s="6" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K20" s="8">
         <v>45421.0</v>
@@ -8705,26 +8728,26 @@
     </row>
     <row r="21">
       <c r="A21" s="6" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
       <c r="J21" s="6" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K21" s="8">
         <v>45421.0</v>
@@ -8754,17 +8777,17 @@
     </row>
     <row r="22">
       <c r="A22" s="6" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="6" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
@@ -8799,17 +8822,17 @@
     </row>
     <row r="23">
       <c r="A23" s="6" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D23" s="7"/>
       <c r="E23" s="6" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
@@ -8844,23 +8867,23 @@
     </row>
     <row r="24">
       <c r="A24" s="6" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D24" s="7"/>
       <c r="E24" s="6" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
       <c r="I24" s="6" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="J24" s="7"/>
       <c r="K24" s="8">
@@ -9005,22 +9028,22 @@
     </row>
     <row r="2">
       <c r="A2" s="17" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E2" s="33" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="G2" s="34"/>
       <c r="H2" s="34"/>
@@ -9053,22 +9076,22 @@
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E3" s="33" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="G3" s="34"/>
       <c r="H3" s="34"/>
@@ -9101,22 +9124,22 @@
     </row>
     <row r="4">
       <c r="A4" s="17" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E4" s="33" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="G4" s="34"/>
       <c r="H4" s="34"/>
@@ -9149,22 +9172,22 @@
     </row>
     <row r="5">
       <c r="A5" s="17" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E5" s="33" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="G5" s="34"/>
       <c r="H5" s="34"/>
@@ -9197,22 +9220,22 @@
     </row>
     <row r="6">
       <c r="A6" s="17" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
@@ -9245,22 +9268,22 @@
     </row>
     <row r="7">
       <c r="A7" s="17" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
@@ -9293,22 +9316,22 @@
     </row>
     <row r="8">
       <c r="A8" s="32" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
@@ -9341,22 +9364,22 @@
     </row>
     <row r="9">
       <c r="A9" s="32" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
@@ -9389,22 +9412,22 @@
     </row>
     <row r="10">
       <c r="A10" s="32" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
@@ -9437,22 +9460,22 @@
     </row>
     <row r="11">
       <c r="A11" s="32" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
@@ -9485,22 +9508,22 @@
     </row>
     <row r="12">
       <c r="A12" s="32" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
@@ -9533,22 +9556,22 @@
     </row>
     <row r="13">
       <c r="A13" s="32" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
@@ -9581,22 +9604,22 @@
     </row>
     <row r="14">
       <c r="A14" s="32" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
@@ -9629,22 +9652,22 @@
     </row>
     <row r="15">
       <c r="A15" s="32" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
@@ -9677,22 +9700,22 @@
     </row>
     <row r="16">
       <c r="A16" s="6" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
@@ -9725,22 +9748,22 @@
     </row>
     <row r="17">
       <c r="A17" s="6" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
@@ -9773,22 +9796,22 @@
     </row>
     <row r="18">
       <c r="A18" s="6" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
@@ -9821,22 +9844,22 @@
     </row>
     <row r="19">
       <c r="A19" s="6" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
@@ -9984,10 +10007,10 @@
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -10002,17 +10025,17 @@
     </row>
     <row r="4">
       <c r="A4" s="17" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="6" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -10049,17 +10072,17 @@
     </row>
     <row r="5">
       <c r="A5" s="17" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="6" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -10094,17 +10117,17 @@
     </row>
     <row r="6">
       <c r="A6" s="17" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="6" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -10141,17 +10164,17 @@
     </row>
     <row r="7">
       <c r="A7" s="17" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="6" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -10186,17 +10209,17 @@
     </row>
     <row r="8">
       <c r="A8" s="17" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="6" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
@@ -10231,19 +10254,19 @@
     </row>
     <row r="9">
       <c r="A9" s="17" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
@@ -10278,19 +10301,19 @@
     </row>
     <row r="10">
       <c r="A10" s="32" t="s">
+        <v>401</v>
+      </c>
+      <c r="B10" s="32" t="s">
+        <v>402</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>403</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="B10" s="32" t="s">
-        <v>401</v>
-      </c>
-      <c r="C10" s="32" t="s">
-        <v>402</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>399</v>
-      </c>
       <c r="E10" s="6" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="F10" s="21"/>
       <c r="G10" s="21"/>
@@ -10635,10 +10658,10 @@
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -10647,13 +10670,13 @@
     </row>
     <row r="3">
       <c r="A3" s="6" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="K3" s="8"/>
     </row>
     <row r="4">
       <c r="A4" s="17" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
@@ -10664,7 +10687,7 @@
     </row>
     <row r="5">
       <c r="A5" s="17" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B5" s="17"/>
       <c r="C5" s="17"/>
@@ -10673,16 +10696,16 @@
     </row>
     <row r="6">
       <c r="A6" s="17" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>25</v>
@@ -10720,16 +10743,16 @@
     </row>
     <row r="7">
       <c r="A7" s="17" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>25</v>
@@ -10769,17 +10792,17 @@
     </row>
     <row r="8">
       <c r="A8" s="17" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="6" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
@@ -10814,17 +10837,17 @@
     </row>
     <row r="9">
       <c r="A9" s="17" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="6" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
@@ -10859,16 +10882,16 @@
     </row>
     <row r="10">
       <c r="A10" s="32" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>25</v>
@@ -10906,17 +10929,17 @@
     </row>
     <row r="11">
       <c r="A11" s="32" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="6" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="F11" s="21"/>
       <c r="G11" s="21"/>
@@ -10951,17 +10974,17 @@
     </row>
     <row r="12">
       <c r="A12" s="32" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="6" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="F12" s="21"/>
       <c r="G12" s="21"/>
@@ -10996,16 +11019,16 @@
     </row>
     <row r="13">
       <c r="A13" s="6" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>25</v>
@@ -11160,22 +11183,22 @@
     </row>
     <row r="2">
       <c r="A2" s="6" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
@@ -11210,22 +11233,22 @@
     </row>
     <row r="3">
       <c r="A3" s="6" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
@@ -11256,22 +11279,22 @@
     </row>
     <row r="4">
       <c r="A4" s="6" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>

--- a/code/vocab_csv/tech.xlsx
+++ b/code/vocab_csv/tech.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1311" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1319" uniqueCount="536">
   <si>
     <t>Term</t>
   </si>
@@ -279,6 +279,18 @@
     <t>tech:IntendedUse</t>
   </si>
   <si>
+    <t>hasDocumentation</t>
+  </si>
+  <si>
+    <t>has documentation</t>
+  </si>
+  <si>
+    <t>Indicates documentation associated with technology</t>
+  </si>
+  <si>
+    <t>tech:Documentation</t>
+  </si>
+  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -1186,9 +1198,6 @@
   </si>
   <si>
     <t>Documentation that provides instructions for using, maintaining, developing, or performing other activities regarding the technology</t>
-  </si>
-  <si>
-    <t>tech:Documentation</t>
   </si>
   <si>
     <t>Guide</t>
@@ -2852,10 +2861,10 @@
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -2870,13 +2879,13 @@
     </row>
     <row r="4">
       <c r="A4" s="6" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="22" t="s">
@@ -2916,16 +2925,16 @@
     </row>
     <row r="5">
       <c r="A5" s="6" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="E5" s="22" t="s">
         <v>60</v>
@@ -2964,16 +2973,16 @@
     </row>
     <row r="6">
       <c r="A6" s="6" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="E6" s="22" t="s">
         <v>60</v>
@@ -3012,16 +3021,16 @@
     </row>
     <row r="7">
       <c r="A7" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>453</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>453</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>454</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>450</v>
       </c>
       <c r="E7" s="22" t="s">
         <v>60</v>
@@ -3060,16 +3069,16 @@
     </row>
     <row r="8">
       <c r="A8" s="6" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="E8" s="22" t="s">
         <v>60</v>
@@ -3108,16 +3117,16 @@
     </row>
     <row r="9">
       <c r="A9" s="6" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="E9" s="22" t="s">
         <v>60</v>
@@ -3156,13 +3165,13 @@
     </row>
     <row r="10">
       <c r="A10" s="6" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="22" t="s">
@@ -3300,10 +3309,10 @@
     </row>
     <row r="2">
       <c r="A2" s="38" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="B2" s="38" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="C2" s="24"/>
       <c r="D2" s="39"/>
@@ -3322,13 +3331,13 @@
     </row>
     <row r="4">
       <c r="A4" s="38" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="D4" s="40"/>
       <c r="E4" s="6" t="s">
@@ -3376,16 +3385,16 @@
     </row>
     <row r="6">
       <c r="A6" s="38" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="D6" s="40" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>16</v>
@@ -3422,16 +3431,16 @@
     </row>
     <row r="7">
       <c r="A7" s="24" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>16</v>
@@ -3472,16 +3481,16 @@
     </row>
     <row r="8">
       <c r="A8" s="17" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="C8" s="17" t="s">
+        <v>477</v>
+      </c>
+      <c r="D8" s="25" t="s">
         <v>474</v>
-      </c>
-      <c r="D8" s="25" t="s">
-        <v>471</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>16</v>
@@ -3518,16 +3527,16 @@
     </row>
     <row r="9">
       <c r="A9" s="17" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>16</v>
@@ -3564,16 +3573,16 @@
     </row>
     <row r="10">
       <c r="A10" s="24" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>16</v>
@@ -3614,16 +3623,16 @@
     </row>
     <row r="12">
       <c r="A12" s="38" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>16</v>
@@ -3660,16 +3669,16 @@
     </row>
     <row r="13">
       <c r="A13" s="24" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>16</v>
@@ -3710,16 +3719,16 @@
     </row>
     <row r="14">
       <c r="A14" s="6" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="C14" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>488</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>485</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>16</v>
@@ -3756,16 +3765,16 @@
     </row>
     <row r="16">
       <c r="A16" s="5" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>16</v>
@@ -3802,16 +3811,16 @@
     </row>
     <row r="17">
       <c r="A17" s="6" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>16</v>
@@ -3848,16 +3857,16 @@
     </row>
     <row r="18">
       <c r="A18" s="6" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>16</v>
@@ -3894,16 +3903,16 @@
     </row>
     <row r="19">
       <c r="A19" s="6" t="s">
+        <v>501</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>501</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>502</v>
+      </c>
+      <c r="D19" s="6" t="s">
         <v>498</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>498</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>499</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>495</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>16</v>
@@ -3940,16 +3949,16 @@
     </row>
     <row r="20">
       <c r="A20" s="6" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>16</v>
@@ -3986,13 +3995,13 @@
     </row>
     <row r="22">
       <c r="A22" s="5" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="6" t="s">
@@ -4033,16 +4042,16 @@
     </row>
     <row r="24">
       <c r="A24" s="5" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>16</v>
@@ -4079,16 +4088,16 @@
     </row>
     <row r="25">
       <c r="A25" s="6" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>16</v>
@@ -4125,16 +4134,16 @@
     </row>
     <row r="26">
       <c r="A26" s="6" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>16</v>
@@ -4171,16 +4180,16 @@
     </row>
     <row r="27">
       <c r="A27" s="6" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="C27" s="6" t="s">
+        <v>521</v>
+      </c>
+      <c r="D27" s="6" t="s">
         <v>518</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>515</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>16</v>
@@ -4217,16 +4226,16 @@
     </row>
     <row r="28">
       <c r="A28" s="6" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>16</v>
@@ -4263,16 +4272,16 @@
     </row>
     <row r="29">
       <c r="A29" s="6" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>16</v>
@@ -4309,16 +4318,16 @@
     </row>
     <row r="30">
       <c r="A30" s="6" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="E30" s="6" t="s">
         <v>16</v>
@@ -4456,27 +4465,27 @@
     </row>
     <row r="2">
       <c r="A2" s="6" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="B2" s="5"/>
       <c r="J2" s="10" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="6" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="6" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
     </row>
     <row r="6">
@@ -5305,15 +5314,59 @@
       <c r="AB8" s="7"/>
     </row>
     <row r="9">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
+      <c r="A9" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="8">
+        <v>45472.0</v>
+      </c>
+      <c r="L9" s="7"/>
+      <c r="M9" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="7"/>
+      <c r="Z9" s="7"/>
+      <c r="AA9" s="7"/>
+      <c r="AB9" s="7"/>
     </row>
     <row r="11">
       <c r="C11" s="6"/>
     </row>
     <row r="14">
       <c r="A14" s="6" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B14" s="6"/>
     </row>
@@ -5486,26 +5539,26 @@
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
     </row>
     <row r="3">
       <c r="A3" s="6" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>16</v>
@@ -5515,7 +5568,7 @@
       </c>
       <c r="L3" s="8"/>
       <c r="M3" s="6" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="N3" s="6" t="s">
         <v>39</v>
@@ -5526,16 +5579,16 @@
     </row>
     <row r="4">
       <c r="A4" s="6" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C4" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>94</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>90</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>16</v>
@@ -5545,7 +5598,7 @@
       </c>
       <c r="L4" s="8"/>
       <c r="M4" s="6" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="N4" s="6" t="s">
         <v>39</v>
@@ -5556,16 +5609,16 @@
     </row>
     <row r="5">
       <c r="A5" s="6" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>16</v>
@@ -5575,7 +5628,7 @@
       </c>
       <c r="L5" s="8"/>
       <c r="M5" s="6" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="N5" s="6" t="s">
         <v>39</v>
@@ -5586,16 +5639,16 @@
     </row>
     <row r="6">
       <c r="A6" s="6" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>16</v>
@@ -5605,7 +5658,7 @@
       </c>
       <c r="L6" s="8"/>
       <c r="M6" s="6" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="N6" s="6" t="s">
         <v>39</v>
@@ -5616,16 +5669,16 @@
     </row>
     <row r="7">
       <c r="A7" s="6" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>16</v>
@@ -5635,7 +5688,7 @@
       </c>
       <c r="L7" s="8"/>
       <c r="M7" s="6" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="N7" s="6" t="s">
         <v>39</v>
@@ -5646,16 +5699,16 @@
     </row>
     <row r="8">
       <c r="A8" s="6" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>16</v>
@@ -5665,7 +5718,7 @@
       </c>
       <c r="L8" s="8"/>
       <c r="M8" s="6" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="N8" s="6" t="s">
         <v>39</v>
@@ -5676,16 +5729,16 @@
     </row>
     <row r="9">
       <c r="A9" s="6" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>16</v>
@@ -5695,7 +5748,7 @@
       </c>
       <c r="L9" s="8"/>
       <c r="M9" s="6" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="N9" s="6" t="s">
         <v>39</v>
@@ -5706,16 +5759,16 @@
     </row>
     <row r="10">
       <c r="A10" s="6" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>16</v>
@@ -5725,7 +5778,7 @@
       </c>
       <c r="L10" s="8"/>
       <c r="M10" s="6" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="N10" s="6" t="s">
         <v>39</v>
@@ -5736,16 +5789,16 @@
     </row>
     <row r="11">
       <c r="A11" s="6" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>16</v>
@@ -5755,7 +5808,7 @@
       </c>
       <c r="L11" s="8"/>
       <c r="M11" s="6" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="N11" s="6" t="s">
         <v>39</v>
@@ -5766,16 +5819,16 @@
     </row>
     <row r="12">
       <c r="A12" s="6" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>16</v>
@@ -5785,7 +5838,7 @@
       </c>
       <c r="L12" s="8"/>
       <c r="M12" s="6" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="N12" s="6" t="s">
         <v>39</v>
@@ -5796,16 +5849,16 @@
     </row>
     <row r="13">
       <c r="A13" s="6" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>16</v>
@@ -5814,7 +5867,7 @@
         <v>44727.0</v>
       </c>
       <c r="M13" s="6" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="N13" s="6" t="s">
         <v>39</v>
@@ -5825,16 +5878,16 @@
     </row>
     <row r="14">
       <c r="A14" s="18" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>16</v>
@@ -5844,12 +5897,12 @@
       <c r="H14" s="21"/>
       <c r="I14" s="21"/>
       <c r="J14" s="18" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="K14" s="21"/>
       <c r="L14" s="21"/>
       <c r="M14" s="6" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="N14" s="21"/>
       <c r="O14" s="21"/>
@@ -5872,18 +5925,18 @@
     </row>
     <row r="16">
       <c r="A16" s="5" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="6" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>16</v>
@@ -5892,7 +5945,7 @@
         <v>44727.0</v>
       </c>
       <c r="M17" s="6" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="N17" s="6" t="s">
         <v>39</v>
@@ -5903,13 +5956,13 @@
     </row>
     <row r="18">
       <c r="A18" s="6" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>16</v>
@@ -5919,7 +5972,7 @@
       </c>
       <c r="L18" s="8"/>
       <c r="M18" s="6" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="N18" s="6" t="s">
         <v>39</v>
@@ -5930,13 +5983,13 @@
     </row>
     <row r="19">
       <c r="A19" s="6" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>16</v>
@@ -5946,7 +5999,7 @@
       </c>
       <c r="L19" s="8"/>
       <c r="M19" s="6" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="N19" s="6" t="s">
         <v>39</v>
@@ -5957,13 +6010,13 @@
     </row>
     <row r="20">
       <c r="A20" s="6" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>16</v>
@@ -5973,7 +6026,7 @@
       </c>
       <c r="L20" s="8"/>
       <c r="M20" s="6" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="N20" s="6" t="s">
         <v>39</v>
@@ -5984,13 +6037,13 @@
     </row>
     <row r="21">
       <c r="A21" s="6" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>16</v>
@@ -6000,7 +6053,7 @@
       </c>
       <c r="L21" s="8"/>
       <c r="M21" s="6" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="N21" s="6" t="s">
         <v>39</v>
@@ -6011,13 +6064,13 @@
     </row>
     <row r="22">
       <c r="A22" s="6" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>16</v>
@@ -6027,7 +6080,7 @@
       </c>
       <c r="L22" s="8"/>
       <c r="M22" s="6" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="N22" s="6" t="s">
         <v>39</v>
@@ -6038,10 +6091,10 @@
     </row>
     <row r="24">
       <c r="A24" s="5" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="22"/>
@@ -6050,16 +6103,16 @@
     </row>
     <row r="25">
       <c r="A25" s="6" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="D25" s="22" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>16</v>
@@ -6068,7 +6121,7 @@
         <v>44727.0</v>
       </c>
       <c r="M25" s="6" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="N25" s="6" t="s">
         <v>39</v>
@@ -6079,16 +6132,16 @@
     </row>
     <row r="26">
       <c r="A26" s="6" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="D26" s="22" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>16</v>
@@ -6097,7 +6150,7 @@
         <v>44727.0</v>
       </c>
       <c r="M26" s="6" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="N26" s="6" t="s">
         <v>39</v>
@@ -6108,16 +6161,16 @@
     </row>
     <row r="27">
       <c r="A27" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="D27" s="22" t="s">
         <v>155</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="D27" s="22" t="s">
-        <v>151</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>16</v>
@@ -6126,7 +6179,7 @@
         <v>44727.0</v>
       </c>
       <c r="M27" s="6" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="N27" s="6" t="s">
         <v>39</v>
@@ -6137,16 +6190,16 @@
     </row>
     <row r="28">
       <c r="A28" s="6" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="D28" s="22" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>16</v>
@@ -6155,7 +6208,7 @@
         <v>44727.0</v>
       </c>
       <c r="M28" s="6" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="N28" s="6" t="s">
         <v>39</v>
@@ -6166,10 +6219,10 @@
     </row>
     <row r="30">
       <c r="A30" s="5" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
@@ -6200,16 +6253,16 @@
     </row>
     <row r="31">
       <c r="A31" s="6" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>16</v>
@@ -6218,10 +6271,10 @@
         <v>44727.0</v>
       </c>
       <c r="M31" s="6" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="N31" s="6" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="O31" s="9" t="s">
         <v>28</v>
@@ -6229,16 +6282,16 @@
     </row>
     <row r="32">
       <c r="A32" s="6" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C32" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="D32" s="6" t="s">
         <v>168</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>164</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>16</v>
@@ -6247,10 +6300,10 @@
         <v>44727.0</v>
       </c>
       <c r="M32" s="6" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="N32" s="6" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="O32" s="9" t="s">
         <v>28</v>
@@ -6258,16 +6311,16 @@
     </row>
     <row r="33">
       <c r="A33" s="6" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E33" s="6" t="s">
         <v>16</v>
@@ -6276,10 +6329,10 @@
         <v>44727.0</v>
       </c>
       <c r="M33" s="6" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="N33" s="6" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="O33" s="9" t="s">
         <v>28</v>
@@ -6287,16 +6340,16 @@
     </row>
     <row r="34">
       <c r="A34" s="6" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>16</v>
@@ -6305,10 +6358,10 @@
         <v>44727.0</v>
       </c>
       <c r="M34" s="6" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="N34" s="6" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="O34" s="9" t="s">
         <v>28</v>
@@ -6316,16 +6369,16 @@
     </row>
     <row r="35">
       <c r="A35" s="6" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E35" s="6" t="s">
         <v>16</v>
@@ -6334,10 +6387,10 @@
         <v>44727.0</v>
       </c>
       <c r="M35" s="6" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="N35" s="6" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="O35" s="9" t="s">
         <v>28</v>
@@ -6345,16 +6398,16 @@
     </row>
     <row r="36">
       <c r="A36" s="6" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="E36" s="6" t="s">
         <v>16</v>
@@ -6363,10 +6416,10 @@
         <v>44727.0</v>
       </c>
       <c r="M36" s="6" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="N36" s="6" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="O36" s="9" t="s">
         <v>28</v>
@@ -6374,37 +6427,37 @@
     </row>
     <row r="38">
       <c r="A38" s="5" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="K38" s="8"/>
     </row>
     <row r="39">
       <c r="A39" s="6" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="E39" s="6" t="s">
         <v>16</v>
       </c>
       <c r="I39" s="6" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="K39" s="8">
         <v>44727.0</v>
       </c>
       <c r="M39" s="6" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="N39" s="6" t="s">
         <v>39</v>
@@ -6415,28 +6468,28 @@
     </row>
     <row r="40">
       <c r="A40" s="6" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="C40" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="D40" s="6" t="s">
         <v>190</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>186</v>
       </c>
       <c r="E40" s="6" t="s">
         <v>16</v>
       </c>
       <c r="I40" s="6" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="K40" s="8">
         <v>44727.0</v>
       </c>
       <c r="M40" s="6" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="N40" s="6" t="s">
         <v>39</v>
@@ -6447,21 +6500,21 @@
     </row>
     <row r="42">
       <c r="A42" s="5" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="24" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="B43" s="17" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="C43" s="24" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="D43" s="25" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="E43" s="6" t="s">
         <v>16</v>
@@ -6470,7 +6523,7 @@
         <v>44727.0</v>
       </c>
       <c r="M43" s="6" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="N43" s="6" t="s">
         <v>39</v>
@@ -6481,16 +6534,16 @@
     </row>
     <row r="44">
       <c r="A44" s="26" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="B44" s="26" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="C44" s="27" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="D44" s="28" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="E44" s="21" t="s">
         <v>16</v>
@@ -6505,7 +6558,7 @@
       </c>
       <c r="L44" s="21"/>
       <c r="M44" s="6" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="N44" s="21" t="s">
         <v>39</v>
@@ -6531,16 +6584,16 @@
     </row>
     <row r="45">
       <c r="A45" s="26" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="B45" s="26" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="C45" s="27" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="D45" s="31" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="E45" s="21" t="s">
         <v>16</v>
@@ -6555,7 +6608,7 @@
       </c>
       <c r="L45" s="21"/>
       <c r="M45" s="6" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="N45" s="21" t="s">
         <v>39</v>
@@ -6581,16 +6634,16 @@
     </row>
     <row r="46">
       <c r="A46" s="26" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B46" s="26" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C46" s="27" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="D46" s="31" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="E46" s="21" t="s">
         <v>16</v>
@@ -6605,7 +6658,7 @@
       </c>
       <c r="L46" s="21"/>
       <c r="M46" s="6" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="N46" s="21" t="s">
         <v>39</v>
@@ -6879,10 +6932,10 @@
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -6891,19 +6944,19 @@
     </row>
     <row r="3">
       <c r="A3" s="6" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="K3" s="8"/>
     </row>
     <row r="4">
       <c r="A4" s="6" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="6" t="s">
@@ -6945,13 +6998,13 @@
     </row>
     <row r="5">
       <c r="A5" s="6" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="6" t="s">
@@ -6993,13 +7046,13 @@
     </row>
     <row r="6">
       <c r="A6" s="6" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="6" t="s">
@@ -7041,13 +7094,13 @@
     </row>
     <row r="7">
       <c r="A7" s="6" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="6" t="s">
@@ -7089,13 +7142,13 @@
     </row>
     <row r="8">
       <c r="A8" s="6" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="6" t="s">
@@ -7105,7 +7158,7 @@
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="6" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="J8" s="7"/>
       <c r="K8" s="8">
@@ -7139,13 +7192,13 @@
     </row>
     <row r="9">
       <c r="A9" s="6" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="6" t="s">
@@ -7187,13 +7240,13 @@
     </row>
     <row r="10">
       <c r="A10" s="6" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="6" t="s">
@@ -7235,13 +7288,13 @@
     </row>
     <row r="11">
       <c r="A11" s="6" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="6" t="s">
@@ -7287,16 +7340,16 @@
     </row>
     <row r="13">
       <c r="A13" s="6" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>68</v>
@@ -7335,16 +7388,16 @@
     </row>
     <row r="14">
       <c r="A14" s="6" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>68</v>
@@ -7383,16 +7436,16 @@
     </row>
     <row r="15">
       <c r="A15" s="6" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>68</v>
@@ -7431,16 +7484,16 @@
     </row>
     <row r="16">
       <c r="A16" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>240</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>236</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>68</v>
@@ -7479,16 +7532,16 @@
     </row>
     <row r="17">
       <c r="A17" s="6" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>68</v>
@@ -7527,16 +7580,16 @@
     </row>
     <row r="18">
       <c r="A18" s="6" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>68</v>
@@ -7575,16 +7628,16 @@
     </row>
     <row r="19">
       <c r="A19" s="6" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>68</v>
@@ -7623,16 +7676,16 @@
     </row>
     <row r="20">
       <c r="A20" s="6" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>68</v>
@@ -7650,7 +7703,7 @@
         <v>26</v>
       </c>
       <c r="N20" s="6" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="O20" s="7"/>
       <c r="P20" s="7"/>
@@ -7671,16 +7724,16 @@
     </row>
     <row r="21">
       <c r="A21" s="6" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>68</v>
@@ -7698,7 +7751,7 @@
         <v>26</v>
       </c>
       <c r="N21" s="6" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="O21" s="7"/>
       <c r="P21" s="7"/>
@@ -7719,16 +7772,16 @@
     </row>
     <row r="22">
       <c r="A22" s="6" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>68</v>
@@ -7746,7 +7799,7 @@
         <v>26</v>
       </c>
       <c r="N22" s="6" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="O22" s="7"/>
       <c r="P22" s="7"/>
@@ -7885,10 +7938,10 @@
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -7903,24 +7956,24 @@
     </row>
     <row r="4">
       <c r="A4" s="17" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="6" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
       <c r="J4" s="6" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="K4" s="8">
         <v>45421.0</v>
@@ -7954,24 +8007,24 @@
     </row>
     <row r="5">
       <c r="A5" s="17" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="6" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
       <c r="J5" s="6" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="K5" s="8">
         <v>45421.0</v>
@@ -8001,26 +8054,26 @@
     </row>
     <row r="6">
       <c r="A6" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>270</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>270</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>266</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
       <c r="J6" s="6" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="K6" s="8">
         <v>45421.0</v>
@@ -8054,24 +8107,24 @@
     </row>
     <row r="7">
       <c r="A7" s="17" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="6" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
       <c r="J7" s="6" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="K7" s="8">
         <v>45421.0</v>
@@ -8101,26 +8154,26 @@
     </row>
     <row r="8">
       <c r="A8" s="17" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
       <c r="J8" s="6" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="K8" s="8">
         <v>45421.0</v>
@@ -8154,24 +8207,24 @@
     </row>
     <row r="9">
       <c r="A9" s="17" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="6" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
       <c r="J9" s="6" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="K9" s="8">
         <v>45421.0</v>
@@ -8205,24 +8258,24 @@
     </row>
     <row r="10">
       <c r="A10" s="32" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="6" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="F10" s="21"/>
       <c r="G10" s="21"/>
       <c r="H10" s="21"/>
       <c r="I10" s="21"/>
       <c r="J10" s="32" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="K10" s="8">
         <v>45421.0</v>
@@ -8252,24 +8305,24 @@
     </row>
     <row r="11">
       <c r="A11" s="32" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="6" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="F11" s="21"/>
       <c r="G11" s="21"/>
       <c r="H11" s="21"/>
       <c r="I11" s="21"/>
       <c r="J11" s="21" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="K11" s="8">
         <v>45421.0</v>
@@ -8299,24 +8352,24 @@
     </row>
     <row r="12">
       <c r="A12" s="32" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="6" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="F12" s="21"/>
       <c r="G12" s="21"/>
       <c r="H12" s="21"/>
       <c r="I12" s="21"/>
       <c r="J12" s="21" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="K12" s="8">
         <v>45421.0</v>
@@ -8346,24 +8399,24 @@
     </row>
     <row r="13">
       <c r="A13" s="32" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="B13" s="32" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="6" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="F13" s="21"/>
       <c r="G13" s="21"/>
       <c r="H13" s="21"/>
       <c r="I13" s="21"/>
       <c r="J13" s="21" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="K13" s="8">
         <v>45421.0</v>
@@ -8393,24 +8446,24 @@
     </row>
     <row r="14">
       <c r="A14" s="32" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="6" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="F14" s="21"/>
       <c r="G14" s="21"/>
       <c r="H14" s="21"/>
       <c r="I14" s="21"/>
       <c r="J14" s="21" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="K14" s="8">
         <v>45421.0</v>
@@ -8440,24 +8493,24 @@
     </row>
     <row r="15">
       <c r="A15" s="32" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="B15" s="32" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="6" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="F15" s="21"/>
       <c r="G15" s="21"/>
       <c r="H15" s="21"/>
       <c r="I15" s="21"/>
       <c r="J15" s="21" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="K15" s="8">
         <v>45421.0</v>
@@ -8487,24 +8540,24 @@
     </row>
     <row r="16">
       <c r="A16" s="32" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="B16" s="32" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="6" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="F16" s="21"/>
       <c r="G16" s="21"/>
       <c r="H16" s="21"/>
       <c r="I16" s="21"/>
       <c r="J16" s="21" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="K16" s="8">
         <v>45421.0</v>
@@ -8534,24 +8587,24 @@
     </row>
     <row r="17">
       <c r="A17" s="32" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="B17" s="32" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="6" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="F17" s="21"/>
       <c r="G17" s="21"/>
       <c r="H17" s="21"/>
       <c r="I17" s="21"/>
       <c r="J17" s="21" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="K17" s="8">
         <v>45421.0</v>
@@ -8581,26 +8634,26 @@
     </row>
     <row r="18">
       <c r="A18" s="6" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="6" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
       <c r="I18" s="6" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="K18" s="8">
         <v>45421.0</v>
@@ -8630,26 +8683,26 @@
     </row>
     <row r="19">
       <c r="A19" s="6" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
       <c r="J19" s="6" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="K19" s="8">
         <v>45421.0</v>
@@ -8679,26 +8732,26 @@
     </row>
     <row r="20">
       <c r="A20" s="6" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
       <c r="J20" s="6" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="K20" s="8">
         <v>45421.0</v>
@@ -8728,26 +8781,26 @@
     </row>
     <row r="21">
       <c r="A21" s="6" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="B21" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="D21" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="C21" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>303</v>
-      </c>
       <c r="E21" s="6" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
       <c r="J21" s="6" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="K21" s="8">
         <v>45421.0</v>
@@ -8777,17 +8830,17 @@
     </row>
     <row r="22">
       <c r="A22" s="6" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="6" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
@@ -8822,17 +8875,17 @@
     </row>
     <row r="23">
       <c r="A23" s="6" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="D23" s="7"/>
       <c r="E23" s="6" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
@@ -8867,23 +8920,23 @@
     </row>
     <row r="24">
       <c r="A24" s="6" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="D24" s="7"/>
       <c r="E24" s="6" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
       <c r="I24" s="6" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="J24" s="7"/>
       <c r="K24" s="8">
@@ -9028,22 +9081,22 @@
     </row>
     <row r="2">
       <c r="A2" s="17" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E2" s="33" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="G2" s="34"/>
       <c r="H2" s="34"/>
@@ -9076,22 +9129,22 @@
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E3" s="33" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="G3" s="34"/>
       <c r="H3" s="34"/>
@@ -9124,22 +9177,22 @@
     </row>
     <row r="4">
       <c r="A4" s="17" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E4" s="33" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="G4" s="34"/>
       <c r="H4" s="34"/>
@@ -9172,22 +9225,22 @@
     </row>
     <row r="5">
       <c r="A5" s="17" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E5" s="33" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="G5" s="34"/>
       <c r="H5" s="34"/>
@@ -9220,22 +9273,22 @@
     </row>
     <row r="6">
       <c r="A6" s="17" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
@@ -9268,22 +9321,22 @@
     </row>
     <row r="7">
       <c r="A7" s="17" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
@@ -9316,22 +9369,22 @@
     </row>
     <row r="8">
       <c r="A8" s="32" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
@@ -9364,22 +9417,22 @@
     </row>
     <row r="9">
       <c r="A9" s="32" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
@@ -9412,22 +9465,22 @@
     </row>
     <row r="10">
       <c r="A10" s="32" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
@@ -9460,22 +9513,22 @@
     </row>
     <row r="11">
       <c r="A11" s="32" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
@@ -9508,22 +9561,22 @@
     </row>
     <row r="12">
       <c r="A12" s="32" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
@@ -9556,22 +9609,22 @@
     </row>
     <row r="13">
       <c r="A13" s="32" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
@@ -9604,22 +9657,22 @@
     </row>
     <row r="14">
       <c r="A14" s="32" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
@@ -9652,22 +9705,22 @@
     </row>
     <row r="15">
       <c r="A15" s="32" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
@@ -9700,22 +9753,22 @@
     </row>
     <row r="16">
       <c r="A16" s="6" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
@@ -9748,22 +9801,22 @@
     </row>
     <row r="17">
       <c r="A17" s="6" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
@@ -9796,22 +9849,22 @@
     </row>
     <row r="18">
       <c r="A18" s="6" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
@@ -9844,22 +9897,22 @@
     </row>
     <row r="19">
       <c r="A19" s="6" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
@@ -10007,10 +10060,10 @@
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -10025,17 +10078,17 @@
     </row>
     <row r="4">
       <c r="A4" s="17" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="6" t="s">
-        <v>388</v>
+        <v>88</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -10072,17 +10125,17 @@
     </row>
     <row r="5">
       <c r="A5" s="17" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="6" t="s">
-        <v>388</v>
+        <v>88</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -10117,17 +10170,17 @@
     </row>
     <row r="6">
       <c r="A6" s="17" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="6" t="s">
-        <v>388</v>
+        <v>88</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -10164,17 +10217,17 @@
     </row>
     <row r="7">
       <c r="A7" s="17" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="6" t="s">
-        <v>388</v>
+        <v>88</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -10209,17 +10262,17 @@
     </row>
     <row r="8">
       <c r="A8" s="17" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="6" t="s">
-        <v>388</v>
+        <v>88</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
@@ -10254,19 +10307,19 @@
     </row>
     <row r="9">
       <c r="A9" s="17" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>388</v>
+        <v>88</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
@@ -10301,19 +10354,19 @@
     </row>
     <row r="10">
       <c r="A10" s="32" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="C10" s="32" t="s">
+        <v>406</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>403</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>400</v>
-      </c>
       <c r="E10" s="6" t="s">
-        <v>388</v>
+        <v>88</v>
       </c>
       <c r="F10" s="21"/>
       <c r="G10" s="21"/>
@@ -10658,10 +10711,10 @@
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -10670,13 +10723,13 @@
     </row>
     <row r="3">
       <c r="A3" s="6" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="K3" s="8"/>
     </row>
     <row r="4">
       <c r="A4" s="17" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
@@ -10687,7 +10740,7 @@
     </row>
     <row r="5">
       <c r="A5" s="17" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="B5" s="17"/>
       <c r="C5" s="17"/>
@@ -10696,16 +10749,16 @@
     </row>
     <row r="6">
       <c r="A6" s="17" t="s">
+        <v>410</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>411</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>412</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>407</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>408</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>409</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>404</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>25</v>
@@ -10743,16 +10796,16 @@
     </row>
     <row r="7">
       <c r="A7" s="17" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>25</v>
@@ -10792,17 +10845,17 @@
     </row>
     <row r="8">
       <c r="A8" s="17" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="6" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
@@ -10837,17 +10890,17 @@
     </row>
     <row r="9">
       <c r="A9" s="17" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="6" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
@@ -10882,16 +10935,16 @@
     </row>
     <row r="10">
       <c r="A10" s="32" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>25</v>
@@ -10929,17 +10982,17 @@
     </row>
     <row r="11">
       <c r="A11" s="32" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="6" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="F11" s="21"/>
       <c r="G11" s="21"/>
@@ -10974,17 +11027,17 @@
     </row>
     <row r="12">
       <c r="A12" s="32" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="6" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="F12" s="21"/>
       <c r="G12" s="21"/>
@@ -11019,16 +11072,16 @@
     </row>
     <row r="13">
       <c r="A13" s="6" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>25</v>
@@ -11183,22 +11236,22 @@
     </row>
     <row r="2">
       <c r="A2" s="6" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
@@ -11233,22 +11286,22 @@
     </row>
     <row r="3">
       <c r="A3" s="6" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
@@ -11279,22 +11332,22 @@
     </row>
     <row r="4">
       <c r="A4" s="6" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
@@ -11328,7 +11381,7 @@
     </row>
     <row r="9">
       <c r="A9" s="6" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B9" s="6"/>
     </row>

--- a/code/vocab_csv/tech.xlsx
+++ b/code/vocab_csv/tech.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1842" uniqueCount="788">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1842" uniqueCount="789">
   <si>
     <t>Term</t>
   </si>
@@ -678,1246 +678,1249 @@
     <t>Technology provided as a cloud service</t>
   </si>
   <si>
+    <t>tech:ServiceProvision</t>
+  </si>
+  <si>
+    <t>IaaSProvision</t>
+  </si>
+  <si>
+    <t>Infrastructure as a Service (IaaS) Provision</t>
+  </si>
+  <si>
+    <t>Technology provided as a cloud service consisting of managed infrastructure resources</t>
+  </si>
+  <si>
+    <t>tech:CloudServiceProvision</t>
+  </si>
+  <si>
+    <t>PaaSProvision</t>
+  </si>
+  <si>
+    <t>Platform as a Service (PaaS) Provision</t>
+  </si>
+  <si>
+    <t>Technology provided as a cloud service consisting of managed platform resources</t>
+  </si>
+  <si>
+    <t>SaaSProvision</t>
+  </si>
+  <si>
+    <t>Software as a Service (SaaS) Provision</t>
+  </si>
+  <si>
+    <t>Technology provided as a cloud service consisting of managed software resources</t>
+  </si>
+  <si>
+    <t>CaaSProvision</t>
+  </si>
+  <si>
+    <t>Compute as a Service (CaaS) Provision</t>
+  </si>
+  <si>
+    <t>Technology provided as a cloud service consisting of managed compute resources</t>
+  </si>
+  <si>
+    <t>MBaaSProvision</t>
+  </si>
+  <si>
+    <t>Mobile backend as a Service Provision</t>
+  </si>
+  <si>
+    <t>Technology provided as a cloud service consisting of managed 'backend' services for mobile users</t>
+  </si>
+  <si>
+    <t>ServerlessComputingProvision</t>
+  </si>
+  <si>
+    <t>Serverless Computing Provision</t>
+  </si>
+  <si>
+    <t>Technology provided as a cloud service consisting of fully managed servers for executing functions</t>
+  </si>
+  <si>
+    <t>PrivateCloudServiceProvision</t>
+  </si>
+  <si>
+    <t>Private Cloud Service Provision</t>
+  </si>
+  <si>
+    <t>Technology provided as a cloud service that is private</t>
+  </si>
+  <si>
+    <t>Tek Raj Chhetri</t>
+  </si>
+  <si>
+    <t>PublicCloudServiceProvision</t>
+  </si>
+  <si>
+    <t>Public Cloud Service Provision</t>
+  </si>
+  <si>
+    <t>Technology provided as a cloud service that is public</t>
+  </si>
+  <si>
+    <t>HybridCloudServiceProvision</t>
+  </si>
+  <si>
+    <t>Hybrid Cloud Service Provision</t>
+  </si>
+  <si>
+    <t>Technology provided as a cloud service that is both private and public in parts</t>
+  </si>
+  <si>
+    <t>tech:PrivateCloudService,tech:PublicCloudServiceProvision</t>
+  </si>
+  <si>
+    <t>Proposed for v2.2</t>
+  </si>
+  <si>
+    <t>ConceptStage</t>
+  </si>
+  <si>
+    <t>Concept Stage</t>
+  </si>
+  <si>
+    <t>DevelopmentStage</t>
+  </si>
+  <si>
+    <t>Development Stage</t>
+  </si>
+  <si>
+    <t>ProductionStage</t>
+  </si>
+  <si>
+    <t>Production Stage</t>
+  </si>
+  <si>
+    <t>UtilisationStage</t>
+  </si>
+  <si>
+    <t>Utilisation Stage</t>
+  </si>
+  <si>
+    <t>SupportStage</t>
+  </si>
+  <si>
+    <t>Support Stage</t>
+  </si>
+  <si>
+    <t>RetirementStage</t>
+  </si>
+  <si>
+    <t>Retirement Stage</t>
+  </si>
+  <si>
+    <t>ChangeDescription</t>
+  </si>
+  <si>
+    <t>ChangeStatus</t>
+  </si>
+  <si>
+    <t>ChangeProposed</t>
+  </si>
+  <si>
+    <t>ChangeApproved</t>
+  </si>
+  <si>
+    <t>ChangeRequested</t>
+  </si>
+  <si>
+    <t>ChangeAuthorised</t>
+  </si>
+  <si>
+    <t>ChangeVerified</t>
+  </si>
+  <si>
+    <t>ChangePlanned</t>
+  </si>
+  <si>
+    <t>ChangePending</t>
+  </si>
+  <si>
+    <t>ChangeScheduled</t>
+  </si>
+  <si>
+    <t>ChangeOngoing</t>
+  </si>
+  <si>
+    <t>ChangeCompleted</t>
+  </si>
+  <si>
+    <t>ChangeFailed</t>
+  </si>
+  <si>
+    <t>ChangePaused</t>
+  </si>
+  <si>
+    <t>ChangeReverted</t>
+  </si>
+  <si>
+    <t>ChangeCategory</t>
+  </si>
+  <si>
+    <t>SystematicChangeCategory</t>
+  </si>
+  <si>
+    <t>SystematicChange</t>
+  </si>
+  <si>
+    <t>AdhocChange</t>
+  </si>
+  <si>
+    <t>PlannedChangeCategory</t>
+  </si>
+  <si>
+    <t>PlannedChange</t>
+  </si>
+  <si>
+    <t>Vague broad notion of change planned</t>
+  </si>
+  <si>
+    <t>UnplannedChange</t>
+  </si>
+  <si>
+    <t>Change that is not planned</t>
+  </si>
+  <si>
+    <t>PredeterminedChangeCategory</t>
+  </si>
+  <si>
+    <t>PredeterminedChange</t>
+  </si>
+  <si>
+    <t>Specific determination of change in terms of what to change or when to change - can include reaction to external factors</t>
+  </si>
+  <si>
+    <t>NonpredeterminedChange</t>
+  </si>
+  <si>
+    <t>Change that is not predetermined but is planned</t>
+  </si>
+  <si>
+    <t>IntendedChangeCategory</t>
+  </si>
+  <si>
+    <t>IntendedChange</t>
+  </si>
+  <si>
+    <t>UnintendedChange</t>
+  </si>
+  <si>
+    <t>RateOfChangeCategory</t>
+  </si>
+  <si>
+    <t>GradualChange</t>
+  </si>
+  <si>
+    <t>InstantaneousChange</t>
+  </si>
+  <si>
+    <t>ReversibilityOfChangeCategory</t>
+  </si>
+  <si>
+    <t>ReversibleChange</t>
+  </si>
+  <si>
+    <t>IrreversibleChange</t>
+  </si>
+  <si>
+    <t>TransformationChangeCategory</t>
+  </si>
+  <si>
+    <t>IncrementalChange</t>
+  </si>
+  <si>
+    <t>TransformativeChange</t>
+  </si>
+  <si>
+    <t>ControlOverChangeCategory</t>
+  </si>
+  <si>
+    <t>ControlledChange</t>
+  </si>
+  <si>
+    <t>UncontrolledChange</t>
+  </si>
+  <si>
+    <t>TemporalChangeCategory</t>
+  </si>
+  <si>
+    <t>TemporaryChange</t>
+  </si>
+  <si>
+    <t>LastingChange</t>
+  </si>
+  <si>
+    <t>Actors involved in technologies</t>
+  </si>
+  <si>
+    <t>Provider</t>
+  </si>
+  <si>
+    <t>Actor that provides Technology</t>
+  </si>
+  <si>
+    <t>tech:Actor</t>
+  </si>
+  <si>
+    <t>ISO/IEC 22989:2022</t>
+  </si>
+  <si>
+    <t>Producer</t>
+  </si>
+  <si>
+    <t>Actor that produces Technology</t>
+  </si>
+  <si>
+    <t>Developer</t>
+  </si>
+  <si>
+    <t>Actor that develops Technology</t>
+  </si>
+  <si>
+    <t>tech:Producer</t>
+  </si>
+  <si>
+    <t>Customer</t>
+  </si>
+  <si>
+    <t>Actor that uses Technology directly or indirectly by providing it to Users</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>Actor that uses Technology</t>
+  </si>
+  <si>
+    <t>tech:Customer</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>Actor that is subjected to the use or impact of Technology</t>
+  </si>
+  <si>
+    <t>Deployer</t>
+  </si>
+  <si>
+    <t>Actor that deploys Technology</t>
+  </si>
+  <si>
+    <t>AI Act</t>
+  </si>
+  <si>
+    <t>Designer</t>
+  </si>
+  <si>
+    <t>Actor that designs Technology</t>
+  </si>
+  <si>
+    <t>DGA 26.3</t>
+  </si>
+  <si>
+    <t>Installer</t>
+  </si>
+  <si>
+    <t>Actor that installs Technology</t>
+  </si>
+  <si>
+    <t>Maintainer</t>
+  </si>
+  <si>
+    <t>Actor that maintains Technology</t>
+  </si>
+  <si>
+    <t>Manufacturer</t>
+  </si>
+  <si>
+    <t>Actor that manufactures Technology</t>
+  </si>
+  <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>Actor that owns Technology</t>
+  </si>
+  <si>
+    <t>Purchaser</t>
+  </si>
+  <si>
+    <t>Actor that purchases Technology</t>
+  </si>
+  <si>
+    <t>Supplier</t>
+  </si>
+  <si>
+    <t>Actor that supplies Technology</t>
+  </si>
+  <si>
+    <t>Partner</t>
+  </si>
+  <si>
+    <t>Actor that provides services in the context of Technology</t>
+  </si>
+  <si>
+    <t>"Partner" is a vague term and should not be used - instead the more specific terms provided in this vocabulary should be used. Partner refers to entities that provide services for the technology (as opposed to for using the technology) - for example to further develop or refine it, or to test or audit it.</t>
+  </si>
+  <si>
+    <t>Evaluator</t>
+  </si>
+  <si>
+    <t>Actor that evaluates the performance of Technology</t>
+  </si>
+  <si>
+    <t>tech:Partner</t>
+  </si>
+  <si>
+    <t>Auditor</t>
+  </si>
+  <si>
+    <t>Actor that audits Technology for conformance to policies, standards, or legal requirements</t>
+  </si>
+  <si>
+    <t>SystemIntegrator</t>
+  </si>
+  <si>
+    <t>System Integrator</t>
+  </si>
+  <si>
+    <t>Actor that integrates Technology in to (larger) systems</t>
+  </si>
+  <si>
+    <t>Importer</t>
+  </si>
+  <si>
+    <t>Actor that imports the Technology within a jurisdiction</t>
+  </si>
+  <si>
+    <t>Distributor</t>
+  </si>
+  <si>
+    <t>Actor that distributes the Technology</t>
+  </si>
+  <si>
+    <t>Operator</t>
+  </si>
+  <si>
+    <t>Actor that operates the Technology</t>
+  </si>
+  <si>
+    <t>Operator and User are similar concepts but may refer to different actors, for example in the scenario where the user determines what actions to perform on the technology and the operator executes these actions by operating the technology</t>
+  </si>
+  <si>
+    <t>hasProvider</t>
+  </si>
+  <si>
+    <t>has provider</t>
+  </si>
+  <si>
+    <t>Indicates technology provider</t>
+  </si>
+  <si>
+    <t>tech:Provider</t>
+  </si>
+  <si>
+    <t>tech:hasActor</t>
+  </si>
+  <si>
+    <t>hasProducer</t>
+  </si>
+  <si>
+    <t>has producer</t>
+  </si>
+  <si>
+    <t>Indicates technology producer</t>
+  </si>
+  <si>
+    <t>hasDeveloper</t>
+  </si>
+  <si>
+    <t>has developer</t>
+  </si>
+  <si>
+    <t>Indicates technology developer</t>
+  </si>
+  <si>
+    <t>tech:Developer</t>
+  </si>
+  <si>
+    <t>hasCustomer</t>
+  </si>
+  <si>
+    <t>has customer</t>
+  </si>
+  <si>
+    <t>Indicates technology customer</t>
+  </si>
+  <si>
+    <t>hasUser</t>
+  </si>
+  <si>
+    <t>has user</t>
+  </si>
+  <si>
+    <t>Indicates technology user</t>
+  </si>
+  <si>
+    <t>tech:User</t>
+  </si>
+  <si>
+    <t>hasSubject</t>
+  </si>
+  <si>
+    <t>has subject</t>
+  </si>
+  <si>
+    <t>Indicates technology subject</t>
+  </si>
+  <si>
+    <t>tech:Subject</t>
+  </si>
+  <si>
+    <t>hasDeployer</t>
+  </si>
+  <si>
+    <t>has deployer</t>
+  </si>
+  <si>
+    <t>Indicates technology deployer</t>
+  </si>
+  <si>
+    <t>tech:Deployer</t>
+  </si>
+  <si>
+    <t>hasDesigner</t>
+  </si>
+  <si>
+    <t>has designer</t>
+  </si>
+  <si>
+    <t>Indicates technology designer</t>
+  </si>
+  <si>
+    <t>tech:Designer</t>
+  </si>
+  <si>
+    <t>hasInstaller</t>
+  </si>
+  <si>
+    <t>has installer</t>
+  </si>
+  <si>
+    <t>Indicates technology installer</t>
+  </si>
+  <si>
+    <t>tech:Installer</t>
+  </si>
+  <si>
+    <t>hasMaintainer</t>
+  </si>
+  <si>
+    <t>has maintainer</t>
+  </si>
+  <si>
+    <t>Indicates technology maintainer</t>
+  </si>
+  <si>
+    <t>tech:Maintainer</t>
+  </si>
+  <si>
+    <t>hasManufacturer</t>
+  </si>
+  <si>
+    <t>has manufacturer</t>
+  </si>
+  <si>
+    <t>Indicates technology manufacturer</t>
+  </si>
+  <si>
+    <t>tech:Manufacturer</t>
+  </si>
+  <si>
+    <t>hasOwner</t>
+  </si>
+  <si>
+    <t>has owner</t>
+  </si>
+  <si>
+    <t>Indicates technology owner</t>
+  </si>
+  <si>
+    <t>tech:Owner</t>
+  </si>
+  <si>
+    <t>hasPurchaser</t>
+  </si>
+  <si>
+    <t>has purchaser</t>
+  </si>
+  <si>
+    <t>Indicates technology purchaser</t>
+  </si>
+  <si>
+    <t>tech:Purchaser</t>
+  </si>
+  <si>
+    <t>hasSupplier</t>
+  </si>
+  <si>
+    <t>has supplier</t>
+  </si>
+  <si>
+    <t>Indicates technology supplier</t>
+  </si>
+  <si>
+    <t>tech:Supplier</t>
+  </si>
+  <si>
+    <t>hasPartner</t>
+  </si>
+  <si>
+    <t>has partner</t>
+  </si>
+  <si>
+    <t>Indicates technology partner</t>
+  </si>
+  <si>
+    <t>hasEvaluator</t>
+  </si>
+  <si>
+    <t>has evaluator</t>
+  </si>
+  <si>
+    <t>Indicates technology evaluator</t>
+  </si>
+  <si>
+    <t>tech:Evaluator</t>
+  </si>
+  <si>
+    <t>hasAuditor</t>
+  </si>
+  <si>
+    <t>has auditor</t>
+  </si>
+  <si>
+    <t>Indicates technology auditor</t>
+  </si>
+  <si>
+    <t>tech:Auditor</t>
+  </si>
+  <si>
+    <t>hasSystemIntegrator</t>
+  </si>
+  <si>
+    <t>has system integrator</t>
+  </si>
+  <si>
+    <t>Indicates technology system integrator</t>
+  </si>
+  <si>
+    <t>tech:SystemIntegrator</t>
+  </si>
+  <si>
+    <t>Manual</t>
+  </si>
+  <si>
+    <t>Documentation that provides instructions for using, maintaining, developing, or performing other activities regarding the technology</t>
+  </si>
+  <si>
+    <t>Guide</t>
+  </si>
+  <si>
+    <t>Documentation that provides guidance regarding the technology</t>
+  </si>
+  <si>
+    <t>Instructions</t>
+  </si>
+  <si>
+    <t>Instructions related to technology</t>
+  </si>
+  <si>
+    <t>Specification</t>
+  </si>
+  <si>
+    <t>Documentation that specifies requirements that must be satisfied by the technology</t>
+  </si>
+  <si>
+    <t>Plan</t>
+  </si>
+  <si>
+    <t>Plan associated with using, maintaining, developing, or performing other activities associated with technology</t>
+  </si>
+  <si>
+    <t>TestingPlan</t>
+  </si>
+  <si>
+    <t>Testing Plan</t>
+  </si>
+  <si>
+    <t>Plan associated with testing technology</t>
+  </si>
+  <si>
+    <t>tech:Plan</t>
+  </si>
+  <si>
+    <t>DevelopmentPlan</t>
+  </si>
+  <si>
+    <t>Development Plan</t>
+  </si>
+  <si>
+    <t>Plan associated with developing technology</t>
+  </si>
+  <si>
+    <t>dpv:Status</t>
+  </si>
+  <si>
+    <t>DevelopmentStatus</t>
+  </si>
+  <si>
+    <t>DeploymentStatus</t>
+  </si>
+  <si>
+    <t>TechnologyStatus</t>
+  </si>
+  <si>
+    <t>Technology Status</t>
+  </si>
+  <si>
+    <t>Status associated with development, deployment, and use of technology</t>
+  </si>
+  <si>
+    <t>MarketAvailabilityStatus</t>
+  </si>
+  <si>
+    <t>Market Availability Status</t>
+  </si>
+  <si>
+    <t>Status indicating whether Technology is available on the market</t>
+  </si>
+  <si>
+    <t>tech:TechnologyStatus</t>
+  </si>
+  <si>
+    <t>MarketAvailable</t>
+  </si>
+  <si>
+    <t>Market Available</t>
+  </si>
+  <si>
+    <t>Status indicating Technology is available on the market</t>
+  </si>
+  <si>
+    <t>tech:MarketAvailabilityStatus</t>
+  </si>
+  <si>
+    <t>MarketUnavailable</t>
+  </si>
+  <si>
+    <t>Market Unavailable</t>
+  </si>
+  <si>
+    <t>Status indicating Technology is unavailable on the market</t>
+  </si>
+  <si>
+    <t>ProvisionStatus</t>
+  </si>
+  <si>
+    <t>Provision Status</t>
+  </si>
+  <si>
+    <t>Status indicating whether Technology has been provided</t>
+  </si>
+  <si>
+    <t>Provided</t>
+  </si>
+  <si>
+    <t>Status indicating Technology has been provided</t>
+  </si>
+  <si>
+    <t>tech:ProvisionStatus</t>
+  </si>
+  <si>
+    <t>NotProvided</t>
+  </si>
+  <si>
+    <t>Not Provided</t>
+  </si>
+  <si>
+    <t>Status indicating Technology has not been provided</t>
+  </si>
+  <si>
+    <t>TechnologyReadinessLevel</t>
+  </si>
+  <si>
+    <t>Technology Readiness Level (TRL)</t>
+  </si>
+  <si>
+    <t>Indication of maturity of Technology (ISO 16290:2013)</t>
+  </si>
+  <si>
+    <t>hasTRL</t>
+  </si>
+  <si>
+    <t>has TRL</t>
+  </si>
+  <si>
+    <t>Indicates technology maturity level</t>
+  </si>
+  <si>
+    <t>tech:TechnologyReadinessLevel</t>
+  </si>
+  <si>
+    <t>dpv:hasStatus</t>
+  </si>
+  <si>
+    <t>hasMarketAvailabilityStatus</t>
+  </si>
+  <si>
+    <t>has market availability status</t>
+  </si>
+  <si>
+    <t>Indicates whether the technology is available on the market</t>
+  </si>
+  <si>
+    <t>hasProvisionStatus</t>
+  </si>
+  <si>
+    <t>has provision status</t>
+  </si>
+  <si>
+    <t>Indicates whether the technology has been provided</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>How technology communicates</t>
+  </si>
+  <si>
+    <t>Networking</t>
+  </si>
+  <si>
+    <t>Technology utilising networking</t>
+  </si>
+  <si>
+    <t>LocalNetwork</t>
+  </si>
+  <si>
+    <t>Local Network</t>
+  </si>
+  <si>
+    <t>Technology utilising local networking</t>
+  </si>
+  <si>
+    <t>tech:Networking</t>
+  </si>
+  <si>
+    <t>Internet</t>
+  </si>
+  <si>
+    <t>Technology utilising internet</t>
+  </si>
+  <si>
+    <t>WiFi</t>
+  </si>
+  <si>
+    <t>Technology utilising wifi wireless networking</t>
+  </si>
+  <si>
+    <t>Bluetooth</t>
+  </si>
+  <si>
+    <t>Technology utilising bluetooth</t>
+  </si>
+  <si>
+    <t>CellularNetwork</t>
+  </si>
+  <si>
+    <t>Cellular Network</t>
+  </si>
+  <si>
+    <t>Technology utilising cellular networking</t>
+  </si>
+  <si>
+    <t>GPS</t>
+  </si>
+  <si>
+    <t>Technology utilising GPS</t>
+  </si>
+  <si>
+    <t>Specific instances of technologies</t>
+  </si>
+  <si>
+    <t>Software</t>
+  </si>
+  <si>
+    <t>Virtual parts or components of the technology such as programs and data</t>
+  </si>
+  <si>
+    <t>DataStorage</t>
+  </si>
+  <si>
+    <t>Data Storage</t>
+  </si>
+  <si>
+    <t>Technology associated with storage of data</t>
+  </si>
+  <si>
+    <t>tech:Software</t>
+  </si>
+  <si>
+    <t>Database</t>
+  </si>
+  <si>
+    <t>A database, database management system (DBMS), or application database</t>
+  </si>
+  <si>
+    <t>tech:DataStorage</t>
+  </si>
+  <si>
+    <t>CloudStorage</t>
+  </si>
+  <si>
+    <t>Cloud Storage</t>
+  </si>
+  <si>
+    <t>Storage utilising cloud technologies</t>
+  </si>
+  <si>
+    <t>LocalStorage</t>
+  </si>
+  <si>
+    <t>Local Storage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Storage that is local (e.g. on device) </t>
+  </si>
+  <si>
+    <t>Cookie</t>
+  </si>
+  <si>
+    <t>A HTTP or web or internet cookie</t>
+  </si>
+  <si>
+    <t>tech:LocalStorage</t>
+  </si>
+  <si>
+    <t>Application</t>
+  </si>
+  <si>
+    <t>Application or Application Software</t>
+  </si>
+  <si>
+    <t>SmartphoneApplication</t>
+  </si>
+  <si>
+    <t>Smartphone Application</t>
+  </si>
+  <si>
+    <t>A computing or digital program on a smartphone device</t>
+  </si>
+  <si>
+    <t>tech:Application</t>
+  </si>
+  <si>
+    <t>AppStore</t>
+  </si>
+  <si>
+    <t>Application Store</t>
+  </si>
+  <si>
+    <t>An application or platform for distribution of other applications</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>Operating System (OS)</t>
+  </si>
+  <si>
+    <t>Software for managing hardware and other software</t>
+  </si>
+  <si>
+    <t>MSWindows</t>
+  </si>
+  <si>
+    <t>Microsoft Windows</t>
+  </si>
+  <si>
+    <t>Microsoft Windows operating system</t>
+  </si>
+  <si>
+    <t>tech:OS</t>
+  </si>
+  <si>
+    <t>iOS</t>
+  </si>
+  <si>
+    <t>iOS operating system</t>
+  </si>
+  <si>
+    <t>Android</t>
+  </si>
+  <si>
+    <t>Android operating system</t>
+  </si>
+  <si>
+    <t>GNULinux</t>
+  </si>
+  <si>
+    <t>GNU/Linux</t>
+  </si>
+  <si>
+    <t>GNU/Linux operating system</t>
+  </si>
+  <si>
+    <t>Hardware</t>
+  </si>
+  <si>
+    <t>Physical parts or components of the technology</t>
+  </si>
+  <si>
+    <t>Device</t>
+  </si>
+  <si>
+    <t>Device or computing device</t>
+  </si>
+  <si>
+    <t>tech:Hardware</t>
+  </si>
+  <si>
+    <t>PersonalComputer</t>
+  </si>
+  <si>
+    <t>Personal Computer (PC)</t>
+  </si>
+  <si>
+    <t>A computing device intended for individual use</t>
+  </si>
+  <si>
+    <t>tech:Device</t>
+  </si>
+  <si>
+    <t>LaptopPC</t>
+  </si>
+  <si>
+    <t>Laptop PC</t>
+  </si>
+  <si>
+    <t>A portal personal computer</t>
+  </si>
+  <si>
+    <t>tech:PersonalComputer</t>
+  </si>
+  <si>
+    <t>DesktopPC</t>
+  </si>
+  <si>
+    <t>Desktop PC</t>
+  </si>
+  <si>
+    <t>A non-portable or fixed personal computer</t>
+  </si>
+  <si>
+    <t>Telephone</t>
+  </si>
+  <si>
+    <t>MobilePhone</t>
+  </si>
+  <si>
+    <t>Mobile Phone</t>
+  </si>
+  <si>
+    <t>Mobile telephone</t>
+  </si>
+  <si>
+    <t>tech:Telephone</t>
+  </si>
+  <si>
+    <t>Smartphone</t>
+  </si>
+  <si>
+    <t>A combination of a mobile phone with computing capabilities similar to a PC</t>
+  </si>
+  <si>
+    <t>tech:MobilePhone,tech:PersonalComputer</t>
+  </si>
+  <si>
+    <t>IoT</t>
+  </si>
+  <si>
+    <t>Internet of Things (IoT)</t>
+  </si>
+  <si>
+    <t>IoT is the infrastructure of interconnected entities, people, systems and information resources together with services that process and react to information from the physical world and virtual world</t>
+  </si>
+  <si>
+    <t>IoTDevice</t>
+  </si>
+  <si>
+    <t>IoT Device</t>
+  </si>
+  <si>
+    <t>An entity of an IoT system that interacts and communicates with the physical world through sensing or actuating</t>
+  </si>
+  <si>
+    <t>tech:IoT,tech:Device</t>
+  </si>
+  <si>
+    <t>IoTSystem</t>
+  </si>
+  <si>
+    <t>IoT System</t>
+  </si>
+  <si>
+    <t>A specific system that is an implementation or application of the IoT framework and contains interconnected IoT devices and their communication network along with other hardware and software required for providing functionalities</t>
+  </si>
+  <si>
+    <t>tech:IoT,tech:System</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>A simplified representation or abstraction of a system, process, or concept</t>
+  </si>
+  <si>
+    <t>Service</t>
+  </si>
+  <si>
+    <t>The carrying out of a specific task or set of tasks as a service</t>
+  </si>
+  <si>
+    <t>This concept is distinct from dpv:Service as it represents the notion of a technical service whereas dpv:Service can also refer to organisational, legal, social, and other meanings of service</t>
+  </si>
+  <si>
+    <t>Algorithm</t>
+  </si>
+  <si>
+    <t>A step-by-step set of instructions used to solve a problem or perform a computation</t>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>A collection of components that interact to achieve a specific goal or function</t>
+  </si>
+  <si>
+    <t>Component</t>
+  </si>
+  <si>
+    <t>A self-contained part of a system that performs a specific function and interacts with other components</t>
+  </si>
+  <si>
+    <t>CloudService</t>
+  </si>
+  <si>
+    <t>A remotely accessible service delivered over the internet for providing resources, software, or infrastructure</t>
+  </si>
+  <si>
+    <t>Infrastructure</t>
+  </si>
+  <si>
+    <t>The foundational hardware, software, and other resources to support the operation of systems or services</t>
+  </si>
+  <si>
+    <t>API</t>
+  </si>
+  <si>
+    <t>A set of rules and protocols to communicate and exchange data between applications</t>
+  </si>
+  <si>
+    <t>tech:Algorithm</t>
+  </si>
+  <si>
+    <t>Platform</t>
+  </si>
+  <si>
+    <t>A digital environment that provides tools, infrastructure, and services for developing, deploying, and running applications</t>
+  </si>
+  <si>
+    <t>IntegratedCircuit</t>
+  </si>
+  <si>
+    <t>A integrated electronic chip containing interconnected components to perform specific functions</t>
+  </si>
+  <si>
+    <t>ApplicationSpecificIntegratedCircuit</t>
+  </si>
+  <si>
+    <t>A custom-designed integrated circuit optimised for a specific task</t>
+  </si>
+  <si>
+    <t>tech:IntegratedCircuit</t>
+  </si>
+  <si>
+    <t>SoftwareLibrary</t>
+  </si>
+  <si>
+    <t>A collection of pre-built and reusable functions for use in development and management of software</t>
+  </si>
+  <si>
+    <t>SoftwareFramework</t>
+  </si>
+  <si>
+    <t>An opinionated collection of functions and architecture design choices for building applications</t>
+  </si>
+  <si>
+    <t>hasSystem</t>
+  </si>
+  <si>
+    <t>has system</t>
+  </si>
+  <si>
+    <t>Indicates the technology has or uses the associated system</t>
+  </si>
+  <si>
+    <t>tech:System</t>
+  </si>
+  <si>
+    <t>hasComponent</t>
+  </si>
+  <si>
+    <t>has component</t>
+  </si>
+  <si>
+    <t>Indicates the system has or uses the associated component</t>
+  </si>
+  <si>
+    <t>dpv:System</t>
+  </si>
+  <si>
+    <t>tech:Component</t>
+  </si>
+  <si>
+    <t>isComponentOf</t>
+  </si>
+  <si>
+    <t>is component of</t>
+  </si>
+  <si>
+    <t>Indicates the component is part of the associated system</t>
+  </si>
+  <si>
+    <t>hasAlgorithm</t>
+  </si>
+  <si>
+    <t>has algorithm</t>
+  </si>
+  <si>
+    <t>Indicates the technology has or uses the associated algorithm</t>
+  </si>
+  <si>
+    <t>hasService</t>
+  </si>
+  <si>
+    <t>has service</t>
+  </si>
+  <si>
+    <t>Indicates the technology has or uses the associated service</t>
+  </si>
+  <si>
     <t>tech:Service</t>
-  </si>
-  <si>
-    <t>IaaSProvision</t>
-  </si>
-  <si>
-    <t>Infrastructure as a Service (IaaS) Provision</t>
-  </si>
-  <si>
-    <t>Technology provided as a cloud service consisting of managed infrastructure resources</t>
-  </si>
-  <si>
-    <t>tech:CloudService</t>
-  </si>
-  <si>
-    <t>PaaSProvision</t>
-  </si>
-  <si>
-    <t>Platform as a Service (PaaS) Provision</t>
-  </si>
-  <si>
-    <t>Technology provided as a cloud service consisting of managed platform resources</t>
-  </si>
-  <si>
-    <t>SaaSProvision</t>
-  </si>
-  <si>
-    <t>Software as a Service (SaaS) Provision</t>
-  </si>
-  <si>
-    <t>Technology provided as a cloud service consisting of managed software resources</t>
-  </si>
-  <si>
-    <t>CaaSProvision</t>
-  </si>
-  <si>
-    <t>Compute as a Service (CaaS) Provision</t>
-  </si>
-  <si>
-    <t>Technology provided as a cloud service consisting of managed compute resources</t>
-  </si>
-  <si>
-    <t>MBaaSProvision</t>
-  </si>
-  <si>
-    <t>Mobile backend as a Service Provision</t>
-  </si>
-  <si>
-    <t>Technology provided as a cloud service consisting of managed 'backend' services for mobile users</t>
-  </si>
-  <si>
-    <t>ServerlessComputingProvision</t>
-  </si>
-  <si>
-    <t>Serverless Computing Provision</t>
-  </si>
-  <si>
-    <t>Technology provided as a cloud service consisting of fully managed servers for executing functions</t>
-  </si>
-  <si>
-    <t>PrivateCloudServiceProvision</t>
-  </si>
-  <si>
-    <t>Private Cloud Service Provision</t>
-  </si>
-  <si>
-    <t>Technology provided as a cloud service that is private</t>
-  </si>
-  <si>
-    <t>Tek Raj Chhetri</t>
-  </si>
-  <si>
-    <t>PublicCloudServiceProvision</t>
-  </si>
-  <si>
-    <t>Public Cloud Service Provision</t>
-  </si>
-  <si>
-    <t>Technology provided as a cloud service that is public</t>
-  </si>
-  <si>
-    <t>HybridCloudServiceProvision</t>
-  </si>
-  <si>
-    <t>Hybrid Cloud Service Provision</t>
-  </si>
-  <si>
-    <t>Technology provided as a cloud service that is both private and public in parts</t>
-  </si>
-  <si>
-    <t>tech:PrivateCloudService,tech:PublicCloudService</t>
-  </si>
-  <si>
-    <t>Proposed for v2.2</t>
-  </si>
-  <si>
-    <t>ConceptStage</t>
-  </si>
-  <si>
-    <t>Concept Stage</t>
-  </si>
-  <si>
-    <t>DevelopmentStage</t>
-  </si>
-  <si>
-    <t>Development Stage</t>
-  </si>
-  <si>
-    <t>ProductionStage</t>
-  </si>
-  <si>
-    <t>Production Stage</t>
-  </si>
-  <si>
-    <t>UtilisationStage</t>
-  </si>
-  <si>
-    <t>Utilisation Stage</t>
-  </si>
-  <si>
-    <t>SupportStage</t>
-  </si>
-  <si>
-    <t>Support Stage</t>
-  </si>
-  <si>
-    <t>RetirementStage</t>
-  </si>
-  <si>
-    <t>Retirement Stage</t>
-  </si>
-  <si>
-    <t>ChangeDescription</t>
-  </si>
-  <si>
-    <t>ChangeStatus</t>
-  </si>
-  <si>
-    <t>ChangeProposed</t>
-  </si>
-  <si>
-    <t>ChangeApproved</t>
-  </si>
-  <si>
-    <t>ChangeRequested</t>
-  </si>
-  <si>
-    <t>ChangeAuthorised</t>
-  </si>
-  <si>
-    <t>ChangeVerified</t>
-  </si>
-  <si>
-    <t>ChangePlanned</t>
-  </si>
-  <si>
-    <t>ChangePending</t>
-  </si>
-  <si>
-    <t>ChangeScheduled</t>
-  </si>
-  <si>
-    <t>ChangeOngoing</t>
-  </si>
-  <si>
-    <t>ChangeCompleted</t>
-  </si>
-  <si>
-    <t>ChangeFailed</t>
-  </si>
-  <si>
-    <t>ChangePaused</t>
-  </si>
-  <si>
-    <t>ChangeReverted</t>
-  </si>
-  <si>
-    <t>ChangeCategory</t>
-  </si>
-  <si>
-    <t>SystematicChangeCategory</t>
-  </si>
-  <si>
-    <t>SystematicChange</t>
-  </si>
-  <si>
-    <t>AdhocChange</t>
-  </si>
-  <si>
-    <t>PlannedChangeCategory</t>
-  </si>
-  <si>
-    <t>PlannedChange</t>
-  </si>
-  <si>
-    <t>Vague broad notion of change planned</t>
-  </si>
-  <si>
-    <t>UnplannedChange</t>
-  </si>
-  <si>
-    <t>Change that is not planned</t>
-  </si>
-  <si>
-    <t>PredeterminedChangeCategory</t>
-  </si>
-  <si>
-    <t>PredeterminedChange</t>
-  </si>
-  <si>
-    <t>Specific determination of change in terms of what to change or when to change - can include reaction to external factors</t>
-  </si>
-  <si>
-    <t>NonpredeterminedChange</t>
-  </si>
-  <si>
-    <t>Change that is not predetermined but is planned</t>
-  </si>
-  <si>
-    <t>IntendedChangeCategory</t>
-  </si>
-  <si>
-    <t>IntendedChange</t>
-  </si>
-  <si>
-    <t>UnintendedChange</t>
-  </si>
-  <si>
-    <t>RateOfChangeCategory</t>
-  </si>
-  <si>
-    <t>GradualChange</t>
-  </si>
-  <si>
-    <t>InstantaneousChange</t>
-  </si>
-  <si>
-    <t>ReversibilityOfChangeCategory</t>
-  </si>
-  <si>
-    <t>ReversibleChange</t>
-  </si>
-  <si>
-    <t>IrreversibleChange</t>
-  </si>
-  <si>
-    <t>TransformationChangeCategory</t>
-  </si>
-  <si>
-    <t>IncrementalChange</t>
-  </si>
-  <si>
-    <t>TransformativeChange</t>
-  </si>
-  <si>
-    <t>ControlOverChangeCategory</t>
-  </si>
-  <si>
-    <t>ControlledChange</t>
-  </si>
-  <si>
-    <t>UncontrolledChange</t>
-  </si>
-  <si>
-    <t>TemporalChangeCategory</t>
-  </si>
-  <si>
-    <t>TemporaryChange</t>
-  </si>
-  <si>
-    <t>LastingChange</t>
-  </si>
-  <si>
-    <t>Actors involved in technologies</t>
-  </si>
-  <si>
-    <t>Provider</t>
-  </si>
-  <si>
-    <t>Actor that provides Technology</t>
-  </si>
-  <si>
-    <t>tech:Actor</t>
-  </si>
-  <si>
-    <t>ISO/IEC 22989:2022</t>
-  </si>
-  <si>
-    <t>Producer</t>
-  </si>
-  <si>
-    <t>Actor that produces Technology</t>
-  </si>
-  <si>
-    <t>Developer</t>
-  </si>
-  <si>
-    <t>Actor that develops Technology</t>
-  </si>
-  <si>
-    <t>tech:Producer</t>
-  </si>
-  <si>
-    <t>Customer</t>
-  </si>
-  <si>
-    <t>Actor that uses Technology directly or indirectly by providing it to Users</t>
-  </si>
-  <si>
-    <t>User</t>
-  </si>
-  <si>
-    <t>Actor that uses Technology</t>
-  </si>
-  <si>
-    <t>tech:Customer</t>
-  </si>
-  <si>
-    <t>Subject</t>
-  </si>
-  <si>
-    <t>Actor that is subjected to the use or impact of Technology</t>
-  </si>
-  <si>
-    <t>Deployer</t>
-  </si>
-  <si>
-    <t>Actor that deploys Technology</t>
-  </si>
-  <si>
-    <t>AI Act</t>
-  </si>
-  <si>
-    <t>Designer</t>
-  </si>
-  <si>
-    <t>Actor that designs Technology</t>
-  </si>
-  <si>
-    <t>DGA 26.3</t>
-  </si>
-  <si>
-    <t>Installer</t>
-  </si>
-  <si>
-    <t>Actor that installs Technology</t>
-  </si>
-  <si>
-    <t>Maintainer</t>
-  </si>
-  <si>
-    <t>Actor that maintains Technology</t>
-  </si>
-  <si>
-    <t>Manufacturer</t>
-  </si>
-  <si>
-    <t>Actor that manufactures Technology</t>
-  </si>
-  <si>
-    <t>Owner</t>
-  </si>
-  <si>
-    <t>Actor that owns Technology</t>
-  </si>
-  <si>
-    <t>Purchaser</t>
-  </si>
-  <si>
-    <t>Actor that purchases Technology</t>
-  </si>
-  <si>
-    <t>Supplier</t>
-  </si>
-  <si>
-    <t>Actor that supplies Technology</t>
-  </si>
-  <si>
-    <t>Partner</t>
-  </si>
-  <si>
-    <t>Actor that provides services in the context of Technology</t>
-  </si>
-  <si>
-    <t>"Partner" is a vague term and should not be used - instead the more specific terms provided in this vocabulary should be used. Partner refers to entities that provide services for the technology (as opposed to for using the technology) - for example to further develop or refine it, or to test or audit it.</t>
-  </si>
-  <si>
-    <t>Evaluator</t>
-  </si>
-  <si>
-    <t>Actor that evaluates the performance of Technology</t>
-  </si>
-  <si>
-    <t>tech:Partner</t>
-  </si>
-  <si>
-    <t>Auditor</t>
-  </si>
-  <si>
-    <t>Actor that audits Technology for conformance to policies, standards, or legal requirements</t>
-  </si>
-  <si>
-    <t>SystemIntegrator</t>
-  </si>
-  <si>
-    <t>System Integrator</t>
-  </si>
-  <si>
-    <t>Actor that integrates Technology in to (larger) systems</t>
-  </si>
-  <si>
-    <t>Importer</t>
-  </si>
-  <si>
-    <t>Actor that imports the Technology within a jurisdiction</t>
-  </si>
-  <si>
-    <t>Distributor</t>
-  </si>
-  <si>
-    <t>Actor that distributes the Technology</t>
-  </si>
-  <si>
-    <t>Operator</t>
-  </si>
-  <si>
-    <t>Actor that operates the Technology</t>
-  </si>
-  <si>
-    <t>Operator and User are similar concepts but may refer to different actors, for example in the scenario where the user determines what actions to perform on the technology and the operator executes these actions by operating the technology</t>
-  </si>
-  <si>
-    <t>hasProvider</t>
-  </si>
-  <si>
-    <t>has provider</t>
-  </si>
-  <si>
-    <t>Indicates technology provider</t>
-  </si>
-  <si>
-    <t>tech:Provider</t>
-  </si>
-  <si>
-    <t>tech:hasActor</t>
-  </si>
-  <si>
-    <t>hasProducer</t>
-  </si>
-  <si>
-    <t>has producer</t>
-  </si>
-  <si>
-    <t>Indicates technology producer</t>
-  </si>
-  <si>
-    <t>hasDeveloper</t>
-  </si>
-  <si>
-    <t>has developer</t>
-  </si>
-  <si>
-    <t>Indicates technology developer</t>
-  </si>
-  <si>
-    <t>tech:Developer</t>
-  </si>
-  <si>
-    <t>hasCustomer</t>
-  </si>
-  <si>
-    <t>has customer</t>
-  </si>
-  <si>
-    <t>Indicates technology customer</t>
-  </si>
-  <si>
-    <t>hasUser</t>
-  </si>
-  <si>
-    <t>has user</t>
-  </si>
-  <si>
-    <t>Indicates technology user</t>
-  </si>
-  <si>
-    <t>tech:User</t>
-  </si>
-  <si>
-    <t>hasSubject</t>
-  </si>
-  <si>
-    <t>has subject</t>
-  </si>
-  <si>
-    <t>Indicates technology subject</t>
-  </si>
-  <si>
-    <t>tech:Subject</t>
-  </si>
-  <si>
-    <t>hasDeployer</t>
-  </si>
-  <si>
-    <t>has deployer</t>
-  </si>
-  <si>
-    <t>Indicates technology deployer</t>
-  </si>
-  <si>
-    <t>tech:Deployer</t>
-  </si>
-  <si>
-    <t>hasDesigner</t>
-  </si>
-  <si>
-    <t>has designer</t>
-  </si>
-  <si>
-    <t>Indicates technology designer</t>
-  </si>
-  <si>
-    <t>tech:Designer</t>
-  </si>
-  <si>
-    <t>hasInstaller</t>
-  </si>
-  <si>
-    <t>has installer</t>
-  </si>
-  <si>
-    <t>Indicates technology installer</t>
-  </si>
-  <si>
-    <t>tech:Installer</t>
-  </si>
-  <si>
-    <t>hasMaintainer</t>
-  </si>
-  <si>
-    <t>has maintainer</t>
-  </si>
-  <si>
-    <t>Indicates technology maintainer</t>
-  </si>
-  <si>
-    <t>tech:Maintainer</t>
-  </si>
-  <si>
-    <t>hasManufacturer</t>
-  </si>
-  <si>
-    <t>has manufacturer</t>
-  </si>
-  <si>
-    <t>Indicates technology manufacturer</t>
-  </si>
-  <si>
-    <t>tech:Manufacturer</t>
-  </si>
-  <si>
-    <t>hasOwner</t>
-  </si>
-  <si>
-    <t>has owner</t>
-  </si>
-  <si>
-    <t>Indicates technology owner</t>
-  </si>
-  <si>
-    <t>tech:Owner</t>
-  </si>
-  <si>
-    <t>hasPurchaser</t>
-  </si>
-  <si>
-    <t>has purchaser</t>
-  </si>
-  <si>
-    <t>Indicates technology purchaser</t>
-  </si>
-  <si>
-    <t>tech:Purchaser</t>
-  </si>
-  <si>
-    <t>hasSupplier</t>
-  </si>
-  <si>
-    <t>has supplier</t>
-  </si>
-  <si>
-    <t>Indicates technology supplier</t>
-  </si>
-  <si>
-    <t>tech:Supplier</t>
-  </si>
-  <si>
-    <t>hasPartner</t>
-  </si>
-  <si>
-    <t>has partner</t>
-  </si>
-  <si>
-    <t>Indicates technology partner</t>
-  </si>
-  <si>
-    <t>hasEvaluator</t>
-  </si>
-  <si>
-    <t>has evaluator</t>
-  </si>
-  <si>
-    <t>Indicates technology evaluator</t>
-  </si>
-  <si>
-    <t>tech:Evaluator</t>
-  </si>
-  <si>
-    <t>hasAuditor</t>
-  </si>
-  <si>
-    <t>has auditor</t>
-  </si>
-  <si>
-    <t>Indicates technology auditor</t>
-  </si>
-  <si>
-    <t>tech:Auditor</t>
-  </si>
-  <si>
-    <t>hasSystemIntegrator</t>
-  </si>
-  <si>
-    <t>has system integrator</t>
-  </si>
-  <si>
-    <t>Indicates technology system integrator</t>
-  </si>
-  <si>
-    <t>tech:SystemIntegrator</t>
-  </si>
-  <si>
-    <t>Manual</t>
-  </si>
-  <si>
-    <t>Documentation that provides instructions for using, maintaining, developing, or performing other activities regarding the technology</t>
-  </si>
-  <si>
-    <t>Guide</t>
-  </si>
-  <si>
-    <t>Documentation that provides guidance regarding the technology</t>
-  </si>
-  <si>
-    <t>Instructions</t>
-  </si>
-  <si>
-    <t>Instructions related to technology</t>
-  </si>
-  <si>
-    <t>Specification</t>
-  </si>
-  <si>
-    <t>Documentation that specifies requirements that must be satisfied by the technology</t>
-  </si>
-  <si>
-    <t>Plan</t>
-  </si>
-  <si>
-    <t>Plan associated with using, maintaining, developing, or performing other activities associated with technology</t>
-  </si>
-  <si>
-    <t>TestingPlan</t>
-  </si>
-  <si>
-    <t>Testing Plan</t>
-  </si>
-  <si>
-    <t>Plan associated with testing technology</t>
-  </si>
-  <si>
-    <t>tech:Plan</t>
-  </si>
-  <si>
-    <t>DevelopmentPlan</t>
-  </si>
-  <si>
-    <t>Development Plan</t>
-  </si>
-  <si>
-    <t>Plan associated with developing technology</t>
-  </si>
-  <si>
-    <t>dpv:Status</t>
-  </si>
-  <si>
-    <t>DevelopmentStatus</t>
-  </si>
-  <si>
-    <t>DeploymentStatus</t>
-  </si>
-  <si>
-    <t>TechnologyStatus</t>
-  </si>
-  <si>
-    <t>Technology Status</t>
-  </si>
-  <si>
-    <t>Status associated with development, deployment, and use of technology</t>
-  </si>
-  <si>
-    <t>MarketAvailabilityStatus</t>
-  </si>
-  <si>
-    <t>Market Availability Status</t>
-  </si>
-  <si>
-    <t>Status indicating whether Technology is available on the market</t>
-  </si>
-  <si>
-    <t>tech:TechnologyStatus</t>
-  </si>
-  <si>
-    <t>MarketAvailable</t>
-  </si>
-  <si>
-    <t>Market Available</t>
-  </si>
-  <si>
-    <t>Status indicating Technology is available on the market</t>
-  </si>
-  <si>
-    <t>tech:MarketAvailabilityStatus</t>
-  </si>
-  <si>
-    <t>MarketUnavailable</t>
-  </si>
-  <si>
-    <t>Market Unavailable</t>
-  </si>
-  <si>
-    <t>Status indicating Technology is unavailable on the market</t>
-  </si>
-  <si>
-    <t>ProvisionStatus</t>
-  </si>
-  <si>
-    <t>Provision Status</t>
-  </si>
-  <si>
-    <t>Status indicating whether Technology has been provided</t>
-  </si>
-  <si>
-    <t>Provided</t>
-  </si>
-  <si>
-    <t>Status indicating Technology has been provided</t>
-  </si>
-  <si>
-    <t>tech:ProvisionStatus</t>
-  </si>
-  <si>
-    <t>NotProvided</t>
-  </si>
-  <si>
-    <t>Not Provided</t>
-  </si>
-  <si>
-    <t>Status indicating Technology has not been provided</t>
-  </si>
-  <si>
-    <t>TechnologyReadinessLevel</t>
-  </si>
-  <si>
-    <t>Technology Readiness Level (TRL)</t>
-  </si>
-  <si>
-    <t>Indication of maturity of Technology (ISO 16290:2013)</t>
-  </si>
-  <si>
-    <t>hasTRL</t>
-  </si>
-  <si>
-    <t>has TRL</t>
-  </si>
-  <si>
-    <t>Indicates technology maturity level</t>
-  </si>
-  <si>
-    <t>tech:TechnologyReadinessLevel</t>
-  </si>
-  <si>
-    <t>dpv:hasStatus</t>
-  </si>
-  <si>
-    <t>hasMarketAvailabilityStatus</t>
-  </si>
-  <si>
-    <t>has market availability status</t>
-  </si>
-  <si>
-    <t>Indicates whether the technology is available on the market</t>
-  </si>
-  <si>
-    <t>hasProvisionStatus</t>
-  </si>
-  <si>
-    <t>has provision status</t>
-  </si>
-  <si>
-    <t>Indicates whether the technology has been provided</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>How technology communicates</t>
-  </si>
-  <si>
-    <t>Networking</t>
-  </si>
-  <si>
-    <t>Technology utilising networking</t>
-  </si>
-  <si>
-    <t>LocalNetwork</t>
-  </si>
-  <si>
-    <t>Local Network</t>
-  </si>
-  <si>
-    <t>Technology utilising local networking</t>
-  </si>
-  <si>
-    <t>tech:Networking</t>
-  </si>
-  <si>
-    <t>Internet</t>
-  </si>
-  <si>
-    <t>Technology utilising internet</t>
-  </si>
-  <si>
-    <t>WiFi</t>
-  </si>
-  <si>
-    <t>Technology utilising wifi wireless networking</t>
-  </si>
-  <si>
-    <t>Bluetooth</t>
-  </si>
-  <si>
-    <t>Technology utilising bluetooth</t>
-  </si>
-  <si>
-    <t>CellularNetwork</t>
-  </si>
-  <si>
-    <t>Cellular Network</t>
-  </si>
-  <si>
-    <t>Technology utilising cellular networking</t>
-  </si>
-  <si>
-    <t>GPS</t>
-  </si>
-  <si>
-    <t>Technology utilising GPS</t>
-  </si>
-  <si>
-    <t>Specific instances of technologies</t>
-  </si>
-  <si>
-    <t>Software</t>
-  </si>
-  <si>
-    <t>Virtual parts or components of the technology such as programs and data</t>
-  </si>
-  <si>
-    <t>DataStorage</t>
-  </si>
-  <si>
-    <t>Data Storage</t>
-  </si>
-  <si>
-    <t>Technology associated with storage of data</t>
-  </si>
-  <si>
-    <t>tech:Software</t>
-  </si>
-  <si>
-    <t>Database</t>
-  </si>
-  <si>
-    <t>A database, database management system (DBMS), or application database</t>
-  </si>
-  <si>
-    <t>tech:DataStorage</t>
-  </si>
-  <si>
-    <t>CloudStorage</t>
-  </si>
-  <si>
-    <t>Cloud Storage</t>
-  </si>
-  <si>
-    <t>Storage utilising cloud technologies</t>
-  </si>
-  <si>
-    <t>LocalStorage</t>
-  </si>
-  <si>
-    <t>Local Storage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Storage that is local (e.g. on device) </t>
-  </si>
-  <si>
-    <t>Cookie</t>
-  </si>
-  <si>
-    <t>A HTTP or web or internet cookie</t>
-  </si>
-  <si>
-    <t>tech:LocalStorage</t>
-  </si>
-  <si>
-    <t>Application</t>
-  </si>
-  <si>
-    <t>Application or Application Software</t>
-  </si>
-  <si>
-    <t>SmartphoneApplication</t>
-  </si>
-  <si>
-    <t>Smartphone Application</t>
-  </si>
-  <si>
-    <t>A computing or digital program on a smartphone device</t>
-  </si>
-  <si>
-    <t>tech:Application</t>
-  </si>
-  <si>
-    <t>AppStore</t>
-  </si>
-  <si>
-    <t>Application Store</t>
-  </si>
-  <si>
-    <t>An application or platform for distribution of other applications</t>
-  </si>
-  <si>
-    <t>OS</t>
-  </si>
-  <si>
-    <t>Operating System (OS)</t>
-  </si>
-  <si>
-    <t>Software for managing hardware and other software</t>
-  </si>
-  <si>
-    <t>MSWindows</t>
-  </si>
-  <si>
-    <t>Microsoft Windows</t>
-  </si>
-  <si>
-    <t>Microsoft Windows operating system</t>
-  </si>
-  <si>
-    <t>tech:OS</t>
-  </si>
-  <si>
-    <t>iOS</t>
-  </si>
-  <si>
-    <t>iOS operating system</t>
-  </si>
-  <si>
-    <t>Android</t>
-  </si>
-  <si>
-    <t>Android operating system</t>
-  </si>
-  <si>
-    <t>GNULinux</t>
-  </si>
-  <si>
-    <t>GNU/Linux</t>
-  </si>
-  <si>
-    <t>GNU/Linux operating system</t>
-  </si>
-  <si>
-    <t>Hardware</t>
-  </si>
-  <si>
-    <t>Physical parts or components of the technology</t>
-  </si>
-  <si>
-    <t>Device</t>
-  </si>
-  <si>
-    <t>Device or computing device</t>
-  </si>
-  <si>
-    <t>tech:Hardware</t>
-  </si>
-  <si>
-    <t>PersonalComputer</t>
-  </si>
-  <si>
-    <t>Personal Computer (PC)</t>
-  </si>
-  <si>
-    <t>A computing device intended for individual use</t>
-  </si>
-  <si>
-    <t>tech:Device</t>
-  </si>
-  <si>
-    <t>LaptopPC</t>
-  </si>
-  <si>
-    <t>Laptop PC</t>
-  </si>
-  <si>
-    <t>A portal personal computer</t>
-  </si>
-  <si>
-    <t>tech:PersonalComputer</t>
-  </si>
-  <si>
-    <t>DesktopPC</t>
-  </si>
-  <si>
-    <t>Desktop PC</t>
-  </si>
-  <si>
-    <t>A non-portable or fixed personal computer</t>
-  </si>
-  <si>
-    <t>Telephone</t>
-  </si>
-  <si>
-    <t>MobilePhone</t>
-  </si>
-  <si>
-    <t>Mobile Phone</t>
-  </si>
-  <si>
-    <t>Mobile telephone</t>
-  </si>
-  <si>
-    <t>tech:Telephone</t>
-  </si>
-  <si>
-    <t>Smartphone</t>
-  </si>
-  <si>
-    <t>A combination of a mobile phone with computing capabilities similar to a PC</t>
-  </si>
-  <si>
-    <t>tech:MobilePhone,tech:PersonalComputer</t>
-  </si>
-  <si>
-    <t>IoT</t>
-  </si>
-  <si>
-    <t>Internet of Things (IoT)</t>
-  </si>
-  <si>
-    <t>IoT is the infrastructure of interconnected entities, people, systems and information resources together with services that process and react to information from the physical world and virtual world</t>
-  </si>
-  <si>
-    <t>IoTDevice</t>
-  </si>
-  <si>
-    <t>IoT Device</t>
-  </si>
-  <si>
-    <t>An entity of an IoT system that interacts and communicates with the physical world through sensing or actuating</t>
-  </si>
-  <si>
-    <t>tech:IoT,tech:Device</t>
-  </si>
-  <si>
-    <t>IoTSystem</t>
-  </si>
-  <si>
-    <t>IoT System</t>
-  </si>
-  <si>
-    <t>A specific system that is an implementation or application of the IoT framework and contains interconnected IoT devices and their communication network along with other hardware and software required for providing functionalities</t>
-  </si>
-  <si>
-    <t>tech:IoT,tech:System</t>
-  </si>
-  <si>
-    <t>Model</t>
-  </si>
-  <si>
-    <t>A simplified representation or abstraction of a system, process, or concept</t>
-  </si>
-  <si>
-    <t>Service</t>
-  </si>
-  <si>
-    <t>The carrying out of a specific task or set of tasks as a service</t>
-  </si>
-  <si>
-    <t>This concept is distinct from dpv:Service as it represents the notion of a technical service whereas dpv:Service can also refer to organisational, legal, social, and other meanings of service</t>
-  </si>
-  <si>
-    <t>Algorithm</t>
-  </si>
-  <si>
-    <t>A step-by-step set of instructions used to solve a problem or perform a computation</t>
-  </si>
-  <si>
-    <t>System</t>
-  </si>
-  <si>
-    <t>A collection of components that interact to achieve a specific goal or function</t>
-  </si>
-  <si>
-    <t>Component</t>
-  </si>
-  <si>
-    <t>A self-contained part of a system that performs a specific function and interacts with other components</t>
-  </si>
-  <si>
-    <t>CloudService</t>
-  </si>
-  <si>
-    <t>A remotely accessible service delivered over the internet for providing resources, software, or infrastructure</t>
-  </si>
-  <si>
-    <t>Infrastructure</t>
-  </si>
-  <si>
-    <t>The foundational hardware, software, and other resources to support the operation of systems or services</t>
-  </si>
-  <si>
-    <t>API</t>
-  </si>
-  <si>
-    <t>A set of rules and protocols to communicate and exchange data between applications</t>
-  </si>
-  <si>
-    <t>tech:Algorithm</t>
-  </si>
-  <si>
-    <t>Platform</t>
-  </si>
-  <si>
-    <t>A digital environment that provides tools, infrastructure, and services for developing, deploying, and running applications</t>
-  </si>
-  <si>
-    <t>IntegratedCircuit</t>
-  </si>
-  <si>
-    <t>A integrated electronic chip containing interconnected components to perform specific functions</t>
-  </si>
-  <si>
-    <t>ApplicationSpecificIntegratedCircuit</t>
-  </si>
-  <si>
-    <t>A custom-designed integrated circuit optimised for a specific task</t>
-  </si>
-  <si>
-    <t>tech:IntegratedCircuit</t>
-  </si>
-  <si>
-    <t>SoftwareLibrary</t>
-  </si>
-  <si>
-    <t>A collection of pre-built and reusable functions for use in development and management of software</t>
-  </si>
-  <si>
-    <t>SoftwareFramework</t>
-  </si>
-  <si>
-    <t>An opinionated collection of functions and architecture design choices for building applications</t>
-  </si>
-  <si>
-    <t>hasSystem</t>
-  </si>
-  <si>
-    <t>has system</t>
-  </si>
-  <si>
-    <t>Indicates the technology has or uses the associated system</t>
-  </si>
-  <si>
-    <t>tech:System</t>
-  </si>
-  <si>
-    <t>hasComponent</t>
-  </si>
-  <si>
-    <t>has component</t>
-  </si>
-  <si>
-    <t>Indicates the system has or uses the associated component</t>
-  </si>
-  <si>
-    <t>dpv:System</t>
-  </si>
-  <si>
-    <t>tech:Component</t>
-  </si>
-  <si>
-    <t>isComponentOf</t>
-  </si>
-  <si>
-    <t>is component of</t>
-  </si>
-  <si>
-    <t>Indicates the component is part of the associated system</t>
-  </si>
-  <si>
-    <t>hasAlgorithm</t>
-  </si>
-  <si>
-    <t>has algorithm</t>
-  </si>
-  <si>
-    <t>Indicates the technology has or uses the associated algorithm</t>
-  </si>
-  <si>
-    <t>hasService</t>
-  </si>
-  <si>
-    <t>has service</t>
-  </si>
-  <si>
-    <t>Indicates the technology has or uses the associated service</t>
   </si>
   <si>
     <t>hasDevice</t>
@@ -6776,7 +6779,7 @@
         <v>16</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>217</v>
+        <v>631</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -6812,13 +6815,13 @@
     </row>
     <row r="7">
       <c r="A7" s="18" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>16</v>
@@ -6827,7 +6830,7 @@
         <v>557</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
@@ -6862,13 +6865,13 @@
     </row>
     <row r="8">
       <c r="A8" s="18" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>16</v>
@@ -6910,13 +6913,13 @@
     </row>
     <row r="9">
       <c r="A9" s="18" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>16</v>
@@ -6958,13 +6961,13 @@
     </row>
     <row r="10">
       <c r="A10" s="18" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>16</v>
@@ -7006,19 +7009,19 @@
     </row>
     <row r="11">
       <c r="A11" s="6" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="K11" s="19">
         <v>45627.0</v>
@@ -7033,19 +7036,19 @@
     </row>
     <row r="12">
       <c r="A12" s="18" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
@@ -7081,19 +7084,19 @@
     </row>
     <row r="13">
       <c r="A13" s="6" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
@@ -7129,19 +7132,19 @@
     </row>
     <row r="14">
       <c r="A14" s="6" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
@@ -7315,27 +7318,27 @@
     </row>
     <row r="2">
       <c r="A2" s="6" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="B2" s="5"/>
       <c r="J2" s="10" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="6" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="6" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="6">
@@ -7830,26 +7833,26 @@
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
     </row>
     <row r="3">
       <c r="A3" s="6" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>16</v>
@@ -7859,7 +7862,7 @@
       </c>
       <c r="L3" s="8"/>
       <c r="M3" s="6" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="N3" s="6" t="s">
         <v>39</v>
@@ -7870,16 +7873,16 @@
     </row>
     <row r="4">
       <c r="A4" s="6" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>16</v>
@@ -7889,7 +7892,7 @@
       </c>
       <c r="L4" s="8"/>
       <c r="M4" s="6" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="N4" s="6" t="s">
         <v>39</v>
@@ -7900,16 +7903,16 @@
     </row>
     <row r="5">
       <c r="A5" s="6" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>16</v>
@@ -7919,7 +7922,7 @@
       </c>
       <c r="L5" s="8"/>
       <c r="M5" s="6" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="N5" s="6" t="s">
         <v>39</v>
@@ -7930,16 +7933,16 @@
     </row>
     <row r="6">
       <c r="A6" s="6" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>16</v>
@@ -7949,7 +7952,7 @@
       </c>
       <c r="L6" s="8"/>
       <c r="M6" s="6" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="N6" s="6" t="s">
         <v>39</v>
@@ -7960,16 +7963,16 @@
     </row>
     <row r="7">
       <c r="A7" s="6" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>16</v>
@@ -7979,7 +7982,7 @@
       </c>
       <c r="L7" s="8"/>
       <c r="M7" s="6" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="N7" s="6" t="s">
         <v>39</v>
@@ -7990,16 +7993,16 @@
     </row>
     <row r="8">
       <c r="A8" s="6" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>16</v>
@@ -8009,7 +8012,7 @@
       </c>
       <c r="L8" s="8"/>
       <c r="M8" s="6" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="N8" s="6" t="s">
         <v>39</v>
@@ -8020,16 +8023,16 @@
     </row>
     <row r="9">
       <c r="A9" s="6" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>16</v>
@@ -8039,7 +8042,7 @@
       </c>
       <c r="L9" s="8"/>
       <c r="M9" s="6" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="N9" s="6" t="s">
         <v>39</v>
@@ -8050,16 +8053,16 @@
     </row>
     <row r="10">
       <c r="A10" s="6" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>16</v>
@@ -8069,7 +8072,7 @@
       </c>
       <c r="L10" s="8"/>
       <c r="M10" s="6" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="N10" s="6" t="s">
         <v>39</v>
@@ -8080,16 +8083,16 @@
     </row>
     <row r="11">
       <c r="A11" s="6" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>16</v>
@@ -8099,7 +8102,7 @@
       </c>
       <c r="L11" s="8"/>
       <c r="M11" s="6" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="N11" s="6" t="s">
         <v>39</v>
@@ -8110,16 +8113,16 @@
     </row>
     <row r="12">
       <c r="A12" s="6" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>16</v>
@@ -8129,7 +8132,7 @@
       </c>
       <c r="L12" s="8"/>
       <c r="M12" s="6" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="N12" s="6" t="s">
         <v>39</v>
@@ -8140,16 +8143,16 @@
     </row>
     <row r="13">
       <c r="A13" s="6" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>16</v>
@@ -8158,7 +8161,7 @@
         <v>44727.0</v>
       </c>
       <c r="M13" s="6" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="N13" s="6" t="s">
         <v>39</v>
@@ -8169,16 +8172,16 @@
     </row>
     <row r="14">
       <c r="A14" s="24" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="C14" s="48" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="D14" s="49" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>16</v>
@@ -8188,12 +8191,12 @@
       <c r="H14" s="11"/>
       <c r="I14" s="11"/>
       <c r="J14" s="24" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="K14" s="11"/>
       <c r="L14" s="11"/>
       <c r="M14" s="6" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="N14" s="11"/>
       <c r="O14" s="11"/>
@@ -8216,18 +8219,18 @@
     </row>
     <row r="16">
       <c r="A16" s="5" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="6" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>16</v>
@@ -8236,7 +8239,7 @@
         <v>44727.0</v>
       </c>
       <c r="M17" s="6" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="N17" s="6" t="s">
         <v>39</v>
@@ -8247,13 +8250,13 @@
     </row>
     <row r="18">
       <c r="A18" s="6" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>16</v>
@@ -8263,7 +8266,7 @@
       </c>
       <c r="L18" s="8"/>
       <c r="M18" s="6" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="N18" s="6" t="s">
         <v>39</v>
@@ -8274,13 +8277,13 @@
     </row>
     <row r="19">
       <c r="A19" s="6" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>16</v>
@@ -8290,7 +8293,7 @@
       </c>
       <c r="L19" s="8"/>
       <c r="M19" s="6" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="N19" s="6" t="s">
         <v>39</v>
@@ -8301,13 +8304,13 @@
     </row>
     <row r="20">
       <c r="A20" s="6" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>16</v>
@@ -8317,7 +8320,7 @@
       </c>
       <c r="L20" s="8"/>
       <c r="M20" s="6" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="N20" s="6" t="s">
         <v>39</v>
@@ -8328,13 +8331,13 @@
     </row>
     <row r="21">
       <c r="A21" s="6" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>16</v>
@@ -8344,7 +8347,7 @@
       </c>
       <c r="L21" s="8"/>
       <c r="M21" s="6" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="N21" s="6" t="s">
         <v>39</v>
@@ -8355,13 +8358,13 @@
     </row>
     <row r="22">
       <c r="A22" s="6" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>16</v>
@@ -8371,7 +8374,7 @@
       </c>
       <c r="L22" s="8"/>
       <c r="M22" s="6" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="N22" s="6" t="s">
         <v>39</v>
@@ -8382,10 +8385,10 @@
     </row>
     <row r="24">
       <c r="A24" s="5" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="30"/>
@@ -8394,16 +8397,16 @@
     </row>
     <row r="25">
       <c r="A25" s="6" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="D25" s="30" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>16</v>
@@ -8412,7 +8415,7 @@
         <v>44727.0</v>
       </c>
       <c r="M25" s="6" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="N25" s="6" t="s">
         <v>39</v>
@@ -8423,16 +8426,16 @@
     </row>
     <row r="26">
       <c r="A26" s="6" t="s">
+        <v>733</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>734</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>735</v>
+      </c>
+      <c r="D26" s="30" t="s">
         <v>732</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>733</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>734</v>
-      </c>
-      <c r="D26" s="30" t="s">
-        <v>731</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>16</v>
@@ -8441,7 +8444,7 @@
         <v>44727.0</v>
       </c>
       <c r="M26" s="6" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="N26" s="6" t="s">
         <v>39</v>
@@ -8452,16 +8455,16 @@
     </row>
     <row r="27">
       <c r="A27" s="6" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D27" s="30" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>16</v>
@@ -8470,7 +8473,7 @@
         <v>44727.0</v>
       </c>
       <c r="M27" s="6" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="N27" s="6" t="s">
         <v>39</v>
@@ -8487,10 +8490,10 @@
         <v>526</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="D28" s="30" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>16</v>
@@ -8499,7 +8502,7 @@
         <v>44727.0</v>
       </c>
       <c r="M28" s="6" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="N28" s="6" t="s">
         <v>39</v>
@@ -8510,10 +8513,10 @@
     </row>
     <row r="30">
       <c r="A30" s="5" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
@@ -8544,16 +8547,16 @@
     </row>
     <row r="31">
       <c r="A31" s="6" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>16</v>
@@ -8562,10 +8565,10 @@
         <v>44727.0</v>
       </c>
       <c r="M31" s="6" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="N31" s="6" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="O31" s="9" t="s">
         <v>28</v>
@@ -8573,16 +8576,16 @@
     </row>
     <row r="32">
       <c r="A32" s="6" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>16</v>
@@ -8591,10 +8594,10 @@
         <v>44727.0</v>
       </c>
       <c r="M32" s="6" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="N32" s="6" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="O32" s="9" t="s">
         <v>28</v>
@@ -8602,16 +8605,16 @@
     </row>
     <row r="33">
       <c r="A33" s="6" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="E33" s="6" t="s">
         <v>16</v>
@@ -8620,10 +8623,10 @@
         <v>44727.0</v>
       </c>
       <c r="M33" s="6" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="N33" s="6" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="O33" s="9" t="s">
         <v>28</v>
@@ -8631,16 +8634,16 @@
     </row>
     <row r="34">
       <c r="A34" s="6" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>16</v>
@@ -8649,10 +8652,10 @@
         <v>44727.0</v>
       </c>
       <c r="M34" s="6" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="N34" s="6" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="O34" s="9" t="s">
         <v>28</v>
@@ -8660,16 +8663,16 @@
     </row>
     <row r="35">
       <c r="A35" s="6" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="E35" s="6" t="s">
         <v>16</v>
@@ -8678,10 +8681,10 @@
         <v>44727.0</v>
       </c>
       <c r="M35" s="6" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="N35" s="6" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="O35" s="9" t="s">
         <v>28</v>
@@ -8689,16 +8692,16 @@
     </row>
     <row r="36">
       <c r="A36" s="6" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="E36" s="6" t="s">
         <v>16</v>
@@ -8707,10 +8710,10 @@
         <v>44727.0</v>
       </c>
       <c r="M36" s="6" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="N36" s="6" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="O36" s="9" t="s">
         <v>28</v>
@@ -8718,37 +8721,37 @@
     </row>
     <row r="38">
       <c r="A38" s="5" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="K38" s="8"/>
     </row>
     <row r="39">
       <c r="A39" s="6" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="E39" s="6" t="s">
         <v>16</v>
       </c>
       <c r="I39" s="6" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="K39" s="8">
         <v>44727.0</v>
       </c>
       <c r="M39" s="6" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="N39" s="6" t="s">
         <v>39</v>
@@ -8759,28 +8762,28 @@
     </row>
     <row r="40">
       <c r="A40" s="6" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="E40" s="6" t="s">
         <v>16</v>
       </c>
       <c r="I40" s="6" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="K40" s="8">
         <v>44727.0</v>
       </c>
       <c r="M40" s="6" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="N40" s="6" t="s">
         <v>39</v>
@@ -8791,21 +8794,21 @@
     </row>
     <row r="42">
       <c r="A42" s="5" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="32" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="C43" s="32" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="D43" s="35" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="E43" s="6" t="s">
         <v>16</v>
@@ -8814,7 +8817,7 @@
         <v>44727.0</v>
       </c>
       <c r="M43" s="6" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="N43" s="6" t="s">
         <v>39</v>
@@ -8825,16 +8828,16 @@
     </row>
     <row r="44">
       <c r="A44" s="50" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="B44" s="50" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="C44" s="51" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="D44" s="52" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="E44" s="11" t="s">
         <v>16</v>
@@ -8849,7 +8852,7 @@
       </c>
       <c r="L44" s="11"/>
       <c r="M44" s="6" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="N44" s="11" t="s">
         <v>39</v>
@@ -8875,16 +8878,16 @@
     </row>
     <row r="45">
       <c r="A45" s="50" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="B45" s="50" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="C45" s="51" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="D45" s="55" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="E45" s="11" t="s">
         <v>16</v>
@@ -8899,7 +8902,7 @@
       </c>
       <c r="L45" s="11"/>
       <c r="M45" s="6" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="N45" s="11" t="s">
         <v>39</v>
@@ -8925,16 +8928,16 @@
     </row>
     <row r="46">
       <c r="A46" s="50" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="B46" s="50" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="C46" s="51" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="D46" s="55" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="E46" s="11" t="s">
         <v>16</v>
@@ -8949,7 +8952,7 @@
       </c>
       <c r="L46" s="11"/>
       <c r="M46" s="6" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="N46" s="11" t="s">
         <v>39</v>

--- a/code/vocab_csv/tech.xlsx
+++ b/code/vocab_csv/tech.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1842" uniqueCount="789">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1843" uniqueCount="790">
   <si>
     <t>Term</t>
   </si>
@@ -1000,6 +1000,9 @@
   </si>
   <si>
     <t>Actor that is subjected to the use or impact of Technology</t>
+  </si>
+  <si>
+    <t>Subject can be a human or non-human entity. To explicitly indicate that the subject is a human, and to reuse DPV's human subject taxonomy, the tech:Subject should also be defined as an instance or category of dpv:HumanSubject</t>
   </si>
   <si>
     <t>Deployer</t>
@@ -3877,22 +3880,22 @@
     </row>
     <row r="2">
       <c r="A2" s="6" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
@@ -3927,22 +3930,22 @@
     </row>
     <row r="3">
       <c r="A3" s="6" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
@@ -3973,22 +3976,22 @@
     </row>
     <row r="4">
       <c r="A4" s="6" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
@@ -4022,7 +4025,7 @@
     </row>
     <row r="9">
       <c r="A9" s="6" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B9" s="6"/>
     </row>
@@ -4156,10 +4159,10 @@
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -4174,13 +4177,13 @@
     </row>
     <row r="4">
       <c r="A4" s="6" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="30" t="s">
@@ -4220,16 +4223,16 @@
     </row>
     <row r="5">
       <c r="A5" s="6" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="E5" s="30" t="s">
         <v>71</v>
@@ -4268,16 +4271,16 @@
     </row>
     <row r="6">
       <c r="A6" s="6" t="s">
+        <v>497</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>497</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>496</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>496</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>497</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>495</v>
       </c>
       <c r="E6" s="30" t="s">
         <v>71</v>
@@ -4316,16 +4319,16 @@
     </row>
     <row r="7">
       <c r="A7" s="6" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="E7" s="30" t="s">
         <v>71</v>
@@ -4364,16 +4367,16 @@
     </row>
     <row r="8">
       <c r="A8" s="6" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="E8" s="30" t="s">
         <v>71</v>
@@ -4412,16 +4415,16 @@
     </row>
     <row r="9">
       <c r="A9" s="6" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="E9" s="30" t="s">
         <v>71</v>
@@ -4460,13 +4463,13 @@
     </row>
     <row r="10">
       <c r="A10" s="6" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="30" t="s">
@@ -4604,10 +4607,10 @@
     </row>
     <row r="2">
       <c r="A2" s="31" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C2" s="32"/>
       <c r="D2" s="33"/>
@@ -4626,13 +4629,13 @@
     </row>
     <row r="4">
       <c r="A4" s="31" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="D4" s="34"/>
       <c r="E4" s="6" t="s">
@@ -4682,16 +4685,16 @@
     </row>
     <row r="6">
       <c r="A6" s="31" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="D6" s="34" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>16</v>
@@ -4730,16 +4733,16 @@
     </row>
     <row r="7">
       <c r="A7" s="32" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C7" s="32" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D7" s="35" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>16</v>
@@ -4780,16 +4783,16 @@
     </row>
     <row r="8">
       <c r="A8" s="18" t="s">
+        <v>518</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>519</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>520</v>
+      </c>
+      <c r="D8" s="35" t="s">
         <v>517</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>518</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>519</v>
-      </c>
-      <c r="D8" s="35" t="s">
-        <v>516</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>16</v>
@@ -4828,16 +4831,16 @@
     </row>
     <row r="9">
       <c r="A9" s="18" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>16</v>
@@ -4876,16 +4879,16 @@
     </row>
     <row r="10">
       <c r="A10" s="32" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>16</v>
@@ -4926,16 +4929,16 @@
     </row>
     <row r="12">
       <c r="A12" s="31" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="D12" s="35" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>16</v>
@@ -4974,16 +4977,16 @@
     </row>
     <row r="13">
       <c r="A13" s="32" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="D13" s="35" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>16</v>
@@ -5024,16 +5027,16 @@
     </row>
     <row r="14">
       <c r="A14" s="6" t="s">
+        <v>533</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>534</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>535</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>532</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>533</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>534</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>531</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>16</v>
@@ -5072,16 +5075,16 @@
     </row>
     <row r="16">
       <c r="A16" s="5" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>16</v>
@@ -5120,16 +5123,16 @@
     </row>
     <row r="17">
       <c r="A17" s="6" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>16</v>
@@ -5168,16 +5171,16 @@
     </row>
     <row r="18">
       <c r="A18" s="6" t="s">
+        <v>543</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>543</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>544</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>542</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>542</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>543</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>541</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>16</v>
@@ -5216,16 +5219,16 @@
     </row>
     <row r="19">
       <c r="A19" s="6" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>16</v>
@@ -5264,16 +5267,16 @@
     </row>
     <row r="20">
       <c r="A20" s="6" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>16</v>
@@ -5312,13 +5315,13 @@
     </row>
     <row r="22">
       <c r="A22" s="5" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="6" t="s">
@@ -5361,16 +5364,16 @@
     </row>
     <row r="24">
       <c r="A24" s="5" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>16</v>
@@ -5409,16 +5412,16 @@
     </row>
     <row r="25">
       <c r="A25" s="6" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>16</v>
@@ -5457,16 +5460,16 @@
     </row>
     <row r="26">
       <c r="A26" s="6" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>16</v>
@@ -5505,16 +5508,16 @@
     </row>
     <row r="27">
       <c r="A27" s="6" t="s">
+        <v>563</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>564</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>565</v>
+      </c>
+      <c r="D27" s="6" t="s">
         <v>562</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>563</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>564</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>561</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>16</v>
@@ -5553,16 +5556,16 @@
     </row>
     <row r="28">
       <c r="A28" s="6" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>16</v>
@@ -5601,16 +5604,16 @@
     </row>
     <row r="29">
       <c r="A29" s="6" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>16</v>
@@ -5649,16 +5652,16 @@
     </row>
     <row r="30">
       <c r="A30" s="6" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="E30" s="6" t="s">
         <v>16</v>
@@ -5697,16 +5700,16 @@
     </row>
     <row r="31">
       <c r="A31" s="5" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>16</v>
@@ -5747,16 +5750,16 @@
     </row>
     <row r="32">
       <c r="A32" s="5" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>16</v>
@@ -5797,16 +5800,16 @@
     </row>
     <row r="33">
       <c r="A33" s="6" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="E33" s="6" t="s">
         <v>16</v>
@@ -5847,13 +5850,13 @@
     </row>
     <row r="34">
       <c r="A34" s="6" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="D34" s="7"/>
       <c r="E34" s="6" t="s">
@@ -5893,13 +5896,13 @@
     </row>
     <row r="35">
       <c r="A35" s="6" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="D35" s="7"/>
       <c r="E35" s="6" t="s">
@@ -5909,7 +5912,7 @@
       <c r="G35" s="7"/>
       <c r="H35" s="7"/>
       <c r="I35" s="6" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="J35" s="7"/>
       <c r="K35" s="19">
@@ -5941,13 +5944,13 @@
     </row>
     <row r="36">
       <c r="A36" s="6" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="D36" s="7"/>
       <c r="E36" s="6" t="s">
@@ -5987,13 +5990,13 @@
     </row>
     <row r="37">
       <c r="A37" s="6" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="D37" s="7"/>
       <c r="E37" s="6" t="s">
@@ -6033,13 +6036,13 @@
     </row>
     <row r="38">
       <c r="A38" s="6" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="D38" s="7"/>
       <c r="E38" s="6" t="s">
@@ -6079,13 +6082,13 @@
     </row>
     <row r="39">
       <c r="A39" s="6" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B39" s="6" t="s">
         <v>215</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="D39" s="7"/>
       <c r="E39" s="6" t="s">
@@ -6125,13 +6128,13 @@
     </row>
     <row r="40">
       <c r="A40" s="6" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B40" s="6" t="s">
         <v>219</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="D40" s="7"/>
       <c r="E40" s="6" t="s">
@@ -6171,16 +6174,16 @@
     </row>
     <row r="41">
       <c r="A41" s="6" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="E41" s="6" t="s">
         <v>16</v>
@@ -6219,13 +6222,13 @@
     </row>
     <row r="42">
       <c r="A42" s="6" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D42" s="7"/>
       <c r="E42" s="6" t="s">
@@ -6265,16 +6268,16 @@
     </row>
     <row r="43">
       <c r="A43" s="6" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="E43" s="6" t="s">
         <v>16</v>
@@ -6313,16 +6316,16 @@
     </row>
     <row r="44">
       <c r="A44" s="6" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E44" s="6" t="s">
         <v>16</v>
@@ -6361,16 +6364,16 @@
     </row>
     <row r="45">
       <c r="A45" s="6" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="E45" s="6" t="s">
         <v>16</v>
@@ -6409,16 +6412,16 @@
     </row>
     <row r="46">
       <c r="A46" s="6" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="E46" s="6" t="s">
         <v>16</v>
@@ -6575,19 +6578,19 @@
     </row>
     <row r="2">
       <c r="A2" s="18" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="D2" s="34" t="s">
         <v>16</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
@@ -6623,19 +6626,19 @@
     </row>
     <row r="3">
       <c r="A3" s="18" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
@@ -6671,19 +6674,19 @@
     </row>
     <row r="4">
       <c r="A4" s="18" t="s">
+        <v>623</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>624</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>625</v>
+      </c>
+      <c r="D4" s="34" t="s">
         <v>622</v>
       </c>
-      <c r="B4" s="18" t="s">
-        <v>623</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>624</v>
-      </c>
-      <c r="D4" s="34" t="s">
+      <c r="E4" s="6" t="s">
         <v>621</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>620</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -6719,19 +6722,19 @@
     </row>
     <row r="5">
       <c r="A5" s="18" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -6767,19 +6770,19 @@
     </row>
     <row r="6">
       <c r="A6" s="18" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="D6" s="34" t="s">
         <v>16</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -6815,22 +6818,22 @@
     </row>
     <row r="7">
       <c r="A7" s="18" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
@@ -6865,19 +6868,19 @@
     </row>
     <row r="8">
       <c r="A8" s="18" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
@@ -6913,19 +6916,19 @@
     </row>
     <row r="9">
       <c r="A9" s="18" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
@@ -6961,19 +6964,19 @@
     </row>
     <row r="10">
       <c r="A10" s="18" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
@@ -7009,19 +7012,19 @@
     </row>
     <row r="11">
       <c r="A11" s="6" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="K11" s="19">
         <v>45627.0</v>
@@ -7036,19 +7039,19 @@
     </row>
     <row r="12">
       <c r="A12" s="18" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
@@ -7084,19 +7087,19 @@
     </row>
     <row r="13">
       <c r="A13" s="6" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
@@ -7132,19 +7135,19 @@
     </row>
     <row r="14">
       <c r="A14" s="6" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
@@ -7318,27 +7321,27 @@
     </row>
     <row r="2">
       <c r="A2" s="6" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="B2" s="5"/>
       <c r="J2" s="10" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="6" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="6" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="6">
@@ -7833,26 +7836,26 @@
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
     </row>
     <row r="3">
       <c r="A3" s="6" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>16</v>
@@ -7862,7 +7865,7 @@
       </c>
       <c r="L3" s="8"/>
       <c r="M3" s="6" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="N3" s="6" t="s">
         <v>39</v>
@@ -7873,16 +7876,16 @@
     </row>
     <row r="4">
       <c r="A4" s="6" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>16</v>
@@ -7892,7 +7895,7 @@
       </c>
       <c r="L4" s="8"/>
       <c r="M4" s="6" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="N4" s="6" t="s">
         <v>39</v>
@@ -7903,16 +7906,16 @@
     </row>
     <row r="5">
       <c r="A5" s="6" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>16</v>
@@ -7922,7 +7925,7 @@
       </c>
       <c r="L5" s="8"/>
       <c r="M5" s="6" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="N5" s="6" t="s">
         <v>39</v>
@@ -7933,16 +7936,16 @@
     </row>
     <row r="6">
       <c r="A6" s="6" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>16</v>
@@ -7952,7 +7955,7 @@
       </c>
       <c r="L6" s="8"/>
       <c r="M6" s="6" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="N6" s="6" t="s">
         <v>39</v>
@@ -7963,16 +7966,16 @@
     </row>
     <row r="7">
       <c r="A7" s="6" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>16</v>
@@ -7982,7 +7985,7 @@
       </c>
       <c r="L7" s="8"/>
       <c r="M7" s="6" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="N7" s="6" t="s">
         <v>39</v>
@@ -7993,16 +7996,16 @@
     </row>
     <row r="8">
       <c r="A8" s="6" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>16</v>
@@ -8012,7 +8015,7 @@
       </c>
       <c r="L8" s="8"/>
       <c r="M8" s="6" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="N8" s="6" t="s">
         <v>39</v>
@@ -8023,16 +8026,16 @@
     </row>
     <row r="9">
       <c r="A9" s="6" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>16</v>
@@ -8042,7 +8045,7 @@
       </c>
       <c r="L9" s="8"/>
       <c r="M9" s="6" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="N9" s="6" t="s">
         <v>39</v>
@@ -8053,16 +8056,16 @@
     </row>
     <row r="10">
       <c r="A10" s="6" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>16</v>
@@ -8072,7 +8075,7 @@
       </c>
       <c r="L10" s="8"/>
       <c r="M10" s="6" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="N10" s="6" t="s">
         <v>39</v>
@@ -8083,16 +8086,16 @@
     </row>
     <row r="11">
       <c r="A11" s="6" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>16</v>
@@ -8102,7 +8105,7 @@
       </c>
       <c r="L11" s="8"/>
       <c r="M11" s="6" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="N11" s="6" t="s">
         <v>39</v>
@@ -8113,16 +8116,16 @@
     </row>
     <row r="12">
       <c r="A12" s="6" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>16</v>
@@ -8132,7 +8135,7 @@
       </c>
       <c r="L12" s="8"/>
       <c r="M12" s="6" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="N12" s="6" t="s">
         <v>39</v>
@@ -8143,16 +8146,16 @@
     </row>
     <row r="13">
       <c r="A13" s="6" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>16</v>
@@ -8161,7 +8164,7 @@
         <v>44727.0</v>
       </c>
       <c r="M13" s="6" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="N13" s="6" t="s">
         <v>39</v>
@@ -8172,16 +8175,16 @@
     </row>
     <row r="14">
       <c r="A14" s="24" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="C14" s="48" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="D14" s="49" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>16</v>
@@ -8191,12 +8194,12 @@
       <c r="H14" s="11"/>
       <c r="I14" s="11"/>
       <c r="J14" s="24" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="K14" s="11"/>
       <c r="L14" s="11"/>
       <c r="M14" s="6" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="N14" s="11"/>
       <c r="O14" s="11"/>
@@ -8219,18 +8222,18 @@
     </row>
     <row r="16">
       <c r="A16" s="5" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="6" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>16</v>
@@ -8239,7 +8242,7 @@
         <v>44727.0</v>
       </c>
       <c r="M17" s="6" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="N17" s="6" t="s">
         <v>39</v>
@@ -8250,13 +8253,13 @@
     </row>
     <row r="18">
       <c r="A18" s="6" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>16</v>
@@ -8266,7 +8269,7 @@
       </c>
       <c r="L18" s="8"/>
       <c r="M18" s="6" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="N18" s="6" t="s">
         <v>39</v>
@@ -8277,13 +8280,13 @@
     </row>
     <row r="19">
       <c r="A19" s="6" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>16</v>
@@ -8293,7 +8296,7 @@
       </c>
       <c r="L19" s="8"/>
       <c r="M19" s="6" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="N19" s="6" t="s">
         <v>39</v>
@@ -8304,13 +8307,13 @@
     </row>
     <row r="20">
       <c r="A20" s="6" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>16</v>
@@ -8320,7 +8323,7 @@
       </c>
       <c r="L20" s="8"/>
       <c r="M20" s="6" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="N20" s="6" t="s">
         <v>39</v>
@@ -8331,13 +8334,13 @@
     </row>
     <row r="21">
       <c r="A21" s="6" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>16</v>
@@ -8347,7 +8350,7 @@
       </c>
       <c r="L21" s="8"/>
       <c r="M21" s="6" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="N21" s="6" t="s">
         <v>39</v>
@@ -8358,13 +8361,13 @@
     </row>
     <row r="22">
       <c r="A22" s="6" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>16</v>
@@ -8374,7 +8377,7 @@
       </c>
       <c r="L22" s="8"/>
       <c r="M22" s="6" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="N22" s="6" t="s">
         <v>39</v>
@@ -8385,10 +8388,10 @@
     </row>
     <row r="24">
       <c r="A24" s="5" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="30"/>
@@ -8397,16 +8400,16 @@
     </row>
     <row r="25">
       <c r="A25" s="6" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="D25" s="30" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>16</v>
@@ -8415,7 +8418,7 @@
         <v>44727.0</v>
       </c>
       <c r="M25" s="6" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="N25" s="6" t="s">
         <v>39</v>
@@ -8426,16 +8429,16 @@
     </row>
     <row r="26">
       <c r="A26" s="6" t="s">
+        <v>734</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>735</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>736</v>
+      </c>
+      <c r="D26" s="30" t="s">
         <v>733</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>734</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>735</v>
-      </c>
-      <c r="D26" s="30" t="s">
-        <v>732</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>16</v>
@@ -8444,7 +8447,7 @@
         <v>44727.0</v>
       </c>
       <c r="M26" s="6" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="N26" s="6" t="s">
         <v>39</v>
@@ -8455,16 +8458,16 @@
     </row>
     <row r="27">
       <c r="A27" s="6" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="D27" s="30" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>16</v>
@@ -8473,7 +8476,7 @@
         <v>44727.0</v>
       </c>
       <c r="M27" s="6" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="N27" s="6" t="s">
         <v>39</v>
@@ -8484,16 +8487,16 @@
     </row>
     <row r="28">
       <c r="A28" s="6" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="D28" s="30" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>16</v>
@@ -8502,7 +8505,7 @@
         <v>44727.0</v>
       </c>
       <c r="M28" s="6" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="N28" s="6" t="s">
         <v>39</v>
@@ -8513,10 +8516,10 @@
     </row>
     <row r="30">
       <c r="A30" s="5" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
@@ -8547,16 +8550,16 @@
     </row>
     <row r="31">
       <c r="A31" s="6" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>16</v>
@@ -8565,10 +8568,10 @@
         <v>44727.0</v>
       </c>
       <c r="M31" s="6" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="N31" s="6" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="O31" s="9" t="s">
         <v>28</v>
@@ -8576,16 +8579,16 @@
     </row>
     <row r="32">
       <c r="A32" s="6" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>16</v>
@@ -8594,10 +8597,10 @@
         <v>44727.0</v>
       </c>
       <c r="M32" s="6" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="N32" s="6" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="O32" s="9" t="s">
         <v>28</v>
@@ -8605,16 +8608,16 @@
     </row>
     <row r="33">
       <c r="A33" s="6" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="E33" s="6" t="s">
         <v>16</v>
@@ -8623,10 +8626,10 @@
         <v>44727.0</v>
       </c>
       <c r="M33" s="6" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="N33" s="6" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="O33" s="9" t="s">
         <v>28</v>
@@ -8634,16 +8637,16 @@
     </row>
     <row r="34">
       <c r="A34" s="6" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>16</v>
@@ -8652,10 +8655,10 @@
         <v>44727.0</v>
       </c>
       <c r="M34" s="6" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="N34" s="6" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="O34" s="9" t="s">
         <v>28</v>
@@ -8663,16 +8666,16 @@
     </row>
     <row r="35">
       <c r="A35" s="6" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="E35" s="6" t="s">
         <v>16</v>
@@ -8681,10 +8684,10 @@
         <v>44727.0</v>
       </c>
       <c r="M35" s="6" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="N35" s="6" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="O35" s="9" t="s">
         <v>28</v>
@@ -8692,16 +8695,16 @@
     </row>
     <row r="36">
       <c r="A36" s="6" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="E36" s="6" t="s">
         <v>16</v>
@@ -8710,10 +8713,10 @@
         <v>44727.0</v>
       </c>
       <c r="M36" s="6" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="N36" s="6" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="O36" s="9" t="s">
         <v>28</v>
@@ -8721,37 +8724,37 @@
     </row>
     <row r="38">
       <c r="A38" s="5" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="K38" s="8"/>
     </row>
     <row r="39">
       <c r="A39" s="6" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="E39" s="6" t="s">
         <v>16</v>
       </c>
       <c r="I39" s="6" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="K39" s="8">
         <v>44727.0</v>
       </c>
       <c r="M39" s="6" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="N39" s="6" t="s">
         <v>39</v>
@@ -8762,28 +8765,28 @@
     </row>
     <row r="40">
       <c r="A40" s="6" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="E40" s="6" t="s">
         <v>16</v>
       </c>
       <c r="I40" s="6" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="K40" s="8">
         <v>44727.0</v>
       </c>
       <c r="M40" s="6" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="N40" s="6" t="s">
         <v>39</v>
@@ -8794,21 +8797,21 @@
     </row>
     <row r="42">
       <c r="A42" s="5" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="32" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="C43" s="32" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="D43" s="35" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="E43" s="6" t="s">
         <v>16</v>
@@ -8817,7 +8820,7 @@
         <v>44727.0</v>
       </c>
       <c r="M43" s="6" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="N43" s="6" t="s">
         <v>39</v>
@@ -8828,16 +8831,16 @@
     </row>
     <row r="44">
       <c r="A44" s="50" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="B44" s="50" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="C44" s="51" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="D44" s="52" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="E44" s="11" t="s">
         <v>16</v>
@@ -8852,7 +8855,7 @@
       </c>
       <c r="L44" s="11"/>
       <c r="M44" s="6" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="N44" s="11" t="s">
         <v>39</v>
@@ -8878,16 +8881,16 @@
     </row>
     <row r="45">
       <c r="A45" s="50" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="B45" s="50" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="C45" s="51" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="D45" s="55" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="E45" s="11" t="s">
         <v>16</v>
@@ -8902,7 +8905,7 @@
       </c>
       <c r="L45" s="11"/>
       <c r="M45" s="6" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="N45" s="11" t="s">
         <v>39</v>
@@ -8928,16 +8931,16 @@
     </row>
     <row r="46">
       <c r="A46" s="50" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="B46" s="50" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="C46" s="51" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="D46" s="55" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="E46" s="11" t="s">
         <v>16</v>
@@ -8952,7 +8955,7 @@
       </c>
       <c r="L46" s="11"/>
       <c r="M46" s="6" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="N46" s="11" t="s">
         <v>39</v>
@@ -12700,7 +12703,9 @@
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
+      <c r="I9" s="6" t="s">
+        <v>325</v>
+      </c>
       <c r="J9" s="6" t="s">
         <v>312</v>
       </c>
@@ -12736,13 +12741,13 @@
     </row>
     <row r="10">
       <c r="A10" s="21" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="6" t="s">
@@ -12753,7 +12758,7 @@
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
       <c r="J10" s="21" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="K10" s="8">
         <v>45421.0</v>
@@ -12783,13 +12788,13 @@
     </row>
     <row r="11">
       <c r="A11" s="21" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="6" t="s">
@@ -12800,7 +12805,7 @@
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
       <c r="J11" s="11" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="K11" s="8">
         <v>45421.0</v>
@@ -12830,13 +12835,13 @@
     </row>
     <row r="12">
       <c r="A12" s="21" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="6" t="s">
@@ -12847,7 +12852,7 @@
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
       <c r="J12" s="11" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="K12" s="8">
         <v>45421.0</v>
@@ -12877,13 +12882,13 @@
     </row>
     <row r="13">
       <c r="A13" s="21" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="6" t="s">
@@ -12894,7 +12899,7 @@
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
       <c r="J13" s="11" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="K13" s="8">
         <v>45421.0</v>
@@ -12924,13 +12929,13 @@
     </row>
     <row r="14">
       <c r="A14" s="21" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="6" t="s">
@@ -12941,7 +12946,7 @@
       <c r="H14" s="11"/>
       <c r="I14" s="11"/>
       <c r="J14" s="11" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="K14" s="8">
         <v>45421.0</v>
@@ -12971,13 +12976,13 @@
     </row>
     <row r="15">
       <c r="A15" s="21" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="6" t="s">
@@ -12988,7 +12993,7 @@
       <c r="H15" s="11"/>
       <c r="I15" s="11"/>
       <c r="J15" s="11" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="K15" s="8">
         <v>45421.0</v>
@@ -13018,13 +13023,13 @@
     </row>
     <row r="16">
       <c r="A16" s="21" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="6" t="s">
@@ -13035,7 +13040,7 @@
       <c r="H16" s="11"/>
       <c r="I16" s="11"/>
       <c r="J16" s="11" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="K16" s="8">
         <v>45421.0</v>
@@ -13065,13 +13070,13 @@
     </row>
     <row r="17">
       <c r="A17" s="21" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="6" t="s">
@@ -13082,7 +13087,7 @@
       <c r="H17" s="11"/>
       <c r="I17" s="11"/>
       <c r="J17" s="11" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="K17" s="8">
         <v>45421.0</v>
@@ -13112,13 +13117,13 @@
     </row>
     <row r="18">
       <c r="A18" s="6" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="6" t="s">
@@ -13128,7 +13133,7 @@
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
       <c r="I18" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="J18" s="6" t="s">
         <v>312</v>
@@ -13161,16 +13166,16 @@
     </row>
     <row r="19">
       <c r="A19" s="6" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>311</v>
@@ -13210,16 +13215,16 @@
     </row>
     <row r="20">
       <c r="A20" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="D20" s="6" t="s">
         <v>349</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>349</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>350</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>348</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>311</v>
@@ -13259,16 +13264,16 @@
     </row>
     <row r="21">
       <c r="A21" s="6" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>311</v>
@@ -13308,13 +13313,13 @@
     </row>
     <row r="22">
       <c r="A22" s="6" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="6" t="s">
@@ -13353,13 +13358,13 @@
     </row>
     <row r="23">
       <c r="A23" s="6" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D23" s="7"/>
       <c r="E23" s="6" t="s">
@@ -13398,13 +13403,13 @@
     </row>
     <row r="24">
       <c r="A24" s="6" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D24" s="7"/>
       <c r="E24" s="6" t="s">
@@ -13414,7 +13419,7 @@
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
       <c r="I24" s="6" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="J24" s="7"/>
       <c r="K24" s="8">
@@ -13559,22 +13564,22 @@
     </row>
     <row r="2">
       <c r="A2" s="18" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="G2" s="26"/>
       <c r="H2" s="26"/>
@@ -13607,13 +13612,13 @@
     </row>
     <row r="3">
       <c r="A3" s="18" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>16</v>
@@ -13622,7 +13627,7 @@
         <v>317</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="G3" s="26"/>
       <c r="H3" s="26"/>
@@ -13655,22 +13660,22 @@
     </row>
     <row r="4">
       <c r="A4" s="18" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E4" s="25" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="G4" s="26"/>
       <c r="H4" s="26"/>
@@ -13703,13 +13708,13 @@
     </row>
     <row r="5">
       <c r="A5" s="18" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>16</v>
@@ -13718,7 +13723,7 @@
         <v>322</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="G5" s="26"/>
       <c r="H5" s="26"/>
@@ -13751,22 +13756,22 @@
     </row>
     <row r="6">
       <c r="A6" s="18" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
@@ -13799,22 +13804,22 @@
     </row>
     <row r="7">
       <c r="A7" s="18" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
@@ -13847,22 +13852,22 @@
     </row>
     <row r="8">
       <c r="A8" s="21" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
@@ -13895,22 +13900,22 @@
     </row>
     <row r="9">
       <c r="A9" s="21" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
@@ -13943,22 +13948,22 @@
     </row>
     <row r="10">
       <c r="A10" s="21" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
@@ -13991,22 +13996,22 @@
     </row>
     <row r="11">
       <c r="A11" s="21" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
@@ -14039,22 +14044,22 @@
     </row>
     <row r="12">
       <c r="A12" s="21" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
@@ -14087,22 +14092,22 @@
     </row>
     <row r="13">
       <c r="A13" s="21" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
@@ -14135,22 +14140,22 @@
     </row>
     <row r="14">
       <c r="A14" s="21" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
@@ -14183,22 +14188,22 @@
     </row>
     <row r="15">
       <c r="A15" s="21" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
@@ -14231,22 +14236,22 @@
     </row>
     <row r="16">
       <c r="A16" s="6" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
@@ -14279,22 +14284,22 @@
     </row>
     <row r="17">
       <c r="A17" s="6" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
@@ -14327,22 +14332,22 @@
     </row>
     <row r="18">
       <c r="A18" s="6" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
@@ -14375,22 +14380,22 @@
     </row>
     <row r="19">
       <c r="A19" s="6" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
@@ -14556,13 +14561,13 @@
     </row>
     <row r="4">
       <c r="A4" s="18" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="6" t="s">
@@ -14603,13 +14608,13 @@
     </row>
     <row r="5">
       <c r="A5" s="18" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="6" t="s">
@@ -14648,13 +14653,13 @@
     </row>
     <row r="6">
       <c r="A6" s="18" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="6" t="s">
@@ -14695,13 +14700,13 @@
     </row>
     <row r="7">
       <c r="A7" s="18" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="6" t="s">
@@ -14740,13 +14745,13 @@
     </row>
     <row r="8">
       <c r="A8" s="18" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="6" t="s">
@@ -14785,16 +14790,16 @@
     </row>
     <row r="9">
       <c r="A9" s="18" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>99</v>
@@ -14832,16 +14837,16 @@
     </row>
     <row r="10">
       <c r="A10" s="21" t="s">
+        <v>446</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>447</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>448</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>445</v>
-      </c>
-      <c r="B10" s="21" t="s">
-        <v>446</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>447</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>444</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>99</v>
@@ -15201,13 +15206,13 @@
     </row>
     <row r="3">
       <c r="A3" s="6" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="K3" s="8"/>
     </row>
     <row r="4">
       <c r="A4" s="18" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B4" s="18"/>
       <c r="C4" s="18"/>
@@ -15218,7 +15223,7 @@
     </row>
     <row r="5">
       <c r="A5" s="18" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
@@ -15227,16 +15232,16 @@
     </row>
     <row r="6">
       <c r="A6" s="18" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>25</v>
@@ -15274,16 +15279,16 @@
     </row>
     <row r="7">
       <c r="A7" s="18" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>25</v>
@@ -15323,17 +15328,17 @@
     </row>
     <row r="8">
       <c r="A8" s="18" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="6" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
@@ -15368,17 +15373,17 @@
     </row>
     <row r="9">
       <c r="A9" s="18" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="6" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
@@ -15413,16 +15418,16 @@
     </row>
     <row r="10">
       <c r="A10" s="21" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>25</v>
@@ -15460,17 +15465,17 @@
     </row>
     <row r="11">
       <c r="A11" s="21" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="6" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
@@ -15505,17 +15510,17 @@
     </row>
     <row r="12">
       <c r="A12" s="21" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="6" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
@@ -15550,16 +15555,16 @@
     </row>
     <row r="13">
       <c r="A13" s="6" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>25</v>

--- a/code/vocab_csv/tech.xlsx
+++ b/code/vocab_csv/tech.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1843" uniqueCount="790">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1843" uniqueCount="792">
   <si>
     <t>Term</t>
   </si>
@@ -594,10 +594,10 @@
     <t>TechnologyProvisionMethod</t>
   </si>
   <si>
-    <t>FixedUseProvision</t>
-  </si>
-  <si>
-    <t>Fixed Use Provision</t>
+    <t>ProvidedAsFixedUse</t>
+  </si>
+  <si>
+    <t>Provided as Fixed UseProvision</t>
   </si>
   <si>
     <t>Technology provided for using a fixed number of times</t>
@@ -606,1222 +606,1228 @@
     <t>modified</t>
   </si>
   <si>
-    <t>SubscriptionProvision</t>
-  </si>
-  <si>
-    <t>Subscription Provision</t>
+    <t>ProvidedAsSubscription</t>
+  </si>
+  <si>
+    <t>Provided as SubscriptionProvision</t>
   </si>
   <si>
     <t xml:space="preserve">Technology that is provided or used as a periodic subscription </t>
   </si>
   <si>
-    <t>ProductProvision</t>
-  </si>
-  <si>
-    <t>Product Provision</t>
+    <t>ProvidedAsProduct</t>
+  </si>
+  <si>
+    <t>Provided as ProductProvision</t>
   </si>
   <si>
     <t>Technology provided as a product</t>
   </si>
   <si>
-    <t>GoodsProvision</t>
-  </si>
-  <si>
-    <t>Goods Provision</t>
+    <t>ProvidedAsGoods</t>
+  </si>
+  <si>
+    <t>Provided as GoodsProvision</t>
   </si>
   <si>
     <t>Technology provided or used as goods</t>
   </si>
   <si>
-    <t>ServiceProvision</t>
-  </si>
-  <si>
-    <t>Service Provision</t>
+    <t>ProvidedAsService</t>
+  </si>
+  <si>
+    <t>Provided as ServiceProvision</t>
   </si>
   <si>
     <t>Technology provided or used as service(s)</t>
   </si>
   <si>
-    <t>AlgorithmicProvision</t>
-  </si>
-  <si>
-    <t>Algorithmic Provision</t>
+    <t>ProvidedAsAlgorithmic</t>
+  </si>
+  <si>
+    <t>Provided as AlgorithmicProvision</t>
   </si>
   <si>
     <t>Technology provided as an algorithm or method</t>
   </si>
   <si>
-    <t>SystemProvision</t>
-  </si>
-  <si>
-    <t>System Provision</t>
+    <t>ProvidedAsSystem</t>
+  </si>
+  <si>
+    <t>Provided as SystemProvision</t>
   </si>
   <si>
     <t>Technology provided as a system</t>
   </si>
   <si>
-    <t>ComponentProvision</t>
-  </si>
-  <si>
-    <t>Component Provision</t>
+    <t>ProvidedAsComponent</t>
+  </si>
+  <si>
+    <t>Provided as ComponentProvision</t>
   </si>
   <si>
     <t>Technology provided as a component</t>
   </si>
   <si>
-    <t>CloudServiceProvision</t>
+    <t>ProvidedAsCloudService</t>
+  </si>
+  <si>
+    <t>Provided as Cloud ServiceProvision</t>
+  </si>
+  <si>
+    <t>Technology provided as a cloud service</t>
+  </si>
+  <si>
+    <t>tech:ProvidedAsService</t>
+  </si>
+  <si>
+    <t>ProvidedAsIaaS</t>
+  </si>
+  <si>
+    <t>Provided as Infrastructure as a Service (IaaS)Provision</t>
+  </si>
+  <si>
+    <t>Technology provided as a cloud service consisting of managed infrastructure resources</t>
+  </si>
+  <si>
+    <t>tech:ProvidedAsCloudService</t>
+  </si>
+  <si>
+    <t>ProvidedAsPaaS</t>
+  </si>
+  <si>
+    <t>Provided as Platform as a Service (PaaS)Provision</t>
+  </si>
+  <si>
+    <t>Technology provided as a cloud service consisting of managed platform resources</t>
+  </si>
+  <si>
+    <t>ProvidedAsSaaS</t>
+  </si>
+  <si>
+    <t>Provided as Software as a Service (SaaS)Provision</t>
+  </si>
+  <si>
+    <t>Technology provided as a cloud service consisting of managed software resources</t>
+  </si>
+  <si>
+    <t>ProvidedAsCaaS</t>
+  </si>
+  <si>
+    <t>Provided as Compute as a Service (CaaS)Provision</t>
+  </si>
+  <si>
+    <t>Technology provided as a cloud service consisting of managed compute resources</t>
+  </si>
+  <si>
+    <t>ProvidedAsMBaaS</t>
+  </si>
+  <si>
+    <t>Provided as Mobile backend as a ServiceProvision</t>
+  </si>
+  <si>
+    <t>Technology provided as a cloud service consisting of managed 'backend' services for mobile users</t>
+  </si>
+  <si>
+    <t>ProvidedAsServerlessComputing</t>
+  </si>
+  <si>
+    <t>Provided as Serverless ComputingProvision</t>
+  </si>
+  <si>
+    <t>Technology provided as a cloud service consisting of fully managed servers for executing functions</t>
+  </si>
+  <si>
+    <t>ProvidedAsPrivateCloudService</t>
+  </si>
+  <si>
+    <t>Provided as Private Cloud ServiceProvision</t>
+  </si>
+  <si>
+    <t>Technology provided as a cloud service that is private</t>
+  </si>
+  <si>
+    <t>Tek Raj Chhetri</t>
+  </si>
+  <si>
+    <t>ProvidedAsPublicCloudService</t>
+  </si>
+  <si>
+    <t>Provided as Public Cloud ServiceProvision</t>
+  </si>
+  <si>
+    <t>Technology provided as a cloud service that is public</t>
+  </si>
+  <si>
+    <t>ProvidedAsHybridCloudService</t>
+  </si>
+  <si>
+    <t>Provided as Hybrid Cloud ServiceProvision</t>
+  </si>
+  <si>
+    <t>Technology provided as a cloud service that is both private and public in parts</t>
+  </si>
+  <si>
+    <t>tech:ProvidedAsPrivateCloudService,tech:ProvidedAsPublicCloudService</t>
+  </si>
+  <si>
+    <t>Proposed for v2.2</t>
+  </si>
+  <si>
+    <t>ConceptStage</t>
+  </si>
+  <si>
+    <t>Concept Stage</t>
+  </si>
+  <si>
+    <t>DevelopmentStage</t>
+  </si>
+  <si>
+    <t>Development Stage</t>
+  </si>
+  <si>
+    <t>ProductionStage</t>
+  </si>
+  <si>
+    <t>Production Stage</t>
+  </si>
+  <si>
+    <t>UtilisationStage</t>
+  </si>
+  <si>
+    <t>Utilisation Stage</t>
+  </si>
+  <si>
+    <t>SupportStage</t>
+  </si>
+  <si>
+    <t>Support Stage</t>
+  </si>
+  <si>
+    <t>RetirementStage</t>
+  </si>
+  <si>
+    <t>Retirement Stage</t>
+  </si>
+  <si>
+    <t>ChangeDescription</t>
+  </si>
+  <si>
+    <t>ChangeStatus</t>
+  </si>
+  <si>
+    <t>ChangeProposed</t>
+  </si>
+  <si>
+    <t>ChangeApproved</t>
+  </si>
+  <si>
+    <t>ChangeRequested</t>
+  </si>
+  <si>
+    <t>ChangeAuthorised</t>
+  </si>
+  <si>
+    <t>ChangeVerified</t>
+  </si>
+  <si>
+    <t>ChangePlanned</t>
+  </si>
+  <si>
+    <t>ChangePending</t>
+  </si>
+  <si>
+    <t>ChangeScheduled</t>
+  </si>
+  <si>
+    <t>ChangeOngoing</t>
+  </si>
+  <si>
+    <t>ChangeCompleted</t>
+  </si>
+  <si>
+    <t>ChangeFailed</t>
+  </si>
+  <si>
+    <t>ChangePaused</t>
+  </si>
+  <si>
+    <t>ChangeReverted</t>
+  </si>
+  <si>
+    <t>ChangeCategory</t>
+  </si>
+  <si>
+    <t>SystematicChangeCategory</t>
+  </si>
+  <si>
+    <t>SystematicChange</t>
+  </si>
+  <si>
+    <t>AdhocChange</t>
+  </si>
+  <si>
+    <t>PlannedChangeCategory</t>
+  </si>
+  <si>
+    <t>PlannedChange</t>
+  </si>
+  <si>
+    <t>Vague broad notion of change planned</t>
+  </si>
+  <si>
+    <t>UnplannedChange</t>
+  </si>
+  <si>
+    <t>Change that is not planned</t>
+  </si>
+  <si>
+    <t>PredeterminedChangeCategory</t>
+  </si>
+  <si>
+    <t>PredeterminedChange</t>
+  </si>
+  <si>
+    <t>Specific determination of change in terms of what to change or when to change - can include reaction to external factors</t>
+  </si>
+  <si>
+    <t>NonpredeterminedChange</t>
+  </si>
+  <si>
+    <t>Change that is not predetermined but is planned</t>
+  </si>
+  <si>
+    <t>IntendedChangeCategory</t>
+  </si>
+  <si>
+    <t>IntendedChange</t>
+  </si>
+  <si>
+    <t>UnintendedChange</t>
+  </si>
+  <si>
+    <t>RateOfChangeCategory</t>
+  </si>
+  <si>
+    <t>GradualChange</t>
+  </si>
+  <si>
+    <t>InstantaneousChange</t>
+  </si>
+  <si>
+    <t>ReversibilityOfChangeCategory</t>
+  </si>
+  <si>
+    <t>ReversibleChange</t>
+  </si>
+  <si>
+    <t>IrreversibleChange</t>
+  </si>
+  <si>
+    <t>TransformationChangeCategory</t>
+  </si>
+  <si>
+    <t>IncrementalChange</t>
+  </si>
+  <si>
+    <t>TransformativeChange</t>
+  </si>
+  <si>
+    <t>ControlOverChangeCategory</t>
+  </si>
+  <si>
+    <t>ControlledChange</t>
+  </si>
+  <si>
+    <t>UncontrolledChange</t>
+  </si>
+  <si>
+    <t>TemporalChangeCategory</t>
+  </si>
+  <si>
+    <t>TemporaryChange</t>
+  </si>
+  <si>
+    <t>LastingChange</t>
+  </si>
+  <si>
+    <t>Actors involved in technologies</t>
+  </si>
+  <si>
+    <t>Provider</t>
+  </si>
+  <si>
+    <t>Actor that provides Technology</t>
+  </si>
+  <si>
+    <t>tech:Actor</t>
+  </si>
+  <si>
+    <t>ISO/IEC 22989:2022</t>
+  </si>
+  <si>
+    <t>Producer</t>
+  </si>
+  <si>
+    <t>Actor that produces Technology</t>
+  </si>
+  <si>
+    <t>Developer</t>
+  </si>
+  <si>
+    <t>Actor that develops Technology</t>
+  </si>
+  <si>
+    <t>tech:Producer</t>
+  </si>
+  <si>
+    <t>Customer</t>
+  </si>
+  <si>
+    <t>Actor that uses Technology directly or indirectly by providing it to Users</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>Actor that uses Technology</t>
+  </si>
+  <si>
+    <t>tech:Customer</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>Actor that is subjected to the use or impact of Technology</t>
+  </si>
+  <si>
+    <t>Subject can be a human or non-human entity. To explicitly indicate that the subject is a human, and to reuse DPV's human subject taxonomy, the tech:Subject should also be defined as an instance or category of dpv:HumanSubject</t>
+  </si>
+  <si>
+    <t>Deployer</t>
+  </si>
+  <si>
+    <t>Actor that deploys Technology</t>
+  </si>
+  <si>
+    <t>AI Act</t>
+  </si>
+  <si>
+    <t>Designer</t>
+  </si>
+  <si>
+    <t>Actor that designs Technology</t>
+  </si>
+  <si>
+    <t>DGA 26.3</t>
+  </si>
+  <si>
+    <t>Installer</t>
+  </si>
+  <si>
+    <t>Actor that installs Technology</t>
+  </si>
+  <si>
+    <t>Maintainer</t>
+  </si>
+  <si>
+    <t>Actor that maintains Technology</t>
+  </si>
+  <si>
+    <t>Manufacturer</t>
+  </si>
+  <si>
+    <t>Actor that manufactures Technology</t>
+  </si>
+  <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>Actor that owns Technology</t>
+  </si>
+  <si>
+    <t>Purchaser</t>
+  </si>
+  <si>
+    <t>Actor that purchases Technology</t>
+  </si>
+  <si>
+    <t>Supplier</t>
+  </si>
+  <si>
+    <t>Actor that supplies Technology</t>
+  </si>
+  <si>
+    <t>Partner</t>
+  </si>
+  <si>
+    <t>Actor that provides services in the context of Technology</t>
+  </si>
+  <si>
+    <t>"Partner" is a vague term and should not be used - instead the more specific terms provided in this vocabulary should be used. Partner refers to entities that provide services for the technology (as opposed to for using the technology) - for example to further develop or refine it, or to test or audit it.</t>
+  </si>
+  <si>
+    <t>Evaluator</t>
+  </si>
+  <si>
+    <t>Actor that evaluates the performance of Technology</t>
+  </si>
+  <si>
+    <t>tech:Partner</t>
+  </si>
+  <si>
+    <t>Auditor</t>
+  </si>
+  <si>
+    <t>Actor that audits Technology for conformance to policies, standards, or legal requirements</t>
+  </si>
+  <si>
+    <t>SystemIntegrator</t>
+  </si>
+  <si>
+    <t>System Integrator</t>
+  </si>
+  <si>
+    <t>Actor that integrates Technology in to (larger) systems</t>
+  </si>
+  <si>
+    <t>Importer</t>
+  </si>
+  <si>
+    <t>Actor that imports the Technology within a jurisdiction</t>
+  </si>
+  <si>
+    <t>Distributor</t>
+  </si>
+  <si>
+    <t>Actor that distributes the Technology</t>
+  </si>
+  <si>
+    <t>Operator</t>
+  </si>
+  <si>
+    <t>Actor that operates the Technology</t>
+  </si>
+  <si>
+    <t>Operator and User are similar concepts but may refer to different actors, for example in the scenario where the user determines what actions to perform on the technology and the operator executes these actions by operating the technology</t>
+  </si>
+  <si>
+    <t>hasProvider</t>
+  </si>
+  <si>
+    <t>has provider</t>
+  </si>
+  <si>
+    <t>Indicates technology provider</t>
+  </si>
+  <si>
+    <t>tech:Provider</t>
+  </si>
+  <si>
+    <t>tech:hasActor</t>
+  </si>
+  <si>
+    <t>hasProducer</t>
+  </si>
+  <si>
+    <t>has producer</t>
+  </si>
+  <si>
+    <t>Indicates technology producer</t>
+  </si>
+  <si>
+    <t>hasDeveloper</t>
+  </si>
+  <si>
+    <t>has developer</t>
+  </si>
+  <si>
+    <t>Indicates technology developer</t>
+  </si>
+  <si>
+    <t>tech:Developer</t>
+  </si>
+  <si>
+    <t>hasCustomer</t>
+  </si>
+  <si>
+    <t>has customer</t>
+  </si>
+  <si>
+    <t>Indicates technology customer</t>
+  </si>
+  <si>
+    <t>hasUser</t>
+  </si>
+  <si>
+    <t>has user</t>
+  </si>
+  <si>
+    <t>Indicates technology user</t>
+  </si>
+  <si>
+    <t>tech:User</t>
+  </si>
+  <si>
+    <t>hasSubject</t>
+  </si>
+  <si>
+    <t>has subject</t>
+  </si>
+  <si>
+    <t>Indicates technology subject</t>
+  </si>
+  <si>
+    <t>tech:Subject</t>
+  </si>
+  <si>
+    <t>hasDeployer</t>
+  </si>
+  <si>
+    <t>has deployer</t>
+  </si>
+  <si>
+    <t>Indicates technology deployer</t>
+  </si>
+  <si>
+    <t>tech:Deployer</t>
+  </si>
+  <si>
+    <t>hasDesigner</t>
+  </si>
+  <si>
+    <t>has designer</t>
+  </si>
+  <si>
+    <t>Indicates technology designer</t>
+  </si>
+  <si>
+    <t>tech:Designer</t>
+  </si>
+  <si>
+    <t>hasInstaller</t>
+  </si>
+  <si>
+    <t>has installer</t>
+  </si>
+  <si>
+    <t>Indicates technology installer</t>
+  </si>
+  <si>
+    <t>tech:Installer</t>
+  </si>
+  <si>
+    <t>hasMaintainer</t>
+  </si>
+  <si>
+    <t>has maintainer</t>
+  </si>
+  <si>
+    <t>Indicates technology maintainer</t>
+  </si>
+  <si>
+    <t>tech:Maintainer</t>
+  </si>
+  <si>
+    <t>hasManufacturer</t>
+  </si>
+  <si>
+    <t>has manufacturer</t>
+  </si>
+  <si>
+    <t>Indicates technology manufacturer</t>
+  </si>
+  <si>
+    <t>tech:Manufacturer</t>
+  </si>
+  <si>
+    <t>hasOwner</t>
+  </si>
+  <si>
+    <t>has owner</t>
+  </si>
+  <si>
+    <t>Indicates technology owner</t>
+  </si>
+  <si>
+    <t>tech:Owner</t>
+  </si>
+  <si>
+    <t>hasPurchaser</t>
+  </si>
+  <si>
+    <t>has purchaser</t>
+  </si>
+  <si>
+    <t>Indicates technology purchaser</t>
+  </si>
+  <si>
+    <t>tech:Purchaser</t>
+  </si>
+  <si>
+    <t>hasSupplier</t>
+  </si>
+  <si>
+    <t>has supplier</t>
+  </si>
+  <si>
+    <t>Indicates technology supplier</t>
+  </si>
+  <si>
+    <t>tech:Supplier</t>
+  </si>
+  <si>
+    <t>hasPartner</t>
+  </si>
+  <si>
+    <t>has partner</t>
+  </si>
+  <si>
+    <t>Indicates technology partner</t>
+  </si>
+  <si>
+    <t>hasEvaluator</t>
+  </si>
+  <si>
+    <t>has evaluator</t>
+  </si>
+  <si>
+    <t>Indicates technology evaluator</t>
+  </si>
+  <si>
+    <t>tech:Evaluator</t>
+  </si>
+  <si>
+    <t>hasAuditor</t>
+  </si>
+  <si>
+    <t>has auditor</t>
+  </si>
+  <si>
+    <t>Indicates technology auditor</t>
+  </si>
+  <si>
+    <t>tech:Auditor</t>
+  </si>
+  <si>
+    <t>hasSystemIntegrator</t>
+  </si>
+  <si>
+    <t>has system integrator</t>
+  </si>
+  <si>
+    <t>Indicates technology system integrator</t>
+  </si>
+  <si>
+    <t>tech:SystemIntegrator</t>
+  </si>
+  <si>
+    <t>Manual</t>
+  </si>
+  <si>
+    <t>Documentation that provides instructions for using, maintaining, developing, or performing other activities regarding the technology</t>
+  </si>
+  <si>
+    <t>Guide</t>
+  </si>
+  <si>
+    <t>Documentation that provides guidance regarding the technology</t>
+  </si>
+  <si>
+    <t>Instructions</t>
+  </si>
+  <si>
+    <t>Instructions related to technology</t>
+  </si>
+  <si>
+    <t>Specification</t>
+  </si>
+  <si>
+    <t>Documentation that specifies requirements that must be satisfied by the technology</t>
+  </si>
+  <si>
+    <t>Plan</t>
+  </si>
+  <si>
+    <t>Plan associated with using, maintaining, developing, or performing other activities associated with technology</t>
+  </si>
+  <si>
+    <t>TestingPlan</t>
+  </si>
+  <si>
+    <t>Testing Plan</t>
+  </si>
+  <si>
+    <t>Plan associated with testing technology</t>
+  </si>
+  <si>
+    <t>tech:Plan</t>
+  </si>
+  <si>
+    <t>DevelopmentPlan</t>
+  </si>
+  <si>
+    <t>Development Plan</t>
+  </si>
+  <si>
+    <t>Plan associated with developing technology</t>
+  </si>
+  <si>
+    <t>dpv:Status</t>
+  </si>
+  <si>
+    <t>DevelopmentStatus</t>
+  </si>
+  <si>
+    <t>DeploymentStatus</t>
+  </si>
+  <si>
+    <t>TechnologyStatus</t>
+  </si>
+  <si>
+    <t>Technology Status</t>
+  </si>
+  <si>
+    <t>Status associated with development, deployment, and use of technology</t>
+  </si>
+  <si>
+    <t>MarketAvailabilityStatus</t>
+  </si>
+  <si>
+    <t>Market Availability Status</t>
+  </si>
+  <si>
+    <t>Status indicating whether Technology is available on the market</t>
+  </si>
+  <si>
+    <t>tech:TechnologyStatus</t>
+  </si>
+  <si>
+    <t>MarketAvailable</t>
+  </si>
+  <si>
+    <t>Market Available</t>
+  </si>
+  <si>
+    <t>Status indicating Technology is available on the market</t>
+  </si>
+  <si>
+    <t>tech:MarketAvailabilityStatus</t>
+  </si>
+  <si>
+    <t>MarketUnavailable</t>
+  </si>
+  <si>
+    <t>Market Unavailable</t>
+  </si>
+  <si>
+    <t>Status indicating Technology is unavailable on the market</t>
+  </si>
+  <si>
+    <t>ProvisionStatus</t>
+  </si>
+  <si>
+    <t>Provision Status</t>
+  </si>
+  <si>
+    <t>Status indicating whether Technology has been provided</t>
+  </si>
+  <si>
+    <t>Provided</t>
+  </si>
+  <si>
+    <t>Status indicating Technology has been provided</t>
+  </si>
+  <si>
+    <t>tech:ProvisionStatus</t>
+  </si>
+  <si>
+    <t>NotProvided</t>
+  </si>
+  <si>
+    <t>Not Provided</t>
+  </si>
+  <si>
+    <t>Status indicating Technology has not been provided</t>
+  </si>
+  <si>
+    <t>TechnologyReadinessLevel</t>
+  </si>
+  <si>
+    <t>Technology Readiness Level (TRL)</t>
+  </si>
+  <si>
+    <t>Indication of maturity of Technology (ISO 16290:2013)</t>
+  </si>
+  <si>
+    <t>hasTRL</t>
+  </si>
+  <si>
+    <t>has TRL</t>
+  </si>
+  <si>
+    <t>Indicates technology maturity level</t>
+  </si>
+  <si>
+    <t>tech:TechnologyReadinessLevel</t>
+  </si>
+  <si>
+    <t>dpv:hasStatus</t>
+  </si>
+  <si>
+    <t>hasMarketAvailabilityStatus</t>
+  </si>
+  <si>
+    <t>has market availability status</t>
+  </si>
+  <si>
+    <t>Indicates whether the technology is available on the market</t>
+  </si>
+  <si>
+    <t>hasProvisionStatus</t>
+  </si>
+  <si>
+    <t>has provision status</t>
+  </si>
+  <si>
+    <t>Indicates whether the technology has been provided</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>How technology communicates</t>
+  </si>
+  <si>
+    <t>Networking</t>
+  </si>
+  <si>
+    <t>Technology utilising networking</t>
+  </si>
+  <si>
+    <t>LocalNetwork</t>
+  </si>
+  <si>
+    <t>Local Network</t>
+  </si>
+  <si>
+    <t>Technology utilising local networking</t>
+  </si>
+  <si>
+    <t>tech:Networking</t>
+  </si>
+  <si>
+    <t>Internet</t>
+  </si>
+  <si>
+    <t>Technology utilising internet</t>
+  </si>
+  <si>
+    <t>WiFi</t>
+  </si>
+  <si>
+    <t>Technology utilising wifi wireless networking</t>
+  </si>
+  <si>
+    <t>Bluetooth</t>
+  </si>
+  <si>
+    <t>Technology utilising bluetooth</t>
+  </si>
+  <si>
+    <t>CellularNetwork</t>
+  </si>
+  <si>
+    <t>Cellular Network</t>
+  </si>
+  <si>
+    <t>Technology utilising cellular networking</t>
+  </si>
+  <si>
+    <t>GPS</t>
+  </si>
+  <si>
+    <t>Technology utilising GPS</t>
+  </si>
+  <si>
+    <t>Specific instances of technologies</t>
+  </si>
+  <si>
+    <t>Software</t>
+  </si>
+  <si>
+    <t>Virtual parts or components of the technology such as programs and data</t>
+  </si>
+  <si>
+    <t>DataStorage</t>
+  </si>
+  <si>
+    <t>Data Storage</t>
+  </si>
+  <si>
+    <t>Technology associated with storage of data</t>
+  </si>
+  <si>
+    <t>tech:Software</t>
+  </si>
+  <si>
+    <t>Database</t>
+  </si>
+  <si>
+    <t>A database, database management system (DBMS), or application database</t>
+  </si>
+  <si>
+    <t>tech:DataStorage</t>
+  </si>
+  <si>
+    <t>CloudStorage</t>
+  </si>
+  <si>
+    <t>Cloud Storage</t>
+  </si>
+  <si>
+    <t>Storage utilising cloud technologies</t>
+  </si>
+  <si>
+    <t>LocalStorage</t>
+  </si>
+  <si>
+    <t>Local Storage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Storage that is local (e.g. on device) </t>
+  </si>
+  <si>
+    <t>Cookie</t>
+  </si>
+  <si>
+    <t>A HTTP or web or internet cookie</t>
+  </si>
+  <si>
+    <t>tech:LocalStorage</t>
+  </si>
+  <si>
+    <t>Application</t>
+  </si>
+  <si>
+    <t>Application or Application Software</t>
+  </si>
+  <si>
+    <t>SmartphoneApplication</t>
+  </si>
+  <si>
+    <t>Smartphone Application</t>
+  </si>
+  <si>
+    <t>A computing or digital program on a smartphone device</t>
+  </si>
+  <si>
+    <t>tech:Application</t>
+  </si>
+  <si>
+    <t>AppStore</t>
+  </si>
+  <si>
+    <t>Application Store</t>
+  </si>
+  <si>
+    <t>An application or platform for distribution of other applications</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>Operating System (OS)</t>
+  </si>
+  <si>
+    <t>Software for managing hardware and other software</t>
+  </si>
+  <si>
+    <t>MSWindows</t>
+  </si>
+  <si>
+    <t>Microsoft Windows</t>
+  </si>
+  <si>
+    <t>Microsoft Windows operating system</t>
+  </si>
+  <si>
+    <t>tech:OS</t>
+  </si>
+  <si>
+    <t>iOS</t>
+  </si>
+  <si>
+    <t>iOS operating system</t>
+  </si>
+  <si>
+    <t>Android</t>
+  </si>
+  <si>
+    <t>Android operating system</t>
+  </si>
+  <si>
+    <t>GNULinux</t>
+  </si>
+  <si>
+    <t>GNU/Linux</t>
+  </si>
+  <si>
+    <t>GNU/Linux operating system</t>
+  </si>
+  <si>
+    <t>Hardware</t>
+  </si>
+  <si>
+    <t>Physical parts or components of the technology</t>
+  </si>
+  <si>
+    <t>Device</t>
+  </si>
+  <si>
+    <t>Device or computing device</t>
+  </si>
+  <si>
+    <t>tech:Hardware</t>
+  </si>
+  <si>
+    <t>PersonalComputer</t>
+  </si>
+  <si>
+    <t>Personal Computer (PC)</t>
+  </si>
+  <si>
+    <t>A computing device intended for individual use</t>
+  </si>
+  <si>
+    <t>tech:Device</t>
+  </si>
+  <si>
+    <t>LaptopPC</t>
+  </si>
+  <si>
+    <t>Laptop PC</t>
+  </si>
+  <si>
+    <t>A portal personal computer</t>
+  </si>
+  <si>
+    <t>tech:PersonalComputer</t>
+  </si>
+  <si>
+    <t>DesktopPC</t>
+  </si>
+  <si>
+    <t>Desktop PC</t>
+  </si>
+  <si>
+    <t>A non-portable or fixed personal computer</t>
+  </si>
+  <si>
+    <t>Telephone</t>
+  </si>
+  <si>
+    <t>MobilePhone</t>
+  </si>
+  <si>
+    <t>Mobile Phone</t>
+  </si>
+  <si>
+    <t>Mobile telephone</t>
+  </si>
+  <si>
+    <t>tech:Telephone</t>
+  </si>
+  <si>
+    <t>Smartphone</t>
+  </si>
+  <si>
+    <t>A combination of a mobile phone with computing capabilities similar to a PC</t>
+  </si>
+  <si>
+    <t>tech:MobilePhone,tech:PersonalComputer</t>
+  </si>
+  <si>
+    <t>IoT</t>
+  </si>
+  <si>
+    <t>Internet of Things (IoT)</t>
+  </si>
+  <si>
+    <t>IoT is the infrastructure of interconnected entities, people, systems and information resources together with services that process and react to information from the physical world and virtual world</t>
+  </si>
+  <si>
+    <t>IoTDevice</t>
+  </si>
+  <si>
+    <t>IoT Device</t>
+  </si>
+  <si>
+    <t>An entity of an IoT system that interacts and communicates with the physical world through sensing or actuating</t>
+  </si>
+  <si>
+    <t>tech:IoT,tech:Device</t>
+  </si>
+  <si>
+    <t>IoTSystem</t>
+  </si>
+  <si>
+    <t>IoT System</t>
+  </si>
+  <si>
+    <t>A specific system that is an implementation or application of the IoT framework and contains interconnected IoT devices and their communication network along with other hardware and software required for providing functionalities</t>
+  </si>
+  <si>
+    <t>tech:IoT,tech:System</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>A simplified representation or abstraction of a system, process, or concept</t>
+  </si>
+  <si>
+    <t>Service</t>
+  </si>
+  <si>
+    <t>The carrying out of a specific task or set of tasks as a service</t>
+  </si>
+  <si>
+    <t>This concept is distinct from dpv:Service as it represents the notion of a technical service whereas dpv:Service can also refer to organisational, legal, social, and other meanings of service</t>
+  </si>
+  <si>
+    <t>Algorithm</t>
+  </si>
+  <si>
+    <t>A step-by-step set of instructions used to solve a problem or perform a computation</t>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>A collection of components that interact to achieve a specific goal or function</t>
+  </si>
+  <si>
+    <t>Component</t>
+  </si>
+  <si>
+    <t>A self-contained part of a system that performs a specific function and interacts with other components</t>
+  </si>
+  <si>
+    <t>CloudService</t>
   </si>
   <si>
     <t>Cloud Service Provision</t>
   </si>
   <si>
-    <t>Technology provided as a cloud service</t>
-  </si>
-  <si>
-    <t>tech:ServiceProvision</t>
-  </si>
-  <si>
-    <t>IaaSProvision</t>
+    <t>A remotely accessible service delivered over the internet for providing resources, software, or infrastructure</t>
+  </si>
+  <si>
+    <t>Infrastructure</t>
   </si>
   <si>
     <t>Infrastructure as a Service (IaaS) Provision</t>
-  </si>
-  <si>
-    <t>Technology provided as a cloud service consisting of managed infrastructure resources</t>
-  </si>
-  <si>
-    <t>tech:CloudServiceProvision</t>
-  </si>
-  <si>
-    <t>PaaSProvision</t>
-  </si>
-  <si>
-    <t>Platform as a Service (PaaS) Provision</t>
-  </si>
-  <si>
-    <t>Technology provided as a cloud service consisting of managed platform resources</t>
-  </si>
-  <si>
-    <t>SaaSProvision</t>
-  </si>
-  <si>
-    <t>Software as a Service (SaaS) Provision</t>
-  </si>
-  <si>
-    <t>Technology provided as a cloud service consisting of managed software resources</t>
-  </si>
-  <si>
-    <t>CaaSProvision</t>
-  </si>
-  <si>
-    <t>Compute as a Service (CaaS) Provision</t>
-  </si>
-  <si>
-    <t>Technology provided as a cloud service consisting of managed compute resources</t>
-  </si>
-  <si>
-    <t>MBaaSProvision</t>
-  </si>
-  <si>
-    <t>Mobile backend as a Service Provision</t>
-  </si>
-  <si>
-    <t>Technology provided as a cloud service consisting of managed 'backend' services for mobile users</t>
-  </si>
-  <si>
-    <t>ServerlessComputingProvision</t>
-  </si>
-  <si>
-    <t>Serverless Computing Provision</t>
-  </si>
-  <si>
-    <t>Technology provided as a cloud service consisting of fully managed servers for executing functions</t>
-  </si>
-  <si>
-    <t>PrivateCloudServiceProvision</t>
-  </si>
-  <si>
-    <t>Private Cloud Service Provision</t>
-  </si>
-  <si>
-    <t>Technology provided as a cloud service that is private</t>
-  </si>
-  <si>
-    <t>Tek Raj Chhetri</t>
-  </si>
-  <si>
-    <t>PublicCloudServiceProvision</t>
-  </si>
-  <si>
-    <t>Public Cloud Service Provision</t>
-  </si>
-  <si>
-    <t>Technology provided as a cloud service that is public</t>
-  </si>
-  <si>
-    <t>HybridCloudServiceProvision</t>
-  </si>
-  <si>
-    <t>Hybrid Cloud Service Provision</t>
-  </si>
-  <si>
-    <t>Technology provided as a cloud service that is both private and public in parts</t>
-  </si>
-  <si>
-    <t>tech:PrivateCloudService,tech:PublicCloudServiceProvision</t>
-  </si>
-  <si>
-    <t>Proposed for v2.2</t>
-  </si>
-  <si>
-    <t>ConceptStage</t>
-  </si>
-  <si>
-    <t>Concept Stage</t>
-  </si>
-  <si>
-    <t>DevelopmentStage</t>
-  </si>
-  <si>
-    <t>Development Stage</t>
-  </si>
-  <si>
-    <t>ProductionStage</t>
-  </si>
-  <si>
-    <t>Production Stage</t>
-  </si>
-  <si>
-    <t>UtilisationStage</t>
-  </si>
-  <si>
-    <t>Utilisation Stage</t>
-  </si>
-  <si>
-    <t>SupportStage</t>
-  </si>
-  <si>
-    <t>Support Stage</t>
-  </si>
-  <si>
-    <t>RetirementStage</t>
-  </si>
-  <si>
-    <t>Retirement Stage</t>
-  </si>
-  <si>
-    <t>ChangeDescription</t>
-  </si>
-  <si>
-    <t>ChangeStatus</t>
-  </si>
-  <si>
-    <t>ChangeProposed</t>
-  </si>
-  <si>
-    <t>ChangeApproved</t>
-  </si>
-  <si>
-    <t>ChangeRequested</t>
-  </si>
-  <si>
-    <t>ChangeAuthorised</t>
-  </si>
-  <si>
-    <t>ChangeVerified</t>
-  </si>
-  <si>
-    <t>ChangePlanned</t>
-  </si>
-  <si>
-    <t>ChangePending</t>
-  </si>
-  <si>
-    <t>ChangeScheduled</t>
-  </si>
-  <si>
-    <t>ChangeOngoing</t>
-  </si>
-  <si>
-    <t>ChangeCompleted</t>
-  </si>
-  <si>
-    <t>ChangeFailed</t>
-  </si>
-  <si>
-    <t>ChangePaused</t>
-  </si>
-  <si>
-    <t>ChangeReverted</t>
-  </si>
-  <si>
-    <t>ChangeCategory</t>
-  </si>
-  <si>
-    <t>SystematicChangeCategory</t>
-  </si>
-  <si>
-    <t>SystematicChange</t>
-  </si>
-  <si>
-    <t>AdhocChange</t>
-  </si>
-  <si>
-    <t>PlannedChangeCategory</t>
-  </si>
-  <si>
-    <t>PlannedChange</t>
-  </si>
-  <si>
-    <t>Vague broad notion of change planned</t>
-  </si>
-  <si>
-    <t>UnplannedChange</t>
-  </si>
-  <si>
-    <t>Change that is not planned</t>
-  </si>
-  <si>
-    <t>PredeterminedChangeCategory</t>
-  </si>
-  <si>
-    <t>PredeterminedChange</t>
-  </si>
-  <si>
-    <t>Specific determination of change in terms of what to change or when to change - can include reaction to external factors</t>
-  </si>
-  <si>
-    <t>NonpredeterminedChange</t>
-  </si>
-  <si>
-    <t>Change that is not predetermined but is planned</t>
-  </si>
-  <si>
-    <t>IntendedChangeCategory</t>
-  </si>
-  <si>
-    <t>IntendedChange</t>
-  </si>
-  <si>
-    <t>UnintendedChange</t>
-  </si>
-  <si>
-    <t>RateOfChangeCategory</t>
-  </si>
-  <si>
-    <t>GradualChange</t>
-  </si>
-  <si>
-    <t>InstantaneousChange</t>
-  </si>
-  <si>
-    <t>ReversibilityOfChangeCategory</t>
-  </si>
-  <si>
-    <t>ReversibleChange</t>
-  </si>
-  <si>
-    <t>IrreversibleChange</t>
-  </si>
-  <si>
-    <t>TransformationChangeCategory</t>
-  </si>
-  <si>
-    <t>IncrementalChange</t>
-  </si>
-  <si>
-    <t>TransformativeChange</t>
-  </si>
-  <si>
-    <t>ControlOverChangeCategory</t>
-  </si>
-  <si>
-    <t>ControlledChange</t>
-  </si>
-  <si>
-    <t>UncontrolledChange</t>
-  </si>
-  <si>
-    <t>TemporalChangeCategory</t>
-  </si>
-  <si>
-    <t>TemporaryChange</t>
-  </si>
-  <si>
-    <t>LastingChange</t>
-  </si>
-  <si>
-    <t>Actors involved in technologies</t>
-  </si>
-  <si>
-    <t>Provider</t>
-  </si>
-  <si>
-    <t>Actor that provides Technology</t>
-  </si>
-  <si>
-    <t>tech:Actor</t>
-  </si>
-  <si>
-    <t>ISO/IEC 22989:2022</t>
-  </si>
-  <si>
-    <t>Producer</t>
-  </si>
-  <si>
-    <t>Actor that produces Technology</t>
-  </si>
-  <si>
-    <t>Developer</t>
-  </si>
-  <si>
-    <t>Actor that develops Technology</t>
-  </si>
-  <si>
-    <t>tech:Producer</t>
-  </si>
-  <si>
-    <t>Customer</t>
-  </si>
-  <si>
-    <t>Actor that uses Technology directly or indirectly by providing it to Users</t>
-  </si>
-  <si>
-    <t>User</t>
-  </si>
-  <si>
-    <t>Actor that uses Technology</t>
-  </si>
-  <si>
-    <t>tech:Customer</t>
-  </si>
-  <si>
-    <t>Subject</t>
-  </si>
-  <si>
-    <t>Actor that is subjected to the use or impact of Technology</t>
-  </si>
-  <si>
-    <t>Subject can be a human or non-human entity. To explicitly indicate that the subject is a human, and to reuse DPV's human subject taxonomy, the tech:Subject should also be defined as an instance or category of dpv:HumanSubject</t>
-  </si>
-  <si>
-    <t>Deployer</t>
-  </si>
-  <si>
-    <t>Actor that deploys Technology</t>
-  </si>
-  <si>
-    <t>AI Act</t>
-  </si>
-  <si>
-    <t>Designer</t>
-  </si>
-  <si>
-    <t>Actor that designs Technology</t>
-  </si>
-  <si>
-    <t>DGA 26.3</t>
-  </si>
-  <si>
-    <t>Installer</t>
-  </si>
-  <si>
-    <t>Actor that installs Technology</t>
-  </si>
-  <si>
-    <t>Maintainer</t>
-  </si>
-  <si>
-    <t>Actor that maintains Technology</t>
-  </si>
-  <si>
-    <t>Manufacturer</t>
-  </si>
-  <si>
-    <t>Actor that manufactures Technology</t>
-  </si>
-  <si>
-    <t>Owner</t>
-  </si>
-  <si>
-    <t>Actor that owns Technology</t>
-  </si>
-  <si>
-    <t>Purchaser</t>
-  </si>
-  <si>
-    <t>Actor that purchases Technology</t>
-  </si>
-  <si>
-    <t>Supplier</t>
-  </si>
-  <si>
-    <t>Actor that supplies Technology</t>
-  </si>
-  <si>
-    <t>Partner</t>
-  </si>
-  <si>
-    <t>Actor that provides services in the context of Technology</t>
-  </si>
-  <si>
-    <t>"Partner" is a vague term and should not be used - instead the more specific terms provided in this vocabulary should be used. Partner refers to entities that provide services for the technology (as opposed to for using the technology) - for example to further develop or refine it, or to test or audit it.</t>
-  </si>
-  <si>
-    <t>Evaluator</t>
-  </si>
-  <si>
-    <t>Actor that evaluates the performance of Technology</t>
-  </si>
-  <si>
-    <t>tech:Partner</t>
-  </si>
-  <si>
-    <t>Auditor</t>
-  </si>
-  <si>
-    <t>Actor that audits Technology for conformance to policies, standards, or legal requirements</t>
-  </si>
-  <si>
-    <t>SystemIntegrator</t>
-  </si>
-  <si>
-    <t>System Integrator</t>
-  </si>
-  <si>
-    <t>Actor that integrates Technology in to (larger) systems</t>
-  </si>
-  <si>
-    <t>Importer</t>
-  </si>
-  <si>
-    <t>Actor that imports the Technology within a jurisdiction</t>
-  </si>
-  <si>
-    <t>Distributor</t>
-  </si>
-  <si>
-    <t>Actor that distributes the Technology</t>
-  </si>
-  <si>
-    <t>Operator</t>
-  </si>
-  <si>
-    <t>Actor that operates the Technology</t>
-  </si>
-  <si>
-    <t>Operator and User are similar concepts but may refer to different actors, for example in the scenario where the user determines what actions to perform on the technology and the operator executes these actions by operating the technology</t>
-  </si>
-  <si>
-    <t>hasProvider</t>
-  </si>
-  <si>
-    <t>has provider</t>
-  </si>
-  <si>
-    <t>Indicates technology provider</t>
-  </si>
-  <si>
-    <t>tech:Provider</t>
-  </si>
-  <si>
-    <t>tech:hasActor</t>
-  </si>
-  <si>
-    <t>hasProducer</t>
-  </si>
-  <si>
-    <t>has producer</t>
-  </si>
-  <si>
-    <t>Indicates technology producer</t>
-  </si>
-  <si>
-    <t>hasDeveloper</t>
-  </si>
-  <si>
-    <t>has developer</t>
-  </si>
-  <si>
-    <t>Indicates technology developer</t>
-  </si>
-  <si>
-    <t>tech:Developer</t>
-  </si>
-  <si>
-    <t>hasCustomer</t>
-  </si>
-  <si>
-    <t>has customer</t>
-  </si>
-  <si>
-    <t>Indicates technology customer</t>
-  </si>
-  <si>
-    <t>hasUser</t>
-  </si>
-  <si>
-    <t>has user</t>
-  </si>
-  <si>
-    <t>Indicates technology user</t>
-  </si>
-  <si>
-    <t>tech:User</t>
-  </si>
-  <si>
-    <t>hasSubject</t>
-  </si>
-  <si>
-    <t>has subject</t>
-  </si>
-  <si>
-    <t>Indicates technology subject</t>
-  </si>
-  <si>
-    <t>tech:Subject</t>
-  </si>
-  <si>
-    <t>hasDeployer</t>
-  </si>
-  <si>
-    <t>has deployer</t>
-  </si>
-  <si>
-    <t>Indicates technology deployer</t>
-  </si>
-  <si>
-    <t>tech:Deployer</t>
-  </si>
-  <si>
-    <t>hasDesigner</t>
-  </si>
-  <si>
-    <t>has designer</t>
-  </si>
-  <si>
-    <t>Indicates technology designer</t>
-  </si>
-  <si>
-    <t>tech:Designer</t>
-  </si>
-  <si>
-    <t>hasInstaller</t>
-  </si>
-  <si>
-    <t>has installer</t>
-  </si>
-  <si>
-    <t>Indicates technology installer</t>
-  </si>
-  <si>
-    <t>tech:Installer</t>
-  </si>
-  <si>
-    <t>hasMaintainer</t>
-  </si>
-  <si>
-    <t>has maintainer</t>
-  </si>
-  <si>
-    <t>Indicates technology maintainer</t>
-  </si>
-  <si>
-    <t>tech:Maintainer</t>
-  </si>
-  <si>
-    <t>hasManufacturer</t>
-  </si>
-  <si>
-    <t>has manufacturer</t>
-  </si>
-  <si>
-    <t>Indicates technology manufacturer</t>
-  </si>
-  <si>
-    <t>tech:Manufacturer</t>
-  </si>
-  <si>
-    <t>hasOwner</t>
-  </si>
-  <si>
-    <t>has owner</t>
-  </si>
-  <si>
-    <t>Indicates technology owner</t>
-  </si>
-  <si>
-    <t>tech:Owner</t>
-  </si>
-  <si>
-    <t>hasPurchaser</t>
-  </si>
-  <si>
-    <t>has purchaser</t>
-  </si>
-  <si>
-    <t>Indicates technology purchaser</t>
-  </si>
-  <si>
-    <t>tech:Purchaser</t>
-  </si>
-  <si>
-    <t>hasSupplier</t>
-  </si>
-  <si>
-    <t>has supplier</t>
-  </si>
-  <si>
-    <t>Indicates technology supplier</t>
-  </si>
-  <si>
-    <t>tech:Supplier</t>
-  </si>
-  <si>
-    <t>hasPartner</t>
-  </si>
-  <si>
-    <t>has partner</t>
-  </si>
-  <si>
-    <t>Indicates technology partner</t>
-  </si>
-  <si>
-    <t>hasEvaluator</t>
-  </si>
-  <si>
-    <t>has evaluator</t>
-  </si>
-  <si>
-    <t>Indicates technology evaluator</t>
-  </si>
-  <si>
-    <t>tech:Evaluator</t>
-  </si>
-  <si>
-    <t>hasAuditor</t>
-  </si>
-  <si>
-    <t>has auditor</t>
-  </si>
-  <si>
-    <t>Indicates technology auditor</t>
-  </si>
-  <si>
-    <t>tech:Auditor</t>
-  </si>
-  <si>
-    <t>hasSystemIntegrator</t>
-  </si>
-  <si>
-    <t>has system integrator</t>
-  </si>
-  <si>
-    <t>Indicates technology system integrator</t>
-  </si>
-  <si>
-    <t>tech:SystemIntegrator</t>
-  </si>
-  <si>
-    <t>Manual</t>
-  </si>
-  <si>
-    <t>Documentation that provides instructions for using, maintaining, developing, or performing other activities regarding the technology</t>
-  </si>
-  <si>
-    <t>Guide</t>
-  </si>
-  <si>
-    <t>Documentation that provides guidance regarding the technology</t>
-  </si>
-  <si>
-    <t>Instructions</t>
-  </si>
-  <si>
-    <t>Instructions related to technology</t>
-  </si>
-  <si>
-    <t>Specification</t>
-  </si>
-  <si>
-    <t>Documentation that specifies requirements that must be satisfied by the technology</t>
-  </si>
-  <si>
-    <t>Plan</t>
-  </si>
-  <si>
-    <t>Plan associated with using, maintaining, developing, or performing other activities associated with technology</t>
-  </si>
-  <si>
-    <t>TestingPlan</t>
-  </si>
-  <si>
-    <t>Testing Plan</t>
-  </si>
-  <si>
-    <t>Plan associated with testing technology</t>
-  </si>
-  <si>
-    <t>tech:Plan</t>
-  </si>
-  <si>
-    <t>DevelopmentPlan</t>
-  </si>
-  <si>
-    <t>Development Plan</t>
-  </si>
-  <si>
-    <t>Plan associated with developing technology</t>
-  </si>
-  <si>
-    <t>dpv:Status</t>
-  </si>
-  <si>
-    <t>DevelopmentStatus</t>
-  </si>
-  <si>
-    <t>DeploymentStatus</t>
-  </si>
-  <si>
-    <t>TechnologyStatus</t>
-  </si>
-  <si>
-    <t>Technology Status</t>
-  </si>
-  <si>
-    <t>Status associated with development, deployment, and use of technology</t>
-  </si>
-  <si>
-    <t>MarketAvailabilityStatus</t>
-  </si>
-  <si>
-    <t>Market Availability Status</t>
-  </si>
-  <si>
-    <t>Status indicating whether Technology is available on the market</t>
-  </si>
-  <si>
-    <t>tech:TechnologyStatus</t>
-  </si>
-  <si>
-    <t>MarketAvailable</t>
-  </si>
-  <si>
-    <t>Market Available</t>
-  </si>
-  <si>
-    <t>Status indicating Technology is available on the market</t>
-  </si>
-  <si>
-    <t>tech:MarketAvailabilityStatus</t>
-  </si>
-  <si>
-    <t>MarketUnavailable</t>
-  </si>
-  <si>
-    <t>Market Unavailable</t>
-  </si>
-  <si>
-    <t>Status indicating Technology is unavailable on the market</t>
-  </si>
-  <si>
-    <t>ProvisionStatus</t>
-  </si>
-  <si>
-    <t>Provision Status</t>
-  </si>
-  <si>
-    <t>Status indicating whether Technology has been provided</t>
-  </si>
-  <si>
-    <t>Provided</t>
-  </si>
-  <si>
-    <t>Status indicating Technology has been provided</t>
-  </si>
-  <si>
-    <t>tech:ProvisionStatus</t>
-  </si>
-  <si>
-    <t>NotProvided</t>
-  </si>
-  <si>
-    <t>Not Provided</t>
-  </si>
-  <si>
-    <t>Status indicating Technology has not been provided</t>
-  </si>
-  <si>
-    <t>TechnologyReadinessLevel</t>
-  </si>
-  <si>
-    <t>Technology Readiness Level (TRL)</t>
-  </si>
-  <si>
-    <t>Indication of maturity of Technology (ISO 16290:2013)</t>
-  </si>
-  <si>
-    <t>hasTRL</t>
-  </si>
-  <si>
-    <t>has TRL</t>
-  </si>
-  <si>
-    <t>Indicates technology maturity level</t>
-  </si>
-  <si>
-    <t>tech:TechnologyReadinessLevel</t>
-  </si>
-  <si>
-    <t>dpv:hasStatus</t>
-  </si>
-  <si>
-    <t>hasMarketAvailabilityStatus</t>
-  </si>
-  <si>
-    <t>has market availability status</t>
-  </si>
-  <si>
-    <t>Indicates whether the technology is available on the market</t>
-  </si>
-  <si>
-    <t>hasProvisionStatus</t>
-  </si>
-  <si>
-    <t>has provision status</t>
-  </si>
-  <si>
-    <t>Indicates whether the technology has been provided</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>How technology communicates</t>
-  </si>
-  <si>
-    <t>Networking</t>
-  </si>
-  <si>
-    <t>Technology utilising networking</t>
-  </si>
-  <si>
-    <t>LocalNetwork</t>
-  </si>
-  <si>
-    <t>Local Network</t>
-  </si>
-  <si>
-    <t>Technology utilising local networking</t>
-  </si>
-  <si>
-    <t>tech:Networking</t>
-  </si>
-  <si>
-    <t>Internet</t>
-  </si>
-  <si>
-    <t>Technology utilising internet</t>
-  </si>
-  <si>
-    <t>WiFi</t>
-  </si>
-  <si>
-    <t>Technology utilising wifi wireless networking</t>
-  </si>
-  <si>
-    <t>Bluetooth</t>
-  </si>
-  <si>
-    <t>Technology utilising bluetooth</t>
-  </si>
-  <si>
-    <t>CellularNetwork</t>
-  </si>
-  <si>
-    <t>Cellular Network</t>
-  </si>
-  <si>
-    <t>Technology utilising cellular networking</t>
-  </si>
-  <si>
-    <t>GPS</t>
-  </si>
-  <si>
-    <t>Technology utilising GPS</t>
-  </si>
-  <si>
-    <t>Specific instances of technologies</t>
-  </si>
-  <si>
-    <t>Software</t>
-  </si>
-  <si>
-    <t>Virtual parts or components of the technology such as programs and data</t>
-  </si>
-  <si>
-    <t>DataStorage</t>
-  </si>
-  <si>
-    <t>Data Storage</t>
-  </si>
-  <si>
-    <t>Technology associated with storage of data</t>
-  </si>
-  <si>
-    <t>tech:Software</t>
-  </si>
-  <si>
-    <t>Database</t>
-  </si>
-  <si>
-    <t>A database, database management system (DBMS), or application database</t>
-  </si>
-  <si>
-    <t>tech:DataStorage</t>
-  </si>
-  <si>
-    <t>CloudStorage</t>
-  </si>
-  <si>
-    <t>Cloud Storage</t>
-  </si>
-  <si>
-    <t>Storage utilising cloud technologies</t>
-  </si>
-  <si>
-    <t>LocalStorage</t>
-  </si>
-  <si>
-    <t>Local Storage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Storage that is local (e.g. on device) </t>
-  </si>
-  <si>
-    <t>Cookie</t>
-  </si>
-  <si>
-    <t>A HTTP or web or internet cookie</t>
-  </si>
-  <si>
-    <t>tech:LocalStorage</t>
-  </si>
-  <si>
-    <t>Application</t>
-  </si>
-  <si>
-    <t>Application or Application Software</t>
-  </si>
-  <si>
-    <t>SmartphoneApplication</t>
-  </si>
-  <si>
-    <t>Smartphone Application</t>
-  </si>
-  <si>
-    <t>A computing or digital program on a smartphone device</t>
-  </si>
-  <si>
-    <t>tech:Application</t>
-  </si>
-  <si>
-    <t>AppStore</t>
-  </si>
-  <si>
-    <t>Application Store</t>
-  </si>
-  <si>
-    <t>An application or platform for distribution of other applications</t>
-  </si>
-  <si>
-    <t>OS</t>
-  </si>
-  <si>
-    <t>Operating System (OS)</t>
-  </si>
-  <si>
-    <t>Software for managing hardware and other software</t>
-  </si>
-  <si>
-    <t>MSWindows</t>
-  </si>
-  <si>
-    <t>Microsoft Windows</t>
-  </si>
-  <si>
-    <t>Microsoft Windows operating system</t>
-  </si>
-  <si>
-    <t>tech:OS</t>
-  </si>
-  <si>
-    <t>iOS</t>
-  </si>
-  <si>
-    <t>iOS operating system</t>
-  </si>
-  <si>
-    <t>Android</t>
-  </si>
-  <si>
-    <t>Android operating system</t>
-  </si>
-  <si>
-    <t>GNULinux</t>
-  </si>
-  <si>
-    <t>GNU/Linux</t>
-  </si>
-  <si>
-    <t>GNU/Linux operating system</t>
-  </si>
-  <si>
-    <t>Hardware</t>
-  </si>
-  <si>
-    <t>Physical parts or components of the technology</t>
-  </si>
-  <si>
-    <t>Device</t>
-  </si>
-  <si>
-    <t>Device or computing device</t>
-  </si>
-  <si>
-    <t>tech:Hardware</t>
-  </si>
-  <si>
-    <t>PersonalComputer</t>
-  </si>
-  <si>
-    <t>Personal Computer (PC)</t>
-  </si>
-  <si>
-    <t>A computing device intended for individual use</t>
-  </si>
-  <si>
-    <t>tech:Device</t>
-  </si>
-  <si>
-    <t>LaptopPC</t>
-  </si>
-  <si>
-    <t>Laptop PC</t>
-  </si>
-  <si>
-    <t>A portal personal computer</t>
-  </si>
-  <si>
-    <t>tech:PersonalComputer</t>
-  </si>
-  <si>
-    <t>DesktopPC</t>
-  </si>
-  <si>
-    <t>Desktop PC</t>
-  </si>
-  <si>
-    <t>A non-portable or fixed personal computer</t>
-  </si>
-  <si>
-    <t>Telephone</t>
-  </si>
-  <si>
-    <t>MobilePhone</t>
-  </si>
-  <si>
-    <t>Mobile Phone</t>
-  </si>
-  <si>
-    <t>Mobile telephone</t>
-  </si>
-  <si>
-    <t>tech:Telephone</t>
-  </si>
-  <si>
-    <t>Smartphone</t>
-  </si>
-  <si>
-    <t>A combination of a mobile phone with computing capabilities similar to a PC</t>
-  </si>
-  <si>
-    <t>tech:MobilePhone,tech:PersonalComputer</t>
-  </si>
-  <si>
-    <t>IoT</t>
-  </si>
-  <si>
-    <t>Internet of Things (IoT)</t>
-  </si>
-  <si>
-    <t>IoT is the infrastructure of interconnected entities, people, systems and information resources together with services that process and react to information from the physical world and virtual world</t>
-  </si>
-  <si>
-    <t>IoTDevice</t>
-  </si>
-  <si>
-    <t>IoT Device</t>
-  </si>
-  <si>
-    <t>An entity of an IoT system that interacts and communicates with the physical world through sensing or actuating</t>
-  </si>
-  <si>
-    <t>tech:IoT,tech:Device</t>
-  </si>
-  <si>
-    <t>IoTSystem</t>
-  </si>
-  <si>
-    <t>IoT System</t>
-  </si>
-  <si>
-    <t>A specific system that is an implementation or application of the IoT framework and contains interconnected IoT devices and their communication network along with other hardware and software required for providing functionalities</t>
-  </si>
-  <si>
-    <t>tech:IoT,tech:System</t>
-  </si>
-  <si>
-    <t>Model</t>
-  </si>
-  <si>
-    <t>A simplified representation or abstraction of a system, process, or concept</t>
-  </si>
-  <si>
-    <t>Service</t>
-  </si>
-  <si>
-    <t>The carrying out of a specific task or set of tasks as a service</t>
-  </si>
-  <si>
-    <t>This concept is distinct from dpv:Service as it represents the notion of a technical service whereas dpv:Service can also refer to organisational, legal, social, and other meanings of service</t>
-  </si>
-  <si>
-    <t>Algorithm</t>
-  </si>
-  <si>
-    <t>A step-by-step set of instructions used to solve a problem or perform a computation</t>
-  </si>
-  <si>
-    <t>System</t>
-  </si>
-  <si>
-    <t>A collection of components that interact to achieve a specific goal or function</t>
-  </si>
-  <si>
-    <t>Component</t>
-  </si>
-  <si>
-    <t>A self-contained part of a system that performs a specific function and interacts with other components</t>
-  </si>
-  <si>
-    <t>CloudService</t>
-  </si>
-  <si>
-    <t>A remotely accessible service delivered over the internet for providing resources, software, or infrastructure</t>
-  </si>
-  <si>
-    <t>Infrastructure</t>
   </si>
   <si>
     <t>The foundational hardware, software, and other resources to support the operation of systems or services</t>
@@ -6085,10 +6091,10 @@
         <v>596</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>215</v>
+        <v>597</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="D39" s="7"/>
       <c r="E39" s="6" t="s">
@@ -6128,13 +6134,13 @@
     </row>
     <row r="40">
       <c r="A40" s="6" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>219</v>
+        <v>600</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="D40" s="7"/>
       <c r="E40" s="6" t="s">
@@ -6174,16 +6180,16 @@
     </row>
     <row r="41">
       <c r="A41" s="6" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="E41" s="6" t="s">
         <v>16</v>
@@ -6222,13 +6228,13 @@
     </row>
     <row r="42">
       <c r="A42" s="6" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="D42" s="7"/>
       <c r="E42" s="6" t="s">
@@ -6268,13 +6274,13 @@
     </row>
     <row r="43">
       <c r="A43" s="6" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="D43" s="6" t="s">
         <v>554</v>
@@ -6316,16 +6322,16 @@
     </row>
     <row r="44">
       <c r="A44" s="6" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="E44" s="6" t="s">
         <v>16</v>
@@ -6364,13 +6370,13 @@
     </row>
     <row r="45">
       <c r="A45" s="6" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="D45" s="6" t="s">
         <v>514</v>
@@ -6412,13 +6418,13 @@
     </row>
     <row r="46">
       <c r="A46" s="6" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="D46" s="6" t="s">
         <v>514</v>
@@ -6578,19 +6584,19 @@
     </row>
     <row r="2">
       <c r="A2" s="18" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="D2" s="34" t="s">
         <v>16</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
@@ -6626,19 +6632,19 @@
     </row>
     <row r="3">
       <c r="A3" s="18" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
@@ -6674,19 +6680,19 @@
     </row>
     <row r="4">
       <c r="A4" s="18" t="s">
+        <v>625</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>626</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>627</v>
+      </c>
+      <c r="D4" s="34" t="s">
+        <v>624</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>623</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>624</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>625</v>
-      </c>
-      <c r="D4" s="34" t="s">
-        <v>622</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>621</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -6722,19 +6728,19 @@
     </row>
     <row r="5">
       <c r="A5" s="18" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -6770,19 +6776,19 @@
     </row>
     <row r="6">
       <c r="A6" s="18" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="D6" s="34" t="s">
         <v>16</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -6818,13 +6824,13 @@
     </row>
     <row r="7">
       <c r="A7" s="18" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>16</v>
@@ -6833,7 +6839,7 @@
         <v>558</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
@@ -6868,13 +6874,13 @@
     </row>
     <row r="8">
       <c r="A8" s="18" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>16</v>
@@ -6916,13 +6922,13 @@
     </row>
     <row r="9">
       <c r="A9" s="18" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>16</v>
@@ -6964,13 +6970,13 @@
     </row>
     <row r="10">
       <c r="A10" s="18" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>16</v>
@@ -7012,19 +7018,19 @@
     </row>
     <row r="11">
       <c r="A11" s="6" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="K11" s="19">
         <v>45627.0</v>
@@ -7039,19 +7045,19 @@
     </row>
     <row r="12">
       <c r="A12" s="18" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
@@ -7087,19 +7093,19 @@
     </row>
     <row r="13">
       <c r="A13" s="6" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
@@ -7135,19 +7141,19 @@
     </row>
     <row r="14">
       <c r="A14" s="6" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
@@ -7321,27 +7327,27 @@
     </row>
     <row r="2">
       <c r="A2" s="6" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="B2" s="5"/>
       <c r="J2" s="10" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="6" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="6" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
     </row>
     <row r="6">
@@ -7836,26 +7842,26 @@
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
     </row>
     <row r="3">
       <c r="A3" s="6" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>16</v>
@@ -7865,7 +7871,7 @@
       </c>
       <c r="L3" s="8"/>
       <c r="M3" s="6" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="N3" s="6" t="s">
         <v>39</v>
@@ -7876,16 +7882,16 @@
     </row>
     <row r="4">
       <c r="A4" s="6" t="s">
+        <v>676</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>677</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>678</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>674</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>675</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>676</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>672</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>16</v>
@@ -7895,7 +7901,7 @@
       </c>
       <c r="L4" s="8"/>
       <c r="M4" s="6" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="N4" s="6" t="s">
         <v>39</v>
@@ -7906,16 +7912,16 @@
     </row>
     <row r="5">
       <c r="A5" s="6" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>16</v>
@@ -7925,7 +7931,7 @@
       </c>
       <c r="L5" s="8"/>
       <c r="M5" s="6" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="N5" s="6" t="s">
         <v>39</v>
@@ -7936,16 +7942,16 @@
     </row>
     <row r="6">
       <c r="A6" s="6" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>16</v>
@@ -7955,7 +7961,7 @@
       </c>
       <c r="L6" s="8"/>
       <c r="M6" s="6" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="N6" s="6" t="s">
         <v>39</v>
@@ -7966,16 +7972,16 @@
     </row>
     <row r="7">
       <c r="A7" s="6" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>16</v>
@@ -7985,7 +7991,7 @@
       </c>
       <c r="L7" s="8"/>
       <c r="M7" s="6" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="N7" s="6" t="s">
         <v>39</v>
@@ -7996,16 +8002,16 @@
     </row>
     <row r="8">
       <c r="A8" s="6" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>16</v>
@@ -8015,7 +8021,7 @@
       </c>
       <c r="L8" s="8"/>
       <c r="M8" s="6" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="N8" s="6" t="s">
         <v>39</v>
@@ -8026,16 +8032,16 @@
     </row>
     <row r="9">
       <c r="A9" s="6" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>16</v>
@@ -8045,7 +8051,7 @@
       </c>
       <c r="L9" s="8"/>
       <c r="M9" s="6" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="N9" s="6" t="s">
         <v>39</v>
@@ -8056,16 +8062,16 @@
     </row>
     <row r="10">
       <c r="A10" s="6" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>16</v>
@@ -8075,7 +8081,7 @@
       </c>
       <c r="L10" s="8"/>
       <c r="M10" s="6" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="N10" s="6" t="s">
         <v>39</v>
@@ -8086,16 +8092,16 @@
     </row>
     <row r="11">
       <c r="A11" s="6" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>16</v>
@@ -8105,7 +8111,7 @@
       </c>
       <c r="L11" s="8"/>
       <c r="M11" s="6" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="N11" s="6" t="s">
         <v>39</v>
@@ -8116,16 +8122,16 @@
     </row>
     <row r="12">
       <c r="A12" s="6" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>16</v>
@@ -8135,7 +8141,7 @@
       </c>
       <c r="L12" s="8"/>
       <c r="M12" s="6" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="N12" s="6" t="s">
         <v>39</v>
@@ -8146,16 +8152,16 @@
     </row>
     <row r="13">
       <c r="A13" s="6" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>16</v>
@@ -8164,7 +8170,7 @@
         <v>44727.0</v>
       </c>
       <c r="M13" s="6" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="N13" s="6" t="s">
         <v>39</v>
@@ -8175,16 +8181,16 @@
     </row>
     <row r="14">
       <c r="A14" s="24" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="C14" s="48" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="D14" s="49" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>16</v>
@@ -8194,12 +8200,12 @@
       <c r="H14" s="11"/>
       <c r="I14" s="11"/>
       <c r="J14" s="24" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="K14" s="11"/>
       <c r="L14" s="11"/>
       <c r="M14" s="6" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="N14" s="11"/>
       <c r="O14" s="11"/>
@@ -8222,18 +8228,18 @@
     </row>
     <row r="16">
       <c r="A16" s="5" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="6" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>16</v>
@@ -8242,7 +8248,7 @@
         <v>44727.0</v>
       </c>
       <c r="M17" s="6" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="N17" s="6" t="s">
         <v>39</v>
@@ -8253,13 +8259,13 @@
     </row>
     <row r="18">
       <c r="A18" s="6" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>16</v>
@@ -8269,7 +8275,7 @@
       </c>
       <c r="L18" s="8"/>
       <c r="M18" s="6" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="N18" s="6" t="s">
         <v>39</v>
@@ -8280,13 +8286,13 @@
     </row>
     <row r="19">
       <c r="A19" s="6" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>16</v>
@@ -8296,7 +8302,7 @@
       </c>
       <c r="L19" s="8"/>
       <c r="M19" s="6" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="N19" s="6" t="s">
         <v>39</v>
@@ -8307,13 +8313,13 @@
     </row>
     <row r="20">
       <c r="A20" s="6" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>16</v>
@@ -8323,7 +8329,7 @@
       </c>
       <c r="L20" s="8"/>
       <c r="M20" s="6" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="N20" s="6" t="s">
         <v>39</v>
@@ -8334,13 +8340,13 @@
     </row>
     <row r="21">
       <c r="A21" s="6" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>16</v>
@@ -8350,7 +8356,7 @@
       </c>
       <c r="L21" s="8"/>
       <c r="M21" s="6" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="N21" s="6" t="s">
         <v>39</v>
@@ -8361,13 +8367,13 @@
     </row>
     <row r="22">
       <c r="A22" s="6" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>16</v>
@@ -8377,7 +8383,7 @@
       </c>
       <c r="L22" s="8"/>
       <c r="M22" s="6" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="N22" s="6" t="s">
         <v>39</v>
@@ -8388,10 +8394,10 @@
     </row>
     <row r="24">
       <c r="A24" s="5" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="30"/>
@@ -8400,16 +8406,16 @@
     </row>
     <row r="25">
       <c r="A25" s="6" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="D25" s="30" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>16</v>
@@ -8418,7 +8424,7 @@
         <v>44727.0</v>
       </c>
       <c r="M25" s="6" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="N25" s="6" t="s">
         <v>39</v>
@@ -8429,16 +8435,16 @@
     </row>
     <row r="26">
       <c r="A26" s="6" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="B26" s="6" t="s">
+        <v>737</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>738</v>
+      </c>
+      <c r="D26" s="30" t="s">
         <v>735</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>736</v>
-      </c>
-      <c r="D26" s="30" t="s">
-        <v>733</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>16</v>
@@ -8447,7 +8453,7 @@
         <v>44727.0</v>
       </c>
       <c r="M26" s="6" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="N26" s="6" t="s">
         <v>39</v>
@@ -8458,16 +8464,16 @@
     </row>
     <row r="27">
       <c r="A27" s="6" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="D27" s="30" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>16</v>
@@ -8476,7 +8482,7 @@
         <v>44727.0</v>
       </c>
       <c r="M27" s="6" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="N27" s="6" t="s">
         <v>39</v>
@@ -8493,10 +8499,10 @@
         <v>527</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="D28" s="30" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>16</v>
@@ -8505,7 +8511,7 @@
         <v>44727.0</v>
       </c>
       <c r="M28" s="6" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="N28" s="6" t="s">
         <v>39</v>
@@ -8516,10 +8522,10 @@
     </row>
     <row r="30">
       <c r="A30" s="5" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
@@ -8550,16 +8556,16 @@
     </row>
     <row r="31">
       <c r="A31" s="6" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>16</v>
@@ -8568,10 +8574,10 @@
         <v>44727.0</v>
       </c>
       <c r="M31" s="6" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="N31" s="6" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="O31" s="9" t="s">
         <v>28</v>
@@ -8579,16 +8585,16 @@
     </row>
     <row r="32">
       <c r="A32" s="6" t="s">
+        <v>749</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>750</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>751</v>
+      </c>
+      <c r="D32" s="6" t="s">
         <v>747</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>748</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>749</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>745</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>16</v>
@@ -8597,10 +8603,10 @@
         <v>44727.0</v>
       </c>
       <c r="M32" s="6" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="N32" s="6" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="O32" s="9" t="s">
         <v>28</v>
@@ -8608,16 +8614,16 @@
     </row>
     <row r="33">
       <c r="A33" s="6" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="E33" s="6" t="s">
         <v>16</v>
@@ -8626,10 +8632,10 @@
         <v>44727.0</v>
       </c>
       <c r="M33" s="6" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="N33" s="6" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="O33" s="9" t="s">
         <v>28</v>
@@ -8637,16 +8643,16 @@
     </row>
     <row r="34">
       <c r="A34" s="6" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>16</v>
@@ -8655,10 +8661,10 @@
         <v>44727.0</v>
       </c>
       <c r="M34" s="6" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="N34" s="6" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="O34" s="9" t="s">
         <v>28</v>
@@ -8666,16 +8672,16 @@
     </row>
     <row r="35">
       <c r="A35" s="6" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="E35" s="6" t="s">
         <v>16</v>
@@ -8684,10 +8690,10 @@
         <v>44727.0</v>
       </c>
       <c r="M35" s="6" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="N35" s="6" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="O35" s="9" t="s">
         <v>28</v>
@@ -8695,16 +8701,16 @@
     </row>
     <row r="36">
       <c r="A36" s="6" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="E36" s="6" t="s">
         <v>16</v>
@@ -8713,10 +8719,10 @@
         <v>44727.0</v>
       </c>
       <c r="M36" s="6" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="N36" s="6" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="O36" s="9" t="s">
         <v>28</v>
@@ -8724,37 +8730,37 @@
     </row>
     <row r="38">
       <c r="A38" s="5" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="K38" s="8"/>
     </row>
     <row r="39">
       <c r="A39" s="6" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="E39" s="6" t="s">
         <v>16</v>
       </c>
       <c r="I39" s="6" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="K39" s="8">
         <v>44727.0</v>
       </c>
       <c r="M39" s="6" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="N39" s="6" t="s">
         <v>39</v>
@@ -8765,28 +8771,28 @@
     </row>
     <row r="40">
       <c r="A40" s="6" t="s">
+        <v>771</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>772</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>773</v>
+      </c>
+      <c r="D40" s="6" t="s">
         <v>769</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>770</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>771</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>767</v>
       </c>
       <c r="E40" s="6" t="s">
         <v>16</v>
       </c>
       <c r="I40" s="6" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="K40" s="8">
         <v>44727.0</v>
       </c>
       <c r="M40" s="6" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="N40" s="6" t="s">
         <v>39</v>
@@ -8797,21 +8803,21 @@
     </row>
     <row r="42">
       <c r="A42" s="5" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="32" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="C43" s="32" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="D43" s="35" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="E43" s="6" t="s">
         <v>16</v>
@@ -8820,7 +8826,7 @@
         <v>44727.0</v>
       </c>
       <c r="M43" s="6" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="N43" s="6" t="s">
         <v>39</v>
@@ -8831,16 +8837,16 @@
     </row>
     <row r="44">
       <c r="A44" s="50" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="B44" s="50" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="C44" s="51" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="D44" s="52" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="E44" s="11" t="s">
         <v>16</v>
@@ -8855,7 +8861,7 @@
       </c>
       <c r="L44" s="11"/>
       <c r="M44" s="6" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="N44" s="11" t="s">
         <v>39</v>
@@ -8881,16 +8887,16 @@
     </row>
     <row r="45">
       <c r="A45" s="50" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="B45" s="50" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="C45" s="51" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D45" s="55" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="E45" s="11" t="s">
         <v>16</v>
@@ -8905,7 +8911,7 @@
       </c>
       <c r="L45" s="11"/>
       <c r="M45" s="6" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="N45" s="11" t="s">
         <v>39</v>
@@ -8931,16 +8937,16 @@
     </row>
     <row r="46">
       <c r="A46" s="50" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="B46" s="50" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="C46" s="51" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="D46" s="55" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="E46" s="11" t="s">
         <v>16</v>
@@ -8955,7 +8961,7 @@
       </c>
       <c r="L46" s="11"/>
       <c r="M46" s="6" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="N46" s="11" t="s">
         <v>39</v>
@@ -11396,7 +11402,6 @@
       <c r="AB11" s="7"/>
     </row>
     <row r="12">
-      <c r="A12" s="6"/>
       <c r="L12" s="8"/>
     </row>
     <row r="13">

--- a/code/vocab_csv/tech.xlsx
+++ b/code/vocab_csv/tech.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1843" uniqueCount="792">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1849" uniqueCount="796">
   <si>
     <t>Term</t>
   </si>
@@ -435,6 +435,12 @@
     <t>tech:hasOutput</t>
   </si>
   <si>
+    <t>Input/Output</t>
+  </si>
+  <si>
+    <t>Forms of inputs and outputs associated with a technology</t>
+  </si>
+  <si>
     <t>InputData</t>
   </si>
   <si>
@@ -1372,6 +1378,12 @@
   </si>
   <si>
     <t>Plan associated with developing technology</t>
+  </si>
+  <si>
+    <t>Log</t>
+  </si>
+  <si>
+    <t>Report</t>
   </si>
   <si>
     <t>dpv:Status</t>
@@ -3886,22 +3898,22 @@
     </row>
     <row r="2">
       <c r="A2" s="6" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
@@ -3936,22 +3948,22 @@
     </row>
     <row r="3">
       <c r="A3" s="6" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
@@ -3982,22 +3994,22 @@
     </row>
     <row r="4">
       <c r="A4" s="6" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
@@ -4031,7 +4043,7 @@
     </row>
     <row r="9">
       <c r="A9" s="6" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="B9" s="6"/>
     </row>
@@ -4165,10 +4177,10 @@
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -4183,13 +4195,13 @@
     </row>
     <row r="4">
       <c r="A4" s="6" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="30" t="s">
@@ -4229,16 +4241,16 @@
     </row>
     <row r="5">
       <c r="A5" s="6" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="E5" s="30" t="s">
         <v>71</v>
@@ -4277,16 +4289,16 @@
     </row>
     <row r="6">
       <c r="A6" s="6" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="E6" s="30" t="s">
         <v>71</v>
@@ -4325,16 +4337,16 @@
     </row>
     <row r="7">
       <c r="A7" s="6" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="C7" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>500</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>496</v>
       </c>
       <c r="E7" s="30" t="s">
         <v>71</v>
@@ -4373,16 +4385,16 @@
     </row>
     <row r="8">
       <c r="A8" s="6" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="E8" s="30" t="s">
         <v>71</v>
@@ -4421,16 +4433,16 @@
     </row>
     <row r="9">
       <c r="A9" s="6" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="E9" s="30" t="s">
         <v>71</v>
@@ -4469,13 +4481,13 @@
     </row>
     <row r="10">
       <c r="A10" s="6" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="30" t="s">
@@ -4613,10 +4625,10 @@
     </row>
     <row r="2">
       <c r="A2" s="31" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="C2" s="32"/>
       <c r="D2" s="33"/>
@@ -4635,13 +4647,13 @@
     </row>
     <row r="4">
       <c r="A4" s="31" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="D4" s="34"/>
       <c r="E4" s="6" t="s">
@@ -4691,16 +4703,16 @@
     </row>
     <row r="6">
       <c r="A6" s="31" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="D6" s="34" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>16</v>
@@ -4739,16 +4751,16 @@
     </row>
     <row r="7">
       <c r="A7" s="32" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="C7" s="32" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="D7" s="35" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>16</v>
@@ -4789,16 +4801,16 @@
     </row>
     <row r="8">
       <c r="A8" s="18" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="D8" s="35" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>16</v>
@@ -4837,16 +4849,16 @@
     </row>
     <row r="9">
       <c r="A9" s="18" t="s">
+        <v>525</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>526</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>527</v>
+      </c>
+      <c r="D9" s="35" t="s">
         <v>521</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>522</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>523</v>
-      </c>
-      <c r="D9" s="35" t="s">
-        <v>517</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>16</v>
@@ -4885,16 +4897,16 @@
     </row>
     <row r="10">
       <c r="A10" s="32" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>16</v>
@@ -4935,16 +4947,16 @@
     </row>
     <row r="12">
       <c r="A12" s="31" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="D12" s="35" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>16</v>
@@ -4983,16 +4995,16 @@
     </row>
     <row r="13">
       <c r="A13" s="32" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="D13" s="35" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>16</v>
@@ -5033,16 +5045,16 @@
     </row>
     <row r="14">
       <c r="A14" s="6" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>16</v>
@@ -5081,16 +5093,16 @@
     </row>
     <row r="16">
       <c r="A16" s="5" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>16</v>
@@ -5129,16 +5141,16 @@
     </row>
     <row r="17">
       <c r="A17" s="6" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>16</v>
@@ -5177,16 +5189,16 @@
     </row>
     <row r="18">
       <c r="A18" s="6" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>16</v>
@@ -5225,16 +5237,16 @@
     </row>
     <row r="19">
       <c r="A19" s="6" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="C19" s="6" t="s">
+        <v>550</v>
+      </c>
+      <c r="D19" s="6" t="s">
         <v>546</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>542</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>16</v>
@@ -5273,16 +5285,16 @@
     </row>
     <row r="20">
       <c r="A20" s="6" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>16</v>
@@ -5321,13 +5333,13 @@
     </row>
     <row r="22">
       <c r="A22" s="5" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="6" t="s">
@@ -5370,16 +5382,16 @@
     </row>
     <row r="24">
       <c r="A24" s="5" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>16</v>
@@ -5418,16 +5430,16 @@
     </row>
     <row r="25">
       <c r="A25" s="6" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>16</v>
@@ -5466,16 +5478,16 @@
     </row>
     <row r="26">
       <c r="A26" s="6" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>16</v>
@@ -5514,16 +5526,16 @@
     </row>
     <row r="27">
       <c r="A27" s="6" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>16</v>
@@ -5562,16 +5574,16 @@
     </row>
     <row r="28">
       <c r="A28" s="6" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>16</v>
@@ -5610,16 +5622,16 @@
     </row>
     <row r="29">
       <c r="A29" s="6" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>16</v>
@@ -5658,16 +5670,16 @@
     </row>
     <row r="30">
       <c r="A30" s="6" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="E30" s="6" t="s">
         <v>16</v>
@@ -5706,16 +5718,16 @@
     </row>
     <row r="31">
       <c r="A31" s="5" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>16</v>
@@ -5725,7 +5737,7 @@
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
       <c r="J31" s="6" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="K31" s="19">
         <v>45627.0</v>
@@ -5756,16 +5768,16 @@
     </row>
     <row r="32">
       <c r="A32" s="5" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>16</v>
@@ -5775,7 +5787,7 @@
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
       <c r="J32" s="6" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="K32" s="19">
         <v>45627.0</v>
@@ -5806,16 +5818,16 @@
     </row>
     <row r="33">
       <c r="A33" s="6" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="E33" s="6" t="s">
         <v>16</v>
@@ -5825,7 +5837,7 @@
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
       <c r="J33" s="6" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="K33" s="19">
         <v>45627.0</v>
@@ -5856,13 +5868,13 @@
     </row>
     <row r="34">
       <c r="A34" s="6" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="D34" s="7"/>
       <c r="E34" s="6" t="s">
@@ -5902,13 +5914,13 @@
     </row>
     <row r="35">
       <c r="A35" s="6" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="D35" s="7"/>
       <c r="E35" s="6" t="s">
@@ -5918,7 +5930,7 @@
       <c r="G35" s="7"/>
       <c r="H35" s="7"/>
       <c r="I35" s="6" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="J35" s="7"/>
       <c r="K35" s="19">
@@ -5950,13 +5962,13 @@
     </row>
     <row r="36">
       <c r="A36" s="6" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="D36" s="7"/>
       <c r="E36" s="6" t="s">
@@ -5996,13 +6008,13 @@
     </row>
     <row r="37">
       <c r="A37" s="6" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="D37" s="7"/>
       <c r="E37" s="6" t="s">
@@ -6042,13 +6054,13 @@
     </row>
     <row r="38">
       <c r="A38" s="6" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="D38" s="7"/>
       <c r="E38" s="6" t="s">
@@ -6088,13 +6100,13 @@
     </row>
     <row r="39">
       <c r="A39" s="6" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="D39" s="7"/>
       <c r="E39" s="6" t="s">
@@ -6134,13 +6146,13 @@
     </row>
     <row r="40">
       <c r="A40" s="6" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="D40" s="7"/>
       <c r="E40" s="6" t="s">
@@ -6180,16 +6192,16 @@
     </row>
     <row r="41">
       <c r="A41" s="6" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="E41" s="6" t="s">
         <v>16</v>
@@ -6228,13 +6240,13 @@
     </row>
     <row r="42">
       <c r="A42" s="6" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="D42" s="7"/>
       <c r="E42" s="6" t="s">
@@ -6274,16 +6286,16 @@
     </row>
     <row r="43">
       <c r="A43" s="6" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="E43" s="6" t="s">
         <v>16</v>
@@ -6322,16 +6334,16 @@
     </row>
     <row r="44">
       <c r="A44" s="6" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="E44" s="6" t="s">
         <v>16</v>
@@ -6370,16 +6382,16 @@
     </row>
     <row r="45">
       <c r="A45" s="6" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="E45" s="6" t="s">
         <v>16</v>
@@ -6418,16 +6430,16 @@
     </row>
     <row r="46">
       <c r="A46" s="6" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="E46" s="6" t="s">
         <v>16</v>
@@ -6584,19 +6596,19 @@
     </row>
     <row r="2">
       <c r="A2" s="18" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="D2" s="34" t="s">
         <v>16</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
@@ -6632,19 +6644,19 @@
     </row>
     <row r="3">
       <c r="A3" s="18" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
@@ -6680,19 +6692,19 @@
     </row>
     <row r="4">
       <c r="A4" s="18" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="C4" s="18" t="s">
+        <v>631</v>
+      </c>
+      <c r="D4" s="34" t="s">
+        <v>628</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>627</v>
-      </c>
-      <c r="D4" s="34" t="s">
-        <v>624</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>623</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -6728,19 +6740,19 @@
     </row>
     <row r="5">
       <c r="A5" s="18" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -6776,19 +6788,19 @@
     </row>
     <row r="6">
       <c r="A6" s="18" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="D6" s="34" t="s">
         <v>16</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -6824,22 +6836,22 @@
     </row>
     <row r="7">
       <c r="A7" s="18" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
@@ -6874,19 +6886,19 @@
     </row>
     <row r="8">
       <c r="A8" s="18" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
@@ -6922,19 +6934,19 @@
     </row>
     <row r="9">
       <c r="A9" s="18" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
@@ -6970,19 +6982,19 @@
     </row>
     <row r="10">
       <c r="A10" s="18" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
@@ -7018,19 +7030,19 @@
     </row>
     <row r="11">
       <c r="A11" s="6" t="s">
-        <v>648</v>
+        <v>652</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>651</v>
+        <v>655</v>
       </c>
       <c r="K11" s="19">
         <v>45627.0</v>
@@ -7045,19 +7057,19 @@
     </row>
     <row r="12">
       <c r="A12" s="18" t="s">
-        <v>652</v>
+        <v>656</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>653</v>
+        <v>657</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>654</v>
+        <v>658</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
@@ -7093,19 +7105,19 @@
     </row>
     <row r="13">
       <c r="A13" s="6" t="s">
-        <v>656</v>
+        <v>660</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>657</v>
+        <v>661</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>658</v>
+        <v>662</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
@@ -7141,19 +7153,19 @@
     </row>
     <row r="14">
       <c r="A14" s="6" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>663</v>
+        <v>667</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
@@ -7327,27 +7339,27 @@
     </row>
     <row r="2">
       <c r="A2" s="6" t="s">
-        <v>664</v>
+        <v>668</v>
       </c>
       <c r="B2" s="5"/>
       <c r="J2" s="10" t="s">
-        <v>665</v>
+        <v>669</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="6" t="s">
-        <v>666</v>
+        <v>670</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>667</v>
+        <v>671</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="6" t="s">
-        <v>668</v>
+        <v>672</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>669</v>
+        <v>673</v>
       </c>
     </row>
     <row r="6">
@@ -7842,26 +7854,26 @@
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
-        <v>670</v>
+        <v>674</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>670</v>
+        <v>674</v>
       </c>
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
     </row>
     <row r="3">
       <c r="A3" s="6" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>672</v>
+        <v>676</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>674</v>
+        <v>678</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>16</v>
@@ -7871,7 +7883,7 @@
       </c>
       <c r="L3" s="8"/>
       <c r="M3" s="6" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="N3" s="6" t="s">
         <v>39</v>
@@ -7882,16 +7894,16 @@
     </row>
     <row r="4">
       <c r="A4" s="6" t="s">
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>677</v>
+        <v>681</v>
       </c>
       <c r="C4" s="6" t="s">
+        <v>682</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>678</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>674</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>16</v>
@@ -7901,7 +7913,7 @@
       </c>
       <c r="L4" s="8"/>
       <c r="M4" s="6" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="N4" s="6" t="s">
         <v>39</v>
@@ -7912,16 +7924,16 @@
     </row>
     <row r="5">
       <c r="A5" s="6" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>681</v>
+        <v>685</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>674</v>
+        <v>678</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>16</v>
@@ -7931,7 +7943,7 @@
       </c>
       <c r="L5" s="8"/>
       <c r="M5" s="6" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="N5" s="6" t="s">
         <v>39</v>
@@ -7942,16 +7954,16 @@
     </row>
     <row r="6">
       <c r="A6" s="6" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>683</v>
+        <v>687</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>684</v>
+        <v>688</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>674</v>
+        <v>678</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>16</v>
@@ -7961,7 +7973,7 @@
       </c>
       <c r="L6" s="8"/>
       <c r="M6" s="6" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="N6" s="6" t="s">
         <v>39</v>
@@ -7972,16 +7984,16 @@
     </row>
     <row r="7">
       <c r="A7" s="6" t="s">
-        <v>685</v>
+        <v>689</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>687</v>
+        <v>691</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>674</v>
+        <v>678</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>16</v>
@@ -7991,7 +8003,7 @@
       </c>
       <c r="L7" s="8"/>
       <c r="M7" s="6" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="N7" s="6" t="s">
         <v>39</v>
@@ -8002,16 +8014,16 @@
     </row>
     <row r="8">
       <c r="A8" s="6" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>689</v>
+        <v>693</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>690</v>
+        <v>694</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>674</v>
+        <v>678</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>16</v>
@@ -8021,7 +8033,7 @@
       </c>
       <c r="L8" s="8"/>
       <c r="M8" s="6" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="N8" s="6" t="s">
         <v>39</v>
@@ -8032,16 +8044,16 @@
     </row>
     <row r="9">
       <c r="A9" s="6" t="s">
-        <v>691</v>
+        <v>695</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>674</v>
+        <v>678</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>16</v>
@@ -8051,7 +8063,7 @@
       </c>
       <c r="L9" s="8"/>
       <c r="M9" s="6" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="N9" s="6" t="s">
         <v>39</v>
@@ -8062,16 +8074,16 @@
     </row>
     <row r="10">
       <c r="A10" s="6" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>695</v>
+        <v>699</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>696</v>
+        <v>700</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>674</v>
+        <v>678</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>16</v>
@@ -8081,7 +8093,7 @@
       </c>
       <c r="L10" s="8"/>
       <c r="M10" s="6" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="N10" s="6" t="s">
         <v>39</v>
@@ -8092,16 +8104,16 @@
     </row>
     <row r="11">
       <c r="A11" s="6" t="s">
-        <v>697</v>
+        <v>701</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>698</v>
+        <v>702</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>699</v>
+        <v>703</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>674</v>
+        <v>678</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>16</v>
@@ -8111,7 +8123,7 @@
       </c>
       <c r="L11" s="8"/>
       <c r="M11" s="6" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="N11" s="6" t="s">
         <v>39</v>
@@ -8122,16 +8134,16 @@
     </row>
     <row r="12">
       <c r="A12" s="6" t="s">
-        <v>700</v>
+        <v>704</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>702</v>
+        <v>706</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>703</v>
+        <v>707</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>16</v>
@@ -8141,7 +8153,7 @@
       </c>
       <c r="L12" s="8"/>
       <c r="M12" s="6" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="N12" s="6" t="s">
         <v>39</v>
@@ -8152,16 +8164,16 @@
     </row>
     <row r="13">
       <c r="A13" s="6" t="s">
-        <v>704</v>
+        <v>708</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>705</v>
+        <v>709</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>706</v>
+        <v>710</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>707</v>
+        <v>711</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>16</v>
@@ -8170,7 +8182,7 @@
         <v>44727.0</v>
       </c>
       <c r="M13" s="6" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="N13" s="6" t="s">
         <v>39</v>
@@ -8181,16 +8193,16 @@
     </row>
     <row r="14">
       <c r="A14" s="24" t="s">
-        <v>708</v>
+        <v>712</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="C14" s="48" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="D14" s="49" t="s">
-        <v>674</v>
+        <v>678</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>16</v>
@@ -8200,12 +8212,12 @@
       <c r="H14" s="11"/>
       <c r="I14" s="11"/>
       <c r="J14" s="24" t="s">
-        <v>711</v>
+        <v>715</v>
       </c>
       <c r="K14" s="11"/>
       <c r="L14" s="11"/>
       <c r="M14" s="6" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="N14" s="11"/>
       <c r="O14" s="11"/>
@@ -8228,18 +8240,18 @@
     </row>
     <row r="16">
       <c r="A16" s="5" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="6" t="s">
-        <v>713</v>
+        <v>717</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>714</v>
+        <v>718</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>715</v>
+        <v>719</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>16</v>
@@ -8248,7 +8260,7 @@
         <v>44727.0</v>
       </c>
       <c r="M17" s="6" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="N17" s="6" t="s">
         <v>39</v>
@@ -8259,13 +8271,13 @@
     </row>
     <row r="18">
       <c r="A18" s="6" t="s">
-        <v>716</v>
+        <v>720</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>717</v>
+        <v>721</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>718</v>
+        <v>722</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>16</v>
@@ -8275,7 +8287,7 @@
       </c>
       <c r="L18" s="8"/>
       <c r="M18" s="6" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="N18" s="6" t="s">
         <v>39</v>
@@ -8286,13 +8298,13 @@
     </row>
     <row r="19">
       <c r="A19" s="6" t="s">
-        <v>719</v>
+        <v>723</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>720</v>
+        <v>724</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>721</v>
+        <v>725</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>16</v>
@@ -8302,7 +8314,7 @@
       </c>
       <c r="L19" s="8"/>
       <c r="M19" s="6" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="N19" s="6" t="s">
         <v>39</v>
@@ -8313,13 +8325,13 @@
     </row>
     <row r="20">
       <c r="A20" s="6" t="s">
-        <v>722</v>
+        <v>726</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>723</v>
+        <v>727</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>724</v>
+        <v>728</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>16</v>
@@ -8329,7 +8341,7 @@
       </c>
       <c r="L20" s="8"/>
       <c r="M20" s="6" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="N20" s="6" t="s">
         <v>39</v>
@@ -8340,13 +8352,13 @@
     </row>
     <row r="21">
       <c r="A21" s="6" t="s">
-        <v>725</v>
+        <v>729</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>726</v>
+        <v>730</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>727</v>
+        <v>731</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>16</v>
@@ -8356,7 +8368,7 @@
       </c>
       <c r="L21" s="8"/>
       <c r="M21" s="6" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="N21" s="6" t="s">
         <v>39</v>
@@ -8367,13 +8379,13 @@
     </row>
     <row r="22">
       <c r="A22" s="6" t="s">
-        <v>728</v>
+        <v>732</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>729</v>
+        <v>733</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>730</v>
+        <v>734</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>16</v>
@@ -8383,7 +8395,7 @@
       </c>
       <c r="L22" s="8"/>
       <c r="M22" s="6" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="N22" s="6" t="s">
         <v>39</v>
@@ -8394,10 +8406,10 @@
     </row>
     <row r="24">
       <c r="A24" s="5" t="s">
-        <v>731</v>
+        <v>735</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>731</v>
+        <v>735</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="30"/>
@@ -8406,16 +8418,16 @@
     </row>
     <row r="25">
       <c r="A25" s="6" t="s">
-        <v>732</v>
+        <v>736</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>733</v>
+        <v>737</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>734</v>
+        <v>738</v>
       </c>
       <c r="D25" s="30" t="s">
-        <v>735</v>
+        <v>739</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>16</v>
@@ -8424,7 +8436,7 @@
         <v>44727.0</v>
       </c>
       <c r="M25" s="6" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="N25" s="6" t="s">
         <v>39</v>
@@ -8435,16 +8447,16 @@
     </row>
     <row r="26">
       <c r="A26" s="6" t="s">
-        <v>736</v>
+        <v>740</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>737</v>
+        <v>741</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>738</v>
+        <v>742</v>
       </c>
       <c r="D26" s="30" t="s">
-        <v>735</v>
+        <v>739</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>16</v>
@@ -8453,7 +8465,7 @@
         <v>44727.0</v>
       </c>
       <c r="M26" s="6" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="N26" s="6" t="s">
         <v>39</v>
@@ -8464,16 +8476,16 @@
     </row>
     <row r="27">
       <c r="A27" s="6" t="s">
+        <v>743</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>744</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>745</v>
+      </c>
+      <c r="D27" s="30" t="s">
         <v>739</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>740</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>741</v>
-      </c>
-      <c r="D27" s="30" t="s">
-        <v>735</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>16</v>
@@ -8482,7 +8494,7 @@
         <v>44727.0</v>
       </c>
       <c r="M27" s="6" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="N27" s="6" t="s">
         <v>39</v>
@@ -8493,16 +8505,16 @@
     </row>
     <row r="28">
       <c r="A28" s="6" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>742</v>
+        <v>746</v>
       </c>
       <c r="D28" s="30" t="s">
-        <v>735</v>
+        <v>739</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>16</v>
@@ -8511,7 +8523,7 @@
         <v>44727.0</v>
       </c>
       <c r="M28" s="6" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="N28" s="6" t="s">
         <v>39</v>
@@ -8522,10 +8534,10 @@
     </row>
     <row r="30">
       <c r="A30" s="5" t="s">
-        <v>743</v>
+        <v>747</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>743</v>
+        <v>747</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
@@ -8556,16 +8568,16 @@
     </row>
     <row r="31">
       <c r="A31" s="6" t="s">
-        <v>744</v>
+        <v>748</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>745</v>
+        <v>749</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>746</v>
+        <v>750</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>747</v>
+        <v>751</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>16</v>
@@ -8574,10 +8586,10 @@
         <v>44727.0</v>
       </c>
       <c r="M31" s="6" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="N31" s="6" t="s">
-        <v>748</v>
+        <v>752</v>
       </c>
       <c r="O31" s="9" t="s">
         <v>28</v>
@@ -8585,16 +8597,16 @@
     </row>
     <row r="32">
       <c r="A32" s="6" t="s">
-        <v>749</v>
+        <v>753</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>750</v>
+        <v>754</v>
       </c>
       <c r="C32" s="6" t="s">
+        <v>755</v>
+      </c>
+      <c r="D32" s="6" t="s">
         <v>751</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>747</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>16</v>
@@ -8603,10 +8615,10 @@
         <v>44727.0</v>
       </c>
       <c r="M32" s="6" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="N32" s="6" t="s">
-        <v>748</v>
+        <v>752</v>
       </c>
       <c r="O32" s="9" t="s">
         <v>28</v>
@@ -8614,16 +8626,16 @@
     </row>
     <row r="33">
       <c r="A33" s="6" t="s">
-        <v>752</v>
+        <v>756</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>753</v>
+        <v>757</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>754</v>
+        <v>758</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>747</v>
+        <v>751</v>
       </c>
       <c r="E33" s="6" t="s">
         <v>16</v>
@@ -8632,10 +8644,10 @@
         <v>44727.0</v>
       </c>
       <c r="M33" s="6" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="N33" s="6" t="s">
-        <v>748</v>
+        <v>752</v>
       </c>
       <c r="O33" s="9" t="s">
         <v>28</v>
@@ -8643,16 +8655,16 @@
     </row>
     <row r="34">
       <c r="A34" s="6" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>756</v>
+        <v>760</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>757</v>
+        <v>761</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>747</v>
+        <v>751</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>16</v>
@@ -8661,10 +8673,10 @@
         <v>44727.0</v>
       </c>
       <c r="M34" s="6" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="N34" s="6" t="s">
-        <v>748</v>
+        <v>752</v>
       </c>
       <c r="O34" s="9" t="s">
         <v>28</v>
@@ -8672,16 +8684,16 @@
     </row>
     <row r="35">
       <c r="A35" s="6" t="s">
-        <v>758</v>
+        <v>762</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>759</v>
+        <v>763</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>760</v>
+        <v>764</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>747</v>
+        <v>751</v>
       </c>
       <c r="E35" s="6" t="s">
         <v>16</v>
@@ -8690,10 +8702,10 @@
         <v>44727.0</v>
       </c>
       <c r="M35" s="6" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="N35" s="6" t="s">
-        <v>748</v>
+        <v>752</v>
       </c>
       <c r="O35" s="9" t="s">
         <v>28</v>
@@ -8701,16 +8713,16 @@
     </row>
     <row r="36">
       <c r="A36" s="6" t="s">
-        <v>761</v>
+        <v>765</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>762</v>
+        <v>766</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>763</v>
+        <v>767</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="E36" s="6" t="s">
         <v>16</v>
@@ -8719,10 +8731,10 @@
         <v>44727.0</v>
       </c>
       <c r="M36" s="6" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="N36" s="6" t="s">
-        <v>748</v>
+        <v>752</v>
       </c>
       <c r="O36" s="9" t="s">
         <v>28</v>
@@ -8730,37 +8742,37 @@
     </row>
     <row r="38">
       <c r="A38" s="5" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
       <c r="K38" s="8"/>
     </row>
     <row r="39">
       <c r="A39" s="6" t="s">
-        <v>766</v>
+        <v>770</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>767</v>
+        <v>771</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>768</v>
+        <v>772</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>769</v>
+        <v>773</v>
       </c>
       <c r="E39" s="6" t="s">
         <v>16</v>
       </c>
       <c r="I39" s="6" t="s">
-        <v>770</v>
+        <v>774</v>
       </c>
       <c r="K39" s="8">
         <v>44727.0</v>
       </c>
       <c r="M39" s="6" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="N39" s="6" t="s">
         <v>39</v>
@@ -8771,28 +8783,28 @@
     </row>
     <row r="40">
       <c r="A40" s="6" t="s">
-        <v>771</v>
+        <v>775</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>772</v>
+        <v>776</v>
       </c>
       <c r="C40" s="6" t="s">
+        <v>777</v>
+      </c>
+      <c r="D40" s="6" t="s">
         <v>773</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>769</v>
       </c>
       <c r="E40" s="6" t="s">
         <v>16</v>
       </c>
       <c r="I40" s="6" t="s">
-        <v>774</v>
+        <v>778</v>
       </c>
       <c r="K40" s="8">
         <v>44727.0</v>
       </c>
       <c r="M40" s="6" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="N40" s="6" t="s">
         <v>39</v>
@@ -8803,21 +8815,21 @@
     </row>
     <row r="42">
       <c r="A42" s="5" t="s">
-        <v>775</v>
+        <v>779</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="32" t="s">
-        <v>776</v>
+        <v>780</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>777</v>
+        <v>781</v>
       </c>
       <c r="C43" s="32" t="s">
-        <v>778</v>
+        <v>782</v>
       </c>
       <c r="D43" s="35" t="s">
-        <v>779</v>
+        <v>783</v>
       </c>
       <c r="E43" s="6" t="s">
         <v>16</v>
@@ -8826,7 +8838,7 @@
         <v>44727.0</v>
       </c>
       <c r="M43" s="6" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="N43" s="6" t="s">
         <v>39</v>
@@ -8837,16 +8849,16 @@
     </row>
     <row r="44">
       <c r="A44" s="50" t="s">
-        <v>780</v>
+        <v>784</v>
       </c>
       <c r="B44" s="50" t="s">
-        <v>781</v>
+        <v>785</v>
       </c>
       <c r="C44" s="51" t="s">
-        <v>782</v>
+        <v>786</v>
       </c>
       <c r="D44" s="52" t="s">
-        <v>783</v>
+        <v>787</v>
       </c>
       <c r="E44" s="11" t="s">
         <v>16</v>
@@ -8861,7 +8873,7 @@
       </c>
       <c r="L44" s="11"/>
       <c r="M44" s="6" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="N44" s="11" t="s">
         <v>39</v>
@@ -8887,16 +8899,16 @@
     </row>
     <row r="45">
       <c r="A45" s="50" t="s">
-        <v>784</v>
+        <v>788</v>
       </c>
       <c r="B45" s="50" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
       <c r="C45" s="51" t="s">
-        <v>786</v>
+        <v>790</v>
       </c>
       <c r="D45" s="55" t="s">
-        <v>787</v>
+        <v>791</v>
       </c>
       <c r="E45" s="11" t="s">
         <v>16</v>
@@ -8911,7 +8923,7 @@
       </c>
       <c r="L45" s="11"/>
       <c r="M45" s="6" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="N45" s="11" t="s">
         <v>39</v>
@@ -8937,16 +8949,16 @@
     </row>
     <row r="46">
       <c r="A46" s="50" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
       <c r="B46" s="50" t="s">
-        <v>789</v>
+        <v>793</v>
       </c>
       <c r="C46" s="51" t="s">
-        <v>790</v>
+        <v>794</v>
       </c>
       <c r="D46" s="55" t="s">
-        <v>791</v>
+        <v>795</v>
       </c>
       <c r="E46" s="11" t="s">
         <v>16</v>
@@ -8961,7 +8973,7 @@
       </c>
       <c r="L46" s="11"/>
       <c r="M46" s="6" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="N46" s="11" t="s">
         <v>39</v>
@@ -10170,20 +10182,58 @@
       <c r="A2" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="K2" s="8"/>
+      <c r="B2" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="8">
+        <v>45643.0</v>
+      </c>
+      <c r="L2" s="7"/>
+      <c r="M2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="7"/>
+      <c r="AA2" s="7"/>
+      <c r="AB2" s="7"/>
+      <c r="AC2" s="7"/>
+      <c r="AD2" s="7"/>
     </row>
     <row r="3">
       <c r="A3" s="6" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>25</v>
@@ -10222,16 +10272,16 @@
     </row>
     <row r="4">
       <c r="A4" s="6" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>25</v>
@@ -10270,16 +10320,16 @@
     </row>
     <row r="5">
       <c r="A5" s="6" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>25</v>
@@ -10318,16 +10368,16 @@
     </row>
     <row r="6">
       <c r="A6" s="6" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C6" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>148</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>146</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>25</v>
@@ -10366,16 +10416,16 @@
     </row>
     <row r="7">
       <c r="A7" s="6" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>25</v>
@@ -10384,7 +10434,7 @@
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
       <c r="I7" s="6" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="J7" s="7"/>
       <c r="K7" s="8">
@@ -10416,16 +10466,16 @@
     </row>
     <row r="8">
       <c r="A8" s="6" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>25</v>
@@ -10434,7 +10484,7 @@
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="6" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="J8" s="7"/>
       <c r="K8" s="8">
@@ -10466,16 +10516,16 @@
     </row>
     <row r="9">
       <c r="A9" s="11" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>25</v>
@@ -10484,7 +10534,7 @@
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="I9" s="6" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="J9" s="7"/>
       <c r="K9" s="8">
@@ -10516,16 +10566,16 @@
     </row>
     <row r="10">
       <c r="A10" s="11" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>25</v>
@@ -10534,7 +10584,7 @@
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
       <c r="I10" s="6" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="J10" s="7"/>
       <c r="K10" s="8">
@@ -10566,16 +10616,16 @@
     </row>
     <row r="11">
       <c r="A11" s="11" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>25</v>
@@ -10614,16 +10664,16 @@
     </row>
     <row r="12">
       <c r="A12" s="11" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B12" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>170</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>168</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>25</v>
@@ -10662,16 +10712,16 @@
     </row>
     <row r="13">
       <c r="A13" s="11" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>25</v>
@@ -10710,16 +10760,16 @@
     </row>
     <row r="14">
       <c r="A14" s="11" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>25</v>
@@ -10758,16 +10808,16 @@
     </row>
     <row r="15">
       <c r="A15" s="11" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>25</v>
@@ -10776,7 +10826,7 @@
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
       <c r="I15" s="6" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="J15" s="7"/>
       <c r="K15" s="8">
@@ -10808,16 +10858,16 @@
     </row>
     <row r="16">
       <c r="A16" s="11" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>25</v>
@@ -10826,7 +10876,7 @@
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
       <c r="I16" s="6" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="J16" s="7"/>
       <c r="K16" s="8">
@@ -10858,16 +10908,16 @@
     </row>
     <row r="17">
       <c r="A17" s="11" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>25</v>
@@ -10876,7 +10926,7 @@
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
       <c r="I17" s="6" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="J17" s="7"/>
       <c r="K17" s="8">
@@ -11001,10 +11051,10 @@
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -11013,19 +11063,19 @@
     </row>
     <row r="3">
       <c r="A3" s="6" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="K3" s="8"/>
     </row>
     <row r="4">
       <c r="A4" s="6" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="6" t="s">
@@ -11043,7 +11093,7 @@
         <v>45627.0</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="N4" s="6" t="s">
         <v>39</v>
@@ -11067,13 +11117,13 @@
     </row>
     <row r="5">
       <c r="A5" s="6" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="6" t="s">
@@ -11091,7 +11141,7 @@
         <v>45627.0</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="N5" s="6" t="s">
         <v>39</v>
@@ -11115,13 +11165,13 @@
     </row>
     <row r="6">
       <c r="A6" s="6" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="6" t="s">
@@ -11139,7 +11189,7 @@
         <v>45627.0</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="N6" s="6" t="s">
         <v>39</v>
@@ -11163,13 +11213,13 @@
     </row>
     <row r="7">
       <c r="A7" s="6" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="6" t="s">
@@ -11187,7 +11237,7 @@
         <v>45627.0</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="N7" s="6" t="s">
         <v>39</v>
@@ -11211,13 +11261,13 @@
     </row>
     <row r="8">
       <c r="A8" s="6" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="6" t="s">
@@ -11235,7 +11285,7 @@
         <v>45627.0</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="N8" s="6" t="s">
         <v>39</v>
@@ -11259,13 +11309,13 @@
     </row>
     <row r="9">
       <c r="A9" s="6" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="6" t="s">
@@ -11283,7 +11333,7 @@
         <v>45627.0</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="N9" s="6" t="s">
         <v>39</v>
@@ -11307,13 +11357,13 @@
     </row>
     <row r="10">
       <c r="A10" s="6" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="6" t="s">
@@ -11331,7 +11381,7 @@
         <v>45627.0</v>
       </c>
       <c r="M10" s="6" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="N10" s="6" t="s">
         <v>39</v>
@@ -11355,13 +11405,13 @@
     </row>
     <row r="11">
       <c r="A11" s="6" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="6" t="s">
@@ -11379,7 +11429,7 @@
         <v>45627.0</v>
       </c>
       <c r="M11" s="6" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="N11" s="6" t="s">
         <v>39</v>
@@ -11406,16 +11456,16 @@
     </row>
     <row r="13">
       <c r="A13" s="6" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>79</v>
@@ -11432,7 +11482,7 @@
         <v>45627.0</v>
       </c>
       <c r="M13" s="6" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="N13" s="6" t="s">
         <v>39</v>
@@ -11454,16 +11504,16 @@
     </row>
     <row r="14">
       <c r="A14" s="6" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>79</v>
@@ -11480,7 +11530,7 @@
         <v>45627.0</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="N14" s="6" t="s">
         <v>39</v>
@@ -11502,16 +11552,16 @@
     </row>
     <row r="15">
       <c r="A15" s="6" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B15" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>223</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>221</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>79</v>
@@ -11528,7 +11578,7 @@
         <v>45627.0</v>
       </c>
       <c r="M15" s="6" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="N15" s="6" t="s">
         <v>39</v>
@@ -11550,16 +11600,16 @@
     </row>
     <row r="16">
       <c r="A16" s="6" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>79</v>
@@ -11576,7 +11626,7 @@
         <v>45627.0</v>
       </c>
       <c r="M16" s="6" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="N16" s="6" t="s">
         <v>39</v>
@@ -11598,16 +11648,16 @@
     </row>
     <row r="17">
       <c r="A17" s="6" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>79</v>
@@ -11624,7 +11674,7 @@
         <v>45627.0</v>
       </c>
       <c r="M17" s="6" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="N17" s="6" t="s">
         <v>39</v>
@@ -11646,16 +11696,16 @@
     </row>
     <row r="18">
       <c r="A18" s="6" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>79</v>
@@ -11672,7 +11722,7 @@
         <v>45627.0</v>
       </c>
       <c r="M18" s="6" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="N18" s="6" t="s">
         <v>39</v>
@@ -11694,16 +11744,16 @@
     </row>
     <row r="19">
       <c r="A19" s="6" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>79</v>
@@ -11720,7 +11770,7 @@
         <v>45627.0</v>
       </c>
       <c r="M19" s="6" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="N19" s="6" t="s">
         <v>39</v>
@@ -11742,16 +11792,16 @@
     </row>
     <row r="20">
       <c r="A20" s="6" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>79</v>
@@ -11768,10 +11818,10 @@
         <v>45627.0</v>
       </c>
       <c r="M20" s="6" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="N20" s="6" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="O20" s="7"/>
       <c r="P20" s="7"/>
@@ -11790,16 +11840,16 @@
     </row>
     <row r="21">
       <c r="A21" s="6" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>79</v>
@@ -11816,10 +11866,10 @@
         <v>45627.0</v>
       </c>
       <c r="M21" s="6" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="N21" s="6" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="O21" s="7"/>
       <c r="P21" s="7"/>
@@ -11838,16 +11888,16 @@
     </row>
     <row r="22">
       <c r="A22" s="6" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>79</v>
@@ -11864,10 +11914,10 @@
         <v>45627.0</v>
       </c>
       <c r="M22" s="6" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="N22" s="6" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="O22" s="7"/>
       <c r="P22" s="7"/>
@@ -12001,7 +12051,7 @@
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B2" s="5"/>
       <c r="K2" s="8"/>
@@ -12022,55 +12072,55 @@
     </row>
     <row r="5">
       <c r="A5" s="11" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="K5" s="8"/>
     </row>
     <row r="6">
       <c r="A6" s="11" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="K6" s="8"/>
     </row>
     <row r="7">
       <c r="A7" s="11" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="K7" s="8"/>
     </row>
     <row r="8">
       <c r="A8" s="11" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K8" s="8"/>
     </row>
     <row r="9">
       <c r="A9" s="11" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K9" s="8"/>
     </row>
     <row r="10">
       <c r="A10" s="11" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="K10" s="8"/>
     </row>
@@ -12079,7 +12129,7 @@
     </row>
     <row r="12">
       <c r="A12" s="22" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="K12" s="8"/>
     </row>
@@ -12089,236 +12139,236 @@
     </row>
     <row r="14">
       <c r="A14" s="23" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="K14" s="8"/>
     </row>
     <row r="15">
       <c r="A15" s="11" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="K15" s="8"/>
     </row>
     <row r="16">
       <c r="A16" s="24" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="K16" s="8"/>
     </row>
     <row r="17">
       <c r="A17" s="11" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="K17" s="8"/>
     </row>
     <row r="18">
       <c r="A18" s="11" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="K18" s="8"/>
     </row>
     <row r="19">
       <c r="A19" s="11" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="K19" s="8"/>
     </row>
     <row r="20">
       <c r="A20" s="24" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="24" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="24" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="24" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="24" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="24" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="24" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="24" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="5" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="5" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C30" s="6"/>
     </row>
     <row r="31">
       <c r="A31" s="6" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C31" s="6"/>
     </row>
     <row r="32">
       <c r="A32" s="6" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C32" s="6"/>
     </row>
     <row r="33">
       <c r="A33" s="5" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C33" s="6"/>
     </row>
     <row r="34">
       <c r="A34" s="6" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="6" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="5" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
     </row>
     <row r="37">
       <c r="A37" s="6" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="6" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="5" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="6" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="6" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="5" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="6" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="6" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="5" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="6" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="6" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="5" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="6" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="6" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="5" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="6" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="6" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="5" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="6" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="6" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
   </sheetData>
@@ -12424,10 +12474,10 @@
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -12442,24 +12492,24 @@
     </row>
     <row r="4">
       <c r="A4" s="18" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="6" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
       <c r="J4" s="6" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="K4" s="8">
         <v>45421.0</v>
@@ -12493,24 +12543,24 @@
     </row>
     <row r="5">
       <c r="A5" s="18" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="6" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
       <c r="J5" s="6" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="K5" s="8">
         <v>45421.0</v>
@@ -12540,26 +12590,26 @@
     </row>
     <row r="6">
       <c r="A6" s="18" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
       <c r="J6" s="6" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="K6" s="8">
         <v>45421.0</v>
@@ -12593,24 +12643,24 @@
     </row>
     <row r="7">
       <c r="A7" s="18" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="6" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
       <c r="J7" s="6" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="K7" s="8">
         <v>45421.0</v>
@@ -12640,26 +12690,26 @@
     </row>
     <row r="8">
       <c r="A8" s="18" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
       <c r="J8" s="6" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="K8" s="8">
         <v>45421.0</v>
@@ -12693,26 +12743,26 @@
     </row>
     <row r="9">
       <c r="A9" s="18" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="6" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="I9" s="6" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="K9" s="8">
         <v>45421.0</v>
@@ -12746,24 +12796,24 @@
     </row>
     <row r="10">
       <c r="A10" s="21" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="6" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
       <c r="J10" s="21" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="K10" s="8">
         <v>45421.0</v>
@@ -12793,24 +12843,24 @@
     </row>
     <row r="11">
       <c r="A11" s="21" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="6" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
       <c r="J11" s="11" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="K11" s="8">
         <v>45421.0</v>
@@ -12840,24 +12890,24 @@
     </row>
     <row r="12">
       <c r="A12" s="21" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="6" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
       <c r="J12" s="11" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="K12" s="8">
         <v>45421.0</v>
@@ -12887,24 +12937,24 @@
     </row>
     <row r="13">
       <c r="A13" s="21" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="6" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
       <c r="J13" s="11" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="K13" s="8">
         <v>45421.0</v>
@@ -12934,24 +12984,24 @@
     </row>
     <row r="14">
       <c r="A14" s="21" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="6" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
       <c r="H14" s="11"/>
       <c r="I14" s="11"/>
       <c r="J14" s="11" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="K14" s="8">
         <v>45421.0</v>
@@ -12981,24 +13031,24 @@
     </row>
     <row r="15">
       <c r="A15" s="21" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="6" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
       <c r="H15" s="11"/>
       <c r="I15" s="11"/>
       <c r="J15" s="11" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="K15" s="8">
         <v>45421.0</v>
@@ -13028,24 +13078,24 @@
     </row>
     <row r="16">
       <c r="A16" s="21" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="6" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
       <c r="H16" s="11"/>
       <c r="I16" s="11"/>
       <c r="J16" s="11" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="K16" s="8">
         <v>45421.0</v>
@@ -13075,24 +13125,24 @@
     </row>
     <row r="17">
       <c r="A17" s="21" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="6" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
       <c r="H17" s="11"/>
       <c r="I17" s="11"/>
       <c r="J17" s="11" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="K17" s="8">
         <v>45421.0</v>
@@ -13122,26 +13172,26 @@
     </row>
     <row r="18">
       <c r="A18" s="6" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="6" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
       <c r="I18" s="6" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="K18" s="8">
         <v>45421.0</v>
@@ -13171,26 +13221,26 @@
     </row>
     <row r="19">
       <c r="A19" s="6" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
       <c r="J19" s="6" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="K19" s="8">
         <v>45421.0</v>
@@ -13220,26 +13270,26 @@
     </row>
     <row r="20">
       <c r="A20" s="6" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C20" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="D20" s="6" t="s">
         <v>351</v>
       </c>
-      <c r="D20" s="6" t="s">
-        <v>349</v>
-      </c>
       <c r="E20" s="6" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
       <c r="J20" s="6" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="K20" s="8">
         <v>45421.0</v>
@@ -13269,26 +13319,26 @@
     </row>
     <row r="21">
       <c r="A21" s="6" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
       <c r="J21" s="6" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="K21" s="8">
         <v>45421.0</v>
@@ -13318,17 +13368,17 @@
     </row>
     <row r="22">
       <c r="A22" s="6" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="6" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
@@ -13363,17 +13413,17 @@
     </row>
     <row r="23">
       <c r="A23" s="6" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D23" s="7"/>
       <c r="E23" s="6" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
@@ -13408,23 +13458,23 @@
     </row>
     <row r="24">
       <c r="A24" s="6" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D24" s="7"/>
       <c r="E24" s="6" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
       <c r="I24" s="6" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="J24" s="7"/>
       <c r="K24" s="8">
@@ -13569,22 +13619,22 @@
     </row>
     <row r="2">
       <c r="A2" s="18" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="G2" s="26"/>
       <c r="H2" s="26"/>
@@ -13617,22 +13667,22 @@
     </row>
     <row r="3">
       <c r="A3" s="18" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E3" s="25" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="G3" s="26"/>
       <c r="H3" s="26"/>
@@ -13665,22 +13715,22 @@
     </row>
     <row r="4">
       <c r="A4" s="18" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E4" s="25" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="G4" s="26"/>
       <c r="H4" s="26"/>
@@ -13713,22 +13763,22 @@
     </row>
     <row r="5">
       <c r="A5" s="18" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="G5" s="26"/>
       <c r="H5" s="26"/>
@@ -13761,22 +13811,22 @@
     </row>
     <row r="6">
       <c r="A6" s="18" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
@@ -13809,22 +13859,22 @@
     </row>
     <row r="7">
       <c r="A7" s="18" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
@@ -13857,22 +13907,22 @@
     </row>
     <row r="8">
       <c r="A8" s="21" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
@@ -13905,22 +13955,22 @@
     </row>
     <row r="9">
       <c r="A9" s="21" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
@@ -13953,22 +14003,22 @@
     </row>
     <row r="10">
       <c r="A10" s="21" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
@@ -14001,22 +14051,22 @@
     </row>
     <row r="11">
       <c r="A11" s="21" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
@@ -14049,22 +14099,22 @@
     </row>
     <row r="12">
       <c r="A12" s="21" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
@@ -14097,22 +14147,22 @@
     </row>
     <row r="13">
       <c r="A13" s="21" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
@@ -14145,22 +14195,22 @@
     </row>
     <row r="14">
       <c r="A14" s="21" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
@@ -14193,22 +14243,22 @@
     </row>
     <row r="15">
       <c r="A15" s="21" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
@@ -14241,22 +14291,22 @@
     </row>
     <row r="16">
       <c r="A16" s="6" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
@@ -14289,22 +14339,22 @@
     </row>
     <row r="17">
       <c r="A17" s="6" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
@@ -14337,22 +14387,22 @@
     </row>
     <row r="18">
       <c r="A18" s="6" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
@@ -14385,22 +14435,22 @@
     </row>
     <row r="19">
       <c r="A19" s="6" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
@@ -14548,10 +14598,10 @@
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -14566,13 +14616,13 @@
     </row>
     <row r="4">
       <c r="A4" s="18" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="6" t="s">
@@ -14613,13 +14663,13 @@
     </row>
     <row r="5">
       <c r="A5" s="18" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="6" t="s">
@@ -14658,13 +14708,13 @@
     </row>
     <row r="6">
       <c r="A6" s="18" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="6" t="s">
@@ -14705,13 +14755,13 @@
     </row>
     <row r="7">
       <c r="A7" s="18" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="6" t="s">
@@ -14750,13 +14800,13 @@
     </row>
     <row r="8">
       <c r="A8" s="18" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="6" t="s">
@@ -14795,16 +14845,16 @@
     </row>
     <row r="9">
       <c r="A9" s="18" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>99</v>
@@ -14842,16 +14892,16 @@
     </row>
     <row r="10">
       <c r="A10" s="21" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="B10" s="21" t="s">
+        <v>449</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>450</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>447</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>448</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>445</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>99</v>
@@ -14918,7 +14968,9 @@
       <c r="AE11" s="11"/>
     </row>
     <row r="12">
-      <c r="A12" s="21"/>
+      <c r="A12" s="21" t="s">
+        <v>451</v>
+      </c>
       <c r="B12" s="21"/>
       <c r="C12" s="11"/>
       <c r="F12" s="11"/>
@@ -14948,7 +15000,9 @@
       <c r="AE12" s="11"/>
     </row>
     <row r="13">
-      <c r="A13" s="21"/>
+      <c r="A13" s="21" t="s">
+        <v>452</v>
+      </c>
       <c r="B13" s="21"/>
       <c r="C13" s="11"/>
       <c r="F13" s="11"/>
@@ -15199,10 +15253,10 @@
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -15211,13 +15265,13 @@
     </row>
     <row r="3">
       <c r="A3" s="6" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="K3" s="8"/>
     </row>
     <row r="4">
       <c r="A4" s="18" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="B4" s="18"/>
       <c r="C4" s="18"/>
@@ -15228,7 +15282,7 @@
     </row>
     <row r="5">
       <c r="A5" s="18" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
@@ -15237,16 +15291,16 @@
     </row>
     <row r="6">
       <c r="A6" s="18" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="B6" s="18" t="s">
+        <v>457</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>458</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>453</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>454</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>449</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>25</v>
@@ -15284,16 +15338,16 @@
     </row>
     <row r="7">
       <c r="A7" s="18" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>25</v>
@@ -15333,17 +15387,17 @@
     </row>
     <row r="8">
       <c r="A8" s="18" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="6" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
@@ -15378,17 +15432,17 @@
     </row>
     <row r="9">
       <c r="A9" s="18" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="6" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
@@ -15423,16 +15477,16 @@
     </row>
     <row r="10">
       <c r="A10" s="21" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>25</v>
@@ -15470,17 +15524,17 @@
     </row>
     <row r="11">
       <c r="A11" s="21" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="6" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
@@ -15515,17 +15569,17 @@
     </row>
     <row r="12">
       <c r="A12" s="21" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="6" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
@@ -15560,16 +15614,16 @@
     </row>
     <row r="13">
       <c r="A13" s="6" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>25</v>

--- a/code/vocab_csv/tech.xlsx
+++ b/code/vocab_csv/tech.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1849" uniqueCount="796">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1843" uniqueCount="794">
   <si>
     <t>Term</t>
   </si>
@@ -213,10 +213,10 @@
     <t>InputOutput</t>
   </si>
   <si>
-    <t>Input-Output</t>
-  </si>
-  <si>
-    <t>A broad abstract concept referring to the inputs and outputs associated with a technology</t>
+    <t>Input/Output</t>
+  </si>
+  <si>
+    <t>Forms of inputs and outputs associated with a technology</t>
   </si>
   <si>
     <t>domain</t>
@@ -433,12 +433,6 @@
   </si>
   <si>
     <t>tech:hasOutput</t>
-  </si>
-  <si>
-    <t>Input/Output</t>
-  </si>
-  <si>
-    <t>Forms of inputs and outputs associated with a technology</t>
   </si>
   <si>
     <t>InputData</t>
@@ -3709,26 +3703,22 @@
       <c r="C16" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D16" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>25</v>
-      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
       <c r="K16" s="8">
-        <v>45627.0</v>
+        <v>45643.0</v>
       </c>
       <c r="L16" s="7"/>
       <c r="M16" s="6" t="s">
         <v>26</v>
       </c>
       <c r="N16" s="6" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="O16" s="7"/>
       <c r="P16" s="7"/>
@@ -3898,22 +3888,22 @@
     </row>
     <row r="2">
       <c r="A2" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>482</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>483</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>484</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
@@ -3948,22 +3938,22 @@
     </row>
     <row r="3">
       <c r="A3" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>487</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>488</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>489</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
@@ -3994,22 +3984,22 @@
     </row>
     <row r="4">
       <c r="A4" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>490</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>491</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>492</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
@@ -4043,7 +4033,7 @@
     </row>
     <row r="9">
       <c r="A9" s="6" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B9" s="6"/>
     </row>
@@ -4177,10 +4167,10 @@
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -4195,13 +4185,13 @@
     </row>
     <row r="4">
       <c r="A4" s="6" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="30" t="s">
@@ -4241,16 +4231,16 @@
     </row>
     <row r="5">
       <c r="A5" s="6" t="s">
+        <v>495</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>497</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="D5" s="6" t="s">
         <v>498</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>499</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>500</v>
       </c>
       <c r="E5" s="30" t="s">
         <v>71</v>
@@ -4289,16 +4279,16 @@
     </row>
     <row r="6">
       <c r="A6" s="6" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="E6" s="30" t="s">
         <v>71</v>
@@ -4337,16 +4327,16 @@
     </row>
     <row r="7">
       <c r="A7" s="6" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="E7" s="30" t="s">
         <v>71</v>
@@ -4385,16 +4375,16 @@
     </row>
     <row r="8">
       <c r="A8" s="6" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="E8" s="30" t="s">
         <v>71</v>
@@ -4433,16 +4423,16 @@
     </row>
     <row r="9">
       <c r="A9" s="6" t="s">
+        <v>505</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>506</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>507</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>508</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>509</v>
-      </c>
       <c r="D9" s="6" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="E9" s="30" t="s">
         <v>71</v>
@@ -4481,13 +4471,13 @@
     </row>
     <row r="10">
       <c r="A10" s="6" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="30" t="s">
@@ -4625,10 +4615,10 @@
     </row>
     <row r="2">
       <c r="A2" s="31" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C2" s="32"/>
       <c r="D2" s="33"/>
@@ -4647,13 +4637,13 @@
     </row>
     <row r="4">
       <c r="A4" s="31" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="D4" s="34"/>
       <c r="E4" s="6" t="s">
@@ -4703,16 +4693,16 @@
     </row>
     <row r="6">
       <c r="A6" s="31" t="s">
+        <v>513</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>514</v>
+      </c>
+      <c r="C6" s="18" t="s">
         <v>515</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="D6" s="34" t="s">
         <v>516</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>517</v>
-      </c>
-      <c r="D6" s="34" t="s">
-        <v>518</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>16</v>
@@ -4751,16 +4741,16 @@
     </row>
     <row r="7">
       <c r="A7" s="32" t="s">
+        <v>517</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>517</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>518</v>
+      </c>
+      <c r="D7" s="35" t="s">
         <v>519</v>
-      </c>
-      <c r="B7" s="32" t="s">
-        <v>519</v>
-      </c>
-      <c r="C7" s="32" t="s">
-        <v>520</v>
-      </c>
-      <c r="D7" s="35" t="s">
-        <v>521</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>16</v>
@@ -4801,16 +4791,16 @@
     </row>
     <row r="8">
       <c r="A8" s="18" t="s">
+        <v>520</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>521</v>
+      </c>
+      <c r="C8" s="18" t="s">
         <v>522</v>
       </c>
-      <c r="B8" s="18" t="s">
-        <v>523</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>524</v>
-      </c>
       <c r="D8" s="35" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>16</v>
@@ -4849,16 +4839,16 @@
     </row>
     <row r="9">
       <c r="A9" s="18" t="s">
+        <v>523</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>524</v>
+      </c>
+      <c r="C9" s="18" t="s">
         <v>525</v>
       </c>
-      <c r="B9" s="18" t="s">
-        <v>526</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>527</v>
-      </c>
       <c r="D9" s="35" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>16</v>
@@ -4897,16 +4887,16 @@
     </row>
     <row r="10">
       <c r="A10" s="32" t="s">
+        <v>526</v>
+      </c>
+      <c r="B10" s="32" t="s">
+        <v>526</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>527</v>
+      </c>
+      <c r="D10" s="35" t="s">
         <v>528</v>
-      </c>
-      <c r="B10" s="32" t="s">
-        <v>528</v>
-      </c>
-      <c r="C10" s="32" t="s">
-        <v>529</v>
-      </c>
-      <c r="D10" s="35" t="s">
-        <v>530</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>16</v>
@@ -4947,16 +4937,16 @@
     </row>
     <row r="12">
       <c r="A12" s="31" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D12" s="35" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>16</v>
@@ -4995,16 +4985,16 @@
     </row>
     <row r="13">
       <c r="A13" s="32" t="s">
+        <v>531</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>532</v>
+      </c>
+      <c r="C13" s="32" t="s">
         <v>533</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="D13" s="35" t="s">
         <v>534</v>
-      </c>
-      <c r="C13" s="32" t="s">
-        <v>535</v>
-      </c>
-      <c r="D13" s="35" t="s">
-        <v>536</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>16</v>
@@ -5045,16 +5035,16 @@
     </row>
     <row r="14">
       <c r="A14" s="6" t="s">
+        <v>535</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>536</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>537</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>538</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>539</v>
-      </c>
       <c r="D14" s="6" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>16</v>
@@ -5093,16 +5083,16 @@
     </row>
     <row r="16">
       <c r="A16" s="5" t="s">
+        <v>538</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>539</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>540</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>541</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>542</v>
-      </c>
       <c r="D16" s="6" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>16</v>
@@ -5141,16 +5131,16 @@
     </row>
     <row r="17">
       <c r="A17" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>542</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>543</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="D17" s="6" t="s">
         <v>544</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>545</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>546</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>16</v>
@@ -5189,16 +5179,16 @@
     </row>
     <row r="18">
       <c r="A18" s="6" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>16</v>
@@ -5237,16 +5227,16 @@
     </row>
     <row r="19">
       <c r="A19" s="6" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>16</v>
@@ -5285,16 +5275,16 @@
     </row>
     <row r="20">
       <c r="A20" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>550</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>551</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>552</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>553</v>
-      </c>
       <c r="D20" s="6" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>16</v>
@@ -5333,13 +5323,13 @@
     </row>
     <row r="22">
       <c r="A22" s="5" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="6" t="s">
@@ -5382,16 +5372,16 @@
     </row>
     <row r="24">
       <c r="A24" s="5" t="s">
+        <v>554</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>554</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="D24" s="6" t="s">
         <v>556</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>556</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>557</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>558</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>16</v>
@@ -5430,16 +5420,16 @@
     </row>
     <row r="25">
       <c r="A25" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>558</v>
+      </c>
+      <c r="C25" s="6" t="s">
         <v>559</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="D25" s="6" t="s">
         <v>560</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>561</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>562</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>16</v>
@@ -5478,16 +5468,16 @@
     </row>
     <row r="26">
       <c r="A26" s="6" t="s">
+        <v>561</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>562</v>
+      </c>
+      <c r="C26" s="6" t="s">
         <v>563</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="D26" s="6" t="s">
         <v>564</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>565</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>566</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>16</v>
@@ -5526,16 +5516,16 @@
     </row>
     <row r="27">
       <c r="A27" s="6" t="s">
+        <v>565</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>566</v>
+      </c>
+      <c r="C27" s="6" t="s">
         <v>567</v>
       </c>
-      <c r="B27" s="6" t="s">
-        <v>568</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>569</v>
-      </c>
       <c r="D27" s="6" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>16</v>
@@ -5574,16 +5564,16 @@
     </row>
     <row r="28">
       <c r="A28" s="6" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>16</v>
@@ -5622,16 +5612,16 @@
     </row>
     <row r="29">
       <c r="A29" s="6" t="s">
+        <v>569</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>570</v>
+      </c>
+      <c r="C29" s="6" t="s">
         <v>571</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="D29" s="6" t="s">
         <v>572</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>573</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>574</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>16</v>
@@ -5670,16 +5660,16 @@
     </row>
     <row r="30">
       <c r="A30" s="6" t="s">
+        <v>573</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>573</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>574</v>
+      </c>
+      <c r="D30" s="6" t="s">
         <v>575</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>575</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>576</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>577</v>
       </c>
       <c r="E30" s="6" t="s">
         <v>16</v>
@@ -5718,16 +5708,16 @@
     </row>
     <row r="31">
       <c r="A31" s="5" t="s">
+        <v>576</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>577</v>
+      </c>
+      <c r="C31" s="6" t="s">
         <v>578</v>
       </c>
-      <c r="B31" s="6" t="s">
-        <v>579</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>580</v>
-      </c>
       <c r="D31" s="6" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>16</v>
@@ -5737,7 +5727,7 @@
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
       <c r="J31" s="6" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="K31" s="19">
         <v>45627.0</v>
@@ -5768,16 +5758,16 @@
     </row>
     <row r="32">
       <c r="A32" s="5" t="s">
+        <v>579</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>580</v>
+      </c>
+      <c r="C32" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="D32" s="6" t="s">
         <v>582</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>583</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>584</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>16</v>
@@ -5787,7 +5777,7 @@
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
       <c r="J32" s="6" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="K32" s="19">
         <v>45627.0</v>
@@ -5818,16 +5808,16 @@
     </row>
     <row r="33">
       <c r="A33" s="6" t="s">
+        <v>583</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>584</v>
+      </c>
+      <c r="C33" s="6" t="s">
         <v>585</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="D33" s="6" t="s">
         <v>586</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>587</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>588</v>
       </c>
       <c r="E33" s="6" t="s">
         <v>16</v>
@@ -5837,7 +5827,7 @@
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
       <c r="J33" s="6" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="K33" s="19">
         <v>45627.0</v>
@@ -5868,13 +5858,13 @@
     </row>
     <row r="34">
       <c r="A34" s="6" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="D34" s="7"/>
       <c r="E34" s="6" t="s">
@@ -5914,13 +5904,13 @@
     </row>
     <row r="35">
       <c r="A35" s="6" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D35" s="7"/>
       <c r="E35" s="6" t="s">
@@ -5930,7 +5920,7 @@
       <c r="G35" s="7"/>
       <c r="H35" s="7"/>
       <c r="I35" s="6" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="J35" s="7"/>
       <c r="K35" s="19">
@@ -5962,13 +5952,13 @@
     </row>
     <row r="36">
       <c r="A36" s="6" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="D36" s="7"/>
       <c r="E36" s="6" t="s">
@@ -6008,13 +5998,13 @@
     </row>
     <row r="37">
       <c r="A37" s="6" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="D37" s="7"/>
       <c r="E37" s="6" t="s">
@@ -6054,13 +6044,13 @@
     </row>
     <row r="38">
       <c r="A38" s="6" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="D38" s="7"/>
       <c r="E38" s="6" t="s">
@@ -6100,13 +6090,13 @@
     </row>
     <row r="39">
       <c r="A39" s="6" t="s">
+        <v>598</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>599</v>
+      </c>
+      <c r="C39" s="6" t="s">
         <v>600</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>601</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>602</v>
       </c>
       <c r="D39" s="7"/>
       <c r="E39" s="6" t="s">
@@ -6146,13 +6136,13 @@
     </row>
     <row r="40">
       <c r="A40" s="6" t="s">
+        <v>601</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>602</v>
+      </c>
+      <c r="C40" s="6" t="s">
         <v>603</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>604</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>605</v>
       </c>
       <c r="D40" s="7"/>
       <c r="E40" s="6" t="s">
@@ -6192,16 +6182,16 @@
     </row>
     <row r="41">
       <c r="A41" s="6" t="s">
+        <v>604</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>604</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>605</v>
+      </c>
+      <c r="D41" s="6" t="s">
         <v>606</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>606</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>607</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>608</v>
       </c>
       <c r="E41" s="6" t="s">
         <v>16</v>
@@ -6240,13 +6230,13 @@
     </row>
     <row r="42">
       <c r="A42" s="6" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="D42" s="7"/>
       <c r="E42" s="6" t="s">
@@ -6286,16 +6276,16 @@
     </row>
     <row r="43">
       <c r="A43" s="6" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="E43" s="6" t="s">
         <v>16</v>
@@ -6334,16 +6324,16 @@
     </row>
     <row r="44">
       <c r="A44" s="6" t="s">
+        <v>611</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>611</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>612</v>
+      </c>
+      <c r="D44" s="6" t="s">
         <v>613</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>613</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>614</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>615</v>
       </c>
       <c r="E44" s="6" t="s">
         <v>16</v>
@@ -6382,16 +6372,16 @@
     </row>
     <row r="45">
       <c r="A45" s="6" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="E45" s="6" t="s">
         <v>16</v>
@@ -6430,16 +6420,16 @@
     </row>
     <row r="46">
       <c r="A46" s="6" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="E46" s="6" t="s">
         <v>16</v>
@@ -6596,19 +6586,19 @@
     </row>
     <row r="2">
       <c r="A2" s="18" t="s">
+        <v>618</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>619</v>
+      </c>
+      <c r="C2" s="18" t="s">
         <v>620</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>621</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>622</v>
       </c>
       <c r="D2" s="34" t="s">
         <v>16</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
@@ -6644,19 +6634,19 @@
     </row>
     <row r="3">
       <c r="A3" s="18" t="s">
+        <v>622</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>623</v>
+      </c>
+      <c r="C3" s="18" t="s">
         <v>624</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="D3" s="6" t="s">
         <v>625</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="E3" s="6" t="s">
         <v>626</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>628</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
@@ -6692,19 +6682,19 @@
     </row>
     <row r="4">
       <c r="A4" s="18" t="s">
+        <v>627</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>628</v>
+      </c>
+      <c r="C4" s="18" t="s">
         <v>629</v>
       </c>
-      <c r="B4" s="18" t="s">
-        <v>630</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>631</v>
-      </c>
       <c r="D4" s="34" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -6740,19 +6730,19 @@
     </row>
     <row r="5">
       <c r="A5" s="18" t="s">
+        <v>630</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>631</v>
+      </c>
+      <c r="C5" s="18" t="s">
         <v>632</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>633</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>634</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -6788,19 +6778,19 @@
     </row>
     <row r="6">
       <c r="A6" s="18" t="s">
+        <v>633</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>634</v>
+      </c>
+      <c r="C6" s="18" t="s">
         <v>635</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>636</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>637</v>
       </c>
       <c r="D6" s="34" t="s">
         <v>16</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -6836,22 +6826,22 @@
     </row>
     <row r="7">
       <c r="A7" s="18" t="s">
+        <v>637</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>638</v>
+      </c>
+      <c r="C7" s="18" t="s">
         <v>639</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>640</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>641</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
@@ -6886,19 +6876,19 @@
     </row>
     <row r="8">
       <c r="A8" s="18" t="s">
+        <v>641</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>642</v>
+      </c>
+      <c r="C8" s="18" t="s">
         <v>643</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>644</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>645</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
@@ -6934,19 +6924,19 @@
     </row>
     <row r="9">
       <c r="A9" s="18" t="s">
+        <v>644</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>645</v>
+      </c>
+      <c r="C9" s="18" t="s">
         <v>646</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>647</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>648</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
@@ -6982,19 +6972,19 @@
     </row>
     <row r="10">
       <c r="A10" s="18" t="s">
+        <v>647</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>648</v>
+      </c>
+      <c r="C10" s="18" t="s">
         <v>649</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>650</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>651</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
@@ -7030,19 +7020,19 @@
     </row>
     <row r="11">
       <c r="A11" s="6" t="s">
+        <v>650</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>651</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>652</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>653</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>654</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="K11" s="19">
         <v>45627.0</v>
@@ -7057,19 +7047,19 @@
     </row>
     <row r="12">
       <c r="A12" s="18" t="s">
+        <v>654</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>655</v>
+      </c>
+      <c r="C12" s="18" t="s">
         <v>656</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>657</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>658</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
@@ -7105,19 +7095,19 @@
     </row>
     <row r="13">
       <c r="A13" s="6" t="s">
+        <v>658</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>659</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>660</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>661</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>662</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
@@ -7153,19 +7143,19 @@
     </row>
     <row r="14">
       <c r="A14" s="6" t="s">
+        <v>662</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>663</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>664</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>665</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>666</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
@@ -7339,27 +7329,27 @@
     </row>
     <row r="2">
       <c r="A2" s="6" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="B2" s="5"/>
       <c r="J2" s="10" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="6" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="6" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="6">
@@ -7854,26 +7844,26 @@
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
     </row>
     <row r="3">
       <c r="A3" s="6" t="s">
+        <v>673</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>674</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>675</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="D3" s="6" t="s">
         <v>676</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>677</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>678</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>16</v>
@@ -7883,7 +7873,7 @@
       </c>
       <c r="L3" s="8"/>
       <c r="M3" s="6" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="N3" s="6" t="s">
         <v>39</v>
@@ -7894,16 +7884,16 @@
     </row>
     <row r="4">
       <c r="A4" s="6" t="s">
+        <v>678</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>679</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>680</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>681</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>682</v>
-      </c>
       <c r="D4" s="6" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>16</v>
@@ -7913,7 +7903,7 @@
       </c>
       <c r="L4" s="8"/>
       <c r="M4" s="6" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="N4" s="6" t="s">
         <v>39</v>
@@ -7924,16 +7914,16 @@
     </row>
     <row r="5">
       <c r="A5" s="6" t="s">
+        <v>681</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>682</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>683</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>684</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>685</v>
-      </c>
       <c r="D5" s="6" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>16</v>
@@ -7943,7 +7933,7 @@
       </c>
       <c r="L5" s="8"/>
       <c r="M5" s="6" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="N5" s="6" t="s">
         <v>39</v>
@@ -7954,16 +7944,16 @@
     </row>
     <row r="6">
       <c r="A6" s="6" t="s">
+        <v>684</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>685</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>686</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>687</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>688</v>
-      </c>
       <c r="D6" s="6" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>16</v>
@@ -7973,7 +7963,7 @@
       </c>
       <c r="L6" s="8"/>
       <c r="M6" s="6" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="N6" s="6" t="s">
         <v>39</v>
@@ -7984,16 +7974,16 @@
     </row>
     <row r="7">
       <c r="A7" s="6" t="s">
+        <v>687</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>688</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>689</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>690</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>691</v>
-      </c>
       <c r="D7" s="6" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>16</v>
@@ -8003,7 +7993,7 @@
       </c>
       <c r="L7" s="8"/>
       <c r="M7" s="6" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="N7" s="6" t="s">
         <v>39</v>
@@ -8014,16 +8004,16 @@
     </row>
     <row r="8">
       <c r="A8" s="6" t="s">
+        <v>690</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>691</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>692</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>693</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>694</v>
-      </c>
       <c r="D8" s="6" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>16</v>
@@ -8033,7 +8023,7 @@
       </c>
       <c r="L8" s="8"/>
       <c r="M8" s="6" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="N8" s="6" t="s">
         <v>39</v>
@@ -8044,16 +8034,16 @@
     </row>
     <row r="9">
       <c r="A9" s="6" t="s">
+        <v>693</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>694</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>695</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>696</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>697</v>
-      </c>
       <c r="D9" s="6" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>16</v>
@@ -8063,7 +8053,7 @@
       </c>
       <c r="L9" s="8"/>
       <c r="M9" s="6" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="N9" s="6" t="s">
         <v>39</v>
@@ -8074,16 +8064,16 @@
     </row>
     <row r="10">
       <c r="A10" s="6" t="s">
+        <v>696</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>697</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>698</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>699</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>700</v>
-      </c>
       <c r="D10" s="6" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>16</v>
@@ -8093,7 +8083,7 @@
       </c>
       <c r="L10" s="8"/>
       <c r="M10" s="6" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="N10" s="6" t="s">
         <v>39</v>
@@ -8104,16 +8094,16 @@
     </row>
     <row r="11">
       <c r="A11" s="6" t="s">
+        <v>699</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>700</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>701</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>702</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>703</v>
-      </c>
       <c r="D11" s="6" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>16</v>
@@ -8123,7 +8113,7 @@
       </c>
       <c r="L11" s="8"/>
       <c r="M11" s="6" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="N11" s="6" t="s">
         <v>39</v>
@@ -8134,16 +8124,16 @@
     </row>
     <row r="12">
       <c r="A12" s="6" t="s">
+        <v>702</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>703</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>704</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="D12" s="6" t="s">
         <v>705</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>706</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>707</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>16</v>
@@ -8153,7 +8143,7 @@
       </c>
       <c r="L12" s="8"/>
       <c r="M12" s="6" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="N12" s="6" t="s">
         <v>39</v>
@@ -8164,16 +8154,16 @@
     </row>
     <row r="13">
       <c r="A13" s="6" t="s">
+        <v>706</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>707</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>708</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="D13" s="6" t="s">
         <v>709</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>710</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>711</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>16</v>
@@ -8182,7 +8172,7 @@
         <v>44727.0</v>
       </c>
       <c r="M13" s="6" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="N13" s="6" t="s">
         <v>39</v>
@@ -8193,16 +8183,16 @@
     </row>
     <row r="14">
       <c r="A14" s="24" t="s">
+        <v>710</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>711</v>
+      </c>
+      <c r="C14" s="48" t="s">
         <v>712</v>
       </c>
-      <c r="B14" s="24" t="s">
-        <v>713</v>
-      </c>
-      <c r="C14" s="48" t="s">
-        <v>714</v>
-      </c>
       <c r="D14" s="49" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>16</v>
@@ -8212,12 +8202,12 @@
       <c r="H14" s="11"/>
       <c r="I14" s="11"/>
       <c r="J14" s="24" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="K14" s="11"/>
       <c r="L14" s="11"/>
       <c r="M14" s="6" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="N14" s="11"/>
       <c r="O14" s="11"/>
@@ -8240,18 +8230,18 @@
     </row>
     <row r="16">
       <c r="A16" s="5" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="6" t="s">
+        <v>715</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>716</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>717</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>718</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>719</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>16</v>
@@ -8260,7 +8250,7 @@
         <v>44727.0</v>
       </c>
       <c r="M17" s="6" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="N17" s="6" t="s">
         <v>39</v>
@@ -8271,13 +8261,13 @@
     </row>
     <row r="18">
       <c r="A18" s="6" t="s">
+        <v>718</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>719</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>720</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>721</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>722</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>16</v>
@@ -8287,7 +8277,7 @@
       </c>
       <c r="L18" s="8"/>
       <c r="M18" s="6" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="N18" s="6" t="s">
         <v>39</v>
@@ -8298,13 +8288,13 @@
     </row>
     <row r="19">
       <c r="A19" s="6" t="s">
+        <v>721</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>722</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>723</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>724</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>725</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>16</v>
@@ -8314,7 +8304,7 @@
       </c>
       <c r="L19" s="8"/>
       <c r="M19" s="6" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="N19" s="6" t="s">
         <v>39</v>
@@ -8325,13 +8315,13 @@
     </row>
     <row r="20">
       <c r="A20" s="6" t="s">
+        <v>724</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>725</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>726</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>727</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>728</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>16</v>
@@ -8341,7 +8331,7 @@
       </c>
       <c r="L20" s="8"/>
       <c r="M20" s="6" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="N20" s="6" t="s">
         <v>39</v>
@@ -8352,13 +8342,13 @@
     </row>
     <row r="21">
       <c r="A21" s="6" t="s">
+        <v>727</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>728</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>729</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>730</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>731</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>16</v>
@@ -8368,7 +8358,7 @@
       </c>
       <c r="L21" s="8"/>
       <c r="M21" s="6" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="N21" s="6" t="s">
         <v>39</v>
@@ -8379,13 +8369,13 @@
     </row>
     <row r="22">
       <c r="A22" s="6" t="s">
+        <v>730</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>731</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>732</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>733</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>734</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>16</v>
@@ -8395,7 +8385,7 @@
       </c>
       <c r="L22" s="8"/>
       <c r="M22" s="6" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="N22" s="6" t="s">
         <v>39</v>
@@ -8406,10 +8396,10 @@
     </row>
     <row r="24">
       <c r="A24" s="5" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="30"/>
@@ -8418,16 +8408,16 @@
     </row>
     <row r="25">
       <c r="A25" s="6" t="s">
+        <v>734</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>735</v>
+      </c>
+      <c r="C25" s="6" t="s">
         <v>736</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="D25" s="30" t="s">
         <v>737</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>738</v>
-      </c>
-      <c r="D25" s="30" t="s">
-        <v>739</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>16</v>
@@ -8436,7 +8426,7 @@
         <v>44727.0</v>
       </c>
       <c r="M25" s="6" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="N25" s="6" t="s">
         <v>39</v>
@@ -8447,16 +8437,16 @@
     </row>
     <row r="26">
       <c r="A26" s="6" t="s">
+        <v>738</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>739</v>
+      </c>
+      <c r="C26" s="6" t="s">
         <v>740</v>
       </c>
-      <c r="B26" s="6" t="s">
-        <v>741</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>742</v>
-      </c>
       <c r="D26" s="30" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>16</v>
@@ -8465,7 +8455,7 @@
         <v>44727.0</v>
       </c>
       <c r="M26" s="6" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="N26" s="6" t="s">
         <v>39</v>
@@ -8476,16 +8466,16 @@
     </row>
     <row r="27">
       <c r="A27" s="6" t="s">
+        <v>741</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="C27" s="6" t="s">
         <v>743</v>
       </c>
-      <c r="B27" s="6" t="s">
-        <v>744</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>745</v>
-      </c>
       <c r="D27" s="30" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>16</v>
@@ -8494,7 +8484,7 @@
         <v>44727.0</v>
       </c>
       <c r="M27" s="6" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="N27" s="6" t="s">
         <v>39</v>
@@ -8505,16 +8495,16 @@
     </row>
     <row r="28">
       <c r="A28" s="6" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="D28" s="30" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>16</v>
@@ -8523,7 +8513,7 @@
         <v>44727.0</v>
       </c>
       <c r="M28" s="6" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="N28" s="6" t="s">
         <v>39</v>
@@ -8534,10 +8524,10 @@
     </row>
     <row r="30">
       <c r="A30" s="5" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
@@ -8568,16 +8558,16 @@
     </row>
     <row r="31">
       <c r="A31" s="6" t="s">
+        <v>746</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>747</v>
+      </c>
+      <c r="C31" s="6" t="s">
         <v>748</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="D31" s="6" t="s">
         <v>749</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>750</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>751</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>16</v>
@@ -8586,10 +8576,10 @@
         <v>44727.0</v>
       </c>
       <c r="M31" s="6" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="N31" s="6" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="O31" s="9" t="s">
         <v>28</v>
@@ -8597,16 +8587,16 @@
     </row>
     <row r="32">
       <c r="A32" s="6" t="s">
+        <v>751</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>752</v>
+      </c>
+      <c r="C32" s="6" t="s">
         <v>753</v>
       </c>
-      <c r="B32" s="6" t="s">
-        <v>754</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>755</v>
-      </c>
       <c r="D32" s="6" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>16</v>
@@ -8615,10 +8605,10 @@
         <v>44727.0</v>
       </c>
       <c r="M32" s="6" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="N32" s="6" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="O32" s="9" t="s">
         <v>28</v>
@@ -8626,16 +8616,16 @@
     </row>
     <row r="33">
       <c r="A33" s="6" t="s">
+        <v>754</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>755</v>
+      </c>
+      <c r="C33" s="6" t="s">
         <v>756</v>
       </c>
-      <c r="B33" s="6" t="s">
-        <v>757</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>758</v>
-      </c>
       <c r="D33" s="6" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="E33" s="6" t="s">
         <v>16</v>
@@ -8644,10 +8634,10 @@
         <v>44727.0</v>
       </c>
       <c r="M33" s="6" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="N33" s="6" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="O33" s="9" t="s">
         <v>28</v>
@@ -8655,16 +8645,16 @@
     </row>
     <row r="34">
       <c r="A34" s="6" t="s">
+        <v>757</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>758</v>
+      </c>
+      <c r="C34" s="6" t="s">
         <v>759</v>
       </c>
-      <c r="B34" s="6" t="s">
-        <v>760</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>761</v>
-      </c>
       <c r="D34" s="6" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>16</v>
@@ -8673,10 +8663,10 @@
         <v>44727.0</v>
       </c>
       <c r="M34" s="6" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="N34" s="6" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="O34" s="9" t="s">
         <v>28</v>
@@ -8684,16 +8674,16 @@
     </row>
     <row r="35">
       <c r="A35" s="6" t="s">
+        <v>760</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>761</v>
+      </c>
+      <c r="C35" s="6" t="s">
         <v>762</v>
       </c>
-      <c r="B35" s="6" t="s">
-        <v>763</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>764</v>
-      </c>
       <c r="D35" s="6" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="E35" s="6" t="s">
         <v>16</v>
@@ -8702,10 +8692,10 @@
         <v>44727.0</v>
       </c>
       <c r="M35" s="6" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="N35" s="6" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="O35" s="9" t="s">
         <v>28</v>
@@ -8713,16 +8703,16 @@
     </row>
     <row r="36">
       <c r="A36" s="6" t="s">
+        <v>763</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>764</v>
+      </c>
+      <c r="C36" s="6" t="s">
         <v>765</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="D36" s="6" t="s">
         <v>766</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>767</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>768</v>
       </c>
       <c r="E36" s="6" t="s">
         <v>16</v>
@@ -8731,10 +8721,10 @@
         <v>44727.0</v>
       </c>
       <c r="M36" s="6" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="N36" s="6" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="O36" s="9" t="s">
         <v>28</v>
@@ -8742,37 +8732,37 @@
     </row>
     <row r="38">
       <c r="A38" s="5" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="K38" s="8"/>
     </row>
     <row r="39">
       <c r="A39" s="6" t="s">
+        <v>768</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>769</v>
+      </c>
+      <c r="C39" s="6" t="s">
         <v>770</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="D39" s="6" t="s">
         <v>771</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>772</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>773</v>
       </c>
       <c r="E39" s="6" t="s">
         <v>16</v>
       </c>
       <c r="I39" s="6" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="K39" s="8">
         <v>44727.0</v>
       </c>
       <c r="M39" s="6" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="N39" s="6" t="s">
         <v>39</v>
@@ -8783,28 +8773,28 @@
     </row>
     <row r="40">
       <c r="A40" s="6" t="s">
+        <v>773</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>774</v>
+      </c>
+      <c r="C40" s="6" t="s">
         <v>775</v>
       </c>
-      <c r="B40" s="6" t="s">
-        <v>776</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>777</v>
-      </c>
       <c r="D40" s="6" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E40" s="6" t="s">
         <v>16</v>
       </c>
       <c r="I40" s="6" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="K40" s="8">
         <v>44727.0</v>
       </c>
       <c r="M40" s="6" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="N40" s="6" t="s">
         <v>39</v>
@@ -8815,21 +8805,21 @@
     </row>
     <row r="42">
       <c r="A42" s="5" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="32" t="s">
+        <v>778</v>
+      </c>
+      <c r="B43" s="18" t="s">
+        <v>779</v>
+      </c>
+      <c r="C43" s="32" t="s">
         <v>780</v>
       </c>
-      <c r="B43" s="18" t="s">
+      <c r="D43" s="35" t="s">
         <v>781</v>
-      </c>
-      <c r="C43" s="32" t="s">
-        <v>782</v>
-      </c>
-      <c r="D43" s="35" t="s">
-        <v>783</v>
       </c>
       <c r="E43" s="6" t="s">
         <v>16</v>
@@ -8838,7 +8828,7 @@
         <v>44727.0</v>
       </c>
       <c r="M43" s="6" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="N43" s="6" t="s">
         <v>39</v>
@@ -8849,16 +8839,16 @@
     </row>
     <row r="44">
       <c r="A44" s="50" t="s">
+        <v>782</v>
+      </c>
+      <c r="B44" s="50" t="s">
+        <v>783</v>
+      </c>
+      <c r="C44" s="51" t="s">
         <v>784</v>
       </c>
-      <c r="B44" s="50" t="s">
+      <c r="D44" s="52" t="s">
         <v>785</v>
-      </c>
-      <c r="C44" s="51" t="s">
-        <v>786</v>
-      </c>
-      <c r="D44" s="52" t="s">
-        <v>787</v>
       </c>
       <c r="E44" s="11" t="s">
         <v>16</v>
@@ -8873,7 +8863,7 @@
       </c>
       <c r="L44" s="11"/>
       <c r="M44" s="6" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="N44" s="11" t="s">
         <v>39</v>
@@ -8899,16 +8889,16 @@
     </row>
     <row r="45">
       <c r="A45" s="50" t="s">
+        <v>786</v>
+      </c>
+      <c r="B45" s="50" t="s">
+        <v>787</v>
+      </c>
+      <c r="C45" s="51" t="s">
         <v>788</v>
       </c>
-      <c r="B45" s="50" t="s">
+      <c r="D45" s="55" t="s">
         <v>789</v>
-      </c>
-      <c r="C45" s="51" t="s">
-        <v>790</v>
-      </c>
-      <c r="D45" s="55" t="s">
-        <v>791</v>
       </c>
       <c r="E45" s="11" t="s">
         <v>16</v>
@@ -8923,7 +8913,7 @@
       </c>
       <c r="L45" s="11"/>
       <c r="M45" s="6" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="N45" s="11" t="s">
         <v>39</v>
@@ -8949,16 +8939,16 @@
     </row>
     <row r="46">
       <c r="A46" s="50" t="s">
+        <v>790</v>
+      </c>
+      <c r="B46" s="50" t="s">
+        <v>791</v>
+      </c>
+      <c r="C46" s="51" t="s">
         <v>792</v>
       </c>
-      <c r="B46" s="50" t="s">
+      <c r="D46" s="55" t="s">
         <v>793</v>
-      </c>
-      <c r="C46" s="51" t="s">
-        <v>794</v>
-      </c>
-      <c r="D46" s="55" t="s">
-        <v>795</v>
       </c>
       <c r="E46" s="11" t="s">
         <v>16</v>
@@ -8973,7 +8963,7 @@
       </c>
       <c r="L46" s="11"/>
       <c r="M46" s="6" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="N46" s="11" t="s">
         <v>39</v>
@@ -10182,58 +10172,20 @@
       <c r="A2" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="8">
-        <v>45643.0</v>
-      </c>
-      <c r="L2" s="7"/>
-      <c r="M2" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
-      <c r="U2" s="7"/>
-      <c r="V2" s="7"/>
-      <c r="W2" s="7"/>
-      <c r="X2" s="7"/>
-      <c r="Y2" s="7"/>
-      <c r="Z2" s="7"/>
-      <c r="AA2" s="7"/>
-      <c r="AB2" s="7"/>
-      <c r="AC2" s="7"/>
-      <c r="AD2" s="7"/>
+      <c r="K2" s="8"/>
     </row>
     <row r="3">
       <c r="A3" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="D3" s="6" t="s">
         <v>139</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>141</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>25</v>
@@ -10272,16 +10224,16 @@
     </row>
     <row r="4">
       <c r="A4" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="D4" s="6" t="s">
         <v>143</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>145</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>25</v>
@@ -10320,16 +10272,16 @@
     </row>
     <row r="5">
       <c r="A5" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>146</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>148</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>25</v>
@@ -10368,16 +10320,16 @@
     </row>
     <row r="6">
       <c r="A6" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>25</v>
@@ -10416,16 +10368,16 @@
     </row>
     <row r="7">
       <c r="A7" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="D7" s="6" t="s">
         <v>152</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>154</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>25</v>
@@ -10434,7 +10386,7 @@
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
       <c r="I7" s="6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="J7" s="7"/>
       <c r="K7" s="8">
@@ -10466,16 +10418,16 @@
     </row>
     <row r="8">
       <c r="A8" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="D8" s="6" t="s">
         <v>157</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>159</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>25</v>
@@ -10484,7 +10436,7 @@
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="J8" s="7"/>
       <c r="K8" s="8">
@@ -10516,16 +10468,16 @@
     </row>
     <row r="9">
       <c r="A9" s="11" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>25</v>
@@ -10534,7 +10486,7 @@
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="I9" s="6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="J9" s="7"/>
       <c r="K9" s="8">
@@ -10566,16 +10518,16 @@
     </row>
     <row r="10">
       <c r="A10" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>163</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>165</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>25</v>
@@ -10584,7 +10536,7 @@
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
       <c r="I10" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="J10" s="7"/>
       <c r="K10" s="8">
@@ -10616,16 +10568,16 @@
     </row>
     <row r="11">
       <c r="A11" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="D11" s="6" t="s">
         <v>168</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>170</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>25</v>
@@ -10664,16 +10616,16 @@
     </row>
     <row r="12">
       <c r="A12" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="B12" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>173</v>
-      </c>
       <c r="D12" s="6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>25</v>
@@ -10712,16 +10664,16 @@
     </row>
     <row r="13">
       <c r="A13" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="B13" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>176</v>
-      </c>
       <c r="D13" s="6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>25</v>
@@ -10760,16 +10712,16 @@
     </row>
     <row r="14">
       <c r="A14" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="B14" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>179</v>
-      </c>
       <c r="D14" s="6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>25</v>
@@ -10808,16 +10760,16 @@
     </row>
     <row r="15">
       <c r="A15" s="11" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>25</v>
@@ -10826,7 +10778,7 @@
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
       <c r="I15" s="6" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J15" s="7"/>
       <c r="K15" s="8">
@@ -10858,16 +10810,16 @@
     </row>
     <row r="16">
       <c r="A16" s="11" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>25</v>
@@ -10876,7 +10828,7 @@
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
       <c r="I16" s="6" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J16" s="7"/>
       <c r="K16" s="8">
@@ -10908,16 +10860,16 @@
     </row>
     <row r="17">
       <c r="A17" s="11" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>25</v>
@@ -10926,7 +10878,7 @@
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
       <c r="I17" s="6" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="J17" s="7"/>
       <c r="K17" s="8">
@@ -11051,10 +11003,10 @@
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -11063,19 +11015,19 @@
     </row>
     <row r="3">
       <c r="A3" s="6" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K3" s="8"/>
     </row>
     <row r="4">
       <c r="A4" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>191</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>193</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="6" t="s">
@@ -11093,7 +11045,7 @@
         <v>45627.0</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="N4" s="6" t="s">
         <v>39</v>
@@ -11117,13 +11069,13 @@
     </row>
     <row r="5">
       <c r="A5" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>195</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>197</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="6" t="s">
@@ -11141,7 +11093,7 @@
         <v>45627.0</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="N5" s="6" t="s">
         <v>39</v>
@@ -11165,13 +11117,13 @@
     </row>
     <row r="6">
       <c r="A6" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>198</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>200</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="6" t="s">
@@ -11189,7 +11141,7 @@
         <v>45627.0</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="N6" s="6" t="s">
         <v>39</v>
@@ -11213,13 +11165,13 @@
     </row>
     <row r="7">
       <c r="A7" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>201</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>203</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="6" t="s">
@@ -11237,7 +11189,7 @@
         <v>45627.0</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="N7" s="6" t="s">
         <v>39</v>
@@ -11261,13 +11213,13 @@
     </row>
     <row r="8">
       <c r="A8" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>204</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>206</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="6" t="s">
@@ -11285,7 +11237,7 @@
         <v>45627.0</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="N8" s="6" t="s">
         <v>39</v>
@@ -11309,13 +11261,13 @@
     </row>
     <row r="9">
       <c r="A9" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>207</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>209</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="6" t="s">
@@ -11333,7 +11285,7 @@
         <v>45627.0</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="N9" s="6" t="s">
         <v>39</v>
@@ -11357,13 +11309,13 @@
     </row>
     <row r="10">
       <c r="A10" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>210</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>212</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="6" t="s">
@@ -11381,7 +11333,7 @@
         <v>45627.0</v>
       </c>
       <c r="M10" s="6" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="N10" s="6" t="s">
         <v>39</v>
@@ -11405,13 +11357,13 @@
     </row>
     <row r="11">
       <c r="A11" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>213</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>215</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="6" t="s">
@@ -11429,7 +11381,7 @@
         <v>45627.0</v>
       </c>
       <c r="M11" s="6" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="N11" s="6" t="s">
         <v>39</v>
@@ -11456,16 +11408,16 @@
     </row>
     <row r="13">
       <c r="A13" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="D13" s="6" t="s">
         <v>217</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>219</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>79</v>
@@ -11482,7 +11434,7 @@
         <v>45627.0</v>
       </c>
       <c r="M13" s="6" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="N13" s="6" t="s">
         <v>39</v>
@@ -11504,16 +11456,16 @@
     </row>
     <row r="14">
       <c r="A14" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="D14" s="6" t="s">
         <v>221</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>223</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>79</v>
@@ -11530,7 +11482,7 @@
         <v>45627.0</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="N14" s="6" t="s">
         <v>39</v>
@@ -11552,16 +11504,16 @@
     </row>
     <row r="15">
       <c r="A15" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>226</v>
-      </c>
       <c r="D15" s="6" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>79</v>
@@ -11578,7 +11530,7 @@
         <v>45627.0</v>
       </c>
       <c r="M15" s="6" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="N15" s="6" t="s">
         <v>39</v>
@@ -11600,16 +11552,16 @@
     </row>
     <row r="16">
       <c r="A16" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>229</v>
-      </c>
       <c r="D16" s="6" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>79</v>
@@ -11626,7 +11578,7 @@
         <v>45627.0</v>
       </c>
       <c r="M16" s="6" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="N16" s="6" t="s">
         <v>39</v>
@@ -11648,16 +11600,16 @@
     </row>
     <row r="17">
       <c r="A17" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>232</v>
-      </c>
       <c r="D17" s="6" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>79</v>
@@ -11674,7 +11626,7 @@
         <v>45627.0</v>
       </c>
       <c r="M17" s="6" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="N17" s="6" t="s">
         <v>39</v>
@@ -11696,16 +11648,16 @@
     </row>
     <row r="18">
       <c r="A18" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>235</v>
-      </c>
       <c r="D18" s="6" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>79</v>
@@ -11722,7 +11674,7 @@
         <v>45627.0</v>
       </c>
       <c r="M18" s="6" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="N18" s="6" t="s">
         <v>39</v>
@@ -11744,16 +11696,16 @@
     </row>
     <row r="19">
       <c r="A19" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>238</v>
-      </c>
       <c r="D19" s="6" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>79</v>
@@ -11770,7 +11722,7 @@
         <v>45627.0</v>
       </c>
       <c r="M19" s="6" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="N19" s="6" t="s">
         <v>39</v>
@@ -11792,16 +11744,16 @@
     </row>
     <row r="20">
       <c r="A20" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>241</v>
-      </c>
       <c r="D20" s="6" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>79</v>
@@ -11818,10 +11770,10 @@
         <v>45627.0</v>
       </c>
       <c r="M20" s="6" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="N20" s="6" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="O20" s="7"/>
       <c r="P20" s="7"/>
@@ -11840,16 +11792,16 @@
     </row>
     <row r="21">
       <c r="A21" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="B21" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>245</v>
-      </c>
       <c r="D21" s="6" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>79</v>
@@ -11866,10 +11818,10 @@
         <v>45627.0</v>
       </c>
       <c r="M21" s="6" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="N21" s="6" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="O21" s="7"/>
       <c r="P21" s="7"/>
@@ -11888,16 +11840,16 @@
     </row>
     <row r="22">
       <c r="A22" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="D22" s="6" t="s">
         <v>247</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>249</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>79</v>
@@ -11914,10 +11866,10 @@
         <v>45627.0</v>
       </c>
       <c r="M22" s="6" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="N22" s="6" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="O22" s="7"/>
       <c r="P22" s="7"/>
@@ -12051,7 +12003,7 @@
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B2" s="5"/>
       <c r="K2" s="8"/>
@@ -12072,55 +12024,55 @@
     </row>
     <row r="5">
       <c r="A5" s="11" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K5" s="8"/>
     </row>
     <row r="6">
       <c r="A6" s="11" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K6" s="8"/>
     </row>
     <row r="7">
       <c r="A7" s="11" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K7" s="8"/>
     </row>
     <row r="8">
       <c r="A8" s="11" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K8" s="8"/>
     </row>
     <row r="9">
       <c r="A9" s="11" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K9" s="8"/>
     </row>
     <row r="10">
       <c r="A10" s="11" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K10" s="8"/>
     </row>
@@ -12129,7 +12081,7 @@
     </row>
     <row r="12">
       <c r="A12" s="22" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K12" s="8"/>
     </row>
@@ -12139,236 +12091,236 @@
     </row>
     <row r="14">
       <c r="A14" s="23" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K14" s="8"/>
     </row>
     <row r="15">
       <c r="A15" s="11" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K15" s="8"/>
     </row>
     <row r="16">
       <c r="A16" s="24" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K16" s="8"/>
     </row>
     <row r="17">
       <c r="A17" s="11" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K17" s="8"/>
     </row>
     <row r="18">
       <c r="A18" s="11" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="K18" s="8"/>
     </row>
     <row r="19">
       <c r="A19" s="11" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K19" s="8"/>
     </row>
     <row r="20">
       <c r="A20" s="24" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="24" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="24" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="24" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="24" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="24" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="24" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="24" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="5" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C30" s="6"/>
     </row>
     <row r="31">
       <c r="A31" s="6" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C31" s="6"/>
     </row>
     <row r="32">
       <c r="A32" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C32" s="6"/>
     </row>
     <row r="33">
       <c r="A33" s="5" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C33" s="6"/>
     </row>
     <row r="34">
       <c r="A34" s="6" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="6" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="5" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
     </row>
     <row r="37">
       <c r="A37" s="6" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="6" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="5" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="6" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="6" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="5" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="6" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="6" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="5" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="6" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="6" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="5" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="6" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="5" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="6" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="6" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="5" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="6" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="6" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
   </sheetData>
@@ -12474,10 +12426,10 @@
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -12492,24 +12444,24 @@
     </row>
     <row r="4">
       <c r="A4" s="18" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="6" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
       <c r="J4" s="6" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="K4" s="8">
         <v>45421.0</v>
@@ -12543,24 +12495,24 @@
     </row>
     <row r="5">
       <c r="A5" s="18" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="6" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
       <c r="J5" s="6" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="K5" s="8">
         <v>45421.0</v>
@@ -12590,26 +12542,26 @@
     </row>
     <row r="6">
       <c r="A6" s="18" t="s">
+        <v>315</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>315</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="B6" s="18" t="s">
-        <v>317</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>318</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>319</v>
-      </c>
       <c r="E6" s="6" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
       <c r="J6" s="6" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="K6" s="8">
         <v>45421.0</v>
@@ -12643,24 +12595,24 @@
     </row>
     <row r="7">
       <c r="A7" s="18" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="6" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
       <c r="J7" s="6" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="K7" s="8">
         <v>45421.0</v>
@@ -12690,26 +12642,26 @@
     </row>
     <row r="8">
       <c r="A8" s="18" t="s">
+        <v>320</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>320</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="B8" s="18" t="s">
-        <v>322</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>323</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>324</v>
-      </c>
       <c r="E8" s="6" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
       <c r="J8" s="6" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="K8" s="8">
         <v>45421.0</v>
@@ -12743,26 +12695,26 @@
     </row>
     <row r="9">
       <c r="A9" s="18" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="6" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="I9" s="6" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="K9" s="8">
         <v>45421.0</v>
@@ -12796,24 +12748,24 @@
     </row>
     <row r="10">
       <c r="A10" s="21" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="6" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
       <c r="J10" s="21" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="K10" s="8">
         <v>45421.0</v>
@@ -12843,24 +12795,24 @@
     </row>
     <row r="11">
       <c r="A11" s="21" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="6" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
       <c r="J11" s="11" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="K11" s="8">
         <v>45421.0</v>
@@ -12890,24 +12842,24 @@
     </row>
     <row r="12">
       <c r="A12" s="21" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="6" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
       <c r="J12" s="11" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="K12" s="8">
         <v>45421.0</v>
@@ -12937,24 +12889,24 @@
     </row>
     <row r="13">
       <c r="A13" s="21" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="6" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
       <c r="J13" s="11" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="K13" s="8">
         <v>45421.0</v>
@@ -12984,24 +12936,24 @@
     </row>
     <row r="14">
       <c r="A14" s="21" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="6" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
       <c r="H14" s="11"/>
       <c r="I14" s="11"/>
       <c r="J14" s="11" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="K14" s="8">
         <v>45421.0</v>
@@ -13031,24 +12983,24 @@
     </row>
     <row r="15">
       <c r="A15" s="21" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="6" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
       <c r="H15" s="11"/>
       <c r="I15" s="11"/>
       <c r="J15" s="11" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="K15" s="8">
         <v>45421.0</v>
@@ -13078,24 +13030,24 @@
     </row>
     <row r="16">
       <c r="A16" s="21" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="6" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
       <c r="H16" s="11"/>
       <c r="I16" s="11"/>
       <c r="J16" s="11" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="K16" s="8">
         <v>45421.0</v>
@@ -13125,24 +13077,24 @@
     </row>
     <row r="17">
       <c r="A17" s="21" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="6" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
       <c r="H17" s="11"/>
       <c r="I17" s="11"/>
       <c r="J17" s="11" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="K17" s="8">
         <v>45421.0</v>
@@ -13172,26 +13124,26 @@
     </row>
     <row r="18">
       <c r="A18" s="6" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="6" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
       <c r="I18" s="6" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="K18" s="8">
         <v>45421.0</v>
@@ -13221,26 +13173,26 @@
     </row>
     <row r="19">
       <c r="A19" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="D19" s="6" t="s">
         <v>349</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>349</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>350</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>351</v>
-      </c>
       <c r="E19" s="6" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
       <c r="J19" s="6" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="K19" s="8">
         <v>45421.0</v>
@@ -13270,26 +13222,26 @@
     </row>
     <row r="20">
       <c r="A20" s="6" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
       <c r="J20" s="6" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="K20" s="8">
         <v>45421.0</v>
@@ -13319,26 +13271,26 @@
     </row>
     <row r="21">
       <c r="A21" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>354</v>
       </c>
-      <c r="B21" s="6" t="s">
-        <v>355</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>356</v>
-      </c>
       <c r="D21" s="6" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
       <c r="J21" s="6" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="K21" s="8">
         <v>45421.0</v>
@@ -13368,17 +13320,17 @@
     </row>
     <row r="22">
       <c r="A22" s="6" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="6" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
@@ -13413,17 +13365,17 @@
     </row>
     <row r="23">
       <c r="A23" s="6" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D23" s="7"/>
       <c r="E23" s="6" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
@@ -13458,23 +13410,23 @@
     </row>
     <row r="24">
       <c r="A24" s="6" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D24" s="7"/>
       <c r="E24" s="6" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
       <c r="I24" s="6" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="J24" s="7"/>
       <c r="K24" s="8">
@@ -13619,22 +13571,22 @@
     </row>
     <row r="2">
       <c r="A2" s="18" t="s">
+        <v>362</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>364</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>365</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>366</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G2" s="26"/>
       <c r="H2" s="26"/>
@@ -13667,22 +13619,22 @@
     </row>
     <row r="3">
       <c r="A3" s="18" t="s">
+        <v>367</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>369</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>370</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>371</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E3" s="25" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G3" s="26"/>
       <c r="H3" s="26"/>
@@ -13715,22 +13667,22 @@
     </row>
     <row r="4">
       <c r="A4" s="18" t="s">
+        <v>370</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>372</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>373</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>374</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E4" s="25" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G4" s="26"/>
       <c r="H4" s="26"/>
@@ -13763,22 +13715,22 @@
     </row>
     <row r="5">
       <c r="A5" s="18" t="s">
+        <v>374</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>376</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>377</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>378</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G5" s="26"/>
       <c r="H5" s="26"/>
@@ -13811,22 +13763,22 @@
     </row>
     <row r="6">
       <c r="A6" s="18" t="s">
+        <v>377</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>379</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>380</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>381</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
@@ -13859,22 +13811,22 @@
     </row>
     <row r="7">
       <c r="A7" s="18" t="s">
+        <v>381</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>383</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>385</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
@@ -13907,22 +13859,22 @@
     </row>
     <row r="8">
       <c r="A8" s="21" t="s">
+        <v>385</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>387</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>388</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>389</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
@@ -13955,22 +13907,22 @@
     </row>
     <row r="9">
       <c r="A9" s="21" t="s">
+        <v>389</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>391</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>392</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>393</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
@@ -14003,22 +13955,22 @@
     </row>
     <row r="10">
       <c r="A10" s="21" t="s">
+        <v>393</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>395</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>396</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>397</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
@@ -14051,22 +14003,22 @@
     </row>
     <row r="11">
       <c r="A11" s="21" t="s">
+        <v>397</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>399</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>400</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>401</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
@@ -14099,22 +14051,22 @@
     </row>
     <row r="12">
       <c r="A12" s="21" t="s">
+        <v>401</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>403</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>404</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>405</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
@@ -14147,22 +14099,22 @@
     </row>
     <row r="13">
       <c r="A13" s="21" t="s">
+        <v>405</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>407</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>408</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>409</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
@@ -14195,22 +14147,22 @@
     </row>
     <row r="14">
       <c r="A14" s="21" t="s">
+        <v>409</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>411</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>412</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>413</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
@@ -14243,22 +14195,22 @@
     </row>
     <row r="15">
       <c r="A15" s="21" t="s">
+        <v>413</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>415</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>416</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>417</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
@@ -14291,22 +14243,22 @@
     </row>
     <row r="16">
       <c r="A16" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>419</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>420</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>421</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
@@ -14339,22 +14291,22 @@
     </row>
     <row r="17">
       <c r="A17" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>422</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>423</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>424</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
@@ -14387,22 +14339,22 @@
     </row>
     <row r="18">
       <c r="A18" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>426</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>427</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>428</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
@@ -14435,22 +14387,22 @@
     </row>
     <row r="19">
       <c r="A19" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>430</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>431</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>432</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
@@ -14598,10 +14550,10 @@
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -14616,13 +14568,13 @@
     </row>
     <row r="4">
       <c r="A4" s="18" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="6" t="s">
@@ -14663,13 +14615,13 @@
     </row>
     <row r="5">
       <c r="A5" s="18" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="6" t="s">
@@ -14708,13 +14660,13 @@
     </row>
     <row r="6">
       <c r="A6" s="18" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="6" t="s">
@@ -14755,13 +14707,13 @@
     </row>
     <row r="7">
       <c r="A7" s="18" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="6" t="s">
@@ -14800,13 +14752,13 @@
     </row>
     <row r="8">
       <c r="A8" s="18" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="6" t="s">
@@ -14845,16 +14797,16 @@
     </row>
     <row r="9">
       <c r="A9" s="18" t="s">
+        <v>442</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>443</v>
+      </c>
+      <c r="C9" s="18" t="s">
         <v>444</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="D9" s="6" t="s">
         <v>445</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>446</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>447</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>99</v>
@@ -14892,16 +14844,16 @@
     </row>
     <row r="10">
       <c r="A10" s="21" t="s">
+        <v>446</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>447</v>
+      </c>
+      <c r="C10" s="21" t="s">
         <v>448</v>
       </c>
-      <c r="B10" s="21" t="s">
-        <v>449</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>450</v>
-      </c>
       <c r="D10" s="6" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>99</v>
@@ -14969,7 +14921,7 @@
     </row>
     <row r="12">
       <c r="A12" s="21" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B12" s="21"/>
       <c r="C12" s="11"/>
@@ -15001,7 +14953,7 @@
     </row>
     <row r="13">
       <c r="A13" s="21" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B13" s="21"/>
       <c r="C13" s="11"/>
@@ -15253,10 +15205,10 @@
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -15265,13 +15217,13 @@
     </row>
     <row r="3">
       <c r="A3" s="6" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="K3" s="8"/>
     </row>
     <row r="4">
       <c r="A4" s="18" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B4" s="18"/>
       <c r="C4" s="18"/>
@@ -15282,7 +15234,7 @@
     </row>
     <row r="5">
       <c r="A5" s="18" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
@@ -15291,16 +15243,16 @@
     </row>
     <row r="6">
       <c r="A6" s="18" t="s">
+        <v>454</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>455</v>
+      </c>
+      <c r="C6" s="18" t="s">
         <v>456</v>
       </c>
-      <c r="B6" s="18" t="s">
-        <v>457</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>458</v>
-      </c>
       <c r="D6" s="6" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>25</v>
@@ -15338,16 +15290,16 @@
     </row>
     <row r="7">
       <c r="A7" s="18" t="s">
+        <v>457</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>458</v>
+      </c>
+      <c r="C7" s="18" t="s">
         <v>459</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="D7" s="18" t="s">
         <v>460</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>461</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>462</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>25</v>
@@ -15387,17 +15339,17 @@
     </row>
     <row r="8">
       <c r="A8" s="18" t="s">
+        <v>461</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>462</v>
+      </c>
+      <c r="C8" s="18" t="s">
         <v>463</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>464</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>465</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="6" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
@@ -15432,17 +15384,17 @@
     </row>
     <row r="9">
       <c r="A9" s="18" t="s">
+        <v>465</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>466</v>
+      </c>
+      <c r="C9" s="18" t="s">
         <v>467</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>468</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>469</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="6" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
@@ -15477,16 +15429,16 @@
     </row>
     <row r="10">
       <c r="A10" s="21" t="s">
+        <v>468</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>469</v>
+      </c>
+      <c r="C10" s="21" t="s">
         <v>470</v>
       </c>
-      <c r="B10" s="21" t="s">
-        <v>471</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>472</v>
-      </c>
       <c r="D10" s="6" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>25</v>
@@ -15524,17 +15476,17 @@
     </row>
     <row r="11">
       <c r="A11" s="21" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="6" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
@@ -15569,17 +15521,17 @@
     </row>
     <row r="12">
       <c r="A12" s="21" t="s">
+        <v>474</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>475</v>
+      </c>
+      <c r="C12" s="30" t="s">
         <v>476</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>477</v>
-      </c>
-      <c r="C12" s="30" t="s">
-        <v>478</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="6" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
@@ -15614,16 +15566,16 @@
     </row>
     <row r="13">
       <c r="A13" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>479</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>480</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>481</v>
-      </c>
       <c r="D13" s="6" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>25</v>

--- a/code/vocab_csv/tech.xlsx
+++ b/code/vocab_csv/tech.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1843" uniqueCount="794">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1874" uniqueCount="812">
   <si>
     <t>Term</t>
   </si>
@@ -219,6 +219,36 @@
     <t>Forms of inputs and outputs associated with a technology</t>
   </si>
   <si>
+    <t>OperatingFactor</t>
+  </si>
+  <si>
+    <t>Operating Factor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A 'factor' affecting the operation and outcomes of the technology </t>
+  </si>
+  <si>
+    <t>Examples of operating factor could be equipment characteristics, lighting conditions for camera operations, connectivity for communications. This helps indicate whether specific factors are ideal i.e. they will give the best performance, or are problematic i.e. they will cause issues</t>
+  </si>
+  <si>
+    <t>Model Cards by Mitchell et al. (2019)</t>
+  </si>
+  <si>
+    <t>Harshvardhan J. Pandit, Delaram Golpayegani, Georg P. Krog, Paul Ryan, Julian Flake</t>
+  </si>
+  <si>
+    <t>OperatingEnvironment</t>
+  </si>
+  <si>
+    <t>Operating Environment</t>
+  </si>
+  <si>
+    <t>The environment within which the technology operates</t>
+  </si>
+  <si>
+    <t>Environment here is a broad term used to refer to the immediate surroundings and parts of it that form the context of where the technology operates, for example a room or in open air where specific machines are set up. This helps describe the expectations and set up of systems and, to specify and compare them against ideal conditions or environments</t>
+  </si>
+  <si>
     <t>domain</t>
   </si>
   <si>
@@ -433,6 +463,30 @@
   </si>
   <si>
     <t>tech:hasOutput</t>
+  </si>
+  <si>
+    <t>hasOperatingFactor</t>
+  </si>
+  <si>
+    <t>has operating factor</t>
+  </si>
+  <si>
+    <t>Indicates the operating factor for the technology</t>
+  </si>
+  <si>
+    <t>tech:OperatingFactor</t>
+  </si>
+  <si>
+    <t>hasOperatingEnvironment</t>
+  </si>
+  <si>
+    <t>has operating environment</t>
+  </si>
+  <si>
+    <t>Indicates the operating environment for the technology</t>
+  </si>
+  <si>
+    <t>tech:OperatingEnvironment</t>
   </si>
   <si>
     <t>InputData</t>
@@ -3738,10 +3792,108 @@
       <c r="AD16" s="7"/>
     </row>
     <row r="17">
-      <c r="K17" s="8"/>
+      <c r="A17" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="K17" s="8">
+        <v>45806.0</v>
+      </c>
+      <c r="L17" s="7"/>
+      <c r="M17" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N17" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="7"/>
+      <c r="T17" s="7"/>
+      <c r="U17" s="7"/>
+      <c r="V17" s="7"/>
+      <c r="W17" s="7"/>
+      <c r="X17" s="7"/>
+      <c r="Y17" s="7"/>
+      <c r="Z17" s="7"/>
+      <c r="AA17" s="7"/>
+      <c r="AB17" s="7"/>
+      <c r="AC17" s="7"/>
+      <c r="AD17" s="7"/>
     </row>
     <row r="18">
-      <c r="K18" s="8"/>
+      <c r="A18" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="K18" s="8">
+        <v>45806.0</v>
+      </c>
+      <c r="L18" s="7"/>
+      <c r="M18" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N18" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="7"/>
+      <c r="S18" s="7"/>
+      <c r="T18" s="7"/>
+      <c r="U18" s="7"/>
+      <c r="V18" s="7"/>
+      <c r="W18" s="7"/>
+      <c r="X18" s="7"/>
+      <c r="Y18" s="7"/>
+      <c r="Z18" s="7"/>
+      <c r="AA18" s="7"/>
+      <c r="AB18" s="7"/>
+      <c r="AC18" s="7"/>
+      <c r="AD18" s="7"/>
     </row>
     <row r="19">
       <c r="K19" s="8"/>
@@ -3850,13 +4002,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="G1" s="12" t="s">
         <v>6</v>
@@ -3871,7 +4023,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="15" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="L1" s="16" t="s">
         <v>11</v>
@@ -3888,22 +4040,22 @@
     </row>
     <row r="2">
       <c r="A2" s="6" t="s">
-        <v>480</v>
+        <v>498</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>481</v>
+        <v>499</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>482</v>
+        <v>500</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>483</v>
+        <v>501</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>484</v>
+        <v>502</v>
       </c>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
@@ -3938,22 +4090,22 @@
     </row>
     <row r="3">
       <c r="A3" s="6" t="s">
-        <v>485</v>
+        <v>503</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>486</v>
+        <v>504</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>487</v>
+        <v>505</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>464</v>
+        <v>482</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>484</v>
+        <v>502</v>
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
@@ -3984,22 +4136,22 @@
     </row>
     <row r="4">
       <c r="A4" s="6" t="s">
-        <v>488</v>
+        <v>506</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>489</v>
+        <v>507</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>490</v>
+        <v>508</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>473</v>
+        <v>491</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>484</v>
+        <v>502</v>
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
@@ -4033,7 +4185,7 @@
     </row>
     <row r="9">
       <c r="A9" s="6" t="s">
-        <v>491</v>
+        <v>509</v>
       </c>
       <c r="B9" s="6"/>
     </row>
@@ -4167,10 +4319,10 @@
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
-        <v>492</v>
+        <v>510</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>492</v>
+        <v>510</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -4185,17 +4337,17 @@
     </row>
     <row r="4">
       <c r="A4" s="6" t="s">
-        <v>493</v>
+        <v>511</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>493</v>
+        <v>511</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>494</v>
+        <v>512</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="30" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -4231,19 +4383,19 @@
     </row>
     <row r="5">
       <c r="A5" s="6" t="s">
-        <v>495</v>
+        <v>513</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>496</v>
+        <v>514</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>497</v>
+        <v>515</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>498</v>
+        <v>516</v>
       </c>
       <c r="E5" s="30" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -4279,19 +4431,19 @@
     </row>
     <row r="6">
       <c r="A6" s="6" t="s">
-        <v>499</v>
+        <v>517</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>499</v>
+        <v>517</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>500</v>
+        <v>518</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>498</v>
+        <v>516</v>
       </c>
       <c r="E6" s="30" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -4327,19 +4479,19 @@
     </row>
     <row r="7">
       <c r="A7" s="6" t="s">
-        <v>501</v>
+        <v>519</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>501</v>
+        <v>519</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>502</v>
+        <v>520</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>498</v>
+        <v>516</v>
       </c>
       <c r="E7" s="30" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -4375,19 +4527,19 @@
     </row>
     <row r="8">
       <c r="A8" s="6" t="s">
-        <v>503</v>
+        <v>521</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>503</v>
+        <v>521</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>504</v>
+        <v>522</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>498</v>
+        <v>516</v>
       </c>
       <c r="E8" s="30" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
@@ -4423,19 +4575,19 @@
     </row>
     <row r="9">
       <c r="A9" s="6" t="s">
-        <v>505</v>
+        <v>523</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>506</v>
+        <v>524</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>507</v>
+        <v>525</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>498</v>
+        <v>516</v>
       </c>
       <c r="E9" s="30" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
@@ -4471,17 +4623,17 @@
     </row>
     <row r="10">
       <c r="A10" s="6" t="s">
-        <v>508</v>
+        <v>526</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>508</v>
+        <v>526</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>509</v>
+        <v>527</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="30" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
@@ -4615,10 +4767,10 @@
     </row>
     <row r="2">
       <c r="A2" s="31" t="s">
-        <v>510</v>
+        <v>528</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>510</v>
+        <v>528</v>
       </c>
       <c r="C2" s="32"/>
       <c r="D2" s="33"/>
@@ -4637,13 +4789,13 @@
     </row>
     <row r="4">
       <c r="A4" s="31" t="s">
-        <v>511</v>
+        <v>529</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>511</v>
+        <v>529</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>512</v>
+        <v>530</v>
       </c>
       <c r="D4" s="34"/>
       <c r="E4" s="6" t="s">
@@ -4693,16 +4845,16 @@
     </row>
     <row r="6">
       <c r="A6" s="31" t="s">
-        <v>513</v>
+        <v>531</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>514</v>
+        <v>532</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>515</v>
+        <v>533</v>
       </c>
       <c r="D6" s="34" t="s">
-        <v>516</v>
+        <v>534</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>16</v>
@@ -4741,16 +4893,16 @@
     </row>
     <row r="7">
       <c r="A7" s="32" t="s">
-        <v>517</v>
+        <v>535</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>517</v>
+        <v>535</v>
       </c>
       <c r="C7" s="32" t="s">
-        <v>518</v>
+        <v>536</v>
       </c>
       <c r="D7" s="35" t="s">
-        <v>519</v>
+        <v>537</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>16</v>
@@ -4791,16 +4943,16 @@
     </row>
     <row r="8">
       <c r="A8" s="18" t="s">
-        <v>520</v>
+        <v>538</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>521</v>
+        <v>539</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>522</v>
+        <v>540</v>
       </c>
       <c r="D8" s="35" t="s">
-        <v>519</v>
+        <v>537</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>16</v>
@@ -4839,16 +4991,16 @@
     </row>
     <row r="9">
       <c r="A9" s="18" t="s">
-        <v>523</v>
+        <v>541</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>524</v>
+        <v>542</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>525</v>
+        <v>543</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>519</v>
+        <v>537</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>16</v>
@@ -4887,16 +5039,16 @@
     </row>
     <row r="10">
       <c r="A10" s="32" t="s">
-        <v>526</v>
+        <v>544</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>526</v>
+        <v>544</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>527</v>
+        <v>545</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>528</v>
+        <v>546</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>16</v>
@@ -4937,16 +5089,16 @@
     </row>
     <row r="12">
       <c r="A12" s="31" t="s">
-        <v>529</v>
+        <v>547</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>529</v>
+        <v>547</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>530</v>
+        <v>548</v>
       </c>
       <c r="D12" s="35" t="s">
-        <v>516</v>
+        <v>534</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>16</v>
@@ -4985,16 +5137,16 @@
     </row>
     <row r="13">
       <c r="A13" s="32" t="s">
-        <v>531</v>
+        <v>549</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>532</v>
+        <v>550</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>533</v>
+        <v>551</v>
       </c>
       <c r="D13" s="35" t="s">
-        <v>534</v>
+        <v>552</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>16</v>
@@ -5035,16 +5187,16 @@
     </row>
     <row r="14">
       <c r="A14" s="6" t="s">
-        <v>535</v>
+        <v>553</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>536</v>
+        <v>554</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>537</v>
+        <v>555</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>534</v>
+        <v>552</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>16</v>
@@ -5083,16 +5235,16 @@
     </row>
     <row r="16">
       <c r="A16" s="5" t="s">
-        <v>538</v>
+        <v>556</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>539</v>
+        <v>557</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>540</v>
+        <v>558</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>516</v>
+        <v>534</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>16</v>
@@ -5131,16 +5283,16 @@
     </row>
     <row r="17">
       <c r="A17" s="6" t="s">
-        <v>541</v>
+        <v>559</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>542</v>
+        <v>560</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>543</v>
+        <v>561</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>544</v>
+        <v>562</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>16</v>
@@ -5179,16 +5331,16 @@
     </row>
     <row r="18">
       <c r="A18" s="6" t="s">
-        <v>545</v>
+        <v>563</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>545</v>
+        <v>563</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>546</v>
+        <v>564</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>544</v>
+        <v>562</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>16</v>
@@ -5227,16 +5379,16 @@
     </row>
     <row r="19">
       <c r="A19" s="6" t="s">
-        <v>547</v>
+        <v>565</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>547</v>
+        <v>565</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>548</v>
+        <v>566</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>544</v>
+        <v>562</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>16</v>
@@ -5275,16 +5427,16 @@
     </row>
     <row r="20">
       <c r="A20" s="6" t="s">
-        <v>549</v>
+        <v>567</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>550</v>
+        <v>568</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>551</v>
+        <v>569</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>544</v>
+        <v>562</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>16</v>
@@ -5323,13 +5475,13 @@
     </row>
     <row r="22">
       <c r="A22" s="5" t="s">
-        <v>552</v>
+        <v>570</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>552</v>
+        <v>570</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>553</v>
+        <v>571</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="6" t="s">
@@ -5372,16 +5524,16 @@
     </row>
     <row r="24">
       <c r="A24" s="5" t="s">
-        <v>554</v>
+        <v>572</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>554</v>
+        <v>572</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>555</v>
+        <v>573</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>556</v>
+        <v>574</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>16</v>
@@ -5420,16 +5572,16 @@
     </row>
     <row r="25">
       <c r="A25" s="6" t="s">
-        <v>557</v>
+        <v>575</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>558</v>
+        <v>576</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>559</v>
+        <v>577</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>560</v>
+        <v>578</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>16</v>
@@ -5468,16 +5620,16 @@
     </row>
     <row r="26">
       <c r="A26" s="6" t="s">
-        <v>561</v>
+        <v>579</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>562</v>
+        <v>580</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>563</v>
+        <v>581</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>564</v>
+        <v>582</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>16</v>
@@ -5516,16 +5668,16 @@
     </row>
     <row r="27">
       <c r="A27" s="6" t="s">
-        <v>565</v>
+        <v>583</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>566</v>
+        <v>584</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>567</v>
+        <v>585</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>564</v>
+        <v>582</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>16</v>
@@ -5564,16 +5716,16 @@
     </row>
     <row r="28">
       <c r="A28" s="6" t="s">
-        <v>568</v>
+        <v>586</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>568</v>
+        <v>586</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>568</v>
+        <v>586</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>560</v>
+        <v>578</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>16</v>
@@ -5612,16 +5764,16 @@
     </row>
     <row r="29">
       <c r="A29" s="6" t="s">
-        <v>569</v>
+        <v>587</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>570</v>
+        <v>588</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>571</v>
+        <v>589</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>16</v>
@@ -5660,16 +5812,16 @@
     </row>
     <row r="30">
       <c r="A30" s="6" t="s">
-        <v>573</v>
+        <v>591</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>573</v>
+        <v>591</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>574</v>
+        <v>592</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>575</v>
+        <v>593</v>
       </c>
       <c r="E30" s="6" t="s">
         <v>16</v>
@@ -5708,16 +5860,16 @@
     </row>
     <row r="31">
       <c r="A31" s="5" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>577</v>
+        <v>595</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>578</v>
+        <v>596</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>556</v>
+        <v>574</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>16</v>
@@ -5727,7 +5879,7 @@
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
       <c r="J31" s="6" t="s">
-        <v>312</v>
+        <v>330</v>
       </c>
       <c r="K31" s="19">
         <v>45627.0</v>
@@ -5758,16 +5910,16 @@
     </row>
     <row r="32">
       <c r="A32" s="5" t="s">
-        <v>579</v>
+        <v>597</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>580</v>
+        <v>598</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>581</v>
+        <v>599</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>582</v>
+        <v>600</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>16</v>
@@ -5777,7 +5929,7 @@
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
       <c r="J32" s="6" t="s">
-        <v>312</v>
+        <v>330</v>
       </c>
       <c r="K32" s="19">
         <v>45627.0</v>
@@ -5808,16 +5960,16 @@
     </row>
     <row r="33">
       <c r="A33" s="6" t="s">
-        <v>583</v>
+        <v>601</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>584</v>
+        <v>602</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>585</v>
+        <v>603</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>586</v>
+        <v>604</v>
       </c>
       <c r="E33" s="6" t="s">
         <v>16</v>
@@ -5827,7 +5979,7 @@
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
       <c r="J33" s="6" t="s">
-        <v>312</v>
+        <v>330</v>
       </c>
       <c r="K33" s="19">
         <v>45627.0</v>
@@ -5858,13 +6010,13 @@
     </row>
     <row r="34">
       <c r="A34" s="6" t="s">
-        <v>587</v>
+        <v>605</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>587</v>
+        <v>605</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>588</v>
+        <v>606</v>
       </c>
       <c r="D34" s="7"/>
       <c r="E34" s="6" t="s">
@@ -5904,13 +6056,13 @@
     </row>
     <row r="35">
       <c r="A35" s="6" t="s">
-        <v>589</v>
+        <v>607</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>589</v>
+        <v>607</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>590</v>
+        <v>608</v>
       </c>
       <c r="D35" s="7"/>
       <c r="E35" s="6" t="s">
@@ -5920,7 +6072,7 @@
       <c r="G35" s="7"/>
       <c r="H35" s="7"/>
       <c r="I35" s="6" t="s">
-        <v>591</v>
+        <v>609</v>
       </c>
       <c r="J35" s="7"/>
       <c r="K35" s="19">
@@ -5952,13 +6104,13 @@
     </row>
     <row r="36">
       <c r="A36" s="6" t="s">
-        <v>592</v>
+        <v>610</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>592</v>
+        <v>610</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>593</v>
+        <v>611</v>
       </c>
       <c r="D36" s="7"/>
       <c r="E36" s="6" t="s">
@@ -5998,13 +6150,13 @@
     </row>
     <row r="37">
       <c r="A37" s="6" t="s">
-        <v>594</v>
+        <v>612</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>594</v>
+        <v>612</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>595</v>
+        <v>613</v>
       </c>
       <c r="D37" s="7"/>
       <c r="E37" s="6" t="s">
@@ -6044,13 +6196,13 @@
     </row>
     <row r="38">
       <c r="A38" s="6" t="s">
-        <v>596</v>
+        <v>614</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>596</v>
+        <v>614</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>597</v>
+        <v>615</v>
       </c>
       <c r="D38" s="7"/>
       <c r="E38" s="6" t="s">
@@ -6090,13 +6242,13 @@
     </row>
     <row r="39">
       <c r="A39" s="6" t="s">
-        <v>598</v>
+        <v>616</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>599</v>
+        <v>617</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>600</v>
+        <v>618</v>
       </c>
       <c r="D39" s="7"/>
       <c r="E39" s="6" t="s">
@@ -6136,13 +6288,13 @@
     </row>
     <row r="40">
       <c r="A40" s="6" t="s">
-        <v>601</v>
+        <v>619</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>602</v>
+        <v>620</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>603</v>
+        <v>621</v>
       </c>
       <c r="D40" s="7"/>
       <c r="E40" s="6" t="s">
@@ -6182,16 +6334,16 @@
     </row>
     <row r="41">
       <c r="A41" s="6" t="s">
-        <v>604</v>
+        <v>622</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>604</v>
+        <v>622</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>605</v>
+        <v>623</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>606</v>
+        <v>624</v>
       </c>
       <c r="E41" s="6" t="s">
         <v>16</v>
@@ -6230,13 +6382,13 @@
     </row>
     <row r="42">
       <c r="A42" s="6" t="s">
-        <v>607</v>
+        <v>625</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>607</v>
+        <v>625</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>608</v>
+        <v>626</v>
       </c>
       <c r="D42" s="7"/>
       <c r="E42" s="6" t="s">
@@ -6276,16 +6428,16 @@
     </row>
     <row r="43">
       <c r="A43" s="6" t="s">
-        <v>609</v>
+        <v>627</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>609</v>
+        <v>627</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>610</v>
+        <v>628</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>556</v>
+        <v>574</v>
       </c>
       <c r="E43" s="6" t="s">
         <v>16</v>
@@ -6324,16 +6476,16 @@
     </row>
     <row r="44">
       <c r="A44" s="6" t="s">
-        <v>611</v>
+        <v>629</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>611</v>
+        <v>629</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>612</v>
+        <v>630</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>613</v>
+        <v>631</v>
       </c>
       <c r="E44" s="6" t="s">
         <v>16</v>
@@ -6372,16 +6524,16 @@
     </row>
     <row r="45">
       <c r="A45" s="6" t="s">
-        <v>614</v>
+        <v>632</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>614</v>
+        <v>632</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>615</v>
+        <v>633</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>516</v>
+        <v>534</v>
       </c>
       <c r="E45" s="6" t="s">
         <v>16</v>
@@ -6420,16 +6572,16 @@
     </row>
     <row r="46">
       <c r="A46" s="6" t="s">
-        <v>616</v>
+        <v>634</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>616</v>
+        <v>634</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>617</v>
+        <v>635</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>516</v>
+        <v>534</v>
       </c>
       <c r="E46" s="6" t="s">
         <v>16</v>
@@ -6533,13 +6685,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="36" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="E1" s="36" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="F1" s="36" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="G1" s="36" t="s">
         <v>6</v>
@@ -6554,7 +6706,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="39" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="L1" s="40" t="s">
         <v>11</v>
@@ -6586,19 +6738,19 @@
     </row>
     <row r="2">
       <c r="A2" s="18" t="s">
-        <v>618</v>
+        <v>636</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>619</v>
+        <v>637</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>620</v>
+        <v>638</v>
       </c>
       <c r="D2" s="34" t="s">
         <v>16</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>621</v>
+        <v>639</v>
       </c>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
@@ -6634,19 +6786,19 @@
     </row>
     <row r="3">
       <c r="A3" s="18" t="s">
-        <v>622</v>
+        <v>640</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>623</v>
+        <v>641</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>624</v>
+        <v>642</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>625</v>
+        <v>643</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>626</v>
+        <v>644</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
@@ -6682,19 +6834,19 @@
     </row>
     <row r="4">
       <c r="A4" s="18" t="s">
-        <v>627</v>
+        <v>645</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>628</v>
+        <v>646</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>629</v>
+        <v>647</v>
       </c>
       <c r="D4" s="34" t="s">
-        <v>626</v>
+        <v>644</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>625</v>
+        <v>643</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -6730,19 +6882,19 @@
     </row>
     <row r="5">
       <c r="A5" s="18" t="s">
-        <v>630</v>
+        <v>648</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>631</v>
+        <v>649</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>632</v>
+        <v>650</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>606</v>
+        <v>624</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -6778,19 +6930,19 @@
     </row>
     <row r="6">
       <c r="A6" s="18" t="s">
-        <v>633</v>
+        <v>651</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>634</v>
+        <v>652</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>635</v>
+        <v>653</v>
       </c>
       <c r="D6" s="34" t="s">
         <v>16</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>636</v>
+        <v>654</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -6826,22 +6978,22 @@
     </row>
     <row r="7">
       <c r="A7" s="18" t="s">
-        <v>637</v>
+        <v>655</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>638</v>
+        <v>656</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>639</v>
+        <v>657</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>560</v>
+        <v>578</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>640</v>
+        <v>658</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
@@ -6876,19 +7028,19 @@
     </row>
     <row r="8">
       <c r="A8" s="18" t="s">
-        <v>641</v>
+        <v>659</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>642</v>
+        <v>660</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>643</v>
+        <v>661</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>516</v>
+        <v>534</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
@@ -6924,19 +7076,19 @@
     </row>
     <row r="9">
       <c r="A9" s="18" t="s">
-        <v>644</v>
+        <v>662</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>645</v>
+        <v>663</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>646</v>
+        <v>664</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>556</v>
+        <v>574</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
@@ -6972,19 +7124,19 @@
     </row>
     <row r="10">
       <c r="A10" s="18" t="s">
-        <v>647</v>
+        <v>665</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>648</v>
+        <v>666</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>649</v>
+        <v>667</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>534</v>
+        <v>552</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
@@ -7020,19 +7172,19 @@
     </row>
     <row r="11">
       <c r="A11" s="6" t="s">
-        <v>650</v>
+        <v>668</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>651</v>
+        <v>669</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>652</v>
+        <v>670</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>653</v>
+        <v>671</v>
       </c>
       <c r="K11" s="19">
         <v>45627.0</v>
@@ -7047,19 +7199,19 @@
     </row>
     <row r="12">
       <c r="A12" s="18" t="s">
-        <v>654</v>
+        <v>672</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>655</v>
+        <v>673</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>656</v>
+        <v>674</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>657</v>
+        <v>675</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
@@ -7095,19 +7247,19 @@
     </row>
     <row r="13">
       <c r="A13" s="6" t="s">
-        <v>658</v>
+        <v>676</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>659</v>
+        <v>677</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>660</v>
+        <v>678</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>661</v>
+        <v>679</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
@@ -7143,19 +7295,19 @@
     </row>
     <row r="14">
       <c r="A14" s="6" t="s">
-        <v>662</v>
+        <v>680</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>663</v>
+        <v>681</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>664</v>
+        <v>682</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>665</v>
+        <v>683</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
@@ -7329,27 +7481,27 @@
     </row>
     <row r="2">
       <c r="A2" s="6" t="s">
-        <v>666</v>
+        <v>684</v>
       </c>
       <c r="B2" s="5"/>
       <c r="J2" s="10" t="s">
-        <v>667</v>
+        <v>685</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="6" t="s">
-        <v>668</v>
+        <v>686</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>669</v>
+        <v>687</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="6" t="s">
-        <v>670</v>
+        <v>688</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>671</v>
+        <v>689</v>
       </c>
     </row>
     <row r="6">
@@ -7844,26 +7996,26 @@
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
-        <v>672</v>
+        <v>690</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>672</v>
+        <v>690</v>
       </c>
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
     </row>
     <row r="3">
       <c r="A3" s="6" t="s">
-        <v>673</v>
+        <v>691</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>674</v>
+        <v>692</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>675</v>
+        <v>693</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>676</v>
+        <v>694</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>16</v>
@@ -7873,7 +8025,7 @@
       </c>
       <c r="L3" s="8"/>
       <c r="M3" s="6" t="s">
-        <v>677</v>
+        <v>695</v>
       </c>
       <c r="N3" s="6" t="s">
         <v>39</v>
@@ -7884,16 +8036,16 @@
     </row>
     <row r="4">
       <c r="A4" s="6" t="s">
-        <v>678</v>
+        <v>696</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>679</v>
+        <v>697</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>680</v>
+        <v>698</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>676</v>
+        <v>694</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>16</v>
@@ -7903,7 +8055,7 @@
       </c>
       <c r="L4" s="8"/>
       <c r="M4" s="6" t="s">
-        <v>677</v>
+        <v>695</v>
       </c>
       <c r="N4" s="6" t="s">
         <v>39</v>
@@ -7914,16 +8066,16 @@
     </row>
     <row r="5">
       <c r="A5" s="6" t="s">
-        <v>681</v>
+        <v>699</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>682</v>
+        <v>700</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>683</v>
+        <v>701</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>676</v>
+        <v>694</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>16</v>
@@ -7933,7 +8085,7 @@
       </c>
       <c r="L5" s="8"/>
       <c r="M5" s="6" t="s">
-        <v>677</v>
+        <v>695</v>
       </c>
       <c r="N5" s="6" t="s">
         <v>39</v>
@@ -7944,16 +8096,16 @@
     </row>
     <row r="6">
       <c r="A6" s="6" t="s">
-        <v>684</v>
+        <v>702</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>685</v>
+        <v>703</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>686</v>
+        <v>704</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>676</v>
+        <v>694</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>16</v>
@@ -7963,7 +8115,7 @@
       </c>
       <c r="L6" s="8"/>
       <c r="M6" s="6" t="s">
-        <v>677</v>
+        <v>695</v>
       </c>
       <c r="N6" s="6" t="s">
         <v>39</v>
@@ -7974,16 +8126,16 @@
     </row>
     <row r="7">
       <c r="A7" s="6" t="s">
-        <v>687</v>
+        <v>705</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>688</v>
+        <v>706</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>689</v>
+        <v>707</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>676</v>
+        <v>694</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>16</v>
@@ -7993,7 +8145,7 @@
       </c>
       <c r="L7" s="8"/>
       <c r="M7" s="6" t="s">
-        <v>677</v>
+        <v>695</v>
       </c>
       <c r="N7" s="6" t="s">
         <v>39</v>
@@ -8004,16 +8156,16 @@
     </row>
     <row r="8">
       <c r="A8" s="6" t="s">
-        <v>690</v>
+        <v>708</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>691</v>
+        <v>709</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>692</v>
+        <v>710</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>676</v>
+        <v>694</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>16</v>
@@ -8023,7 +8175,7 @@
       </c>
       <c r="L8" s="8"/>
       <c r="M8" s="6" t="s">
-        <v>677</v>
+        <v>695</v>
       </c>
       <c r="N8" s="6" t="s">
         <v>39</v>
@@ -8034,16 +8186,16 @@
     </row>
     <row r="9">
       <c r="A9" s="6" t="s">
-        <v>693</v>
+        <v>711</v>
       </c>
       <c r="B9" s="6" t="s">
+        <v>712</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>713</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>694</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>695</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>676</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>16</v>
@@ -8053,7 +8205,7 @@
       </c>
       <c r="L9" s="8"/>
       <c r="M9" s="6" t="s">
-        <v>677</v>
+        <v>695</v>
       </c>
       <c r="N9" s="6" t="s">
         <v>39</v>
@@ -8064,16 +8216,16 @@
     </row>
     <row r="10">
       <c r="A10" s="6" t="s">
-        <v>696</v>
+        <v>714</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>697</v>
+        <v>715</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>698</v>
+        <v>716</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>676</v>
+        <v>694</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>16</v>
@@ -8083,7 +8235,7 @@
       </c>
       <c r="L10" s="8"/>
       <c r="M10" s="6" t="s">
-        <v>677</v>
+        <v>695</v>
       </c>
       <c r="N10" s="6" t="s">
         <v>39</v>
@@ -8094,16 +8246,16 @@
     </row>
     <row r="11">
       <c r="A11" s="6" t="s">
-        <v>699</v>
+        <v>717</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>700</v>
+        <v>718</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>701</v>
+        <v>719</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>676</v>
+        <v>694</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>16</v>
@@ -8113,7 +8265,7 @@
       </c>
       <c r="L11" s="8"/>
       <c r="M11" s="6" t="s">
-        <v>677</v>
+        <v>695</v>
       </c>
       <c r="N11" s="6" t="s">
         <v>39</v>
@@ -8124,16 +8276,16 @@
     </row>
     <row r="12">
       <c r="A12" s="6" t="s">
-        <v>702</v>
+        <v>720</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>703</v>
+        <v>721</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>704</v>
+        <v>722</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>705</v>
+        <v>723</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>16</v>
@@ -8143,7 +8295,7 @@
       </c>
       <c r="L12" s="8"/>
       <c r="M12" s="6" t="s">
-        <v>677</v>
+        <v>695</v>
       </c>
       <c r="N12" s="6" t="s">
         <v>39</v>
@@ -8154,16 +8306,16 @@
     </row>
     <row r="13">
       <c r="A13" s="6" t="s">
-        <v>706</v>
+        <v>724</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>707</v>
+        <v>725</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>708</v>
+        <v>726</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>709</v>
+        <v>727</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>16</v>
@@ -8172,7 +8324,7 @@
         <v>44727.0</v>
       </c>
       <c r="M13" s="6" t="s">
-        <v>677</v>
+        <v>695</v>
       </c>
       <c r="N13" s="6" t="s">
         <v>39</v>
@@ -8183,16 +8335,16 @@
     </row>
     <row r="14">
       <c r="A14" s="24" t="s">
-        <v>710</v>
+        <v>728</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>711</v>
+        <v>729</v>
       </c>
       <c r="C14" s="48" t="s">
-        <v>712</v>
+        <v>730</v>
       </c>
       <c r="D14" s="49" t="s">
-        <v>676</v>
+        <v>694</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>16</v>
@@ -8202,12 +8354,12 @@
       <c r="H14" s="11"/>
       <c r="I14" s="11"/>
       <c r="J14" s="24" t="s">
-        <v>713</v>
+        <v>731</v>
       </c>
       <c r="K14" s="11"/>
       <c r="L14" s="11"/>
       <c r="M14" s="6" t="s">
-        <v>677</v>
+        <v>695</v>
       </c>
       <c r="N14" s="11"/>
       <c r="O14" s="11"/>
@@ -8230,18 +8382,18 @@
     </row>
     <row r="16">
       <c r="A16" s="5" t="s">
-        <v>714</v>
+        <v>732</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="6" t="s">
-        <v>715</v>
+        <v>733</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>716</v>
+        <v>734</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>717</v>
+        <v>735</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>16</v>
@@ -8250,7 +8402,7 @@
         <v>44727.0</v>
       </c>
       <c r="M17" s="6" t="s">
-        <v>677</v>
+        <v>695</v>
       </c>
       <c r="N17" s="6" t="s">
         <v>39</v>
@@ -8261,13 +8413,13 @@
     </row>
     <row r="18">
       <c r="A18" s="6" t="s">
-        <v>718</v>
+        <v>736</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>719</v>
+        <v>737</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>720</v>
+        <v>738</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>16</v>
@@ -8277,7 +8429,7 @@
       </c>
       <c r="L18" s="8"/>
       <c r="M18" s="6" t="s">
-        <v>677</v>
+        <v>695</v>
       </c>
       <c r="N18" s="6" t="s">
         <v>39</v>
@@ -8288,13 +8440,13 @@
     </row>
     <row r="19">
       <c r="A19" s="6" t="s">
-        <v>721</v>
+        <v>739</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>722</v>
+        <v>740</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>723</v>
+        <v>741</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>16</v>
@@ -8304,7 +8456,7 @@
       </c>
       <c r="L19" s="8"/>
       <c r="M19" s="6" t="s">
-        <v>677</v>
+        <v>695</v>
       </c>
       <c r="N19" s="6" t="s">
         <v>39</v>
@@ -8315,13 +8467,13 @@
     </row>
     <row r="20">
       <c r="A20" s="6" t="s">
-        <v>724</v>
+        <v>742</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>725</v>
+        <v>743</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>726</v>
+        <v>744</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>16</v>
@@ -8331,7 +8483,7 @@
       </c>
       <c r="L20" s="8"/>
       <c r="M20" s="6" t="s">
-        <v>677</v>
+        <v>695</v>
       </c>
       <c r="N20" s="6" t="s">
         <v>39</v>
@@ -8342,13 +8494,13 @@
     </row>
     <row r="21">
       <c r="A21" s="6" t="s">
-        <v>727</v>
+        <v>745</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>728</v>
+        <v>746</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>729</v>
+        <v>747</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>16</v>
@@ -8358,7 +8510,7 @@
       </c>
       <c r="L21" s="8"/>
       <c r="M21" s="6" t="s">
-        <v>677</v>
+        <v>695</v>
       </c>
       <c r="N21" s="6" t="s">
         <v>39</v>
@@ -8369,13 +8521,13 @@
     </row>
     <row r="22">
       <c r="A22" s="6" t="s">
-        <v>730</v>
+        <v>748</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>731</v>
+        <v>749</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>732</v>
+        <v>750</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>16</v>
@@ -8385,7 +8537,7 @@
       </c>
       <c r="L22" s="8"/>
       <c r="M22" s="6" t="s">
-        <v>677</v>
+        <v>695</v>
       </c>
       <c r="N22" s="6" t="s">
         <v>39</v>
@@ -8396,10 +8548,10 @@
     </row>
     <row r="24">
       <c r="A24" s="5" t="s">
-        <v>733</v>
+        <v>751</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>733</v>
+        <v>751</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="30"/>
@@ -8408,16 +8560,16 @@
     </row>
     <row r="25">
       <c r="A25" s="6" t="s">
-        <v>734</v>
+        <v>752</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>735</v>
+        <v>753</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>736</v>
+        <v>754</v>
       </c>
       <c r="D25" s="30" t="s">
-        <v>737</v>
+        <v>755</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>16</v>
@@ -8426,7 +8578,7 @@
         <v>44727.0</v>
       </c>
       <c r="M25" s="6" t="s">
-        <v>677</v>
+        <v>695</v>
       </c>
       <c r="N25" s="6" t="s">
         <v>39</v>
@@ -8437,16 +8589,16 @@
     </row>
     <row r="26">
       <c r="A26" s="6" t="s">
-        <v>738</v>
+        <v>756</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>739</v>
+        <v>757</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>740</v>
+        <v>758</v>
       </c>
       <c r="D26" s="30" t="s">
-        <v>737</v>
+        <v>755</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>16</v>
@@ -8455,7 +8607,7 @@
         <v>44727.0</v>
       </c>
       <c r="M26" s="6" t="s">
-        <v>677</v>
+        <v>695</v>
       </c>
       <c r="N26" s="6" t="s">
         <v>39</v>
@@ -8466,16 +8618,16 @@
     </row>
     <row r="27">
       <c r="A27" s="6" t="s">
-        <v>741</v>
+        <v>759</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>742</v>
+        <v>760</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>743</v>
+        <v>761</v>
       </c>
       <c r="D27" s="30" t="s">
-        <v>737</v>
+        <v>755</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>16</v>
@@ -8484,7 +8636,7 @@
         <v>44727.0</v>
       </c>
       <c r="M27" s="6" t="s">
-        <v>677</v>
+        <v>695</v>
       </c>
       <c r="N27" s="6" t="s">
         <v>39</v>
@@ -8495,16 +8647,16 @@
     </row>
     <row r="28">
       <c r="A28" s="6" t="s">
-        <v>529</v>
+        <v>547</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>529</v>
+        <v>547</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>744</v>
+        <v>762</v>
       </c>
       <c r="D28" s="30" t="s">
-        <v>737</v>
+        <v>755</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>16</v>
@@ -8513,7 +8665,7 @@
         <v>44727.0</v>
       </c>
       <c r="M28" s="6" t="s">
-        <v>677</v>
+        <v>695</v>
       </c>
       <c r="N28" s="6" t="s">
         <v>39</v>
@@ -8524,10 +8676,10 @@
     </row>
     <row r="30">
       <c r="A30" s="5" t="s">
-        <v>745</v>
+        <v>763</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>745</v>
+        <v>763</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
@@ -8558,16 +8710,16 @@
     </row>
     <row r="31">
       <c r="A31" s="6" t="s">
-        <v>746</v>
+        <v>764</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>747</v>
+        <v>765</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>748</v>
+        <v>766</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>749</v>
+        <v>767</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>16</v>
@@ -8576,10 +8728,10 @@
         <v>44727.0</v>
       </c>
       <c r="M31" s="6" t="s">
-        <v>677</v>
+        <v>695</v>
       </c>
       <c r="N31" s="6" t="s">
-        <v>750</v>
+        <v>768</v>
       </c>
       <c r="O31" s="9" t="s">
         <v>28</v>
@@ -8587,16 +8739,16 @@
     </row>
     <row r="32">
       <c r="A32" s="6" t="s">
-        <v>751</v>
+        <v>769</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>752</v>
+        <v>770</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>753</v>
+        <v>771</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>749</v>
+        <v>767</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>16</v>
@@ -8605,10 +8757,10 @@
         <v>44727.0</v>
       </c>
       <c r="M32" s="6" t="s">
-        <v>677</v>
+        <v>695</v>
       </c>
       <c r="N32" s="6" t="s">
-        <v>750</v>
+        <v>768</v>
       </c>
       <c r="O32" s="9" t="s">
         <v>28</v>
@@ -8616,16 +8768,16 @@
     </row>
     <row r="33">
       <c r="A33" s="6" t="s">
-        <v>754</v>
+        <v>772</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>755</v>
+        <v>773</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>756</v>
+        <v>774</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>749</v>
+        <v>767</v>
       </c>
       <c r="E33" s="6" t="s">
         <v>16</v>
@@ -8634,10 +8786,10 @@
         <v>44727.0</v>
       </c>
       <c r="M33" s="6" t="s">
-        <v>677</v>
+        <v>695</v>
       </c>
       <c r="N33" s="6" t="s">
-        <v>750</v>
+        <v>768</v>
       </c>
       <c r="O33" s="9" t="s">
         <v>28</v>
@@ -8645,16 +8797,16 @@
     </row>
     <row r="34">
       <c r="A34" s="6" t="s">
-        <v>757</v>
+        <v>775</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>758</v>
+        <v>776</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>759</v>
+        <v>777</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>749</v>
+        <v>767</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>16</v>
@@ -8663,10 +8815,10 @@
         <v>44727.0</v>
       </c>
       <c r="M34" s="6" t="s">
-        <v>677</v>
+        <v>695</v>
       </c>
       <c r="N34" s="6" t="s">
-        <v>750</v>
+        <v>768</v>
       </c>
       <c r="O34" s="9" t="s">
         <v>28</v>
@@ -8674,16 +8826,16 @@
     </row>
     <row r="35">
       <c r="A35" s="6" t="s">
-        <v>760</v>
+        <v>778</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>761</v>
+        <v>779</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>762</v>
+        <v>780</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>749</v>
+        <v>767</v>
       </c>
       <c r="E35" s="6" t="s">
         <v>16</v>
@@ -8692,10 +8844,10 @@
         <v>44727.0</v>
       </c>
       <c r="M35" s="6" t="s">
-        <v>677</v>
+        <v>695</v>
       </c>
       <c r="N35" s="6" t="s">
-        <v>750</v>
+        <v>768</v>
       </c>
       <c r="O35" s="9" t="s">
         <v>28</v>
@@ -8703,16 +8855,16 @@
     </row>
     <row r="36">
       <c r="A36" s="6" t="s">
-        <v>763</v>
+        <v>781</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>764</v>
+        <v>782</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>765</v>
+        <v>783</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>766</v>
+        <v>784</v>
       </c>
       <c r="E36" s="6" t="s">
         <v>16</v>
@@ -8721,10 +8873,10 @@
         <v>44727.0</v>
       </c>
       <c r="M36" s="6" t="s">
-        <v>677</v>
+        <v>695</v>
       </c>
       <c r="N36" s="6" t="s">
-        <v>750</v>
+        <v>768</v>
       </c>
       <c r="O36" s="9" t="s">
         <v>28</v>
@@ -8732,37 +8884,37 @@
     </row>
     <row r="38">
       <c r="A38" s="5" t="s">
-        <v>767</v>
+        <v>785</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>767</v>
+        <v>785</v>
       </c>
       <c r="K38" s="8"/>
     </row>
     <row r="39">
       <c r="A39" s="6" t="s">
-        <v>768</v>
+        <v>786</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>769</v>
+        <v>787</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>770</v>
+        <v>788</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>771</v>
+        <v>789</v>
       </c>
       <c r="E39" s="6" t="s">
         <v>16</v>
       </c>
       <c r="I39" s="6" t="s">
-        <v>772</v>
+        <v>790</v>
       </c>
       <c r="K39" s="8">
         <v>44727.0</v>
       </c>
       <c r="M39" s="6" t="s">
-        <v>677</v>
+        <v>695</v>
       </c>
       <c r="N39" s="6" t="s">
         <v>39</v>
@@ -8773,28 +8925,28 @@
     </row>
     <row r="40">
       <c r="A40" s="6" t="s">
-        <v>773</v>
+        <v>791</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>774</v>
+        <v>792</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>775</v>
+        <v>793</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>771</v>
+        <v>789</v>
       </c>
       <c r="E40" s="6" t="s">
         <v>16</v>
       </c>
       <c r="I40" s="6" t="s">
-        <v>776</v>
+        <v>794</v>
       </c>
       <c r="K40" s="8">
         <v>44727.0</v>
       </c>
       <c r="M40" s="6" t="s">
-        <v>677</v>
+        <v>695</v>
       </c>
       <c r="N40" s="6" t="s">
         <v>39</v>
@@ -8805,21 +8957,21 @@
     </row>
     <row r="42">
       <c r="A42" s="5" t="s">
-        <v>777</v>
+        <v>795</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="32" t="s">
-        <v>778</v>
+        <v>796</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>779</v>
+        <v>797</v>
       </c>
       <c r="C43" s="32" t="s">
-        <v>780</v>
+        <v>798</v>
       </c>
       <c r="D43" s="35" t="s">
-        <v>781</v>
+        <v>799</v>
       </c>
       <c r="E43" s="6" t="s">
         <v>16</v>
@@ -8828,7 +8980,7 @@
         <v>44727.0</v>
       </c>
       <c r="M43" s="6" t="s">
-        <v>677</v>
+        <v>695</v>
       </c>
       <c r="N43" s="6" t="s">
         <v>39</v>
@@ -8839,16 +8991,16 @@
     </row>
     <row r="44">
       <c r="A44" s="50" t="s">
-        <v>782</v>
+        <v>800</v>
       </c>
       <c r="B44" s="50" t="s">
-        <v>783</v>
+        <v>801</v>
       </c>
       <c r="C44" s="51" t="s">
-        <v>784</v>
+        <v>802</v>
       </c>
       <c r="D44" s="52" t="s">
-        <v>785</v>
+        <v>803</v>
       </c>
       <c r="E44" s="11" t="s">
         <v>16</v>
@@ -8863,7 +9015,7 @@
       </c>
       <c r="L44" s="11"/>
       <c r="M44" s="6" t="s">
-        <v>677</v>
+        <v>695</v>
       </c>
       <c r="N44" s="11" t="s">
         <v>39</v>
@@ -8889,16 +9041,16 @@
     </row>
     <row r="45">
       <c r="A45" s="50" t="s">
-        <v>786</v>
+        <v>804</v>
       </c>
       <c r="B45" s="50" t="s">
-        <v>787</v>
+        <v>805</v>
       </c>
       <c r="C45" s="51" t="s">
-        <v>788</v>
+        <v>806</v>
       </c>
       <c r="D45" s="55" t="s">
-        <v>789</v>
+        <v>807</v>
       </c>
       <c r="E45" s="11" t="s">
         <v>16</v>
@@ -8913,7 +9065,7 @@
       </c>
       <c r="L45" s="11"/>
       <c r="M45" s="6" t="s">
-        <v>677</v>
+        <v>695</v>
       </c>
       <c r="N45" s="11" t="s">
         <v>39</v>
@@ -8939,16 +9091,16 @@
     </row>
     <row r="46">
       <c r="A46" s="50" t="s">
-        <v>790</v>
+        <v>808</v>
       </c>
       <c r="B46" s="50" t="s">
-        <v>791</v>
+        <v>809</v>
       </c>
       <c r="C46" s="51" t="s">
-        <v>792</v>
+        <v>810</v>
       </c>
       <c r="D46" s="55" t="s">
-        <v>793</v>
+        <v>811</v>
       </c>
       <c r="E46" s="11" t="s">
         <v>16</v>
@@ -8963,7 +9115,7 @@
       </c>
       <c r="L46" s="11"/>
       <c r="M46" s="6" t="s">
-        <v>677</v>
+        <v>695</v>
       </c>
       <c r="N46" s="11" t="s">
         <v>39</v>
@@ -9194,13 +9346,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="G1" s="12" t="s">
         <v>6</v>
@@ -9215,7 +9367,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="15" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="L1" s="16" t="s">
         <v>11</v>
@@ -9232,19 +9384,19 @@
     </row>
     <row r="2">
       <c r="A2" s="6" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>21</v>
@@ -9282,19 +9434,19 @@
     </row>
     <row r="3">
       <c r="A3" s="6" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>21</v>
@@ -9332,19 +9484,19 @@
     </row>
     <row r="4">
       <c r="A4" s="6" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>21</v>
@@ -9382,19 +9534,19 @@
     </row>
     <row r="5">
       <c r="A5" s="6" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>21</v>
@@ -9430,19 +9582,19 @@
     </row>
     <row r="6">
       <c r="A6" s="6" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>21</v>
@@ -9476,19 +9628,19 @@
     </row>
     <row r="7">
       <c r="A7" s="6" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>21</v>
@@ -9522,19 +9674,19 @@
     </row>
     <row r="8">
       <c r="A8" s="6" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>21</v>
@@ -9572,19 +9724,19 @@
     </row>
     <row r="9">
       <c r="A9" s="6" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>21</v>
@@ -9620,22 +9772,22 @@
     </row>
     <row r="10">
       <c r="A10" s="6" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
@@ -9668,22 +9820,22 @@
     </row>
     <row r="11">
       <c r="A11" s="6" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
@@ -9716,22 +9868,22 @@
     </row>
     <row r="12">
       <c r="A12" s="6" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
@@ -9764,19 +9916,19 @@
     </row>
     <row r="13">
       <c r="A13" s="6" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
@@ -9810,19 +9962,19 @@
     </row>
     <row r="14">
       <c r="A14" s="6" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
@@ -9856,19 +10008,19 @@
     </row>
     <row r="15">
       <c r="A15" s="6" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
@@ -9902,22 +10054,22 @@
     </row>
     <row r="16">
       <c r="A16" s="6" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
@@ -9950,22 +10102,22 @@
     </row>
     <row r="17">
       <c r="A17" s="6" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
@@ -9996,12 +10148,102 @@
       <c r="AA17" s="7"/>
       <c r="AB17" s="7"/>
     </row>
+    <row r="18">
+      <c r="A18" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="8">
+        <v>45806.0</v>
+      </c>
+      <c r="L18" s="7"/>
+      <c r="M18" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N18" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="7"/>
+      <c r="S18" s="7"/>
+      <c r="T18" s="7"/>
+      <c r="U18" s="7"/>
+      <c r="V18" s="7"/>
+      <c r="W18" s="7"/>
+      <c r="X18" s="7"/>
+      <c r="Y18" s="7"/>
+      <c r="Z18" s="7"/>
+      <c r="AA18" s="7"/>
+      <c r="AB18" s="7"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="D19" s="7"/>
+      <c r="E19" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="8">
+        <v>45806.0</v>
+      </c>
+      <c r="L19" s="7"/>
+      <c r="M19" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N19" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="7"/>
+      <c r="S19" s="7"/>
+      <c r="T19" s="7"/>
+      <c r="U19" s="7"/>
+      <c r="V19" s="7"/>
+      <c r="W19" s="7"/>
+      <c r="X19" s="7"/>
+      <c r="Y19" s="7"/>
+      <c r="Z19" s="7"/>
+      <c r="AA19" s="7"/>
+      <c r="AB19" s="7"/>
+    </row>
     <row r="20">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D10:D11">
+  <conditionalFormatting sqref="D10:D11 K18:N19">
     <cfRule type="expression" dxfId="3" priority="1">
       <formula>$M10="deprecated"</formula>
     </cfRule>
@@ -10036,7 +10278,7 @@
       <formula>$M4="changed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M4">
+  <conditionalFormatting sqref="M4 K18:N19">
     <cfRule type="expression" dxfId="1" priority="8">
       <formula>$M4="proposed"</formula>
     </cfRule>
@@ -10176,16 +10418,16 @@
     </row>
     <row r="3">
       <c r="A3" s="6" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>25</v>
@@ -10224,16 +10466,16 @@
     </row>
     <row r="4">
       <c r="A4" s="6" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>25</v>
@@ -10272,16 +10514,16 @@
     </row>
     <row r="5">
       <c r="A5" s="6" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>25</v>
@@ -10320,16 +10562,16 @@
     </row>
     <row r="6">
       <c r="A6" s="6" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>25</v>
@@ -10368,16 +10610,16 @@
     </row>
     <row r="7">
       <c r="A7" s="6" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>25</v>
@@ -10386,7 +10628,7 @@
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
       <c r="I7" s="6" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="J7" s="7"/>
       <c r="K7" s="8">
@@ -10418,16 +10660,16 @@
     </row>
     <row r="8">
       <c r="A8" s="6" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>25</v>
@@ -10436,7 +10678,7 @@
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="6" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="J8" s="7"/>
       <c r="K8" s="8">
@@ -10468,16 +10710,16 @@
     </row>
     <row r="9">
       <c r="A9" s="11" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>25</v>
@@ -10486,7 +10728,7 @@
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="I9" s="6" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="J9" s="7"/>
       <c r="K9" s="8">
@@ -10518,16 +10760,16 @@
     </row>
     <row r="10">
       <c r="A10" s="11" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>25</v>
@@ -10536,7 +10778,7 @@
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
       <c r="I10" s="6" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="J10" s="7"/>
       <c r="K10" s="8">
@@ -10568,16 +10810,16 @@
     </row>
     <row r="11">
       <c r="A11" s="11" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>25</v>
@@ -10616,16 +10858,16 @@
     </row>
     <row r="12">
       <c r="A12" s="11" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>25</v>
@@ -10664,16 +10906,16 @@
     </row>
     <row r="13">
       <c r="A13" s="11" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>25</v>
@@ -10712,16 +10954,16 @@
     </row>
     <row r="14">
       <c r="A14" s="11" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>25</v>
@@ -10760,16 +11002,16 @@
     </row>
     <row r="15">
       <c r="A15" s="11" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>25</v>
@@ -10778,7 +11020,7 @@
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
       <c r="I15" s="6" t="s">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="J15" s="7"/>
       <c r="K15" s="8">
@@ -10810,16 +11052,16 @@
     </row>
     <row r="16">
       <c r="A16" s="11" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>25</v>
@@ -10828,7 +11070,7 @@
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
       <c r="I16" s="6" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="J16" s="7"/>
       <c r="K16" s="8">
@@ -10860,16 +11102,16 @@
     </row>
     <row r="17">
       <c r="A17" s="11" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>25</v>
@@ -10878,7 +11120,7 @@
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
       <c r="I17" s="6" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="J17" s="7"/>
       <c r="K17" s="8">
@@ -11003,10 +11245,10 @@
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -11015,23 +11257,23 @@
     </row>
     <row r="3">
       <c r="A3" s="6" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="K3" s="8"/>
     </row>
     <row r="4">
       <c r="A4" s="6" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="6" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -11045,7 +11287,7 @@
         <v>45627.0</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="N4" s="6" t="s">
         <v>39</v>
@@ -11069,17 +11311,17 @@
     </row>
     <row r="5">
       <c r="A5" s="6" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="6" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -11093,7 +11335,7 @@
         <v>45627.0</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="N5" s="6" t="s">
         <v>39</v>
@@ -11117,17 +11359,17 @@
     </row>
     <row r="6">
       <c r="A6" s="6" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>197</v>
+        <v>215</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="6" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -11141,7 +11383,7 @@
         <v>45627.0</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="N6" s="6" t="s">
         <v>39</v>
@@ -11165,17 +11407,17 @@
     </row>
     <row r="7">
       <c r="A7" s="6" t="s">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="6" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -11189,7 +11431,7 @@
         <v>45627.0</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="N7" s="6" t="s">
         <v>39</v>
@@ -11213,17 +11455,17 @@
     </row>
     <row r="8">
       <c r="A8" s="6" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>204</v>
+        <v>222</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="6" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
@@ -11237,7 +11479,7 @@
         <v>45627.0</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="N8" s="6" t="s">
         <v>39</v>
@@ -11261,17 +11503,17 @@
     </row>
     <row r="9">
       <c r="A9" s="6" t="s">
-        <v>205</v>
+        <v>223</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>206</v>
+        <v>224</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>207</v>
+        <v>225</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="6" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
@@ -11285,7 +11527,7 @@
         <v>45627.0</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="N9" s="6" t="s">
         <v>39</v>
@@ -11309,17 +11551,17 @@
     </row>
     <row r="10">
       <c r="A10" s="6" t="s">
-        <v>208</v>
+        <v>226</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>209</v>
+        <v>227</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="6" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
@@ -11333,7 +11575,7 @@
         <v>45627.0</v>
       </c>
       <c r="M10" s="6" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="N10" s="6" t="s">
         <v>39</v>
@@ -11357,17 +11599,17 @@
     </row>
     <row r="11">
       <c r="A11" s="6" t="s">
-        <v>211</v>
+        <v>229</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>212</v>
+        <v>230</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>213</v>
+        <v>231</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="6" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -11381,7 +11623,7 @@
         <v>45627.0</v>
       </c>
       <c r="M11" s="6" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="N11" s="6" t="s">
         <v>39</v>
@@ -11408,19 +11650,19 @@
     </row>
     <row r="13">
       <c r="A13" s="6" t="s">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>215</v>
+        <v>233</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>216</v>
+        <v>234</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>217</v>
+        <v>235</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
@@ -11434,7 +11676,7 @@
         <v>45627.0</v>
       </c>
       <c r="M13" s="6" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="N13" s="6" t="s">
         <v>39</v>
@@ -11456,19 +11698,19 @@
     </row>
     <row r="14">
       <c r="A14" s="6" t="s">
-        <v>218</v>
+        <v>236</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>219</v>
+        <v>237</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>220</v>
+        <v>238</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>221</v>
+        <v>239</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
@@ -11482,7 +11724,7 @@
         <v>45627.0</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="N14" s="6" t="s">
         <v>39</v>
@@ -11504,19 +11746,19 @@
     </row>
     <row r="15">
       <c r="A15" s="6" t="s">
-        <v>222</v>
+        <v>240</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>223</v>
+        <v>241</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>224</v>
+        <v>242</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>221</v>
+        <v>239</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
@@ -11530,7 +11772,7 @@
         <v>45627.0</v>
       </c>
       <c r="M15" s="6" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="N15" s="6" t="s">
         <v>39</v>
@@ -11552,19 +11794,19 @@
     </row>
     <row r="16">
       <c r="A16" s="6" t="s">
-        <v>225</v>
+        <v>243</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>226</v>
+        <v>244</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>227</v>
+        <v>245</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>221</v>
+        <v>239</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
@@ -11578,7 +11820,7 @@
         <v>45627.0</v>
       </c>
       <c r="M16" s="6" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="N16" s="6" t="s">
         <v>39</v>
@@ -11600,19 +11842,19 @@
     </row>
     <row r="17">
       <c r="A17" s="6" t="s">
-        <v>228</v>
+        <v>246</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>229</v>
+        <v>247</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>230</v>
+        <v>248</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>221</v>
+        <v>239</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
@@ -11626,7 +11868,7 @@
         <v>45627.0</v>
       </c>
       <c r="M17" s="6" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="N17" s="6" t="s">
         <v>39</v>
@@ -11648,19 +11890,19 @@
     </row>
     <row r="18">
       <c r="A18" s="6" t="s">
-        <v>231</v>
+        <v>249</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>232</v>
+        <v>250</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>233</v>
+        <v>251</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>221</v>
+        <v>239</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
@@ -11674,7 +11916,7 @@
         <v>45627.0</v>
       </c>
       <c r="M18" s="6" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="N18" s="6" t="s">
         <v>39</v>
@@ -11696,19 +11938,19 @@
     </row>
     <row r="19">
       <c r="A19" s="6" t="s">
-        <v>234</v>
+        <v>252</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>235</v>
+        <v>253</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>221</v>
+        <v>239</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
@@ -11722,7 +11964,7 @@
         <v>45627.0</v>
       </c>
       <c r="M19" s="6" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="N19" s="6" t="s">
         <v>39</v>
@@ -11744,19 +11986,19 @@
     </row>
     <row r="20">
       <c r="A20" s="6" t="s">
-        <v>237</v>
+        <v>255</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>238</v>
+        <v>256</v>
       </c>
       <c r="C20" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="D20" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="D20" s="6" t="s">
-        <v>221</v>
-      </c>
       <c r="E20" s="6" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
@@ -11770,10 +12012,10 @@
         <v>45627.0</v>
       </c>
       <c r="M20" s="6" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="N20" s="6" t="s">
-        <v>240</v>
+        <v>258</v>
       </c>
       <c r="O20" s="7"/>
       <c r="P20" s="7"/>
@@ -11792,19 +12034,19 @@
     </row>
     <row r="21">
       <c r="A21" s="6" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>242</v>
+        <v>260</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>243</v>
+        <v>261</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>221</v>
+        <v>239</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
@@ -11818,10 +12060,10 @@
         <v>45627.0</v>
       </c>
       <c r="M21" s="6" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="N21" s="6" t="s">
-        <v>240</v>
+        <v>258</v>
       </c>
       <c r="O21" s="7"/>
       <c r="P21" s="7"/>
@@ -11840,19 +12082,19 @@
     </row>
     <row r="22">
       <c r="A22" s="6" t="s">
-        <v>244</v>
+        <v>262</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>245</v>
+        <v>263</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>246</v>
+        <v>264</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>247</v>
+        <v>265</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
@@ -11866,10 +12108,10 @@
         <v>45627.0</v>
       </c>
       <c r="M22" s="6" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="N22" s="6" t="s">
-        <v>240</v>
+        <v>258</v>
       </c>
       <c r="O22" s="7"/>
       <c r="P22" s="7"/>
@@ -12003,7 +12245,7 @@
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
-        <v>248</v>
+        <v>266</v>
       </c>
       <c r="B2" s="5"/>
       <c r="K2" s="8"/>
@@ -12024,55 +12266,55 @@
     </row>
     <row r="5">
       <c r="A5" s="11" t="s">
-        <v>249</v>
+        <v>267</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>250</v>
+        <v>268</v>
       </c>
       <c r="K5" s="8"/>
     </row>
     <row r="6">
       <c r="A6" s="11" t="s">
-        <v>251</v>
+        <v>269</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>252</v>
+        <v>270</v>
       </c>
       <c r="K6" s="8"/>
     </row>
     <row r="7">
       <c r="A7" s="11" t="s">
-        <v>253</v>
+        <v>271</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>254</v>
+        <v>272</v>
       </c>
       <c r="K7" s="8"/>
     </row>
     <row r="8">
       <c r="A8" s="11" t="s">
-        <v>255</v>
+        <v>273</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>256</v>
+        <v>274</v>
       </c>
       <c r="K8" s="8"/>
     </row>
     <row r="9">
       <c r="A9" s="11" t="s">
-        <v>257</v>
+        <v>275</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="K9" s="8"/>
     </row>
     <row r="10">
       <c r="A10" s="11" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>260</v>
+        <v>278</v>
       </c>
       <c r="K10" s="8"/>
     </row>
@@ -12081,7 +12323,7 @@
     </row>
     <row r="12">
       <c r="A12" s="22" t="s">
-        <v>261</v>
+        <v>279</v>
       </c>
       <c r="K12" s="8"/>
     </row>
@@ -12091,236 +12333,236 @@
     </row>
     <row r="14">
       <c r="A14" s="23" t="s">
-        <v>262</v>
+        <v>280</v>
       </c>
       <c r="K14" s="8"/>
     </row>
     <row r="15">
       <c r="A15" s="11" t="s">
-        <v>263</v>
+        <v>281</v>
       </c>
       <c r="K15" s="8"/>
     </row>
     <row r="16">
       <c r="A16" s="24" t="s">
-        <v>264</v>
+        <v>282</v>
       </c>
       <c r="K16" s="8"/>
     </row>
     <row r="17">
       <c r="A17" s="11" t="s">
-        <v>265</v>
+        <v>283</v>
       </c>
       <c r="K17" s="8"/>
     </row>
     <row r="18">
       <c r="A18" s="11" t="s">
-        <v>266</v>
+        <v>284</v>
       </c>
       <c r="K18" s="8"/>
     </row>
     <row r="19">
       <c r="A19" s="11" t="s">
-        <v>267</v>
+        <v>285</v>
       </c>
       <c r="K19" s="8"/>
     </row>
     <row r="20">
       <c r="A20" s="24" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="24" t="s">
-        <v>269</v>
+        <v>287</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="24" t="s">
-        <v>270</v>
+        <v>288</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="24" t="s">
-        <v>271</v>
+        <v>289</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="24" t="s">
-        <v>272</v>
+        <v>290</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="24" t="s">
-        <v>273</v>
+        <v>291</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="24" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="24" t="s">
-        <v>275</v>
+        <v>293</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="5" t="s">
-        <v>276</v>
+        <v>294</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="5" t="s">
-        <v>277</v>
+        <v>295</v>
       </c>
       <c r="C30" s="6"/>
     </row>
     <row r="31">
       <c r="A31" s="6" t="s">
-        <v>278</v>
+        <v>296</v>
       </c>
       <c r="C31" s="6"/>
     </row>
     <row r="32">
       <c r="A32" s="6" t="s">
-        <v>279</v>
+        <v>297</v>
       </c>
       <c r="C32" s="6"/>
     </row>
     <row r="33">
       <c r="A33" s="5" t="s">
-        <v>280</v>
+        <v>298</v>
       </c>
       <c r="C33" s="6"/>
     </row>
     <row r="34">
       <c r="A34" s="6" t="s">
-        <v>281</v>
+        <v>299</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>282</v>
+        <v>300</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="6" t="s">
-        <v>283</v>
+        <v>301</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>284</v>
+        <v>302</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="5" t="s">
-        <v>285</v>
+        <v>303</v>
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
     </row>
     <row r="37">
       <c r="A37" s="6" t="s">
-        <v>286</v>
+        <v>304</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>287</v>
+        <v>305</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="6" t="s">
-        <v>288</v>
+        <v>306</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>289</v>
+        <v>307</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="5" t="s">
-        <v>290</v>
+        <v>308</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="6" t="s">
-        <v>291</v>
+        <v>309</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="6" t="s">
-        <v>292</v>
+        <v>310</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="5" t="s">
-        <v>293</v>
+        <v>311</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="6" t="s">
-        <v>294</v>
+        <v>312</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="6" t="s">
-        <v>295</v>
+        <v>313</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="5" t="s">
-        <v>296</v>
+        <v>314</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="6" t="s">
-        <v>297</v>
+        <v>315</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="6" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="5" t="s">
-        <v>299</v>
+        <v>317</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="6" t="s">
-        <v>300</v>
+        <v>318</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="6" t="s">
-        <v>301</v>
+        <v>319</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="5" t="s">
-        <v>302</v>
+        <v>320</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="6" t="s">
-        <v>303</v>
+        <v>321</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="6" t="s">
-        <v>304</v>
+        <v>322</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="5" t="s">
-        <v>305</v>
+        <v>323</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="6" t="s">
-        <v>306</v>
+        <v>324</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="6" t="s">
-        <v>307</v>
+        <v>325</v>
       </c>
     </row>
   </sheetData>
@@ -12426,10 +12668,10 @@
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
-        <v>308</v>
+        <v>326</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>308</v>
+        <v>326</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -12444,24 +12686,24 @@
     </row>
     <row r="4">
       <c r="A4" s="18" t="s">
-        <v>309</v>
+        <v>327</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>309</v>
+        <v>327</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>310</v>
+        <v>328</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="6" t="s">
-        <v>311</v>
+        <v>329</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
       <c r="J4" s="6" t="s">
-        <v>312</v>
+        <v>330</v>
       </c>
       <c r="K4" s="8">
         <v>45421.0</v>
@@ -12495,24 +12737,24 @@
     </row>
     <row r="5">
       <c r="A5" s="18" t="s">
-        <v>313</v>
+        <v>331</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>313</v>
+        <v>331</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>314</v>
+        <v>332</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="6" t="s">
-        <v>311</v>
+        <v>329</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
       <c r="J5" s="6" t="s">
-        <v>312</v>
+        <v>330</v>
       </c>
       <c r="K5" s="8">
         <v>45421.0</v>
@@ -12542,26 +12784,26 @@
     </row>
     <row r="6">
       <c r="A6" s="18" t="s">
-        <v>315</v>
+        <v>333</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>315</v>
+        <v>333</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>316</v>
+        <v>334</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>317</v>
+        <v>335</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>311</v>
+        <v>329</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
       <c r="J6" s="6" t="s">
-        <v>312</v>
+        <v>330</v>
       </c>
       <c r="K6" s="8">
         <v>45421.0</v>
@@ -12595,24 +12837,24 @@
     </row>
     <row r="7">
       <c r="A7" s="18" t="s">
-        <v>318</v>
+        <v>336</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>318</v>
+        <v>336</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>319</v>
+        <v>337</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="6" t="s">
-        <v>311</v>
+        <v>329</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
       <c r="J7" s="6" t="s">
-        <v>312</v>
+        <v>330</v>
       </c>
       <c r="K7" s="8">
         <v>45421.0</v>
@@ -12642,26 +12884,26 @@
     </row>
     <row r="8">
       <c r="A8" s="18" t="s">
-        <v>320</v>
+        <v>338</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>320</v>
+        <v>338</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>321</v>
+        <v>339</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>322</v>
+        <v>340</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>311</v>
+        <v>329</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
       <c r="J8" s="6" t="s">
-        <v>312</v>
+        <v>330</v>
       </c>
       <c r="K8" s="8">
         <v>45421.0</v>
@@ -12695,26 +12937,26 @@
     </row>
     <row r="9">
       <c r="A9" s="18" t="s">
-        <v>323</v>
+        <v>341</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>323</v>
+        <v>341</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>324</v>
+        <v>342</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="6" t="s">
-        <v>311</v>
+        <v>329</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="I9" s="6" t="s">
-        <v>325</v>
+        <v>343</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>312</v>
+        <v>330</v>
       </c>
       <c r="K9" s="8">
         <v>45421.0</v>
@@ -12748,24 +12990,24 @@
     </row>
     <row r="10">
       <c r="A10" s="21" t="s">
-        <v>326</v>
+        <v>344</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>326</v>
+        <v>344</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>327</v>
+        <v>345</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="6" t="s">
-        <v>311</v>
+        <v>329</v>
       </c>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
       <c r="J10" s="21" t="s">
-        <v>328</v>
+        <v>346</v>
       </c>
       <c r="K10" s="8">
         <v>45421.0</v>
@@ -12795,24 +13037,24 @@
     </row>
     <row r="11">
       <c r="A11" s="21" t="s">
-        <v>329</v>
+        <v>347</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>329</v>
+        <v>347</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>330</v>
+        <v>348</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="6" t="s">
-        <v>311</v>
+        <v>329</v>
       </c>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
       <c r="J11" s="11" t="s">
-        <v>331</v>
+        <v>349</v>
       </c>
       <c r="K11" s="8">
         <v>45421.0</v>
@@ -12842,24 +13084,24 @@
     </row>
     <row r="12">
       <c r="A12" s="21" t="s">
-        <v>332</v>
+        <v>350</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>332</v>
+        <v>350</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>333</v>
+        <v>351</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="6" t="s">
-        <v>311</v>
+        <v>329</v>
       </c>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
       <c r="J12" s="11" t="s">
-        <v>331</v>
+        <v>349</v>
       </c>
       <c r="K12" s="8">
         <v>45421.0</v>
@@ -12889,24 +13131,24 @@
     </row>
     <row r="13">
       <c r="A13" s="21" t="s">
-        <v>334</v>
+        <v>352</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>334</v>
+        <v>352</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>335</v>
+        <v>353</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="6" t="s">
-        <v>311</v>
+        <v>329</v>
       </c>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
       <c r="J13" s="11" t="s">
-        <v>331</v>
+        <v>349</v>
       </c>
       <c r="K13" s="8">
         <v>45421.0</v>
@@ -12936,24 +13178,24 @@
     </row>
     <row r="14">
       <c r="A14" s="21" t="s">
-        <v>336</v>
+        <v>354</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>336</v>
+        <v>354</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>337</v>
+        <v>355</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="6" t="s">
-        <v>311</v>
+        <v>329</v>
       </c>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
       <c r="H14" s="11"/>
       <c r="I14" s="11"/>
       <c r="J14" s="11" t="s">
-        <v>331</v>
+        <v>349</v>
       </c>
       <c r="K14" s="8">
         <v>45421.0</v>
@@ -12983,24 +13225,24 @@
     </row>
     <row r="15">
       <c r="A15" s="21" t="s">
-        <v>338</v>
+        <v>356</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>338</v>
+        <v>356</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>339</v>
+        <v>357</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="6" t="s">
-        <v>311</v>
+        <v>329</v>
       </c>
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
       <c r="H15" s="11"/>
       <c r="I15" s="11"/>
       <c r="J15" s="11" t="s">
-        <v>331</v>
+        <v>349</v>
       </c>
       <c r="K15" s="8">
         <v>45421.0</v>
@@ -13030,24 +13272,24 @@
     </row>
     <row r="16">
       <c r="A16" s="21" t="s">
-        <v>340</v>
+        <v>358</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>340</v>
+        <v>358</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>341</v>
+        <v>359</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="6" t="s">
-        <v>311</v>
+        <v>329</v>
       </c>
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
       <c r="H16" s="11"/>
       <c r="I16" s="11"/>
       <c r="J16" s="11" t="s">
-        <v>331</v>
+        <v>349</v>
       </c>
       <c r="K16" s="8">
         <v>45421.0</v>
@@ -13077,24 +13319,24 @@
     </row>
     <row r="17">
       <c r="A17" s="21" t="s">
-        <v>342</v>
+        <v>360</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>342</v>
+        <v>360</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>343</v>
+        <v>361</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="6" t="s">
-        <v>311</v>
+        <v>329</v>
       </c>
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
       <c r="H17" s="11"/>
       <c r="I17" s="11"/>
       <c r="J17" s="11" t="s">
-        <v>331</v>
+        <v>349</v>
       </c>
       <c r="K17" s="8">
         <v>45421.0</v>
@@ -13124,26 +13366,26 @@
     </row>
     <row r="18">
       <c r="A18" s="6" t="s">
-        <v>344</v>
+        <v>362</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>344</v>
+        <v>362</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>345</v>
+        <v>363</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="6" t="s">
-        <v>311</v>
+        <v>329</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
       <c r="I18" s="6" t="s">
-        <v>346</v>
+        <v>364</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>312</v>
+        <v>330</v>
       </c>
       <c r="K18" s="8">
         <v>45421.0</v>
@@ -13173,26 +13415,26 @@
     </row>
     <row r="19">
       <c r="A19" s="6" t="s">
-        <v>347</v>
+        <v>365</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>347</v>
+        <v>365</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>348</v>
+        <v>366</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>349</v>
+        <v>367</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>311</v>
+        <v>329</v>
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
       <c r="J19" s="6" t="s">
-        <v>312</v>
+        <v>330</v>
       </c>
       <c r="K19" s="8">
         <v>45421.0</v>
@@ -13222,26 +13464,26 @@
     </row>
     <row r="20">
       <c r="A20" s="6" t="s">
-        <v>350</v>
+        <v>368</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>350</v>
+        <v>368</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>351</v>
+        <v>369</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>349</v>
+        <v>367</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>311</v>
+        <v>329</v>
       </c>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
       <c r="J20" s="6" t="s">
-        <v>312</v>
+        <v>330</v>
       </c>
       <c r="K20" s="8">
         <v>45421.0</v>
@@ -13271,26 +13513,26 @@
     </row>
     <row r="21">
       <c r="A21" s="6" t="s">
-        <v>352</v>
+        <v>370</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>353</v>
+        <v>371</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>354</v>
+        <v>372</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>349</v>
+        <v>367</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>311</v>
+        <v>329</v>
       </c>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
       <c r="J21" s="6" t="s">
-        <v>312</v>
+        <v>330</v>
       </c>
       <c r="K21" s="8">
         <v>45421.0</v>
@@ -13320,17 +13562,17 @@
     </row>
     <row r="22">
       <c r="A22" s="6" t="s">
-        <v>355</v>
+        <v>373</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>355</v>
+        <v>373</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="6" t="s">
-        <v>311</v>
+        <v>329</v>
       </c>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
@@ -13365,17 +13607,17 @@
     </row>
     <row r="23">
       <c r="A23" s="6" t="s">
-        <v>357</v>
+        <v>375</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>357</v>
+        <v>375</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>358</v>
+        <v>376</v>
       </c>
       <c r="D23" s="7"/>
       <c r="E23" s="6" t="s">
-        <v>311</v>
+        <v>329</v>
       </c>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
@@ -13410,23 +13652,23 @@
     </row>
     <row r="24">
       <c r="A24" s="6" t="s">
-        <v>359</v>
+        <v>377</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>359</v>
+        <v>377</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>360</v>
+        <v>378</v>
       </c>
       <c r="D24" s="7"/>
       <c r="E24" s="6" t="s">
-        <v>311</v>
+        <v>329</v>
       </c>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
       <c r="I24" s="6" t="s">
-        <v>361</v>
+        <v>379</v>
       </c>
       <c r="J24" s="7"/>
       <c r="K24" s="8">
@@ -13533,13 +13775,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="G1" s="12" t="s">
         <v>6</v>
@@ -13554,7 +13796,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="15" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="L1" s="16" t="s">
         <v>11</v>
@@ -13571,22 +13813,22 @@
     </row>
     <row r="2">
       <c r="A2" s="18" t="s">
-        <v>362</v>
+        <v>380</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>363</v>
+        <v>381</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>365</v>
+        <v>383</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>366</v>
+        <v>384</v>
       </c>
       <c r="G2" s="26"/>
       <c r="H2" s="26"/>
@@ -13619,22 +13861,22 @@
     </row>
     <row r="3">
       <c r="A3" s="18" t="s">
-        <v>367</v>
+        <v>385</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>368</v>
+        <v>386</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>369</v>
+        <v>387</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E3" s="25" t="s">
-        <v>317</v>
+        <v>335</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>366</v>
+        <v>384</v>
       </c>
       <c r="G3" s="26"/>
       <c r="H3" s="26"/>
@@ -13667,22 +13909,22 @@
     </row>
     <row r="4">
       <c r="A4" s="18" t="s">
-        <v>370</v>
+        <v>388</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>371</v>
+        <v>389</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>372</v>
+        <v>390</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E4" s="25" t="s">
-        <v>373</v>
+        <v>391</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>366</v>
+        <v>384</v>
       </c>
       <c r="G4" s="26"/>
       <c r="H4" s="26"/>
@@ -13715,22 +13957,22 @@
     </row>
     <row r="5">
       <c r="A5" s="18" t="s">
-        <v>374</v>
+        <v>392</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>375</v>
+        <v>393</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>376</v>
+        <v>394</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>322</v>
+        <v>340</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>366</v>
+        <v>384</v>
       </c>
       <c r="G5" s="26"/>
       <c r="H5" s="26"/>
@@ -13763,22 +14005,22 @@
     </row>
     <row r="6">
       <c r="A6" s="18" t="s">
-        <v>377</v>
+        <v>395</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>378</v>
+        <v>396</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>379</v>
+        <v>397</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>380</v>
+        <v>398</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>366</v>
+        <v>384</v>
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
@@ -13811,22 +14053,22 @@
     </row>
     <row r="7">
       <c r="A7" s="18" t="s">
-        <v>381</v>
+        <v>399</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>382</v>
+        <v>400</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>383</v>
+        <v>401</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E7" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="F7" s="6" t="s">
         <v>384</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>366</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
@@ -13859,22 +14101,22 @@
     </row>
     <row r="8">
       <c r="A8" s="21" t="s">
-        <v>385</v>
+        <v>403</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>386</v>
+        <v>404</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>387</v>
+        <v>405</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>388</v>
+        <v>406</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>366</v>
+        <v>384</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
@@ -13907,22 +14149,22 @@
     </row>
     <row r="9">
       <c r="A9" s="21" t="s">
-        <v>389</v>
+        <v>407</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>390</v>
+        <v>408</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>391</v>
+        <v>409</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>392</v>
+        <v>410</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>366</v>
+        <v>384</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
@@ -13955,22 +14197,22 @@
     </row>
     <row r="10">
       <c r="A10" s="21" t="s">
-        <v>393</v>
+        <v>411</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>394</v>
+        <v>412</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>395</v>
+        <v>413</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>396</v>
+        <v>414</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>366</v>
+        <v>384</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
@@ -14003,22 +14245,22 @@
     </row>
     <row r="11">
       <c r="A11" s="21" t="s">
-        <v>397</v>
+        <v>415</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>398</v>
+        <v>416</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>399</v>
+        <v>417</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>400</v>
+        <v>418</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>366</v>
+        <v>384</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
@@ -14051,22 +14293,22 @@
     </row>
     <row r="12">
       <c r="A12" s="21" t="s">
-        <v>401</v>
+        <v>419</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>402</v>
+        <v>420</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>403</v>
+        <v>421</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>404</v>
+        <v>422</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>366</v>
+        <v>384</v>
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
@@ -14099,22 +14341,22 @@
     </row>
     <row r="13">
       <c r="A13" s="21" t="s">
-        <v>405</v>
+        <v>423</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>406</v>
+        <v>424</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>407</v>
+        <v>425</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>408</v>
+        <v>426</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>366</v>
+        <v>384</v>
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
@@ -14147,22 +14389,22 @@
     </row>
     <row r="14">
       <c r="A14" s="21" t="s">
-        <v>409</v>
+        <v>427</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>410</v>
+        <v>428</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>411</v>
+        <v>429</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>412</v>
+        <v>430</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>366</v>
+        <v>384</v>
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
@@ -14195,22 +14437,22 @@
     </row>
     <row r="15">
       <c r="A15" s="21" t="s">
-        <v>413</v>
+        <v>431</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>414</v>
+        <v>432</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>415</v>
+        <v>433</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>416</v>
+        <v>434</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>366</v>
+        <v>384</v>
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
@@ -14243,22 +14485,22 @@
     </row>
     <row r="16">
       <c r="A16" s="6" t="s">
-        <v>417</v>
+        <v>435</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>418</v>
+        <v>436</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>419</v>
+        <v>437</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>349</v>
+        <v>367</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>366</v>
+        <v>384</v>
       </c>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
@@ -14291,22 +14533,22 @@
     </row>
     <row r="17">
       <c r="A17" s="6" t="s">
-        <v>420</v>
+        <v>438</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>421</v>
+        <v>439</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>422</v>
+        <v>440</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>423</v>
+        <v>441</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>366</v>
+        <v>384</v>
       </c>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
@@ -14339,22 +14581,22 @@
     </row>
     <row r="18">
       <c r="A18" s="6" t="s">
-        <v>424</v>
+        <v>442</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>425</v>
+        <v>443</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>426</v>
+        <v>444</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>366</v>
+        <v>384</v>
       </c>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
@@ -14387,22 +14629,22 @@
     </row>
     <row r="19">
       <c r="A19" s="6" t="s">
-        <v>428</v>
+        <v>446</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>430</v>
+        <v>448</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>431</v>
+        <v>449</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>366</v>
+        <v>384</v>
       </c>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
@@ -14550,10 +14792,10 @@
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
-        <v>308</v>
+        <v>326</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>308</v>
+        <v>326</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -14568,17 +14810,17 @@
     </row>
     <row r="4">
       <c r="A4" s="18" t="s">
-        <v>432</v>
+        <v>450</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>432</v>
+        <v>450</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>433</v>
+        <v>451</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="6" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -14615,17 +14857,17 @@
     </row>
     <row r="5">
       <c r="A5" s="18" t="s">
-        <v>434</v>
+        <v>452</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>434</v>
+        <v>452</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>435</v>
+        <v>453</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="6" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -14660,17 +14902,17 @@
     </row>
     <row r="6">
       <c r="A6" s="18" t="s">
-        <v>436</v>
+        <v>454</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>436</v>
+        <v>454</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>437</v>
+        <v>455</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="6" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -14707,17 +14949,17 @@
     </row>
     <row r="7">
       <c r="A7" s="18" t="s">
-        <v>438</v>
+        <v>456</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>438</v>
+        <v>456</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>439</v>
+        <v>457</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="6" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -14752,17 +14994,17 @@
     </row>
     <row r="8">
       <c r="A8" s="18" t="s">
-        <v>440</v>
+        <v>458</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>440</v>
+        <v>458</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="6" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
@@ -14797,19 +15039,19 @@
     </row>
     <row r="9">
       <c r="A9" s="18" t="s">
-        <v>442</v>
+        <v>460</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>443</v>
+        <v>461</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>444</v>
+        <v>462</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>445</v>
+        <v>463</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
@@ -14844,19 +15086,19 @@
     </row>
     <row r="10">
       <c r="A10" s="21" t="s">
-        <v>446</v>
+        <v>464</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>447</v>
+        <v>465</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>448</v>
+        <v>466</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>445</v>
+        <v>463</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
@@ -14921,7 +15163,7 @@
     </row>
     <row r="12">
       <c r="A12" s="21" t="s">
-        <v>449</v>
+        <v>467</v>
       </c>
       <c r="B12" s="21"/>
       <c r="C12" s="11"/>
@@ -14953,7 +15195,7 @@
     </row>
     <row r="13">
       <c r="A13" s="21" t="s">
-        <v>450</v>
+        <v>468</v>
       </c>
       <c r="B13" s="21"/>
       <c r="C13" s="11"/>
@@ -15205,10 +15447,10 @@
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
-        <v>308</v>
+        <v>326</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>308</v>
+        <v>326</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -15217,13 +15459,13 @@
     </row>
     <row r="3">
       <c r="A3" s="6" t="s">
-        <v>451</v>
+        <v>469</v>
       </c>
       <c r="K3" s="8"/>
     </row>
     <row r="4">
       <c r="A4" s="18" t="s">
-        <v>452</v>
+        <v>470</v>
       </c>
       <c r="B4" s="18"/>
       <c r="C4" s="18"/>
@@ -15234,7 +15476,7 @@
     </row>
     <row r="5">
       <c r="A5" s="18" t="s">
-        <v>453</v>
+        <v>471</v>
       </c>
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
@@ -15243,16 +15485,16 @@
     </row>
     <row r="6">
       <c r="A6" s="18" t="s">
-        <v>454</v>
+        <v>472</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>455</v>
+        <v>473</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>456</v>
+        <v>474</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>451</v>
+        <v>469</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>25</v>
@@ -15290,16 +15532,16 @@
     </row>
     <row r="7">
       <c r="A7" s="18" t="s">
-        <v>457</v>
+        <v>475</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>458</v>
+        <v>476</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>460</v>
+        <v>478</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>25</v>
@@ -15339,17 +15581,17 @@
     </row>
     <row r="8">
       <c r="A8" s="18" t="s">
-        <v>461</v>
+        <v>479</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>462</v>
+        <v>480</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>463</v>
+        <v>481</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="6" t="s">
-        <v>464</v>
+        <v>482</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
@@ -15384,17 +15626,17 @@
     </row>
     <row r="9">
       <c r="A9" s="18" t="s">
-        <v>465</v>
+        <v>483</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>466</v>
+        <v>484</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>467</v>
+        <v>485</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="6" t="s">
-        <v>464</v>
+        <v>482</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
@@ -15429,16 +15671,16 @@
     </row>
     <row r="10">
       <c r="A10" s="21" t="s">
-        <v>468</v>
+        <v>486</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>469</v>
+        <v>487</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>470</v>
+        <v>488</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>460</v>
+        <v>478</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>25</v>
@@ -15476,17 +15718,17 @@
     </row>
     <row r="11">
       <c r="A11" s="21" t="s">
-        <v>471</v>
+        <v>489</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>471</v>
+        <v>489</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>472</v>
+        <v>490</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="6" t="s">
-        <v>473</v>
+        <v>491</v>
       </c>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
@@ -15521,17 +15763,17 @@
     </row>
     <row r="12">
       <c r="A12" s="21" t="s">
-        <v>474</v>
+        <v>492</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>475</v>
+        <v>493</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>476</v>
+        <v>494</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="6" t="s">
-        <v>473</v>
+        <v>491</v>
       </c>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
@@ -15566,16 +15808,16 @@
     </row>
     <row r="13">
       <c r="A13" s="6" t="s">
-        <v>477</v>
+        <v>495</v>
       </c>
       <c r="B13" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>497</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>478</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>479</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>460</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>25</v>

--- a/code/vocab_csv/tech.xlsx
+++ b/code/vocab_csv/tech.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1874" uniqueCount="812">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1873" uniqueCount="811">
   <si>
     <t>Term</t>
   </si>
@@ -183,7 +183,7 @@
     <t>Describes the 'intended' use of the technology</t>
   </si>
   <si>
-    <t xml:space="preserve">Intended use can be used to describe how the developer or provider of technology intends it to be used e.g. use a database to store data, and to describe the plan or 'intent' to use the technology by a user or operator e.g. use a database to store and analyse data. Intended Use can involve any concept e.g. DPV's purpose, processing, tech/org measures, and can be low-level purely technical uses such as store data or high-level goals such as legal compliance. Intended Use only describes the intent or ex-ante intention, and may be different from how the technology is being actually used - which is indicated by using isImplementedUsingTechnology in a process or other relevant context. </t>
+    <t>Intended use can be used to describe how the developer or provider of technology intends it to be used e.g. use a database to store data, and to describe the plan or 'intent' to use the technology by a user or operator e.g. use a database to store and analyse data. Intended Use can involve any concept e.g. DPV's purpose, processing, tech/org measures, and can be low-level purely technical uses such as store data or high-level goals such as legal compliance. Intended Use only describes the intent or ex-ante intention, and may be different from how the technology is being actually used - which is indicated by using isImplementedUsingTechnology in a process or other relevant context.</t>
   </si>
   <si>
     <t>https://w3id.org/dpv/meetings/meeting-2024-05-22</t>
@@ -198,7 +198,7 @@
     <t>dpv:LicenseAgreement</t>
   </si>
   <si>
-    <t>This concept is derived from license agreements and contracts which are legal bases, and therefore can also be used as a legla basis</t>
+    <t>This concept is derived from license agreements and contracts which are legal bases, and therefore can also be used as a legal basis</t>
   </si>
   <si>
     <t>LifecycleStage</t>
@@ -225,7 +225,7 @@
     <t>Operating Factor</t>
   </si>
   <si>
-    <t xml:space="preserve">A 'factor' affecting the operation and outcomes of the technology </t>
+    <t>A 'factor' affecting the operation and outcomes of the technology</t>
   </si>
   <si>
     <t>Examples of operating factor could be equipment characteristics, lighting conditions for camera operations, connectivity for communications. This helps indicate whether specific factors are ideal i.e. they will give the best performance, or are problematic i.e. they will cause issues</t>
@@ -666,7 +666,7 @@
     <t>Provided as SubscriptionProvision</t>
   </si>
   <si>
-    <t xml:space="preserve">Technology that is provided or used as a periodic subscription </t>
+    <t>Technology that is provided or used as a periodic subscription</t>
   </si>
   <si>
     <t>ProvidedAsProduct</t>
@@ -1554,9 +1554,6 @@
     <t>Indicates whether the technology has been provided</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>How technology communicates</t>
   </si>
   <si>
@@ -1587,7 +1584,7 @@
     <t>WiFi</t>
   </si>
   <si>
-    <t>Technology utilising wifi wireless networking</t>
+    <t>Technology utilising Wi-Fi wireless networking</t>
   </si>
   <si>
     <t>Bluetooth</t>
@@ -1656,7 +1653,7 @@
     <t>Local Storage</t>
   </si>
   <si>
-    <t xml:space="preserve">Storage that is local (e.g. on device) </t>
+    <t>Storage that is local (e.g. on device)</t>
   </si>
   <si>
     <t>Cookie</t>
@@ -2169,7 +2166,7 @@
     <t>Data Organising Technology</t>
   </si>
   <si>
-    <t>Technology realted to organising data</t>
+    <t>Technology related to organising data</t>
   </si>
   <si>
     <t>DataRemovalTechnology</t>
@@ -2196,7 +2193,7 @@
     <t>Data Transfer Technology</t>
   </si>
   <si>
-    <t>Technology related to transfering data</t>
+    <t>Technology related to transferring data</t>
   </si>
   <si>
     <t>DataTransformationTechnology</t>
@@ -2487,7 +2484,7 @@
     <t>Identity Wallet</t>
   </si>
   <si>
-    <t xml:space="preserve">product and service that allows the user to store identity data, credentials and attributes linked to her/his identity, to provide them to relying parties on request and to use them for authentication, online and offline, and to create qualified electronic signatures and seals </t>
+    <t>Product and service that allows the user to store identity data, credentials and attributes linked to her/his identity, to provide them to relying parties on request and to use them for authentication, online and offline, and to create qualified electronic signatures and seals</t>
   </si>
   <si>
     <t>tech:IdentityManagementTechnology,tech:DataStorageTechnology</t>
@@ -2661,7 +2658,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2825,6 +2822,9 @@
     </xf>
     <xf borderId="7" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4184,9 +4184,7 @@
       <c r="C6" s="6"/>
     </row>
     <row r="9">
-      <c r="A9" s="6" t="s">
-        <v>509</v>
-      </c>
+      <c r="A9" s="6"/>
       <c r="B9" s="6"/>
     </row>
     <row r="15">
@@ -4319,10 +4317,10 @@
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -4337,13 +4335,13 @@
     </row>
     <row r="4">
       <c r="A4" s="6" t="s">
+        <v>510</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>510</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>511</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>511</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>512</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="30" t="s">
@@ -4383,16 +4381,16 @@
     </row>
     <row r="5">
       <c r="A5" s="6" t="s">
+        <v>512</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>513</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="C5" s="6" t="s">
         <v>514</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="D5" s="6" t="s">
         <v>515</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>516</v>
       </c>
       <c r="E5" s="30" t="s">
         <v>81</v>
@@ -4431,16 +4429,16 @@
     </row>
     <row r="6">
       <c r="A6" s="6" t="s">
+        <v>516</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>516</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>517</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>517</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>518</v>
-      </c>
       <c r="D6" s="6" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E6" s="30" t="s">
         <v>81</v>
@@ -4479,16 +4477,16 @@
     </row>
     <row r="7">
       <c r="A7" s="6" t="s">
+        <v>518</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>518</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>519</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>519</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>520</v>
-      </c>
       <c r="D7" s="6" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E7" s="30" t="s">
         <v>81</v>
@@ -4527,16 +4525,16 @@
     </row>
     <row r="8">
       <c r="A8" s="6" t="s">
+        <v>520</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>520</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>521</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>521</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>522</v>
-      </c>
       <c r="D8" s="6" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E8" s="30" t="s">
         <v>81</v>
@@ -4575,16 +4573,16 @@
     </row>
     <row r="9">
       <c r="A9" s="6" t="s">
+        <v>522</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>523</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="C9" s="6" t="s">
         <v>524</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>525</v>
-      </c>
       <c r="D9" s="6" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E9" s="30" t="s">
         <v>81</v>
@@ -4623,13 +4621,13 @@
     </row>
     <row r="10">
       <c r="A10" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>526</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>526</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>527</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="30" t="s">
@@ -4767,10 +4765,10 @@
     </row>
     <row r="2">
       <c r="A2" s="31" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C2" s="32"/>
       <c r="D2" s="33"/>
@@ -4789,13 +4787,13 @@
     </row>
     <row r="4">
       <c r="A4" s="31" t="s">
+        <v>528</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>528</v>
+      </c>
+      <c r="C4" s="18" t="s">
         <v>529</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>529</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>530</v>
       </c>
       <c r="D4" s="34"/>
       <c r="E4" s="6" t="s">
@@ -4845,16 +4843,16 @@
     </row>
     <row r="6">
       <c r="A6" s="31" t="s">
+        <v>530</v>
+      </c>
+      <c r="B6" s="18" t="s">
         <v>531</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="C6" s="18" t="s">
         <v>532</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="D6" s="34" t="s">
         <v>533</v>
-      </c>
-      <c r="D6" s="34" t="s">
-        <v>534</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>16</v>
@@ -4893,16 +4891,16 @@
     </row>
     <row r="7">
       <c r="A7" s="32" t="s">
+        <v>534</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>534</v>
+      </c>
+      <c r="C7" s="32" t="s">
         <v>535</v>
       </c>
-      <c r="B7" s="32" t="s">
-        <v>535</v>
-      </c>
-      <c r="C7" s="32" t="s">
+      <c r="D7" s="35" t="s">
         <v>536</v>
-      </c>
-      <c r="D7" s="35" t="s">
-        <v>537</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>16</v>
@@ -4943,16 +4941,16 @@
     </row>
     <row r="8">
       <c r="A8" s="18" t="s">
+        <v>537</v>
+      </c>
+      <c r="B8" s="18" t="s">
         <v>538</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="C8" s="18" t="s">
         <v>539</v>
       </c>
-      <c r="C8" s="18" t="s">
-        <v>540</v>
-      </c>
       <c r="D8" s="35" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>16</v>
@@ -4991,16 +4989,16 @@
     </row>
     <row r="9">
       <c r="A9" s="18" t="s">
+        <v>540</v>
+      </c>
+      <c r="B9" s="18" t="s">
         <v>541</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="C9" s="18" t="s">
         <v>542</v>
       </c>
-      <c r="C9" s="18" t="s">
-        <v>543</v>
-      </c>
       <c r="D9" s="35" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>16</v>
@@ -5039,16 +5037,16 @@
     </row>
     <row r="10">
       <c r="A10" s="32" t="s">
+        <v>543</v>
+      </c>
+      <c r="B10" s="32" t="s">
+        <v>543</v>
+      </c>
+      <c r="C10" s="32" t="s">
         <v>544</v>
       </c>
-      <c r="B10" s="32" t="s">
-        <v>544</v>
-      </c>
-      <c r="C10" s="32" t="s">
+      <c r="D10" s="35" t="s">
         <v>545</v>
-      </c>
-      <c r="D10" s="35" t="s">
-        <v>546</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>16</v>
@@ -5089,16 +5087,16 @@
     </row>
     <row r="12">
       <c r="A12" s="31" t="s">
+        <v>546</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>546</v>
+      </c>
+      <c r="C12" s="18" t="s">
         <v>547</v>
       </c>
-      <c r="B12" s="18" t="s">
-        <v>547</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>548</v>
-      </c>
       <c r="D12" s="35" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>16</v>
@@ -5137,16 +5135,16 @@
     </row>
     <row r="13">
       <c r="A13" s="32" t="s">
+        <v>548</v>
+      </c>
+      <c r="B13" s="18" t="s">
         <v>549</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="C13" s="32" t="s">
         <v>550</v>
       </c>
-      <c r="C13" s="32" t="s">
+      <c r="D13" s="35" t="s">
         <v>551</v>
-      </c>
-      <c r="D13" s="35" t="s">
-        <v>552</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>16</v>
@@ -5187,16 +5185,16 @@
     </row>
     <row r="14">
       <c r="A14" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>553</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="C14" s="6" t="s">
         <v>554</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>555</v>
-      </c>
       <c r="D14" s="6" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>16</v>
@@ -5235,16 +5233,16 @@
     </row>
     <row r="16">
       <c r="A16" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>556</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="C16" s="6" t="s">
         <v>557</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>558</v>
-      </c>
       <c r="D16" s="6" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>16</v>
@@ -5283,16 +5281,16 @@
     </row>
     <row r="17">
       <c r="A17" s="6" t="s">
+        <v>558</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>559</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="C17" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="D17" s="6" t="s">
         <v>561</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>562</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>16</v>
@@ -5331,16 +5329,16 @@
     </row>
     <row r="18">
       <c r="A18" s="6" t="s">
+        <v>562</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>562</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>563</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>563</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>564</v>
-      </c>
       <c r="D18" s="6" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>16</v>
@@ -5379,16 +5377,16 @@
     </row>
     <row r="19">
       <c r="A19" s="6" t="s">
+        <v>564</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>564</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>565</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>565</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>566</v>
-      </c>
       <c r="D19" s="6" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>16</v>
@@ -5427,16 +5425,16 @@
     </row>
     <row r="20">
       <c r="A20" s="6" t="s">
+        <v>566</v>
+      </c>
+      <c r="B20" s="6" t="s">
         <v>567</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="C20" s="6" t="s">
         <v>568</v>
       </c>
-      <c r="C20" s="6" t="s">
-        <v>569</v>
-      </c>
       <c r="D20" s="6" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>16</v>
@@ -5475,13 +5473,13 @@
     </row>
     <row r="22">
       <c r="A22" s="5" t="s">
+        <v>569</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>569</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>570</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>570</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>571</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="6" t="s">
@@ -5524,16 +5522,16 @@
     </row>
     <row r="24">
       <c r="A24" s="5" t="s">
+        <v>571</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>571</v>
+      </c>
+      <c r="C24" s="6" t="s">
         <v>572</v>
       </c>
-      <c r="B24" s="6" t="s">
-        <v>572</v>
-      </c>
-      <c r="C24" s="6" t="s">
+      <c r="D24" s="6" t="s">
         <v>573</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>574</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>16</v>
@@ -5572,16 +5570,16 @@
     </row>
     <row r="25">
       <c r="A25" s="6" t="s">
+        <v>574</v>
+      </c>
+      <c r="B25" s="6" t="s">
         <v>575</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="C25" s="6" t="s">
         <v>576</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="D25" s="6" t="s">
         <v>577</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>578</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>16</v>
@@ -5620,16 +5618,16 @@
     </row>
     <row r="26">
       <c r="A26" s="6" t="s">
+        <v>578</v>
+      </c>
+      <c r="B26" s="6" t="s">
         <v>579</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="C26" s="6" t="s">
         <v>580</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="D26" s="6" t="s">
         <v>581</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>582</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>16</v>
@@ -5668,16 +5666,16 @@
     </row>
     <row r="27">
       <c r="A27" s="6" t="s">
+        <v>582</v>
+      </c>
+      <c r="B27" s="6" t="s">
         <v>583</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="C27" s="6" t="s">
         <v>584</v>
       </c>
-      <c r="C27" s="6" t="s">
-        <v>585</v>
-      </c>
       <c r="D27" s="6" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>16</v>
@@ -5716,16 +5714,16 @@
     </row>
     <row r="28">
       <c r="A28" s="6" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>16</v>
@@ -5764,16 +5762,16 @@
     </row>
     <row r="29">
       <c r="A29" s="6" t="s">
+        <v>586</v>
+      </c>
+      <c r="B29" s="6" t="s">
         <v>587</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="C29" s="6" t="s">
         <v>588</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="D29" s="6" t="s">
         <v>589</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>590</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>16</v>
@@ -5812,16 +5810,16 @@
     </row>
     <row r="30">
       <c r="A30" s="6" t="s">
+        <v>590</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>590</v>
+      </c>
+      <c r="C30" s="6" t="s">
         <v>591</v>
       </c>
-      <c r="B30" s="6" t="s">
-        <v>591</v>
-      </c>
-      <c r="C30" s="6" t="s">
+      <c r="D30" s="6" t="s">
         <v>592</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>593</v>
       </c>
       <c r="E30" s="6" t="s">
         <v>16</v>
@@ -5860,16 +5858,16 @@
     </row>
     <row r="31">
       <c r="A31" s="5" t="s">
+        <v>593</v>
+      </c>
+      <c r="B31" s="6" t="s">
         <v>594</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="C31" s="6" t="s">
         <v>595</v>
       </c>
-      <c r="C31" s="6" t="s">
-        <v>596</v>
-      </c>
       <c r="D31" s="6" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>16</v>
@@ -5910,16 +5908,16 @@
     </row>
     <row r="32">
       <c r="A32" s="5" t="s">
+        <v>596</v>
+      </c>
+      <c r="B32" s="6" t="s">
         <v>597</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="C32" s="6" t="s">
         <v>598</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="D32" s="6" t="s">
         <v>599</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>600</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>16</v>
@@ -5960,16 +5958,16 @@
     </row>
     <row r="33">
       <c r="A33" s="6" t="s">
+        <v>600</v>
+      </c>
+      <c r="B33" s="6" t="s">
         <v>601</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="C33" s="6" t="s">
         <v>602</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="D33" s="6" t="s">
         <v>603</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>604</v>
       </c>
       <c r="E33" s="6" t="s">
         <v>16</v>
@@ -6010,13 +6008,13 @@
     </row>
     <row r="34">
       <c r="A34" s="6" t="s">
+        <v>604</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>604</v>
+      </c>
+      <c r="C34" s="6" t="s">
         <v>605</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>605</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>606</v>
       </c>
       <c r="D34" s="7"/>
       <c r="E34" s="6" t="s">
@@ -6056,13 +6054,13 @@
     </row>
     <row r="35">
       <c r="A35" s="6" t="s">
+        <v>606</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>606</v>
+      </c>
+      <c r="C35" s="6" t="s">
         <v>607</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>607</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>608</v>
       </c>
       <c r="D35" s="7"/>
       <c r="E35" s="6" t="s">
@@ -6072,7 +6070,7 @@
       <c r="G35" s="7"/>
       <c r="H35" s="7"/>
       <c r="I35" s="6" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="J35" s="7"/>
       <c r="K35" s="19">
@@ -6104,13 +6102,13 @@
     </row>
     <row r="36">
       <c r="A36" s="6" t="s">
+        <v>609</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>609</v>
+      </c>
+      <c r="C36" s="6" t="s">
         <v>610</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>610</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>611</v>
       </c>
       <c r="D36" s="7"/>
       <c r="E36" s="6" t="s">
@@ -6150,13 +6148,13 @@
     </row>
     <row r="37">
       <c r="A37" s="6" t="s">
+        <v>611</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>611</v>
+      </c>
+      <c r="C37" s="6" t="s">
         <v>612</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>612</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>613</v>
       </c>
       <c r="D37" s="7"/>
       <c r="E37" s="6" t="s">
@@ -6196,13 +6194,13 @@
     </row>
     <row r="38">
       <c r="A38" s="6" t="s">
+        <v>613</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>613</v>
+      </c>
+      <c r="C38" s="6" t="s">
         <v>614</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>614</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>615</v>
       </c>
       <c r="D38" s="7"/>
       <c r="E38" s="6" t="s">
@@ -6242,13 +6240,13 @@
     </row>
     <row r="39">
       <c r="A39" s="6" t="s">
+        <v>615</v>
+      </c>
+      <c r="B39" s="6" t="s">
         <v>616</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="C39" s="6" t="s">
         <v>617</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>618</v>
       </c>
       <c r="D39" s="7"/>
       <c r="E39" s="6" t="s">
@@ -6288,13 +6286,13 @@
     </row>
     <row r="40">
       <c r="A40" s="6" t="s">
+        <v>618</v>
+      </c>
+      <c r="B40" s="6" t="s">
         <v>619</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="C40" s="6" t="s">
         <v>620</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>621</v>
       </c>
       <c r="D40" s="7"/>
       <c r="E40" s="6" t="s">
@@ -6334,16 +6332,16 @@
     </row>
     <row r="41">
       <c r="A41" s="6" t="s">
+        <v>621</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>621</v>
+      </c>
+      <c r="C41" s="6" t="s">
         <v>622</v>
       </c>
-      <c r="B41" s="6" t="s">
-        <v>622</v>
-      </c>
-      <c r="C41" s="6" t="s">
+      <c r="D41" s="6" t="s">
         <v>623</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>624</v>
       </c>
       <c r="E41" s="6" t="s">
         <v>16</v>
@@ -6382,13 +6380,13 @@
     </row>
     <row r="42">
       <c r="A42" s="6" t="s">
+        <v>624</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>624</v>
+      </c>
+      <c r="C42" s="6" t="s">
         <v>625</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>625</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>626</v>
       </c>
       <c r="D42" s="7"/>
       <c r="E42" s="6" t="s">
@@ -6428,16 +6426,16 @@
     </row>
     <row r="43">
       <c r="A43" s="6" t="s">
+        <v>626</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>626</v>
+      </c>
+      <c r="C43" s="6" t="s">
         <v>627</v>
       </c>
-      <c r="B43" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>628</v>
-      </c>
       <c r="D43" s="6" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E43" s="6" t="s">
         <v>16</v>
@@ -6476,16 +6474,16 @@
     </row>
     <row r="44">
       <c r="A44" s="6" t="s">
+        <v>628</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>628</v>
+      </c>
+      <c r="C44" s="6" t="s">
         <v>629</v>
       </c>
-      <c r="B44" s="6" t="s">
-        <v>629</v>
-      </c>
-      <c r="C44" s="6" t="s">
+      <c r="D44" s="6" t="s">
         <v>630</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>631</v>
       </c>
       <c r="E44" s="6" t="s">
         <v>16</v>
@@ -6524,16 +6522,16 @@
     </row>
     <row r="45">
       <c r="A45" s="6" t="s">
+        <v>631</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>631</v>
+      </c>
+      <c r="C45" s="6" t="s">
         <v>632</v>
       </c>
-      <c r="B45" s="6" t="s">
-        <v>632</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>633</v>
-      </c>
       <c r="D45" s="6" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E45" s="6" t="s">
         <v>16</v>
@@ -6572,16 +6570,16 @@
     </row>
     <row r="46">
       <c r="A46" s="6" t="s">
+        <v>633</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>633</v>
+      </c>
+      <c r="C46" s="6" t="s">
         <v>634</v>
       </c>
-      <c r="B46" s="6" t="s">
-        <v>634</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>635</v>
-      </c>
       <c r="D46" s="6" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E46" s="6" t="s">
         <v>16</v>
@@ -6738,19 +6736,19 @@
     </row>
     <row r="2">
       <c r="A2" s="18" t="s">
+        <v>635</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>636</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="C2" s="18" t="s">
         <v>637</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>638</v>
       </c>
       <c r="D2" s="34" t="s">
         <v>16</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
@@ -6786,19 +6784,19 @@
     </row>
     <row r="3">
       <c r="A3" s="18" t="s">
+        <v>639</v>
+      </c>
+      <c r="B3" s="18" t="s">
         <v>640</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="C3" s="18" t="s">
         <v>641</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="D3" s="6" t="s">
         <v>642</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="E3" s="6" t="s">
         <v>643</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>644</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
@@ -6834,19 +6832,19 @@
     </row>
     <row r="4">
       <c r="A4" s="18" t="s">
+        <v>644</v>
+      </c>
+      <c r="B4" s="18" t="s">
         <v>645</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="C4" s="18" t="s">
         <v>646</v>
       </c>
-      <c r="C4" s="18" t="s">
-        <v>647</v>
-      </c>
       <c r="D4" s="34" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -6882,19 +6880,19 @@
     </row>
     <row r="5">
       <c r="A5" s="18" t="s">
+        <v>647</v>
+      </c>
+      <c r="B5" s="18" t="s">
         <v>648</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="C5" s="18" t="s">
         <v>649</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>650</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -6930,19 +6928,19 @@
     </row>
     <row r="6">
       <c r="A6" s="18" t="s">
+        <v>650</v>
+      </c>
+      <c r="B6" s="18" t="s">
         <v>651</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="C6" s="18" t="s">
         <v>652</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>653</v>
       </c>
       <c r="D6" s="34" t="s">
         <v>16</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -6978,22 +6976,22 @@
     </row>
     <row r="7">
       <c r="A7" s="18" t="s">
+        <v>654</v>
+      </c>
+      <c r="B7" s="18" t="s">
         <v>655</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="C7" s="18" t="s">
         <v>656</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>657</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
@@ -7028,19 +7026,19 @@
     </row>
     <row r="8">
       <c r="A8" s="18" t="s">
+        <v>658</v>
+      </c>
+      <c r="B8" s="18" t="s">
         <v>659</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="C8" s="18" t="s">
         <v>660</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>661</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
@@ -7076,19 +7074,19 @@
     </row>
     <row r="9">
       <c r="A9" s="18" t="s">
+        <v>661</v>
+      </c>
+      <c r="B9" s="18" t="s">
         <v>662</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="C9" s="18" t="s">
         <v>663</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>664</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
@@ -7124,19 +7122,19 @@
     </row>
     <row r="10">
       <c r="A10" s="18" t="s">
+        <v>664</v>
+      </c>
+      <c r="B10" s="18" t="s">
         <v>665</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="C10" s="18" t="s">
         <v>666</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>667</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
@@ -7172,19 +7170,19 @@
     </row>
     <row r="11">
       <c r="A11" s="6" t="s">
+        <v>667</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>668</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="C11" s="6" t="s">
         <v>669</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>670</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="K11" s="19">
         <v>45627.0</v>
@@ -7199,19 +7197,19 @@
     </row>
     <row r="12">
       <c r="A12" s="18" t="s">
+        <v>671</v>
+      </c>
+      <c r="B12" s="18" t="s">
         <v>672</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="C12" s="18" t="s">
         <v>673</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>674</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
@@ -7247,19 +7245,19 @@
     </row>
     <row r="13">
       <c r="A13" s="6" t="s">
+        <v>675</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>676</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="C13" s="6" t="s">
         <v>677</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>678</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
@@ -7295,19 +7293,19 @@
     </row>
     <row r="14">
       <c r="A14" s="6" t="s">
+        <v>679</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>680</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="C14" s="6" t="s">
         <v>681</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>682</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
@@ -7481,27 +7479,27 @@
     </row>
     <row r="2">
       <c r="A2" s="6" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B2" s="5"/>
       <c r="J2" s="10" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="6" t="s">
+        <v>685</v>
+      </c>
+      <c r="J3" s="10" t="s">
         <v>686</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>687</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="6" t="s">
+        <v>687</v>
+      </c>
+      <c r="J4" s="10" t="s">
         <v>688</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>689</v>
       </c>
     </row>
     <row r="6">
@@ -7996,26 +7994,26 @@
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
     </row>
     <row r="3">
       <c r="A3" s="6" t="s">
+        <v>690</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>691</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="C3" s="6" t="s">
         <v>692</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="D3" s="6" t="s">
         <v>693</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>694</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>16</v>
@@ -8025,7 +8023,7 @@
       </c>
       <c r="L3" s="8"/>
       <c r="M3" s="6" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N3" s="6" t="s">
         <v>39</v>
@@ -8036,16 +8034,16 @@
     </row>
     <row r="4">
       <c r="A4" s="6" t="s">
+        <v>695</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>696</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="C4" s="6" t="s">
         <v>697</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>698</v>
-      </c>
       <c r="D4" s="6" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>16</v>
@@ -8055,7 +8053,7 @@
       </c>
       <c r="L4" s="8"/>
       <c r="M4" s="6" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N4" s="6" t="s">
         <v>39</v>
@@ -8066,16 +8064,16 @@
     </row>
     <row r="5">
       <c r="A5" s="6" t="s">
+        <v>698</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>699</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="C5" s="6" t="s">
         <v>700</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>701</v>
-      </c>
       <c r="D5" s="6" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>16</v>
@@ -8085,7 +8083,7 @@
       </c>
       <c r="L5" s="8"/>
       <c r="M5" s="6" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N5" s="6" t="s">
         <v>39</v>
@@ -8096,16 +8094,16 @@
     </row>
     <row r="6">
       <c r="A6" s="6" t="s">
+        <v>701</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>702</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="C6" s="6" t="s">
         <v>703</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>704</v>
-      </c>
       <c r="D6" s="6" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>16</v>
@@ -8115,7 +8113,7 @@
       </c>
       <c r="L6" s="8"/>
       <c r="M6" s="6" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N6" s="6" t="s">
         <v>39</v>
@@ -8126,16 +8124,16 @@
     </row>
     <row r="7">
       <c r="A7" s="6" t="s">
+        <v>704</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>705</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="C7" s="6" t="s">
         <v>706</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>707</v>
-      </c>
       <c r="D7" s="6" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>16</v>
@@ -8145,7 +8143,7 @@
       </c>
       <c r="L7" s="8"/>
       <c r="M7" s="6" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N7" s="6" t="s">
         <v>39</v>
@@ -8156,16 +8154,16 @@
     </row>
     <row r="8">
       <c r="A8" s="6" t="s">
+        <v>707</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>708</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="C8" s="6" t="s">
         <v>709</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>710</v>
-      </c>
       <c r="D8" s="6" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>16</v>
@@ -8175,7 +8173,7 @@
       </c>
       <c r="L8" s="8"/>
       <c r="M8" s="6" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N8" s="6" t="s">
         <v>39</v>
@@ -8186,16 +8184,16 @@
     </row>
     <row r="9">
       <c r="A9" s="6" t="s">
+        <v>710</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>711</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="C9" s="6" t="s">
         <v>712</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>713</v>
-      </c>
       <c r="D9" s="6" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>16</v>
@@ -8205,7 +8203,7 @@
       </c>
       <c r="L9" s="8"/>
       <c r="M9" s="6" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N9" s="6" t="s">
         <v>39</v>
@@ -8216,16 +8214,16 @@
     </row>
     <row r="10">
       <c r="A10" s="6" t="s">
+        <v>713</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>714</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="C10" s="6" t="s">
         <v>715</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>716</v>
-      </c>
       <c r="D10" s="6" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>16</v>
@@ -8235,7 +8233,7 @@
       </c>
       <c r="L10" s="8"/>
       <c r="M10" s="6" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N10" s="6" t="s">
         <v>39</v>
@@ -8246,16 +8244,16 @@
     </row>
     <row r="11">
       <c r="A11" s="6" t="s">
+        <v>716</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>717</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="C11" s="6" t="s">
         <v>718</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>719</v>
-      </c>
       <c r="D11" s="6" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>16</v>
@@ -8265,7 +8263,7 @@
       </c>
       <c r="L11" s="8"/>
       <c r="M11" s="6" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N11" s="6" t="s">
         <v>39</v>
@@ -8276,16 +8274,16 @@
     </row>
     <row r="12">
       <c r="A12" s="6" t="s">
+        <v>719</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>720</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="C12" s="6" t="s">
         <v>721</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="D12" s="6" t="s">
         <v>722</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>723</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>16</v>
@@ -8295,7 +8293,7 @@
       </c>
       <c r="L12" s="8"/>
       <c r="M12" s="6" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N12" s="6" t="s">
         <v>39</v>
@@ -8306,16 +8304,16 @@
     </row>
     <row r="13">
       <c r="A13" s="6" t="s">
+        <v>723</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>724</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="C13" s="6" t="s">
         <v>725</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="D13" s="6" t="s">
         <v>726</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>727</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>16</v>
@@ -8324,7 +8322,7 @@
         <v>44727.0</v>
       </c>
       <c r="M13" s="6" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N13" s="6" t="s">
         <v>39</v>
@@ -8335,16 +8333,16 @@
     </row>
     <row r="14">
       <c r="A14" s="24" t="s">
+        <v>727</v>
+      </c>
+      <c r="B14" s="24" t="s">
         <v>728</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="C14" s="48" t="s">
         <v>729</v>
       </c>
-      <c r="C14" s="48" t="s">
-        <v>730</v>
-      </c>
       <c r="D14" s="49" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>16</v>
@@ -8354,12 +8352,12 @@
       <c r="H14" s="11"/>
       <c r="I14" s="11"/>
       <c r="J14" s="24" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="K14" s="11"/>
       <c r="L14" s="11"/>
       <c r="M14" s="6" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N14" s="11"/>
       <c r="O14" s="11"/>
@@ -8382,18 +8380,18 @@
     </row>
     <row r="16">
       <c r="A16" s="5" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="6" t="s">
+        <v>732</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>733</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="C17" s="6" t="s">
         <v>734</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>735</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>16</v>
@@ -8402,7 +8400,7 @@
         <v>44727.0</v>
       </c>
       <c r="M17" s="6" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N17" s="6" t="s">
         <v>39</v>
@@ -8413,13 +8411,13 @@
     </row>
     <row r="18">
       <c r="A18" s="6" t="s">
+        <v>735</v>
+      </c>
+      <c r="B18" s="6" t="s">
         <v>736</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="C18" s="6" t="s">
         <v>737</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>738</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>16</v>
@@ -8429,7 +8427,7 @@
       </c>
       <c r="L18" s="8"/>
       <c r="M18" s="6" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N18" s="6" t="s">
         <v>39</v>
@@ -8440,13 +8438,13 @@
     </row>
     <row r="19">
       <c r="A19" s="6" t="s">
+        <v>738</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>739</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="C19" s="6" t="s">
         <v>740</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>741</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>16</v>
@@ -8456,7 +8454,7 @@
       </c>
       <c r="L19" s="8"/>
       <c r="M19" s="6" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N19" s="6" t="s">
         <v>39</v>
@@ -8467,13 +8465,13 @@
     </row>
     <row r="20">
       <c r="A20" s="6" t="s">
+        <v>741</v>
+      </c>
+      <c r="B20" s="6" t="s">
         <v>742</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="C20" s="6" t="s">
         <v>743</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>744</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>16</v>
@@ -8483,7 +8481,7 @@
       </c>
       <c r="L20" s="8"/>
       <c r="M20" s="6" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N20" s="6" t="s">
         <v>39</v>
@@ -8494,13 +8492,13 @@
     </row>
     <row r="21">
       <c r="A21" s="6" t="s">
+        <v>744</v>
+      </c>
+      <c r="B21" s="6" t="s">
         <v>745</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="C21" s="6" t="s">
         <v>746</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>747</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>16</v>
@@ -8510,7 +8508,7 @@
       </c>
       <c r="L21" s="8"/>
       <c r="M21" s="6" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N21" s="6" t="s">
         <v>39</v>
@@ -8521,13 +8519,13 @@
     </row>
     <row r="22">
       <c r="A22" s="6" t="s">
+        <v>747</v>
+      </c>
+      <c r="B22" s="6" t="s">
         <v>748</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="C22" s="6" t="s">
         <v>749</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>750</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>16</v>
@@ -8537,7 +8535,7 @@
       </c>
       <c r="L22" s="8"/>
       <c r="M22" s="6" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N22" s="6" t="s">
         <v>39</v>
@@ -8548,10 +8546,10 @@
     </row>
     <row r="24">
       <c r="A24" s="5" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="30"/>
@@ -8560,16 +8558,16 @@
     </row>
     <row r="25">
       <c r="A25" s="6" t="s">
+        <v>751</v>
+      </c>
+      <c r="B25" s="6" t="s">
         <v>752</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="C25" s="6" t="s">
         <v>753</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="D25" s="30" t="s">
         <v>754</v>
-      </c>
-      <c r="D25" s="30" t="s">
-        <v>755</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>16</v>
@@ -8578,7 +8576,7 @@
         <v>44727.0</v>
       </c>
       <c r="M25" s="6" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N25" s="6" t="s">
         <v>39</v>
@@ -8589,16 +8587,16 @@
     </row>
     <row r="26">
       <c r="A26" s="6" t="s">
+        <v>755</v>
+      </c>
+      <c r="B26" s="6" t="s">
         <v>756</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="C26" s="6" t="s">
         <v>757</v>
       </c>
-      <c r="C26" s="6" t="s">
-        <v>758</v>
-      </c>
       <c r="D26" s="30" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>16</v>
@@ -8607,7 +8605,7 @@
         <v>44727.0</v>
       </c>
       <c r="M26" s="6" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N26" s="6" t="s">
         <v>39</v>
@@ -8618,16 +8616,16 @@
     </row>
     <row r="27">
       <c r="A27" s="6" t="s">
+        <v>758</v>
+      </c>
+      <c r="B27" s="6" t="s">
         <v>759</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="C27" s="6" t="s">
         <v>760</v>
       </c>
-      <c r="C27" s="6" t="s">
-        <v>761</v>
-      </c>
       <c r="D27" s="30" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>16</v>
@@ -8636,7 +8634,7 @@
         <v>44727.0</v>
       </c>
       <c r="M27" s="6" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N27" s="6" t="s">
         <v>39</v>
@@ -8647,16 +8645,16 @@
     </row>
     <row r="28">
       <c r="A28" s="6" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D28" s="30" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>16</v>
@@ -8665,7 +8663,7 @@
         <v>44727.0</v>
       </c>
       <c r="M28" s="6" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N28" s="6" t="s">
         <v>39</v>
@@ -8676,10 +8674,10 @@
     </row>
     <row r="30">
       <c r="A30" s="5" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
@@ -8710,16 +8708,16 @@
     </row>
     <row r="31">
       <c r="A31" s="6" t="s">
+        <v>763</v>
+      </c>
+      <c r="B31" s="6" t="s">
         <v>764</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="C31" s="6" t="s">
         <v>765</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="D31" s="6" t="s">
         <v>766</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>767</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>16</v>
@@ -8728,10 +8726,10 @@
         <v>44727.0</v>
       </c>
       <c r="M31" s="6" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N31" s="6" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="O31" s="9" t="s">
         <v>28</v>
@@ -8739,16 +8737,16 @@
     </row>
     <row r="32">
       <c r="A32" s="6" t="s">
+        <v>768</v>
+      </c>
+      <c r="B32" s="6" t="s">
         <v>769</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="C32" s="6" t="s">
         <v>770</v>
       </c>
-      <c r="C32" s="6" t="s">
-        <v>771</v>
-      </c>
       <c r="D32" s="6" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>16</v>
@@ -8757,10 +8755,10 @@
         <v>44727.0</v>
       </c>
       <c r="M32" s="6" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N32" s="6" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="O32" s="9" t="s">
         <v>28</v>
@@ -8768,16 +8766,16 @@
     </row>
     <row r="33">
       <c r="A33" s="6" t="s">
+        <v>771</v>
+      </c>
+      <c r="B33" s="6" t="s">
         <v>772</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="C33" s="6" t="s">
         <v>773</v>
       </c>
-      <c r="C33" s="6" t="s">
-        <v>774</v>
-      </c>
       <c r="D33" s="6" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="E33" s="6" t="s">
         <v>16</v>
@@ -8786,10 +8784,10 @@
         <v>44727.0</v>
       </c>
       <c r="M33" s="6" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N33" s="6" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="O33" s="9" t="s">
         <v>28</v>
@@ -8797,16 +8795,16 @@
     </row>
     <row r="34">
       <c r="A34" s="6" t="s">
+        <v>774</v>
+      </c>
+      <c r="B34" s="6" t="s">
         <v>775</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="C34" s="6" t="s">
         <v>776</v>
       </c>
-      <c r="C34" s="6" t="s">
-        <v>777</v>
-      </c>
       <c r="D34" s="6" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>16</v>
@@ -8815,10 +8813,10 @@
         <v>44727.0</v>
       </c>
       <c r="M34" s="6" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N34" s="6" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="O34" s="9" t="s">
         <v>28</v>
@@ -8826,16 +8824,16 @@
     </row>
     <row r="35">
       <c r="A35" s="6" t="s">
+        <v>777</v>
+      </c>
+      <c r="B35" s="6" t="s">
         <v>778</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="C35" s="6" t="s">
         <v>779</v>
       </c>
-      <c r="C35" s="6" t="s">
-        <v>780</v>
-      </c>
       <c r="D35" s="6" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="E35" s="6" t="s">
         <v>16</v>
@@ -8844,10 +8842,10 @@
         <v>44727.0</v>
       </c>
       <c r="M35" s="6" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N35" s="6" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="O35" s="9" t="s">
         <v>28</v>
@@ -8855,16 +8853,16 @@
     </row>
     <row r="36">
       <c r="A36" s="6" t="s">
+        <v>780</v>
+      </c>
+      <c r="B36" s="6" t="s">
         <v>781</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="C36" s="6" t="s">
         <v>782</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="D36" s="6" t="s">
         <v>783</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>784</v>
       </c>
       <c r="E36" s="6" t="s">
         <v>16</v>
@@ -8873,10 +8871,10 @@
         <v>44727.0</v>
       </c>
       <c r="M36" s="6" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N36" s="6" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="O36" s="9" t="s">
         <v>28</v>
@@ -8884,37 +8882,37 @@
     </row>
     <row r="38">
       <c r="A38" s="5" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="K38" s="8"/>
     </row>
     <row r="39">
       <c r="A39" s="6" t="s">
+        <v>785</v>
+      </c>
+      <c r="B39" s="6" t="s">
         <v>786</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="C39" s="6" t="s">
         <v>787</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="D39" s="6" t="s">
         <v>788</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>789</v>
       </c>
       <c r="E39" s="6" t="s">
         <v>16</v>
       </c>
       <c r="I39" s="6" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="K39" s="8">
         <v>44727.0</v>
       </c>
       <c r="M39" s="6" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N39" s="6" t="s">
         <v>39</v>
@@ -8925,28 +8923,28 @@
     </row>
     <row r="40">
       <c r="A40" s="6" t="s">
+        <v>790</v>
+      </c>
+      <c r="B40" s="6" t="s">
         <v>791</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="C40" s="6" t="s">
         <v>792</v>
       </c>
-      <c r="C40" s="6" t="s">
-        <v>793</v>
-      </c>
       <c r="D40" s="6" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="E40" s="6" t="s">
         <v>16</v>
       </c>
       <c r="I40" s="6" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="K40" s="8">
         <v>44727.0</v>
       </c>
       <c r="M40" s="6" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N40" s="6" t="s">
         <v>39</v>
@@ -8957,21 +8955,21 @@
     </row>
     <row r="42">
       <c r="A42" s="5" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="32" t="s">
+        <v>795</v>
+      </c>
+      <c r="B43" s="18" t="s">
         <v>796</v>
       </c>
-      <c r="B43" s="18" t="s">
+      <c r="C43" s="32" t="s">
         <v>797</v>
       </c>
-      <c r="C43" s="32" t="s">
+      <c r="D43" s="35" t="s">
         <v>798</v>
-      </c>
-      <c r="D43" s="35" t="s">
-        <v>799</v>
       </c>
       <c r="E43" s="6" t="s">
         <v>16</v>
@@ -8980,7 +8978,7 @@
         <v>44727.0</v>
       </c>
       <c r="M43" s="6" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N43" s="6" t="s">
         <v>39</v>
@@ -8991,16 +8989,16 @@
     </row>
     <row r="44">
       <c r="A44" s="50" t="s">
+        <v>799</v>
+      </c>
+      <c r="B44" s="50" t="s">
         <v>800</v>
       </c>
-      <c r="B44" s="50" t="s">
+      <c r="C44" s="51" t="s">
         <v>801</v>
       </c>
-      <c r="C44" s="51" t="s">
+      <c r="D44" s="52" t="s">
         <v>802</v>
-      </c>
-      <c r="D44" s="52" t="s">
-        <v>803</v>
       </c>
       <c r="E44" s="11" t="s">
         <v>16</v>
@@ -9015,7 +9013,7 @@
       </c>
       <c r="L44" s="11"/>
       <c r="M44" s="6" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N44" s="11" t="s">
         <v>39</v>
@@ -9041,16 +9039,16 @@
     </row>
     <row r="45">
       <c r="A45" s="50" t="s">
+        <v>803</v>
+      </c>
+      <c r="B45" s="50" t="s">
         <v>804</v>
       </c>
-      <c r="B45" s="50" t="s">
+      <c r="C45" s="51" t="s">
         <v>805</v>
       </c>
-      <c r="C45" s="51" t="s">
+      <c r="D45" s="55" t="s">
         <v>806</v>
-      </c>
-      <c r="D45" s="55" t="s">
-        <v>807</v>
       </c>
       <c r="E45" s="11" t="s">
         <v>16</v>
@@ -9065,7 +9063,7 @@
       </c>
       <c r="L45" s="11"/>
       <c r="M45" s="6" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N45" s="11" t="s">
         <v>39</v>
@@ -9091,16 +9089,16 @@
     </row>
     <row r="46">
       <c r="A46" s="50" t="s">
+        <v>807</v>
+      </c>
+      <c r="B46" s="50" t="s">
         <v>808</v>
       </c>
-      <c r="B46" s="50" t="s">
+      <c r="C46" s="56" t="s">
         <v>809</v>
       </c>
-      <c r="C46" s="51" t="s">
+      <c r="D46" s="55" t="s">
         <v>810</v>
-      </c>
-      <c r="D46" s="55" t="s">
-        <v>811</v>
       </c>
       <c r="E46" s="11" t="s">
         <v>16</v>
@@ -9115,7 +9113,7 @@
       </c>
       <c r="L46" s="11"/>
       <c r="M46" s="6" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N46" s="11" t="s">
         <v>39</v>

--- a/code/vocab_csv/tech.xlsx
+++ b/code/vocab_csv/tech.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1849" uniqueCount="796">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1873" uniqueCount="811">
   <si>
     <t>Term</t>
   </si>
@@ -183,7 +183,7 @@
     <t>Describes the 'intended' use of the technology</t>
   </si>
   <si>
-    <t xml:space="preserve">Intended use can be used to describe how the developer or provider of technology intends it to be used e.g. use a database to store data, and to describe the plan or 'intent' to use the technology by a user or operator e.g. use a database to store and analyse data. Intended Use can involve any concept e.g. DPV's purpose, processing, tech/org measures, and can be low-level purely technical uses such as store data or high-level goals such as legal compliance. Intended Use only describes the intent or ex-ante intention, and may be different from how the technology is being actually used - which is indicated by using isImplementedUsingTechnology in a process or other relevant context. </t>
+    <t>Intended use can be used to describe how the developer or provider of technology intends it to be used e.g. use a database to store data, and to describe the plan or 'intent' to use the technology by a user or operator e.g. use a database to store and analyse data. Intended Use can involve any concept e.g. DPV's purpose, processing, tech/org measures, and can be low-level purely technical uses such as store data or high-level goals such as legal compliance. Intended Use only describes the intent or ex-ante intention, and may be different from how the technology is being actually used - which is indicated by using isImplementedUsingTechnology in a process or other relevant context.</t>
   </si>
   <si>
     <t>https://w3id.org/dpv/meetings/meeting-2024-05-22</t>
@@ -198,7 +198,7 @@
     <t>dpv:LicenseAgreement</t>
   </si>
   <si>
-    <t>This concept is derived from license agreements and contracts which are legal bases, and therefore can also be used as a legla basis</t>
+    <t>This concept is derived from license agreements and contracts which are legal bases, and therefore can also be used as a legal basis</t>
   </si>
   <si>
     <t>LifecycleStage</t>
@@ -213,10 +213,40 @@
     <t>InputOutput</t>
   </si>
   <si>
-    <t>Input-Output</t>
-  </si>
-  <si>
-    <t>A broad abstract concept referring to the inputs and outputs associated with a technology</t>
+    <t>Input/Output</t>
+  </si>
+  <si>
+    <t>Forms of inputs and outputs associated with a technology</t>
+  </si>
+  <si>
+    <t>OperatingFactor</t>
+  </si>
+  <si>
+    <t>Operating Factor</t>
+  </si>
+  <si>
+    <t>A 'factor' affecting the operation and outcomes of the technology</t>
+  </si>
+  <si>
+    <t>Examples of operating factor could be equipment characteristics, lighting conditions for camera operations, connectivity for communications. This helps indicate whether specific factors are ideal i.e. they will give the best performance, or are problematic i.e. they will cause issues</t>
+  </si>
+  <si>
+    <t>Model Cards by Mitchell et al. (2019)</t>
+  </si>
+  <si>
+    <t>Harshvardhan J. Pandit, Delaram Golpayegani, Georg P. Krog, Paul Ryan, Julian Flake</t>
+  </si>
+  <si>
+    <t>OperatingEnvironment</t>
+  </si>
+  <si>
+    <t>Operating Environment</t>
+  </si>
+  <si>
+    <t>The environment within which the technology operates</t>
+  </si>
+  <si>
+    <t>Environment here is a broad term used to refer to the immediate surroundings and parts of it that form the context of where the technology operates, for example a room or in open air where specific machines are set up. This helps describe the expectations and set up of systems and, to specify and compare them against ideal conditions or environments</t>
   </si>
   <si>
     <t>domain</t>
@@ -435,10 +465,28 @@
     <t>tech:hasOutput</t>
   </si>
   <si>
-    <t>Input/Output</t>
-  </si>
-  <si>
-    <t>Forms of inputs and outputs associated with a technology</t>
+    <t>hasOperatingFactor</t>
+  </si>
+  <si>
+    <t>has operating factor</t>
+  </si>
+  <si>
+    <t>Indicates the operating factor for the technology</t>
+  </si>
+  <si>
+    <t>tech:OperatingFactor</t>
+  </si>
+  <si>
+    <t>hasOperatingEnvironment</t>
+  </si>
+  <si>
+    <t>has operating environment</t>
+  </si>
+  <si>
+    <t>Indicates the operating environment for the technology</t>
+  </si>
+  <si>
+    <t>tech:OperatingEnvironment</t>
   </si>
   <si>
     <t>InputData</t>
@@ -618,7 +666,7 @@
     <t>Provided as SubscriptionProvision</t>
   </si>
   <si>
-    <t xml:space="preserve">Technology that is provided or used as a periodic subscription </t>
+    <t>Technology that is provided or used as a periodic subscription</t>
   </si>
   <si>
     <t>ProvidedAsProduct</t>
@@ -1506,9 +1554,6 @@
     <t>Indicates whether the technology has been provided</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>How technology communicates</t>
   </si>
   <si>
@@ -1539,7 +1584,7 @@
     <t>WiFi</t>
   </si>
   <si>
-    <t>Technology utilising wifi wireless networking</t>
+    <t>Technology utilising Wi-Fi wireless networking</t>
   </si>
   <si>
     <t>Bluetooth</t>
@@ -1608,7 +1653,7 @@
     <t>Local Storage</t>
   </si>
   <si>
-    <t xml:space="preserve">Storage that is local (e.g. on device) </t>
+    <t>Storage that is local (e.g. on device)</t>
   </si>
   <si>
     <t>Cookie</t>
@@ -2121,7 +2166,7 @@
     <t>Data Organising Technology</t>
   </si>
   <si>
-    <t>Technology realted to organising data</t>
+    <t>Technology related to organising data</t>
   </si>
   <si>
     <t>DataRemovalTechnology</t>
@@ -2148,7 +2193,7 @@
     <t>Data Transfer Technology</t>
   </si>
   <si>
-    <t>Technology related to transfering data</t>
+    <t>Technology related to transferring data</t>
   </si>
   <si>
     <t>DataTransformationTechnology</t>
@@ -2439,7 +2484,7 @@
     <t>Identity Wallet</t>
   </si>
   <si>
-    <t xml:space="preserve">product and service that allows the user to store identity data, credentials and attributes linked to her/his identity, to provide them to relying parties on request and to use them for authentication, online and offline, and to create qualified electronic signatures and seals </t>
+    <t>Product and service that allows the user to store identity data, credentials and attributes linked to her/his identity, to provide them to relying parties on request and to use them for authentication, online and offline, and to create qualified electronic signatures and seals</t>
   </si>
   <si>
     <t>tech:IdentityManagementTechnology,tech:DataStorageTechnology</t>
@@ -2613,7 +2658,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2777,6 +2822,9 @@
     </xf>
     <xf borderId="7" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3709,26 +3757,22 @@
       <c r="C16" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D16" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>25</v>
-      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
       <c r="K16" s="8">
-        <v>45627.0</v>
+        <v>45643.0</v>
       </c>
       <c r="L16" s="7"/>
       <c r="M16" s="6" t="s">
         <v>26</v>
       </c>
       <c r="N16" s="6" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="O16" s="7"/>
       <c r="P16" s="7"/>
@@ -3748,10 +3792,108 @@
       <c r="AD16" s="7"/>
     </row>
     <row r="17">
-      <c r="K17" s="8"/>
+      <c r="A17" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="K17" s="8">
+        <v>45806.0</v>
+      </c>
+      <c r="L17" s="7"/>
+      <c r="M17" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N17" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="7"/>
+      <c r="T17" s="7"/>
+      <c r="U17" s="7"/>
+      <c r="V17" s="7"/>
+      <c r="W17" s="7"/>
+      <c r="X17" s="7"/>
+      <c r="Y17" s="7"/>
+      <c r="Z17" s="7"/>
+      <c r="AA17" s="7"/>
+      <c r="AB17" s="7"/>
+      <c r="AC17" s="7"/>
+      <c r="AD17" s="7"/>
     </row>
     <row r="18">
-      <c r="K18" s="8"/>
+      <c r="A18" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="K18" s="8">
+        <v>45806.0</v>
+      </c>
+      <c r="L18" s="7"/>
+      <c r="M18" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N18" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="7"/>
+      <c r="S18" s="7"/>
+      <c r="T18" s="7"/>
+      <c r="U18" s="7"/>
+      <c r="V18" s="7"/>
+      <c r="W18" s="7"/>
+      <c r="X18" s="7"/>
+      <c r="Y18" s="7"/>
+      <c r="Z18" s="7"/>
+      <c r="AA18" s="7"/>
+      <c r="AB18" s="7"/>
+      <c r="AC18" s="7"/>
+      <c r="AD18" s="7"/>
     </row>
     <row r="19">
       <c r="K19" s="8"/>
@@ -3860,13 +4002,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="G1" s="12" t="s">
         <v>6</v>
@@ -3881,7 +4023,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="15" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="L1" s="16" t="s">
         <v>11</v>
@@ -3898,22 +4040,22 @@
     </row>
     <row r="2">
       <c r="A2" s="6" t="s">
-        <v>482</v>
+        <v>498</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>483</v>
+        <v>499</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>484</v>
+        <v>500</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>485</v>
+        <v>501</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>486</v>
+        <v>502</v>
       </c>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
@@ -3948,22 +4090,22 @@
     </row>
     <row r="3">
       <c r="A3" s="6" t="s">
-        <v>487</v>
+        <v>503</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>488</v>
+        <v>504</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>489</v>
+        <v>505</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>466</v>
+        <v>482</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>486</v>
+        <v>502</v>
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
@@ -3994,22 +4136,22 @@
     </row>
     <row r="4">
       <c r="A4" s="6" t="s">
-        <v>490</v>
+        <v>506</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>491</v>
+        <v>507</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>492</v>
+        <v>508</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>475</v>
+        <v>491</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>486</v>
+        <v>502</v>
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
@@ -4042,9 +4184,7 @@
       <c r="C6" s="6"/>
     </row>
     <row r="9">
-      <c r="A9" s="6" t="s">
-        <v>493</v>
-      </c>
+      <c r="A9" s="6"/>
       <c r="B9" s="6"/>
     </row>
     <row r="15">
@@ -4177,10 +4317,10 @@
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
-        <v>494</v>
+        <v>509</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>494</v>
+        <v>509</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -4195,17 +4335,17 @@
     </row>
     <row r="4">
       <c r="A4" s="6" t="s">
-        <v>495</v>
+        <v>510</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>495</v>
+        <v>510</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>496</v>
+        <v>511</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="30" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -4241,19 +4381,19 @@
     </row>
     <row r="5">
       <c r="A5" s="6" t="s">
-        <v>497</v>
+        <v>512</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>498</v>
+        <v>513</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>499</v>
+        <v>514</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>500</v>
+        <v>515</v>
       </c>
       <c r="E5" s="30" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -4289,19 +4429,19 @@
     </row>
     <row r="6">
       <c r="A6" s="6" t="s">
-        <v>501</v>
+        <v>516</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>501</v>
+        <v>516</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>502</v>
+        <v>517</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>500</v>
+        <v>515</v>
       </c>
       <c r="E6" s="30" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -4337,19 +4477,19 @@
     </row>
     <row r="7">
       <c r="A7" s="6" t="s">
-        <v>503</v>
+        <v>518</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>503</v>
+        <v>518</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>504</v>
+        <v>519</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>500</v>
+        <v>515</v>
       </c>
       <c r="E7" s="30" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -4385,19 +4525,19 @@
     </row>
     <row r="8">
       <c r="A8" s="6" t="s">
-        <v>505</v>
+        <v>520</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>505</v>
+        <v>520</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>506</v>
+        <v>521</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>500</v>
+        <v>515</v>
       </c>
       <c r="E8" s="30" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
@@ -4433,19 +4573,19 @@
     </row>
     <row r="9">
       <c r="A9" s="6" t="s">
-        <v>507</v>
+        <v>522</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>508</v>
+        <v>523</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>509</v>
+        <v>524</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>500</v>
+        <v>515</v>
       </c>
       <c r="E9" s="30" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
@@ -4481,17 +4621,17 @@
     </row>
     <row r="10">
       <c r="A10" s="6" t="s">
-        <v>510</v>
+        <v>525</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>510</v>
+        <v>525</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>511</v>
+        <v>526</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="30" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
@@ -4625,10 +4765,10 @@
     </row>
     <row r="2">
       <c r="A2" s="31" t="s">
-        <v>512</v>
+        <v>527</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>512</v>
+        <v>527</v>
       </c>
       <c r="C2" s="32"/>
       <c r="D2" s="33"/>
@@ -4647,13 +4787,13 @@
     </row>
     <row r="4">
       <c r="A4" s="31" t="s">
-        <v>513</v>
+        <v>528</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>513</v>
+        <v>528</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>514</v>
+        <v>529</v>
       </c>
       <c r="D4" s="34"/>
       <c r="E4" s="6" t="s">
@@ -4703,16 +4843,16 @@
     </row>
     <row r="6">
       <c r="A6" s="31" t="s">
-        <v>515</v>
+        <v>530</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>516</v>
+        <v>531</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>517</v>
+        <v>532</v>
       </c>
       <c r="D6" s="34" t="s">
-        <v>518</v>
+        <v>533</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>16</v>
@@ -4751,16 +4891,16 @@
     </row>
     <row r="7">
       <c r="A7" s="32" t="s">
-        <v>519</v>
+        <v>534</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>519</v>
+        <v>534</v>
       </c>
       <c r="C7" s="32" t="s">
-        <v>520</v>
+        <v>535</v>
       </c>
       <c r="D7" s="35" t="s">
-        <v>521</v>
+        <v>536</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>16</v>
@@ -4801,16 +4941,16 @@
     </row>
     <row r="8">
       <c r="A8" s="18" t="s">
-        <v>522</v>
+        <v>537</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>523</v>
+        <v>538</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="D8" s="35" t="s">
-        <v>521</v>
+        <v>536</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>16</v>
@@ -4849,16 +4989,16 @@
     </row>
     <row r="9">
       <c r="A9" s="18" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>526</v>
+        <v>541</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>527</v>
+        <v>542</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>521</v>
+        <v>536</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>16</v>
@@ -4897,16 +5037,16 @@
     </row>
     <row r="10">
       <c r="A10" s="32" t="s">
-        <v>528</v>
+        <v>543</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>528</v>
+        <v>543</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>529</v>
+        <v>544</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>530</v>
+        <v>545</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>16</v>
@@ -4947,16 +5087,16 @@
     </row>
     <row r="12">
       <c r="A12" s="31" t="s">
-        <v>531</v>
+        <v>546</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>531</v>
+        <v>546</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>532</v>
+        <v>547</v>
       </c>
       <c r="D12" s="35" t="s">
-        <v>518</v>
+        <v>533</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>16</v>
@@ -4995,16 +5135,16 @@
     </row>
     <row r="13">
       <c r="A13" s="32" t="s">
-        <v>533</v>
+        <v>548</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>534</v>
+        <v>549</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>535</v>
+        <v>550</v>
       </c>
       <c r="D13" s="35" t="s">
-        <v>536</v>
+        <v>551</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>16</v>
@@ -5045,16 +5185,16 @@
     </row>
     <row r="14">
       <c r="A14" s="6" t="s">
-        <v>537</v>
+        <v>552</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>538</v>
+        <v>553</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>539</v>
+        <v>554</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>536</v>
+        <v>551</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>16</v>
@@ -5093,16 +5233,16 @@
     </row>
     <row r="16">
       <c r="A16" s="5" t="s">
-        <v>540</v>
+        <v>555</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>541</v>
+        <v>556</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>542</v>
+        <v>557</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>518</v>
+        <v>533</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>16</v>
@@ -5141,16 +5281,16 @@
     </row>
     <row r="17">
       <c r="A17" s="6" t="s">
-        <v>543</v>
+        <v>558</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>544</v>
+        <v>559</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>545</v>
+        <v>560</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>546</v>
+        <v>561</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>16</v>
@@ -5189,16 +5329,16 @@
     </row>
     <row r="18">
       <c r="A18" s="6" t="s">
-        <v>547</v>
+        <v>562</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>547</v>
+        <v>562</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>548</v>
+        <v>563</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>546</v>
+        <v>561</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>16</v>
@@ -5237,16 +5377,16 @@
     </row>
     <row r="19">
       <c r="A19" s="6" t="s">
-        <v>549</v>
+        <v>564</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>549</v>
+        <v>564</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>550</v>
+        <v>565</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>546</v>
+        <v>561</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>16</v>
@@ -5285,16 +5425,16 @@
     </row>
     <row r="20">
       <c r="A20" s="6" t="s">
-        <v>551</v>
+        <v>566</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>552</v>
+        <v>567</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>553</v>
+        <v>568</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>546</v>
+        <v>561</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>16</v>
@@ -5333,13 +5473,13 @@
     </row>
     <row r="22">
       <c r="A22" s="5" t="s">
-        <v>554</v>
+        <v>569</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>554</v>
+        <v>569</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>555</v>
+        <v>570</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="6" t="s">
@@ -5382,16 +5522,16 @@
     </row>
     <row r="24">
       <c r="A24" s="5" t="s">
-        <v>556</v>
+        <v>571</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>556</v>
+        <v>571</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>557</v>
+        <v>572</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>558</v>
+        <v>573</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>16</v>
@@ -5430,16 +5570,16 @@
     </row>
     <row r="25">
       <c r="A25" s="6" t="s">
-        <v>559</v>
+        <v>574</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>560</v>
+        <v>575</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>561</v>
+        <v>576</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>562</v>
+        <v>577</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>16</v>
@@ -5478,16 +5618,16 @@
     </row>
     <row r="26">
       <c r="A26" s="6" t="s">
-        <v>563</v>
+        <v>578</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>564</v>
+        <v>579</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>565</v>
+        <v>580</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>566</v>
+        <v>581</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>16</v>
@@ -5526,16 +5666,16 @@
     </row>
     <row r="27">
       <c r="A27" s="6" t="s">
-        <v>567</v>
+        <v>582</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>568</v>
+        <v>583</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>569</v>
+        <v>584</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>566</v>
+        <v>581</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>16</v>
@@ -5574,16 +5714,16 @@
     </row>
     <row r="28">
       <c r="A28" s="6" t="s">
-        <v>570</v>
+        <v>585</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>570</v>
+        <v>585</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>570</v>
+        <v>585</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>562</v>
+        <v>577</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>16</v>
@@ -5622,16 +5762,16 @@
     </row>
     <row r="29">
       <c r="A29" s="6" t="s">
-        <v>571</v>
+        <v>586</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>572</v>
+        <v>587</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>573</v>
+        <v>588</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>574</v>
+        <v>589</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>16</v>
@@ -5670,16 +5810,16 @@
     </row>
     <row r="30">
       <c r="A30" s="6" t="s">
-        <v>575</v>
+        <v>590</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>575</v>
+        <v>590</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>576</v>
+        <v>591</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>577</v>
+        <v>592</v>
       </c>
       <c r="E30" s="6" t="s">
         <v>16</v>
@@ -5718,16 +5858,16 @@
     </row>
     <row r="31">
       <c r="A31" s="5" t="s">
-        <v>578</v>
+        <v>593</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>579</v>
+        <v>594</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>580</v>
+        <v>595</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>558</v>
+        <v>573</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>16</v>
@@ -5737,7 +5877,7 @@
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
       <c r="J31" s="6" t="s">
-        <v>314</v>
+        <v>330</v>
       </c>
       <c r="K31" s="19">
         <v>45627.0</v>
@@ -5768,16 +5908,16 @@
     </row>
     <row r="32">
       <c r="A32" s="5" t="s">
-        <v>581</v>
+        <v>596</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>582</v>
+        <v>597</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>583</v>
+        <v>598</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>584</v>
+        <v>599</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>16</v>
@@ -5787,7 +5927,7 @@
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
       <c r="J32" s="6" t="s">
-        <v>314</v>
+        <v>330</v>
       </c>
       <c r="K32" s="19">
         <v>45627.0</v>
@@ -5818,16 +5958,16 @@
     </row>
     <row r="33">
       <c r="A33" s="6" t="s">
-        <v>585</v>
+        <v>600</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>586</v>
+        <v>601</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>587</v>
+        <v>602</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>588</v>
+        <v>603</v>
       </c>
       <c r="E33" s="6" t="s">
         <v>16</v>
@@ -5837,7 +5977,7 @@
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
       <c r="J33" s="6" t="s">
-        <v>314</v>
+        <v>330</v>
       </c>
       <c r="K33" s="19">
         <v>45627.0</v>
@@ -5868,13 +6008,13 @@
     </row>
     <row r="34">
       <c r="A34" s="6" t="s">
-        <v>589</v>
+        <v>604</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>589</v>
+        <v>604</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>590</v>
+        <v>605</v>
       </c>
       <c r="D34" s="7"/>
       <c r="E34" s="6" t="s">
@@ -5914,13 +6054,13 @@
     </row>
     <row r="35">
       <c r="A35" s="6" t="s">
-        <v>591</v>
+        <v>606</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>591</v>
+        <v>606</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>592</v>
+        <v>607</v>
       </c>
       <c r="D35" s="7"/>
       <c r="E35" s="6" t="s">
@@ -5930,7 +6070,7 @@
       <c r="G35" s="7"/>
       <c r="H35" s="7"/>
       <c r="I35" s="6" t="s">
-        <v>593</v>
+        <v>608</v>
       </c>
       <c r="J35" s="7"/>
       <c r="K35" s="19">
@@ -5962,13 +6102,13 @@
     </row>
     <row r="36">
       <c r="A36" s="6" t="s">
-        <v>594</v>
+        <v>609</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>594</v>
+        <v>609</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>595</v>
+        <v>610</v>
       </c>
       <c r="D36" s="7"/>
       <c r="E36" s="6" t="s">
@@ -6008,13 +6148,13 @@
     </row>
     <row r="37">
       <c r="A37" s="6" t="s">
-        <v>596</v>
+        <v>611</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>596</v>
+        <v>611</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>597</v>
+        <v>612</v>
       </c>
       <c r="D37" s="7"/>
       <c r="E37" s="6" t="s">
@@ -6054,13 +6194,13 @@
     </row>
     <row r="38">
       <c r="A38" s="6" t="s">
-        <v>598</v>
+        <v>613</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>598</v>
+        <v>613</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>599</v>
+        <v>614</v>
       </c>
       <c r="D38" s="7"/>
       <c r="E38" s="6" t="s">
@@ -6100,13 +6240,13 @@
     </row>
     <row r="39">
       <c r="A39" s="6" t="s">
-        <v>600</v>
+        <v>615</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>601</v>
+        <v>616</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>602</v>
+        <v>617</v>
       </c>
       <c r="D39" s="7"/>
       <c r="E39" s="6" t="s">
@@ -6146,13 +6286,13 @@
     </row>
     <row r="40">
       <c r="A40" s="6" t="s">
-        <v>603</v>
+        <v>618</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>604</v>
+        <v>619</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>605</v>
+        <v>620</v>
       </c>
       <c r="D40" s="7"/>
       <c r="E40" s="6" t="s">
@@ -6192,16 +6332,16 @@
     </row>
     <row r="41">
       <c r="A41" s="6" t="s">
-        <v>606</v>
+        <v>621</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>606</v>
+        <v>621</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>607</v>
+        <v>622</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>608</v>
+        <v>623</v>
       </c>
       <c r="E41" s="6" t="s">
         <v>16</v>
@@ -6240,13 +6380,13 @@
     </row>
     <row r="42">
       <c r="A42" s="6" t="s">
-        <v>609</v>
+        <v>624</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>609</v>
+        <v>624</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>610</v>
+        <v>625</v>
       </c>
       <c r="D42" s="7"/>
       <c r="E42" s="6" t="s">
@@ -6286,16 +6426,16 @@
     </row>
     <row r="43">
       <c r="A43" s="6" t="s">
-        <v>611</v>
+        <v>626</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>611</v>
+        <v>626</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>612</v>
+        <v>627</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>558</v>
+        <v>573</v>
       </c>
       <c r="E43" s="6" t="s">
         <v>16</v>
@@ -6334,16 +6474,16 @@
     </row>
     <row r="44">
       <c r="A44" s="6" t="s">
-        <v>613</v>
+        <v>628</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>613</v>
+        <v>628</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>614</v>
+        <v>629</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>615</v>
+        <v>630</v>
       </c>
       <c r="E44" s="6" t="s">
         <v>16</v>
@@ -6382,16 +6522,16 @@
     </row>
     <row r="45">
       <c r="A45" s="6" t="s">
-        <v>616</v>
+        <v>631</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>616</v>
+        <v>631</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>617</v>
+        <v>632</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>518</v>
+        <v>533</v>
       </c>
       <c r="E45" s="6" t="s">
         <v>16</v>
@@ -6430,16 +6570,16 @@
     </row>
     <row r="46">
       <c r="A46" s="6" t="s">
-        <v>618</v>
+        <v>633</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>618</v>
+        <v>633</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>619</v>
+        <v>634</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>518</v>
+        <v>533</v>
       </c>
       <c r="E46" s="6" t="s">
         <v>16</v>
@@ -6543,13 +6683,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="36" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="E1" s="36" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="F1" s="36" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="G1" s="36" t="s">
         <v>6</v>
@@ -6564,7 +6704,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="39" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="L1" s="40" t="s">
         <v>11</v>
@@ -6596,19 +6736,19 @@
     </row>
     <row r="2">
       <c r="A2" s="18" t="s">
-        <v>620</v>
+        <v>635</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>621</v>
+        <v>636</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>622</v>
+        <v>637</v>
       </c>
       <c r="D2" s="34" t="s">
         <v>16</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>623</v>
+        <v>638</v>
       </c>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
@@ -6644,19 +6784,19 @@
     </row>
     <row r="3">
       <c r="A3" s="18" t="s">
-        <v>624</v>
+        <v>639</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>625</v>
+        <v>640</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>626</v>
+        <v>641</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>627</v>
+        <v>642</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>628</v>
+        <v>643</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
@@ -6692,19 +6832,19 @@
     </row>
     <row r="4">
       <c r="A4" s="18" t="s">
-        <v>629</v>
+        <v>644</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>630</v>
+        <v>645</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>631</v>
+        <v>646</v>
       </c>
       <c r="D4" s="34" t="s">
-        <v>628</v>
+        <v>643</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>627</v>
+        <v>642</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -6740,19 +6880,19 @@
     </row>
     <row r="5">
       <c r="A5" s="18" t="s">
-        <v>632</v>
+        <v>647</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>633</v>
+        <v>648</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>634</v>
+        <v>649</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>608</v>
+        <v>623</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -6788,19 +6928,19 @@
     </row>
     <row r="6">
       <c r="A6" s="18" t="s">
-        <v>635</v>
+        <v>650</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>636</v>
+        <v>651</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>637</v>
+        <v>652</v>
       </c>
       <c r="D6" s="34" t="s">
         <v>16</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>638</v>
+        <v>653</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -6836,22 +6976,22 @@
     </row>
     <row r="7">
       <c r="A7" s="18" t="s">
-        <v>639</v>
+        <v>654</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>640</v>
+        <v>655</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>641</v>
+        <v>656</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>562</v>
+        <v>577</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>642</v>
+        <v>657</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
@@ -6886,19 +7026,19 @@
     </row>
     <row r="8">
       <c r="A8" s="18" t="s">
-        <v>643</v>
+        <v>658</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>644</v>
+        <v>659</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>645</v>
+        <v>660</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>518</v>
+        <v>533</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
@@ -6934,19 +7074,19 @@
     </row>
     <row r="9">
       <c r="A9" s="18" t="s">
-        <v>646</v>
+        <v>661</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>647</v>
+        <v>662</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>648</v>
+        <v>663</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>558</v>
+        <v>573</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
@@ -6982,19 +7122,19 @@
     </row>
     <row r="10">
       <c r="A10" s="18" t="s">
-        <v>649</v>
+        <v>664</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>650</v>
+        <v>665</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>651</v>
+        <v>666</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>536</v>
+        <v>551</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
@@ -7030,19 +7170,19 @@
     </row>
     <row r="11">
       <c r="A11" s="6" t="s">
-        <v>652</v>
+        <v>667</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>653</v>
+        <v>668</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>654</v>
+        <v>669</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>655</v>
+        <v>670</v>
       </c>
       <c r="K11" s="19">
         <v>45627.0</v>
@@ -7057,19 +7197,19 @@
     </row>
     <row r="12">
       <c r="A12" s="18" t="s">
-        <v>656</v>
+        <v>671</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>657</v>
+        <v>672</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>658</v>
+        <v>673</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>659</v>
+        <v>674</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
@@ -7105,19 +7245,19 @@
     </row>
     <row r="13">
       <c r="A13" s="6" t="s">
-        <v>660</v>
+        <v>675</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>661</v>
+        <v>676</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>662</v>
+        <v>677</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>663</v>
+        <v>678</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
@@ -7153,19 +7293,19 @@
     </row>
     <row r="14">
       <c r="A14" s="6" t="s">
-        <v>664</v>
+        <v>679</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>665</v>
+        <v>680</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>666</v>
+        <v>681</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>667</v>
+        <v>682</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
@@ -7339,27 +7479,27 @@
     </row>
     <row r="2">
       <c r="A2" s="6" t="s">
-        <v>668</v>
+        <v>683</v>
       </c>
       <c r="B2" s="5"/>
       <c r="J2" s="10" t="s">
-        <v>669</v>
+        <v>684</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="6" t="s">
-        <v>670</v>
+        <v>685</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>671</v>
+        <v>686</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="6" t="s">
-        <v>672</v>
+        <v>687</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>673</v>
+        <v>688</v>
       </c>
     </row>
     <row r="6">
@@ -7854,26 +7994,26 @@
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
-        <v>674</v>
+        <v>689</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>674</v>
+        <v>689</v>
       </c>
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
     </row>
     <row r="3">
       <c r="A3" s="6" t="s">
-        <v>675</v>
+        <v>690</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>676</v>
+        <v>691</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>677</v>
+        <v>692</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>678</v>
+        <v>693</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>16</v>
@@ -7883,7 +8023,7 @@
       </c>
       <c r="L3" s="8"/>
       <c r="M3" s="6" t="s">
-        <v>679</v>
+        <v>694</v>
       </c>
       <c r="N3" s="6" t="s">
         <v>39</v>
@@ -7894,16 +8034,16 @@
     </row>
     <row r="4">
       <c r="A4" s="6" t="s">
-        <v>680</v>
+        <v>695</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>681</v>
+        <v>696</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>682</v>
+        <v>697</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>678</v>
+        <v>693</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>16</v>
@@ -7913,7 +8053,7 @@
       </c>
       <c r="L4" s="8"/>
       <c r="M4" s="6" t="s">
-        <v>679</v>
+        <v>694</v>
       </c>
       <c r="N4" s="6" t="s">
         <v>39</v>
@@ -7924,16 +8064,16 @@
     </row>
     <row r="5">
       <c r="A5" s="6" t="s">
-        <v>683</v>
+        <v>698</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>684</v>
+        <v>699</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>685</v>
+        <v>700</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>678</v>
+        <v>693</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>16</v>
@@ -7943,7 +8083,7 @@
       </c>
       <c r="L5" s="8"/>
       <c r="M5" s="6" t="s">
-        <v>679</v>
+        <v>694</v>
       </c>
       <c r="N5" s="6" t="s">
         <v>39</v>
@@ -7954,16 +8094,16 @@
     </row>
     <row r="6">
       <c r="A6" s="6" t="s">
-        <v>686</v>
+        <v>701</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>687</v>
+        <v>702</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>688</v>
+        <v>703</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>678</v>
+        <v>693</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>16</v>
@@ -7973,7 +8113,7 @@
       </c>
       <c r="L6" s="8"/>
       <c r="M6" s="6" t="s">
-        <v>679</v>
+        <v>694</v>
       </c>
       <c r="N6" s="6" t="s">
         <v>39</v>
@@ -7984,16 +8124,16 @@
     </row>
     <row r="7">
       <c r="A7" s="6" t="s">
-        <v>689</v>
+        <v>704</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>690</v>
+        <v>705</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>691</v>
+        <v>706</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>678</v>
+        <v>693</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>16</v>
@@ -8003,7 +8143,7 @@
       </c>
       <c r="L7" s="8"/>
       <c r="M7" s="6" t="s">
-        <v>679</v>
+        <v>694</v>
       </c>
       <c r="N7" s="6" t="s">
         <v>39</v>
@@ -8014,16 +8154,16 @@
     </row>
     <row r="8">
       <c r="A8" s="6" t="s">
-        <v>692</v>
+        <v>707</v>
       </c>
       <c r="B8" s="6" t="s">
+        <v>708</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>709</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>693</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>694</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>678</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>16</v>
@@ -8033,7 +8173,7 @@
       </c>
       <c r="L8" s="8"/>
       <c r="M8" s="6" t="s">
-        <v>679</v>
+        <v>694</v>
       </c>
       <c r="N8" s="6" t="s">
         <v>39</v>
@@ -8044,16 +8184,16 @@
     </row>
     <row r="9">
       <c r="A9" s="6" t="s">
-        <v>695</v>
+        <v>710</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>696</v>
+        <v>711</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>697</v>
+        <v>712</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>678</v>
+        <v>693</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>16</v>
@@ -8063,7 +8203,7 @@
       </c>
       <c r="L9" s="8"/>
       <c r="M9" s="6" t="s">
-        <v>679</v>
+        <v>694</v>
       </c>
       <c r="N9" s="6" t="s">
         <v>39</v>
@@ -8074,16 +8214,16 @@
     </row>
     <row r="10">
       <c r="A10" s="6" t="s">
-        <v>698</v>
+        <v>713</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>699</v>
+        <v>714</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>700</v>
+        <v>715</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>678</v>
+        <v>693</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>16</v>
@@ -8093,7 +8233,7 @@
       </c>
       <c r="L10" s="8"/>
       <c r="M10" s="6" t="s">
-        <v>679</v>
+        <v>694</v>
       </c>
       <c r="N10" s="6" t="s">
         <v>39</v>
@@ -8104,16 +8244,16 @@
     </row>
     <row r="11">
       <c r="A11" s="6" t="s">
-        <v>701</v>
+        <v>716</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>702</v>
+        <v>717</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>703</v>
+        <v>718</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>678</v>
+        <v>693</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>16</v>
@@ -8123,7 +8263,7 @@
       </c>
       <c r="L11" s="8"/>
       <c r="M11" s="6" t="s">
-        <v>679</v>
+        <v>694</v>
       </c>
       <c r="N11" s="6" t="s">
         <v>39</v>
@@ -8134,16 +8274,16 @@
     </row>
     <row r="12">
       <c r="A12" s="6" t="s">
-        <v>704</v>
+        <v>719</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>705</v>
+        <v>720</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>706</v>
+        <v>721</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>707</v>
+        <v>722</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>16</v>
@@ -8153,7 +8293,7 @@
       </c>
       <c r="L12" s="8"/>
       <c r="M12" s="6" t="s">
-        <v>679</v>
+        <v>694</v>
       </c>
       <c r="N12" s="6" t="s">
         <v>39</v>
@@ -8164,16 +8304,16 @@
     </row>
     <row r="13">
       <c r="A13" s="6" t="s">
-        <v>708</v>
+        <v>723</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>709</v>
+        <v>724</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>710</v>
+        <v>725</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>711</v>
+        <v>726</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>16</v>
@@ -8182,7 +8322,7 @@
         <v>44727.0</v>
       </c>
       <c r="M13" s="6" t="s">
-        <v>679</v>
+        <v>694</v>
       </c>
       <c r="N13" s="6" t="s">
         <v>39</v>
@@ -8193,16 +8333,16 @@
     </row>
     <row r="14">
       <c r="A14" s="24" t="s">
-        <v>712</v>
+        <v>727</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>713</v>
+        <v>728</v>
       </c>
       <c r="C14" s="48" t="s">
-        <v>714</v>
+        <v>729</v>
       </c>
       <c r="D14" s="49" t="s">
-        <v>678</v>
+        <v>693</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>16</v>
@@ -8212,12 +8352,12 @@
       <c r="H14" s="11"/>
       <c r="I14" s="11"/>
       <c r="J14" s="24" t="s">
-        <v>715</v>
+        <v>730</v>
       </c>
       <c r="K14" s="11"/>
       <c r="L14" s="11"/>
       <c r="M14" s="6" t="s">
-        <v>679</v>
+        <v>694</v>
       </c>
       <c r="N14" s="11"/>
       <c r="O14" s="11"/>
@@ -8240,18 +8380,18 @@
     </row>
     <row r="16">
       <c r="A16" s="5" t="s">
-        <v>716</v>
+        <v>731</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="6" t="s">
-        <v>717</v>
+        <v>732</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>718</v>
+        <v>733</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>719</v>
+        <v>734</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>16</v>
@@ -8260,7 +8400,7 @@
         <v>44727.0</v>
       </c>
       <c r="M17" s="6" t="s">
-        <v>679</v>
+        <v>694</v>
       </c>
       <c r="N17" s="6" t="s">
         <v>39</v>
@@ -8271,13 +8411,13 @@
     </row>
     <row r="18">
       <c r="A18" s="6" t="s">
-        <v>720</v>
+        <v>735</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>721</v>
+        <v>736</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>722</v>
+        <v>737</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>16</v>
@@ -8287,7 +8427,7 @@
       </c>
       <c r="L18" s="8"/>
       <c r="M18" s="6" t="s">
-        <v>679</v>
+        <v>694</v>
       </c>
       <c r="N18" s="6" t="s">
         <v>39</v>
@@ -8298,13 +8438,13 @@
     </row>
     <row r="19">
       <c r="A19" s="6" t="s">
-        <v>723</v>
+        <v>738</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>724</v>
+        <v>739</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>725</v>
+        <v>740</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>16</v>
@@ -8314,7 +8454,7 @@
       </c>
       <c r="L19" s="8"/>
       <c r="M19" s="6" t="s">
-        <v>679</v>
+        <v>694</v>
       </c>
       <c r="N19" s="6" t="s">
         <v>39</v>
@@ -8325,13 +8465,13 @@
     </row>
     <row r="20">
       <c r="A20" s="6" t="s">
-        <v>726</v>
+        <v>741</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>727</v>
+        <v>742</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>728</v>
+        <v>743</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>16</v>
@@ -8341,7 +8481,7 @@
       </c>
       <c r="L20" s="8"/>
       <c r="M20" s="6" t="s">
-        <v>679</v>
+        <v>694</v>
       </c>
       <c r="N20" s="6" t="s">
         <v>39</v>
@@ -8352,13 +8492,13 @@
     </row>
     <row r="21">
       <c r="A21" s="6" t="s">
-        <v>729</v>
+        <v>744</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>730</v>
+        <v>745</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>731</v>
+        <v>746</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>16</v>
@@ -8368,7 +8508,7 @@
       </c>
       <c r="L21" s="8"/>
       <c r="M21" s="6" t="s">
-        <v>679</v>
+        <v>694</v>
       </c>
       <c r="N21" s="6" t="s">
         <v>39</v>
@@ -8379,13 +8519,13 @@
     </row>
     <row r="22">
       <c r="A22" s="6" t="s">
-        <v>732</v>
+        <v>747</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>733</v>
+        <v>748</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>734</v>
+        <v>749</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>16</v>
@@ -8395,7 +8535,7 @@
       </c>
       <c r="L22" s="8"/>
       <c r="M22" s="6" t="s">
-        <v>679</v>
+        <v>694</v>
       </c>
       <c r="N22" s="6" t="s">
         <v>39</v>
@@ -8406,10 +8546,10 @@
     </row>
     <row r="24">
       <c r="A24" s="5" t="s">
-        <v>735</v>
+        <v>750</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>735</v>
+        <v>750</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="30"/>
@@ -8418,16 +8558,16 @@
     </row>
     <row r="25">
       <c r="A25" s="6" t="s">
-        <v>736</v>
+        <v>751</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>737</v>
+        <v>752</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>738</v>
+        <v>753</v>
       </c>
       <c r="D25" s="30" t="s">
-        <v>739</v>
+        <v>754</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>16</v>
@@ -8436,7 +8576,7 @@
         <v>44727.0</v>
       </c>
       <c r="M25" s="6" t="s">
-        <v>679</v>
+        <v>694</v>
       </c>
       <c r="N25" s="6" t="s">
         <v>39</v>
@@ -8447,16 +8587,16 @@
     </row>
     <row r="26">
       <c r="A26" s="6" t="s">
-        <v>740</v>
+        <v>755</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>741</v>
+        <v>756</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>742</v>
+        <v>757</v>
       </c>
       <c r="D26" s="30" t="s">
-        <v>739</v>
+        <v>754</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>16</v>
@@ -8465,7 +8605,7 @@
         <v>44727.0</v>
       </c>
       <c r="M26" s="6" t="s">
-        <v>679</v>
+        <v>694</v>
       </c>
       <c r="N26" s="6" t="s">
         <v>39</v>
@@ -8476,16 +8616,16 @@
     </row>
     <row r="27">
       <c r="A27" s="6" t="s">
-        <v>743</v>
+        <v>758</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>744</v>
+        <v>759</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>745</v>
+        <v>760</v>
       </c>
       <c r="D27" s="30" t="s">
-        <v>739</v>
+        <v>754</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>16</v>
@@ -8494,7 +8634,7 @@
         <v>44727.0</v>
       </c>
       <c r="M27" s="6" t="s">
-        <v>679</v>
+        <v>694</v>
       </c>
       <c r="N27" s="6" t="s">
         <v>39</v>
@@ -8505,16 +8645,16 @@
     </row>
     <row r="28">
       <c r="A28" s="6" t="s">
-        <v>531</v>
+        <v>546</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>531</v>
+        <v>546</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>746</v>
+        <v>761</v>
       </c>
       <c r="D28" s="30" t="s">
-        <v>739</v>
+        <v>754</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>16</v>
@@ -8523,7 +8663,7 @@
         <v>44727.0</v>
       </c>
       <c r="M28" s="6" t="s">
-        <v>679</v>
+        <v>694</v>
       </c>
       <c r="N28" s="6" t="s">
         <v>39</v>
@@ -8534,10 +8674,10 @@
     </row>
     <row r="30">
       <c r="A30" s="5" t="s">
-        <v>747</v>
+        <v>762</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>747</v>
+        <v>762</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
@@ -8568,16 +8708,16 @@
     </row>
     <row r="31">
       <c r="A31" s="6" t="s">
-        <v>748</v>
+        <v>763</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>749</v>
+        <v>764</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>750</v>
+        <v>765</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>751</v>
+        <v>766</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>16</v>
@@ -8586,10 +8726,10 @@
         <v>44727.0</v>
       </c>
       <c r="M31" s="6" t="s">
-        <v>679</v>
+        <v>694</v>
       </c>
       <c r="N31" s="6" t="s">
-        <v>752</v>
+        <v>767</v>
       </c>
       <c r="O31" s="9" t="s">
         <v>28</v>
@@ -8597,16 +8737,16 @@
     </row>
     <row r="32">
       <c r="A32" s="6" t="s">
-        <v>753</v>
+        <v>768</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>754</v>
+        <v>769</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>755</v>
+        <v>770</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>751</v>
+        <v>766</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>16</v>
@@ -8615,10 +8755,10 @@
         <v>44727.0</v>
       </c>
       <c r="M32" s="6" t="s">
-        <v>679</v>
+        <v>694</v>
       </c>
       <c r="N32" s="6" t="s">
-        <v>752</v>
+        <v>767</v>
       </c>
       <c r="O32" s="9" t="s">
         <v>28</v>
@@ -8626,16 +8766,16 @@
     </row>
     <row r="33">
       <c r="A33" s="6" t="s">
-        <v>756</v>
+        <v>771</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>757</v>
+        <v>772</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>758</v>
+        <v>773</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>751</v>
+        <v>766</v>
       </c>
       <c r="E33" s="6" t="s">
         <v>16</v>
@@ -8644,10 +8784,10 @@
         <v>44727.0</v>
       </c>
       <c r="M33" s="6" t="s">
-        <v>679</v>
+        <v>694</v>
       </c>
       <c r="N33" s="6" t="s">
-        <v>752</v>
+        <v>767</v>
       </c>
       <c r="O33" s="9" t="s">
         <v>28</v>
@@ -8655,16 +8795,16 @@
     </row>
     <row r="34">
       <c r="A34" s="6" t="s">
-        <v>759</v>
+        <v>774</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>760</v>
+        <v>775</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>761</v>
+        <v>776</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>751</v>
+        <v>766</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>16</v>
@@ -8673,10 +8813,10 @@
         <v>44727.0</v>
       </c>
       <c r="M34" s="6" t="s">
-        <v>679</v>
+        <v>694</v>
       </c>
       <c r="N34" s="6" t="s">
-        <v>752</v>
+        <v>767</v>
       </c>
       <c r="O34" s="9" t="s">
         <v>28</v>
@@ -8684,16 +8824,16 @@
     </row>
     <row r="35">
       <c r="A35" s="6" t="s">
-        <v>762</v>
+        <v>777</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>763</v>
+        <v>778</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>764</v>
+        <v>779</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>751</v>
+        <v>766</v>
       </c>
       <c r="E35" s="6" t="s">
         <v>16</v>
@@ -8702,10 +8842,10 @@
         <v>44727.0</v>
       </c>
       <c r="M35" s="6" t="s">
-        <v>679</v>
+        <v>694</v>
       </c>
       <c r="N35" s="6" t="s">
-        <v>752</v>
+        <v>767</v>
       </c>
       <c r="O35" s="9" t="s">
         <v>28</v>
@@ -8713,16 +8853,16 @@
     </row>
     <row r="36">
       <c r="A36" s="6" t="s">
-        <v>765</v>
+        <v>780</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>766</v>
+        <v>781</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>767</v>
+        <v>782</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>768</v>
+        <v>783</v>
       </c>
       <c r="E36" s="6" t="s">
         <v>16</v>
@@ -8731,10 +8871,10 @@
         <v>44727.0</v>
       </c>
       <c r="M36" s="6" t="s">
-        <v>679</v>
+        <v>694</v>
       </c>
       <c r="N36" s="6" t="s">
-        <v>752</v>
+        <v>767</v>
       </c>
       <c r="O36" s="9" t="s">
         <v>28</v>
@@ -8742,37 +8882,37 @@
     </row>
     <row r="38">
       <c r="A38" s="5" t="s">
-        <v>769</v>
+        <v>784</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>769</v>
+        <v>784</v>
       </c>
       <c r="K38" s="8"/>
     </row>
     <row r="39">
       <c r="A39" s="6" t="s">
-        <v>770</v>
+        <v>785</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>771</v>
+        <v>786</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>772</v>
+        <v>787</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>773</v>
+        <v>788</v>
       </c>
       <c r="E39" s="6" t="s">
         <v>16</v>
       </c>
       <c r="I39" s="6" t="s">
-        <v>774</v>
+        <v>789</v>
       </c>
       <c r="K39" s="8">
         <v>44727.0</v>
       </c>
       <c r="M39" s="6" t="s">
-        <v>679</v>
+        <v>694</v>
       </c>
       <c r="N39" s="6" t="s">
         <v>39</v>
@@ -8783,28 +8923,28 @@
     </row>
     <row r="40">
       <c r="A40" s="6" t="s">
-        <v>775</v>
+        <v>790</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>776</v>
+        <v>791</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>777</v>
+        <v>792</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>773</v>
+        <v>788</v>
       </c>
       <c r="E40" s="6" t="s">
         <v>16</v>
       </c>
       <c r="I40" s="6" t="s">
-        <v>778</v>
+        <v>793</v>
       </c>
       <c r="K40" s="8">
         <v>44727.0</v>
       </c>
       <c r="M40" s="6" t="s">
-        <v>679</v>
+        <v>694</v>
       </c>
       <c r="N40" s="6" t="s">
         <v>39</v>
@@ -8815,21 +8955,21 @@
     </row>
     <row r="42">
       <c r="A42" s="5" t="s">
-        <v>779</v>
+        <v>794</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="32" t="s">
-        <v>780</v>
+        <v>795</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>781</v>
+        <v>796</v>
       </c>
       <c r="C43" s="32" t="s">
-        <v>782</v>
+        <v>797</v>
       </c>
       <c r="D43" s="35" t="s">
-        <v>783</v>
+        <v>798</v>
       </c>
       <c r="E43" s="6" t="s">
         <v>16</v>
@@ -8838,7 +8978,7 @@
         <v>44727.0</v>
       </c>
       <c r="M43" s="6" t="s">
-        <v>679</v>
+        <v>694</v>
       </c>
       <c r="N43" s="6" t="s">
         <v>39</v>
@@ -8849,16 +8989,16 @@
     </row>
     <row r="44">
       <c r="A44" s="50" t="s">
-        <v>784</v>
+        <v>799</v>
       </c>
       <c r="B44" s="50" t="s">
-        <v>785</v>
+        <v>800</v>
       </c>
       <c r="C44" s="51" t="s">
-        <v>786</v>
+        <v>801</v>
       </c>
       <c r="D44" s="52" t="s">
-        <v>787</v>
+        <v>802</v>
       </c>
       <c r="E44" s="11" t="s">
         <v>16</v>
@@ -8873,7 +9013,7 @@
       </c>
       <c r="L44" s="11"/>
       <c r="M44" s="6" t="s">
-        <v>679</v>
+        <v>694</v>
       </c>
       <c r="N44" s="11" t="s">
         <v>39</v>
@@ -8899,16 +9039,16 @@
     </row>
     <row r="45">
       <c r="A45" s="50" t="s">
-        <v>788</v>
+        <v>803</v>
       </c>
       <c r="B45" s="50" t="s">
-        <v>789</v>
+        <v>804</v>
       </c>
       <c r="C45" s="51" t="s">
-        <v>790</v>
+        <v>805</v>
       </c>
       <c r="D45" s="55" t="s">
-        <v>791</v>
+        <v>806</v>
       </c>
       <c r="E45" s="11" t="s">
         <v>16</v>
@@ -8923,7 +9063,7 @@
       </c>
       <c r="L45" s="11"/>
       <c r="M45" s="6" t="s">
-        <v>679</v>
+        <v>694</v>
       </c>
       <c r="N45" s="11" t="s">
         <v>39</v>
@@ -8949,16 +9089,16 @@
     </row>
     <row r="46">
       <c r="A46" s="50" t="s">
-        <v>792</v>
+        <v>807</v>
       </c>
       <c r="B46" s="50" t="s">
-        <v>793</v>
-      </c>
-      <c r="C46" s="51" t="s">
-        <v>794</v>
+        <v>808</v>
+      </c>
+      <c r="C46" s="56" t="s">
+        <v>809</v>
       </c>
       <c r="D46" s="55" t="s">
-        <v>795</v>
+        <v>810</v>
       </c>
       <c r="E46" s="11" t="s">
         <v>16</v>
@@ -8973,7 +9113,7 @@
       </c>
       <c r="L46" s="11"/>
       <c r="M46" s="6" t="s">
-        <v>679</v>
+        <v>694</v>
       </c>
       <c r="N46" s="11" t="s">
         <v>39</v>
@@ -9204,13 +9344,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="G1" s="12" t="s">
         <v>6</v>
@@ -9225,7 +9365,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="15" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="L1" s="16" t="s">
         <v>11</v>
@@ -9242,19 +9382,19 @@
     </row>
     <row r="2">
       <c r="A2" s="6" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>21</v>
@@ -9292,19 +9432,19 @@
     </row>
     <row r="3">
       <c r="A3" s="6" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>21</v>
@@ -9342,19 +9482,19 @@
     </row>
     <row r="4">
       <c r="A4" s="6" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>21</v>
@@ -9392,19 +9532,19 @@
     </row>
     <row r="5">
       <c r="A5" s="6" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>21</v>
@@ -9440,19 +9580,19 @@
     </row>
     <row r="6">
       <c r="A6" s="6" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>21</v>
@@ -9486,19 +9626,19 @@
     </row>
     <row r="7">
       <c r="A7" s="6" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>21</v>
@@ -9532,19 +9672,19 @@
     </row>
     <row r="8">
       <c r="A8" s="6" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>21</v>
@@ -9582,19 +9722,19 @@
     </row>
     <row r="9">
       <c r="A9" s="6" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>21</v>
@@ -9630,22 +9770,22 @@
     </row>
     <row r="10">
       <c r="A10" s="6" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
@@ -9678,22 +9818,22 @@
     </row>
     <row r="11">
       <c r="A11" s="6" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
@@ -9726,22 +9866,22 @@
     </row>
     <row r="12">
       <c r="A12" s="6" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
@@ -9774,19 +9914,19 @@
     </row>
     <row r="13">
       <c r="A13" s="6" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
@@ -9820,19 +9960,19 @@
     </row>
     <row r="14">
       <c r="A14" s="6" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
@@ -9866,19 +10006,19 @@
     </row>
     <row r="15">
       <c r="A15" s="6" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
@@ -9912,22 +10052,22 @@
     </row>
     <row r="16">
       <c r="A16" s="6" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
@@ -9960,22 +10100,22 @@
     </row>
     <row r="17">
       <c r="A17" s="6" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
@@ -10006,12 +10146,102 @@
       <c r="AA17" s="7"/>
       <c r="AB17" s="7"/>
     </row>
+    <row r="18">
+      <c r="A18" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="8">
+        <v>45806.0</v>
+      </c>
+      <c r="L18" s="7"/>
+      <c r="M18" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N18" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="7"/>
+      <c r="S18" s="7"/>
+      <c r="T18" s="7"/>
+      <c r="U18" s="7"/>
+      <c r="V18" s="7"/>
+      <c r="W18" s="7"/>
+      <c r="X18" s="7"/>
+      <c r="Y18" s="7"/>
+      <c r="Z18" s="7"/>
+      <c r="AA18" s="7"/>
+      <c r="AB18" s="7"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="D19" s="7"/>
+      <c r="E19" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="8">
+        <v>45806.0</v>
+      </c>
+      <c r="L19" s="7"/>
+      <c r="M19" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N19" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="7"/>
+      <c r="S19" s="7"/>
+      <c r="T19" s="7"/>
+      <c r="U19" s="7"/>
+      <c r="V19" s="7"/>
+      <c r="W19" s="7"/>
+      <c r="X19" s="7"/>
+      <c r="Y19" s="7"/>
+      <c r="Z19" s="7"/>
+      <c r="AA19" s="7"/>
+      <c r="AB19" s="7"/>
+    </row>
     <row r="20">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D10:D11">
+  <conditionalFormatting sqref="D10:D11 K18:N19">
     <cfRule type="expression" dxfId="3" priority="1">
       <formula>$M10="deprecated"</formula>
     </cfRule>
@@ -10046,7 +10276,7 @@
       <formula>$M4="changed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M4">
+  <conditionalFormatting sqref="M4 K18:N19">
     <cfRule type="expression" dxfId="1" priority="8">
       <formula>$M4="proposed"</formula>
     </cfRule>
@@ -10182,58 +10412,20 @@
       <c r="A2" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="8">
-        <v>45643.0</v>
-      </c>
-      <c r="L2" s="7"/>
-      <c r="M2" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
-      <c r="U2" s="7"/>
-      <c r="V2" s="7"/>
-      <c r="W2" s="7"/>
-      <c r="X2" s="7"/>
-      <c r="Y2" s="7"/>
-      <c r="Z2" s="7"/>
-      <c r="AA2" s="7"/>
-      <c r="AB2" s="7"/>
-      <c r="AC2" s="7"/>
-      <c r="AD2" s="7"/>
+      <c r="K2" s="8"/>
     </row>
     <row r="3">
       <c r="A3" s="6" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>25</v>
@@ -10272,16 +10464,16 @@
     </row>
     <row r="4">
       <c r="A4" s="6" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>25</v>
@@ -10320,16 +10512,16 @@
     </row>
     <row r="5">
       <c r="A5" s="6" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>25</v>
@@ -10368,16 +10560,16 @@
     </row>
     <row r="6">
       <c r="A6" s="6" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>25</v>
@@ -10416,16 +10608,16 @@
     </row>
     <row r="7">
       <c r="A7" s="6" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>25</v>
@@ -10434,7 +10626,7 @@
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
       <c r="I7" s="6" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="J7" s="7"/>
       <c r="K7" s="8">
@@ -10466,16 +10658,16 @@
     </row>
     <row r="8">
       <c r="A8" s="6" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>25</v>
@@ -10484,7 +10676,7 @@
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="6" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="J8" s="7"/>
       <c r="K8" s="8">
@@ -10516,16 +10708,16 @@
     </row>
     <row r="9">
       <c r="A9" s="11" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>25</v>
@@ -10534,7 +10726,7 @@
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="I9" s="6" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="J9" s="7"/>
       <c r="K9" s="8">
@@ -10566,16 +10758,16 @@
     </row>
     <row r="10">
       <c r="A10" s="11" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>25</v>
@@ -10584,7 +10776,7 @@
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
       <c r="I10" s="6" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="J10" s="7"/>
       <c r="K10" s="8">
@@ -10616,16 +10808,16 @@
     </row>
     <row r="11">
       <c r="A11" s="11" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>25</v>
@@ -10664,16 +10856,16 @@
     </row>
     <row r="12">
       <c r="A12" s="11" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>25</v>
@@ -10712,16 +10904,16 @@
     </row>
     <row r="13">
       <c r="A13" s="11" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>25</v>
@@ -10760,16 +10952,16 @@
     </row>
     <row r="14">
       <c r="A14" s="11" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>25</v>
@@ -10808,16 +11000,16 @@
     </row>
     <row r="15">
       <c r="A15" s="11" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>25</v>
@@ -10826,7 +11018,7 @@
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
       <c r="I15" s="6" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="J15" s="7"/>
       <c r="K15" s="8">
@@ -10858,16 +11050,16 @@
     </row>
     <row r="16">
       <c r="A16" s="11" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>25</v>
@@ -10876,7 +11068,7 @@
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
       <c r="I16" s="6" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="J16" s="7"/>
       <c r="K16" s="8">
@@ -10908,16 +11100,16 @@
     </row>
     <row r="17">
       <c r="A17" s="11" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>25</v>
@@ -10926,7 +11118,7 @@
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
       <c r="I17" s="6" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="J17" s="7"/>
       <c r="K17" s="8">
@@ -11051,10 +11243,10 @@
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -11063,23 +11255,23 @@
     </row>
     <row r="3">
       <c r="A3" s="6" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="K3" s="8"/>
     </row>
     <row r="4">
       <c r="A4" s="6" t="s">
-        <v>191</v>
+        <v>207</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>192</v>
+        <v>208</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>193</v>
+        <v>209</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="6" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -11093,7 +11285,7 @@
         <v>45627.0</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="N4" s="6" t="s">
         <v>39</v>
@@ -11117,17 +11309,17 @@
     </row>
     <row r="5">
       <c r="A5" s="6" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="6" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -11141,7 +11333,7 @@
         <v>45627.0</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="N5" s="6" t="s">
         <v>39</v>
@@ -11165,17 +11357,17 @@
     </row>
     <row r="6">
       <c r="A6" s="6" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>200</v>
+        <v>216</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="6" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -11189,7 +11381,7 @@
         <v>45627.0</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="N6" s="6" t="s">
         <v>39</v>
@@ -11213,17 +11405,17 @@
     </row>
     <row r="7">
       <c r="A7" s="6" t="s">
-        <v>201</v>
+        <v>217</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>202</v>
+        <v>218</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="6" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -11237,7 +11429,7 @@
         <v>45627.0</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="N7" s="6" t="s">
         <v>39</v>
@@ -11261,17 +11453,17 @@
     </row>
     <row r="8">
       <c r="A8" s="6" t="s">
-        <v>204</v>
+        <v>220</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>205</v>
+        <v>221</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>206</v>
+        <v>222</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="6" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
@@ -11285,7 +11477,7 @@
         <v>45627.0</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="N8" s="6" t="s">
         <v>39</v>
@@ -11309,17 +11501,17 @@
     </row>
     <row r="9">
       <c r="A9" s="6" t="s">
-        <v>207</v>
+        <v>223</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>208</v>
+        <v>224</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>209</v>
+        <v>225</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="6" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
@@ -11333,7 +11525,7 @@
         <v>45627.0</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="N9" s="6" t="s">
         <v>39</v>
@@ -11357,17 +11549,17 @@
     </row>
     <row r="10">
       <c r="A10" s="6" t="s">
-        <v>210</v>
+        <v>226</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>211</v>
+        <v>227</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>212</v>
+        <v>228</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="6" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
@@ -11381,7 +11573,7 @@
         <v>45627.0</v>
       </c>
       <c r="M10" s="6" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="N10" s="6" t="s">
         <v>39</v>
@@ -11405,17 +11597,17 @@
     </row>
     <row r="11">
       <c r="A11" s="6" t="s">
-        <v>213</v>
+        <v>229</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>214</v>
+        <v>230</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>215</v>
+        <v>231</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="6" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -11429,7 +11621,7 @@
         <v>45627.0</v>
       </c>
       <c r="M11" s="6" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="N11" s="6" t="s">
         <v>39</v>
@@ -11456,19 +11648,19 @@
     </row>
     <row r="13">
       <c r="A13" s="6" t="s">
-        <v>216</v>
+        <v>232</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>217</v>
+        <v>233</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>218</v>
+        <v>234</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>219</v>
+        <v>235</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
@@ -11482,7 +11674,7 @@
         <v>45627.0</v>
       </c>
       <c r="M13" s="6" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="N13" s="6" t="s">
         <v>39</v>
@@ -11504,19 +11696,19 @@
     </row>
     <row r="14">
       <c r="A14" s="6" t="s">
-        <v>220</v>
+        <v>236</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>221</v>
+        <v>237</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>223</v>
+        <v>239</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
@@ -11530,7 +11722,7 @@
         <v>45627.0</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="N14" s="6" t="s">
         <v>39</v>
@@ -11552,19 +11744,19 @@
     </row>
     <row r="15">
       <c r="A15" s="6" t="s">
-        <v>224</v>
+        <v>240</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>225</v>
+        <v>241</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>226</v>
+        <v>242</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>223</v>
+        <v>239</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
@@ -11578,7 +11770,7 @@
         <v>45627.0</v>
       </c>
       <c r="M15" s="6" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="N15" s="6" t="s">
         <v>39</v>
@@ -11600,19 +11792,19 @@
     </row>
     <row r="16">
       <c r="A16" s="6" t="s">
-        <v>227</v>
+        <v>243</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>228</v>
+        <v>244</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>229</v>
+        <v>245</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>223</v>
+        <v>239</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
@@ -11626,7 +11818,7 @@
         <v>45627.0</v>
       </c>
       <c r="M16" s="6" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="N16" s="6" t="s">
         <v>39</v>
@@ -11648,19 +11840,19 @@
     </row>
     <row r="17">
       <c r="A17" s="6" t="s">
-        <v>230</v>
+        <v>246</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>231</v>
+        <v>247</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>232</v>
+        <v>248</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>223</v>
+        <v>239</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
@@ -11674,7 +11866,7 @@
         <v>45627.0</v>
       </c>
       <c r="M17" s="6" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="N17" s="6" t="s">
         <v>39</v>
@@ -11696,19 +11888,19 @@
     </row>
     <row r="18">
       <c r="A18" s="6" t="s">
-        <v>233</v>
+        <v>249</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>234</v>
+        <v>250</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>235</v>
+        <v>251</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>223</v>
+        <v>239</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
@@ -11722,7 +11914,7 @@
         <v>45627.0</v>
       </c>
       <c r="M18" s="6" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="N18" s="6" t="s">
         <v>39</v>
@@ -11744,19 +11936,19 @@
     </row>
     <row r="19">
       <c r="A19" s="6" t="s">
-        <v>236</v>
+        <v>252</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>237</v>
+        <v>253</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>238</v>
+        <v>254</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>223</v>
+        <v>239</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
@@ -11770,7 +11962,7 @@
         <v>45627.0</v>
       </c>
       <c r="M19" s="6" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="N19" s="6" t="s">
         <v>39</v>
@@ -11792,19 +11984,19 @@
     </row>
     <row r="20">
       <c r="A20" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="D20" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>223</v>
-      </c>
       <c r="E20" s="6" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
@@ -11818,10 +12010,10 @@
         <v>45627.0</v>
       </c>
       <c r="M20" s="6" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="N20" s="6" t="s">
-        <v>242</v>
+        <v>258</v>
       </c>
       <c r="O20" s="7"/>
       <c r="P20" s="7"/>
@@ -11840,19 +12032,19 @@
     </row>
     <row r="21">
       <c r="A21" s="6" t="s">
-        <v>243</v>
+        <v>259</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>244</v>
+        <v>260</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>245</v>
+        <v>261</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>223</v>
+        <v>239</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
@@ -11866,10 +12058,10 @@
         <v>45627.0</v>
       </c>
       <c r="M21" s="6" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="N21" s="6" t="s">
-        <v>242</v>
+        <v>258</v>
       </c>
       <c r="O21" s="7"/>
       <c r="P21" s="7"/>
@@ -11888,19 +12080,19 @@
     </row>
     <row r="22">
       <c r="A22" s="6" t="s">
-        <v>246</v>
+        <v>262</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>248</v>
+        <v>264</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>249</v>
+        <v>265</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
@@ -11914,10 +12106,10 @@
         <v>45627.0</v>
       </c>
       <c r="M22" s="6" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="N22" s="6" t="s">
-        <v>242</v>
+        <v>258</v>
       </c>
       <c r="O22" s="7"/>
       <c r="P22" s="7"/>
@@ -12051,7 +12243,7 @@
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
-        <v>250</v>
+        <v>266</v>
       </c>
       <c r="B2" s="5"/>
       <c r="K2" s="8"/>
@@ -12072,55 +12264,55 @@
     </row>
     <row r="5">
       <c r="A5" s="11" t="s">
-        <v>251</v>
+        <v>267</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>252</v>
+        <v>268</v>
       </c>
       <c r="K5" s="8"/>
     </row>
     <row r="6">
       <c r="A6" s="11" t="s">
-        <v>253</v>
+        <v>269</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>254</v>
+        <v>270</v>
       </c>
       <c r="K6" s="8"/>
     </row>
     <row r="7">
       <c r="A7" s="11" t="s">
-        <v>255</v>
+        <v>271</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>256</v>
+        <v>272</v>
       </c>
       <c r="K7" s="8"/>
     </row>
     <row r="8">
       <c r="A8" s="11" t="s">
-        <v>257</v>
+        <v>273</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>258</v>
+        <v>274</v>
       </c>
       <c r="K8" s="8"/>
     </row>
     <row r="9">
       <c r="A9" s="11" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>260</v>
+        <v>276</v>
       </c>
       <c r="K9" s="8"/>
     </row>
     <row r="10">
       <c r="A10" s="11" t="s">
-        <v>261</v>
+        <v>277</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>262</v>
+        <v>278</v>
       </c>
       <c r="K10" s="8"/>
     </row>
@@ -12129,7 +12321,7 @@
     </row>
     <row r="12">
       <c r="A12" s="22" t="s">
-        <v>263</v>
+        <v>279</v>
       </c>
       <c r="K12" s="8"/>
     </row>
@@ -12139,236 +12331,236 @@
     </row>
     <row r="14">
       <c r="A14" s="23" t="s">
-        <v>264</v>
+        <v>280</v>
       </c>
       <c r="K14" s="8"/>
     </row>
     <row r="15">
       <c r="A15" s="11" t="s">
-        <v>265</v>
+        <v>281</v>
       </c>
       <c r="K15" s="8"/>
     </row>
     <row r="16">
       <c r="A16" s="24" t="s">
-        <v>266</v>
+        <v>282</v>
       </c>
       <c r="K16" s="8"/>
     </row>
     <row r="17">
       <c r="A17" s="11" t="s">
-        <v>267</v>
+        <v>283</v>
       </c>
       <c r="K17" s="8"/>
     </row>
     <row r="18">
       <c r="A18" s="11" t="s">
-        <v>268</v>
+        <v>284</v>
       </c>
       <c r="K18" s="8"/>
     </row>
     <row r="19">
       <c r="A19" s="11" t="s">
-        <v>269</v>
+        <v>285</v>
       </c>
       <c r="K19" s="8"/>
     </row>
     <row r="20">
       <c r="A20" s="24" t="s">
-        <v>270</v>
+        <v>286</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="24" t="s">
-        <v>271</v>
+        <v>287</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="24" t="s">
-        <v>272</v>
+        <v>288</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="24" t="s">
-        <v>273</v>
+        <v>289</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="24" t="s">
-        <v>274</v>
+        <v>290</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="24" t="s">
-        <v>275</v>
+        <v>291</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="24" t="s">
-        <v>276</v>
+        <v>292</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="24" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="5" t="s">
-        <v>278</v>
+        <v>294</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="5" t="s">
-        <v>279</v>
+        <v>295</v>
       </c>
       <c r="C30" s="6"/>
     </row>
     <row r="31">
       <c r="A31" s="6" t="s">
-        <v>280</v>
+        <v>296</v>
       </c>
       <c r="C31" s="6"/>
     </row>
     <row r="32">
       <c r="A32" s="6" t="s">
-        <v>281</v>
+        <v>297</v>
       </c>
       <c r="C32" s="6"/>
     </row>
     <row r="33">
       <c r="A33" s="5" t="s">
-        <v>282</v>
+        <v>298</v>
       </c>
       <c r="C33" s="6"/>
     </row>
     <row r="34">
       <c r="A34" s="6" t="s">
-        <v>283</v>
+        <v>299</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>284</v>
+        <v>300</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="6" t="s">
-        <v>285</v>
+        <v>301</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>286</v>
+        <v>302</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="5" t="s">
-        <v>287</v>
+        <v>303</v>
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
     </row>
     <row r="37">
       <c r="A37" s="6" t="s">
-        <v>288</v>
+        <v>304</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>289</v>
+        <v>305</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="6" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>291</v>
+        <v>307</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="5" t="s">
-        <v>292</v>
+        <v>308</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="6" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="6" t="s">
-        <v>294</v>
+        <v>310</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="5" t="s">
-        <v>295</v>
+        <v>311</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="6" t="s">
-        <v>296</v>
+        <v>312</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="6" t="s">
-        <v>297</v>
+        <v>313</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="5" t="s">
-        <v>298</v>
+        <v>314</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="6" t="s">
-        <v>299</v>
+        <v>315</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="6" t="s">
-        <v>300</v>
+        <v>316</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="5" t="s">
-        <v>301</v>
+        <v>317</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="6" t="s">
-        <v>302</v>
+        <v>318</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="6" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="5" t="s">
-        <v>304</v>
+        <v>320</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="6" t="s">
-        <v>305</v>
+        <v>321</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="6" t="s">
-        <v>306</v>
+        <v>322</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="5" t="s">
-        <v>307</v>
+        <v>323</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="6" t="s">
-        <v>308</v>
+        <v>324</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="6" t="s">
-        <v>309</v>
+        <v>325</v>
       </c>
     </row>
   </sheetData>
@@ -12474,10 +12666,10 @@
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
-        <v>310</v>
+        <v>326</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>310</v>
+        <v>326</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -12492,24 +12684,24 @@
     </row>
     <row r="4">
       <c r="A4" s="18" t="s">
-        <v>311</v>
+        <v>327</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>311</v>
+        <v>327</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>312</v>
+        <v>328</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="6" t="s">
-        <v>313</v>
+        <v>329</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
       <c r="J4" s="6" t="s">
-        <v>314</v>
+        <v>330</v>
       </c>
       <c r="K4" s="8">
         <v>45421.0</v>
@@ -12543,24 +12735,24 @@
     </row>
     <row r="5">
       <c r="A5" s="18" t="s">
-        <v>315</v>
+        <v>331</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>315</v>
+        <v>331</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>316</v>
+        <v>332</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="6" t="s">
-        <v>313</v>
+        <v>329</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
       <c r="J5" s="6" t="s">
-        <v>314</v>
+        <v>330</v>
       </c>
       <c r="K5" s="8">
         <v>45421.0</v>
@@ -12590,26 +12782,26 @@
     </row>
     <row r="6">
       <c r="A6" s="18" t="s">
-        <v>317</v>
+        <v>333</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>317</v>
+        <v>333</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>318</v>
+        <v>334</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>319</v>
+        <v>335</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>313</v>
+        <v>329</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
       <c r="J6" s="6" t="s">
-        <v>314</v>
+        <v>330</v>
       </c>
       <c r="K6" s="8">
         <v>45421.0</v>
@@ -12643,24 +12835,24 @@
     </row>
     <row r="7">
       <c r="A7" s="18" t="s">
-        <v>320</v>
+        <v>336</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>320</v>
+        <v>336</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>321</v>
+        <v>337</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="6" t="s">
-        <v>313</v>
+        <v>329</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
       <c r="J7" s="6" t="s">
-        <v>314</v>
+        <v>330</v>
       </c>
       <c r="K7" s="8">
         <v>45421.0</v>
@@ -12690,26 +12882,26 @@
     </row>
     <row r="8">
       <c r="A8" s="18" t="s">
-        <v>322</v>
+        <v>338</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>322</v>
+        <v>338</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>323</v>
+        <v>339</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>324</v>
+        <v>340</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>313</v>
+        <v>329</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
       <c r="J8" s="6" t="s">
-        <v>314</v>
+        <v>330</v>
       </c>
       <c r="K8" s="8">
         <v>45421.0</v>
@@ -12743,26 +12935,26 @@
     </row>
     <row r="9">
       <c r="A9" s="18" t="s">
-        <v>325</v>
+        <v>341</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>325</v>
+        <v>341</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>326</v>
+        <v>342</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="6" t="s">
-        <v>313</v>
+        <v>329</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="I9" s="6" t="s">
-        <v>327</v>
+        <v>343</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>314</v>
+        <v>330</v>
       </c>
       <c r="K9" s="8">
         <v>45421.0</v>
@@ -12796,24 +12988,24 @@
     </row>
     <row r="10">
       <c r="A10" s="21" t="s">
-        <v>328</v>
+        <v>344</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>328</v>
+        <v>344</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>329</v>
+        <v>345</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="6" t="s">
-        <v>313</v>
+        <v>329</v>
       </c>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
       <c r="J10" s="21" t="s">
-        <v>330</v>
+        <v>346</v>
       </c>
       <c r="K10" s="8">
         <v>45421.0</v>
@@ -12843,24 +13035,24 @@
     </row>
     <row r="11">
       <c r="A11" s="21" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="6" t="s">
-        <v>313</v>
+        <v>329</v>
       </c>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
       <c r="J11" s="11" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="K11" s="8">
         <v>45421.0</v>
@@ -12890,24 +13082,24 @@
     </row>
     <row r="12">
       <c r="A12" s="21" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>335</v>
+        <v>351</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="6" t="s">
-        <v>313</v>
+        <v>329</v>
       </c>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
       <c r="J12" s="11" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="K12" s="8">
         <v>45421.0</v>
@@ -12937,24 +13129,24 @@
     </row>
     <row r="13">
       <c r="A13" s="21" t="s">
-        <v>336</v>
+        <v>352</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>336</v>
+        <v>352</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>337</v>
+        <v>353</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="6" t="s">
-        <v>313</v>
+        <v>329</v>
       </c>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
       <c r="J13" s="11" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="K13" s="8">
         <v>45421.0</v>
@@ -12984,24 +13176,24 @@
     </row>
     <row r="14">
       <c r="A14" s="21" t="s">
-        <v>338</v>
+        <v>354</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>338</v>
+        <v>354</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>339</v>
+        <v>355</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="6" t="s">
-        <v>313</v>
+        <v>329</v>
       </c>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
       <c r="H14" s="11"/>
       <c r="I14" s="11"/>
       <c r="J14" s="11" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="K14" s="8">
         <v>45421.0</v>
@@ -13031,24 +13223,24 @@
     </row>
     <row r="15">
       <c r="A15" s="21" t="s">
-        <v>340</v>
+        <v>356</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>340</v>
+        <v>356</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>341</v>
+        <v>357</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="6" t="s">
-        <v>313</v>
+        <v>329</v>
       </c>
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
       <c r="H15" s="11"/>
       <c r="I15" s="11"/>
       <c r="J15" s="11" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="K15" s="8">
         <v>45421.0</v>
@@ -13078,24 +13270,24 @@
     </row>
     <row r="16">
       <c r="A16" s="21" t="s">
-        <v>342</v>
+        <v>358</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>342</v>
+        <v>358</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>343</v>
+        <v>359</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="6" t="s">
-        <v>313</v>
+        <v>329</v>
       </c>
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
       <c r="H16" s="11"/>
       <c r="I16" s="11"/>
       <c r="J16" s="11" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="K16" s="8">
         <v>45421.0</v>
@@ -13125,24 +13317,24 @@
     </row>
     <row r="17">
       <c r="A17" s="21" t="s">
-        <v>344</v>
+        <v>360</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>344</v>
+        <v>360</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>345</v>
+        <v>361</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="6" t="s">
-        <v>313</v>
+        <v>329</v>
       </c>
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
       <c r="H17" s="11"/>
       <c r="I17" s="11"/>
       <c r="J17" s="11" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="K17" s="8">
         <v>45421.0</v>
@@ -13172,26 +13364,26 @@
     </row>
     <row r="18">
       <c r="A18" s="6" t="s">
-        <v>346</v>
+        <v>362</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>346</v>
+        <v>362</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>347</v>
+        <v>363</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="6" t="s">
-        <v>313</v>
+        <v>329</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
       <c r="I18" s="6" t="s">
-        <v>348</v>
+        <v>364</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>314</v>
+        <v>330</v>
       </c>
       <c r="K18" s="8">
         <v>45421.0</v>
@@ -13221,26 +13413,26 @@
     </row>
     <row r="19">
       <c r="A19" s="6" t="s">
-        <v>349</v>
+        <v>365</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>349</v>
+        <v>365</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>350</v>
+        <v>366</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>351</v>
+        <v>367</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>313</v>
+        <v>329</v>
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
       <c r="J19" s="6" t="s">
-        <v>314</v>
+        <v>330</v>
       </c>
       <c r="K19" s="8">
         <v>45421.0</v>
@@ -13270,26 +13462,26 @@
     </row>
     <row r="20">
       <c r="A20" s="6" t="s">
-        <v>352</v>
+        <v>368</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>352</v>
+        <v>368</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>353</v>
+        <v>369</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>351</v>
+        <v>367</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>313</v>
+        <v>329</v>
       </c>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
       <c r="J20" s="6" t="s">
-        <v>314</v>
+        <v>330</v>
       </c>
       <c r="K20" s="8">
         <v>45421.0</v>
@@ -13319,26 +13511,26 @@
     </row>
     <row r="21">
       <c r="A21" s="6" t="s">
-        <v>354</v>
+        <v>370</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>355</v>
+        <v>371</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>356</v>
+        <v>372</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>351</v>
+        <v>367</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>313</v>
+        <v>329</v>
       </c>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
       <c r="J21" s="6" t="s">
-        <v>314</v>
+        <v>330</v>
       </c>
       <c r="K21" s="8">
         <v>45421.0</v>
@@ -13368,17 +13560,17 @@
     </row>
     <row r="22">
       <c r="A22" s="6" t="s">
-        <v>357</v>
+        <v>373</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>357</v>
+        <v>373</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>358</v>
+        <v>374</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="6" t="s">
-        <v>313</v>
+        <v>329</v>
       </c>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
@@ -13413,17 +13605,17 @@
     </row>
     <row r="23">
       <c r="A23" s="6" t="s">
-        <v>359</v>
+        <v>375</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>359</v>
+        <v>375</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>360</v>
+        <v>376</v>
       </c>
       <c r="D23" s="7"/>
       <c r="E23" s="6" t="s">
-        <v>313</v>
+        <v>329</v>
       </c>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
@@ -13458,23 +13650,23 @@
     </row>
     <row r="24">
       <c r="A24" s="6" t="s">
-        <v>361</v>
+        <v>377</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>361</v>
+        <v>377</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>362</v>
+        <v>378</v>
       </c>
       <c r="D24" s="7"/>
       <c r="E24" s="6" t="s">
-        <v>313</v>
+        <v>329</v>
       </c>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
       <c r="I24" s="6" t="s">
-        <v>363</v>
+        <v>379</v>
       </c>
       <c r="J24" s="7"/>
       <c r="K24" s="8">
@@ -13581,13 +13773,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="G1" s="12" t="s">
         <v>6</v>
@@ -13602,7 +13794,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="15" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="L1" s="16" t="s">
         <v>11</v>
@@ -13619,22 +13811,22 @@
     </row>
     <row r="2">
       <c r="A2" s="18" t="s">
-        <v>364</v>
+        <v>380</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>365</v>
+        <v>381</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>366</v>
+        <v>382</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>367</v>
+        <v>383</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>368</v>
+        <v>384</v>
       </c>
       <c r="G2" s="26"/>
       <c r="H2" s="26"/>
@@ -13667,22 +13859,22 @@
     </row>
     <row r="3">
       <c r="A3" s="18" t="s">
-        <v>369</v>
+        <v>385</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>370</v>
+        <v>386</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>371</v>
+        <v>387</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E3" s="25" t="s">
-        <v>319</v>
+        <v>335</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>368</v>
+        <v>384</v>
       </c>
       <c r="G3" s="26"/>
       <c r="H3" s="26"/>
@@ -13715,22 +13907,22 @@
     </row>
     <row r="4">
       <c r="A4" s="18" t="s">
-        <v>372</v>
+        <v>388</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>373</v>
+        <v>389</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>374</v>
+        <v>390</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E4" s="25" t="s">
-        <v>375</v>
+        <v>391</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>368</v>
+        <v>384</v>
       </c>
       <c r="G4" s="26"/>
       <c r="H4" s="26"/>
@@ -13763,22 +13955,22 @@
     </row>
     <row r="5">
       <c r="A5" s="18" t="s">
-        <v>376</v>
+        <v>392</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>377</v>
+        <v>393</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>378</v>
+        <v>394</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>324</v>
+        <v>340</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>368</v>
+        <v>384</v>
       </c>
       <c r="G5" s="26"/>
       <c r="H5" s="26"/>
@@ -13811,22 +14003,22 @@
     </row>
     <row r="6">
       <c r="A6" s="18" t="s">
-        <v>379</v>
+        <v>395</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>380</v>
+        <v>396</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>381</v>
+        <v>397</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>382</v>
+        <v>398</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>368</v>
+        <v>384</v>
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
@@ -13859,22 +14051,22 @@
     </row>
     <row r="7">
       <c r="A7" s="18" t="s">
-        <v>383</v>
+        <v>399</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>384</v>
+        <v>400</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>385</v>
+        <v>401</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>386</v>
+        <v>402</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>368</v>
+        <v>384</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
@@ -13907,22 +14099,22 @@
     </row>
     <row r="8">
       <c r="A8" s="21" t="s">
-        <v>387</v>
+        <v>403</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>388</v>
+        <v>404</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>389</v>
+        <v>405</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>390</v>
+        <v>406</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>368</v>
+        <v>384</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
@@ -13955,22 +14147,22 @@
     </row>
     <row r="9">
       <c r="A9" s="21" t="s">
-        <v>391</v>
+        <v>407</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>392</v>
+        <v>408</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>393</v>
+        <v>409</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>394</v>
+        <v>410</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>368</v>
+        <v>384</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
@@ -14003,22 +14195,22 @@
     </row>
     <row r="10">
       <c r="A10" s="21" t="s">
-        <v>395</v>
+        <v>411</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>396</v>
+        <v>412</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>397</v>
+        <v>413</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>398</v>
+        <v>414</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>368</v>
+        <v>384</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
@@ -14051,22 +14243,22 @@
     </row>
     <row r="11">
       <c r="A11" s="21" t="s">
-        <v>399</v>
+        <v>415</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>400</v>
+        <v>416</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>401</v>
+        <v>417</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>402</v>
+        <v>418</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>368</v>
+        <v>384</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
@@ -14099,22 +14291,22 @@
     </row>
     <row r="12">
       <c r="A12" s="21" t="s">
-        <v>403</v>
+        <v>419</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>404</v>
+        <v>420</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>405</v>
+        <v>421</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>406</v>
+        <v>422</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>368</v>
+        <v>384</v>
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
@@ -14147,22 +14339,22 @@
     </row>
     <row r="13">
       <c r="A13" s="21" t="s">
-        <v>407</v>
+        <v>423</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>408</v>
+        <v>424</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>409</v>
+        <v>425</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>410</v>
+        <v>426</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>368</v>
+        <v>384</v>
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
@@ -14195,22 +14387,22 @@
     </row>
     <row r="14">
       <c r="A14" s="21" t="s">
-        <v>411</v>
+        <v>427</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>412</v>
+        <v>428</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>413</v>
+        <v>429</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>414</v>
+        <v>430</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>368</v>
+        <v>384</v>
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
@@ -14243,22 +14435,22 @@
     </row>
     <row r="15">
       <c r="A15" s="21" t="s">
-        <v>415</v>
+        <v>431</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>416</v>
+        <v>432</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>417</v>
+        <v>433</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>418</v>
+        <v>434</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>368</v>
+        <v>384</v>
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
@@ -14291,22 +14483,22 @@
     </row>
     <row r="16">
       <c r="A16" s="6" t="s">
-        <v>419</v>
+        <v>435</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>420</v>
+        <v>436</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>421</v>
+        <v>437</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>351</v>
+        <v>367</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>368</v>
+        <v>384</v>
       </c>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
@@ -14339,22 +14531,22 @@
     </row>
     <row r="17">
       <c r="A17" s="6" t="s">
-        <v>422</v>
+        <v>438</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>423</v>
+        <v>439</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>424</v>
+        <v>440</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>425</v>
+        <v>441</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>368</v>
+        <v>384</v>
       </c>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
@@ -14387,22 +14579,22 @@
     </row>
     <row r="18">
       <c r="A18" s="6" t="s">
-        <v>426</v>
+        <v>442</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>427</v>
+        <v>443</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>428</v>
+        <v>444</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>429</v>
+        <v>445</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>368</v>
+        <v>384</v>
       </c>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
@@ -14435,22 +14627,22 @@
     </row>
     <row r="19">
       <c r="A19" s="6" t="s">
-        <v>430</v>
+        <v>446</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>431</v>
+        <v>447</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>432</v>
+        <v>448</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>433</v>
+        <v>449</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>368</v>
+        <v>384</v>
       </c>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
@@ -14598,10 +14790,10 @@
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
-        <v>310</v>
+        <v>326</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>310</v>
+        <v>326</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -14616,17 +14808,17 @@
     </row>
     <row r="4">
       <c r="A4" s="18" t="s">
-        <v>434</v>
+        <v>450</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>434</v>
+        <v>450</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>435</v>
+        <v>451</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="6" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -14663,17 +14855,17 @@
     </row>
     <row r="5">
       <c r="A5" s="18" t="s">
-        <v>436</v>
+        <v>452</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>436</v>
+        <v>452</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>437</v>
+        <v>453</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="6" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -14708,17 +14900,17 @@
     </row>
     <row r="6">
       <c r="A6" s="18" t="s">
-        <v>438</v>
+        <v>454</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>438</v>
+        <v>454</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>439</v>
+        <v>455</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="6" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -14755,17 +14947,17 @@
     </row>
     <row r="7">
       <c r="A7" s="18" t="s">
-        <v>440</v>
+        <v>456</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>440</v>
+        <v>456</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>441</v>
+        <v>457</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="6" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -14800,17 +14992,17 @@
     </row>
     <row r="8">
       <c r="A8" s="18" t="s">
-        <v>442</v>
+        <v>458</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>442</v>
+        <v>458</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>443</v>
+        <v>459</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="6" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
@@ -14845,19 +15037,19 @@
     </row>
     <row r="9">
       <c r="A9" s="18" t="s">
-        <v>444</v>
+        <v>460</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>445</v>
+        <v>461</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>446</v>
+        <v>462</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>447</v>
+        <v>463</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
@@ -14892,19 +15084,19 @@
     </row>
     <row r="10">
       <c r="A10" s="21" t="s">
-        <v>448</v>
+        <v>464</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>449</v>
+        <v>465</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>450</v>
+        <v>466</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>447</v>
+        <v>463</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
@@ -14969,7 +15161,7 @@
     </row>
     <row r="12">
       <c r="A12" s="21" t="s">
-        <v>451</v>
+        <v>467</v>
       </c>
       <c r="B12" s="21"/>
       <c r="C12" s="11"/>
@@ -15001,7 +15193,7 @@
     </row>
     <row r="13">
       <c r="A13" s="21" t="s">
-        <v>452</v>
+        <v>468</v>
       </c>
       <c r="B13" s="21"/>
       <c r="C13" s="11"/>
@@ -15253,10 +15445,10 @@
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
-        <v>310</v>
+        <v>326</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>310</v>
+        <v>326</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -15265,13 +15457,13 @@
     </row>
     <row r="3">
       <c r="A3" s="6" t="s">
-        <v>453</v>
+        <v>469</v>
       </c>
       <c r="K3" s="8"/>
     </row>
     <row r="4">
       <c r="A4" s="18" t="s">
-        <v>454</v>
+        <v>470</v>
       </c>
       <c r="B4" s="18"/>
       <c r="C4" s="18"/>
@@ -15282,7 +15474,7 @@
     </row>
     <row r="5">
       <c r="A5" s="18" t="s">
-        <v>455</v>
+        <v>471</v>
       </c>
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
@@ -15291,16 +15483,16 @@
     </row>
     <row r="6">
       <c r="A6" s="18" t="s">
-        <v>456</v>
+        <v>472</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>457</v>
+        <v>473</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>458</v>
+        <v>474</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>453</v>
+        <v>469</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>25</v>
@@ -15338,16 +15530,16 @@
     </row>
     <row r="7">
       <c r="A7" s="18" t="s">
-        <v>459</v>
+        <v>475</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>460</v>
+        <v>476</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>461</v>
+        <v>477</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>462</v>
+        <v>478</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>25</v>
@@ -15387,17 +15579,17 @@
     </row>
     <row r="8">
       <c r="A8" s="18" t="s">
-        <v>463</v>
+        <v>479</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>464</v>
+        <v>480</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>465</v>
+        <v>481</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="6" t="s">
-        <v>466</v>
+        <v>482</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
@@ -15432,17 +15624,17 @@
     </row>
     <row r="9">
       <c r="A9" s="18" t="s">
-        <v>467</v>
+        <v>483</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>468</v>
+        <v>484</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>469</v>
+        <v>485</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="6" t="s">
-        <v>466</v>
+        <v>482</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
@@ -15477,16 +15669,16 @@
     </row>
     <row r="10">
       <c r="A10" s="21" t="s">
-        <v>470</v>
+        <v>486</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>471</v>
+        <v>487</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>472</v>
+        <v>488</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>462</v>
+        <v>478</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>25</v>
@@ -15524,17 +15716,17 @@
     </row>
     <row r="11">
       <c r="A11" s="21" t="s">
-        <v>473</v>
+        <v>489</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>473</v>
+        <v>489</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>474</v>
+        <v>490</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="6" t="s">
-        <v>475</v>
+        <v>491</v>
       </c>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
@@ -15569,17 +15761,17 @@
     </row>
     <row r="12">
       <c r="A12" s="21" t="s">
-        <v>476</v>
+        <v>492</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>477</v>
+        <v>493</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>478</v>
+        <v>494</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="6" t="s">
-        <v>475</v>
+        <v>491</v>
       </c>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
@@ -15614,16 +15806,16 @@
     </row>
     <row r="13">
       <c r="A13" s="6" t="s">
-        <v>479</v>
+        <v>495</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>480</v>
+        <v>496</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>481</v>
+        <v>497</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>462</v>
+        <v>478</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>25</v>

--- a/code/vocab_csv/tech.xlsx
+++ b/code/vocab_csv/tech.xlsx
@@ -3,21 +3,21 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="tech-core" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="tech-core-properties" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="tech-io" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="tech-provision" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="tech-lifecycle" sheetId="5" r:id="rId8"/>
-    <sheet state="visible" name="tech-actors" sheetId="6" r:id="rId9"/>
-    <sheet state="visible" name="tech-actors-properties" sheetId="7" r:id="rId10"/>
-    <sheet state="visible" name="tech-docs" sheetId="8" r:id="rId11"/>
-    <sheet state="visible" name="tech-status" sheetId="9" r:id="rId12"/>
-    <sheet state="visible" name="tech-status-properties" sheetId="10" r:id="rId13"/>
-    <sheet state="visible" name="tech-comms" sheetId="11" r:id="rId14"/>
-    <sheet state="visible" name="tech-tools" sheetId="12" r:id="rId15"/>
-    <sheet state="visible" name="tech-tools-properties" sheetId="13" r:id="rId16"/>
-    <sheet state="visible" name="tech-algorithms" sheetId="14" r:id="rId17"/>
-    <sheet state="visible" name="donotuse_removed" sheetId="15" r:id="rId18"/>
+    <sheet state="visible" name="tech-core" sheetId="1" r:id="rId5"/>
+    <sheet state="visible" name="tech-core-properties" sheetId="2" r:id="rId6"/>
+    <sheet state="visible" name="tech-io" sheetId="3" r:id="rId7"/>
+    <sheet state="visible" name="tech-provision" sheetId="4" r:id="rId8"/>
+    <sheet state="visible" name="tech-lifecycle" sheetId="5" r:id="rId9"/>
+    <sheet state="visible" name="tech-actors" sheetId="6" r:id="rId10"/>
+    <sheet state="visible" name="tech-actors-properties" sheetId="7" r:id="rId11"/>
+    <sheet state="visible" name="tech-docs" sheetId="8" r:id="rId12"/>
+    <sheet state="visible" name="tech-status" sheetId="9" r:id="rId13"/>
+    <sheet state="visible" name="tech-status-properties" sheetId="10" r:id="rId14"/>
+    <sheet state="visible" name="tech-comms" sheetId="11" r:id="rId15"/>
+    <sheet state="visible" name="tech-tools" sheetId="12" r:id="rId16"/>
+    <sheet state="visible" name="tech-tools-properties" sheetId="13" r:id="rId17"/>
+    <sheet state="visible" name="tech-algorithms" sheetId="14" r:id="rId18"/>
+    <sheet state="visible" name="donotuse_removed" sheetId="15" r:id="rId19"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1873" uniqueCount="811">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1888" uniqueCount="820">
   <si>
     <t>Term</t>
   </si>
@@ -1930,6 +1930,33 @@
   </si>
   <si>
     <t>An opinionated collection of functions and architecture design choices for building applications</t>
+  </si>
+  <si>
+    <t>SoftwareAgent</t>
+  </si>
+  <si>
+    <t>Software Agent</t>
+  </si>
+  <si>
+    <t>A software that acts on behalf of another Entity or technology</t>
+  </si>
+  <si>
+    <t>tech:Software,dpv:Agent</t>
+  </si>
+  <si>
+    <t>UserAgent</t>
+  </si>
+  <si>
+    <t>User-Agent</t>
+  </si>
+  <si>
+    <t>A software agent that represents a person (i.e. a human)</t>
+  </si>
+  <si>
+    <t>tech:SoftwareAgent</t>
+  </si>
+  <si>
+    <t>User Agent as defined here specifically represents software agents that represent humans, whether directly or indirectly, based on the well-defined use of this term in Web interactions. Software that is not representing a human but which acts or declares itself as a user agent is termed as 'user agent spoofing' (see https://developer.mozilla.org/en-US/docs/Glossary/User_agent)</t>
   </si>
   <si>
     <t>hasSystem</t>
@@ -2955,6 +2982,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<x18tc:personList xmlns:x18tc="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
@@ -6616,6 +6647,104 @@
       <c r="AC46" s="7"/>
       <c r="AD46" s="7"/>
     </row>
+    <row r="48">
+      <c r="A48" s="6" t="s">
+        <v>635</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>636</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>637</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>638</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="7"/>
+      <c r="K48" s="8">
+        <v>45958.0</v>
+      </c>
+      <c r="L48" s="7"/>
+      <c r="M48" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N48" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="O48" s="7"/>
+      <c r="P48" s="7"/>
+      <c r="Q48" s="7"/>
+      <c r="R48" s="7"/>
+      <c r="S48" s="7"/>
+      <c r="T48" s="7"/>
+      <c r="U48" s="7"/>
+      <c r="V48" s="7"/>
+      <c r="W48" s="7"/>
+      <c r="X48" s="7"/>
+      <c r="Y48" s="7"/>
+      <c r="Z48" s="7"/>
+      <c r="AA48" s="7"/>
+      <c r="AB48" s="7"/>
+      <c r="AC48" s="7"/>
+      <c r="AD48" s="7"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="6" t="s">
+        <v>639</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>640</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>641</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>642</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="6" t="s">
+        <v>643</v>
+      </c>
+      <c r="J49" s="7"/>
+      <c r="K49" s="8">
+        <v>45958.0</v>
+      </c>
+      <c r="L49" s="7"/>
+      <c r="M49" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N49" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="O49" s="7"/>
+      <c r="P49" s="7"/>
+      <c r="Q49" s="7"/>
+      <c r="R49" s="7"/>
+      <c r="S49" s="7"/>
+      <c r="T49" s="7"/>
+      <c r="U49" s="7"/>
+      <c r="V49" s="7"/>
+      <c r="W49" s="7"/>
+      <c r="X49" s="7"/>
+      <c r="Y49" s="7"/>
+      <c r="Z49" s="7"/>
+      <c r="AA49" s="7"/>
+      <c r="AB49" s="7"/>
+      <c r="AC49" s="7"/>
+      <c r="AD49" s="7"/>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="B39:B40">
     <cfRule type="expression" dxfId="2" priority="1">
@@ -6736,19 +6865,19 @@
     </row>
     <row r="2">
       <c r="A2" s="18" t="s">
-        <v>635</v>
+        <v>644</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>636</v>
+        <v>645</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>637</v>
+        <v>646</v>
       </c>
       <c r="D2" s="34" t="s">
         <v>16</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>638</v>
+        <v>647</v>
       </c>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
@@ -6784,19 +6913,19 @@
     </row>
     <row r="3">
       <c r="A3" s="18" t="s">
-        <v>639</v>
+        <v>648</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>641</v>
+        <v>650</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>642</v>
+        <v>651</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>643</v>
+        <v>652</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
@@ -6832,19 +6961,19 @@
     </row>
     <row r="4">
       <c r="A4" s="18" t="s">
-        <v>644</v>
+        <v>653</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>645</v>
+        <v>654</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>646</v>
+        <v>655</v>
       </c>
       <c r="D4" s="34" t="s">
-        <v>643</v>
+        <v>652</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>642</v>
+        <v>651</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -6880,13 +7009,13 @@
     </row>
     <row r="5">
       <c r="A5" s="18" t="s">
-        <v>647</v>
+        <v>656</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>648</v>
+        <v>657</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>649</v>
+        <v>658</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>16</v>
@@ -6928,19 +7057,19 @@
     </row>
     <row r="6">
       <c r="A6" s="18" t="s">
-        <v>650</v>
+        <v>659</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>651</v>
+        <v>660</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>652</v>
+        <v>661</v>
       </c>
       <c r="D6" s="34" t="s">
         <v>16</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>653</v>
+        <v>662</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -6976,13 +7105,13 @@
     </row>
     <row r="7">
       <c r="A7" s="18" t="s">
-        <v>654</v>
+        <v>663</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>655</v>
+        <v>664</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>656</v>
+        <v>665</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>16</v>
@@ -6991,7 +7120,7 @@
         <v>577</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>657</v>
+        <v>666</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
@@ -7026,13 +7155,13 @@
     </row>
     <row r="8">
       <c r="A8" s="18" t="s">
-        <v>658</v>
+        <v>667</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>659</v>
+        <v>668</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>660</v>
+        <v>669</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>16</v>
@@ -7074,13 +7203,13 @@
     </row>
     <row r="9">
       <c r="A9" s="18" t="s">
-        <v>661</v>
+        <v>670</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>662</v>
+        <v>671</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>663</v>
+        <v>672</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>16</v>
@@ -7122,13 +7251,13 @@
     </row>
     <row r="10">
       <c r="A10" s="18" t="s">
-        <v>664</v>
+        <v>673</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>665</v>
+        <v>674</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>666</v>
+        <v>675</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>16</v>
@@ -7170,19 +7299,19 @@
     </row>
     <row r="11">
       <c r="A11" s="6" t="s">
-        <v>667</v>
+        <v>676</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>668</v>
+        <v>677</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>669</v>
+        <v>678</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>670</v>
+        <v>679</v>
       </c>
       <c r="K11" s="19">
         <v>45627.0</v>
@@ -7197,19 +7326,19 @@
     </row>
     <row r="12">
       <c r="A12" s="18" t="s">
-        <v>671</v>
+        <v>680</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>672</v>
+        <v>681</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>673</v>
+        <v>682</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>674</v>
+        <v>683</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
@@ -7245,19 +7374,19 @@
     </row>
     <row r="13">
       <c r="A13" s="6" t="s">
-        <v>675</v>
+        <v>684</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>676</v>
+        <v>685</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>677</v>
+        <v>686</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>678</v>
+        <v>687</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
@@ -7293,19 +7422,19 @@
     </row>
     <row r="14">
       <c r="A14" s="6" t="s">
-        <v>679</v>
+        <v>688</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>680</v>
+        <v>689</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>681</v>
+        <v>690</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>682</v>
+        <v>691</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
@@ -7479,27 +7608,27 @@
     </row>
     <row r="2">
       <c r="A2" s="6" t="s">
-        <v>683</v>
+        <v>692</v>
       </c>
       <c r="B2" s="5"/>
       <c r="J2" s="10" t="s">
-        <v>684</v>
+        <v>693</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="6" t="s">
-        <v>685</v>
+        <v>694</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>686</v>
+        <v>695</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="6" t="s">
-        <v>687</v>
+        <v>696</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>688</v>
+        <v>697</v>
       </c>
     </row>
     <row r="6">
@@ -7994,26 +8123,26 @@
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
-        <v>689</v>
+        <v>698</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>689</v>
+        <v>698</v>
       </c>
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
     </row>
     <row r="3">
       <c r="A3" s="6" t="s">
-        <v>690</v>
+        <v>699</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>691</v>
+        <v>700</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>692</v>
+        <v>701</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>693</v>
+        <v>702</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>16</v>
@@ -8023,7 +8152,7 @@
       </c>
       <c r="L3" s="8"/>
       <c r="M3" s="6" t="s">
-        <v>694</v>
+        <v>703</v>
       </c>
       <c r="N3" s="6" t="s">
         <v>39</v>
@@ -8034,16 +8163,16 @@
     </row>
     <row r="4">
       <c r="A4" s="6" t="s">
-        <v>695</v>
+        <v>704</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>696</v>
+        <v>705</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>697</v>
+        <v>706</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>693</v>
+        <v>702</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>16</v>
@@ -8053,7 +8182,7 @@
       </c>
       <c r="L4" s="8"/>
       <c r="M4" s="6" t="s">
-        <v>694</v>
+        <v>703</v>
       </c>
       <c r="N4" s="6" t="s">
         <v>39</v>
@@ -8064,16 +8193,16 @@
     </row>
     <row r="5">
       <c r="A5" s="6" t="s">
-        <v>698</v>
+        <v>707</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>699</v>
+        <v>708</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>700</v>
+        <v>709</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>693</v>
+        <v>702</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>16</v>
@@ -8083,7 +8212,7 @@
       </c>
       <c r="L5" s="8"/>
       <c r="M5" s="6" t="s">
-        <v>694</v>
+        <v>703</v>
       </c>
       <c r="N5" s="6" t="s">
         <v>39</v>
@@ -8094,16 +8223,16 @@
     </row>
     <row r="6">
       <c r="A6" s="6" t="s">
-        <v>701</v>
+        <v>710</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>711</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>712</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>702</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>703</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>693</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>16</v>
@@ -8113,7 +8242,7 @@
       </c>
       <c r="L6" s="8"/>
       <c r="M6" s="6" t="s">
-        <v>694</v>
+        <v>703</v>
       </c>
       <c r="N6" s="6" t="s">
         <v>39</v>
@@ -8124,16 +8253,16 @@
     </row>
     <row r="7">
       <c r="A7" s="6" t="s">
-        <v>704</v>
+        <v>713</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>705</v>
+        <v>714</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>706</v>
+        <v>715</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>693</v>
+        <v>702</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>16</v>
@@ -8143,7 +8272,7 @@
       </c>
       <c r="L7" s="8"/>
       <c r="M7" s="6" t="s">
-        <v>694</v>
+        <v>703</v>
       </c>
       <c r="N7" s="6" t="s">
         <v>39</v>
@@ -8154,16 +8283,16 @@
     </row>
     <row r="8">
       <c r="A8" s="6" t="s">
-        <v>707</v>
+        <v>716</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>708</v>
+        <v>717</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>709</v>
+        <v>718</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>693</v>
+        <v>702</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>16</v>
@@ -8173,7 +8302,7 @@
       </c>
       <c r="L8" s="8"/>
       <c r="M8" s="6" t="s">
-        <v>694</v>
+        <v>703</v>
       </c>
       <c r="N8" s="6" t="s">
         <v>39</v>
@@ -8184,16 +8313,16 @@
     </row>
     <row r="9">
       <c r="A9" s="6" t="s">
-        <v>710</v>
+        <v>719</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>711</v>
+        <v>720</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>712</v>
+        <v>721</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>693</v>
+        <v>702</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>16</v>
@@ -8203,7 +8332,7 @@
       </c>
       <c r="L9" s="8"/>
       <c r="M9" s="6" t="s">
-        <v>694</v>
+        <v>703</v>
       </c>
       <c r="N9" s="6" t="s">
         <v>39</v>
@@ -8214,16 +8343,16 @@
     </row>
     <row r="10">
       <c r="A10" s="6" t="s">
-        <v>713</v>
+        <v>722</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>714</v>
+        <v>723</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>715</v>
+        <v>724</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>693</v>
+        <v>702</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>16</v>
@@ -8233,7 +8362,7 @@
       </c>
       <c r="L10" s="8"/>
       <c r="M10" s="6" t="s">
-        <v>694</v>
+        <v>703</v>
       </c>
       <c r="N10" s="6" t="s">
         <v>39</v>
@@ -8244,16 +8373,16 @@
     </row>
     <row r="11">
       <c r="A11" s="6" t="s">
-        <v>716</v>
+        <v>725</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>717</v>
+        <v>726</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>718</v>
+        <v>727</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>693</v>
+        <v>702</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>16</v>
@@ -8263,7 +8392,7 @@
       </c>
       <c r="L11" s="8"/>
       <c r="M11" s="6" t="s">
-        <v>694</v>
+        <v>703</v>
       </c>
       <c r="N11" s="6" t="s">
         <v>39</v>
@@ -8274,16 +8403,16 @@
     </row>
     <row r="12">
       <c r="A12" s="6" t="s">
-        <v>719</v>
+        <v>728</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>720</v>
+        <v>729</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>721</v>
+        <v>730</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>722</v>
+        <v>731</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>16</v>
@@ -8293,7 +8422,7 @@
       </c>
       <c r="L12" s="8"/>
       <c r="M12" s="6" t="s">
-        <v>694</v>
+        <v>703</v>
       </c>
       <c r="N12" s="6" t="s">
         <v>39</v>
@@ -8304,16 +8433,16 @@
     </row>
     <row r="13">
       <c r="A13" s="6" t="s">
-        <v>723</v>
+        <v>732</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>724</v>
+        <v>733</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>725</v>
+        <v>734</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>726</v>
+        <v>735</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>16</v>
@@ -8322,7 +8451,7 @@
         <v>44727.0</v>
       </c>
       <c r="M13" s="6" t="s">
-        <v>694</v>
+        <v>703</v>
       </c>
       <c r="N13" s="6" t="s">
         <v>39</v>
@@ -8333,16 +8462,16 @@
     </row>
     <row r="14">
       <c r="A14" s="24" t="s">
-        <v>727</v>
+        <v>736</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>728</v>
+        <v>737</v>
       </c>
       <c r="C14" s="48" t="s">
-        <v>729</v>
+        <v>738</v>
       </c>
       <c r="D14" s="49" t="s">
-        <v>693</v>
+        <v>702</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>16</v>
@@ -8352,12 +8481,12 @@
       <c r="H14" s="11"/>
       <c r="I14" s="11"/>
       <c r="J14" s="24" t="s">
-        <v>730</v>
+        <v>739</v>
       </c>
       <c r="K14" s="11"/>
       <c r="L14" s="11"/>
       <c r="M14" s="6" t="s">
-        <v>694</v>
+        <v>703</v>
       </c>
       <c r="N14" s="11"/>
       <c r="O14" s="11"/>
@@ -8380,18 +8509,18 @@
     </row>
     <row r="16">
       <c r="A16" s="5" t="s">
-        <v>731</v>
+        <v>740</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="6" t="s">
-        <v>732</v>
+        <v>741</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>733</v>
+        <v>742</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>734</v>
+        <v>743</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>16</v>
@@ -8400,7 +8529,7 @@
         <v>44727.0</v>
       </c>
       <c r="M17" s="6" t="s">
-        <v>694</v>
+        <v>703</v>
       </c>
       <c r="N17" s="6" t="s">
         <v>39</v>
@@ -8411,13 +8540,13 @@
     </row>
     <row r="18">
       <c r="A18" s="6" t="s">
-        <v>735</v>
+        <v>744</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>736</v>
+        <v>745</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>737</v>
+        <v>746</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>16</v>
@@ -8427,7 +8556,7 @@
       </c>
       <c r="L18" s="8"/>
       <c r="M18" s="6" t="s">
-        <v>694</v>
+        <v>703</v>
       </c>
       <c r="N18" s="6" t="s">
         <v>39</v>
@@ -8438,13 +8567,13 @@
     </row>
     <row r="19">
       <c r="A19" s="6" t="s">
-        <v>738</v>
+        <v>747</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>739</v>
+        <v>748</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>740</v>
+        <v>749</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>16</v>
@@ -8454,7 +8583,7 @@
       </c>
       <c r="L19" s="8"/>
       <c r="M19" s="6" t="s">
-        <v>694</v>
+        <v>703</v>
       </c>
       <c r="N19" s="6" t="s">
         <v>39</v>
@@ -8465,13 +8594,13 @@
     </row>
     <row r="20">
       <c r="A20" s="6" t="s">
-        <v>741</v>
+        <v>750</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>742</v>
+        <v>751</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>743</v>
+        <v>752</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>16</v>
@@ -8481,7 +8610,7 @@
       </c>
       <c r="L20" s="8"/>
       <c r="M20" s="6" t="s">
-        <v>694</v>
+        <v>703</v>
       </c>
       <c r="N20" s="6" t="s">
         <v>39</v>
@@ -8492,13 +8621,13 @@
     </row>
     <row r="21">
       <c r="A21" s="6" t="s">
-        <v>744</v>
+        <v>753</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>745</v>
+        <v>754</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>746</v>
+        <v>755</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>16</v>
@@ -8508,7 +8637,7 @@
       </c>
       <c r="L21" s="8"/>
       <c r="M21" s="6" t="s">
-        <v>694</v>
+        <v>703</v>
       </c>
       <c r="N21" s="6" t="s">
         <v>39</v>
@@ -8519,13 +8648,13 @@
     </row>
     <row r="22">
       <c r="A22" s="6" t="s">
-        <v>747</v>
+        <v>756</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>748</v>
+        <v>757</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>749</v>
+        <v>758</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>16</v>
@@ -8535,7 +8664,7 @@
       </c>
       <c r="L22" s="8"/>
       <c r="M22" s="6" t="s">
-        <v>694</v>
+        <v>703</v>
       </c>
       <c r="N22" s="6" t="s">
         <v>39</v>
@@ -8546,10 +8675,10 @@
     </row>
     <row r="24">
       <c r="A24" s="5" t="s">
-        <v>750</v>
+        <v>759</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>750</v>
+        <v>759</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="30"/>
@@ -8558,16 +8687,16 @@
     </row>
     <row r="25">
       <c r="A25" s="6" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>752</v>
+        <v>761</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>753</v>
+        <v>762</v>
       </c>
       <c r="D25" s="30" t="s">
-        <v>754</v>
+        <v>763</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>16</v>
@@ -8576,7 +8705,7 @@
         <v>44727.0</v>
       </c>
       <c r="M25" s="6" t="s">
-        <v>694</v>
+        <v>703</v>
       </c>
       <c r="N25" s="6" t="s">
         <v>39</v>
@@ -8587,16 +8716,16 @@
     </row>
     <row r="26">
       <c r="A26" s="6" t="s">
-        <v>755</v>
+        <v>764</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>756</v>
+        <v>765</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>757</v>
+        <v>766</v>
       </c>
       <c r="D26" s="30" t="s">
-        <v>754</v>
+        <v>763</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>16</v>
@@ -8605,7 +8734,7 @@
         <v>44727.0</v>
       </c>
       <c r="M26" s="6" t="s">
-        <v>694</v>
+        <v>703</v>
       </c>
       <c r="N26" s="6" t="s">
         <v>39</v>
@@ -8616,16 +8745,16 @@
     </row>
     <row r="27">
       <c r="A27" s="6" t="s">
-        <v>758</v>
+        <v>767</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>759</v>
+        <v>768</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>760</v>
+        <v>769</v>
       </c>
       <c r="D27" s="30" t="s">
-        <v>754</v>
+        <v>763</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>16</v>
@@ -8634,7 +8763,7 @@
         <v>44727.0</v>
       </c>
       <c r="M27" s="6" t="s">
-        <v>694</v>
+        <v>703</v>
       </c>
       <c r="N27" s="6" t="s">
         <v>39</v>
@@ -8651,10 +8780,10 @@
         <v>546</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>761</v>
+        <v>770</v>
       </c>
       <c r="D28" s="30" t="s">
-        <v>754</v>
+        <v>763</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>16</v>
@@ -8663,7 +8792,7 @@
         <v>44727.0</v>
       </c>
       <c r="M28" s="6" t="s">
-        <v>694</v>
+        <v>703</v>
       </c>
       <c r="N28" s="6" t="s">
         <v>39</v>
@@ -8674,10 +8803,10 @@
     </row>
     <row r="30">
       <c r="A30" s="5" t="s">
-        <v>762</v>
+        <v>771</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>762</v>
+        <v>771</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
@@ -8708,16 +8837,16 @@
     </row>
     <row r="31">
       <c r="A31" s="6" t="s">
-        <v>763</v>
+        <v>772</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>764</v>
+        <v>773</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>765</v>
+        <v>774</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>766</v>
+        <v>775</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>16</v>
@@ -8726,10 +8855,10 @@
         <v>44727.0</v>
       </c>
       <c r="M31" s="6" t="s">
-        <v>694</v>
+        <v>703</v>
       </c>
       <c r="N31" s="6" t="s">
-        <v>767</v>
+        <v>776</v>
       </c>
       <c r="O31" s="9" t="s">
         <v>28</v>
@@ -8737,16 +8866,16 @@
     </row>
     <row r="32">
       <c r="A32" s="6" t="s">
-        <v>768</v>
+        <v>777</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>769</v>
+        <v>778</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>770</v>
+        <v>779</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>766</v>
+        <v>775</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>16</v>
@@ -8755,10 +8884,10 @@
         <v>44727.0</v>
       </c>
       <c r="M32" s="6" t="s">
-        <v>694</v>
+        <v>703</v>
       </c>
       <c r="N32" s="6" t="s">
-        <v>767</v>
+        <v>776</v>
       </c>
       <c r="O32" s="9" t="s">
         <v>28</v>
@@ -8766,16 +8895,16 @@
     </row>
     <row r="33">
       <c r="A33" s="6" t="s">
-        <v>771</v>
+        <v>780</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>772</v>
+        <v>781</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>773</v>
+        <v>782</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>766</v>
+        <v>775</v>
       </c>
       <c r="E33" s="6" t="s">
         <v>16</v>
@@ -8784,10 +8913,10 @@
         <v>44727.0</v>
       </c>
       <c r="M33" s="6" t="s">
-        <v>694</v>
+        <v>703</v>
       </c>
       <c r="N33" s="6" t="s">
-        <v>767</v>
+        <v>776</v>
       </c>
       <c r="O33" s="9" t="s">
         <v>28</v>
@@ -8795,16 +8924,16 @@
     </row>
     <row r="34">
       <c r="A34" s="6" t="s">
-        <v>774</v>
+        <v>783</v>
       </c>
       <c r="B34" s="6" t="s">
+        <v>784</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>785</v>
+      </c>
+      <c r="D34" s="6" t="s">
         <v>775</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>776</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>766</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>16</v>
@@ -8813,10 +8942,10 @@
         <v>44727.0</v>
       </c>
       <c r="M34" s="6" t="s">
-        <v>694</v>
+        <v>703</v>
       </c>
       <c r="N34" s="6" t="s">
-        <v>767</v>
+        <v>776</v>
       </c>
       <c r="O34" s="9" t="s">
         <v>28</v>
@@ -8824,16 +8953,16 @@
     </row>
     <row r="35">
       <c r="A35" s="6" t="s">
-        <v>777</v>
+        <v>786</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>778</v>
+        <v>787</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>779</v>
+        <v>788</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>766</v>
+        <v>775</v>
       </c>
       <c r="E35" s="6" t="s">
         <v>16</v>
@@ -8842,10 +8971,10 @@
         <v>44727.0</v>
       </c>
       <c r="M35" s="6" t="s">
-        <v>694</v>
+        <v>703</v>
       </c>
       <c r="N35" s="6" t="s">
-        <v>767</v>
+        <v>776</v>
       </c>
       <c r="O35" s="9" t="s">
         <v>28</v>
@@ -8853,16 +8982,16 @@
     </row>
     <row r="36">
       <c r="A36" s="6" t="s">
-        <v>780</v>
+        <v>789</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>781</v>
+        <v>790</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>782</v>
+        <v>791</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>783</v>
+        <v>792</v>
       </c>
       <c r="E36" s="6" t="s">
         <v>16</v>
@@ -8871,10 +9000,10 @@
         <v>44727.0</v>
       </c>
       <c r="M36" s="6" t="s">
-        <v>694</v>
+        <v>703</v>
       </c>
       <c r="N36" s="6" t="s">
-        <v>767</v>
+        <v>776</v>
       </c>
       <c r="O36" s="9" t="s">
         <v>28</v>
@@ -8882,37 +9011,37 @@
     </row>
     <row r="38">
       <c r="A38" s="5" t="s">
-        <v>784</v>
+        <v>793</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>784</v>
+        <v>793</v>
       </c>
       <c r="K38" s="8"/>
     </row>
     <row r="39">
       <c r="A39" s="6" t="s">
-        <v>785</v>
+        <v>794</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>786</v>
+        <v>795</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>787</v>
+        <v>796</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>788</v>
+        <v>797</v>
       </c>
       <c r="E39" s="6" t="s">
         <v>16</v>
       </c>
       <c r="I39" s="6" t="s">
-        <v>789</v>
+        <v>798</v>
       </c>
       <c r="K39" s="8">
         <v>44727.0</v>
       </c>
       <c r="M39" s="6" t="s">
-        <v>694</v>
+        <v>703</v>
       </c>
       <c r="N39" s="6" t="s">
         <v>39</v>
@@ -8923,28 +9052,28 @@
     </row>
     <row r="40">
       <c r="A40" s="6" t="s">
-        <v>790</v>
+        <v>799</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>791</v>
+        <v>800</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>792</v>
+        <v>801</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>788</v>
+        <v>797</v>
       </c>
       <c r="E40" s="6" t="s">
         <v>16</v>
       </c>
       <c r="I40" s="6" t="s">
-        <v>793</v>
+        <v>802</v>
       </c>
       <c r="K40" s="8">
         <v>44727.0</v>
       </c>
       <c r="M40" s="6" t="s">
-        <v>694</v>
+        <v>703</v>
       </c>
       <c r="N40" s="6" t="s">
         <v>39</v>
@@ -8955,21 +9084,21 @@
     </row>
     <row r="42">
       <c r="A42" s="5" t="s">
-        <v>794</v>
+        <v>803</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="32" t="s">
-        <v>795</v>
+        <v>804</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>796</v>
+        <v>805</v>
       </c>
       <c r="C43" s="32" t="s">
-        <v>797</v>
+        <v>806</v>
       </c>
       <c r="D43" s="35" t="s">
-        <v>798</v>
+        <v>807</v>
       </c>
       <c r="E43" s="6" t="s">
         <v>16</v>
@@ -8978,7 +9107,7 @@
         <v>44727.0</v>
       </c>
       <c r="M43" s="6" t="s">
-        <v>694</v>
+        <v>703</v>
       </c>
       <c r="N43" s="6" t="s">
         <v>39</v>
@@ -8989,16 +9118,16 @@
     </row>
     <row r="44">
       <c r="A44" s="50" t="s">
-        <v>799</v>
+        <v>808</v>
       </c>
       <c r="B44" s="50" t="s">
-        <v>800</v>
+        <v>809</v>
       </c>
       <c r="C44" s="51" t="s">
-        <v>801</v>
+        <v>810</v>
       </c>
       <c r="D44" s="52" t="s">
-        <v>802</v>
+        <v>811</v>
       </c>
       <c r="E44" s="11" t="s">
         <v>16</v>
@@ -9013,7 +9142,7 @@
       </c>
       <c r="L44" s="11"/>
       <c r="M44" s="6" t="s">
-        <v>694</v>
+        <v>703</v>
       </c>
       <c r="N44" s="11" t="s">
         <v>39</v>
@@ -9039,16 +9168,16 @@
     </row>
     <row r="45">
       <c r="A45" s="50" t="s">
-        <v>803</v>
+        <v>812</v>
       </c>
       <c r="B45" s="50" t="s">
-        <v>804</v>
+        <v>813</v>
       </c>
       <c r="C45" s="51" t="s">
-        <v>805</v>
+        <v>814</v>
       </c>
       <c r="D45" s="55" t="s">
-        <v>806</v>
+        <v>815</v>
       </c>
       <c r="E45" s="11" t="s">
         <v>16</v>
@@ -9063,7 +9192,7 @@
       </c>
       <c r="L45" s="11"/>
       <c r="M45" s="6" t="s">
-        <v>694</v>
+        <v>703</v>
       </c>
       <c r="N45" s="11" t="s">
         <v>39</v>
@@ -9089,16 +9218,16 @@
     </row>
     <row r="46">
       <c r="A46" s="50" t="s">
-        <v>807</v>
+        <v>816</v>
       </c>
       <c r="B46" s="50" t="s">
-        <v>808</v>
+        <v>817</v>
       </c>
       <c r="C46" s="56" t="s">
-        <v>809</v>
+        <v>818</v>
       </c>
       <c r="D46" s="55" t="s">
-        <v>810</v>
+        <v>819</v>
       </c>
       <c r="E46" s="11" t="s">
         <v>16</v>
@@ -9113,7 +9242,7 @@
       </c>
       <c r="L46" s="11"/>
       <c r="M46" s="6" t="s">
-        <v>694</v>
+        <v>703</v>
       </c>
       <c r="N46" s="11" t="s">
         <v>39</v>

--- a/code/vocab_csv/tech.xlsx
+++ b/code/vocab_csv/tech.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1888" uniqueCount="820">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1896" uniqueCount="833">
   <si>
     <t>Term</t>
   </si>
@@ -1608,6 +1608,9 @@
     <t>Technology utilising GPS</t>
   </si>
   <si>
+    <t>This concept models GPS as a networking technology. For representing use of GPS to get current location, see pd:GPSCoordinate and pd:CurrentLocation concepts in PD extension</t>
+  </si>
+  <si>
     <t>Specific instances of technologies</t>
   </si>
   <si>
@@ -1626,81 +1629,99 @@
     <t>Technology associated with storage of data</t>
   </si>
   <si>
+    <t>tech:Software,dpv:StorageLocation,dpv:ProcessingLocation</t>
+  </si>
+  <si>
+    <t>dpv:Technology,dpv:Location</t>
+  </si>
+  <si>
+    <t>Database</t>
+  </si>
+  <si>
+    <t>A database, database management system (DBMS), or application database</t>
+  </si>
+  <si>
+    <t>tech:DataStorage,dpv:StorageLocation,dpv:ProcessingLocation</t>
+  </si>
+  <si>
+    <t>CloudStorage</t>
+  </si>
+  <si>
+    <t>Cloud Storage</t>
+  </si>
+  <si>
+    <t>Storage utilising cloud technologies</t>
+  </si>
+  <si>
+    <t>tech:DataStorage,dpv:StorageLocation,dpv:ProcessingLocation,dpv:CloudLocation</t>
+  </si>
+  <si>
+    <t>LocalStorage</t>
+  </si>
+  <si>
+    <t>Local Storage</t>
+  </si>
+  <si>
+    <t>Storage that is local (e.g. on device)</t>
+  </si>
+  <si>
+    <t>tech:DataStorage,dpv:ProcessingLocation,dpv:LocalLocation</t>
+  </si>
+  <si>
+    <t>Cookie</t>
+  </si>
+  <si>
+    <t>A HTTP or web or internet cookie</t>
+  </si>
+  <si>
+    <t>tech:LocalStorage,dpv:ProcessingLocation,dpv:LocalLocation</t>
+  </si>
+  <si>
+    <t>Application</t>
+  </si>
+  <si>
+    <t>Application or Application Software</t>
+  </si>
+  <si>
+    <t>tech:Software,dpv:ProcessingLocation,dpv:LocalLocation</t>
+  </si>
+  <si>
+    <t>SmartphoneApplication</t>
+  </si>
+  <si>
+    <t>Smartphone Application</t>
+  </si>
+  <si>
+    <t>A computing or digital program on a smartphone device</t>
+  </si>
+  <si>
+    <t>tech:Application,dpv:ProcessingLocation,dpv:LocalLocation</t>
+  </si>
+  <si>
+    <t>AppStore</t>
+  </si>
+  <si>
+    <t>Application Store</t>
+  </si>
+  <si>
+    <t>An application or platform for distribution of other applications</t>
+  </si>
+  <si>
+    <t>tech:Application</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>Operating System (OS)</t>
+  </si>
+  <si>
+    <t>Software for managing hardware and other software</t>
+  </si>
+  <si>
     <t>tech:Software</t>
   </si>
   <si>
-    <t>Database</t>
-  </si>
-  <si>
-    <t>A database, database management system (DBMS), or application database</t>
-  </si>
-  <si>
-    <t>tech:DataStorage</t>
-  </si>
-  <si>
-    <t>CloudStorage</t>
-  </si>
-  <si>
-    <t>Cloud Storage</t>
-  </si>
-  <si>
-    <t>Storage utilising cloud technologies</t>
-  </si>
-  <si>
-    <t>LocalStorage</t>
-  </si>
-  <si>
-    <t>Local Storage</t>
-  </si>
-  <si>
-    <t>Storage that is local (e.g. on device)</t>
-  </si>
-  <si>
-    <t>Cookie</t>
-  </si>
-  <si>
-    <t>A HTTP or web or internet cookie</t>
-  </si>
-  <si>
-    <t>tech:LocalStorage</t>
-  </si>
-  <si>
-    <t>Application</t>
-  </si>
-  <si>
-    <t>Application or Application Software</t>
-  </si>
-  <si>
-    <t>SmartphoneApplication</t>
-  </si>
-  <si>
-    <t>Smartphone Application</t>
-  </si>
-  <si>
-    <t>A computing or digital program on a smartphone device</t>
-  </si>
-  <si>
-    <t>tech:Application</t>
-  </si>
-  <si>
-    <t>AppStore</t>
-  </si>
-  <si>
-    <t>Application Store</t>
-  </si>
-  <si>
-    <t>An application or platform for distribution of other applications</t>
-  </si>
-  <si>
-    <t>OS</t>
-  </si>
-  <si>
-    <t>Operating System (OS)</t>
-  </si>
-  <si>
-    <t>Software for managing hardware and other software</t>
-  </si>
-  <si>
     <t>MSWindows</t>
   </si>
   <si>
@@ -1746,171 +1767,177 @@
     <t>Device or computing device</t>
   </si>
   <si>
+    <t>tech:Hardware,dpv:ProcessingLocation,dpv:LocalLocation</t>
+  </si>
+  <si>
+    <t>PersonalComputer</t>
+  </si>
+  <si>
+    <t>Personal Computer (PC)</t>
+  </si>
+  <si>
+    <t>A computing device intended for individual use</t>
+  </si>
+  <si>
+    <t>tech:Device,dpv:ProcessingLocation,dpv:LocalLocation</t>
+  </si>
+  <si>
+    <t>LaptopPC</t>
+  </si>
+  <si>
+    <t>Laptop PC</t>
+  </si>
+  <si>
+    <t>A portal personal computer</t>
+  </si>
+  <si>
+    <t>tech:PersonalComputer,dpv:ProcessingLocation,dpv:LocalLocation</t>
+  </si>
+  <si>
+    <t>DesktopPC</t>
+  </si>
+  <si>
+    <t>Desktop PC</t>
+  </si>
+  <si>
+    <t>A non-portable or fixed personal computer</t>
+  </si>
+  <si>
+    <t>Telephone</t>
+  </si>
+  <si>
+    <t>tech:Device</t>
+  </si>
+  <si>
+    <t>MobilePhone</t>
+  </si>
+  <si>
+    <t>Mobile Phone</t>
+  </si>
+  <si>
+    <t>Mobile telephone</t>
+  </si>
+  <si>
+    <t>tech:Telephone,dpv:ProcessingLocation,dpv:LocalLocation</t>
+  </si>
+  <si>
+    <t>Smartphone</t>
+  </si>
+  <si>
+    <t>A combination of a mobile phone with computing capabilities similar to a PC</t>
+  </si>
+  <si>
+    <t>tech:MobilePhone,tech:PersonalComputer,dpv:ProcessingLocation,dpv:LocalLocation</t>
+  </si>
+  <si>
+    <t>IoT</t>
+  </si>
+  <si>
+    <t>Internet of Things (IoT)</t>
+  </si>
+  <si>
+    <t>IoT is the infrastructure of interconnected entities, people, systems and information resources together with services that process and react to information from the physical world and virtual world</t>
+  </si>
+  <si>
+    <t>IoTDevice</t>
+  </si>
+  <si>
+    <t>IoT Device</t>
+  </si>
+  <si>
+    <t>An entity of an IoT system that interacts and communicates with the physical world through sensing or actuating</t>
+  </si>
+  <si>
+    <t>tech:IoT,tech:Device,dpv:ProcessingLocation,dpv:LocalLocation</t>
+  </si>
+  <si>
+    <t>IoTSystem</t>
+  </si>
+  <si>
+    <t>IoT System</t>
+  </si>
+  <si>
+    <t>A specific system that is an implementation or application of the IoT framework and contains interconnected IoT devices and their communication network along with other hardware and software required for providing functionalities</t>
+  </si>
+  <si>
+    <t>tech:IoT,tech:System,dpv:ProcessingLocation,dpv:LocalLocation</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>A simplified representation or abstraction of a system, process, or concept</t>
+  </si>
+  <si>
+    <t>Service</t>
+  </si>
+  <si>
+    <t>The carrying out of a specific task or set of tasks as a service</t>
+  </si>
+  <si>
+    <t>This concept is distinct from dpv:Service as it represents the notion of a technical service whereas dpv:Service can also refer to organisational, legal, social, and other meanings of service</t>
+  </si>
+  <si>
+    <t>Algorithm</t>
+  </si>
+  <si>
+    <t>A step-by-step set of instructions used to solve a problem or perform a computation</t>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>A collection of components that interact to achieve a specific goal or function</t>
+  </si>
+  <si>
+    <t>Component</t>
+  </si>
+  <si>
+    <t>A self-contained part of a system that performs a specific function and interacts with other components</t>
+  </si>
+  <si>
+    <t>CloudService</t>
+  </si>
+  <si>
+    <t>Cloud Service Provision</t>
+  </si>
+  <si>
+    <t>A remotely accessible service delivered over the internet for providing resources, software, or infrastructure</t>
+  </si>
+  <si>
+    <t>Infrastructure</t>
+  </si>
+  <si>
+    <t>Infrastructure as a Service (IaaS) Provision</t>
+  </si>
+  <si>
+    <t>The foundational hardware, software, and other resources to support the operation of systems or services</t>
+  </si>
+  <si>
+    <t>API</t>
+  </si>
+  <si>
+    <t>A set of rules and protocols to communicate and exchange data between applications</t>
+  </si>
+  <si>
+    <t>tech:Algorithm</t>
+  </si>
+  <si>
+    <t>Platform</t>
+  </si>
+  <si>
+    <t>A digital environment that provides tools, infrastructure, and services for developing, deploying, and running applications</t>
+  </si>
+  <si>
+    <t>IntegratedCircuit</t>
+  </si>
+  <si>
+    <t>A integrated electronic chip containing interconnected components to perform specific functions</t>
+  </si>
+  <si>
     <t>tech:Hardware</t>
   </si>
   <si>
-    <t>PersonalComputer</t>
-  </si>
-  <si>
-    <t>Personal Computer (PC)</t>
-  </si>
-  <si>
-    <t>A computing device intended for individual use</t>
-  </si>
-  <si>
-    <t>tech:Device</t>
-  </si>
-  <si>
-    <t>LaptopPC</t>
-  </si>
-  <si>
-    <t>Laptop PC</t>
-  </si>
-  <si>
-    <t>A portal personal computer</t>
-  </si>
-  <si>
-    <t>tech:PersonalComputer</t>
-  </si>
-  <si>
-    <t>DesktopPC</t>
-  </si>
-  <si>
-    <t>Desktop PC</t>
-  </si>
-  <si>
-    <t>A non-portable or fixed personal computer</t>
-  </si>
-  <si>
-    <t>Telephone</t>
-  </si>
-  <si>
-    <t>MobilePhone</t>
-  </si>
-  <si>
-    <t>Mobile Phone</t>
-  </si>
-  <si>
-    <t>Mobile telephone</t>
-  </si>
-  <si>
-    <t>tech:Telephone</t>
-  </si>
-  <si>
-    <t>Smartphone</t>
-  </si>
-  <si>
-    <t>A combination of a mobile phone with computing capabilities similar to a PC</t>
-  </si>
-  <si>
-    <t>tech:MobilePhone,tech:PersonalComputer</t>
-  </si>
-  <si>
-    <t>IoT</t>
-  </si>
-  <si>
-    <t>Internet of Things (IoT)</t>
-  </si>
-  <si>
-    <t>IoT is the infrastructure of interconnected entities, people, systems and information resources together with services that process and react to information from the physical world and virtual world</t>
-  </si>
-  <si>
-    <t>IoTDevice</t>
-  </si>
-  <si>
-    <t>IoT Device</t>
-  </si>
-  <si>
-    <t>An entity of an IoT system that interacts and communicates with the physical world through sensing or actuating</t>
-  </si>
-  <si>
-    <t>tech:IoT,tech:Device</t>
-  </si>
-  <si>
-    <t>IoTSystem</t>
-  </si>
-  <si>
-    <t>IoT System</t>
-  </si>
-  <si>
-    <t>A specific system that is an implementation or application of the IoT framework and contains interconnected IoT devices and their communication network along with other hardware and software required for providing functionalities</t>
-  </si>
-  <si>
-    <t>tech:IoT,tech:System</t>
-  </si>
-  <si>
-    <t>Model</t>
-  </si>
-  <si>
-    <t>A simplified representation or abstraction of a system, process, or concept</t>
-  </si>
-  <si>
-    <t>Service</t>
-  </si>
-  <si>
-    <t>The carrying out of a specific task or set of tasks as a service</t>
-  </si>
-  <si>
-    <t>This concept is distinct from dpv:Service as it represents the notion of a technical service whereas dpv:Service can also refer to organisational, legal, social, and other meanings of service</t>
-  </si>
-  <si>
-    <t>Algorithm</t>
-  </si>
-  <si>
-    <t>A step-by-step set of instructions used to solve a problem or perform a computation</t>
-  </si>
-  <si>
-    <t>System</t>
-  </si>
-  <si>
-    <t>A collection of components that interact to achieve a specific goal or function</t>
-  </si>
-  <si>
-    <t>Component</t>
-  </si>
-  <si>
-    <t>A self-contained part of a system that performs a specific function and interacts with other components</t>
-  </si>
-  <si>
-    <t>CloudService</t>
-  </si>
-  <si>
-    <t>Cloud Service Provision</t>
-  </si>
-  <si>
-    <t>A remotely accessible service delivered over the internet for providing resources, software, or infrastructure</t>
-  </si>
-  <si>
-    <t>Infrastructure</t>
-  </si>
-  <si>
-    <t>Infrastructure as a Service (IaaS) Provision</t>
-  </si>
-  <si>
-    <t>The foundational hardware, software, and other resources to support the operation of systems or services</t>
-  </si>
-  <si>
-    <t>API</t>
-  </si>
-  <si>
-    <t>A set of rules and protocols to communicate and exchange data between applications</t>
-  </si>
-  <si>
-    <t>tech:Algorithm</t>
-  </si>
-  <si>
-    <t>Platform</t>
-  </si>
-  <si>
-    <t>A digital environment that provides tools, infrastructure, and services for developing, deploying, and running applications</t>
-  </si>
-  <si>
-    <t>IntegratedCircuit</t>
-  </si>
-  <si>
-    <t>A integrated electronic chip containing interconnected components to perform specific functions</t>
-  </si>
-  <si>
     <t>ApplicationSpecificIntegratedCircuit</t>
   </si>
   <si>
@@ -1957,6 +1984,18 @@
   </si>
   <si>
     <t>User Agent as defined here specifically represents software agents that represent humans, whether directly or indirectly, based on the well-defined use of this term in Web interactions. Software that is not representing a human but which acts or declares itself as a user agent is termed as 'user agent spoofing' (see https://developer.mozilla.org/en-US/docs/Glossary/User_agent)</t>
+  </si>
+  <si>
+    <t>WebScraper</t>
+  </si>
+  <si>
+    <t>Web Scraper</t>
+  </si>
+  <si>
+    <t>Software that extracts data from websites to implement collection practices colloquially called "web scraping"</t>
+  </si>
+  <si>
+    <t>Delaram Golpayegani</t>
   </si>
   <si>
     <t>hasSystem</t>
@@ -4667,7 +4706,9 @@
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
+      <c r="I10" s="6" t="s">
+        <v>527</v>
+      </c>
       <c r="J10" s="7"/>
       <c r="K10" s="8">
         <v>45421.0</v>
@@ -4796,10 +4837,10 @@
     </row>
     <row r="2">
       <c r="A2" s="31" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C2" s="32"/>
       <c r="D2" s="33"/>
@@ -4818,13 +4859,13 @@
     </row>
     <row r="4">
       <c r="A4" s="31" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="D4" s="34"/>
       <c r="E4" s="6" t="s">
@@ -4874,19 +4915,19 @@
     </row>
     <row r="6">
       <c r="A6" s="31" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="D6" s="34" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>16</v>
+        <v>535</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -4922,19 +4963,19 @@
     </row>
     <row r="7">
       <c r="A7" s="32" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="C7" s="32" t="s">
+        <v>537</v>
+      </c>
+      <c r="D7" s="35" t="s">
+        <v>538</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>535</v>
-      </c>
-      <c r="D7" s="35" t="s">
-        <v>536</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>16</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -4972,19 +5013,19 @@
     </row>
     <row r="8">
       <c r="A8" s="18" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="D8" s="35" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>16</v>
+        <v>535</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
@@ -5020,19 +5061,19 @@
     </row>
     <row r="9">
       <c r="A9" s="18" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>536</v>
+        <v>546</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>16</v>
+        <v>535</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
@@ -5068,19 +5109,19 @@
     </row>
     <row r="10">
       <c r="A10" s="32" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>16</v>
+        <v>535</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
@@ -5118,19 +5159,19 @@
     </row>
     <row r="12">
       <c r="A12" s="31" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="D12" s="35" t="s">
-        <v>533</v>
+        <v>552</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>16</v>
+        <v>535</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
@@ -5166,19 +5207,19 @@
     </row>
     <row r="13">
       <c r="A13" s="32" t="s">
-        <v>548</v>
+        <v>553</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>549</v>
+        <v>554</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="D13" s="35" t="s">
-        <v>551</v>
+        <v>556</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>16</v>
+        <v>535</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
@@ -5216,16 +5257,16 @@
     </row>
     <row r="14">
       <c r="A14" s="6" t="s">
-        <v>552</v>
+        <v>557</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>553</v>
+        <v>558</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>551</v>
+        <v>560</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>16</v>
@@ -5264,16 +5305,16 @@
     </row>
     <row r="16">
       <c r="A16" s="5" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>557</v>
+        <v>563</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>533</v>
+        <v>564</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>16</v>
@@ -5312,16 +5353,16 @@
     </row>
     <row r="17">
       <c r="A17" s="6" t="s">
-        <v>558</v>
+        <v>565</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>559</v>
+        <v>566</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>560</v>
+        <v>567</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>16</v>
@@ -5360,16 +5401,16 @@
     </row>
     <row r="18">
       <c r="A18" s="6" t="s">
-        <v>562</v>
+        <v>569</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>562</v>
+        <v>569</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>16</v>
@@ -5408,16 +5449,16 @@
     </row>
     <row r="19">
       <c r="A19" s="6" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>565</v>
+        <v>572</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>16</v>
@@ -5456,16 +5497,16 @@
     </row>
     <row r="20">
       <c r="A20" s="6" t="s">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>567</v>
+        <v>574</v>
       </c>
       <c r="C20" s="6" t="s">
+        <v>575</v>
+      </c>
+      <c r="D20" s="6" t="s">
         <v>568</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>561</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>16</v>
@@ -5504,13 +5545,13 @@
     </row>
     <row r="22">
       <c r="A22" s="5" t="s">
-        <v>569</v>
+        <v>576</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>569</v>
+        <v>576</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="6" t="s">
@@ -5553,19 +5594,19 @@
     </row>
     <row r="24">
       <c r="A24" s="5" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>572</v>
+        <v>579</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>573</v>
+        <v>580</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>16</v>
+        <v>535</v>
       </c>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
@@ -5601,19 +5642,19 @@
     </row>
     <row r="25">
       <c r="A25" s="6" t="s">
-        <v>574</v>
+        <v>581</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>576</v>
+        <v>583</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>577</v>
+        <v>584</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>16</v>
+        <v>535</v>
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
@@ -5649,19 +5690,19 @@
     </row>
     <row r="26">
       <c r="A26" s="6" t="s">
-        <v>578</v>
+        <v>585</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>579</v>
+        <v>586</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>580</v>
+        <v>587</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>581</v>
+        <v>588</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>16</v>
+        <v>535</v>
       </c>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
@@ -5697,19 +5738,19 @@
     </row>
     <row r="27">
       <c r="A27" s="6" t="s">
-        <v>582</v>
+        <v>589</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>583</v>
+        <v>590</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>584</v>
+        <v>591</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>581</v>
+        <v>588</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>16</v>
+        <v>535</v>
       </c>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
@@ -5745,16 +5786,16 @@
     </row>
     <row r="28">
       <c r="A28" s="6" t="s">
-        <v>585</v>
+        <v>592</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>585</v>
+        <v>592</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>585</v>
+        <v>592</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>577</v>
+        <v>593</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>16</v>
@@ -5793,19 +5834,19 @@
     </row>
     <row r="29">
       <c r="A29" s="6" t="s">
-        <v>586</v>
+        <v>594</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>587</v>
+        <v>595</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>588</v>
+        <v>596</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>589</v>
+        <v>597</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>16</v>
+        <v>535</v>
       </c>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
@@ -5841,19 +5882,19 @@
     </row>
     <row r="30">
       <c r="A30" s="6" t="s">
-        <v>590</v>
+        <v>598</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>590</v>
+        <v>598</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>591</v>
+        <v>599</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>592</v>
+        <v>600</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>16</v>
+        <v>535</v>
       </c>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
@@ -5889,19 +5930,19 @@
     </row>
     <row r="31">
       <c r="A31" s="5" t="s">
-        <v>593</v>
+        <v>601</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>594</v>
+        <v>602</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>595</v>
+        <v>603</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>573</v>
+        <v>580</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>16</v>
+        <v>535</v>
       </c>
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
@@ -5939,19 +5980,19 @@
     </row>
     <row r="32">
       <c r="A32" s="5" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>597</v>
+        <v>605</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>598</v>
+        <v>606</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>599</v>
+        <v>607</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>16</v>
+        <v>535</v>
       </c>
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
@@ -5989,19 +6030,19 @@
     </row>
     <row r="33">
       <c r="A33" s="6" t="s">
-        <v>600</v>
+        <v>608</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>601</v>
+        <v>609</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>602</v>
+        <v>610</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>603</v>
+        <v>611</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>16</v>
+        <v>535</v>
       </c>
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
@@ -6039,13 +6080,13 @@
     </row>
     <row r="34">
       <c r="A34" s="6" t="s">
-        <v>604</v>
+        <v>612</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>604</v>
+        <v>612</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>605</v>
+        <v>613</v>
       </c>
       <c r="D34" s="7"/>
       <c r="E34" s="6" t="s">
@@ -6085,13 +6126,13 @@
     </row>
     <row r="35">
       <c r="A35" s="6" t="s">
-        <v>606</v>
+        <v>614</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>606</v>
+        <v>614</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>607</v>
+        <v>615</v>
       </c>
       <c r="D35" s="7"/>
       <c r="E35" s="6" t="s">
@@ -6101,7 +6142,7 @@
       <c r="G35" s="7"/>
       <c r="H35" s="7"/>
       <c r="I35" s="6" t="s">
-        <v>608</v>
+        <v>616</v>
       </c>
       <c r="J35" s="7"/>
       <c r="K35" s="19">
@@ -6133,13 +6174,13 @@
     </row>
     <row r="36">
       <c r="A36" s="6" t="s">
-        <v>609</v>
+        <v>617</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>609</v>
+        <v>617</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>610</v>
+        <v>618</v>
       </c>
       <c r="D36" s="7"/>
       <c r="E36" s="6" t="s">
@@ -6179,13 +6220,13 @@
     </row>
     <row r="37">
       <c r="A37" s="6" t="s">
-        <v>611</v>
+        <v>619</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>611</v>
+        <v>619</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>612</v>
+        <v>620</v>
       </c>
       <c r="D37" s="7"/>
       <c r="E37" s="6" t="s">
@@ -6225,13 +6266,13 @@
     </row>
     <row r="38">
       <c r="A38" s="6" t="s">
-        <v>613</v>
+        <v>621</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>613</v>
+        <v>621</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>614</v>
+        <v>622</v>
       </c>
       <c r="D38" s="7"/>
       <c r="E38" s="6" t="s">
@@ -6271,13 +6312,13 @@
     </row>
     <row r="39">
       <c r="A39" s="6" t="s">
-        <v>615</v>
+        <v>623</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>616</v>
+        <v>624</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>617</v>
+        <v>625</v>
       </c>
       <c r="D39" s="7"/>
       <c r="E39" s="6" t="s">
@@ -6317,13 +6358,13 @@
     </row>
     <row r="40">
       <c r="A40" s="6" t="s">
-        <v>618</v>
+        <v>626</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>619</v>
+        <v>627</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>620</v>
+        <v>628</v>
       </c>
       <c r="D40" s="7"/>
       <c r="E40" s="6" t="s">
@@ -6363,16 +6404,16 @@
     </row>
     <row r="41">
       <c r="A41" s="6" t="s">
-        <v>621</v>
+        <v>629</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>621</v>
+        <v>629</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>622</v>
+        <v>630</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>623</v>
+        <v>631</v>
       </c>
       <c r="E41" s="6" t="s">
         <v>16</v>
@@ -6411,13 +6452,13 @@
     </row>
     <row r="42">
       <c r="A42" s="6" t="s">
-        <v>624</v>
+        <v>632</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>624</v>
+        <v>632</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>625</v>
+        <v>633</v>
       </c>
       <c r="D42" s="7"/>
       <c r="E42" s="6" t="s">
@@ -6457,16 +6498,16 @@
     </row>
     <row r="43">
       <c r="A43" s="6" t="s">
-        <v>626</v>
+        <v>634</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>626</v>
+        <v>634</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>627</v>
+        <v>635</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>573</v>
+        <v>636</v>
       </c>
       <c r="E43" s="6" t="s">
         <v>16</v>
@@ -6505,16 +6546,16 @@
     </row>
     <row r="44">
       <c r="A44" s="6" t="s">
-        <v>628</v>
+        <v>637</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>628</v>
+        <v>637</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>629</v>
+        <v>638</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>630</v>
+        <v>639</v>
       </c>
       <c r="E44" s="6" t="s">
         <v>16</v>
@@ -6553,16 +6594,16 @@
     </row>
     <row r="45">
       <c r="A45" s="6" t="s">
-        <v>631</v>
+        <v>640</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>631</v>
+        <v>640</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>632</v>
+        <v>641</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>533</v>
+        <v>564</v>
       </c>
       <c r="E45" s="6" t="s">
         <v>16</v>
@@ -6601,16 +6642,16 @@
     </row>
     <row r="46">
       <c r="A46" s="6" t="s">
-        <v>633</v>
+        <v>642</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>633</v>
+        <v>642</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>634</v>
+        <v>643</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>533</v>
+        <v>564</v>
       </c>
       <c r="E46" s="6" t="s">
         <v>16</v>
@@ -6649,16 +6690,16 @@
     </row>
     <row r="48">
       <c r="A48" s="6" t="s">
-        <v>635</v>
+        <v>644</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>636</v>
+        <v>645</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>637</v>
+        <v>646</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>638</v>
+        <v>647</v>
       </c>
       <c r="E48" s="6" t="s">
         <v>16</v>
@@ -6697,16 +6738,16 @@
     </row>
     <row r="49">
       <c r="A49" s="6" t="s">
-        <v>639</v>
+        <v>648</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>641</v>
+        <v>650</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>642</v>
+        <v>651</v>
       </c>
       <c r="E49" s="6" t="s">
         <v>16</v>
@@ -6715,7 +6756,7 @@
       <c r="G49" s="7"/>
       <c r="H49" s="7"/>
       <c r="I49" s="6" t="s">
-        <v>643</v>
+        <v>652</v>
       </c>
       <c r="J49" s="7"/>
       <c r="K49" s="8">
@@ -6744,6 +6785,54 @@
       <c r="AB49" s="7"/>
       <c r="AC49" s="7"/>
       <c r="AD49" s="7"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="6" t="s">
+        <v>653</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>654</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>655</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>564</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="7"/>
+      <c r="J51" s="7"/>
+      <c r="K51" s="8">
+        <v>46062.0</v>
+      </c>
+      <c r="L51" s="7"/>
+      <c r="M51" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N51" s="6" t="s">
+        <v>656</v>
+      </c>
+      <c r="O51" s="7"/>
+      <c r="P51" s="7"/>
+      <c r="Q51" s="7"/>
+      <c r="R51" s="7"/>
+      <c r="S51" s="7"/>
+      <c r="T51" s="7"/>
+      <c r="U51" s="7"/>
+      <c r="V51" s="7"/>
+      <c r="W51" s="7"/>
+      <c r="X51" s="7"/>
+      <c r="Y51" s="7"/>
+      <c r="Z51" s="7"/>
+      <c r="AA51" s="7"/>
+      <c r="AB51" s="7"/>
+      <c r="AC51" s="7"/>
+      <c r="AD51" s="7"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B39:B40">
@@ -6865,19 +6954,19 @@
     </row>
     <row r="2">
       <c r="A2" s="18" t="s">
-        <v>644</v>
+        <v>657</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>645</v>
+        <v>658</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>646</v>
+        <v>659</v>
       </c>
       <c r="D2" s="34" t="s">
         <v>16</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>647</v>
+        <v>660</v>
       </c>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
@@ -6913,19 +7002,19 @@
     </row>
     <row r="3">
       <c r="A3" s="18" t="s">
-        <v>648</v>
+        <v>661</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>649</v>
+        <v>662</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>650</v>
+        <v>663</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>651</v>
+        <v>664</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>652</v>
+        <v>665</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
@@ -6961,19 +7050,19 @@
     </row>
     <row r="4">
       <c r="A4" s="18" t="s">
-        <v>653</v>
+        <v>666</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>654</v>
+        <v>667</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>655</v>
+        <v>668</v>
       </c>
       <c r="D4" s="34" t="s">
-        <v>652</v>
+        <v>665</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>651</v>
+        <v>664</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -7009,19 +7098,19 @@
     </row>
     <row r="5">
       <c r="A5" s="18" t="s">
-        <v>656</v>
+        <v>669</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>657</v>
+        <v>670</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>658</v>
+        <v>671</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>623</v>
+        <v>631</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -7057,19 +7146,19 @@
     </row>
     <row r="6">
       <c r="A6" s="18" t="s">
-        <v>659</v>
+        <v>672</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>660</v>
+        <v>673</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>661</v>
+        <v>674</v>
       </c>
       <c r="D6" s="34" t="s">
         <v>16</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>662</v>
+        <v>675</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -7105,22 +7194,22 @@
     </row>
     <row r="7">
       <c r="A7" s="18" t="s">
-        <v>663</v>
+        <v>676</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>664</v>
+        <v>677</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>665</v>
+        <v>678</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>577</v>
+        <v>593</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>666</v>
+        <v>679</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
@@ -7155,19 +7244,19 @@
     </row>
     <row r="8">
       <c r="A8" s="18" t="s">
-        <v>667</v>
+        <v>680</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>668</v>
+        <v>681</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>669</v>
+        <v>682</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>533</v>
+        <v>564</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
@@ -7203,19 +7292,19 @@
     </row>
     <row r="9">
       <c r="A9" s="18" t="s">
-        <v>670</v>
+        <v>683</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>671</v>
+        <v>684</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>672</v>
+        <v>685</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>573</v>
+        <v>636</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
@@ -7251,19 +7340,19 @@
     </row>
     <row r="10">
       <c r="A10" s="18" t="s">
-        <v>673</v>
+        <v>686</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>674</v>
+        <v>687</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>675</v>
+        <v>688</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>551</v>
+        <v>560</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
@@ -7299,19 +7388,19 @@
     </row>
     <row r="11">
       <c r="A11" s="6" t="s">
-        <v>676</v>
+        <v>689</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>677</v>
+        <v>690</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>678</v>
+        <v>691</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>679</v>
+        <v>692</v>
       </c>
       <c r="K11" s="19">
         <v>45627.0</v>
@@ -7326,19 +7415,19 @@
     </row>
     <row r="12">
       <c r="A12" s="18" t="s">
-        <v>680</v>
+        <v>693</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>681</v>
+        <v>694</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>682</v>
+        <v>695</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>683</v>
+        <v>696</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
@@ -7374,19 +7463,19 @@
     </row>
     <row r="13">
       <c r="A13" s="6" t="s">
-        <v>684</v>
+        <v>697</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>685</v>
+        <v>698</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>686</v>
+        <v>699</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>687</v>
+        <v>700</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
@@ -7422,19 +7511,19 @@
     </row>
     <row r="14">
       <c r="A14" s="6" t="s">
-        <v>688</v>
+        <v>701</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>689</v>
+        <v>702</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>690</v>
+        <v>703</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>691</v>
+        <v>704</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
@@ -7608,27 +7697,27 @@
     </row>
     <row r="2">
       <c r="A2" s="6" t="s">
-        <v>692</v>
+        <v>705</v>
       </c>
       <c r="B2" s="5"/>
       <c r="J2" s="10" t="s">
-        <v>693</v>
+        <v>706</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="6" t="s">
-        <v>694</v>
+        <v>707</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>695</v>
+        <v>708</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="6" t="s">
-        <v>696</v>
+        <v>709</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>697</v>
+        <v>710</v>
       </c>
     </row>
     <row r="6">
@@ -8123,26 +8212,26 @@
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
-        <v>698</v>
+        <v>711</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>698</v>
+        <v>711</v>
       </c>
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
     </row>
     <row r="3">
       <c r="A3" s="6" t="s">
-        <v>699</v>
+        <v>712</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>700</v>
+        <v>713</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>701</v>
+        <v>714</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>702</v>
+        <v>715</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>16</v>
@@ -8152,7 +8241,7 @@
       </c>
       <c r="L3" s="8"/>
       <c r="M3" s="6" t="s">
-        <v>703</v>
+        <v>716</v>
       </c>
       <c r="N3" s="6" t="s">
         <v>39</v>
@@ -8163,16 +8252,16 @@
     </row>
     <row r="4">
       <c r="A4" s="6" t="s">
-        <v>704</v>
+        <v>717</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>705</v>
+        <v>718</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>706</v>
+        <v>719</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>702</v>
+        <v>715</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>16</v>
@@ -8182,7 +8271,7 @@
       </c>
       <c r="L4" s="8"/>
       <c r="M4" s="6" t="s">
-        <v>703</v>
+        <v>716</v>
       </c>
       <c r="N4" s="6" t="s">
         <v>39</v>
@@ -8193,16 +8282,16 @@
     </row>
     <row r="5">
       <c r="A5" s="6" t="s">
-        <v>707</v>
+        <v>720</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>708</v>
+        <v>721</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>709</v>
+        <v>722</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>702</v>
+        <v>715</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>16</v>
@@ -8212,7 +8301,7 @@
       </c>
       <c r="L5" s="8"/>
       <c r="M5" s="6" t="s">
-        <v>703</v>
+        <v>716</v>
       </c>
       <c r="N5" s="6" t="s">
         <v>39</v>
@@ -8223,16 +8312,16 @@
     </row>
     <row r="6">
       <c r="A6" s="6" t="s">
-        <v>710</v>
+        <v>723</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>711</v>
+        <v>724</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>712</v>
+        <v>725</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>702</v>
+        <v>715</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>16</v>
@@ -8242,7 +8331,7 @@
       </c>
       <c r="L6" s="8"/>
       <c r="M6" s="6" t="s">
-        <v>703</v>
+        <v>716</v>
       </c>
       <c r="N6" s="6" t="s">
         <v>39</v>
@@ -8253,16 +8342,16 @@
     </row>
     <row r="7">
       <c r="A7" s="6" t="s">
-        <v>713</v>
+        <v>726</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>714</v>
+        <v>727</v>
       </c>
       <c r="C7" s="6" t="s">
+        <v>728</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>715</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>702</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>16</v>
@@ -8272,7 +8361,7 @@
       </c>
       <c r="L7" s="8"/>
       <c r="M7" s="6" t="s">
-        <v>703</v>
+        <v>716</v>
       </c>
       <c r="N7" s="6" t="s">
         <v>39</v>
@@ -8283,16 +8372,16 @@
     </row>
     <row r="8">
       <c r="A8" s="6" t="s">
-        <v>716</v>
+        <v>729</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>717</v>
+        <v>730</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>718</v>
+        <v>731</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>702</v>
+        <v>715</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>16</v>
@@ -8302,7 +8391,7 @@
       </c>
       <c r="L8" s="8"/>
       <c r="M8" s="6" t="s">
-        <v>703</v>
+        <v>716</v>
       </c>
       <c r="N8" s="6" t="s">
         <v>39</v>
@@ -8313,16 +8402,16 @@
     </row>
     <row r="9">
       <c r="A9" s="6" t="s">
-        <v>719</v>
+        <v>732</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>720</v>
+        <v>733</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>721</v>
+        <v>734</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>702</v>
+        <v>715</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>16</v>
@@ -8332,7 +8421,7 @@
       </c>
       <c r="L9" s="8"/>
       <c r="M9" s="6" t="s">
-        <v>703</v>
+        <v>716</v>
       </c>
       <c r="N9" s="6" t="s">
         <v>39</v>
@@ -8343,16 +8432,16 @@
     </row>
     <row r="10">
       <c r="A10" s="6" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>723</v>
+        <v>736</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>724</v>
+        <v>737</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>702</v>
+        <v>715</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>16</v>
@@ -8362,7 +8451,7 @@
       </c>
       <c r="L10" s="8"/>
       <c r="M10" s="6" t="s">
-        <v>703</v>
+        <v>716</v>
       </c>
       <c r="N10" s="6" t="s">
         <v>39</v>
@@ -8373,16 +8462,16 @@
     </row>
     <row r="11">
       <c r="A11" s="6" t="s">
-        <v>725</v>
+        <v>738</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>726</v>
+        <v>739</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>727</v>
+        <v>740</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>702</v>
+        <v>715</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>16</v>
@@ -8392,7 +8481,7 @@
       </c>
       <c r="L11" s="8"/>
       <c r="M11" s="6" t="s">
-        <v>703</v>
+        <v>716</v>
       </c>
       <c r="N11" s="6" t="s">
         <v>39</v>
@@ -8403,16 +8492,16 @@
     </row>
     <row r="12">
       <c r="A12" s="6" t="s">
-        <v>728</v>
+        <v>741</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>729</v>
+        <v>742</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>730</v>
+        <v>743</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>731</v>
+        <v>744</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>16</v>
@@ -8422,7 +8511,7 @@
       </c>
       <c r="L12" s="8"/>
       <c r="M12" s="6" t="s">
-        <v>703</v>
+        <v>716</v>
       </c>
       <c r="N12" s="6" t="s">
         <v>39</v>
@@ -8433,16 +8522,16 @@
     </row>
     <row r="13">
       <c r="A13" s="6" t="s">
-        <v>732</v>
+        <v>745</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>733</v>
+        <v>746</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>734</v>
+        <v>747</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>735</v>
+        <v>748</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>16</v>
@@ -8451,7 +8540,7 @@
         <v>44727.0</v>
       </c>
       <c r="M13" s="6" t="s">
-        <v>703</v>
+        <v>716</v>
       </c>
       <c r="N13" s="6" t="s">
         <v>39</v>
@@ -8462,16 +8551,16 @@
     </row>
     <row r="14">
       <c r="A14" s="24" t="s">
-        <v>736</v>
+        <v>749</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>737</v>
+        <v>750</v>
       </c>
       <c r="C14" s="48" t="s">
-        <v>738</v>
+        <v>751</v>
       </c>
       <c r="D14" s="49" t="s">
-        <v>702</v>
+        <v>715</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>16</v>
@@ -8481,12 +8570,12 @@
       <c r="H14" s="11"/>
       <c r="I14" s="11"/>
       <c r="J14" s="24" t="s">
-        <v>739</v>
+        <v>752</v>
       </c>
       <c r="K14" s="11"/>
       <c r="L14" s="11"/>
       <c r="M14" s="6" t="s">
-        <v>703</v>
+        <v>716</v>
       </c>
       <c r="N14" s="11"/>
       <c r="O14" s="11"/>
@@ -8509,18 +8598,18 @@
     </row>
     <row r="16">
       <c r="A16" s="5" t="s">
-        <v>740</v>
+        <v>753</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="6" t="s">
-        <v>741</v>
+        <v>754</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>742</v>
+        <v>755</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>743</v>
+        <v>756</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>16</v>
@@ -8529,7 +8618,7 @@
         <v>44727.0</v>
       </c>
       <c r="M17" s="6" t="s">
-        <v>703</v>
+        <v>716</v>
       </c>
       <c r="N17" s="6" t="s">
         <v>39</v>
@@ -8540,13 +8629,13 @@
     </row>
     <row r="18">
       <c r="A18" s="6" t="s">
-        <v>744</v>
+        <v>757</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>745</v>
+        <v>758</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>746</v>
+        <v>759</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>16</v>
@@ -8556,7 +8645,7 @@
       </c>
       <c r="L18" s="8"/>
       <c r="M18" s="6" t="s">
-        <v>703</v>
+        <v>716</v>
       </c>
       <c r="N18" s="6" t="s">
         <v>39</v>
@@ -8567,13 +8656,13 @@
     </row>
     <row r="19">
       <c r="A19" s="6" t="s">
-        <v>747</v>
+        <v>760</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>748</v>
+        <v>761</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>749</v>
+        <v>762</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>16</v>
@@ -8583,7 +8672,7 @@
       </c>
       <c r="L19" s="8"/>
       <c r="M19" s="6" t="s">
-        <v>703</v>
+        <v>716</v>
       </c>
       <c r="N19" s="6" t="s">
         <v>39</v>
@@ -8594,13 +8683,13 @@
     </row>
     <row r="20">
       <c r="A20" s="6" t="s">
-        <v>750</v>
+        <v>763</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>751</v>
+        <v>764</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>752</v>
+        <v>765</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>16</v>
@@ -8610,7 +8699,7 @@
       </c>
       <c r="L20" s="8"/>
       <c r="M20" s="6" t="s">
-        <v>703</v>
+        <v>716</v>
       </c>
       <c r="N20" s="6" t="s">
         <v>39</v>
@@ -8621,13 +8710,13 @@
     </row>
     <row r="21">
       <c r="A21" s="6" t="s">
-        <v>753</v>
+        <v>766</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>754</v>
+        <v>767</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>755</v>
+        <v>768</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>16</v>
@@ -8637,7 +8726,7 @@
       </c>
       <c r="L21" s="8"/>
       <c r="M21" s="6" t="s">
-        <v>703</v>
+        <v>716</v>
       </c>
       <c r="N21" s="6" t="s">
         <v>39</v>
@@ -8648,13 +8737,13 @@
     </row>
     <row r="22">
       <c r="A22" s="6" t="s">
-        <v>756</v>
+        <v>769</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>757</v>
+        <v>770</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>758</v>
+        <v>771</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>16</v>
@@ -8664,7 +8753,7 @@
       </c>
       <c r="L22" s="8"/>
       <c r="M22" s="6" t="s">
-        <v>703</v>
+        <v>716</v>
       </c>
       <c r="N22" s="6" t="s">
         <v>39</v>
@@ -8675,10 +8764,10 @@
     </row>
     <row r="24">
       <c r="A24" s="5" t="s">
-        <v>759</v>
+        <v>772</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>759</v>
+        <v>772</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="30"/>
@@ -8687,16 +8776,16 @@
     </row>
     <row r="25">
       <c r="A25" s="6" t="s">
-        <v>760</v>
+        <v>773</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>761</v>
+        <v>774</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>762</v>
+        <v>775</v>
       </c>
       <c r="D25" s="30" t="s">
-        <v>763</v>
+        <v>776</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>16</v>
@@ -8705,7 +8794,7 @@
         <v>44727.0</v>
       </c>
       <c r="M25" s="6" t="s">
-        <v>703</v>
+        <v>716</v>
       </c>
       <c r="N25" s="6" t="s">
         <v>39</v>
@@ -8716,16 +8805,16 @@
     </row>
     <row r="26">
       <c r="A26" s="6" t="s">
-        <v>764</v>
+        <v>777</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>765</v>
+        <v>778</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>766</v>
+        <v>779</v>
       </c>
       <c r="D26" s="30" t="s">
-        <v>763</v>
+        <v>776</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>16</v>
@@ -8734,7 +8823,7 @@
         <v>44727.0</v>
       </c>
       <c r="M26" s="6" t="s">
-        <v>703</v>
+        <v>716</v>
       </c>
       <c r="N26" s="6" t="s">
         <v>39</v>
@@ -8745,16 +8834,16 @@
     </row>
     <row r="27">
       <c r="A27" s="6" t="s">
-        <v>767</v>
+        <v>780</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>768</v>
+        <v>781</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>769</v>
+        <v>782</v>
       </c>
       <c r="D27" s="30" t="s">
-        <v>763</v>
+        <v>776</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>16</v>
@@ -8763,7 +8852,7 @@
         <v>44727.0</v>
       </c>
       <c r="M27" s="6" t="s">
-        <v>703</v>
+        <v>716</v>
       </c>
       <c r="N27" s="6" t="s">
         <v>39</v>
@@ -8774,16 +8863,16 @@
     </row>
     <row r="28">
       <c r="A28" s="6" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>770</v>
+        <v>783</v>
       </c>
       <c r="D28" s="30" t="s">
-        <v>763</v>
+        <v>776</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>16</v>
@@ -8792,7 +8881,7 @@
         <v>44727.0</v>
       </c>
       <c r="M28" s="6" t="s">
-        <v>703</v>
+        <v>716</v>
       </c>
       <c r="N28" s="6" t="s">
         <v>39</v>
@@ -8803,10 +8892,10 @@
     </row>
     <row r="30">
       <c r="A30" s="5" t="s">
-        <v>771</v>
+        <v>784</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>771</v>
+        <v>784</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
@@ -8837,16 +8926,16 @@
     </row>
     <row r="31">
       <c r="A31" s="6" t="s">
-        <v>772</v>
+        <v>785</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>773</v>
+        <v>786</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>774</v>
+        <v>787</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>775</v>
+        <v>788</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>16</v>
@@ -8855,10 +8944,10 @@
         <v>44727.0</v>
       </c>
       <c r="M31" s="6" t="s">
-        <v>703</v>
+        <v>716</v>
       </c>
       <c r="N31" s="6" t="s">
-        <v>776</v>
+        <v>789</v>
       </c>
       <c r="O31" s="9" t="s">
         <v>28</v>
@@ -8866,16 +8955,16 @@
     </row>
     <row r="32">
       <c r="A32" s="6" t="s">
-        <v>777</v>
+        <v>790</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>778</v>
+        <v>791</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>779</v>
+        <v>792</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>775</v>
+        <v>788</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>16</v>
@@ -8884,10 +8973,10 @@
         <v>44727.0</v>
       </c>
       <c r="M32" s="6" t="s">
-        <v>703</v>
+        <v>716</v>
       </c>
       <c r="N32" s="6" t="s">
-        <v>776</v>
+        <v>789</v>
       </c>
       <c r="O32" s="9" t="s">
         <v>28</v>
@@ -8895,16 +8984,16 @@
     </row>
     <row r="33">
       <c r="A33" s="6" t="s">
-        <v>780</v>
+        <v>793</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>781</v>
+        <v>794</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>782</v>
+        <v>795</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>775</v>
+        <v>788</v>
       </c>
       <c r="E33" s="6" t="s">
         <v>16</v>
@@ -8913,10 +9002,10 @@
         <v>44727.0</v>
       </c>
       <c r="M33" s="6" t="s">
-        <v>703</v>
+        <v>716</v>
       </c>
       <c r="N33" s="6" t="s">
-        <v>776</v>
+        <v>789</v>
       </c>
       <c r="O33" s="9" t="s">
         <v>28</v>
@@ -8924,16 +9013,16 @@
     </row>
     <row r="34">
       <c r="A34" s="6" t="s">
-        <v>783</v>
+        <v>796</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>784</v>
+        <v>797</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>785</v>
+        <v>798</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>775</v>
+        <v>788</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>16</v>
@@ -8942,10 +9031,10 @@
         <v>44727.0</v>
       </c>
       <c r="M34" s="6" t="s">
-        <v>703</v>
+        <v>716</v>
       </c>
       <c r="N34" s="6" t="s">
-        <v>776</v>
+        <v>789</v>
       </c>
       <c r="O34" s="9" t="s">
         <v>28</v>
@@ -8953,16 +9042,16 @@
     </row>
     <row r="35">
       <c r="A35" s="6" t="s">
-        <v>786</v>
+        <v>799</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>787</v>
+        <v>800</v>
       </c>
       <c r="C35" s="6" t="s">
+        <v>801</v>
+      </c>
+      <c r="D35" s="6" t="s">
         <v>788</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>775</v>
       </c>
       <c r="E35" s="6" t="s">
         <v>16</v>
@@ -8971,10 +9060,10 @@
         <v>44727.0</v>
       </c>
       <c r="M35" s="6" t="s">
-        <v>703</v>
+        <v>716</v>
       </c>
       <c r="N35" s="6" t="s">
-        <v>776</v>
+        <v>789</v>
       </c>
       <c r="O35" s="9" t="s">
         <v>28</v>
@@ -8982,16 +9071,16 @@
     </row>
     <row r="36">
       <c r="A36" s="6" t="s">
-        <v>789</v>
+        <v>802</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>790</v>
+        <v>803</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>791</v>
+        <v>804</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>792</v>
+        <v>805</v>
       </c>
       <c r="E36" s="6" t="s">
         <v>16</v>
@@ -9000,10 +9089,10 @@
         <v>44727.0</v>
       </c>
       <c r="M36" s="6" t="s">
-        <v>703</v>
+        <v>716</v>
       </c>
       <c r="N36" s="6" t="s">
-        <v>776</v>
+        <v>789</v>
       </c>
       <c r="O36" s="9" t="s">
         <v>28</v>
@@ -9011,37 +9100,37 @@
     </row>
     <row r="38">
       <c r="A38" s="5" t="s">
-        <v>793</v>
+        <v>806</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>793</v>
+        <v>806</v>
       </c>
       <c r="K38" s="8"/>
     </row>
     <row r="39">
       <c r="A39" s="6" t="s">
-        <v>794</v>
+        <v>807</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>795</v>
+        <v>808</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>796</v>
+        <v>809</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>797</v>
+        <v>810</v>
       </c>
       <c r="E39" s="6" t="s">
         <v>16</v>
       </c>
       <c r="I39" s="6" t="s">
-        <v>798</v>
+        <v>811</v>
       </c>
       <c r="K39" s="8">
         <v>44727.0</v>
       </c>
       <c r="M39" s="6" t="s">
-        <v>703</v>
+        <v>716</v>
       </c>
       <c r="N39" s="6" t="s">
         <v>39</v>
@@ -9052,28 +9141,28 @@
     </row>
     <row r="40">
       <c r="A40" s="6" t="s">
-        <v>799</v>
+        <v>812</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>800</v>
+        <v>813</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>801</v>
+        <v>814</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>797</v>
+        <v>810</v>
       </c>
       <c r="E40" s="6" t="s">
         <v>16</v>
       </c>
       <c r="I40" s="6" t="s">
-        <v>802</v>
+        <v>815</v>
       </c>
       <c r="K40" s="8">
         <v>44727.0</v>
       </c>
       <c r="M40" s="6" t="s">
-        <v>703</v>
+        <v>716</v>
       </c>
       <c r="N40" s="6" t="s">
         <v>39</v>
@@ -9084,21 +9173,21 @@
     </row>
     <row r="42">
       <c r="A42" s="5" t="s">
-        <v>803</v>
+        <v>816</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="32" t="s">
-        <v>804</v>
+        <v>817</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>805</v>
+        <v>818</v>
       </c>
       <c r="C43" s="32" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="D43" s="35" t="s">
-        <v>807</v>
+        <v>820</v>
       </c>
       <c r="E43" s="6" t="s">
         <v>16</v>
@@ -9107,7 +9196,7 @@
         <v>44727.0</v>
       </c>
       <c r="M43" s="6" t="s">
-        <v>703</v>
+        <v>716</v>
       </c>
       <c r="N43" s="6" t="s">
         <v>39</v>
@@ -9118,16 +9207,16 @@
     </row>
     <row r="44">
       <c r="A44" s="50" t="s">
-        <v>808</v>
+        <v>821</v>
       </c>
       <c r="B44" s="50" t="s">
-        <v>809</v>
+        <v>822</v>
       </c>
       <c r="C44" s="51" t="s">
-        <v>810</v>
+        <v>823</v>
       </c>
       <c r="D44" s="52" t="s">
-        <v>811</v>
+        <v>824</v>
       </c>
       <c r="E44" s="11" t="s">
         <v>16</v>
@@ -9142,7 +9231,7 @@
       </c>
       <c r="L44" s="11"/>
       <c r="M44" s="6" t="s">
-        <v>703</v>
+        <v>716</v>
       </c>
       <c r="N44" s="11" t="s">
         <v>39</v>
@@ -9168,16 +9257,16 @@
     </row>
     <row r="45">
       <c r="A45" s="50" t="s">
-        <v>812</v>
+        <v>825</v>
       </c>
       <c r="B45" s="50" t="s">
-        <v>813</v>
+        <v>826</v>
       </c>
       <c r="C45" s="51" t="s">
-        <v>814</v>
+        <v>827</v>
       </c>
       <c r="D45" s="55" t="s">
-        <v>815</v>
+        <v>828</v>
       </c>
       <c r="E45" s="11" t="s">
         <v>16</v>
@@ -9192,7 +9281,7 @@
       </c>
       <c r="L45" s="11"/>
       <c r="M45" s="6" t="s">
-        <v>703</v>
+        <v>716</v>
       </c>
       <c r="N45" s="11" t="s">
         <v>39</v>
@@ -9218,16 +9307,16 @@
     </row>
     <row r="46">
       <c r="A46" s="50" t="s">
-        <v>816</v>
+        <v>829</v>
       </c>
       <c r="B46" s="50" t="s">
-        <v>817</v>
+        <v>830</v>
       </c>
       <c r="C46" s="56" t="s">
-        <v>818</v>
+        <v>831</v>
       </c>
       <c r="D46" s="55" t="s">
-        <v>819</v>
+        <v>832</v>
       </c>
       <c r="E46" s="11" t="s">
         <v>16</v>
@@ -9242,7 +9331,7 @@
       </c>
       <c r="L46" s="11"/>
       <c r="M46" s="6" t="s">
-        <v>703</v>
+        <v>716</v>
       </c>
       <c r="N46" s="11" t="s">
         <v>39</v>

--- a/code/vocab_csv/tech.xlsx
+++ b/code/vocab_csv/tech.xlsx
@@ -17,7 +17,8 @@
     <sheet state="visible" name="tech-tools" sheetId="12" r:id="rId16"/>
     <sheet state="visible" name="tech-tools-properties" sheetId="13" r:id="rId17"/>
     <sheet state="visible" name="tech-algorithms" sheetId="14" r:id="rId18"/>
-    <sheet state="visible" name="donotuse_removed" sheetId="15" r:id="rId19"/>
+    <sheet state="visible" name="tech-healthcare" sheetId="15" r:id="rId19"/>
+    <sheet state="visible" name="donotuse_removed" sheetId="16" r:id="rId20"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1896" uniqueCount="833">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1967" uniqueCount="859">
   <si>
     <t>Term</t>
   </si>
@@ -2188,6 +2189,84 @@
       </rPr>
       <t>https://www.enisa.europa.eu/publications/data-protection-engineering)</t>
     </r>
+  </si>
+  <si>
+    <t>ElectronicHealthDataAccessService</t>
+  </si>
+  <si>
+    <t>Electronic Health Data Access Service</t>
+  </si>
+  <si>
+    <t>Technical service, such as an online portal or application, that allows data subjects to access their electronic health data or the electronic health data of those natural persons whose electronic health data they are legally authorised to access</t>
+  </si>
+  <si>
+    <t>proposed</t>
+  </si>
+  <si>
+    <t>Beatriz Esteves</t>
+  </si>
+  <si>
+    <t>HealthProfessionalAccessService</t>
+  </si>
+  <si>
+    <t>Health Professional Access Service</t>
+  </si>
+  <si>
+    <t>Technical service, supported by an EHR system, that enables health professionals to access data of natural persons under their care</t>
+  </si>
+  <si>
+    <t>Electronic Health Record System</t>
+  </si>
+  <si>
+    <t>A system whereby the software and/or hardware allows personal electronic health data to be collected and processed, to be used by healthcare providers when providing patient care or by patients when accessing their electronic health data</t>
+  </si>
+  <si>
+    <t>EHRSystem</t>
+  </si>
+  <si>
+    <t>A system whereby the software and/or hardware allows electronic health record data to be collected and processed, to be used by healthcare providers when providing patient care or by patients when accessing their electronic health data</t>
+  </si>
+  <si>
+    <t>sector-health:System</t>
+  </si>
+  <si>
+    <t>InteroperabilitySoftwareForEHRSystem</t>
+  </si>
+  <si>
+    <t>Interoperability Software for EHR System</t>
+  </si>
+  <si>
+    <t>Software component of the EHR system which provides and receives personal electronic health data under a priority category for primary use established under the EHDS Regulation in the European electronic health record exchange format</t>
+  </si>
+  <si>
+    <t>LoggingSoftwareForEHRSystem</t>
+  </si>
+  <si>
+    <t>Logging Software for EHR System</t>
+  </si>
+  <si>
+    <t>Software component of the EHR system which provides logging information related to access by health professionals or other individuals to priority categories of personal electronic health data</t>
+  </si>
+  <si>
+    <t>HealthApplication</t>
+  </si>
+  <si>
+    <t>Health Application</t>
+  </si>
+  <si>
+    <t>Software component for the processing of electronic health data, specifically for providing information on the health of natural persons, or the delivery of care for purposes other than the provision of healthcare</t>
+  </si>
+  <si>
+    <t>WellnessApplication</t>
+  </si>
+  <si>
+    <t>Wellness Application</t>
+  </si>
+  <si>
+    <t>Software component for the processing of electronic health data originating from wellness applications</t>
+  </si>
+  <si>
+    <t>sector-health:HealthApplication</t>
   </si>
   <si>
     <t>Data Technologies</t>
@@ -2638,7 +2717,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2655,6 +2734,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFD9EAD3"/>
         <bgColor rgb="FFD9EAD3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCFE2F3"/>
+        <bgColor rgb="FFCFE2F3"/>
       </patternFill>
     </fill>
   </fills>
@@ -2724,7 +2809,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="63">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2865,6 +2950,24 @@
     <xf borderId="1" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
+    <xf borderId="0" fillId="4" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="13" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
@@ -2986,6 +3089,10 @@
 </file>
 
 <file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -8159,6 +8266,863 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="29.88"/>
     <col customWidth="1" min="2" max="2" width="31.88"/>
+    <col customWidth="1" min="3" max="3" width="19.13"/>
+    <col customWidth="1" min="6" max="6" width="6.5"/>
+    <col customWidth="1" min="8" max="8" width="8.0"/>
+    <col customWidth="1" min="9" max="9" width="6.13"/>
+    <col customWidth="1" min="10" max="10" width="7.0"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="28.5" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="48" t="s">
+        <v>711</v>
+      </c>
+      <c r="B2" s="48" t="s">
+        <v>712</v>
+      </c>
+      <c r="C2" s="49" t="s">
+        <v>713</v>
+      </c>
+      <c r="D2" s="49" t="s">
+        <v>675</v>
+      </c>
+      <c r="E2" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="52">
+        <v>45958.0</v>
+      </c>
+      <c r="L2" s="50"/>
+      <c r="M2" s="49" t="s">
+        <v>714</v>
+      </c>
+      <c r="N2" s="49" t="s">
+        <v>715</v>
+      </c>
+      <c r="O2" s="50"/>
+      <c r="P2" s="50"/>
+      <c r="Q2" s="50"/>
+      <c r="R2" s="50"/>
+      <c r="S2" s="50"/>
+      <c r="T2" s="50"/>
+      <c r="U2" s="50"/>
+      <c r="V2" s="50"/>
+      <c r="W2" s="50"/>
+      <c r="X2" s="50"/>
+      <c r="Y2" s="50"/>
+      <c r="Z2" s="50"/>
+      <c r="AA2" s="50"/>
+      <c r="AB2" s="50"/>
+      <c r="AC2" s="50"/>
+      <c r="AD2" s="50"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="48" t="s">
+        <v>716</v>
+      </c>
+      <c r="B3" s="49" t="s">
+        <v>717</v>
+      </c>
+      <c r="C3" s="49" t="s">
+        <v>718</v>
+      </c>
+      <c r="D3" s="49" t="s">
+        <v>675</v>
+      </c>
+      <c r="E3" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="52">
+        <v>45958.0</v>
+      </c>
+      <c r="L3" s="50"/>
+      <c r="M3" s="49" t="s">
+        <v>714</v>
+      </c>
+      <c r="N3" s="49" t="s">
+        <v>715</v>
+      </c>
+      <c r="O3" s="50"/>
+      <c r="P3" s="50"/>
+      <c r="Q3" s="50"/>
+      <c r="R3" s="50"/>
+      <c r="S3" s="50"/>
+      <c r="T3" s="50"/>
+      <c r="U3" s="50"/>
+      <c r="V3" s="50"/>
+      <c r="W3" s="50"/>
+      <c r="X3" s="50"/>
+      <c r="Y3" s="50"/>
+      <c r="Z3" s="50"/>
+      <c r="AA3" s="50"/>
+      <c r="AB3" s="50"/>
+      <c r="AC3" s="50"/>
+      <c r="AD3" s="50"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="48" t="s">
+        <v>619</v>
+      </c>
+      <c r="B4" s="49" t="s">
+        <v>719</v>
+      </c>
+      <c r="C4" s="49" t="s">
+        <v>720</v>
+      </c>
+      <c r="D4" s="49" t="s">
+        <v>660</v>
+      </c>
+      <c r="E4" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="52">
+        <v>45958.0</v>
+      </c>
+      <c r="L4" s="50"/>
+      <c r="M4" s="49" t="s">
+        <v>714</v>
+      </c>
+      <c r="N4" s="49" t="s">
+        <v>715</v>
+      </c>
+      <c r="O4" s="50"/>
+      <c r="P4" s="50"/>
+      <c r="Q4" s="50"/>
+      <c r="R4" s="50"/>
+      <c r="S4" s="50"/>
+      <c r="T4" s="50"/>
+      <c r="U4" s="50"/>
+      <c r="V4" s="50"/>
+      <c r="W4" s="50"/>
+      <c r="X4" s="50"/>
+      <c r="Y4" s="50"/>
+      <c r="Z4" s="50"/>
+      <c r="AA4" s="50"/>
+      <c r="AB4" s="50"/>
+      <c r="AC4" s="50"/>
+      <c r="AD4" s="50"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="49" t="s">
+        <v>721</v>
+      </c>
+      <c r="B5" s="49" t="s">
+        <v>719</v>
+      </c>
+      <c r="C5" s="49" t="s">
+        <v>722</v>
+      </c>
+      <c r="D5" s="49" t="s">
+        <v>723</v>
+      </c>
+      <c r="E5" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="50"/>
+      <c r="K5" s="52">
+        <v>45958.0</v>
+      </c>
+      <c r="L5" s="50"/>
+      <c r="M5" s="49" t="s">
+        <v>714</v>
+      </c>
+      <c r="N5" s="49" t="s">
+        <v>715</v>
+      </c>
+      <c r="O5" s="50"/>
+      <c r="P5" s="50"/>
+      <c r="Q5" s="50"/>
+      <c r="R5" s="50"/>
+      <c r="S5" s="50"/>
+      <c r="T5" s="50"/>
+      <c r="U5" s="50"/>
+      <c r="V5" s="50"/>
+      <c r="W5" s="50"/>
+      <c r="X5" s="50"/>
+      <c r="Y5" s="50"/>
+      <c r="Z5" s="50"/>
+      <c r="AA5" s="50"/>
+      <c r="AB5" s="50"/>
+      <c r="AC5" s="50"/>
+      <c r="AD5" s="50"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="48" t="s">
+        <v>724</v>
+      </c>
+      <c r="B6" s="48" t="s">
+        <v>725</v>
+      </c>
+      <c r="C6" s="49" t="s">
+        <v>726</v>
+      </c>
+      <c r="D6" s="49" t="s">
+        <v>564</v>
+      </c>
+      <c r="E6" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="52">
+        <v>45958.0</v>
+      </c>
+      <c r="L6" s="50"/>
+      <c r="M6" s="49" t="s">
+        <v>714</v>
+      </c>
+      <c r="N6" s="49" t="s">
+        <v>715</v>
+      </c>
+      <c r="O6" s="50"/>
+      <c r="P6" s="50"/>
+      <c r="Q6" s="50"/>
+      <c r="R6" s="50"/>
+      <c r="S6" s="50"/>
+      <c r="T6" s="50"/>
+      <c r="U6" s="50"/>
+      <c r="V6" s="50"/>
+      <c r="W6" s="50"/>
+      <c r="X6" s="50"/>
+      <c r="Y6" s="50"/>
+      <c r="Z6" s="50"/>
+      <c r="AA6" s="50"/>
+      <c r="AB6" s="50"/>
+      <c r="AC6" s="50"/>
+      <c r="AD6" s="50"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="49" t="s">
+        <v>727</v>
+      </c>
+      <c r="B7" s="49" t="s">
+        <v>728</v>
+      </c>
+      <c r="C7" s="49" t="s">
+        <v>729</v>
+      </c>
+      <c r="D7" s="49" t="s">
+        <v>564</v>
+      </c>
+      <c r="E7" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="52">
+        <v>45958.0</v>
+      </c>
+      <c r="L7" s="50"/>
+      <c r="M7" s="49" t="s">
+        <v>714</v>
+      </c>
+      <c r="N7" s="49" t="s">
+        <v>715</v>
+      </c>
+      <c r="O7" s="50"/>
+      <c r="P7" s="50"/>
+      <c r="Q7" s="50"/>
+      <c r="R7" s="50"/>
+      <c r="S7" s="50"/>
+      <c r="T7" s="50"/>
+      <c r="U7" s="50"/>
+      <c r="V7" s="50"/>
+      <c r="W7" s="50"/>
+      <c r="X7" s="50"/>
+      <c r="Y7" s="50"/>
+      <c r="Z7" s="50"/>
+      <c r="AA7" s="50"/>
+      <c r="AB7" s="50"/>
+      <c r="AC7" s="50"/>
+      <c r="AD7" s="50"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="49" t="s">
+        <v>730</v>
+      </c>
+      <c r="B8" s="49" t="s">
+        <v>731</v>
+      </c>
+      <c r="C8" s="49" t="s">
+        <v>732</v>
+      </c>
+      <c r="D8" s="49" t="s">
+        <v>560</v>
+      </c>
+      <c r="E8" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="52">
+        <v>45958.0</v>
+      </c>
+      <c r="L8" s="53"/>
+      <c r="M8" s="49" t="s">
+        <v>714</v>
+      </c>
+      <c r="N8" s="49" t="s">
+        <v>715</v>
+      </c>
+      <c r="O8" s="50"/>
+      <c r="P8" s="50"/>
+      <c r="Q8" s="50"/>
+      <c r="R8" s="50"/>
+      <c r="S8" s="50"/>
+      <c r="T8" s="50"/>
+      <c r="U8" s="50"/>
+      <c r="V8" s="50"/>
+      <c r="W8" s="50"/>
+      <c r="X8" s="50"/>
+      <c r="Y8" s="50"/>
+      <c r="Z8" s="50"/>
+      <c r="AA8" s="50"/>
+      <c r="AB8" s="50"/>
+      <c r="AC8" s="50"/>
+      <c r="AD8" s="50"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="49" t="s">
+        <v>733</v>
+      </c>
+      <c r="B9" s="49" t="s">
+        <v>734</v>
+      </c>
+      <c r="C9" s="49" t="s">
+        <v>735</v>
+      </c>
+      <c r="D9" s="49" t="s">
+        <v>736</v>
+      </c>
+      <c r="E9" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="52">
+        <v>45958.0</v>
+      </c>
+      <c r="L9" s="53"/>
+      <c r="M9" s="49" t="s">
+        <v>714</v>
+      </c>
+      <c r="N9" s="49" t="s">
+        <v>715</v>
+      </c>
+      <c r="O9" s="50"/>
+      <c r="P9" s="50"/>
+      <c r="Q9" s="50"/>
+      <c r="R9" s="50"/>
+      <c r="S9" s="50"/>
+      <c r="T9" s="50"/>
+      <c r="U9" s="50"/>
+      <c r="V9" s="50"/>
+      <c r="W9" s="50"/>
+      <c r="X9" s="50"/>
+      <c r="Y9" s="50"/>
+      <c r="Z9" s="50"/>
+      <c r="AA9" s="50"/>
+      <c r="AB9" s="50"/>
+      <c r="AC9" s="50"/>
+      <c r="AD9" s="50"/>
+    </row>
+    <row r="10">
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+    </row>
+    <row r="11">
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+    </row>
+    <row r="12">
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+    </row>
+    <row r="13">
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+    </row>
+    <row r="15">
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+    </row>
+    <row r="16">
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+    </row>
+    <row r="17">
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+    </row>
+    <row r="18">
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+    </row>
+    <row r="19">
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+    </row>
+    <row r="20">
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+    </row>
+    <row r="21">
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+    </row>
+    <row r="22">
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+    </row>
+    <row r="23">
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+    </row>
+    <row r="24">
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+    </row>
+    <row r="25">
+      <c r="K25" s="8"/>
+    </row>
+    <row r="26">
+      <c r="K26" s="8"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="D27" s="30"/>
+      <c r="K27" s="8"/>
+    </row>
+    <row r="28">
+      <c r="D28" s="30"/>
+      <c r="K28" s="8"/>
+    </row>
+    <row r="29">
+      <c r="D29" s="30"/>
+      <c r="K29" s="8"/>
+    </row>
+    <row r="30">
+      <c r="D30" s="30"/>
+      <c r="K30" s="8"/>
+    </row>
+    <row r="31">
+      <c r="D31" s="30"/>
+      <c r="K31" s="8"/>
+    </row>
+    <row r="32">
+      <c r="K32" s="8"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="43"/>
+      <c r="H33" s="43"/>
+      <c r="I33" s="43"/>
+      <c r="J33" s="43"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="43"/>
+      <c r="M33" s="5"/>
+      <c r="P33" s="43"/>
+      <c r="Q33" s="43"/>
+      <c r="R33" s="43"/>
+      <c r="S33" s="43"/>
+      <c r="T33" s="43"/>
+      <c r="U33" s="43"/>
+      <c r="V33" s="43"/>
+      <c r="W33" s="43"/>
+      <c r="X33" s="43"/>
+      <c r="Y33" s="43"/>
+      <c r="Z33" s="43"/>
+      <c r="AA33" s="43"/>
+      <c r="AB33" s="43"/>
+      <c r="AC33" s="43"/>
+      <c r="AD33" s="43"/>
+    </row>
+    <row r="34">
+      <c r="K34" s="8"/>
+    </row>
+    <row r="35">
+      <c r="K35" s="8"/>
+    </row>
+    <row r="36">
+      <c r="K36" s="8"/>
+    </row>
+    <row r="37">
+      <c r="K37" s="8"/>
+    </row>
+    <row r="38">
+      <c r="K38" s="8"/>
+    </row>
+    <row r="39">
+      <c r="K39" s="8"/>
+    </row>
+    <row r="40">
+      <c r="K40" s="8"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="5"/>
+      <c r="B41" s="5"/>
+      <c r="K41" s="8"/>
+    </row>
+    <row r="42">
+      <c r="K42" s="8"/>
+    </row>
+    <row r="43">
+      <c r="K43" s="8"/>
+    </row>
+    <row r="44">
+      <c r="K44" s="8"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="5"/>
+      <c r="B45" s="5"/>
+      <c r="K45" s="8"/>
+    </row>
+    <row r="46">
+      <c r="K46" s="8"/>
+    </row>
+    <row r="47">
+      <c r="K47" s="8"/>
+    </row>
+    <row r="48">
+      <c r="K48" s="8"/>
+    </row>
+    <row r="49">
+      <c r="K49" s="8"/>
+    </row>
+    <row r="50">
+      <c r="K50" s="8"/>
+    </row>
+    <row r="51">
+      <c r="K51" s="8"/>
+    </row>
+    <row r="52">
+      <c r="K52" s="8"/>
+    </row>
+    <row r="53">
+      <c r="K53" s="8"/>
+    </row>
+    <row r="54">
+      <c r="K54" s="8"/>
+    </row>
+    <row r="55">
+      <c r="K55" s="8"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="5"/>
+      <c r="B56" s="5"/>
+      <c r="K56" s="8"/>
+    </row>
+    <row r="57">
+      <c r="K57" s="8"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="32"/>
+      <c r="B58" s="32"/>
+      <c r="K58" s="8"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="32"/>
+      <c r="B59" s="32"/>
+      <c r="K59" s="8"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="32"/>
+      <c r="B60" s="32"/>
+      <c r="K60" s="8"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="32"/>
+      <c r="B61" s="32"/>
+      <c r="K61" s="8"/>
+    </row>
+    <row r="62">
+      <c r="K62" s="8"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="5"/>
+      <c r="B63" s="5"/>
+      <c r="K63" s="8"/>
+    </row>
+    <row r="64">
+      <c r="K64" s="8"/>
+    </row>
+    <row r="65">
+      <c r="K65" s="8"/>
+    </row>
+    <row r="66">
+      <c r="K66" s="8"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="5"/>
+      <c r="B67" s="5"/>
+      <c r="K67" s="8"/>
+    </row>
+    <row r="68">
+      <c r="K68" s="8"/>
+    </row>
+    <row r="69">
+      <c r="K69" s="8"/>
+    </row>
+    <row r="70">
+      <c r="K70" s="8"/>
+    </row>
+    <row r="71">
+      <c r="K71" s="8"/>
+    </row>
+    <row r="72">
+      <c r="K72" s="8"/>
+    </row>
+    <row r="73">
+      <c r="K73" s="8"/>
+    </row>
+    <row r="74">
+      <c r="K74" s="8"/>
+    </row>
+    <row r="75">
+      <c r="K75" s="8"/>
+    </row>
+    <row r="76">
+      <c r="K76" s="8"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="5"/>
+      <c r="B77" s="5"/>
+      <c r="C77" s="5"/>
+      <c r="D77" s="5"/>
+      <c r="E77" s="43"/>
+      <c r="F77" s="43"/>
+      <c r="G77" s="43"/>
+      <c r="H77" s="43"/>
+      <c r="I77" s="43"/>
+      <c r="J77" s="43"/>
+      <c r="K77" s="8"/>
+      <c r="L77" s="43"/>
+      <c r="M77" s="5"/>
+      <c r="P77" s="43"/>
+      <c r="Q77" s="43"/>
+      <c r="R77" s="43"/>
+      <c r="S77" s="43"/>
+      <c r="T77" s="43"/>
+      <c r="U77" s="43"/>
+      <c r="V77" s="43"/>
+      <c r="W77" s="43"/>
+      <c r="X77" s="43"/>
+      <c r="Y77" s="43"/>
+      <c r="Z77" s="43"/>
+      <c r="AA77" s="43"/>
+      <c r="AB77" s="43"/>
+      <c r="AC77" s="43"/>
+      <c r="AD77" s="43"/>
+    </row>
+    <row r="78">
+      <c r="K78" s="8"/>
+    </row>
+    <row r="79">
+      <c r="K79" s="8"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="31"/>
+      <c r="B80" s="31"/>
+      <c r="C80" s="32"/>
+      <c r="D80" s="33"/>
+      <c r="K80" s="8"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="44"/>
+      <c r="B81" s="44"/>
+      <c r="C81" s="44"/>
+      <c r="D81" s="45"/>
+      <c r="K81" s="8"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="44"/>
+      <c r="B82" s="44"/>
+      <c r="C82" s="44"/>
+      <c r="D82" s="45"/>
+      <c r="K82" s="8"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="44"/>
+      <c r="B83" s="44"/>
+      <c r="C83" s="44"/>
+      <c r="D83" s="45"/>
+      <c r="K83" s="8"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="44"/>
+      <c r="B84" s="44"/>
+      <c r="C84" s="44"/>
+      <c r="D84" s="45"/>
+      <c r="K84" s="8"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="46"/>
+      <c r="B85" s="46"/>
+      <c r="C85" s="46"/>
+      <c r="D85" s="45"/>
+      <c r="K85" s="8"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="44"/>
+      <c r="B86" s="44"/>
+      <c r="C86" s="44"/>
+      <c r="D86" s="47"/>
+      <c r="K86" s="8"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="44"/>
+      <c r="B87" s="44"/>
+      <c r="C87" s="44"/>
+      <c r="D87" s="45"/>
+      <c r="K87" s="8"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="J2:J4">
+    <cfRule type="expression" dxfId="4" priority="1">
+      <formula>$M2="modified"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:A4">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>#REF!="proposed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:A4">
+    <cfRule type="expression" dxfId="0" priority="3">
+      <formula>#REF!="accepted"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:AD224 A5:A224">
+    <cfRule type="expression" dxfId="0" priority="4">
+      <formula>$M2="accepted"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:AB190 A5:A190">
+    <cfRule type="expression" dxfId="1" priority="5">
+      <formula>$M2="proposed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:D7 E2:E12 F2:L7 M2:O224 P2:AB7 AC2:AD28 A5:A7 K10 K13 K16 K19 K22 A25:C28 D25:D26 E25:E31 F25:L28 P25:AB28 K31 K34 K37 K40 A42:L43 P42:AD43 K46 K48:K51 K53 K56 K60 K64 A67:L224 P67:AD224">
+    <cfRule type="expression" dxfId="2" priority="6">
+      <formula>$M2="changed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:D7 E2:E12 F2:L7 M2:O224 P2:AB7 AC2:AD28 A5:A7 K10 K13 K16 K19 K22 A25:C28 D25:D26 E25:E31 F25:L28 P25:AB28 K31 K34 K37 K40 A42:L43 P42:AD43 K46 K48:K51 K53 K56 K60 K64 A67:L224 P67:AD224">
+    <cfRule type="expression" dxfId="3" priority="7">
+      <formula>$M2="deprecated"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1.0" ySplit="1.0" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="B1" sqref="B1" pane="topRight"/>
+      <selection activeCell="A2" sqref="A2" pane="bottomLeft"/>
+      <selection activeCell="B2" sqref="B2" pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="29.88"/>
+    <col customWidth="1" min="2" max="2" width="31.88"/>
     <col customWidth="1" min="3" max="3" width="60.88"/>
     <col customWidth="1" min="9" max="9" width="43.13"/>
   </cols>
@@ -8212,26 +9176,26 @@
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
-        <v>711</v>
+        <v>737</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>711</v>
+        <v>737</v>
       </c>
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
     </row>
     <row r="3">
       <c r="A3" s="6" t="s">
-        <v>712</v>
+        <v>738</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>713</v>
+        <v>739</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>714</v>
+        <v>740</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>715</v>
+        <v>741</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>16</v>
@@ -8241,7 +9205,7 @@
       </c>
       <c r="L3" s="8"/>
       <c r="M3" s="6" t="s">
-        <v>716</v>
+        <v>742</v>
       </c>
       <c r="N3" s="6" t="s">
         <v>39</v>
@@ -8252,16 +9216,16 @@
     </row>
     <row r="4">
       <c r="A4" s="6" t="s">
-        <v>717</v>
+        <v>743</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>718</v>
+        <v>744</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>719</v>
+        <v>745</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>715</v>
+        <v>741</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>16</v>
@@ -8271,7 +9235,7 @@
       </c>
       <c r="L4" s="8"/>
       <c r="M4" s="6" t="s">
-        <v>716</v>
+        <v>742</v>
       </c>
       <c r="N4" s="6" t="s">
         <v>39</v>
@@ -8282,16 +9246,16 @@
     </row>
     <row r="5">
       <c r="A5" s="6" t="s">
-        <v>720</v>
+        <v>746</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>721</v>
+        <v>747</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>722</v>
+        <v>748</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>715</v>
+        <v>741</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>16</v>
@@ -8301,7 +9265,7 @@
       </c>
       <c r="L5" s="8"/>
       <c r="M5" s="6" t="s">
-        <v>716</v>
+        <v>742</v>
       </c>
       <c r="N5" s="6" t="s">
         <v>39</v>
@@ -8312,16 +9276,16 @@
     </row>
     <row r="6">
       <c r="A6" s="6" t="s">
-        <v>723</v>
+        <v>749</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>724</v>
+        <v>750</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>725</v>
+        <v>751</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>715</v>
+        <v>741</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>16</v>
@@ -8331,7 +9295,7 @@
       </c>
       <c r="L6" s="8"/>
       <c r="M6" s="6" t="s">
-        <v>716</v>
+        <v>742</v>
       </c>
       <c r="N6" s="6" t="s">
         <v>39</v>
@@ -8342,16 +9306,16 @@
     </row>
     <row r="7">
       <c r="A7" s="6" t="s">
-        <v>726</v>
+        <v>752</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>727</v>
+        <v>753</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>728</v>
+        <v>754</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>715</v>
+        <v>741</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>16</v>
@@ -8361,7 +9325,7 @@
       </c>
       <c r="L7" s="8"/>
       <c r="M7" s="6" t="s">
-        <v>716</v>
+        <v>742</v>
       </c>
       <c r="N7" s="6" t="s">
         <v>39</v>
@@ -8372,16 +9336,16 @@
     </row>
     <row r="8">
       <c r="A8" s="6" t="s">
-        <v>729</v>
+        <v>755</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>730</v>
+        <v>756</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>731</v>
+        <v>757</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>715</v>
+        <v>741</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>16</v>
@@ -8391,7 +9355,7 @@
       </c>
       <c r="L8" s="8"/>
       <c r="M8" s="6" t="s">
-        <v>716</v>
+        <v>742</v>
       </c>
       <c r="N8" s="6" t="s">
         <v>39</v>
@@ -8402,16 +9366,16 @@
     </row>
     <row r="9">
       <c r="A9" s="6" t="s">
-        <v>732</v>
+        <v>758</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>733</v>
+        <v>759</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>734</v>
+        <v>760</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>715</v>
+        <v>741</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>16</v>
@@ -8421,7 +9385,7 @@
       </c>
       <c r="L9" s="8"/>
       <c r="M9" s="6" t="s">
-        <v>716</v>
+        <v>742</v>
       </c>
       <c r="N9" s="6" t="s">
         <v>39</v>
@@ -8432,16 +9396,16 @@
     </row>
     <row r="10">
       <c r="A10" s="6" t="s">
-        <v>735</v>
+        <v>761</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>736</v>
+        <v>762</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>737</v>
+        <v>763</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>715</v>
+        <v>741</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>16</v>
@@ -8451,7 +9415,7 @@
       </c>
       <c r="L10" s="8"/>
       <c r="M10" s="6" t="s">
-        <v>716</v>
+        <v>742</v>
       </c>
       <c r="N10" s="6" t="s">
         <v>39</v>
@@ -8462,16 +9426,16 @@
     </row>
     <row r="11">
       <c r="A11" s="6" t="s">
-        <v>738</v>
+        <v>764</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>739</v>
+        <v>765</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>740</v>
+        <v>766</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>715</v>
+        <v>741</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>16</v>
@@ -8481,7 +9445,7 @@
       </c>
       <c r="L11" s="8"/>
       <c r="M11" s="6" t="s">
-        <v>716</v>
+        <v>742</v>
       </c>
       <c r="N11" s="6" t="s">
         <v>39</v>
@@ -8492,16 +9456,16 @@
     </row>
     <row r="12">
       <c r="A12" s="6" t="s">
-        <v>741</v>
+        <v>767</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>742</v>
+        <v>768</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>743</v>
+        <v>769</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>744</v>
+        <v>770</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>16</v>
@@ -8511,7 +9475,7 @@
       </c>
       <c r="L12" s="8"/>
       <c r="M12" s="6" t="s">
-        <v>716</v>
+        <v>742</v>
       </c>
       <c r="N12" s="6" t="s">
         <v>39</v>
@@ -8522,16 +9486,16 @@
     </row>
     <row r="13">
       <c r="A13" s="6" t="s">
-        <v>745</v>
+        <v>771</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>746</v>
+        <v>772</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>747</v>
+        <v>773</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>748</v>
+        <v>774</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>16</v>
@@ -8540,7 +9504,7 @@
         <v>44727.0</v>
       </c>
       <c r="M13" s="6" t="s">
-        <v>716</v>
+        <v>742</v>
       </c>
       <c r="N13" s="6" t="s">
         <v>39</v>
@@ -8551,16 +9515,16 @@
     </row>
     <row r="14">
       <c r="A14" s="24" t="s">
-        <v>749</v>
+        <v>775</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>750</v>
-      </c>
-      <c r="C14" s="48" t="s">
-        <v>751</v>
-      </c>
-      <c r="D14" s="49" t="s">
-        <v>715</v>
+        <v>776</v>
+      </c>
+      <c r="C14" s="54" t="s">
+        <v>777</v>
+      </c>
+      <c r="D14" s="55" t="s">
+        <v>741</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>16</v>
@@ -8570,12 +9534,12 @@
       <c r="H14" s="11"/>
       <c r="I14" s="11"/>
       <c r="J14" s="24" t="s">
-        <v>752</v>
+        <v>778</v>
       </c>
       <c r="K14" s="11"/>
       <c r="L14" s="11"/>
       <c r="M14" s="6" t="s">
-        <v>716</v>
+        <v>742</v>
       </c>
       <c r="N14" s="11"/>
       <c r="O14" s="11"/>
@@ -8598,18 +9562,18 @@
     </row>
     <row r="16">
       <c r="A16" s="5" t="s">
-        <v>753</v>
+        <v>779</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="6" t="s">
-        <v>754</v>
+        <v>780</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>755</v>
+        <v>781</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>756</v>
+        <v>782</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>16</v>
@@ -8618,7 +9582,7 @@
         <v>44727.0</v>
       </c>
       <c r="M17" s="6" t="s">
-        <v>716</v>
+        <v>742</v>
       </c>
       <c r="N17" s="6" t="s">
         <v>39</v>
@@ -8629,13 +9593,13 @@
     </row>
     <row r="18">
       <c r="A18" s="6" t="s">
-        <v>757</v>
+        <v>783</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>758</v>
+        <v>784</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>759</v>
+        <v>785</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>16</v>
@@ -8645,7 +9609,7 @@
       </c>
       <c r="L18" s="8"/>
       <c r="M18" s="6" t="s">
-        <v>716</v>
+        <v>742</v>
       </c>
       <c r="N18" s="6" t="s">
         <v>39</v>
@@ -8656,13 +9620,13 @@
     </row>
     <row r="19">
       <c r="A19" s="6" t="s">
-        <v>760</v>
+        <v>786</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>761</v>
+        <v>787</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>762</v>
+        <v>788</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>16</v>
@@ -8672,7 +9636,7 @@
       </c>
       <c r="L19" s="8"/>
       <c r="M19" s="6" t="s">
-        <v>716</v>
+        <v>742</v>
       </c>
       <c r="N19" s="6" t="s">
         <v>39</v>
@@ -8683,13 +9647,13 @@
     </row>
     <row r="20">
       <c r="A20" s="6" t="s">
-        <v>763</v>
+        <v>789</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>764</v>
+        <v>790</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>765</v>
+        <v>791</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>16</v>
@@ -8699,7 +9663,7 @@
       </c>
       <c r="L20" s="8"/>
       <c r="M20" s="6" t="s">
-        <v>716</v>
+        <v>742</v>
       </c>
       <c r="N20" s="6" t="s">
         <v>39</v>
@@ -8710,13 +9674,13 @@
     </row>
     <row r="21">
       <c r="A21" s="6" t="s">
-        <v>766</v>
+        <v>792</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>767</v>
+        <v>793</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>768</v>
+        <v>794</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>16</v>
@@ -8726,7 +9690,7 @@
       </c>
       <c r="L21" s="8"/>
       <c r="M21" s="6" t="s">
-        <v>716</v>
+        <v>742</v>
       </c>
       <c r="N21" s="6" t="s">
         <v>39</v>
@@ -8737,13 +9701,13 @@
     </row>
     <row r="22">
       <c r="A22" s="6" t="s">
-        <v>769</v>
+        <v>795</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>770</v>
+        <v>796</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>771</v>
+        <v>797</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>16</v>
@@ -8753,7 +9717,7 @@
       </c>
       <c r="L22" s="8"/>
       <c r="M22" s="6" t="s">
-        <v>716</v>
+        <v>742</v>
       </c>
       <c r="N22" s="6" t="s">
         <v>39</v>
@@ -8764,10 +9728,10 @@
     </row>
     <row r="24">
       <c r="A24" s="5" t="s">
-        <v>772</v>
+        <v>798</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>772</v>
+        <v>798</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="30"/>
@@ -8776,16 +9740,16 @@
     </row>
     <row r="25">
       <c r="A25" s="6" t="s">
-        <v>773</v>
+        <v>799</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>774</v>
+        <v>800</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>775</v>
+        <v>801</v>
       </c>
       <c r="D25" s="30" t="s">
-        <v>776</v>
+        <v>802</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>16</v>
@@ -8794,7 +9758,7 @@
         <v>44727.0</v>
       </c>
       <c r="M25" s="6" t="s">
-        <v>716</v>
+        <v>742</v>
       </c>
       <c r="N25" s="6" t="s">
         <v>39</v>
@@ -8805,16 +9769,16 @@
     </row>
     <row r="26">
       <c r="A26" s="6" t="s">
-        <v>777</v>
+        <v>803</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>778</v>
+        <v>804</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>779</v>
+        <v>805</v>
       </c>
       <c r="D26" s="30" t="s">
-        <v>776</v>
+        <v>802</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>16</v>
@@ -8823,7 +9787,7 @@
         <v>44727.0</v>
       </c>
       <c r="M26" s="6" t="s">
-        <v>716</v>
+        <v>742</v>
       </c>
       <c r="N26" s="6" t="s">
         <v>39</v>
@@ -8834,16 +9798,16 @@
     </row>
     <row r="27">
       <c r="A27" s="6" t="s">
-        <v>780</v>
+        <v>806</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>781</v>
+        <v>807</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>782</v>
+        <v>808</v>
       </c>
       <c r="D27" s="30" t="s">
-        <v>776</v>
+        <v>802</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>16</v>
@@ -8852,7 +9816,7 @@
         <v>44727.0</v>
       </c>
       <c r="M27" s="6" t="s">
-        <v>716</v>
+        <v>742</v>
       </c>
       <c r="N27" s="6" t="s">
         <v>39</v>
@@ -8869,10 +9833,10 @@
         <v>550</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>783</v>
+        <v>809</v>
       </c>
       <c r="D28" s="30" t="s">
-        <v>776</v>
+        <v>802</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>16</v>
@@ -8881,7 +9845,7 @@
         <v>44727.0</v>
       </c>
       <c r="M28" s="6" t="s">
-        <v>716</v>
+        <v>742</v>
       </c>
       <c r="N28" s="6" t="s">
         <v>39</v>
@@ -8892,10 +9856,10 @@
     </row>
     <row r="30">
       <c r="A30" s="5" t="s">
-        <v>784</v>
+        <v>810</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>784</v>
+        <v>810</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
@@ -8926,16 +9890,16 @@
     </row>
     <row r="31">
       <c r="A31" s="6" t="s">
-        <v>785</v>
+        <v>811</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>786</v>
+        <v>812</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>787</v>
+        <v>813</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>788</v>
+        <v>814</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>16</v>
@@ -8944,10 +9908,10 @@
         <v>44727.0</v>
       </c>
       <c r="M31" s="6" t="s">
-        <v>716</v>
+        <v>742</v>
       </c>
       <c r="N31" s="6" t="s">
-        <v>789</v>
+        <v>815</v>
       </c>
       <c r="O31" s="9" t="s">
         <v>28</v>
@@ -8955,16 +9919,16 @@
     </row>
     <row r="32">
       <c r="A32" s="6" t="s">
-        <v>790</v>
+        <v>816</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>791</v>
+        <v>817</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>792</v>
+        <v>818</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>788</v>
+        <v>814</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>16</v>
@@ -8973,10 +9937,10 @@
         <v>44727.0</v>
       </c>
       <c r="M32" s="6" t="s">
-        <v>716</v>
+        <v>742</v>
       </c>
       <c r="N32" s="6" t="s">
-        <v>789</v>
+        <v>815</v>
       </c>
       <c r="O32" s="9" t="s">
         <v>28</v>
@@ -8984,16 +9948,16 @@
     </row>
     <row r="33">
       <c r="A33" s="6" t="s">
-        <v>793</v>
+        <v>819</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>794</v>
+        <v>820</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>795</v>
+        <v>821</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>788</v>
+        <v>814</v>
       </c>
       <c r="E33" s="6" t="s">
         <v>16</v>
@@ -9002,10 +9966,10 @@
         <v>44727.0</v>
       </c>
       <c r="M33" s="6" t="s">
-        <v>716</v>
+        <v>742</v>
       </c>
       <c r="N33" s="6" t="s">
-        <v>789</v>
+        <v>815</v>
       </c>
       <c r="O33" s="9" t="s">
         <v>28</v>
@@ -9013,16 +9977,16 @@
     </row>
     <row r="34">
       <c r="A34" s="6" t="s">
-        <v>796</v>
+        <v>822</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>797</v>
+        <v>823</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>798</v>
+        <v>824</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>788</v>
+        <v>814</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>16</v>
@@ -9031,10 +9995,10 @@
         <v>44727.0</v>
       </c>
       <c r="M34" s="6" t="s">
-        <v>716</v>
+        <v>742</v>
       </c>
       <c r="N34" s="6" t="s">
-        <v>789</v>
+        <v>815</v>
       </c>
       <c r="O34" s="9" t="s">
         <v>28</v>
@@ -9042,16 +10006,16 @@
     </row>
     <row r="35">
       <c r="A35" s="6" t="s">
-        <v>799</v>
+        <v>825</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>800</v>
+        <v>826</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>801</v>
+        <v>827</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>788</v>
+        <v>814</v>
       </c>
       <c r="E35" s="6" t="s">
         <v>16</v>
@@ -9060,10 +10024,10 @@
         <v>44727.0</v>
       </c>
       <c r="M35" s="6" t="s">
-        <v>716</v>
+        <v>742</v>
       </c>
       <c r="N35" s="6" t="s">
-        <v>789</v>
+        <v>815</v>
       </c>
       <c r="O35" s="9" t="s">
         <v>28</v>
@@ -9071,16 +10035,16 @@
     </row>
     <row r="36">
       <c r="A36" s="6" t="s">
-        <v>802</v>
+        <v>828</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>803</v>
+        <v>829</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>804</v>
+        <v>830</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>805</v>
+        <v>831</v>
       </c>
       <c r="E36" s="6" t="s">
         <v>16</v>
@@ -9089,10 +10053,10 @@
         <v>44727.0</v>
       </c>
       <c r="M36" s="6" t="s">
-        <v>716</v>
+        <v>742</v>
       </c>
       <c r="N36" s="6" t="s">
-        <v>789</v>
+        <v>815</v>
       </c>
       <c r="O36" s="9" t="s">
         <v>28</v>
@@ -9100,37 +10064,37 @@
     </row>
     <row r="38">
       <c r="A38" s="5" t="s">
-        <v>806</v>
+        <v>832</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>806</v>
+        <v>832</v>
       </c>
       <c r="K38" s="8"/>
     </row>
     <row r="39">
       <c r="A39" s="6" t="s">
-        <v>807</v>
+        <v>833</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>808</v>
+        <v>834</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>809</v>
+        <v>835</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>810</v>
+        <v>836</v>
       </c>
       <c r="E39" s="6" t="s">
         <v>16</v>
       </c>
       <c r="I39" s="6" t="s">
-        <v>811</v>
+        <v>837</v>
       </c>
       <c r="K39" s="8">
         <v>44727.0</v>
       </c>
       <c r="M39" s="6" t="s">
-        <v>716</v>
+        <v>742</v>
       </c>
       <c r="N39" s="6" t="s">
         <v>39</v>
@@ -9141,28 +10105,28 @@
     </row>
     <row r="40">
       <c r="A40" s="6" t="s">
-        <v>812</v>
+        <v>838</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>813</v>
+        <v>839</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>814</v>
+        <v>840</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>810</v>
+        <v>836</v>
       </c>
       <c r="E40" s="6" t="s">
         <v>16</v>
       </c>
       <c r="I40" s="6" t="s">
-        <v>815</v>
+        <v>841</v>
       </c>
       <c r="K40" s="8">
         <v>44727.0</v>
       </c>
       <c r="M40" s="6" t="s">
-        <v>716</v>
+        <v>742</v>
       </c>
       <c r="N40" s="6" t="s">
         <v>39</v>
@@ -9173,21 +10137,21 @@
     </row>
     <row r="42">
       <c r="A42" s="5" t="s">
-        <v>816</v>
+        <v>842</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="32" t="s">
-        <v>817</v>
+        <v>843</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>818</v>
+        <v>844</v>
       </c>
       <c r="C43" s="32" t="s">
-        <v>819</v>
+        <v>845</v>
       </c>
       <c r="D43" s="35" t="s">
-        <v>820</v>
+        <v>846</v>
       </c>
       <c r="E43" s="6" t="s">
         <v>16</v>
@@ -9196,7 +10160,7 @@
         <v>44727.0</v>
       </c>
       <c r="M43" s="6" t="s">
-        <v>716</v>
+        <v>742</v>
       </c>
       <c r="N43" s="6" t="s">
         <v>39</v>
@@ -9206,17 +10170,17 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="50" t="s">
-        <v>821</v>
-      </c>
-      <c r="B44" s="50" t="s">
-        <v>822</v>
-      </c>
-      <c r="C44" s="51" t="s">
-        <v>823</v>
-      </c>
-      <c r="D44" s="52" t="s">
-        <v>824</v>
+      <c r="A44" s="56" t="s">
+        <v>847</v>
+      </c>
+      <c r="B44" s="56" t="s">
+        <v>848</v>
+      </c>
+      <c r="C44" s="57" t="s">
+        <v>849</v>
+      </c>
+      <c r="D44" s="58" t="s">
+        <v>850</v>
       </c>
       <c r="E44" s="11" t="s">
         <v>16</v>
@@ -9226,17 +10190,17 @@
       <c r="H44" s="11"/>
       <c r="I44" s="11"/>
       <c r="J44" s="11"/>
-      <c r="K44" s="53">
+      <c r="K44" s="59">
         <v>44727.0</v>
       </c>
       <c r="L44" s="11"/>
       <c r="M44" s="6" t="s">
-        <v>716</v>
+        <v>742</v>
       </c>
       <c r="N44" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="O44" s="54" t="s">
+      <c r="O44" s="60" t="s">
         <v>28</v>
       </c>
       <c r="P44" s="11"/>
@@ -9256,17 +10220,17 @@
       <c r="AD44" s="11"/>
     </row>
     <row r="45">
-      <c r="A45" s="50" t="s">
-        <v>825</v>
-      </c>
-      <c r="B45" s="50" t="s">
-        <v>826</v>
-      </c>
-      <c r="C45" s="51" t="s">
-        <v>827</v>
-      </c>
-      <c r="D45" s="55" t="s">
-        <v>828</v>
+      <c r="A45" s="56" t="s">
+        <v>851</v>
+      </c>
+      <c r="B45" s="56" t="s">
+        <v>852</v>
+      </c>
+      <c r="C45" s="57" t="s">
+        <v>853</v>
+      </c>
+      <c r="D45" s="61" t="s">
+        <v>854</v>
       </c>
       <c r="E45" s="11" t="s">
         <v>16</v>
@@ -9276,17 +10240,17 @@
       <c r="H45" s="11"/>
       <c r="I45" s="11"/>
       <c r="J45" s="11"/>
-      <c r="K45" s="53">
+      <c r="K45" s="59">
         <v>44727.0</v>
       </c>
       <c r="L45" s="11"/>
       <c r="M45" s="6" t="s">
-        <v>716</v>
+        <v>742</v>
       </c>
       <c r="N45" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="O45" s="54" t="s">
+      <c r="O45" s="60" t="s">
         <v>28</v>
       </c>
       <c r="P45" s="11"/>
@@ -9306,17 +10270,17 @@
       <c r="AD45" s="11"/>
     </row>
     <row r="46">
-      <c r="A46" s="50" t="s">
-        <v>829</v>
-      </c>
-      <c r="B46" s="50" t="s">
-        <v>830</v>
-      </c>
-      <c r="C46" s="56" t="s">
-        <v>831</v>
-      </c>
-      <c r="D46" s="55" t="s">
-        <v>832</v>
+      <c r="A46" s="56" t="s">
+        <v>855</v>
+      </c>
+      <c r="B46" s="56" t="s">
+        <v>856</v>
+      </c>
+      <c r="C46" s="62" t="s">
+        <v>857</v>
+      </c>
+      <c r="D46" s="61" t="s">
+        <v>858</v>
       </c>
       <c r="E46" s="11" t="s">
         <v>16</v>
@@ -9326,17 +10290,17 @@
       <c r="H46" s="11"/>
       <c r="I46" s="11"/>
       <c r="J46" s="11"/>
-      <c r="K46" s="53">
+      <c r="K46" s="59">
         <v>44727.0</v>
       </c>
       <c r="L46" s="11"/>
       <c r="M46" s="6" t="s">
-        <v>716</v>
+        <v>742</v>
       </c>
       <c r="N46" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="O46" s="54" t="s">
+      <c r="O46" s="60" t="s">
         <v>28</v>
       </c>
       <c r="P46" s="11"/>

--- a/code/vocab_csv/tech.xlsx
+++ b/code/vocab_csv/tech.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1967" uniqueCount="859">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1967" uniqueCount="858">
   <si>
     <t>Term</t>
   </si>
@@ -2198,9 +2198,6 @@
   </si>
   <si>
     <t>Technical service, such as an online portal or application, that allows data subjects to access their electronic health data or the electronic health data of those natural persons whose electronic health data they are legally authorised to access</t>
-  </si>
-  <si>
-    <t>proposed</t>
   </si>
   <si>
     <t>Beatriz Esteves</t>
@@ -2809,7 +2806,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2964,6 +2961,9 @@
     </xf>
     <xf borderId="0" fillId="4" fontId="13" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
@@ -8345,11 +8345,11 @@
         <v>45958.0</v>
       </c>
       <c r="L2" s="50"/>
-      <c r="M2" s="49" t="s">
+      <c r="M2" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="49" t="s">
         <v>714</v>
-      </c>
-      <c r="N2" s="49" t="s">
-        <v>715</v>
       </c>
       <c r="O2" s="50"/>
       <c r="P2" s="50"/>
@@ -8370,13 +8370,13 @@
     </row>
     <row r="3">
       <c r="A3" s="48" t="s">
+        <v>715</v>
+      </c>
+      <c r="B3" s="49" t="s">
         <v>716</v>
       </c>
-      <c r="B3" s="49" t="s">
+      <c r="C3" s="49" t="s">
         <v>717</v>
-      </c>
-      <c r="C3" s="49" t="s">
-        <v>718</v>
       </c>
       <c r="D3" s="49" t="s">
         <v>675</v>
@@ -8393,11 +8393,11 @@
         <v>45958.0</v>
       </c>
       <c r="L3" s="50"/>
-      <c r="M3" s="49" t="s">
+      <c r="M3" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" s="49" t="s">
         <v>714</v>
-      </c>
-      <c r="N3" s="49" t="s">
-        <v>715</v>
       </c>
       <c r="O3" s="50"/>
       <c r="P3" s="50"/>
@@ -8421,10 +8421,10 @@
         <v>619</v>
       </c>
       <c r="B4" s="49" t="s">
+        <v>718</v>
+      </c>
+      <c r="C4" s="49" t="s">
         <v>719</v>
-      </c>
-      <c r="C4" s="49" t="s">
-        <v>720</v>
       </c>
       <c r="D4" s="49" t="s">
         <v>660</v>
@@ -8441,11 +8441,11 @@
         <v>45958.0</v>
       </c>
       <c r="L4" s="50"/>
-      <c r="M4" s="49" t="s">
+      <c r="M4" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4" s="49" t="s">
         <v>714</v>
-      </c>
-      <c r="N4" s="49" t="s">
-        <v>715</v>
       </c>
       <c r="O4" s="50"/>
       <c r="P4" s="50"/>
@@ -8466,16 +8466,16 @@
     </row>
     <row r="5">
       <c r="A5" s="49" t="s">
+        <v>720</v>
+      </c>
+      <c r="B5" s="49" t="s">
+        <v>718</v>
+      </c>
+      <c r="C5" s="49" t="s">
         <v>721</v>
       </c>
-      <c r="B5" s="49" t="s">
-        <v>719</v>
-      </c>
-      <c r="C5" s="49" t="s">
+      <c r="D5" s="49" t="s">
         <v>722</v>
-      </c>
-      <c r="D5" s="49" t="s">
-        <v>723</v>
       </c>
       <c r="E5" s="49" t="s">
         <v>16</v>
@@ -8489,11 +8489,11 @@
         <v>45958.0</v>
       </c>
       <c r="L5" s="50"/>
-      <c r="M5" s="49" t="s">
+      <c r="M5" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5" s="49" t="s">
         <v>714</v>
-      </c>
-      <c r="N5" s="49" t="s">
-        <v>715</v>
       </c>
       <c r="O5" s="50"/>
       <c r="P5" s="50"/>
@@ -8514,13 +8514,13 @@
     </row>
     <row r="6">
       <c r="A6" s="48" t="s">
+        <v>723</v>
+      </c>
+      <c r="B6" s="48" t="s">
         <v>724</v>
       </c>
-      <c r="B6" s="48" t="s">
+      <c r="C6" s="49" t="s">
         <v>725</v>
-      </c>
-      <c r="C6" s="49" t="s">
-        <v>726</v>
       </c>
       <c r="D6" s="49" t="s">
         <v>564</v>
@@ -8537,11 +8537,11 @@
         <v>45958.0</v>
       </c>
       <c r="L6" s="50"/>
-      <c r="M6" s="49" t="s">
+      <c r="M6" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="N6" s="49" t="s">
         <v>714</v>
-      </c>
-      <c r="N6" s="49" t="s">
-        <v>715</v>
       </c>
       <c r="O6" s="50"/>
       <c r="P6" s="50"/>
@@ -8562,13 +8562,13 @@
     </row>
     <row r="7">
       <c r="A7" s="49" t="s">
+        <v>726</v>
+      </c>
+      <c r="B7" s="49" t="s">
         <v>727</v>
       </c>
-      <c r="B7" s="49" t="s">
+      <c r="C7" s="49" t="s">
         <v>728</v>
-      </c>
-      <c r="C7" s="49" t="s">
-        <v>729</v>
       </c>
       <c r="D7" s="49" t="s">
         <v>564</v>
@@ -8585,11 +8585,11 @@
         <v>45958.0</v>
       </c>
       <c r="L7" s="50"/>
-      <c r="M7" s="49" t="s">
+      <c r="M7" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="N7" s="49" t="s">
         <v>714</v>
-      </c>
-      <c r="N7" s="49" t="s">
-        <v>715</v>
       </c>
       <c r="O7" s="50"/>
       <c r="P7" s="50"/>
@@ -8610,13 +8610,13 @@
     </row>
     <row r="8">
       <c r="A8" s="49" t="s">
+        <v>729</v>
+      </c>
+      <c r="B8" s="49" t="s">
         <v>730</v>
       </c>
-      <c r="B8" s="49" t="s">
+      <c r="C8" s="49" t="s">
         <v>731</v>
-      </c>
-      <c r="C8" s="49" t="s">
-        <v>732</v>
       </c>
       <c r="D8" s="49" t="s">
         <v>560</v>
@@ -8632,12 +8632,12 @@
       <c r="K8" s="52">
         <v>45958.0</v>
       </c>
-      <c r="L8" s="53"/>
-      <c r="M8" s="49" t="s">
+      <c r="L8" s="54"/>
+      <c r="M8" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="N8" s="49" t="s">
         <v>714</v>
-      </c>
-      <c r="N8" s="49" t="s">
-        <v>715</v>
       </c>
       <c r="O8" s="50"/>
       <c r="P8" s="50"/>
@@ -8658,16 +8658,16 @@
     </row>
     <row r="9">
       <c r="A9" s="49" t="s">
+        <v>732</v>
+      </c>
+      <c r="B9" s="49" t="s">
         <v>733</v>
       </c>
-      <c r="B9" s="49" t="s">
+      <c r="C9" s="49" t="s">
         <v>734</v>
       </c>
-      <c r="C9" s="49" t="s">
+      <c r="D9" s="49" t="s">
         <v>735</v>
-      </c>
-      <c r="D9" s="49" t="s">
-        <v>736</v>
       </c>
       <c r="E9" s="49" t="s">
         <v>16</v>
@@ -8680,12 +8680,12 @@
       <c r="K9" s="52">
         <v>45958.0</v>
       </c>
-      <c r="L9" s="53"/>
-      <c r="M9" s="49" t="s">
+      <c r="L9" s="54"/>
+      <c r="M9" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="N9" s="49" t="s">
         <v>714</v>
-      </c>
-      <c r="N9" s="49" t="s">
-        <v>715</v>
       </c>
       <c r="O9" s="50"/>
       <c r="P9" s="50"/>
@@ -9176,26 +9176,26 @@
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
     </row>
     <row r="3">
       <c r="A3" s="6" t="s">
+        <v>737</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>738</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="C3" s="6" t="s">
         <v>739</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="D3" s="6" t="s">
         <v>740</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>741</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>16</v>
@@ -9205,7 +9205,7 @@
       </c>
       <c r="L3" s="8"/>
       <c r="M3" s="6" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="N3" s="6" t="s">
         <v>39</v>
@@ -9216,16 +9216,16 @@
     </row>
     <row r="4">
       <c r="A4" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>743</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="C4" s="6" t="s">
         <v>744</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>745</v>
-      </c>
       <c r="D4" s="6" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>16</v>
@@ -9235,7 +9235,7 @@
       </c>
       <c r="L4" s="8"/>
       <c r="M4" s="6" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="N4" s="6" t="s">
         <v>39</v>
@@ -9246,16 +9246,16 @@
     </row>
     <row r="5">
       <c r="A5" s="6" t="s">
+        <v>745</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>746</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="C5" s="6" t="s">
         <v>747</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>748</v>
-      </c>
       <c r="D5" s="6" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>16</v>
@@ -9265,7 +9265,7 @@
       </c>
       <c r="L5" s="8"/>
       <c r="M5" s="6" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="N5" s="6" t="s">
         <v>39</v>
@@ -9276,16 +9276,16 @@
     </row>
     <row r="6">
       <c r="A6" s="6" t="s">
+        <v>748</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>749</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="C6" s="6" t="s">
         <v>750</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>751</v>
-      </c>
       <c r="D6" s="6" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>16</v>
@@ -9295,7 +9295,7 @@
       </c>
       <c r="L6" s="8"/>
       <c r="M6" s="6" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="N6" s="6" t="s">
         <v>39</v>
@@ -9306,16 +9306,16 @@
     </row>
     <row r="7">
       <c r="A7" s="6" t="s">
+        <v>751</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>752</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="C7" s="6" t="s">
         <v>753</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>754</v>
-      </c>
       <c r="D7" s="6" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>16</v>
@@ -9325,7 +9325,7 @@
       </c>
       <c r="L7" s="8"/>
       <c r="M7" s="6" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="N7" s="6" t="s">
         <v>39</v>
@@ -9336,16 +9336,16 @@
     </row>
     <row r="8">
       <c r="A8" s="6" t="s">
+        <v>754</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>755</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="C8" s="6" t="s">
         <v>756</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>757</v>
-      </c>
       <c r="D8" s="6" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>16</v>
@@ -9355,7 +9355,7 @@
       </c>
       <c r="L8" s="8"/>
       <c r="M8" s="6" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="N8" s="6" t="s">
         <v>39</v>
@@ -9366,16 +9366,16 @@
     </row>
     <row r="9">
       <c r="A9" s="6" t="s">
+        <v>757</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>758</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="C9" s="6" t="s">
         <v>759</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>760</v>
-      </c>
       <c r="D9" s="6" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>16</v>
@@ -9385,7 +9385,7 @@
       </c>
       <c r="L9" s="8"/>
       <c r="M9" s="6" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="N9" s="6" t="s">
         <v>39</v>
@@ -9396,16 +9396,16 @@
     </row>
     <row r="10">
       <c r="A10" s="6" t="s">
+        <v>760</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>761</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="C10" s="6" t="s">
         <v>762</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>763</v>
-      </c>
       <c r="D10" s="6" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>16</v>
@@ -9415,7 +9415,7 @@
       </c>
       <c r="L10" s="8"/>
       <c r="M10" s="6" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="N10" s="6" t="s">
         <v>39</v>
@@ -9426,16 +9426,16 @@
     </row>
     <row r="11">
       <c r="A11" s="6" t="s">
+        <v>763</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>764</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="C11" s="6" t="s">
         <v>765</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>766</v>
-      </c>
       <c r="D11" s="6" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>16</v>
@@ -9445,7 +9445,7 @@
       </c>
       <c r="L11" s="8"/>
       <c r="M11" s="6" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="N11" s="6" t="s">
         <v>39</v>
@@ -9456,16 +9456,16 @@
     </row>
     <row r="12">
       <c r="A12" s="6" t="s">
+        <v>766</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>767</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="C12" s="6" t="s">
         <v>768</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="D12" s="6" t="s">
         <v>769</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>770</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>16</v>
@@ -9475,7 +9475,7 @@
       </c>
       <c r="L12" s="8"/>
       <c r="M12" s="6" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="N12" s="6" t="s">
         <v>39</v>
@@ -9486,16 +9486,16 @@
     </row>
     <row r="13">
       <c r="A13" s="6" t="s">
+        <v>770</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>771</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="C13" s="6" t="s">
         <v>772</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="D13" s="6" t="s">
         <v>773</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>774</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>16</v>
@@ -9504,7 +9504,7 @@
         <v>44727.0</v>
       </c>
       <c r="M13" s="6" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="N13" s="6" t="s">
         <v>39</v>
@@ -9515,16 +9515,16 @@
     </row>
     <row r="14">
       <c r="A14" s="24" t="s">
+        <v>774</v>
+      </c>
+      <c r="B14" s="24" t="s">
         <v>775</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="C14" s="55" t="s">
         <v>776</v>
       </c>
-      <c r="C14" s="54" t="s">
-        <v>777</v>
-      </c>
-      <c r="D14" s="55" t="s">
-        <v>741</v>
+      <c r="D14" s="56" t="s">
+        <v>740</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>16</v>
@@ -9534,12 +9534,12 @@
       <c r="H14" s="11"/>
       <c r="I14" s="11"/>
       <c r="J14" s="24" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="K14" s="11"/>
       <c r="L14" s="11"/>
       <c r="M14" s="6" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="N14" s="11"/>
       <c r="O14" s="11"/>
@@ -9562,18 +9562,18 @@
     </row>
     <row r="16">
       <c r="A16" s="5" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="6" t="s">
+        <v>779</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>780</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="C17" s="6" t="s">
         <v>781</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>782</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>16</v>
@@ -9582,7 +9582,7 @@
         <v>44727.0</v>
       </c>
       <c r="M17" s="6" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="N17" s="6" t="s">
         <v>39</v>
@@ -9593,13 +9593,13 @@
     </row>
     <row r="18">
       <c r="A18" s="6" t="s">
+        <v>782</v>
+      </c>
+      <c r="B18" s="6" t="s">
         <v>783</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="C18" s="6" t="s">
         <v>784</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>785</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>16</v>
@@ -9609,7 +9609,7 @@
       </c>
       <c r="L18" s="8"/>
       <c r="M18" s="6" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="N18" s="6" t="s">
         <v>39</v>
@@ -9620,13 +9620,13 @@
     </row>
     <row r="19">
       <c r="A19" s="6" t="s">
+        <v>785</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>786</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="C19" s="6" t="s">
         <v>787</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>788</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>16</v>
@@ -9636,7 +9636,7 @@
       </c>
       <c r="L19" s="8"/>
       <c r="M19" s="6" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="N19" s="6" t="s">
         <v>39</v>
@@ -9647,13 +9647,13 @@
     </row>
     <row r="20">
       <c r="A20" s="6" t="s">
+        <v>788</v>
+      </c>
+      <c r="B20" s="6" t="s">
         <v>789</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="C20" s="6" t="s">
         <v>790</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>791</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>16</v>
@@ -9663,7 +9663,7 @@
       </c>
       <c r="L20" s="8"/>
       <c r="M20" s="6" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="N20" s="6" t="s">
         <v>39</v>
@@ -9674,13 +9674,13 @@
     </row>
     <row r="21">
       <c r="A21" s="6" t="s">
+        <v>791</v>
+      </c>
+      <c r="B21" s="6" t="s">
         <v>792</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="C21" s="6" t="s">
         <v>793</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>794</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>16</v>
@@ -9690,7 +9690,7 @@
       </c>
       <c r="L21" s="8"/>
       <c r="M21" s="6" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="N21" s="6" t="s">
         <v>39</v>
@@ -9701,13 +9701,13 @@
     </row>
     <row r="22">
       <c r="A22" s="6" t="s">
+        <v>794</v>
+      </c>
+      <c r="B22" s="6" t="s">
         <v>795</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="C22" s="6" t="s">
         <v>796</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>797</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>16</v>
@@ -9717,7 +9717,7 @@
       </c>
       <c r="L22" s="8"/>
       <c r="M22" s="6" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="N22" s="6" t="s">
         <v>39</v>
@@ -9728,10 +9728,10 @@
     </row>
     <row r="24">
       <c r="A24" s="5" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="30"/>
@@ -9740,16 +9740,16 @@
     </row>
     <row r="25">
       <c r="A25" s="6" t="s">
+        <v>798</v>
+      </c>
+      <c r="B25" s="6" t="s">
         <v>799</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="C25" s="6" t="s">
         <v>800</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="D25" s="30" t="s">
         <v>801</v>
-      </c>
-      <c r="D25" s="30" t="s">
-        <v>802</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>16</v>
@@ -9758,7 +9758,7 @@
         <v>44727.0</v>
       </c>
       <c r="M25" s="6" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="N25" s="6" t="s">
         <v>39</v>
@@ -9769,16 +9769,16 @@
     </row>
     <row r="26">
       <c r="A26" s="6" t="s">
+        <v>802</v>
+      </c>
+      <c r="B26" s="6" t="s">
         <v>803</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="C26" s="6" t="s">
         <v>804</v>
       </c>
-      <c r="C26" s="6" t="s">
-        <v>805</v>
-      </c>
       <c r="D26" s="30" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>16</v>
@@ -9787,7 +9787,7 @@
         <v>44727.0</v>
       </c>
       <c r="M26" s="6" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="N26" s="6" t="s">
         <v>39</v>
@@ -9798,16 +9798,16 @@
     </row>
     <row r="27">
       <c r="A27" s="6" t="s">
+        <v>805</v>
+      </c>
+      <c r="B27" s="6" t="s">
         <v>806</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="C27" s="6" t="s">
         <v>807</v>
       </c>
-      <c r="C27" s="6" t="s">
-        <v>808</v>
-      </c>
       <c r="D27" s="30" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>16</v>
@@ -9816,7 +9816,7 @@
         <v>44727.0</v>
       </c>
       <c r="M27" s="6" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="N27" s="6" t="s">
         <v>39</v>
@@ -9833,10 +9833,10 @@
         <v>550</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="D28" s="30" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>16</v>
@@ -9845,7 +9845,7 @@
         <v>44727.0</v>
       </c>
       <c r="M28" s="6" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="N28" s="6" t="s">
         <v>39</v>
@@ -9856,10 +9856,10 @@
     </row>
     <row r="30">
       <c r="A30" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
@@ -9890,16 +9890,16 @@
     </row>
     <row r="31">
       <c r="A31" s="6" t="s">
+        <v>810</v>
+      </c>
+      <c r="B31" s="6" t="s">
         <v>811</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="C31" s="6" t="s">
         <v>812</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="D31" s="6" t="s">
         <v>813</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>814</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>16</v>
@@ -9908,10 +9908,10 @@
         <v>44727.0</v>
       </c>
       <c r="M31" s="6" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="N31" s="6" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="O31" s="9" t="s">
         <v>28</v>
@@ -9919,16 +9919,16 @@
     </row>
     <row r="32">
       <c r="A32" s="6" t="s">
+        <v>815</v>
+      </c>
+      <c r="B32" s="6" t="s">
         <v>816</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="C32" s="6" t="s">
         <v>817</v>
       </c>
-      <c r="C32" s="6" t="s">
-        <v>818</v>
-      </c>
       <c r="D32" s="6" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>16</v>
@@ -9937,10 +9937,10 @@
         <v>44727.0</v>
       </c>
       <c r="M32" s="6" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="N32" s="6" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="O32" s="9" t="s">
         <v>28</v>
@@ -9948,16 +9948,16 @@
     </row>
     <row r="33">
       <c r="A33" s="6" t="s">
+        <v>818</v>
+      </c>
+      <c r="B33" s="6" t="s">
         <v>819</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="C33" s="6" t="s">
         <v>820</v>
       </c>
-      <c r="C33" s="6" t="s">
-        <v>821</v>
-      </c>
       <c r="D33" s="6" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="E33" s="6" t="s">
         <v>16</v>
@@ -9966,10 +9966,10 @@
         <v>44727.0</v>
       </c>
       <c r="M33" s="6" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="N33" s="6" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="O33" s="9" t="s">
         <v>28</v>
@@ -9977,16 +9977,16 @@
     </row>
     <row r="34">
       <c r="A34" s="6" t="s">
+        <v>821</v>
+      </c>
+      <c r="B34" s="6" t="s">
         <v>822</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="C34" s="6" t="s">
         <v>823</v>
       </c>
-      <c r="C34" s="6" t="s">
-        <v>824</v>
-      </c>
       <c r="D34" s="6" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>16</v>
@@ -9995,10 +9995,10 @@
         <v>44727.0</v>
       </c>
       <c r="M34" s="6" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="N34" s="6" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="O34" s="9" t="s">
         <v>28</v>
@@ -10006,16 +10006,16 @@
     </row>
     <row r="35">
       <c r="A35" s="6" t="s">
+        <v>824</v>
+      </c>
+      <c r="B35" s="6" t="s">
         <v>825</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="C35" s="6" t="s">
         <v>826</v>
       </c>
-      <c r="C35" s="6" t="s">
-        <v>827</v>
-      </c>
       <c r="D35" s="6" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="E35" s="6" t="s">
         <v>16</v>
@@ -10024,10 +10024,10 @@
         <v>44727.0</v>
       </c>
       <c r="M35" s="6" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="N35" s="6" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="O35" s="9" t="s">
         <v>28</v>
@@ -10035,16 +10035,16 @@
     </row>
     <row r="36">
       <c r="A36" s="6" t="s">
+        <v>827</v>
+      </c>
+      <c r="B36" s="6" t="s">
         <v>828</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="C36" s="6" t="s">
         <v>829</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="D36" s="6" t="s">
         <v>830</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>831</v>
       </c>
       <c r="E36" s="6" t="s">
         <v>16</v>
@@ -10053,10 +10053,10 @@
         <v>44727.0</v>
       </c>
       <c r="M36" s="6" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="N36" s="6" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="O36" s="9" t="s">
         <v>28</v>
@@ -10064,37 +10064,37 @@
     </row>
     <row r="38">
       <c r="A38" s="5" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="K38" s="8"/>
     </row>
     <row r="39">
       <c r="A39" s="6" t="s">
+        <v>832</v>
+      </c>
+      <c r="B39" s="6" t="s">
         <v>833</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="C39" s="6" t="s">
         <v>834</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="D39" s="6" t="s">
         <v>835</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>836</v>
       </c>
       <c r="E39" s="6" t="s">
         <v>16</v>
       </c>
       <c r="I39" s="6" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="K39" s="8">
         <v>44727.0</v>
       </c>
       <c r="M39" s="6" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="N39" s="6" t="s">
         <v>39</v>
@@ -10105,28 +10105,28 @@
     </row>
     <row r="40">
       <c r="A40" s="6" t="s">
+        <v>837</v>
+      </c>
+      <c r="B40" s="6" t="s">
         <v>838</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="C40" s="6" t="s">
         <v>839</v>
       </c>
-      <c r="C40" s="6" t="s">
-        <v>840</v>
-      </c>
       <c r="D40" s="6" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="E40" s="6" t="s">
         <v>16</v>
       </c>
       <c r="I40" s="6" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="K40" s="8">
         <v>44727.0</v>
       </c>
       <c r="M40" s="6" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="N40" s="6" t="s">
         <v>39</v>
@@ -10137,21 +10137,21 @@
     </row>
     <row r="42">
       <c r="A42" s="5" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="32" t="s">
+        <v>842</v>
+      </c>
+      <c r="B43" s="18" t="s">
         <v>843</v>
       </c>
-      <c r="B43" s="18" t="s">
+      <c r="C43" s="32" t="s">
         <v>844</v>
       </c>
-      <c r="C43" s="32" t="s">
+      <c r="D43" s="35" t="s">
         <v>845</v>
-      </c>
-      <c r="D43" s="35" t="s">
-        <v>846</v>
       </c>
       <c r="E43" s="6" t="s">
         <v>16</v>
@@ -10160,7 +10160,7 @@
         <v>44727.0</v>
       </c>
       <c r="M43" s="6" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="N43" s="6" t="s">
         <v>39</v>
@@ -10170,17 +10170,17 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="56" t="s">
+      <c r="A44" s="57" t="s">
+        <v>846</v>
+      </c>
+      <c r="B44" s="57" t="s">
         <v>847</v>
       </c>
-      <c r="B44" s="56" t="s">
+      <c r="C44" s="58" t="s">
         <v>848</v>
       </c>
-      <c r="C44" s="57" t="s">
+      <c r="D44" s="59" t="s">
         <v>849</v>
-      </c>
-      <c r="D44" s="58" t="s">
-        <v>850</v>
       </c>
       <c r="E44" s="11" t="s">
         <v>16</v>
@@ -10190,17 +10190,17 @@
       <c r="H44" s="11"/>
       <c r="I44" s="11"/>
       <c r="J44" s="11"/>
-      <c r="K44" s="59">
+      <c r="K44" s="60">
         <v>44727.0</v>
       </c>
       <c r="L44" s="11"/>
       <c r="M44" s="6" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="N44" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="O44" s="60" t="s">
+      <c r="O44" s="61" t="s">
         <v>28</v>
       </c>
       <c r="P44" s="11"/>
@@ -10220,17 +10220,17 @@
       <c r="AD44" s="11"/>
     </row>
     <row r="45">
-      <c r="A45" s="56" t="s">
+      <c r="A45" s="57" t="s">
+        <v>850</v>
+      </c>
+      <c r="B45" s="57" t="s">
         <v>851</v>
       </c>
-      <c r="B45" s="56" t="s">
+      <c r="C45" s="58" t="s">
         <v>852</v>
       </c>
-      <c r="C45" s="57" t="s">
+      <c r="D45" s="62" t="s">
         <v>853</v>
-      </c>
-      <c r="D45" s="61" t="s">
-        <v>854</v>
       </c>
       <c r="E45" s="11" t="s">
         <v>16</v>
@@ -10240,17 +10240,17 @@
       <c r="H45" s="11"/>
       <c r="I45" s="11"/>
       <c r="J45" s="11"/>
-      <c r="K45" s="59">
+      <c r="K45" s="60">
         <v>44727.0</v>
       </c>
       <c r="L45" s="11"/>
       <c r="M45" s="6" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="N45" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="O45" s="60" t="s">
+      <c r="O45" s="61" t="s">
         <v>28</v>
       </c>
       <c r="P45" s="11"/>
@@ -10270,17 +10270,17 @@
       <c r="AD45" s="11"/>
     </row>
     <row r="46">
-      <c r="A46" s="56" t="s">
+      <c r="A46" s="57" t="s">
+        <v>854</v>
+      </c>
+      <c r="B46" s="57" t="s">
         <v>855</v>
       </c>
-      <c r="B46" s="56" t="s">
+      <c r="C46" s="63" t="s">
         <v>856</v>
       </c>
-      <c r="C46" s="62" t="s">
+      <c r="D46" s="62" t="s">
         <v>857</v>
-      </c>
-      <c r="D46" s="61" t="s">
-        <v>858</v>
       </c>
       <c r="E46" s="11" t="s">
         <v>16</v>
@@ -10290,17 +10290,17 @@
       <c r="H46" s="11"/>
       <c r="I46" s="11"/>
       <c r="J46" s="11"/>
-      <c r="K46" s="59">
+      <c r="K46" s="60">
         <v>44727.0</v>
       </c>
       <c r="L46" s="11"/>
       <c r="M46" s="6" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="N46" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="O46" s="60" t="s">
+      <c r="O46" s="61" t="s">
         <v>28</v>
       </c>
       <c r="P46" s="11"/>
